--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNgo.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNgo.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="83">
   <si>
     <t>Week</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>trainning</t>
+  </si>
+  <si>
+    <t>meetting with faculty</t>
   </si>
 </sst>
 </file>
@@ -654,6 +657,60 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -663,14 +720,50 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -680,96 +773,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1169,10 +1172,10 @@
   <dimension ref="A1:M193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1193,77 +1196,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="46"/>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="48"/>
+      <c r="A1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="39"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="49" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="42"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="54"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="45"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="57"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="48"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="72"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="69"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="2"/>
@@ -1301,10 +1304,10 @@
       <c r="I6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
@@ -1330,20 +1333,20 @@
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="25"/>
-      <c r="J7" s="64" t="s">
+      <c r="J7" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="64"/>
+      <c r="K7" s="61"/>
       <c r="L7" s="26">
         <f>SUM(L8:L43)</f>
-        <v>16.95</v>
+        <v>15.95</v>
       </c>
       <c r="M7" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="66">
+      <c r="A8" s="63">
         <v>2</v>
       </c>
       <c r="B8" s="5">
@@ -1379,7 +1382,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="67"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="5">
         <v>41589</v>
       </c>
@@ -1406,7 +1409,7 @@
       <c r="M9" s="27"/>
     </row>
     <row r="10" spans="1:13" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="67"/>
+      <c r="A10" s="64"/>
       <c r="B10" s="5">
         <v>41590</v>
       </c>
@@ -1433,14 +1436,14 @@
       <c r="K10" s="23"/>
       <c r="L10" s="30">
         <f>SUM(E8:E18)</f>
-        <v>15.95</v>
+        <v>14.95</v>
       </c>
       <c r="M10" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="67"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="5">
         <v>41590</v>
       </c>
@@ -1467,7 +1470,7 @@
       <c r="M11" s="27"/>
     </row>
     <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="5">
         <v>41591</v>
       </c>
@@ -1484,7 +1487,7 @@
       <c r="M12" s="27"/>
     </row>
     <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="67"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="5">
         <v>41592</v>
       </c>
@@ -1498,7 +1501,7 @@
         <v>1.3</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="G13" s="23" t="s">
         <v>75</v>
@@ -1518,7 +1521,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="67"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="5">
         <v>41592</v>
       </c>
@@ -1552,7 +1555,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="67"/>
+      <c r="A15" s="64"/>
       <c r="B15" s="5">
         <v>41593</v>
       </c>
@@ -1579,7 +1582,7 @@
       <c r="M15" s="27"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="67"/>
+      <c r="A16" s="64"/>
       <c r="B16" s="5">
         <v>41594</v>
       </c>
@@ -1590,7 +1593,7 @@
         <v>77</v>
       </c>
       <c r="E16" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="17" t="s">
         <v>28</v>
@@ -1606,7 +1609,7 @@
       <c r="M16" s="27"/>
     </row>
     <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="5">
         <v>41594</v>
       </c>
@@ -1633,7 +1636,7 @@
       <c r="M17" s="27"/>
     </row>
     <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="68"/>
+      <c r="A18" s="65"/>
       <c r="B18" s="5">
         <v>41595</v>
       </c>
@@ -1657,7 +1660,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="69">
+      <c r="A19" s="66">
         <v>3</v>
       </c>
       <c r="B19" s="12">
@@ -1683,7 +1686,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="69"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="12">
         <v>41597</v>
       </c>
@@ -1707,7 +1710,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="69"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="12">
         <v>41598</v>
       </c>
@@ -1731,7 +1734,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="69"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="12">
         <v>41599</v>
       </c>
@@ -1755,7 +1758,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="69"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="12">
         <v>41600</v>
       </c>
@@ -1779,7 +1782,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="37">
+      <c r="A24" s="49">
         <v>4</v>
       </c>
       <c r="B24" s="5">
@@ -1805,7 +1808,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="5">
         <v>41604</v>
       </c>
@@ -1829,7 +1832,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="5">
         <v>41605</v>
       </c>
@@ -1853,7 +1856,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="5">
         <v>41606</v>
       </c>
@@ -1877,7 +1880,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
+      <c r="A28" s="51"/>
       <c r="B28" s="5">
         <v>41607</v>
       </c>
@@ -1901,7 +1904,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="34">
+      <c r="A29" s="52">
         <v>5</v>
       </c>
       <c r="B29" s="12">
@@ -1927,7 +1930,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="12">
         <v>41611</v>
       </c>
@@ -1951,7 +1954,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
+      <c r="A31" s="53"/>
       <c r="B31" s="12">
         <v>41612</v>
       </c>
@@ -1975,7 +1978,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="12">
         <v>41613</v>
       </c>
@@ -1999,7 +2002,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="36"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="12">
         <v>41614</v>
       </c>
@@ -2023,7 +2026,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="37">
+      <c r="A34" s="49">
         <v>6</v>
       </c>
       <c r="B34" s="5">
@@ -2049,7 +2052,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
+      <c r="A35" s="50"/>
       <c r="B35" s="5">
         <v>41618</v>
       </c>
@@ -2073,7 +2076,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
+      <c r="A36" s="50"/>
       <c r="B36" s="5">
         <v>41619</v>
       </c>
@@ -2097,7 +2100,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
+      <c r="A37" s="50"/>
       <c r="B37" s="5">
         <v>41620</v>
       </c>
@@ -2121,7 +2124,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
+      <c r="A38" s="51"/>
       <c r="B38" s="5">
         <v>41621</v>
       </c>
@@ -2145,7 +2148,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="34">
+      <c r="A39" s="52">
         <v>7</v>
       </c>
       <c r="B39" s="12">
@@ -2171,7 +2174,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="35"/>
+      <c r="A40" s="53"/>
       <c r="B40" s="12">
         <v>41625</v>
       </c>
@@ -2195,7 +2198,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
+      <c r="A41" s="53"/>
       <c r="B41" s="12">
         <v>41626</v>
       </c>
@@ -2219,7 +2222,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="35"/>
+      <c r="A42" s="53"/>
       <c r="B42" s="12">
         <v>41627</v>
       </c>
@@ -2243,7 +2246,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="36"/>
+      <c r="A43" s="54"/>
       <c r="B43" s="12">
         <v>41628</v>
       </c>
@@ -2267,7 +2270,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="37">
+      <c r="A44" s="49">
         <v>8</v>
       </c>
       <c r="B44" s="5">
@@ -2286,7 +2289,7 @@
       <c r="M44" s="33"/>
     </row>
     <row r="45" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="38"/>
+      <c r="A45" s="50"/>
       <c r="B45" s="5">
         <v>41632</v>
       </c>
@@ -2303,7 +2306,7 @@
       <c r="M45" s="33"/>
     </row>
     <row r="46" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="38"/>
+      <c r="A46" s="50"/>
       <c r="B46" s="5">
         <v>41633</v>
       </c>
@@ -2320,7 +2323,7 @@
       <c r="M46" s="33"/>
     </row>
     <row r="47" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="38"/>
+      <c r="A47" s="50"/>
       <c r="B47" s="5">
         <v>41634</v>
       </c>
@@ -2337,7 +2340,7 @@
       <c r="M47" s="33"/>
     </row>
     <row r="48" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="39"/>
+      <c r="A48" s="51"/>
       <c r="B48" s="5">
         <v>41635</v>
       </c>
@@ -2354,7 +2357,7 @@
       <c r="M48" s="33"/>
     </row>
     <row r="49" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="34">
+      <c r="A49" s="52">
         <v>9</v>
       </c>
       <c r="B49" s="12">
@@ -2373,7 +2376,7 @@
       <c r="M49" s="33"/>
     </row>
     <row r="50" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="35"/>
+      <c r="A50" s="53"/>
       <c r="B50" s="12">
         <v>41639</v>
       </c>
@@ -2390,7 +2393,7 @@
       <c r="M50" s="33"/>
     </row>
     <row r="51" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="35"/>
+      <c r="A51" s="53"/>
       <c r="B51" s="12">
         <v>41640</v>
       </c>
@@ -2407,7 +2410,7 @@
       <c r="M51" s="33"/>
     </row>
     <row r="52" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="35"/>
+      <c r="A52" s="53"/>
       <c r="B52" s="12">
         <v>41641</v>
       </c>
@@ -2424,7 +2427,7 @@
       <c r="M52" s="33"/>
     </row>
     <row r="53" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="36"/>
+      <c r="A53" s="54"/>
       <c r="B53" s="12">
         <v>41642</v>
       </c>
@@ -2441,7 +2444,7 @@
       <c r="M53" s="33"/>
     </row>
     <row r="54" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="37">
+      <c r="A54" s="49">
         <v>10</v>
       </c>
       <c r="B54" s="5">
@@ -2460,7 +2463,7 @@
       <c r="M54" s="33"/>
     </row>
     <row r="55" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="38"/>
+      <c r="A55" s="50"/>
       <c r="B55" s="5">
         <v>41646</v>
       </c>
@@ -2477,7 +2480,7 @@
       <c r="M55" s="33"/>
     </row>
     <row r="56" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="38"/>
+      <c r="A56" s="50"/>
       <c r="B56" s="5">
         <v>41647</v>
       </c>
@@ -2494,7 +2497,7 @@
       <c r="M56" s="33"/>
     </row>
     <row r="57" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="38"/>
+      <c r="A57" s="50"/>
       <c r="B57" s="5">
         <v>41648</v>
       </c>
@@ -2511,7 +2514,7 @@
       <c r="M57" s="33"/>
     </row>
     <row r="58" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="39"/>
+      <c r="A58" s="51"/>
       <c r="B58" s="5">
         <v>41649</v>
       </c>
@@ -2528,7 +2531,7 @@
       <c r="M58" s="33"/>
     </row>
     <row r="59" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="34">
+      <c r="A59" s="52">
         <v>11</v>
       </c>
       <c r="B59" s="12">
@@ -2547,7 +2550,7 @@
       <c r="M59" s="33"/>
     </row>
     <row r="60" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="35"/>
+      <c r="A60" s="53"/>
       <c r="B60" s="12">
         <v>41653</v>
       </c>
@@ -2564,7 +2567,7 @@
       <c r="M60" s="33"/>
     </row>
     <row r="61" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="35"/>
+      <c r="A61" s="53"/>
       <c r="B61" s="12">
         <v>41654</v>
       </c>
@@ -2581,7 +2584,7 @@
       <c r="M61" s="33"/>
     </row>
     <row r="62" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="35"/>
+      <c r="A62" s="53"/>
       <c r="B62" s="12">
         <v>41655</v>
       </c>
@@ -2598,7 +2601,7 @@
       <c r="M62" s="33"/>
     </row>
     <row r="63" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="36"/>
+      <c r="A63" s="54"/>
       <c r="B63" s="12">
         <v>41656</v>
       </c>
@@ -2615,7 +2618,7 @@
       <c r="M63" s="33"/>
     </row>
     <row r="64" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="37">
+      <c r="A64" s="49">
         <v>12</v>
       </c>
       <c r="B64" s="5">
@@ -2634,7 +2637,7 @@
       <c r="M64" s="33"/>
     </row>
     <row r="65" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="38"/>
+      <c r="A65" s="50"/>
       <c r="B65" s="5">
         <v>41660</v>
       </c>
@@ -2651,7 +2654,7 @@
       <c r="M65" s="33"/>
     </row>
     <row r="66" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="38"/>
+      <c r="A66" s="50"/>
       <c r="B66" s="5">
         <v>41661</v>
       </c>
@@ -2668,7 +2671,7 @@
       <c r="M66" s="33"/>
     </row>
     <row r="67" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="38"/>
+      <c r="A67" s="50"/>
       <c r="B67" s="5">
         <v>41662</v>
       </c>
@@ -2685,7 +2688,7 @@
       <c r="M67" s="33"/>
     </row>
     <row r="68" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="39"/>
+      <c r="A68" s="51"/>
       <c r="B68" s="5">
         <v>41663</v>
       </c>
@@ -2702,7 +2705,7 @@
       <c r="M68" s="33"/>
     </row>
     <row r="69" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="34">
+      <c r="A69" s="52">
         <v>13</v>
       </c>
       <c r="B69" s="12">
@@ -2723,7 +2726,7 @@
       <c r="M69" s="33"/>
     </row>
     <row r="70" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="35"/>
+      <c r="A70" s="53"/>
       <c r="B70" s="12">
         <v>41667</v>
       </c>
@@ -2742,7 +2745,7 @@
       <c r="M70" s="33"/>
     </row>
     <row r="71" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="35"/>
+      <c r="A71" s="53"/>
       <c r="B71" s="12">
         <v>41668</v>
       </c>
@@ -2761,7 +2764,7 @@
       <c r="M71" s="33"/>
     </row>
     <row r="72" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="35"/>
+      <c r="A72" s="53"/>
       <c r="B72" s="12">
         <v>41669</v>
       </c>
@@ -2780,7 +2783,7 @@
       <c r="M72" s="33"/>
     </row>
     <row r="73" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="36"/>
+      <c r="A73" s="54"/>
       <c r="B73" s="12">
         <v>41670</v>
       </c>
@@ -2799,7 +2802,7 @@
       <c r="M73" s="33"/>
     </row>
     <row r="74" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="37">
+      <c r="A74" s="49">
         <v>14</v>
       </c>
       <c r="B74" s="5">
@@ -2820,7 +2823,7 @@
       <c r="M74" s="33"/>
     </row>
     <row r="75" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="38"/>
+      <c r="A75" s="50"/>
       <c r="B75" s="5">
         <v>41674</v>
       </c>
@@ -2839,7 +2842,7 @@
       <c r="M75" s="33"/>
     </row>
     <row r="76" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="38"/>
+      <c r="A76" s="50"/>
       <c r="B76" s="5">
         <v>41675</v>
       </c>
@@ -2858,7 +2861,7 @@
       <c r="M76" s="33"/>
     </row>
     <row r="77" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="38"/>
+      <c r="A77" s="50"/>
       <c r="B77" s="5">
         <v>41676</v>
       </c>
@@ -2877,7 +2880,7 @@
       <c r="M77" s="33"/>
     </row>
     <row r="78" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="39"/>
+      <c r="A78" s="51"/>
       <c r="B78" s="5">
         <v>41677</v>
       </c>
@@ -2896,7 +2899,7 @@
       <c r="M78" s="33"/>
     </row>
     <row r="79" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="34">
+      <c r="A79" s="52">
         <v>15</v>
       </c>
       <c r="B79" s="12">
@@ -2915,7 +2918,7 @@
       <c r="M79" s="33"/>
     </row>
     <row r="80" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="35"/>
+      <c r="A80" s="53"/>
       <c r="B80" s="12">
         <v>41681</v>
       </c>
@@ -2932,7 +2935,7 @@
       <c r="M80" s="33"/>
     </row>
     <row r="81" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="35"/>
+      <c r="A81" s="53"/>
       <c r="B81" s="12">
         <v>41682</v>
       </c>
@@ -2949,7 +2952,7 @@
       <c r="M81" s="33"/>
     </row>
     <row r="82" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="35"/>
+      <c r="A82" s="53"/>
       <c r="B82" s="12">
         <v>41683</v>
       </c>
@@ -2966,7 +2969,7 @@
       <c r="M82" s="33"/>
     </row>
     <row r="83" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="36"/>
+      <c r="A83" s="54"/>
       <c r="B83" s="12">
         <v>41684</v>
       </c>
@@ -2983,7 +2986,7 @@
       <c r="M83" s="33"/>
     </row>
     <row r="84" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="37">
+      <c r="A84" s="49">
         <v>16</v>
       </c>
       <c r="B84" s="5">
@@ -3002,7 +3005,7 @@
       <c r="M84" s="33"/>
     </row>
     <row r="85" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="38"/>
+      <c r="A85" s="50"/>
       <c r="B85" s="5">
         <v>41688</v>
       </c>
@@ -3019,7 +3022,7 @@
       <c r="M85" s="33"/>
     </row>
     <row r="86" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="38"/>
+      <c r="A86" s="50"/>
       <c r="B86" s="5">
         <v>41689</v>
       </c>
@@ -3036,7 +3039,7 @@
       <c r="M86" s="33"/>
     </row>
     <row r="87" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="38"/>
+      <c r="A87" s="50"/>
       <c r="B87" s="5">
         <v>41690</v>
       </c>
@@ -3053,7 +3056,7 @@
       <c r="M87" s="33"/>
     </row>
     <row r="88" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="39"/>
+      <c r="A88" s="51"/>
       <c r="B88" s="5">
         <v>41691</v>
       </c>
@@ -3070,7 +3073,7 @@
       <c r="M88" s="33"/>
     </row>
     <row r="89" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="34">
+      <c r="A89" s="52">
         <v>17</v>
       </c>
       <c r="B89" s="12">
@@ -3089,7 +3092,7 @@
       <c r="M89" s="33"/>
     </row>
     <row r="90" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="35"/>
+      <c r="A90" s="53"/>
       <c r="B90" s="12">
         <v>41695</v>
       </c>
@@ -3106,7 +3109,7 @@
       <c r="M90" s="33"/>
     </row>
     <row r="91" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="35"/>
+      <c r="A91" s="53"/>
       <c r="B91" s="12">
         <v>41696</v>
       </c>
@@ -3123,7 +3126,7 @@
       <c r="M91" s="33"/>
     </row>
     <row r="92" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="35"/>
+      <c r="A92" s="53"/>
       <c r="B92" s="12">
         <v>41697</v>
       </c>
@@ -3140,7 +3143,7 @@
       <c r="M92" s="33"/>
     </row>
     <row r="93" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="36"/>
+      <c r="A93" s="54"/>
       <c r="B93" s="12">
         <v>41698</v>
       </c>
@@ -3157,7 +3160,7 @@
       <c r="M93" s="33"/>
     </row>
     <row r="94" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="37">
+      <c r="A94" s="49">
         <v>18</v>
       </c>
       <c r="B94" s="5">
@@ -3176,7 +3179,7 @@
       <c r="M94" s="33"/>
     </row>
     <row r="95" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="38"/>
+      <c r="A95" s="50"/>
       <c r="B95" s="5">
         <v>41702</v>
       </c>
@@ -3193,7 +3196,7 @@
       <c r="M95" s="33"/>
     </row>
     <row r="96" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="38"/>
+      <c r="A96" s="50"/>
       <c r="B96" s="5">
         <v>41703</v>
       </c>
@@ -3210,7 +3213,7 @@
       <c r="M96" s="33"/>
     </row>
     <row r="97" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="38"/>
+      <c r="A97" s="50"/>
       <c r="B97" s="5">
         <v>41704</v>
       </c>
@@ -3227,7 +3230,7 @@
       <c r="M97" s="33"/>
     </row>
     <row r="98" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="39"/>
+      <c r="A98" s="51"/>
       <c r="B98" s="5">
         <v>41705</v>
       </c>
@@ -3244,7 +3247,7 @@
       <c r="M98" s="33"/>
     </row>
     <row r="99" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="34">
+      <c r="A99" s="52">
         <v>19</v>
       </c>
       <c r="B99" s="12">
@@ -3263,7 +3266,7 @@
       <c r="M99" s="33"/>
     </row>
     <row r="100" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="35"/>
+      <c r="A100" s="53"/>
       <c r="B100" s="12">
         <v>41709</v>
       </c>
@@ -3280,7 +3283,7 @@
       <c r="M100" s="33"/>
     </row>
     <row r="101" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="35"/>
+      <c r="A101" s="53"/>
       <c r="B101" s="12">
         <v>41710</v>
       </c>
@@ -3297,7 +3300,7 @@
       <c r="M101" s="33"/>
     </row>
     <row r="102" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="35"/>
+      <c r="A102" s="53"/>
       <c r="B102" s="12">
         <v>41711</v>
       </c>
@@ -3314,7 +3317,7 @@
       <c r="M102" s="33"/>
     </row>
     <row r="103" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="36"/>
+      <c r="A103" s="54"/>
       <c r="B103" s="12">
         <v>41712</v>
       </c>
@@ -3331,7 +3334,7 @@
       <c r="M103" s="33"/>
     </row>
     <row r="104" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="37">
+      <c r="A104" s="49">
         <v>20</v>
       </c>
       <c r="B104" s="5">
@@ -3350,7 +3353,7 @@
       <c r="M104" s="33"/>
     </row>
     <row r="105" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="38"/>
+      <c r="A105" s="50"/>
       <c r="B105" s="5">
         <v>41716</v>
       </c>
@@ -3367,7 +3370,7 @@
       <c r="M105" s="33"/>
     </row>
     <row r="106" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="38"/>
+      <c r="A106" s="50"/>
       <c r="B106" s="5">
         <v>41717</v>
       </c>
@@ -3384,7 +3387,7 @@
       <c r="M106" s="33"/>
     </row>
     <row r="107" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="38"/>
+      <c r="A107" s="50"/>
       <c r="B107" s="5">
         <v>41718</v>
       </c>
@@ -3401,7 +3404,7 @@
       <c r="M107" s="33"/>
     </row>
     <row r="108" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="39"/>
+      <c r="A108" s="51"/>
       <c r="B108" s="5">
         <v>41719</v>
       </c>
@@ -3418,7 +3421,7 @@
       <c r="M108" s="33"/>
     </row>
     <row r="109" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="34">
+      <c r="A109" s="52">
         <v>21</v>
       </c>
       <c r="B109" s="12">
@@ -3437,7 +3440,7 @@
       <c r="M109" s="33"/>
     </row>
     <row r="110" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="35"/>
+      <c r="A110" s="53"/>
       <c r="B110" s="12">
         <v>41723</v>
       </c>
@@ -3454,7 +3457,7 @@
       <c r="M110" s="33"/>
     </row>
     <row r="111" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="35"/>
+      <c r="A111" s="53"/>
       <c r="B111" s="12">
         <v>41724</v>
       </c>
@@ -3471,7 +3474,7 @@
       <c r="M111" s="33"/>
     </row>
     <row r="112" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="35"/>
+      <c r="A112" s="53"/>
       <c r="B112" s="12">
         <v>41725</v>
       </c>
@@ -3488,7 +3491,7 @@
       <c r="M112" s="33"/>
     </row>
     <row r="113" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="36"/>
+      <c r="A113" s="54"/>
       <c r="B113" s="12">
         <v>41726</v>
       </c>
@@ -3505,7 +3508,7 @@
       <c r="M113" s="33"/>
     </row>
     <row r="114" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="37">
+      <c r="A114" s="49">
         <v>22</v>
       </c>
       <c r="B114" s="5">
@@ -3524,7 +3527,7 @@
       <c r="M114" s="33"/>
     </row>
     <row r="115" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="38"/>
+      <c r="A115" s="50"/>
       <c r="B115" s="5">
         <v>41730</v>
       </c>
@@ -3541,7 +3544,7 @@
       <c r="M115" s="33"/>
     </row>
     <row r="116" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="38"/>
+      <c r="A116" s="50"/>
       <c r="B116" s="5">
         <v>41731</v>
       </c>
@@ -3558,7 +3561,7 @@
       <c r="M116" s="33"/>
     </row>
     <row r="117" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="38"/>
+      <c r="A117" s="50"/>
       <c r="B117" s="5">
         <v>41732</v>
       </c>
@@ -3575,7 +3578,7 @@
       <c r="M117" s="33"/>
     </row>
     <row r="118" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="39"/>
+      <c r="A118" s="51"/>
       <c r="B118" s="5">
         <v>41733</v>
       </c>
@@ -3592,7 +3595,7 @@
       <c r="M118" s="33"/>
     </row>
     <row r="119" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="34">
+      <c r="A119" s="52">
         <v>23</v>
       </c>
       <c r="B119" s="12">
@@ -3611,7 +3614,7 @@
       <c r="M119" s="33"/>
     </row>
     <row r="120" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="35"/>
+      <c r="A120" s="53"/>
       <c r="B120" s="12">
         <v>41737</v>
       </c>
@@ -3628,7 +3631,7 @@
       <c r="M120" s="33"/>
     </row>
     <row r="121" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="35"/>
+      <c r="A121" s="53"/>
       <c r="B121" s="12">
         <v>41738</v>
       </c>
@@ -3645,7 +3648,7 @@
       <c r="M121" s="33"/>
     </row>
     <row r="122" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="35"/>
+      <c r="A122" s="53"/>
       <c r="B122" s="12">
         <v>41739</v>
       </c>
@@ -3662,7 +3665,7 @@
       <c r="M122" s="33"/>
     </row>
     <row r="123" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="36"/>
+      <c r="A123" s="54"/>
       <c r="B123" s="12">
         <v>41740</v>
       </c>
@@ -3679,7 +3682,7 @@
       <c r="M123" s="33"/>
     </row>
     <row r="124" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="37">
+      <c r="A124" s="49">
         <v>24</v>
       </c>
       <c r="B124" s="5">
@@ -3698,7 +3701,7 @@
       <c r="M124" s="33"/>
     </row>
     <row r="125" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="38"/>
+      <c r="A125" s="50"/>
       <c r="B125" s="5">
         <v>41744</v>
       </c>
@@ -3715,7 +3718,7 @@
       <c r="M125" s="33"/>
     </row>
     <row r="126" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="38"/>
+      <c r="A126" s="50"/>
       <c r="B126" s="5">
         <v>41745</v>
       </c>
@@ -3732,7 +3735,7 @@
       <c r="M126" s="33"/>
     </row>
     <row r="127" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="38"/>
+      <c r="A127" s="50"/>
       <c r="B127" s="5">
         <v>41746</v>
       </c>
@@ -3749,7 +3752,7 @@
       <c r="M127" s="33"/>
     </row>
     <row r="128" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="39"/>
+      <c r="A128" s="51"/>
       <c r="B128" s="5">
         <v>41747</v>
       </c>
@@ -3766,7 +3769,7 @@
       <c r="M128" s="33"/>
     </row>
     <row r="129" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="34">
+      <c r="A129" s="52">
         <v>25</v>
       </c>
       <c r="B129" s="12">
@@ -3785,7 +3788,7 @@
       <c r="M129" s="33"/>
     </row>
     <row r="130" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="35"/>
+      <c r="A130" s="53"/>
       <c r="B130" s="12">
         <v>41751</v>
       </c>
@@ -3802,7 +3805,7 @@
       <c r="M130" s="33"/>
     </row>
     <row r="131" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="35"/>
+      <c r="A131" s="53"/>
       <c r="B131" s="12">
         <v>41752</v>
       </c>
@@ -3819,7 +3822,7 @@
       <c r="M131" s="33"/>
     </row>
     <row r="132" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="35"/>
+      <c r="A132" s="53"/>
       <c r="B132" s="12">
         <v>41753</v>
       </c>
@@ -3836,7 +3839,7 @@
       <c r="M132" s="33"/>
     </row>
     <row r="133" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="36"/>
+      <c r="A133" s="54"/>
       <c r="B133" s="12">
         <v>41754</v>
       </c>
@@ -3853,7 +3856,7 @@
       <c r="M133" s="33"/>
     </row>
     <row r="134" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="37">
+      <c r="A134" s="49">
         <v>26</v>
       </c>
       <c r="B134" s="5">
@@ -3872,7 +3875,7 @@
       <c r="M134" s="33"/>
     </row>
     <row r="135" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="38"/>
+      <c r="A135" s="50"/>
       <c r="B135" s="5">
         <v>41758</v>
       </c>
@@ -3889,7 +3892,7 @@
       <c r="M135" s="33"/>
     </row>
     <row r="136" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="38"/>
+      <c r="A136" s="50"/>
       <c r="B136" s="5">
         <v>41759</v>
       </c>
@@ -3906,7 +3909,7 @@
       <c r="M136" s="33"/>
     </row>
     <row r="137" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="38"/>
+      <c r="A137" s="50"/>
       <c r="B137" s="5">
         <v>41760</v>
       </c>
@@ -3923,7 +3926,7 @@
       <c r="M137" s="33"/>
     </row>
     <row r="138" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="39"/>
+      <c r="A138" s="51"/>
       <c r="B138" s="5">
         <v>41761</v>
       </c>
@@ -3940,7 +3943,7 @@
       <c r="M138" s="33"/>
     </row>
     <row r="139" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="34">
+      <c r="A139" s="52">
         <v>27</v>
       </c>
       <c r="B139" s="12">
@@ -3959,7 +3962,7 @@
       <c r="M139" s="33"/>
     </row>
     <row r="140" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="35"/>
+      <c r="A140" s="53"/>
       <c r="B140" s="12">
         <v>41765</v>
       </c>
@@ -3976,7 +3979,7 @@
       <c r="M140" s="33"/>
     </row>
     <row r="141" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="35"/>
+      <c r="A141" s="53"/>
       <c r="B141" s="12">
         <v>41766</v>
       </c>
@@ -3993,7 +3996,7 @@
       <c r="M141" s="33"/>
     </row>
     <row r="142" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="35"/>
+      <c r="A142" s="53"/>
       <c r="B142" s="12">
         <v>41767</v>
       </c>
@@ -4010,7 +4013,7 @@
       <c r="M142" s="33"/>
     </row>
     <row r="143" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="36"/>
+      <c r="A143" s="54"/>
       <c r="B143" s="12">
         <v>41768</v>
       </c>
@@ -4027,7 +4030,7 @@
       <c r="M143" s="33"/>
     </row>
     <row r="144" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="37">
+      <c r="A144" s="49">
         <v>28</v>
       </c>
       <c r="B144" s="5">
@@ -4046,7 +4049,7 @@
       <c r="M144" s="33"/>
     </row>
     <row r="145" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="38"/>
+      <c r="A145" s="50"/>
       <c r="B145" s="5">
         <v>41772</v>
       </c>
@@ -4063,7 +4066,7 @@
       <c r="M145" s="33"/>
     </row>
     <row r="146" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="38"/>
+      <c r="A146" s="50"/>
       <c r="B146" s="5">
         <v>41773</v>
       </c>
@@ -4080,7 +4083,7 @@
       <c r="M146" s="33"/>
     </row>
     <row r="147" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="38"/>
+      <c r="A147" s="50"/>
       <c r="B147" s="5">
         <v>41774</v>
       </c>
@@ -4097,7 +4100,7 @@
       <c r="M147" s="33"/>
     </row>
     <row r="148" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="39"/>
+      <c r="A148" s="51"/>
       <c r="B148" s="5">
         <v>41775</v>
       </c>
@@ -4114,7 +4117,7 @@
       <c r="M148" s="33"/>
     </row>
     <row r="149" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="34">
+      <c r="A149" s="52">
         <v>29</v>
       </c>
       <c r="B149" s="12">
@@ -4133,7 +4136,7 @@
       <c r="M149" s="33"/>
     </row>
     <row r="150" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="35"/>
+      <c r="A150" s="53"/>
       <c r="B150" s="12">
         <v>41779</v>
       </c>
@@ -4150,7 +4153,7 @@
       <c r="M150" s="33"/>
     </row>
     <row r="151" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="35"/>
+      <c r="A151" s="53"/>
       <c r="B151" s="12">
         <v>41780</v>
       </c>
@@ -4167,7 +4170,7 @@
       <c r="M151" s="33"/>
     </row>
     <row r="152" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A152" s="35"/>
+      <c r="A152" s="53"/>
       <c r="B152" s="12">
         <v>41781</v>
       </c>
@@ -4184,7 +4187,7 @@
       <c r="M152" s="33"/>
     </row>
     <row r="153" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="36"/>
+      <c r="A153" s="54"/>
       <c r="B153" s="12">
         <v>41782</v>
       </c>
@@ -4201,7 +4204,7 @@
       <c r="M153" s="33"/>
     </row>
     <row r="154" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A154" s="40">
+      <c r="A154" s="70">
         <v>30</v>
       </c>
       <c r="B154" s="5">
@@ -4220,7 +4223,7 @@
       <c r="M154" s="33"/>
     </row>
     <row r="155" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="41"/>
+      <c r="A155" s="71"/>
       <c r="B155" s="5">
         <v>41786</v>
       </c>
@@ -4237,7 +4240,7 @@
       <c r="M155" s="33"/>
     </row>
     <row r="156" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="41"/>
+      <c r="A156" s="71"/>
       <c r="B156" s="5">
         <v>41787</v>
       </c>
@@ -4254,7 +4257,7 @@
       <c r="M156" s="33"/>
     </row>
     <row r="157" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="41"/>
+      <c r="A157" s="71"/>
       <c r="B157" s="5">
         <v>41788</v>
       </c>
@@ -4271,7 +4274,7 @@
       <c r="M157" s="33"/>
     </row>
     <row r="158" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A158" s="42"/>
+      <c r="A158" s="72"/>
       <c r="B158" s="5">
         <v>41789</v>
       </c>
@@ -4884,6 +4887,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="A139:A143"/>
+    <mergeCell ref="A144:A148"/>
+    <mergeCell ref="A149:A153"/>
+    <mergeCell ref="A154:A158"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="A134:A138"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="A79:A83"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="F2:M4"/>
@@ -4900,26 +4923,6 @@
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="A39:A43"/>
     <mergeCell ref="A44:A48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="A89:A93"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="A139:A143"/>
-    <mergeCell ref="A144:A148"/>
-    <mergeCell ref="A149:A153"/>
-    <mergeCell ref="A154:A158"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="A124:A128"/>
-    <mergeCell ref="A129:A133"/>
-    <mergeCell ref="A134:A138"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNgo.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNgo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NC\Desktop\Admission project\1. Project management\9. Timelog\individual time log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\capstone\1. Project management\9. Timelog\individual time log\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -283,7 +283,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -291,14 +291,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -311,7 +311,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -324,20 +324,20 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -350,7 +350,7 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -697,6 +697,51 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -706,6 +751,75 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -715,6 +829,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -723,129 +846,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1171,13 +1171,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>28</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>7</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>9</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>11</v>
       </c>
@@ -1283,107 +1283,106 @@
   <dimension ref="A1:O156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="46.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="47.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="46.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="47.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="1" customWidth="1"/>
-    <col min="11" max="11" width="27.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.28515625" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="66"/>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="68"/>
+      <c r="A1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="54"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="69" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="71"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="57"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="74"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="60"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="87"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="77"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="63"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="99"/>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="101"/>
+      <c r="A5" s="90"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="16"/>
       <c r="H5" s="45" t="s">
         <v>67</v>
@@ -1397,7 +1396,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>0</v>
       </c>
@@ -1428,13 +1427,13 @@
       <c r="J6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="96"/>
     </row>
     <row r="7" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="78">
+      <c r="A7" s="64">
         <v>1</v>
       </c>
       <c r="B7" s="17">
@@ -1461,10 +1460,10 @@
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="31"/>
-      <c r="K7" s="65" t="s">
+      <c r="K7" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="65"/>
+      <c r="L7" s="98"/>
       <c r="M7" s="34">
         <f>SUM(M8:M39)</f>
         <v>15.403</v>
@@ -1473,9 +1472,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="79"/>
-      <c r="B8" s="95">
+    <row r="8" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="65"/>
+      <c r="B8" s="84">
         <v>41586</v>
       </c>
       <c r="C8" s="18">
@@ -1487,7 +1486,7 @@
       <c r="E8" s="19">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F8" s="97">
+      <c r="F8" s="86">
         <f>SUM(E8:E9)</f>
         <v>1.66</v>
       </c>
@@ -1512,8 +1511,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="80"/>
-      <c r="B9" s="96"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="18">
         <v>0.63194444444444442</v>
       </c>
@@ -1523,7 +1522,7 @@
       <c r="E9" s="19">
         <v>0.5</v>
       </c>
-      <c r="F9" s="98"/>
+      <c r="F9" s="87"/>
       <c r="G9" s="31" t="s">
         <v>25</v>
       </c>
@@ -1534,10 +1533,10 @@
       <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A10" s="92">
+      <c r="A10" s="81">
         <v>2</v>
       </c>
-      <c r="B10" s="63">
+      <c r="B10" s="70">
         <v>41590</v>
       </c>
       <c r="C10" s="23">
@@ -1577,8 +1576,8 @@
       <c r="O10" s="36"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="93"/>
-      <c r="B11" s="64"/>
+      <c r="A11" s="82"/>
+      <c r="B11" s="71"/>
       <c r="C11" s="23">
         <v>0.875</v>
       </c>
@@ -1607,8 +1606,8 @@
       <c r="O11" s="36"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="93"/>
-      <c r="B12" s="63">
+      <c r="A12" s="82"/>
+      <c r="B12" s="70">
         <v>41592</v>
       </c>
       <c r="C12" s="26">
@@ -1620,7 +1619,7 @@
       <c r="E12" s="29">
         <v>1.25</v>
       </c>
-      <c r="F12" s="90">
+      <c r="F12" s="88">
         <f>SUM(E12:E13)</f>
         <v>3.25</v>
       </c>
@@ -1647,8 +1646,8 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="93"/>
-      <c r="B13" s="64"/>
+      <c r="A13" s="82"/>
+      <c r="B13" s="71"/>
       <c r="C13" s="26">
         <v>0.42708333333333331</v>
       </c>
@@ -1658,7 +1657,7 @@
       <c r="E13" s="29">
         <v>2</v>
       </c>
-      <c r="F13" s="91"/>
+      <c r="F13" s="89"/>
       <c r="G13" s="48" t="s">
         <v>30</v>
       </c>
@@ -1673,7 +1672,7 @@
       <c r="N13" s="3"/>
     </row>
     <row r="14" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="93"/>
+      <c r="A14" s="82"/>
       <c r="B14" s="46">
         <v>41593</v>
       </c>
@@ -1713,8 +1712,8 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="93"/>
-      <c r="B15" s="63">
+      <c r="A15" s="82"/>
+      <c r="B15" s="70">
         <v>41594</v>
       </c>
       <c r="C15" s="26">
@@ -1726,7 +1725,7 @@
       <c r="E15" s="29">
         <v>2</v>
       </c>
-      <c r="F15" s="90">
+      <c r="F15" s="88">
         <f>SUM(E15:E16)</f>
         <v>5</v>
       </c>
@@ -1753,8 +1752,8 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="94"/>
-      <c r="B16" s="64"/>
+      <c r="A16" s="83"/>
+      <c r="B16" s="71"/>
       <c r="C16" s="26">
         <v>0.83333333333333337</v>
       </c>
@@ -1764,7 +1763,7 @@
       <c r="E16" s="29">
         <v>3</v>
       </c>
-      <c r="F16" s="91"/>
+      <c r="F16" s="89"/>
       <c r="G16" s="30" t="s">
         <v>24</v>
       </c>
@@ -1781,7 +1780,7 @@
       <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="62">
+      <c r="A17" s="97">
         <v>3</v>
       </c>
       <c r="B17" s="27">
@@ -1811,7 +1810,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="62"/>
+      <c r="A18" s="97"/>
       <c r="B18" s="27">
         <v>41597</v>
       </c>
@@ -1839,7 +1838,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="62"/>
+      <c r="A19" s="97"/>
       <c r="B19" s="27">
         <v>41598</v>
       </c>
@@ -1867,7 +1866,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="62"/>
+      <c r="A20" s="97"/>
       <c r="B20" s="27">
         <v>41599</v>
       </c>
@@ -1895,7 +1894,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="62"/>
+      <c r="A21" s="97"/>
       <c r="B21" s="27">
         <v>41600</v>
       </c>
@@ -1923,7 +1922,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="52">
+      <c r="A22" s="67">
         <v>4</v>
       </c>
       <c r="B22" s="28">
@@ -1953,7 +1952,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
+      <c r="A23" s="68"/>
       <c r="B23" s="28">
         <v>41604</v>
       </c>
@@ -1981,7 +1980,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
+      <c r="A24" s="68"/>
       <c r="B24" s="28">
         <v>41605</v>
       </c>
@@ -2009,7 +2008,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
+      <c r="A25" s="68"/>
       <c r="B25" s="28">
         <v>41606</v>
       </c>
@@ -2037,7 +2036,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="54"/>
+      <c r="A26" s="69"/>
       <c r="B26" s="28">
         <v>41607</v>
       </c>
@@ -2065,7 +2064,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="55">
+      <c r="A27" s="93">
         <v>5</v>
       </c>
       <c r="B27" s="27">
@@ -2095,7 +2094,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
+      <c r="A28" s="94"/>
       <c r="B28" s="27">
         <v>41611</v>
       </c>
@@ -2123,7 +2122,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
+      <c r="A29" s="94"/>
       <c r="B29" s="27">
         <v>41612</v>
       </c>
@@ -2151,7 +2150,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="56"/>
+      <c r="A30" s="94"/>
       <c r="B30" s="27">
         <v>41613</v>
       </c>
@@ -2179,7 +2178,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="57"/>
+      <c r="A31" s="95"/>
       <c r="B31" s="27">
         <v>41614</v>
       </c>
@@ -2207,7 +2206,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="52">
+      <c r="A32" s="67">
         <v>6</v>
       </c>
       <c r="B32" s="28">
@@ -2237,7 +2236,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="53"/>
+      <c r="A33" s="68"/>
       <c r="B33" s="28">
         <v>41618</v>
       </c>
@@ -2265,7 +2264,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
+      <c r="A34" s="68"/>
       <c r="B34" s="28">
         <v>41619</v>
       </c>
@@ -2293,7 +2292,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="53"/>
+      <c r="A35" s="68"/>
       <c r="B35" s="28">
         <v>41620</v>
       </c>
@@ -2321,7 +2320,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="54"/>
+      <c r="A36" s="69"/>
       <c r="B36" s="28">
         <v>41621</v>
       </c>
@@ -2349,7 +2348,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="55">
+      <c r="A37" s="93">
         <v>7</v>
       </c>
       <c r="B37" s="27">
@@ -2379,7 +2378,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="56"/>
+      <c r="A38" s="94"/>
       <c r="B38" s="27">
         <v>41625</v>
       </c>
@@ -2407,7 +2406,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="56"/>
+      <c r="A39" s="94"/>
       <c r="B39" s="27">
         <v>41626</v>
       </c>
@@ -2435,7 +2434,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="56"/>
+      <c r="A40" s="94"/>
       <c r="B40" s="27">
         <v>41627</v>
       </c>
@@ -2452,7 +2451,7 @@
       <c r="J40" s="41"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="57"/>
+      <c r="A41" s="95"/>
       <c r="B41" s="27">
         <v>41628</v>
       </c>
@@ -2469,7 +2468,7 @@
       <c r="J41" s="41"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="52">
+      <c r="A42" s="67">
         <v>8</v>
       </c>
       <c r="B42" s="28">
@@ -2488,7 +2487,7 @@
       <c r="J42" s="42"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="53"/>
+      <c r="A43" s="68"/>
       <c r="B43" s="28">
         <v>41632</v>
       </c>
@@ -2505,7 +2504,7 @@
       <c r="J43" s="42"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="53"/>
+      <c r="A44" s="68"/>
       <c r="B44" s="28">
         <v>41633</v>
       </c>
@@ -2522,7 +2521,7 @@
       <c r="J44" s="42"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="53"/>
+      <c r="A45" s="68"/>
       <c r="B45" s="28">
         <v>41634</v>
       </c>
@@ -2539,7 +2538,7 @@
       <c r="J45" s="42"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="54"/>
+      <c r="A46" s="69"/>
       <c r="B46" s="28">
         <v>41635</v>
       </c>
@@ -2556,7 +2555,7 @@
       <c r="J46" s="42"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="55">
+      <c r="A47" s="93">
         <v>9</v>
       </c>
       <c r="B47" s="27">
@@ -2575,7 +2574,7 @@
       <c r="J47" s="41"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="56"/>
+      <c r="A48" s="94"/>
       <c r="B48" s="27">
         <v>41639</v>
       </c>
@@ -2592,7 +2591,7 @@
       <c r="J48" s="41"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="56"/>
+      <c r="A49" s="94"/>
       <c r="B49" s="27">
         <v>41640</v>
       </c>
@@ -2609,7 +2608,7 @@
       <c r="J49" s="41"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="56"/>
+      <c r="A50" s="94"/>
       <c r="B50" s="27">
         <v>41641</v>
       </c>
@@ -2626,7 +2625,7 @@
       <c r="J50" s="41"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="57"/>
+      <c r="A51" s="95"/>
       <c r="B51" s="27">
         <v>41642</v>
       </c>
@@ -2643,7 +2642,7 @@
       <c r="J51" s="41"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="52">
+      <c r="A52" s="67">
         <v>10</v>
       </c>
       <c r="B52" s="28">
@@ -2662,7 +2661,7 @@
       <c r="J52" s="42"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="53"/>
+      <c r="A53" s="68"/>
       <c r="B53" s="28">
         <v>41646</v>
       </c>
@@ -2679,7 +2678,7 @@
       <c r="J53" s="42"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="53"/>
+      <c r="A54" s="68"/>
       <c r="B54" s="28">
         <v>41647</v>
       </c>
@@ -2696,7 +2695,7 @@
       <c r="J54" s="42"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="53"/>
+      <c r="A55" s="68"/>
       <c r="B55" s="28">
         <v>41648</v>
       </c>
@@ -2713,7 +2712,7 @@
       <c r="J55" s="42"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="54"/>
+      <c r="A56" s="69"/>
       <c r="B56" s="28">
         <v>41649</v>
       </c>
@@ -2730,7 +2729,7 @@
       <c r="J56" s="42"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="55">
+      <c r="A57" s="93">
         <v>11</v>
       </c>
       <c r="B57" s="27">
@@ -2749,7 +2748,7 @@
       <c r="J57" s="41"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="56"/>
+      <c r="A58" s="94"/>
       <c r="B58" s="27">
         <v>41653</v>
       </c>
@@ -2766,7 +2765,7 @@
       <c r="J58" s="41"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="56"/>
+      <c r="A59" s="94"/>
       <c r="B59" s="27">
         <v>41654</v>
       </c>
@@ -2783,7 +2782,7 @@
       <c r="J59" s="41"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="56"/>
+      <c r="A60" s="94"/>
       <c r="B60" s="27">
         <v>41655</v>
       </c>
@@ -2800,7 +2799,7 @@
       <c r="J60" s="41"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="57"/>
+      <c r="A61" s="95"/>
       <c r="B61" s="27">
         <v>41656</v>
       </c>
@@ -2817,7 +2816,7 @@
       <c r="J61" s="41"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="52">
+      <c r="A62" s="67">
         <v>12</v>
       </c>
       <c r="B62" s="28">
@@ -2836,7 +2835,7 @@
       <c r="J62" s="42"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="53"/>
+      <c r="A63" s="68"/>
       <c r="B63" s="28">
         <v>41660</v>
       </c>
@@ -2853,7 +2852,7 @@
       <c r="J63" s="42"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="53"/>
+      <c r="A64" s="68"/>
       <c r="B64" s="28">
         <v>41661</v>
       </c>
@@ -2870,7 +2869,7 @@
       <c r="J64" s="42"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="53"/>
+      <c r="A65" s="68"/>
       <c r="B65" s="28">
         <v>41662</v>
       </c>
@@ -2887,7 +2886,7 @@
       <c r="J65" s="42"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="54"/>
+      <c r="A66" s="69"/>
       <c r="B66" s="28">
         <v>41663</v>
       </c>
@@ -2904,7 +2903,7 @@
       <c r="J66" s="42"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="55">
+      <c r="A67" s="93">
         <v>13</v>
       </c>
       <c r="B67" s="27">
@@ -2925,7 +2924,7 @@
       <c r="J67" s="41"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="56"/>
+      <c r="A68" s="94"/>
       <c r="B68" s="27">
         <v>41667</v>
       </c>
@@ -2944,7 +2943,7 @@
       <c r="J68" s="41"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="56"/>
+      <c r="A69" s="94"/>
       <c r="B69" s="27">
         <v>41668</v>
       </c>
@@ -2963,7 +2962,7 @@
       <c r="J69" s="41"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="56"/>
+      <c r="A70" s="94"/>
       <c r="B70" s="27">
         <v>41669</v>
       </c>
@@ -2982,7 +2981,7 @@
       <c r="J70" s="41"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="57"/>
+      <c r="A71" s="95"/>
       <c r="B71" s="27">
         <v>41670</v>
       </c>
@@ -3001,7 +3000,7 @@
       <c r="J71" s="41"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="52">
+      <c r="A72" s="67">
         <v>14</v>
       </c>
       <c r="B72" s="28">
@@ -3022,7 +3021,7 @@
       <c r="J72" s="42"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="53"/>
+      <c r="A73" s="68"/>
       <c r="B73" s="28">
         <v>41674</v>
       </c>
@@ -3041,7 +3040,7 @@
       <c r="J73" s="42"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="53"/>
+      <c r="A74" s="68"/>
       <c r="B74" s="28">
         <v>41675</v>
       </c>
@@ -3060,7 +3059,7 @@
       <c r="J74" s="42"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="53"/>
+      <c r="A75" s="68"/>
       <c r="B75" s="28">
         <v>41676</v>
       </c>
@@ -3079,7 +3078,7 @@
       <c r="J75" s="42"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="54"/>
+      <c r="A76" s="69"/>
       <c r="B76" s="28">
         <v>41677</v>
       </c>
@@ -3098,7 +3097,7 @@
       <c r="J76" s="42"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="55">
+      <c r="A77" s="93">
         <v>15</v>
       </c>
       <c r="B77" s="27">
@@ -3117,7 +3116,7 @@
       <c r="J77" s="41"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="56"/>
+      <c r="A78" s="94"/>
       <c r="B78" s="27">
         <v>41681</v>
       </c>
@@ -3134,7 +3133,7 @@
       <c r="J78" s="41"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="56"/>
+      <c r="A79" s="94"/>
       <c r="B79" s="27">
         <v>41682</v>
       </c>
@@ -3151,7 +3150,7 @@
       <c r="J79" s="41"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="56"/>
+      <c r="A80" s="94"/>
       <c r="B80" s="27">
         <v>41683</v>
       </c>
@@ -3168,7 +3167,7 @@
       <c r="J80" s="41"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="57"/>
+      <c r="A81" s="95"/>
       <c r="B81" s="27">
         <v>41684</v>
       </c>
@@ -3185,7 +3184,7 @@
       <c r="J81" s="41"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="52">
+      <c r="A82" s="67">
         <v>16</v>
       </c>
       <c r="B82" s="28">
@@ -3204,7 +3203,7 @@
       <c r="J82" s="42"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="53"/>
+      <c r="A83" s="68"/>
       <c r="B83" s="28">
         <v>41688</v>
       </c>
@@ -3221,7 +3220,7 @@
       <c r="J83" s="42"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="53"/>
+      <c r="A84" s="68"/>
       <c r="B84" s="28">
         <v>41689</v>
       </c>
@@ -3238,7 +3237,7 @@
       <c r="J84" s="42"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="53"/>
+      <c r="A85" s="68"/>
       <c r="B85" s="28">
         <v>41690</v>
       </c>
@@ -3255,7 +3254,7 @@
       <c r="J85" s="42"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="54"/>
+      <c r="A86" s="69"/>
       <c r="B86" s="28">
         <v>41691</v>
       </c>
@@ -3272,7 +3271,7 @@
       <c r="J86" s="42"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="55">
+      <c r="A87" s="93">
         <v>17</v>
       </c>
       <c r="B87" s="27">
@@ -3291,7 +3290,7 @@
       <c r="J87" s="41"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="56"/>
+      <c r="A88" s="94"/>
       <c r="B88" s="27">
         <v>41695</v>
       </c>
@@ -3308,7 +3307,7 @@
       <c r="J88" s="41"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="56"/>
+      <c r="A89" s="94"/>
       <c r="B89" s="27">
         <v>41696</v>
       </c>
@@ -3325,7 +3324,7 @@
       <c r="J89" s="41"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="56"/>
+      <c r="A90" s="94"/>
       <c r="B90" s="27">
         <v>41697</v>
       </c>
@@ -3342,7 +3341,7 @@
       <c r="J90" s="41"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="57"/>
+      <c r="A91" s="95"/>
       <c r="B91" s="27">
         <v>41698</v>
       </c>
@@ -3359,7 +3358,7 @@
       <c r="J91" s="41"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="52">
+      <c r="A92" s="67">
         <v>18</v>
       </c>
       <c r="B92" s="28">
@@ -3378,7 +3377,7 @@
       <c r="J92" s="42"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="53"/>
+      <c r="A93" s="68"/>
       <c r="B93" s="28">
         <v>41702</v>
       </c>
@@ -3395,7 +3394,7 @@
       <c r="J93" s="42"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="53"/>
+      <c r="A94" s="68"/>
       <c r="B94" s="28">
         <v>41703</v>
       </c>
@@ -3412,7 +3411,7 @@
       <c r="J94" s="42"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="53"/>
+      <c r="A95" s="68"/>
       <c r="B95" s="28">
         <v>41704</v>
       </c>
@@ -3429,7 +3428,7 @@
       <c r="J95" s="42"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="54"/>
+      <c r="A96" s="69"/>
       <c r="B96" s="28">
         <v>41705</v>
       </c>
@@ -3446,7 +3445,7 @@
       <c r="J96" s="42"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="55">
+      <c r="A97" s="93">
         <v>19</v>
       </c>
       <c r="B97" s="27">
@@ -3465,7 +3464,7 @@
       <c r="J97" s="41"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="56"/>
+      <c r="A98" s="94"/>
       <c r="B98" s="27">
         <v>41709</v>
       </c>
@@ -3482,7 +3481,7 @@
       <c r="J98" s="41"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="56"/>
+      <c r="A99" s="94"/>
       <c r="B99" s="27">
         <v>41710</v>
       </c>
@@ -3499,7 +3498,7 @@
       <c r="J99" s="41"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="56"/>
+      <c r="A100" s="94"/>
       <c r="B100" s="27">
         <v>41711</v>
       </c>
@@ -3516,7 +3515,7 @@
       <c r="J100" s="41"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="57"/>
+      <c r="A101" s="95"/>
       <c r="B101" s="27">
         <v>41712</v>
       </c>
@@ -3533,7 +3532,7 @@
       <c r="J101" s="41"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="52">
+      <c r="A102" s="67">
         <v>20</v>
       </c>
       <c r="B102" s="28">
@@ -3552,7 +3551,7 @@
       <c r="J102" s="42"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="53"/>
+      <c r="A103" s="68"/>
       <c r="B103" s="28">
         <v>41716</v>
       </c>
@@ -3569,7 +3568,7 @@
       <c r="J103" s="42"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="53"/>
+      <c r="A104" s="68"/>
       <c r="B104" s="28">
         <v>41717</v>
       </c>
@@ -3586,7 +3585,7 @@
       <c r="J104" s="42"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="53"/>
+      <c r="A105" s="68"/>
       <c r="B105" s="28">
         <v>41718</v>
       </c>
@@ -3603,7 +3602,7 @@
       <c r="J105" s="42"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="54"/>
+      <c r="A106" s="69"/>
       <c r="B106" s="28">
         <v>41719</v>
       </c>
@@ -3620,7 +3619,7 @@
       <c r="J106" s="42"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="55">
+      <c r="A107" s="93">
         <v>21</v>
       </c>
       <c r="B107" s="27">
@@ -3639,7 +3638,7 @@
       <c r="J107" s="41"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="56"/>
+      <c r="A108" s="94"/>
       <c r="B108" s="27">
         <v>41723</v>
       </c>
@@ -3656,7 +3655,7 @@
       <c r="J108" s="41"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="56"/>
+      <c r="A109" s="94"/>
       <c r="B109" s="27">
         <v>41724</v>
       </c>
@@ -3673,7 +3672,7 @@
       <c r="J109" s="41"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="56"/>
+      <c r="A110" s="94"/>
       <c r="B110" s="27">
         <v>41725</v>
       </c>
@@ -3690,7 +3689,7 @@
       <c r="J110" s="41"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="57"/>
+      <c r="A111" s="95"/>
       <c r="B111" s="27">
         <v>41726</v>
       </c>
@@ -3707,7 +3706,7 @@
       <c r="J111" s="41"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="52">
+      <c r="A112" s="67">
         <v>22</v>
       </c>
       <c r="B112" s="28">
@@ -3726,7 +3725,7 @@
       <c r="J112" s="42"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="53"/>
+      <c r="A113" s="68"/>
       <c r="B113" s="28">
         <v>41730</v>
       </c>
@@ -3743,7 +3742,7 @@
       <c r="J113" s="42"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="53"/>
+      <c r="A114" s="68"/>
       <c r="B114" s="28">
         <v>41731</v>
       </c>
@@ -3760,7 +3759,7 @@
       <c r="J114" s="42"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="53"/>
+      <c r="A115" s="68"/>
       <c r="B115" s="28">
         <v>41732</v>
       </c>
@@ -3777,7 +3776,7 @@
       <c r="J115" s="42"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="54"/>
+      <c r="A116" s="69"/>
       <c r="B116" s="28">
         <v>41733</v>
       </c>
@@ -3794,7 +3793,7 @@
       <c r="J116" s="42"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="55">
+      <c r="A117" s="93">
         <v>23</v>
       </c>
       <c r="B117" s="27">
@@ -3813,7 +3812,7 @@
       <c r="J117" s="41"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="56"/>
+      <c r="A118" s="94"/>
       <c r="B118" s="27">
         <v>41737</v>
       </c>
@@ -3830,7 +3829,7 @@
       <c r="J118" s="41"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="56"/>
+      <c r="A119" s="94"/>
       <c r="B119" s="27">
         <v>41738</v>
       </c>
@@ -3847,7 +3846,7 @@
       <c r="J119" s="41"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="56"/>
+      <c r="A120" s="94"/>
       <c r="B120" s="27">
         <v>41739</v>
       </c>
@@ -3864,7 +3863,7 @@
       <c r="J120" s="41"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="57"/>
+      <c r="A121" s="95"/>
       <c r="B121" s="27">
         <v>41740</v>
       </c>
@@ -3881,7 +3880,7 @@
       <c r="J121" s="41"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="52">
+      <c r="A122" s="67">
         <v>24</v>
       </c>
       <c r="B122" s="28">
@@ -3900,7 +3899,7 @@
       <c r="J122" s="42"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="53"/>
+      <c r="A123" s="68"/>
       <c r="B123" s="28">
         <v>41744</v>
       </c>
@@ -3917,7 +3916,7 @@
       <c r="J123" s="42"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="53"/>
+      <c r="A124" s="68"/>
       <c r="B124" s="28">
         <v>41745</v>
       </c>
@@ -3934,7 +3933,7 @@
       <c r="J124" s="42"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="53"/>
+      <c r="A125" s="68"/>
       <c r="B125" s="28">
         <v>41746</v>
       </c>
@@ -3951,7 +3950,7 @@
       <c r="J125" s="42"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="54"/>
+      <c r="A126" s="69"/>
       <c r="B126" s="28">
         <v>41747</v>
       </c>
@@ -3968,7 +3967,7 @@
       <c r="J126" s="42"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="55">
+      <c r="A127" s="93">
         <v>25</v>
       </c>
       <c r="B127" s="27">
@@ -3987,7 +3986,7 @@
       <c r="J127" s="41"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="56"/>
+      <c r="A128" s="94"/>
       <c r="B128" s="27">
         <v>41751</v>
       </c>
@@ -4004,7 +4003,7 @@
       <c r="J128" s="41"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="56"/>
+      <c r="A129" s="94"/>
       <c r="B129" s="27">
         <v>41752</v>
       </c>
@@ -4021,7 +4020,7 @@
       <c r="J129" s="41"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="56"/>
+      <c r="A130" s="94"/>
       <c r="B130" s="27">
         <v>41753</v>
       </c>
@@ -4038,7 +4037,7 @@
       <c r="J130" s="41"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="57"/>
+      <c r="A131" s="95"/>
       <c r="B131" s="27">
         <v>41754</v>
       </c>
@@ -4055,7 +4054,7 @@
       <c r="J131" s="41"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="52">
+      <c r="A132" s="67">
         <v>26</v>
       </c>
       <c r="B132" s="28">
@@ -4074,7 +4073,7 @@
       <c r="J132" s="42"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="53"/>
+      <c r="A133" s="68"/>
       <c r="B133" s="28">
         <v>41758</v>
       </c>
@@ -4091,7 +4090,7 @@
       <c r="J133" s="42"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="53"/>
+      <c r="A134" s="68"/>
       <c r="B134" s="28">
         <v>41759</v>
       </c>
@@ -4108,7 +4107,7 @@
       <c r="J134" s="42"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="53"/>
+      <c r="A135" s="68"/>
       <c r="B135" s="28">
         <v>41760</v>
       </c>
@@ -4125,7 +4124,7 @@
       <c r="J135" s="42"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="54"/>
+      <c r="A136" s="69"/>
       <c r="B136" s="28">
         <v>41761</v>
       </c>
@@ -4142,7 +4141,7 @@
       <c r="J136" s="42"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="55">
+      <c r="A137" s="93">
         <v>27</v>
       </c>
       <c r="B137" s="27">
@@ -4161,7 +4160,7 @@
       <c r="J137" s="41"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="56"/>
+      <c r="A138" s="94"/>
       <c r="B138" s="27">
         <v>41765</v>
       </c>
@@ -4178,7 +4177,7 @@
       <c r="J138" s="41"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="56"/>
+      <c r="A139" s="94"/>
       <c r="B139" s="27">
         <v>41766</v>
       </c>
@@ -4195,7 +4194,7 @@
       <c r="J139" s="41"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="56"/>
+      <c r="A140" s="94"/>
       <c r="B140" s="27">
         <v>41767</v>
       </c>
@@ -4212,7 +4211,7 @@
       <c r="J140" s="41"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="57"/>
+      <c r="A141" s="95"/>
       <c r="B141" s="27">
         <v>41768</v>
       </c>
@@ -4229,7 +4228,7 @@
       <c r="J141" s="41"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="52">
+      <c r="A142" s="67">
         <v>28</v>
       </c>
       <c r="B142" s="28">
@@ -4248,7 +4247,7 @@
       <c r="J142" s="42"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="53"/>
+      <c r="A143" s="68"/>
       <c r="B143" s="28">
         <v>41772</v>
       </c>
@@ -4265,7 +4264,7 @@
       <c r="J143" s="42"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="53"/>
+      <c r="A144" s="68"/>
       <c r="B144" s="28">
         <v>41773</v>
       </c>
@@ -4282,7 +4281,7 @@
       <c r="J144" s="42"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="53"/>
+      <c r="A145" s="68"/>
       <c r="B145" s="28">
         <v>41774</v>
       </c>
@@ -4299,7 +4298,7 @@
       <c r="J145" s="42"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="54"/>
+      <c r="A146" s="69"/>
       <c r="B146" s="28">
         <v>41775</v>
       </c>
@@ -4316,7 +4315,7 @@
       <c r="J146" s="42"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="55">
+      <c r="A147" s="93">
         <v>29</v>
       </c>
       <c r="B147" s="27">
@@ -4335,7 +4334,7 @@
       <c r="J147" s="41"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="56"/>
+      <c r="A148" s="94"/>
       <c r="B148" s="27">
         <v>41779</v>
       </c>
@@ -4352,7 +4351,7 @@
       <c r="J148" s="41"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="56"/>
+      <c r="A149" s="94"/>
       <c r="B149" s="27">
         <v>41780</v>
       </c>
@@ -4369,7 +4368,7 @@
       <c r="J149" s="41"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="56"/>
+      <c r="A150" s="94"/>
       <c r="B150" s="27">
         <v>41781</v>
       </c>
@@ -4386,7 +4385,7 @@
       <c r="J150" s="41"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="57"/>
+      <c r="A151" s="95"/>
       <c r="B151" s="27">
         <v>41782</v>
       </c>
@@ -4403,7 +4402,7 @@
       <c r="J151" s="41"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="58">
+      <c r="A152" s="99">
         <v>30</v>
       </c>
       <c r="B152" s="28">
@@ -4422,7 +4421,7 @@
       <c r="J152" s="43"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="59"/>
+      <c r="A153" s="100"/>
       <c r="B153" s="28">
         <v>41786</v>
       </c>
@@ -4439,7 +4438,7 @@
       <c r="J153" s="43"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="59"/>
+      <c r="A154" s="100"/>
       <c r="B154" s="28">
         <v>41787</v>
       </c>
@@ -4456,7 +4455,7 @@
       <c r="J154" s="43"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="59"/>
+      <c r="A155" s="100"/>
       <c r="B155" s="28">
         <v>41788</v>
       </c>
@@ -4473,7 +4472,7 @@
       <c r="J155" s="43"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="60"/>
+      <c r="A156" s="101"/>
       <c r="B156" s="28">
         <v>41789</v>
       </c>
@@ -4491,6 +4490,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="A142:A146"/>
+    <mergeCell ref="A147:A151"/>
+    <mergeCell ref="A152:A156"/>
+    <mergeCell ref="A112:A116"/>
+    <mergeCell ref="A117:A121"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="A127:A131"/>
+    <mergeCell ref="A132:A136"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="A92:A96"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A57:A61"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="G2:N4"/>
     <mergeCell ref="A7:A9"/>
@@ -4507,34 +4534,6 @@
     <mergeCell ref="A32:A36"/>
     <mergeCell ref="A37:A41"/>
     <mergeCell ref="K6:N6"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="A92:A96"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="A142:A146"/>
-    <mergeCell ref="A147:A151"/>
-    <mergeCell ref="A152:A156"/>
-    <mergeCell ref="A112:A116"/>
-    <mergeCell ref="A117:A121"/>
-    <mergeCell ref="A122:A126"/>
-    <mergeCell ref="A127:A131"/>
-    <mergeCell ref="A132:A136"/>
   </mergeCells>
   <conditionalFormatting sqref="M7">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNgo.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNgo.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="82">
   <si>
     <t>Week</t>
   </si>
@@ -270,6 +270,28 @@
   </si>
   <si>
     <t xml:space="preserve"> - SCRUM &amp; integrate between scrum and acdm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - review timelog</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - AS_PM_TimeLog_DeadlineTeam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - java and spring</t>
+  </si>
+  <si>
+    <t>team meeting</t>
+  </si>
+  <si>
+    <t>.- review change management
+- review test plan.
+- review timelog
+- review process</t>
+  </si>
+  <si>
+    <t>.- update timelog.
+ - draw process</t>
   </si>
 </sst>
 </file>
@@ -568,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -697,6 +719,21 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -820,23 +857,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1280,13 +1323,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O156"/>
+  <dimension ref="A1:O158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1298,7 +1341,7 @@
     <col min="5" max="5" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="46.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="50.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="47.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="1" customWidth="1"/>
     <col min="11" max="11" width="27.28515625" style="1" customWidth="1"/>
@@ -1308,81 +1351,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="52"/>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="54"/>
+      <c r="A1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="59"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="55" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="57"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="62"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="60"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="65"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="63"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="68"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="90"/>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="92"/>
+      <c r="A5" s="95"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="97"/>
       <c r="F5" s="16"/>
       <c r="H5" s="45" t="s">
         <v>67</v>
@@ -1427,13 +1470,13 @@
       <c r="J6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
-      <c r="N6" s="96"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="99"/>
     </row>
     <row r="7" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="64">
+      <c r="A7" s="69">
         <v>1</v>
       </c>
       <c r="B7" s="17">
@@ -1460,21 +1503,21 @@
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="31"/>
-      <c r="K7" s="98" t="s">
+      <c r="K7" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="98"/>
+      <c r="L7" s="100"/>
       <c r="M7" s="34">
-        <f>SUM(M8:M39)</f>
-        <v>15.403</v>
+        <f>SUM(M8:M41)</f>
+        <v>13.403</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="65"/>
-      <c r="B8" s="84">
+      <c r="A8" s="70"/>
+      <c r="B8" s="89">
         <v>41586</v>
       </c>
       <c r="C8" s="18">
@@ -1486,7 +1529,7 @@
       <c r="E8" s="19">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F8" s="86">
+      <c r="F8" s="91">
         <f>SUM(E8:E9)</f>
         <v>1.66</v>
       </c>
@@ -1511,8 +1554,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="66"/>
-      <c r="B9" s="85"/>
+      <c r="A9" s="71"/>
+      <c r="B9" s="90"/>
       <c r="C9" s="18">
         <v>0.63194444444444442</v>
       </c>
@@ -1522,7 +1565,7 @@
       <c r="E9" s="19">
         <v>0.5</v>
       </c>
-      <c r="F9" s="87"/>
+      <c r="F9" s="92"/>
       <c r="G9" s="31" t="s">
         <v>25</v>
       </c>
@@ -1533,10 +1576,10 @@
       <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A10" s="81">
+      <c r="A10" s="86">
         <v>2</v>
       </c>
-      <c r="B10" s="70">
+      <c r="B10" s="75">
         <v>41590</v>
       </c>
       <c r="C10" s="23">
@@ -1568,7 +1611,7 @@
       <c r="L10" s="2"/>
       <c r="M10" s="4">
         <f>SUM(E10:E16)</f>
-        <v>12.583</v>
+        <v>10.583</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>9</v>
@@ -1576,8 +1619,8 @@
       <c r="O10" s="36"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="82"/>
-      <c r="B11" s="71"/>
+      <c r="A11" s="87"/>
+      <c r="B11" s="76"/>
       <c r="C11" s="23">
         <v>0.875</v>
       </c>
@@ -1606,8 +1649,8 @@
       <c r="O11" s="36"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="82"/>
-      <c r="B12" s="70">
+      <c r="A12" s="87"/>
+      <c r="B12" s="75">
         <v>41592</v>
       </c>
       <c r="C12" s="26">
@@ -1619,7 +1662,7 @@
       <c r="E12" s="29">
         <v>1.25</v>
       </c>
-      <c r="F12" s="88">
+      <c r="F12" s="93">
         <f>SUM(E12:E13)</f>
         <v>3.25</v>
       </c>
@@ -1638,7 +1681,7 @@
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="10">
-        <f>SUM(E22:E26)</f>
+        <f>SUM(E24:E28)</f>
         <v>0</v>
       </c>
       <c r="N12" s="3" t="s">
@@ -1646,8 +1689,8 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="82"/>
-      <c r="B13" s="71"/>
+      <c r="A13" s="87"/>
+      <c r="B13" s="76"/>
       <c r="C13" s="26">
         <v>0.42708333333333331</v>
       </c>
@@ -1657,7 +1700,7 @@
       <c r="E13" s="29">
         <v>2</v>
       </c>
-      <c r="F13" s="89"/>
+      <c r="F13" s="94"/>
       <c r="G13" s="48" t="s">
         <v>30</v>
       </c>
@@ -1672,7 +1715,7 @@
       <c r="N13" s="3"/>
     </row>
     <row r="14" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="82"/>
+      <c r="A14" s="87"/>
       <c r="B14" s="46">
         <v>41593</v>
       </c>
@@ -1704,7 +1747,7 @@
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="10">
-        <f>SUM(E27:E31)</f>
+        <f>SUM(E29:E33)</f>
         <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
@@ -1712,8 +1755,8 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="82"/>
-      <c r="B15" s="70">
+      <c r="A15" s="87"/>
+      <c r="B15" s="75">
         <v>41594</v>
       </c>
       <c r="C15" s="26">
@@ -1725,9 +1768,9 @@
       <c r="E15" s="29">
         <v>2</v>
       </c>
-      <c r="F15" s="88">
+      <c r="F15" s="93">
         <f>SUM(E15:E16)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G15" s="48" t="s">
         <v>24</v>
@@ -1744,7 +1787,7 @@
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="10">
-        <f>SUM(E37:E41)</f>
+        <f>SUM(E39:E43)</f>
         <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
@@ -1752,8 +1795,8 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="83"/>
-      <c r="B16" s="71"/>
+      <c r="A16" s="88"/>
+      <c r="B16" s="76"/>
       <c r="C16" s="26">
         <v>0.83333333333333337</v>
       </c>
@@ -1761,9 +1804,9 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="E16" s="29">
-        <v>3</v>
-      </c>
-      <c r="F16" s="89"/>
+        <v>1</v>
+      </c>
+      <c r="F16" s="94"/>
       <c r="G16" s="30" t="s">
         <v>24</v>
       </c>
@@ -1780,29 +1823,41 @@
       <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="97">
+      <c r="A17" s="101">
         <v>3</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="102">
         <v>41596</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5">
-        <f t="shared" ref="F17:F48" si="0">E17</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
+      <c r="C17" s="53">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D17" s="53">
+        <v>0.89166666666666661</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F17" s="55">
+        <f>SUM(E17:E18)</f>
+        <v>2.5900000000000003</v>
+      </c>
+      <c r="G17" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17" s="41" t="s">
+        <v>77</v>
+      </c>
       <c r="J17" s="41"/>
       <c r="K17" s="8" t="s">
         <v>16</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="10">
-        <f>SUM(E42:E46)</f>
+        <f>SUM(E44:E48)</f>
         <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
@@ -1810,99 +1865,107 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="97"/>
-      <c r="B18" s="27">
-        <v>41597</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
+      <c r="A18" s="101"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="53">
+        <v>0.89236111111111116</v>
+      </c>
+      <c r="D18" s="53">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="F18" s="56"/>
+      <c r="G18" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="41" t="s">
+        <v>78</v>
+      </c>
       <c r="I18" s="41"/>
       <c r="J18" s="41"/>
-      <c r="K18" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="K18" s="8"/>
       <c r="L18" s="6"/>
-      <c r="M18" s="10">
-        <f>SUM(E47:E51)</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="97"/>
-      <c r="B19" s="27">
-        <v>41598</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A19" s="101"/>
+      <c r="B19" s="104">
+        <v>41597</v>
+      </c>
+      <c r="C19" s="53">
+        <v>0.5625</v>
+      </c>
+      <c r="D19" s="53">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E19" s="52">
+        <v>1</v>
+      </c>
+      <c r="F19" s="55">
+        <f>SUM(E19:E20)</f>
+        <v>3</v>
+      </c>
+      <c r="G19" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" s="54" t="s">
+        <v>80</v>
+      </c>
       <c r="I19" s="41"/>
       <c r="J19" s="41"/>
       <c r="K19" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="10">
-        <f>SUM(E52:E56)</f>
+        <f>SUM(E49:E53)</f>
         <v>0</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="97"/>
-      <c r="B20" s="27">
-        <v>41599</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
+    <row r="20" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="101"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="53">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D20" s="53">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="E20" s="52">
+        <v>2</v>
+      </c>
+      <c r="F20" s="56"/>
+      <c r="G20" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20" s="41" t="s">
+        <v>77</v>
+      </c>
       <c r="J20" s="41"/>
-      <c r="K20" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="K20" s="8"/>
       <c r="L20" s="6"/>
-      <c r="M20" s="10">
-        <f>SUM(E57:E61)</f>
-        <v>0</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="M20" s="10"/>
+      <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="97"/>
+      <c r="A21" s="101"/>
       <c r="B21" s="27">
-        <v>41600</v>
+        <v>41598</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F21:F50" si="0">E21</f>
         <v>0</v>
       </c>
       <c r="G21" s="41"/>
@@ -1910,11 +1973,11 @@
       <c r="I21" s="41"/>
       <c r="J21" s="41"/>
       <c r="K21" s="8" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="10">
-        <f>SUM(E62:E66)</f>
+        <f>SUM(E54:E58)</f>
         <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
@@ -1922,29 +1985,27 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="67">
-        <v>4</v>
-      </c>
-      <c r="B22" s="28">
-        <v>41603</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6">
+      <c r="A22" s="101"/>
+      <c r="B22" s="27">
+        <v>41599</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
       <c r="K22" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="10">
-        <f>SUM(E67:E71)</f>
+        <f>SUM(E59:E63)</f>
         <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
@@ -1952,27 +2013,27 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="68"/>
-      <c r="B23" s="28">
-        <v>41604</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6">
+      <c r="A23" s="101"/>
+      <c r="B23" s="27">
+        <v>41600</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
       <c r="K23" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="10">
-        <f>SUM(E72:E76)</f>
+        <f>SUM(E64:E68)</f>
         <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
@@ -1980,9 +2041,11 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="68"/>
+      <c r="A24" s="72">
+        <v>4</v>
+      </c>
       <c r="B24" s="28">
-        <v>41605</v>
+        <v>41603</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1996,11 +2059,11 @@
       <c r="I24" s="42"/>
       <c r="J24" s="42"/>
       <c r="K24" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="10">
-        <f>SUM(E77:E81)</f>
+        <f>SUM(E69:E73)</f>
         <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
@@ -2008,9 +2071,9 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="68"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="28">
-        <v>41606</v>
+        <v>41604</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -2024,11 +2087,11 @@
       <c r="I25" s="42"/>
       <c r="J25" s="42"/>
       <c r="K25" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="10">
-        <f>SUM(E82:E86)</f>
+        <f>SUM(E74:E78)</f>
         <v>0</v>
       </c>
       <c r="N25" s="3" t="s">
@@ -2036,9 +2099,9 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="69"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="28">
-        <v>41607</v>
+        <v>41605</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -2052,11 +2115,11 @@
       <c r="I26" s="42"/>
       <c r="J26" s="42"/>
       <c r="K26" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="10">
-        <f>SUM(E87:E91)</f>
+        <f>SUM(E79:E83)</f>
         <v>0</v>
       </c>
       <c r="N26" s="3" t="s">
@@ -2064,29 +2127,27 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="93">
-        <v>5</v>
-      </c>
-      <c r="B27" s="27">
-        <v>41610</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5">
+      <c r="A27" s="73"/>
+      <c r="B27" s="28">
+        <v>41606</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
       <c r="K27" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="10">
-        <f>SUM(E92:E96)</f>
+        <f>SUM(E84:E88)</f>
         <v>0</v>
       </c>
       <c r="N27" s="3" t="s">
@@ -2094,27 +2155,27 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="94"/>
-      <c r="B28" s="27">
-        <v>41611</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5">
+      <c r="A28" s="74"/>
+      <c r="B28" s="28">
+        <v>41607</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
       <c r="K28" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="10">
-        <f>SUM(E97:E101)</f>
+        <f>SUM(E89:E93)</f>
         <v>0</v>
       </c>
       <c r="N28" s="3" t="s">
@@ -2122,9 +2183,11 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="94"/>
+      <c r="A29" s="55">
+        <v>5</v>
+      </c>
       <c r="B29" s="27">
-        <v>41612</v>
+        <v>41610</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -2138,11 +2201,11 @@
       <c r="I29" s="41"/>
       <c r="J29" s="41"/>
       <c r="K29" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="10">
-        <f>SUM(E102:E106)</f>
+        <f>SUM(E94:E98)</f>
         <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
@@ -2150,9 +2213,9 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="94"/>
+      <c r="A30" s="98"/>
       <c r="B30" s="27">
-        <v>41613</v>
+        <v>41611</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -2166,11 +2229,11 @@
       <c r="I30" s="41"/>
       <c r="J30" s="41"/>
       <c r="K30" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="10">
-        <f>SUM(E107:E111)</f>
+        <f>SUM(E99:E103)</f>
         <v>0</v>
       </c>
       <c r="N30" s="3" t="s">
@@ -2178,9 +2241,9 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="95"/>
+      <c r="A31" s="98"/>
       <c r="B31" s="27">
-        <v>41614</v>
+        <v>41612</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -2194,11 +2257,11 @@
       <c r="I31" s="41"/>
       <c r="J31" s="41"/>
       <c r="K31" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="10">
-        <f>SUM(E112:E116)</f>
+        <f>SUM(E104:E108)</f>
         <v>0</v>
       </c>
       <c r="N31" s="3" t="s">
@@ -2206,29 +2269,27 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="67">
-        <v>6</v>
-      </c>
-      <c r="B32" s="28">
-        <v>41617</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6">
+      <c r="A32" s="98"/>
+      <c r="B32" s="27">
+        <v>41613</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
       <c r="K32" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L32" s="6"/>
       <c r="M32" s="10">
-        <f>SUM(E117:E121)</f>
+        <f>SUM(E109:E113)</f>
         <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
@@ -2236,27 +2297,27 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="68"/>
-      <c r="B33" s="28">
-        <v>41618</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6">
+      <c r="A33" s="56"/>
+      <c r="B33" s="27">
+        <v>41614</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
       <c r="K33" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L33" s="6"/>
       <c r="M33" s="10">
-        <f>SUM(E122:E126)</f>
+        <f>SUM(E114:E118)</f>
         <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
@@ -2264,9 +2325,11 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="68"/>
+      <c r="A34" s="72">
+        <v>6</v>
+      </c>
       <c r="B34" s="28">
-        <v>41619</v>
+        <v>41617</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -2280,11 +2343,11 @@
       <c r="I34" s="42"/>
       <c r="J34" s="42"/>
       <c r="K34" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="10">
-        <f>SUM(E127:E131)</f>
+        <f>SUM(E119:E123)</f>
         <v>0</v>
       </c>
       <c r="N34" s="3" t="s">
@@ -2292,9 +2355,9 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="68"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="28">
-        <v>41620</v>
+        <v>41618</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -2308,11 +2371,11 @@
       <c r="I35" s="42"/>
       <c r="J35" s="42"/>
       <c r="K35" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="10">
-        <f>SUM(E132:E136)</f>
+        <f>SUM(E124:E128)</f>
         <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
@@ -2320,9 +2383,9 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="69"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="28">
-        <v>41621</v>
+        <v>41619</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -2336,11 +2399,11 @@
       <c r="I36" s="42"/>
       <c r="J36" s="42"/>
       <c r="K36" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L36" s="6"/>
       <c r="M36" s="10">
-        <f>SUM(E137:E141)</f>
+        <f>SUM(E129:E133)</f>
         <v>0</v>
       </c>
       <c r="N36" s="3" t="s">
@@ -2348,29 +2411,27 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="93">
-        <v>7</v>
-      </c>
-      <c r="B37" s="27">
-        <v>41624</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5">
+      <c r="A37" s="73"/>
+      <c r="B37" s="28">
+        <v>41620</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
       <c r="K37" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="10">
-        <f>SUM(E142:E146)</f>
+        <f>SUM(E134:E138)</f>
         <v>0</v>
       </c>
       <c r="N37" s="3" t="s">
@@ -2378,27 +2439,27 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="94"/>
-      <c r="B38" s="27">
-        <v>41625</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5">
+      <c r="A38" s="74"/>
+      <c r="B38" s="28">
+        <v>41621</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
       <c r="K38" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L38" s="6"/>
       <c r="M38" s="10">
-        <f>SUM(E147:E151)</f>
+        <f>SUM(E139:E143)</f>
         <v>0</v>
       </c>
       <c r="N38" s="3" t="s">
@@ -2406,9 +2467,11 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="94"/>
+      <c r="A39" s="55">
+        <v>7</v>
+      </c>
       <c r="B39" s="27">
-        <v>41626</v>
+        <v>41624</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -2422,11 +2485,11 @@
       <c r="I39" s="41"/>
       <c r="J39" s="41"/>
       <c r="K39" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="10">
-        <f>SUM(E152:E156)</f>
+        <f>SUM(E144:E148)</f>
         <v>0</v>
       </c>
       <c r="N39" s="3" t="s">
@@ -2434,9 +2497,9 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="94"/>
+      <c r="A40" s="98"/>
       <c r="B40" s="27">
-        <v>41627</v>
+        <v>41625</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -2449,11 +2512,22 @@
       <c r="H40" s="41"/>
       <c r="I40" s="41"/>
       <c r="J40" s="41"/>
+      <c r="K40" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L40" s="6"/>
+      <c r="M40" s="10">
+        <f>SUM(E149:E153)</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="95"/>
+      <c r="A41" s="98"/>
       <c r="B41" s="27">
-        <v>41628</v>
+        <v>41626</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -2466,47 +2540,58 @@
       <c r="H41" s="41"/>
       <c r="I41" s="41"/>
       <c r="J41" s="41"/>
+      <c r="K41" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L41" s="6"/>
+      <c r="M41" s="10">
+        <f>SUM(E154:E158)</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="67">
+      <c r="A42" s="98"/>
+      <c r="B42" s="27">
+        <v>41627</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="56"/>
+      <c r="B43" s="27">
+        <v>41628</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="72">
         <v>8</v>
       </c>
-      <c r="B42" s="28">
+      <c r="B44" s="28">
         <v>41631</v>
-      </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="68"/>
-      <c r="B43" s="28">
-        <v>41632</v>
-      </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="68"/>
-      <c r="B44" s="28">
-        <v>41633</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -2521,9 +2606,9 @@
       <c r="J44" s="42"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="68"/>
+      <c r="A45" s="73"/>
       <c r="B45" s="28">
-        <v>41634</v>
+        <v>41632</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -2538,9 +2623,9 @@
       <c r="J45" s="42"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="69"/>
+      <c r="A46" s="73"/>
       <c r="B46" s="28">
-        <v>41635</v>
+        <v>41633</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -2555,51 +2640,51 @@
       <c r="J46" s="42"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="93">
+      <c r="A47" s="73"/>
+      <c r="B47" s="28">
+        <v>41634</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="74"/>
+      <c r="B48" s="28">
+        <v>41635</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="55">
         <v>9</v>
       </c>
-      <c r="B47" s="27">
+      <c r="B49" s="27">
         <v>41638</v>
-      </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="94"/>
-      <c r="B48" s="27">
-        <v>41639</v>
-      </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="41"/>
-      <c r="J48" s="41"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="94"/>
-      <c r="B49" s="27">
-        <v>41640</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5">
-        <f t="shared" ref="F49:F80" si="1">E49</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G49" s="41"/>
@@ -2608,15 +2693,15 @@
       <c r="J49" s="41"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="94"/>
+      <c r="A50" s="98"/>
       <c r="B50" s="27">
-        <v>41641</v>
+        <v>41639</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G50" s="41"/>
@@ -2625,15 +2710,15 @@
       <c r="J50" s="41"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="95"/>
+      <c r="A51" s="98"/>
       <c r="B51" s="27">
-        <v>41642</v>
+        <v>41640</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F51:F82" si="1">E51</f>
         <v>0</v>
       </c>
       <c r="G51" s="41"/>
@@ -2642,45 +2727,45 @@
       <c r="J51" s="41"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="67">
+      <c r="A52" s="98"/>
+      <c r="B52" s="27">
+        <v>41641</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="41"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="41"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="56"/>
+      <c r="B53" s="27">
+        <v>41642</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="41"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="72">
         <v>10</v>
       </c>
-      <c r="B52" s="28">
+      <c r="B54" s="28">
         <v>41645</v>
-      </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="42"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="68"/>
-      <c r="B53" s="28">
-        <v>41646</v>
-      </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G53" s="42"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="42"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="68"/>
-      <c r="B54" s="28">
-        <v>41647</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -2695,9 +2780,9 @@
       <c r="J54" s="42"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="68"/>
+      <c r="A55" s="73"/>
       <c r="B55" s="28">
-        <v>41648</v>
+        <v>41646</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -2712,9 +2797,9 @@
       <c r="J55" s="42"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="69"/>
+      <c r="A56" s="73"/>
       <c r="B56" s="28">
-        <v>41649</v>
+        <v>41647</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -2729,45 +2814,45 @@
       <c r="J56" s="42"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="93">
+      <c r="A57" s="73"/>
+      <c r="B57" s="28">
+        <v>41648</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="74"/>
+      <c r="B58" s="28">
+        <v>41649</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="55">
         <v>11</v>
       </c>
-      <c r="B57" s="27">
+      <c r="B59" s="27">
         <v>41652</v>
-      </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G57" s="41"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="41"/>
-      <c r="J57" s="41"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="94"/>
-      <c r="B58" s="27">
-        <v>41653</v>
-      </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G58" s="41"/>
-      <c r="H58" s="41"/>
-      <c r="I58" s="41"/>
-      <c r="J58" s="41"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="94"/>
-      <c r="B59" s="27">
-        <v>41654</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -2782,9 +2867,9 @@
       <c r="J59" s="41"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="94"/>
+      <c r="A60" s="98"/>
       <c r="B60" s="27">
-        <v>41655</v>
+        <v>41653</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -2799,9 +2884,9 @@
       <c r="J60" s="41"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="95"/>
+      <c r="A61" s="98"/>
       <c r="B61" s="27">
-        <v>41656</v>
+        <v>41654</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -2816,45 +2901,45 @@
       <c r="J61" s="41"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="67">
+      <c r="A62" s="98"/>
+      <c r="B62" s="27">
+        <v>41655</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G62" s="41"/>
+      <c r="H62" s="41"/>
+      <c r="I62" s="41"/>
+      <c r="J62" s="41"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="56"/>
+      <c r="B63" s="27">
+        <v>41656</v>
+      </c>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="41"/>
+      <c r="H63" s="41"/>
+      <c r="I63" s="41"/>
+      <c r="J63" s="41"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="72">
         <v>12</v>
       </c>
-      <c r="B62" s="28">
+      <c r="B64" s="28">
         <v>41659</v>
-      </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G62" s="42"/>
-      <c r="H62" s="42"/>
-      <c r="I62" s="42"/>
-      <c r="J62" s="42"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="68"/>
-      <c r="B63" s="28">
-        <v>41660</v>
-      </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G63" s="42"/>
-      <c r="H63" s="42"/>
-      <c r="I63" s="42"/>
-      <c r="J63" s="42"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="68"/>
-      <c r="B64" s="28">
-        <v>41661</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -2869,9 +2954,9 @@
       <c r="J64" s="42"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="68"/>
+      <c r="A65" s="73"/>
       <c r="B65" s="28">
-        <v>41662</v>
+        <v>41660</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -2886,9 +2971,9 @@
       <c r="J65" s="42"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="69"/>
+      <c r="A66" s="73"/>
       <c r="B66" s="28">
-        <v>41663</v>
+        <v>41661</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -2903,49 +2988,45 @@
       <c r="J66" s="42"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="93">
+      <c r="A67" s="73"/>
+      <c r="B67" s="28">
+        <v>41662</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="42"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="74"/>
+      <c r="B68" s="28">
+        <v>41663</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G68" s="42"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="42"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="55">
         <v>13</v>
       </c>
-      <c r="B67" s="27">
+      <c r="B69" s="27">
         <v>41666</v>
-      </c>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G67" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="H67" s="41"/>
-      <c r="I67" s="41"/>
-      <c r="J67" s="41"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="94"/>
-      <c r="B68" s="27">
-        <v>41667</v>
-      </c>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G68" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="H68" s="41"/>
-      <c r="I68" s="41"/>
-      <c r="J68" s="41"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="94"/>
-      <c r="B69" s="27">
-        <v>41668</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -2962,9 +3043,9 @@
       <c r="J69" s="41"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="94"/>
+      <c r="A70" s="98"/>
       <c r="B70" s="27">
-        <v>41669</v>
+        <v>41667</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -2981,9 +3062,9 @@
       <c r="J70" s="41"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="95"/>
+      <c r="A71" s="98"/>
       <c r="B71" s="27">
-        <v>41670</v>
+        <v>41668</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
@@ -3000,49 +3081,49 @@
       <c r="J71" s="41"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="67">
+      <c r="A72" s="98"/>
+      <c r="B72" s="27">
+        <v>41669</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G72" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="H72" s="41"/>
+      <c r="I72" s="41"/>
+      <c r="J72" s="41"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="56"/>
+      <c r="B73" s="27">
+        <v>41670</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G73" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="H73" s="41"/>
+      <c r="I73" s="41"/>
+      <c r="J73" s="41"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="72">
         <v>14</v>
       </c>
-      <c r="B72" s="28">
+      <c r="B74" s="28">
         <v>41673</v>
-      </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G72" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="H72" s="42"/>
-      <c r="I72" s="42"/>
-      <c r="J72" s="42"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="68"/>
-      <c r="B73" s="28">
-        <v>41674</v>
-      </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G73" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="H73" s="42"/>
-      <c r="I73" s="42"/>
-      <c r="J73" s="42"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="68"/>
-      <c r="B74" s="28">
-        <v>41675</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -3059,9 +3140,9 @@
       <c r="J74" s="42"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="68"/>
+      <c r="A75" s="73"/>
       <c r="B75" s="28">
-        <v>41676</v>
+        <v>41674</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -3078,9 +3159,9 @@
       <c r="J75" s="42"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="69"/>
+      <c r="A76" s="73"/>
       <c r="B76" s="28">
-        <v>41677</v>
+        <v>41675</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -3097,45 +3178,49 @@
       <c r="J76" s="42"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="93">
+      <c r="A77" s="73"/>
+      <c r="B77" s="28">
+        <v>41676</v>
+      </c>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G77" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H77" s="42"/>
+      <c r="I77" s="42"/>
+      <c r="J77" s="42"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="74"/>
+      <c r="B78" s="28">
+        <v>41677</v>
+      </c>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G78" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H78" s="42"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="42"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="55">
         <v>15</v>
       </c>
-      <c r="B77" s="27">
+      <c r="B79" s="27">
         <v>41680</v>
-      </c>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G77" s="41"/>
-      <c r="H77" s="41"/>
-      <c r="I77" s="41"/>
-      <c r="J77" s="41"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="94"/>
-      <c r="B78" s="27">
-        <v>41681</v>
-      </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G78" s="41"/>
-      <c r="H78" s="41"/>
-      <c r="I78" s="41"/>
-      <c r="J78" s="41"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="94"/>
-      <c r="B79" s="27">
-        <v>41682</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
@@ -3150,9 +3235,9 @@
       <c r="J79" s="41"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="94"/>
+      <c r="A80" s="98"/>
       <c r="B80" s="27">
-        <v>41683</v>
+        <v>41681</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
@@ -3167,15 +3252,15 @@
       <c r="J80" s="41"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="95"/>
+      <c r="A81" s="98"/>
       <c r="B81" s="27">
-        <v>41684</v>
+        <v>41682</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
       <c r="F81" s="5">
-        <f t="shared" ref="F81:F112" si="2">E81</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G81" s="41"/>
@@ -3184,45 +3269,45 @@
       <c r="J81" s="41"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="67">
+      <c r="A82" s="98"/>
+      <c r="B82" s="27">
+        <v>41683</v>
+      </c>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G82" s="41"/>
+      <c r="H82" s="41"/>
+      <c r="I82" s="41"/>
+      <c r="J82" s="41"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="56"/>
+      <c r="B83" s="27">
+        <v>41684</v>
+      </c>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5">
+        <f t="shared" ref="F83:F114" si="2">E83</f>
+        <v>0</v>
+      </c>
+      <c r="G83" s="41"/>
+      <c r="H83" s="41"/>
+      <c r="I83" s="41"/>
+      <c r="J83" s="41"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="72">
         <v>16</v>
       </c>
-      <c r="B82" s="28">
+      <c r="B84" s="28">
         <v>41687</v>
-      </c>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G82" s="42"/>
-      <c r="H82" s="42"/>
-      <c r="I82" s="42"/>
-      <c r="J82" s="42"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="68"/>
-      <c r="B83" s="28">
-        <v>41688</v>
-      </c>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G83" s="42"/>
-      <c r="H83" s="42"/>
-      <c r="I83" s="42"/>
-      <c r="J83" s="42"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="68"/>
-      <c r="B84" s="28">
-        <v>41689</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -3237,9 +3322,9 @@
       <c r="J84" s="42"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="68"/>
+      <c r="A85" s="73"/>
       <c r="B85" s="28">
-        <v>41690</v>
+        <v>41688</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -3254,9 +3339,9 @@
       <c r="J85" s="42"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="69"/>
+      <c r="A86" s="73"/>
       <c r="B86" s="28">
-        <v>41691</v>
+        <v>41689</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
@@ -3271,45 +3356,45 @@
       <c r="J86" s="42"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="93">
+      <c r="A87" s="73"/>
+      <c r="B87" s="28">
+        <v>41690</v>
+      </c>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G87" s="42"/>
+      <c r="H87" s="42"/>
+      <c r="I87" s="42"/>
+      <c r="J87" s="42"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="74"/>
+      <c r="B88" s="28">
+        <v>41691</v>
+      </c>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G88" s="42"/>
+      <c r="H88" s="42"/>
+      <c r="I88" s="42"/>
+      <c r="J88" s="42"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="55">
         <v>17</v>
       </c>
-      <c r="B87" s="27">
+      <c r="B89" s="27">
         <v>41694</v>
-      </c>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G87" s="41"/>
-      <c r="H87" s="41"/>
-      <c r="I87" s="41"/>
-      <c r="J87" s="41"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="94"/>
-      <c r="B88" s="27">
-        <v>41695</v>
-      </c>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G88" s="41"/>
-      <c r="H88" s="41"/>
-      <c r="I88" s="41"/>
-      <c r="J88" s="41"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="94"/>
-      <c r="B89" s="27">
-        <v>41696</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
@@ -3324,9 +3409,9 @@
       <c r="J89" s="41"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="94"/>
+      <c r="A90" s="98"/>
       <c r="B90" s="27">
-        <v>41697</v>
+        <v>41695</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
@@ -3341,9 +3426,9 @@
       <c r="J90" s="41"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="95"/>
+      <c r="A91" s="98"/>
       <c r="B91" s="27">
-        <v>41698</v>
+        <v>41696</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
@@ -3358,45 +3443,45 @@
       <c r="J91" s="41"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="67">
+      <c r="A92" s="98"/>
+      <c r="B92" s="27">
+        <v>41697</v>
+      </c>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G92" s="41"/>
+      <c r="H92" s="41"/>
+      <c r="I92" s="41"/>
+      <c r="J92" s="41"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="56"/>
+      <c r="B93" s="27">
+        <v>41698</v>
+      </c>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G93" s="41"/>
+      <c r="H93" s="41"/>
+      <c r="I93" s="41"/>
+      <c r="J93" s="41"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="72">
         <v>18</v>
       </c>
-      <c r="B92" s="28">
+      <c r="B94" s="28">
         <v>41701</v>
-      </c>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G92" s="42"/>
-      <c r="H92" s="42"/>
-      <c r="I92" s="42"/>
-      <c r="J92" s="42"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="68"/>
-      <c r="B93" s="28">
-        <v>41702</v>
-      </c>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G93" s="42"/>
-      <c r="H93" s="42"/>
-      <c r="I93" s="42"/>
-      <c r="J93" s="42"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="68"/>
-      <c r="B94" s="28">
-        <v>41703</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -3411,9 +3496,9 @@
       <c r="J94" s="42"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="68"/>
+      <c r="A95" s="73"/>
       <c r="B95" s="28">
-        <v>41704</v>
+        <v>41702</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -3428,9 +3513,9 @@
       <c r="J95" s="42"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="69"/>
+      <c r="A96" s="73"/>
       <c r="B96" s="28">
-        <v>41705</v>
+        <v>41703</v>
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -3445,45 +3530,45 @@
       <c r="J96" s="42"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="93">
+      <c r="A97" s="73"/>
+      <c r="B97" s="28">
+        <v>41704</v>
+      </c>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G97" s="42"/>
+      <c r="H97" s="42"/>
+      <c r="I97" s="42"/>
+      <c r="J97" s="42"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="74"/>
+      <c r="B98" s="28">
+        <v>41705</v>
+      </c>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G98" s="42"/>
+      <c r="H98" s="42"/>
+      <c r="I98" s="42"/>
+      <c r="J98" s="42"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="55">
         <v>19</v>
       </c>
-      <c r="B97" s="27">
+      <c r="B99" s="27">
         <v>41708</v>
-      </c>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G97" s="41"/>
-      <c r="H97" s="41"/>
-      <c r="I97" s="41"/>
-      <c r="J97" s="41"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="94"/>
-      <c r="B98" s="27">
-        <v>41709</v>
-      </c>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G98" s="41"/>
-      <c r="H98" s="41"/>
-      <c r="I98" s="41"/>
-      <c r="J98" s="41"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="94"/>
-      <c r="B99" s="27">
-        <v>41710</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
@@ -3498,9 +3583,9 @@
       <c r="J99" s="41"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="94"/>
+      <c r="A100" s="98"/>
       <c r="B100" s="27">
-        <v>41711</v>
+        <v>41709</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
@@ -3515,9 +3600,9 @@
       <c r="J100" s="41"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="95"/>
+      <c r="A101" s="98"/>
       <c r="B101" s="27">
-        <v>41712</v>
+        <v>41710</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
@@ -3532,45 +3617,45 @@
       <c r="J101" s="41"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="67">
+      <c r="A102" s="98"/>
+      <c r="B102" s="27">
+        <v>41711</v>
+      </c>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G102" s="41"/>
+      <c r="H102" s="41"/>
+      <c r="I102" s="41"/>
+      <c r="J102" s="41"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="56"/>
+      <c r="B103" s="27">
+        <v>41712</v>
+      </c>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G103" s="41"/>
+      <c r="H103" s="41"/>
+      <c r="I103" s="41"/>
+      <c r="J103" s="41"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="72">
         <v>20</v>
       </c>
-      <c r="B102" s="28">
+      <c r="B104" s="28">
         <v>41715</v>
-      </c>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G102" s="42"/>
-      <c r="H102" s="42"/>
-      <c r="I102" s="42"/>
-      <c r="J102" s="42"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="68"/>
-      <c r="B103" s="28">
-        <v>41716</v>
-      </c>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G103" s="42"/>
-      <c r="H103" s="42"/>
-      <c r="I103" s="42"/>
-      <c r="J103" s="42"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="68"/>
-      <c r="B104" s="28">
-        <v>41717</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
@@ -3585,9 +3670,9 @@
       <c r="J104" s="42"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="68"/>
+      <c r="A105" s="73"/>
       <c r="B105" s="28">
-        <v>41718</v>
+        <v>41716</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -3602,9 +3687,9 @@
       <c r="J105" s="42"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="69"/>
+      <c r="A106" s="73"/>
       <c r="B106" s="28">
-        <v>41719</v>
+        <v>41717</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -3619,45 +3704,45 @@
       <c r="J106" s="42"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="93">
+      <c r="A107" s="73"/>
+      <c r="B107" s="28">
+        <v>41718</v>
+      </c>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G107" s="42"/>
+      <c r="H107" s="42"/>
+      <c r="I107" s="42"/>
+      <c r="J107" s="42"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="74"/>
+      <c r="B108" s="28">
+        <v>41719</v>
+      </c>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G108" s="42"/>
+      <c r="H108" s="42"/>
+      <c r="I108" s="42"/>
+      <c r="J108" s="42"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="55">
         <v>21</v>
       </c>
-      <c r="B107" s="27">
+      <c r="B109" s="27">
         <v>41722</v>
-      </c>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G107" s="41"/>
-      <c r="H107" s="41"/>
-      <c r="I107" s="41"/>
-      <c r="J107" s="41"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="94"/>
-      <c r="B108" s="27">
-        <v>41723</v>
-      </c>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G108" s="41"/>
-      <c r="H108" s="41"/>
-      <c r="I108" s="41"/>
-      <c r="J108" s="41"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="94"/>
-      <c r="B109" s="27">
-        <v>41724</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
@@ -3672,9 +3757,9 @@
       <c r="J109" s="41"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="94"/>
+      <c r="A110" s="98"/>
       <c r="B110" s="27">
-        <v>41725</v>
+        <v>41723</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
@@ -3689,9 +3774,9 @@
       <c r="J110" s="41"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="95"/>
+      <c r="A111" s="98"/>
       <c r="B111" s="27">
-        <v>41726</v>
+        <v>41724</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
@@ -3706,51 +3791,51 @@
       <c r="J111" s="41"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="67">
+      <c r="A112" s="98"/>
+      <c r="B112" s="27">
+        <v>41725</v>
+      </c>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G112" s="41"/>
+      <c r="H112" s="41"/>
+      <c r="I112" s="41"/>
+      <c r="J112" s="41"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="56"/>
+      <c r="B113" s="27">
+        <v>41726</v>
+      </c>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G113" s="41"/>
+      <c r="H113" s="41"/>
+      <c r="I113" s="41"/>
+      <c r="J113" s="41"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="72">
         <v>22</v>
       </c>
-      <c r="B112" s="28">
+      <c r="B114" s="28">
         <v>41729</v>
-      </c>
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G112" s="42"/>
-      <c r="H112" s="42"/>
-      <c r="I112" s="42"/>
-      <c r="J112" s="42"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="68"/>
-      <c r="B113" s="28">
-        <v>41730</v>
-      </c>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6">
-        <f t="shared" ref="F113:F144" si="3">E113</f>
-        <v>0</v>
-      </c>
-      <c r="G113" s="42"/>
-      <c r="H113" s="42"/>
-      <c r="I113" s="42"/>
-      <c r="J113" s="42"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="68"/>
-      <c r="B114" s="28">
-        <v>41731</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
       <c r="F114" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G114" s="42"/>
@@ -3759,15 +3844,15 @@
       <c r="J114" s="42"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="68"/>
+      <c r="A115" s="73"/>
       <c r="B115" s="28">
-        <v>41732</v>
+        <v>41730</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
       <c r="F115" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F115:F146" si="3">E115</f>
         <v>0</v>
       </c>
       <c r="G115" s="42"/>
@@ -3776,9 +3861,9 @@
       <c r="J115" s="42"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="69"/>
+      <c r="A116" s="73"/>
       <c r="B116" s="28">
-        <v>41733</v>
+        <v>41731</v>
       </c>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
@@ -3793,45 +3878,45 @@
       <c r="J116" s="42"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="93">
+      <c r="A117" s="73"/>
+      <c r="B117" s="28">
+        <v>41732</v>
+      </c>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G117" s="42"/>
+      <c r="H117" s="42"/>
+      <c r="I117" s="42"/>
+      <c r="J117" s="42"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="74"/>
+      <c r="B118" s="28">
+        <v>41733</v>
+      </c>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G118" s="42"/>
+      <c r="H118" s="42"/>
+      <c r="I118" s="42"/>
+      <c r="J118" s="42"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="55">
         <v>23</v>
       </c>
-      <c r="B117" s="27">
+      <c r="B119" s="27">
         <v>41736</v>
-      </c>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G117" s="41"/>
-      <c r="H117" s="41"/>
-      <c r="I117" s="41"/>
-      <c r="J117" s="41"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="94"/>
-      <c r="B118" s="27">
-        <v>41737</v>
-      </c>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G118" s="41"/>
-      <c r="H118" s="41"/>
-      <c r="I118" s="41"/>
-      <c r="J118" s="41"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="94"/>
-      <c r="B119" s="27">
-        <v>41738</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
@@ -3846,9 +3931,9 @@
       <c r="J119" s="41"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="94"/>
+      <c r="A120" s="98"/>
       <c r="B120" s="27">
-        <v>41739</v>
+        <v>41737</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
@@ -3863,9 +3948,9 @@
       <c r="J120" s="41"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="95"/>
+      <c r="A121" s="98"/>
       <c r="B121" s="27">
-        <v>41740</v>
+        <v>41738</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
@@ -3880,45 +3965,45 @@
       <c r="J121" s="41"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="67">
+      <c r="A122" s="98"/>
+      <c r="B122" s="27">
+        <v>41739</v>
+      </c>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G122" s="41"/>
+      <c r="H122" s="41"/>
+      <c r="I122" s="41"/>
+      <c r="J122" s="41"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="56"/>
+      <c r="B123" s="27">
+        <v>41740</v>
+      </c>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G123" s="41"/>
+      <c r="H123" s="41"/>
+      <c r="I123" s="41"/>
+      <c r="J123" s="41"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="72">
         <v>24</v>
       </c>
-      <c r="B122" s="28">
+      <c r="B124" s="28">
         <v>41743</v>
-      </c>
-      <c r="C122" s="6"/>
-      <c r="D122" s="6"/>
-      <c r="E122" s="6"/>
-      <c r="F122" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G122" s="42"/>
-      <c r="H122" s="42"/>
-      <c r="I122" s="42"/>
-      <c r="J122" s="42"/>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="68"/>
-      <c r="B123" s="28">
-        <v>41744</v>
-      </c>
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
-      <c r="F123" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G123" s="42"/>
-      <c r="H123" s="42"/>
-      <c r="I123" s="42"/>
-      <c r="J123" s="42"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="68"/>
-      <c r="B124" s="28">
-        <v>41745</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
@@ -3933,9 +4018,9 @@
       <c r="J124" s="42"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="68"/>
+      <c r="A125" s="73"/>
       <c r="B125" s="28">
-        <v>41746</v>
+        <v>41744</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -3950,9 +4035,9 @@
       <c r="J125" s="42"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="69"/>
+      <c r="A126" s="73"/>
       <c r="B126" s="28">
-        <v>41747</v>
+        <v>41745</v>
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
@@ -3967,45 +4052,45 @@
       <c r="J126" s="42"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="93">
+      <c r="A127" s="73"/>
+      <c r="B127" s="28">
+        <v>41746</v>
+      </c>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G127" s="42"/>
+      <c r="H127" s="42"/>
+      <c r="I127" s="42"/>
+      <c r="J127" s="42"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="74"/>
+      <c r="B128" s="28">
+        <v>41747</v>
+      </c>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G128" s="42"/>
+      <c r="H128" s="42"/>
+      <c r="I128" s="42"/>
+      <c r="J128" s="42"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="55">
         <v>25</v>
       </c>
-      <c r="B127" s="27">
+      <c r="B129" s="27">
         <v>41750</v>
-      </c>
-      <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="5"/>
-      <c r="F127" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G127" s="41"/>
-      <c r="H127" s="41"/>
-      <c r="I127" s="41"/>
-      <c r="J127" s="41"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="94"/>
-      <c r="B128" s="27">
-        <v>41751</v>
-      </c>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G128" s="41"/>
-      <c r="H128" s="41"/>
-      <c r="I128" s="41"/>
-      <c r="J128" s="41"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="94"/>
-      <c r="B129" s="27">
-        <v>41752</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
@@ -4020,9 +4105,9 @@
       <c r="J129" s="41"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="94"/>
+      <c r="A130" s="98"/>
       <c r="B130" s="27">
-        <v>41753</v>
+        <v>41751</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
@@ -4037,9 +4122,9 @@
       <c r="J130" s="41"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="95"/>
+      <c r="A131" s="98"/>
       <c r="B131" s="27">
-        <v>41754</v>
+        <v>41752</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
@@ -4054,45 +4139,45 @@
       <c r="J131" s="41"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="67">
+      <c r="A132" s="98"/>
+      <c r="B132" s="27">
+        <v>41753</v>
+      </c>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G132" s="41"/>
+      <c r="H132" s="41"/>
+      <c r="I132" s="41"/>
+      <c r="J132" s="41"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="56"/>
+      <c r="B133" s="27">
+        <v>41754</v>
+      </c>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G133" s="41"/>
+      <c r="H133" s="41"/>
+      <c r="I133" s="41"/>
+      <c r="J133" s="41"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="72">
         <v>26</v>
       </c>
-      <c r="B132" s="28">
+      <c r="B134" s="28">
         <v>41757</v>
-      </c>
-      <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
-      <c r="E132" s="6"/>
-      <c r="F132" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G132" s="42"/>
-      <c r="H132" s="42"/>
-      <c r="I132" s="42"/>
-      <c r="J132" s="42"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="68"/>
-      <c r="B133" s="28">
-        <v>41758</v>
-      </c>
-      <c r="C133" s="6"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="6"/>
-      <c r="F133" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G133" s="42"/>
-      <c r="H133" s="42"/>
-      <c r="I133" s="42"/>
-      <c r="J133" s="42"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="68"/>
-      <c r="B134" s="28">
-        <v>41759</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
@@ -4107,9 +4192,9 @@
       <c r="J134" s="42"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="68"/>
+      <c r="A135" s="73"/>
       <c r="B135" s="28">
-        <v>41760</v>
+        <v>41758</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
@@ -4124,9 +4209,9 @@
       <c r="J135" s="42"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="69"/>
+      <c r="A136" s="73"/>
       <c r="B136" s="28">
-        <v>41761</v>
+        <v>41759</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
@@ -4141,45 +4226,45 @@
       <c r="J136" s="42"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="93">
+      <c r="A137" s="73"/>
+      <c r="B137" s="28">
+        <v>41760</v>
+      </c>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G137" s="42"/>
+      <c r="H137" s="42"/>
+      <c r="I137" s="42"/>
+      <c r="J137" s="42"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="74"/>
+      <c r="B138" s="28">
+        <v>41761</v>
+      </c>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G138" s="42"/>
+      <c r="H138" s="42"/>
+      <c r="I138" s="42"/>
+      <c r="J138" s="42"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="55">
         <v>27</v>
       </c>
-      <c r="B137" s="27">
+      <c r="B139" s="27">
         <v>41764</v>
-      </c>
-      <c r="C137" s="5"/>
-      <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G137" s="41"/>
-      <c r="H137" s="41"/>
-      <c r="I137" s="41"/>
-      <c r="J137" s="41"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="94"/>
-      <c r="B138" s="27">
-        <v>41765</v>
-      </c>
-      <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G138" s="41"/>
-      <c r="H138" s="41"/>
-      <c r="I138" s="41"/>
-      <c r="J138" s="41"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="94"/>
-      <c r="B139" s="27">
-        <v>41766</v>
       </c>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
@@ -4194,9 +4279,9 @@
       <c r="J139" s="41"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="94"/>
+      <c r="A140" s="98"/>
       <c r="B140" s="27">
-        <v>41767</v>
+        <v>41765</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
@@ -4211,9 +4296,9 @@
       <c r="J140" s="41"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="95"/>
+      <c r="A141" s="98"/>
       <c r="B141" s="27">
-        <v>41768</v>
+        <v>41766</v>
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
@@ -4228,45 +4313,45 @@
       <c r="J141" s="41"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="67">
+      <c r="A142" s="98"/>
+      <c r="B142" s="27">
+        <v>41767</v>
+      </c>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G142" s="41"/>
+      <c r="H142" s="41"/>
+      <c r="I142" s="41"/>
+      <c r="J142" s="41"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="56"/>
+      <c r="B143" s="27">
+        <v>41768</v>
+      </c>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G143" s="41"/>
+      <c r="H143" s="41"/>
+      <c r="I143" s="41"/>
+      <c r="J143" s="41"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="72">
         <v>28</v>
       </c>
-      <c r="B142" s="28">
+      <c r="B144" s="28">
         <v>41771</v>
-      </c>
-      <c r="C142" s="6"/>
-      <c r="D142" s="6"/>
-      <c r="E142" s="6"/>
-      <c r="F142" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G142" s="42"/>
-      <c r="H142" s="42"/>
-      <c r="I142" s="42"/>
-      <c r="J142" s="42"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="68"/>
-      <c r="B143" s="28">
-        <v>41772</v>
-      </c>
-      <c r="C143" s="6"/>
-      <c r="D143" s="6"/>
-      <c r="E143" s="6"/>
-      <c r="F143" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G143" s="42"/>
-      <c r="H143" s="42"/>
-      <c r="I143" s="42"/>
-      <c r="J143" s="42"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="68"/>
-      <c r="B144" s="28">
-        <v>41773</v>
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
@@ -4281,15 +4366,15 @@
       <c r="J144" s="42"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="68"/>
+      <c r="A145" s="73"/>
       <c r="B145" s="28">
-        <v>41774</v>
+        <v>41772</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
       <c r="E145" s="6"/>
       <c r="F145" s="6">
-        <f t="shared" ref="F145:F156" si="4">E145</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G145" s="42"/>
@@ -4298,15 +4383,15 @@
       <c r="J145" s="42"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="69"/>
+      <c r="A146" s="73"/>
       <c r="B146" s="28">
-        <v>41775</v>
+        <v>41773</v>
       </c>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
       <c r="E146" s="6"/>
       <c r="F146" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G146" s="42"/>
@@ -4315,45 +4400,45 @@
       <c r="J146" s="42"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="93">
+      <c r="A147" s="73"/>
+      <c r="B147" s="28">
+        <v>41774</v>
+      </c>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+      <c r="F147" s="6">
+        <f t="shared" ref="F147:F158" si="4">E147</f>
+        <v>0</v>
+      </c>
+      <c r="G147" s="42"/>
+      <c r="H147" s="42"/>
+      <c r="I147" s="42"/>
+      <c r="J147" s="42"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="74"/>
+      <c r="B148" s="28">
+        <v>41775</v>
+      </c>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+      <c r="F148" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G148" s="42"/>
+      <c r="H148" s="42"/>
+      <c r="I148" s="42"/>
+      <c r="J148" s="42"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="55">
         <v>29</v>
       </c>
-      <c r="B147" s="27">
+      <c r="B149" s="27">
         <v>41778</v>
-      </c>
-      <c r="C147" s="5"/>
-      <c r="D147" s="5"/>
-      <c r="E147" s="5"/>
-      <c r="F147" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G147" s="41"/>
-      <c r="H147" s="41"/>
-      <c r="I147" s="41"/>
-      <c r="J147" s="41"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="94"/>
-      <c r="B148" s="27">
-        <v>41779</v>
-      </c>
-      <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
-      <c r="E148" s="5"/>
-      <c r="F148" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G148" s="41"/>
-      <c r="H148" s="41"/>
-      <c r="I148" s="41"/>
-      <c r="J148" s="41"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="94"/>
-      <c r="B149" s="27">
-        <v>41780</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
@@ -4368,9 +4453,9 @@
       <c r="J149" s="41"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="94"/>
+      <c r="A150" s="98"/>
       <c r="B150" s="27">
-        <v>41781</v>
+        <v>41779</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
@@ -4385,9 +4470,9 @@
       <c r="J150" s="41"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="95"/>
+      <c r="A151" s="98"/>
       <c r="B151" s="27">
-        <v>41782</v>
+        <v>41780</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
@@ -4402,45 +4487,45 @@
       <c r="J151" s="41"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="99">
+      <c r="A152" s="98"/>
+      <c r="B152" s="27">
+        <v>41781</v>
+      </c>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G152" s="41"/>
+      <c r="H152" s="41"/>
+      <c r="I152" s="41"/>
+      <c r="J152" s="41"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="56"/>
+      <c r="B153" s="27">
+        <v>41782</v>
+      </c>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G153" s="41"/>
+      <c r="H153" s="41"/>
+      <c r="I153" s="41"/>
+      <c r="J153" s="41"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="106">
         <v>30</v>
       </c>
-      <c r="B152" s="28">
+      <c r="B154" s="28">
         <v>41785</v>
-      </c>
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
-      <c r="E152" s="2"/>
-      <c r="F152" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G152" s="43"/>
-      <c r="H152" s="43"/>
-      <c r="I152" s="43"/>
-      <c r="J152" s="43"/>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="100"/>
-      <c r="B153" s="28">
-        <v>41786</v>
-      </c>
-      <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
-      <c r="E153" s="2"/>
-      <c r="F153" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G153" s="43"/>
-      <c r="H153" s="43"/>
-      <c r="I153" s="43"/>
-      <c r="J153" s="43"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="100"/>
-      <c r="B154" s="28">
-        <v>41787</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -4455,9 +4540,9 @@
       <c r="J154" s="43"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="100"/>
+      <c r="A155" s="107"/>
       <c r="B155" s="28">
-        <v>41788</v>
+        <v>41786</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -4472,9 +4557,9 @@
       <c r="J155" s="43"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="101"/>
+      <c r="A156" s="107"/>
       <c r="B156" s="28">
-        <v>41789</v>
+        <v>41787</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -4488,40 +4573,79 @@
       <c r="I156" s="43"/>
       <c r="J156" s="43"/>
     </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" s="107"/>
+      <c r="B157" s="28">
+        <v>41788</v>
+      </c>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G157" s="43"/>
+      <c r="H157" s="43"/>
+      <c r="I157" s="43"/>
+      <c r="J157" s="43"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" s="108"/>
+      <c r="B158" s="28">
+        <v>41789</v>
+      </c>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G158" s="43"/>
+      <c r="H158" s="43"/>
+      <c r="I158" s="43"/>
+      <c r="J158" s="43"/>
+    </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="A142:A146"/>
-    <mergeCell ref="A147:A151"/>
-    <mergeCell ref="A152:A156"/>
-    <mergeCell ref="A112:A116"/>
-    <mergeCell ref="A117:A121"/>
-    <mergeCell ref="A122:A126"/>
-    <mergeCell ref="A127:A131"/>
-    <mergeCell ref="A132:A136"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="A92:A96"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="A102:A106"/>
+  <mergeCells count="48">
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="A139:A143"/>
+    <mergeCell ref="A144:A148"/>
+    <mergeCell ref="A149:A153"/>
+    <mergeCell ref="A154:A158"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="A134:A138"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="K6:N6"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A74:A78"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="F19:F20"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="G2:N4"/>
     <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A54:A58"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F4"/>
@@ -4531,9 +4655,8 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
   </mergeCells>
   <conditionalFormatting sqref="M7">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
@@ -4651,7 +4774,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M17</xm:sqref>
+          <xm:sqref>M17:M18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="31" id="{6C6B1EFA-99FD-4C7D-9FDE-A1C62DFDC4A6}">
@@ -4670,48 +4793,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M18</xm:sqref>
+          <xm:sqref>M19:M20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="30" id="{728DDD0C-59C2-4EAA-A943-37D530A87696}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M19</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="29" id="{9AF6B611-56EC-46E2-A851-4E09E28F0C39}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M20</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="28" id="{7A1C8DB1-F7B5-44DF-B6AD-BD94518E2F59}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4730,7 +4815,7 @@
           <xm:sqref>M21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="27" id="{798FB9D7-6FEF-4CEA-8CC2-45EE73486721}">
+          <x14:cfRule type="iconSet" priority="29" id="{9AF6B611-56EC-46E2-A851-4E09E28F0C39}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4749,7 +4834,7 @@
           <xm:sqref>M22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="26" id="{9D5A3639-C9C5-40BD-82EE-496926295966}">
+          <x14:cfRule type="iconSet" priority="28" id="{7A1C8DB1-F7B5-44DF-B6AD-BD94518E2F59}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4768,7 +4853,7 @@
           <xm:sqref>M23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="25" id="{042E6B91-B838-419B-9746-9D04172CBCE2}">
+          <x14:cfRule type="iconSet" priority="27" id="{798FB9D7-6FEF-4CEA-8CC2-45EE73486721}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4787,7 +4872,7 @@
           <xm:sqref>M24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="24" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
+          <x14:cfRule type="iconSet" priority="26" id="{9D5A3639-C9C5-40BD-82EE-496926295966}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4806,7 +4891,7 @@
           <xm:sqref>M25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="23" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
+          <x14:cfRule type="iconSet" priority="25" id="{042E6B91-B838-419B-9746-9D04172CBCE2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4825,7 +4910,7 @@
           <xm:sqref>M26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="22" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
+          <x14:cfRule type="iconSet" priority="24" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4844,7 +4929,7 @@
           <xm:sqref>M27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="21" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
+          <x14:cfRule type="iconSet" priority="23" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4863,7 +4948,7 @@
           <xm:sqref>M28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="20" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
+          <x14:cfRule type="iconSet" priority="22" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4882,7 +4967,7 @@
           <xm:sqref>M29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="19" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
+          <x14:cfRule type="iconSet" priority="21" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4901,7 +4986,7 @@
           <xm:sqref>M30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
+          <x14:cfRule type="iconSet" priority="20" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4920,7 +5005,7 @@
           <xm:sqref>M31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="17" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
+          <x14:cfRule type="iconSet" priority="19" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4939,7 +5024,7 @@
           <xm:sqref>M32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="16" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
+          <x14:cfRule type="iconSet" priority="18" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4958,7 +5043,7 @@
           <xm:sqref>M33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="15" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
+          <x14:cfRule type="iconSet" priority="17" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4977,7 +5062,7 @@
           <xm:sqref>M34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
+          <x14:cfRule type="iconSet" priority="16" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4996,7 +5081,7 @@
           <xm:sqref>M35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
+          <x14:cfRule type="iconSet" priority="15" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5015,7 +5100,7 @@
           <xm:sqref>M36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+          <x14:cfRule type="iconSet" priority="14" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5034,7 +5119,7 @@
           <xm:sqref>M37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="11" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+          <x14:cfRule type="iconSet" priority="13" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5053,7 +5138,7 @@
           <xm:sqref>M38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="10" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+          <x14:cfRule type="iconSet" priority="12" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5070,6 +5155,44 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>M39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="11" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M40</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="10" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="9" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
@@ -5107,7 +5230,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F17:F156 F7:F8 F10:F12 F14</xm:sqref>
+          <xm:sqref>F17 F7:F8 F10:F12 F14 F19 F21:F158</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="1" id="{E123B8DB-3F09-4577-A02F-B5F22850E800}">

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNgo.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNgo.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="85">
   <si>
     <t>Week</t>
   </si>
@@ -292,6 +292,15 @@
   <si>
     <t>.- update timelog.
  - draw process</t>
+  </si>
+  <si>
+    <t>trainning</t>
+  </si>
+  <si>
+    <t>-Training ACDM</t>
+  </si>
+  <si>
+    <t>- processes</t>
   </si>
 </sst>
 </file>
@@ -383,7 +392,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,6 +414,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,7 +605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -731,9 +746,63 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -779,21 +848,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -842,12 +896,6 @@
     <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -857,38 +905,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1323,13 +1362,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O158"/>
+  <dimension ref="A1:O160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1351,81 +1390,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="57"/>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="59"/>
+      <c r="A1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="77"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="60" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="62"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="80"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="65"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="83"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="83"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="68"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="86"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="95"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="97"/>
+      <c r="A5" s="106"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="108"/>
       <c r="F5" s="16"/>
       <c r="H5" s="45" t="s">
         <v>67</v>
@@ -1470,13 +1509,13 @@
       <c r="J6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
-      <c r="N6" s="99"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
     </row>
     <row r="7" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="69">
+      <c r="A7" s="87">
         <v>1</v>
       </c>
       <c r="B7" s="17">
@@ -1503,12 +1542,12 @@
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="31"/>
-      <c r="K7" s="100" t="s">
+      <c r="K7" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="100"/>
+      <c r="L7" s="66"/>
       <c r="M7" s="34">
-        <f>SUM(M8:M41)</f>
+        <f>SUM(M8:M43)</f>
         <v>13.403</v>
       </c>
       <c r="N7" s="3" t="s">
@@ -1516,8 +1555,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="70"/>
-      <c r="B8" s="89">
+      <c r="A8" s="88"/>
+      <c r="B8" s="102">
         <v>41586</v>
       </c>
       <c r="C8" s="18">
@@ -1529,7 +1568,7 @@
       <c r="E8" s="19">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F8" s="91">
+      <c r="F8" s="104">
         <f>SUM(E8:E9)</f>
         <v>1.66</v>
       </c>
@@ -1554,8 +1593,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="71"/>
-      <c r="B9" s="90"/>
+      <c r="A9" s="89"/>
+      <c r="B9" s="103"/>
       <c r="C9" s="18">
         <v>0.63194444444444442</v>
       </c>
@@ -1565,7 +1604,7 @@
       <c r="E9" s="19">
         <v>0.5</v>
       </c>
-      <c r="F9" s="92"/>
+      <c r="F9" s="105"/>
       <c r="G9" s="31" t="s">
         <v>25</v>
       </c>
@@ -1575,453 +1614,446 @@
       <c r="I9" s="44"/>
       <c r="J9" s="31"/>
     </row>
-    <row r="10" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A10" s="86">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="99">
         <v>2</v>
       </c>
-      <c r="B10" s="75">
+      <c r="B10" s="69">
+        <v>41589</v>
+      </c>
+      <c r="C10" s="109">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D10" s="109">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E10" s="110">
+        <v>1.5</v>
+      </c>
+      <c r="F10" s="115">
+        <f>SUM(E10:E11)</f>
+        <v>2.5</v>
+      </c>
+      <c r="G10" s="111" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="116" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="113"/>
+      <c r="J10" s="111"/>
+    </row>
+    <row r="11" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="100"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="109">
+        <v>0.875</v>
+      </c>
+      <c r="D11" s="109">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E11" s="110">
+        <v>1</v>
+      </c>
+      <c r="F11" s="114"/>
+      <c r="G11" s="111" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="112" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="113"/>
+      <c r="J11" s="111"/>
+    </row>
+    <row r="12" spans="1:15" ht="51" x14ac:dyDescent="0.25">
+      <c r="A12" s="100"/>
+      <c r="B12" s="69">
         <v>41590</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C12" s="23">
         <v>0.57291666666666663</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D12" s="23">
         <v>0.625</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E12" s="24">
         <v>2.25</v>
       </c>
-      <c r="F10" s="24">
-        <f>E10</f>
+      <c r="F12" s="24">
+        <f>E12</f>
         <v>2.25</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G12" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H12" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="38" t="s">
+      <c r="I12" s="38" t="s">
         <v>63</v>
-      </c>
-      <c r="J10" s="39"/>
-      <c r="K10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="4">
-        <f>SUM(E10:E16)</f>
-        <v>10.583</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O10" s="36"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="87"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="23">
-        <v>0.875</v>
-      </c>
-      <c r="D11" s="23">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="E11" s="24">
-        <v>1</v>
-      </c>
-      <c r="F11" s="24">
-        <f>E11</f>
-        <v>1</v>
-      </c>
-      <c r="G11" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" s="38"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="36"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="87"/>
-      <c r="B12" s="75">
-        <v>41592</v>
-      </c>
-      <c r="C12" s="26">
-        <v>0.375</v>
-      </c>
-      <c r="D12" s="26">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="E12" s="29">
-        <v>1.25</v>
-      </c>
-      <c r="F12" s="93">
-        <f>SUM(E12:E13)</f>
-        <v>3.25</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="I12" s="40" t="s">
-        <v>65</v>
       </c>
       <c r="J12" s="39"/>
       <c r="K12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="10">
-        <f>SUM(E24:E28)</f>
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="4">
+        <f>SUM(E12:E18)</f>
+        <v>10.583</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="87"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="26">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="D13" s="26">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="E13" s="29">
-        <v>2</v>
-      </c>
-      <c r="F13" s="94"/>
+      <c r="O12" s="36"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="100"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="23">
+        <v>0.875</v>
+      </c>
+      <c r="D13" s="23">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E13" s="24">
+        <v>1</v>
+      </c>
+      <c r="F13" s="24">
+        <f>E13</f>
+        <v>1</v>
+      </c>
       <c r="G13" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" s="40"/>
+        <v>24</v>
+      </c>
+      <c r="H13" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="38"/>
       <c r="J13" s="39"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="10"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="4"/>
       <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="87"/>
-      <c r="B14" s="46">
-        <v>41593</v>
+      <c r="O13" s="36"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="100"/>
+      <c r="B14" s="69">
+        <v>41592</v>
       </c>
       <c r="C14" s="26">
-        <v>0.54166666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="D14" s="26">
-        <v>0.58680555555555558</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="E14" s="29">
-        <v>1.083</v>
-      </c>
-      <c r="F14" s="47">
-        <f>E14</f>
-        <v>1.083</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="I14" s="37" t="s">
-        <v>64</v>
+        <v>1.25</v>
+      </c>
+      <c r="F14" s="67">
+        <f>SUM(E14:E15)</f>
+        <v>3.25</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="40" t="s">
+        <v>65</v>
       </c>
       <c r="J14" s="39"/>
       <c r="K14" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="10">
-        <f>SUM(E29:E33)</f>
+        <f>SUM(E26:E30)</f>
         <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="87"/>
-      <c r="B15" s="75">
-        <v>41594</v>
-      </c>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="100"/>
+      <c r="B15" s="70"/>
       <c r="C15" s="26">
-        <v>0.58333333333333337</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="D15" s="26">
-        <v>0.66666666666666663</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="E15" s="29">
         <v>2</v>
       </c>
-      <c r="F15" s="93">
-        <f>SUM(E15:E16)</f>
+      <c r="F15" s="68"/>
+      <c r="G15" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="40"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="100"/>
+      <c r="B16" s="46">
+        <v>41593</v>
+      </c>
+      <c r="C16" s="26">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D16" s="26">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="E16" s="29">
+        <v>1.083</v>
+      </c>
+      <c r="F16" s="47">
+        <f>E16</f>
+        <v>1.083</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="39"/>
+      <c r="K16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="10">
+        <f>SUM(E31:E35)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="100"/>
+      <c r="B17" s="69">
+        <v>41594</v>
+      </c>
+      <c r="C17" s="26">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D17" s="26">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E17" s="29">
+        <v>2</v>
+      </c>
+      <c r="F17" s="67">
+        <f>SUM(E17:E18)</f>
         <v>3</v>
       </c>
-      <c r="G15" s="48" t="s">
+      <c r="G17" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="51" t="s">
+      <c r="H17" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="I15" s="37" t="s">
+      <c r="I17" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="J15" s="39"/>
-      <c r="K15" s="8" t="s">
+      <c r="J17" s="39"/>
+      <c r="K17" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="10">
-        <f>SUM(E39:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="88"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="26">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D16" s="26">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="E16" s="29">
-        <v>1</v>
-      </c>
-      <c r="F16" s="94"/>
-      <c r="G16" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="I16" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="J16" s="39"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="101">
-        <v>3</v>
-      </c>
-      <c r="B17" s="102">
-        <v>41596</v>
-      </c>
-      <c r="C17" s="53">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D17" s="53">
-        <v>0.89166666666666661</v>
-      </c>
-      <c r="E17" s="5">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="F17" s="55">
-        <f>SUM(E17:E18)</f>
-        <v>2.5900000000000003</v>
-      </c>
-      <c r="G17" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="I17" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="J17" s="41"/>
-      <c r="K17" s="8" t="s">
-        <v>16</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="10">
-        <f>SUM(E44:E48)</f>
+        <f>SUM(E41:E45)</f>
         <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="101"/>
-      <c r="B18" s="103"/>
-      <c r="C18" s="53">
-        <v>0.89236111111111116</v>
-      </c>
-      <c r="D18" s="53">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0.35</v>
-      </c>
-      <c r="F18" s="56"/>
-      <c r="G18" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="26">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D18" s="26">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E18" s="29">
+        <v>1</v>
+      </c>
+      <c r="F18" s="68"/>
+      <c r="G18" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" s="39"/>
       <c r="K18" s="8"/>
       <c r="L18" s="6"/>
       <c r="M18" s="10"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A19" s="101"/>
-      <c r="B19" s="104">
-        <v>41597</v>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="64">
+        <v>3</v>
+      </c>
+      <c r="B19" s="71">
+        <v>41596</v>
       </c>
       <c r="C19" s="53">
-        <v>0.5625</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D19" s="53">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="E19" s="52">
-        <v>1</v>
+        <v>0.89166666666666661</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2.2400000000000002</v>
       </c>
       <c r="F19" s="55">
         <f>SUM(E19:E20)</f>
-        <v>3</v>
+        <v>2.5900000000000003</v>
       </c>
       <c r="G19" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="H19" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="I19" s="41"/>
+        <v>24</v>
+      </c>
+      <c r="H19" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="I19" s="41" t="s">
+        <v>77</v>
+      </c>
       <c r="J19" s="41"/>
       <c r="K19" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="10">
-        <f>SUM(E49:E53)</f>
+        <f>SUM(E46:E50)</f>
         <v>0</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="101"/>
-      <c r="B20" s="105"/>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="64"/>
+      <c r="B20" s="72"/>
       <c r="C20" s="53">
+        <v>0.89236111111111116</v>
+      </c>
+      <c r="D20" s="53">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D20" s="53">
-        <v>0.97916666666666663</v>
-      </c>
-      <c r="E20" s="52">
-        <v>2</v>
-      </c>
-      <c r="F20" s="56"/>
+      <c r="E20" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="F20" s="57"/>
       <c r="G20" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="I20" s="41" t="s">
-        <v>77</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H20" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20" s="41"/>
       <c r="J20" s="41"/>
       <c r="K20" s="8"/>
       <c r="L20" s="6"/>
       <c r="M20" s="10"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="101"/>
-      <c r="B21" s="27">
-        <v>41598</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5">
-        <f t="shared" ref="F21:F50" si="0">E21</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
+    <row r="21" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A21" s="64"/>
+      <c r="B21" s="73">
+        <v>41597</v>
+      </c>
+      <c r="C21" s="53">
+        <v>0.5625</v>
+      </c>
+      <c r="D21" s="53">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E21" s="52">
+        <v>1</v>
+      </c>
+      <c r="F21" s="55">
+        <f>SUM(E21:E22)</f>
+        <v>3</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" s="54" t="s">
+        <v>80</v>
+      </c>
       <c r="I21" s="41"/>
       <c r="J21" s="41"/>
       <c r="K21" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="10">
-        <f>SUM(E54:E58)</f>
+        <f>SUM(E51:E55)</f>
         <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="101"/>
-      <c r="B22" s="27">
-        <v>41599</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
+    <row r="22" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="64"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="53">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D22" s="53">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="E22" s="52">
+        <v>2</v>
+      </c>
+      <c r="F22" s="57"/>
+      <c r="G22" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="I22" s="41" t="s">
+        <v>77</v>
+      </c>
       <c r="J22" s="41"/>
-      <c r="K22" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="K22" s="8"/>
       <c r="L22" s="6"/>
-      <c r="M22" s="10">
-        <f>SUM(E59:E63)</f>
-        <v>0</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="M22" s="10"/>
+      <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="101"/>
+      <c r="A23" s="64"/>
       <c r="B23" s="27">
-        <v>41600</v>
+        <v>41598</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F23:F52" si="0">E23</f>
         <v>0</v>
       </c>
       <c r="G23" s="41"/>
@@ -2029,11 +2061,11 @@
       <c r="I23" s="41"/>
       <c r="J23" s="41"/>
       <c r="K23" s="8" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="10">
-        <f>SUM(E64:E68)</f>
+        <f>SUM(E56:E60)</f>
         <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
@@ -2041,29 +2073,27 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="72">
-        <v>4</v>
-      </c>
-      <c r="B24" s="28">
-        <v>41603</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6">
+      <c r="A24" s="64"/>
+      <c r="B24" s="27">
+        <v>41599</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
       <c r="K24" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="10">
-        <f>SUM(E69:E73)</f>
+        <f>SUM(E61:E65)</f>
         <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
@@ -2071,27 +2101,27 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="73"/>
-      <c r="B25" s="28">
-        <v>41604</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6">
+      <c r="A25" s="64"/>
+      <c r="B25" s="27">
+        <v>41600</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
       <c r="K25" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="10">
-        <f>SUM(E74:E78)</f>
+        <f>SUM(E66:E70)</f>
         <v>0</v>
       </c>
       <c r="N25" s="3" t="s">
@@ -2099,9 +2129,11 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="73"/>
+      <c r="A26" s="58">
+        <v>4</v>
+      </c>
       <c r="B26" s="28">
-        <v>41605</v>
+        <v>41603</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -2115,11 +2147,11 @@
       <c r="I26" s="42"/>
       <c r="J26" s="42"/>
       <c r="K26" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="10">
-        <f>SUM(E79:E83)</f>
+        <f>SUM(E71:E75)</f>
         <v>0</v>
       </c>
       <c r="N26" s="3" t="s">
@@ -2127,9 +2159,9 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="73"/>
+      <c r="A27" s="59"/>
       <c r="B27" s="28">
-        <v>41606</v>
+        <v>41604</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -2143,11 +2175,11 @@
       <c r="I27" s="42"/>
       <c r="J27" s="42"/>
       <c r="K27" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="10">
-        <f>SUM(E84:E88)</f>
+        <f>SUM(E76:E80)</f>
         <v>0</v>
       </c>
       <c r="N27" s="3" t="s">
@@ -2155,9 +2187,9 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="74"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="28">
-        <v>41607</v>
+        <v>41605</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -2171,11 +2203,11 @@
       <c r="I28" s="42"/>
       <c r="J28" s="42"/>
       <c r="K28" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="10">
-        <f>SUM(E89:E93)</f>
+        <f>SUM(E81:E85)</f>
         <v>0</v>
       </c>
       <c r="N28" s="3" t="s">
@@ -2183,29 +2215,27 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="55">
-        <v>5</v>
-      </c>
-      <c r="B29" s="27">
-        <v>41610</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5">
+      <c r="A29" s="59"/>
+      <c r="B29" s="28">
+        <v>41606</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
       <c r="K29" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="10">
-        <f>SUM(E94:E98)</f>
+        <f>SUM(E86:E90)</f>
         <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
@@ -2213,27 +2243,27 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="98"/>
-      <c r="B30" s="27">
-        <v>41611</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5">
+      <c r="A30" s="60"/>
+      <c r="B30" s="28">
+        <v>41607</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
       <c r="K30" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="10">
-        <f>SUM(E99:E103)</f>
+        <f>SUM(E91:E95)</f>
         <v>0</v>
       </c>
       <c r="N30" s="3" t="s">
@@ -2241,9 +2271,11 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="98"/>
+      <c r="A31" s="55">
+        <v>5</v>
+      </c>
       <c r="B31" s="27">
-        <v>41612</v>
+        <v>41610</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -2257,11 +2289,11 @@
       <c r="I31" s="41"/>
       <c r="J31" s="41"/>
       <c r="K31" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="10">
-        <f>SUM(E104:E108)</f>
+        <f>SUM(E96:E100)</f>
         <v>0</v>
       </c>
       <c r="N31" s="3" t="s">
@@ -2269,9 +2301,9 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="98"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="27">
-        <v>41613</v>
+        <v>41611</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -2285,11 +2317,11 @@
       <c r="I32" s="41"/>
       <c r="J32" s="41"/>
       <c r="K32" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L32" s="6"/>
       <c r="M32" s="10">
-        <f>SUM(E109:E113)</f>
+        <f>SUM(E101:E105)</f>
         <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
@@ -2299,7 +2331,7 @@
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="56"/>
       <c r="B33" s="27">
-        <v>41614</v>
+        <v>41612</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -2313,11 +2345,11 @@
       <c r="I33" s="41"/>
       <c r="J33" s="41"/>
       <c r="K33" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L33" s="6"/>
       <c r="M33" s="10">
-        <f>SUM(E114:E118)</f>
+        <f>SUM(E106:E110)</f>
         <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
@@ -2325,29 +2357,27 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="72">
-        <v>6</v>
-      </c>
-      <c r="B34" s="28">
-        <v>41617</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6">
+      <c r="A34" s="56"/>
+      <c r="B34" s="27">
+        <v>41613</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
       <c r="K34" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="10">
-        <f>SUM(E119:E123)</f>
+        <f>SUM(E111:E115)</f>
         <v>0</v>
       </c>
       <c r="N34" s="3" t="s">
@@ -2355,27 +2385,27 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="73"/>
-      <c r="B35" s="28">
-        <v>41618</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6">
+      <c r="A35" s="57"/>
+      <c r="B35" s="27">
+        <v>41614</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
       <c r="K35" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="10">
-        <f>SUM(E124:E128)</f>
+        <f>SUM(E116:E120)</f>
         <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
@@ -2383,9 +2413,11 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="73"/>
+      <c r="A36" s="58">
+        <v>6</v>
+      </c>
       <c r="B36" s="28">
-        <v>41619</v>
+        <v>41617</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -2399,11 +2431,11 @@
       <c r="I36" s="42"/>
       <c r="J36" s="42"/>
       <c r="K36" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L36" s="6"/>
       <c r="M36" s="10">
-        <f>SUM(E129:E133)</f>
+        <f>SUM(E121:E125)</f>
         <v>0</v>
       </c>
       <c r="N36" s="3" t="s">
@@ -2411,9 +2443,9 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="73"/>
+      <c r="A37" s="59"/>
       <c r="B37" s="28">
-        <v>41620</v>
+        <v>41618</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -2427,11 +2459,11 @@
       <c r="I37" s="42"/>
       <c r="J37" s="42"/>
       <c r="K37" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="10">
-        <f>SUM(E134:E138)</f>
+        <f>SUM(E126:E130)</f>
         <v>0</v>
       </c>
       <c r="N37" s="3" t="s">
@@ -2439,9 +2471,9 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="74"/>
+      <c r="A38" s="59"/>
       <c r="B38" s="28">
-        <v>41621</v>
+        <v>41619</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -2455,11 +2487,11 @@
       <c r="I38" s="42"/>
       <c r="J38" s="42"/>
       <c r="K38" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L38" s="6"/>
       <c r="M38" s="10">
-        <f>SUM(E139:E143)</f>
+        <f>SUM(E131:E135)</f>
         <v>0</v>
       </c>
       <c r="N38" s="3" t="s">
@@ -2467,29 +2499,27 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="55">
-        <v>7</v>
-      </c>
-      <c r="B39" s="27">
-        <v>41624</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5">
+      <c r="A39" s="59"/>
+      <c r="B39" s="28">
+        <v>41620</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
       <c r="K39" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="10">
-        <f>SUM(E144:E148)</f>
+        <f>SUM(E136:E140)</f>
         <v>0</v>
       </c>
       <c r="N39" s="3" t="s">
@@ -2497,27 +2527,27 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="98"/>
-      <c r="B40" s="27">
-        <v>41625</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5">
+      <c r="A40" s="60"/>
+      <c r="B40" s="28">
+        <v>41621</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
       <c r="K40" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L40" s="6"/>
       <c r="M40" s="10">
-        <f>SUM(E149:E153)</f>
+        <f>SUM(E141:E145)</f>
         <v>0</v>
       </c>
       <c r="N40" s="3" t="s">
@@ -2525,9 +2555,11 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="98"/>
+      <c r="A41" s="55">
+        <v>7</v>
+      </c>
       <c r="B41" s="27">
-        <v>41626</v>
+        <v>41624</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -2541,11 +2573,11 @@
       <c r="I41" s="41"/>
       <c r="J41" s="41"/>
       <c r="K41" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L41" s="6"/>
       <c r="M41" s="10">
-        <f>SUM(E154:E158)</f>
+        <f>SUM(E146:E150)</f>
         <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
@@ -2553,9 +2585,9 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="98"/>
+      <c r="A42" s="56"/>
       <c r="B42" s="27">
-        <v>41627</v>
+        <v>41625</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -2568,11 +2600,22 @@
       <c r="H42" s="41"/>
       <c r="I42" s="41"/>
       <c r="J42" s="41"/>
+      <c r="K42" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L42" s="6"/>
+      <c r="M42" s="10">
+        <f>SUM(E151:E155)</f>
+        <v>0</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="56"/>
       <c r="B43" s="27">
-        <v>41628</v>
+        <v>41626</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -2585,47 +2628,58 @@
       <c r="H43" s="41"/>
       <c r="I43" s="41"/>
       <c r="J43" s="41"/>
+      <c r="K43" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L43" s="6"/>
+      <c r="M43" s="10">
+        <f>SUM(E156:E160)</f>
+        <v>0</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="72">
+      <c r="A44" s="56"/>
+      <c r="B44" s="27">
+        <v>41627</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="57"/>
+      <c r="B45" s="27">
+        <v>41628</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="58">
         <v>8</v>
       </c>
-      <c r="B44" s="28">
+      <c r="B46" s="28">
         <v>41631</v>
-      </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="42"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="73"/>
-      <c r="B45" s="28">
-        <v>41632</v>
-      </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="42"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="42"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="73"/>
-      <c r="B46" s="28">
-        <v>41633</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -2640,9 +2694,9 @@
       <c r="J46" s="42"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="73"/>
+      <c r="A47" s="59"/>
       <c r="B47" s="28">
-        <v>41634</v>
+        <v>41632</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -2657,9 +2711,9 @@
       <c r="J47" s="42"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="74"/>
+      <c r="A48" s="59"/>
       <c r="B48" s="28">
-        <v>41635</v>
+        <v>41633</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -2674,51 +2728,51 @@
       <c r="J48" s="42"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="55">
+      <c r="A49" s="59"/>
+      <c r="B49" s="28">
+        <v>41634</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="42"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="60"/>
+      <c r="B50" s="28">
+        <v>41635</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="55">
         <v>9</v>
       </c>
-      <c r="B49" s="27">
+      <c r="B51" s="27">
         <v>41638</v>
-      </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="41"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="98"/>
-      <c r="B50" s="27">
-        <v>41639</v>
-      </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="41"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="98"/>
-      <c r="B51" s="27">
-        <v>41640</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5">
-        <f t="shared" ref="F51:F82" si="1">E51</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G51" s="41"/>
@@ -2727,15 +2781,15 @@
       <c r="J51" s="41"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="98"/>
+      <c r="A52" s="56"/>
       <c r="B52" s="27">
-        <v>41641</v>
+        <v>41639</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G52" s="41"/>
@@ -2746,13 +2800,13 @@
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="56"/>
       <c r="B53" s="27">
-        <v>41642</v>
+        <v>41640</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F53:F84" si="1">E53</f>
         <v>0</v>
       </c>
       <c r="G53" s="41"/>
@@ -2761,45 +2815,45 @@
       <c r="J53" s="41"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="72">
+      <c r="A54" s="56"/>
+      <c r="B54" s="27">
+        <v>41641</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="41"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="41"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="57"/>
+      <c r="B55" s="27">
+        <v>41642</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="41"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="58">
         <v>10</v>
       </c>
-      <c r="B54" s="28">
+      <c r="B56" s="28">
         <v>41645</v>
-      </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="42"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="73"/>
-      <c r="B55" s="28">
-        <v>41646</v>
-      </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="42"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="73"/>
-      <c r="B56" s="28">
-        <v>41647</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -2814,9 +2868,9 @@
       <c r="J56" s="42"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="73"/>
+      <c r="A57" s="59"/>
       <c r="B57" s="28">
-        <v>41648</v>
+        <v>41646</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -2831,9 +2885,9 @@
       <c r="J57" s="42"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="74"/>
+      <c r="A58" s="59"/>
       <c r="B58" s="28">
-        <v>41649</v>
+        <v>41647</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -2848,45 +2902,45 @@
       <c r="J58" s="42"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="55">
+      <c r="A59" s="59"/>
+      <c r="B59" s="28">
+        <v>41648</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="60"/>
+      <c r="B60" s="28">
+        <v>41649</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="55">
         <v>11</v>
       </c>
-      <c r="B59" s="27">
+      <c r="B61" s="27">
         <v>41652</v>
-      </c>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G59" s="41"/>
-      <c r="H59" s="41"/>
-      <c r="I59" s="41"/>
-      <c r="J59" s="41"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="98"/>
-      <c r="B60" s="27">
-        <v>41653</v>
-      </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G60" s="41"/>
-      <c r="H60" s="41"/>
-      <c r="I60" s="41"/>
-      <c r="J60" s="41"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="98"/>
-      <c r="B61" s="27">
-        <v>41654</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -2901,9 +2955,9 @@
       <c r="J61" s="41"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="98"/>
+      <c r="A62" s="56"/>
       <c r="B62" s="27">
-        <v>41655</v>
+        <v>41653</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -2920,7 +2974,7 @@
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="56"/>
       <c r="B63" s="27">
-        <v>41656</v>
+        <v>41654</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -2935,45 +2989,45 @@
       <c r="J63" s="41"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="72">
+      <c r="A64" s="56"/>
+      <c r="B64" s="27">
+        <v>41655</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="41"/>
+      <c r="H64" s="41"/>
+      <c r="I64" s="41"/>
+      <c r="J64" s="41"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="57"/>
+      <c r="B65" s="27">
+        <v>41656</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="41"/>
+      <c r="H65" s="41"/>
+      <c r="I65" s="41"/>
+      <c r="J65" s="41"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="58">
         <v>12</v>
       </c>
-      <c r="B64" s="28">
+      <c r="B66" s="28">
         <v>41659</v>
-      </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G64" s="42"/>
-      <c r="H64" s="42"/>
-      <c r="I64" s="42"/>
-      <c r="J64" s="42"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="73"/>
-      <c r="B65" s="28">
-        <v>41660</v>
-      </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G65" s="42"/>
-      <c r="H65" s="42"/>
-      <c r="I65" s="42"/>
-      <c r="J65" s="42"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="73"/>
-      <c r="B66" s="28">
-        <v>41661</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -2988,9 +3042,9 @@
       <c r="J66" s="42"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="73"/>
+      <c r="A67" s="59"/>
       <c r="B67" s="28">
-        <v>41662</v>
+        <v>41660</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -3005,9 +3059,9 @@
       <c r="J67" s="42"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="74"/>
+      <c r="A68" s="59"/>
       <c r="B68" s="28">
-        <v>41663</v>
+        <v>41661</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
@@ -3022,49 +3076,45 @@
       <c r="J68" s="42"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="55">
+      <c r="A69" s="59"/>
+      <c r="B69" s="28">
+        <v>41662</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="42"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="42"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="60"/>
+      <c r="B70" s="28">
+        <v>41663</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G70" s="42"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="42"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="55">
         <v>13</v>
       </c>
-      <c r="B69" s="27">
+      <c r="B71" s="27">
         <v>41666</v>
-      </c>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G69" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="H69" s="41"/>
-      <c r="I69" s="41"/>
-      <c r="J69" s="41"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="98"/>
-      <c r="B70" s="27">
-        <v>41667</v>
-      </c>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G70" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="H70" s="41"/>
-      <c r="I70" s="41"/>
-      <c r="J70" s="41"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="98"/>
-      <c r="B71" s="27">
-        <v>41668</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
@@ -3081,9 +3131,9 @@
       <c r="J71" s="41"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="98"/>
+      <c r="A72" s="56"/>
       <c r="B72" s="27">
-        <v>41669</v>
+        <v>41667</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
@@ -3102,7 +3152,7 @@
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="56"/>
       <c r="B73" s="27">
-        <v>41670</v>
+        <v>41668</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
@@ -3119,49 +3169,49 @@
       <c r="J73" s="41"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="72">
+      <c r="A74" s="56"/>
+      <c r="B74" s="27">
+        <v>41669</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G74" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="H74" s="41"/>
+      <c r="I74" s="41"/>
+      <c r="J74" s="41"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="57"/>
+      <c r="B75" s="27">
+        <v>41670</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G75" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="H75" s="41"/>
+      <c r="I75" s="41"/>
+      <c r="J75" s="41"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="58">
         <v>14</v>
       </c>
-      <c r="B74" s="28">
+      <c r="B76" s="28">
         <v>41673</v>
-      </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G74" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="H74" s="42"/>
-      <c r="I74" s="42"/>
-      <c r="J74" s="42"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="73"/>
-      <c r="B75" s="28">
-        <v>41674</v>
-      </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G75" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="H75" s="42"/>
-      <c r="I75" s="42"/>
-      <c r="J75" s="42"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="73"/>
-      <c r="B76" s="28">
-        <v>41675</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -3178,9 +3228,9 @@
       <c r="J76" s="42"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="73"/>
+      <c r="A77" s="59"/>
       <c r="B77" s="28">
-        <v>41676</v>
+        <v>41674</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -3197,9 +3247,9 @@
       <c r="J77" s="42"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="74"/>
+      <c r="A78" s="59"/>
       <c r="B78" s="28">
-        <v>41677</v>
+        <v>41675</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -3216,45 +3266,49 @@
       <c r="J78" s="42"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="55">
+      <c r="A79" s="59"/>
+      <c r="B79" s="28">
+        <v>41676</v>
+      </c>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G79" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H79" s="42"/>
+      <c r="I79" s="42"/>
+      <c r="J79" s="42"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="60"/>
+      <c r="B80" s="28">
+        <v>41677</v>
+      </c>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G80" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H80" s="42"/>
+      <c r="I80" s="42"/>
+      <c r="J80" s="42"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="55">
         <v>15</v>
       </c>
-      <c r="B79" s="27">
+      <c r="B81" s="27">
         <v>41680</v>
-      </c>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G79" s="41"/>
-      <c r="H79" s="41"/>
-      <c r="I79" s="41"/>
-      <c r="J79" s="41"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="98"/>
-      <c r="B80" s="27">
-        <v>41681</v>
-      </c>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G80" s="41"/>
-      <c r="H80" s="41"/>
-      <c r="I80" s="41"/>
-      <c r="J80" s="41"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="98"/>
-      <c r="B81" s="27">
-        <v>41682</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -3269,9 +3323,9 @@
       <c r="J81" s="41"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="98"/>
+      <c r="A82" s="56"/>
       <c r="B82" s="27">
-        <v>41683</v>
+        <v>41681</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -3288,13 +3342,13 @@
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="56"/>
       <c r="B83" s="27">
-        <v>41684</v>
+        <v>41682</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5">
-        <f t="shared" ref="F83:F114" si="2">E83</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G83" s="41"/>
@@ -3303,45 +3357,45 @@
       <c r="J83" s="41"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="72">
+      <c r="A84" s="56"/>
+      <c r="B84" s="27">
+        <v>41683</v>
+      </c>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G84" s="41"/>
+      <c r="H84" s="41"/>
+      <c r="I84" s="41"/>
+      <c r="J84" s="41"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="57"/>
+      <c r="B85" s="27">
+        <v>41684</v>
+      </c>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5">
+        <f t="shared" ref="F85:F116" si="2">E85</f>
+        <v>0</v>
+      </c>
+      <c r="G85" s="41"/>
+      <c r="H85" s="41"/>
+      <c r="I85" s="41"/>
+      <c r="J85" s="41"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="58">
         <v>16</v>
       </c>
-      <c r="B84" s="28">
+      <c r="B86" s="28">
         <v>41687</v>
-      </c>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G84" s="42"/>
-      <c r="H84" s="42"/>
-      <c r="I84" s="42"/>
-      <c r="J84" s="42"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="73"/>
-      <c r="B85" s="28">
-        <v>41688</v>
-      </c>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G85" s="42"/>
-      <c r="H85" s="42"/>
-      <c r="I85" s="42"/>
-      <c r="J85" s="42"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="73"/>
-      <c r="B86" s="28">
-        <v>41689</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
@@ -3356,9 +3410,9 @@
       <c r="J86" s="42"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="73"/>
+      <c r="A87" s="59"/>
       <c r="B87" s="28">
-        <v>41690</v>
+        <v>41688</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -3373,9 +3427,9 @@
       <c r="J87" s="42"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="74"/>
+      <c r="A88" s="59"/>
       <c r="B88" s="28">
-        <v>41691</v>
+        <v>41689</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -3390,45 +3444,45 @@
       <c r="J88" s="42"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="55">
+      <c r="A89" s="59"/>
+      <c r="B89" s="28">
+        <v>41690</v>
+      </c>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G89" s="42"/>
+      <c r="H89" s="42"/>
+      <c r="I89" s="42"/>
+      <c r="J89" s="42"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="60"/>
+      <c r="B90" s="28">
+        <v>41691</v>
+      </c>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G90" s="42"/>
+      <c r="H90" s="42"/>
+      <c r="I90" s="42"/>
+      <c r="J90" s="42"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="55">
         <v>17</v>
       </c>
-      <c r="B89" s="27">
+      <c r="B91" s="27">
         <v>41694</v>
-      </c>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G89" s="41"/>
-      <c r="H89" s="41"/>
-      <c r="I89" s="41"/>
-      <c r="J89" s="41"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="98"/>
-      <c r="B90" s="27">
-        <v>41695</v>
-      </c>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G90" s="41"/>
-      <c r="H90" s="41"/>
-      <c r="I90" s="41"/>
-      <c r="J90" s="41"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="98"/>
-      <c r="B91" s="27">
-        <v>41696</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
@@ -3443,9 +3497,9 @@
       <c r="J91" s="41"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="98"/>
+      <c r="A92" s="56"/>
       <c r="B92" s="27">
-        <v>41697</v>
+        <v>41695</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
@@ -3462,7 +3516,7 @@
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="56"/>
       <c r="B93" s="27">
-        <v>41698</v>
+        <v>41696</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
@@ -3477,45 +3531,45 @@
       <c r="J93" s="41"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="72">
+      <c r="A94" s="56"/>
+      <c r="B94" s="27">
+        <v>41697</v>
+      </c>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G94" s="41"/>
+      <c r="H94" s="41"/>
+      <c r="I94" s="41"/>
+      <c r="J94" s="41"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="57"/>
+      <c r="B95" s="27">
+        <v>41698</v>
+      </c>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G95" s="41"/>
+      <c r="H95" s="41"/>
+      <c r="I95" s="41"/>
+      <c r="J95" s="41"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="58">
         <v>18</v>
       </c>
-      <c r="B94" s="28">
+      <c r="B96" s="28">
         <v>41701</v>
-      </c>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G94" s="42"/>
-      <c r="H94" s="42"/>
-      <c r="I94" s="42"/>
-      <c r="J94" s="42"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="73"/>
-      <c r="B95" s="28">
-        <v>41702</v>
-      </c>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G95" s="42"/>
-      <c r="H95" s="42"/>
-      <c r="I95" s="42"/>
-      <c r="J95" s="42"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="73"/>
-      <c r="B96" s="28">
-        <v>41703</v>
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -3530,9 +3584,9 @@
       <c r="J96" s="42"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="73"/>
+      <c r="A97" s="59"/>
       <c r="B97" s="28">
-        <v>41704</v>
+        <v>41702</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -3547,9 +3601,9 @@
       <c r="J97" s="42"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="74"/>
+      <c r="A98" s="59"/>
       <c r="B98" s="28">
-        <v>41705</v>
+        <v>41703</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
@@ -3564,45 +3618,45 @@
       <c r="J98" s="42"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="55">
+      <c r="A99" s="59"/>
+      <c r="B99" s="28">
+        <v>41704</v>
+      </c>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G99" s="42"/>
+      <c r="H99" s="42"/>
+      <c r="I99" s="42"/>
+      <c r="J99" s="42"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="60"/>
+      <c r="B100" s="28">
+        <v>41705</v>
+      </c>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G100" s="42"/>
+      <c r="H100" s="42"/>
+      <c r="I100" s="42"/>
+      <c r="J100" s="42"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="55">
         <v>19</v>
       </c>
-      <c r="B99" s="27">
+      <c r="B101" s="27">
         <v>41708</v>
-      </c>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G99" s="41"/>
-      <c r="H99" s="41"/>
-      <c r="I99" s="41"/>
-      <c r="J99" s="41"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="98"/>
-      <c r="B100" s="27">
-        <v>41709</v>
-      </c>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G100" s="41"/>
-      <c r="H100" s="41"/>
-      <c r="I100" s="41"/>
-      <c r="J100" s="41"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="98"/>
-      <c r="B101" s="27">
-        <v>41710</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
@@ -3617,9 +3671,9 @@
       <c r="J101" s="41"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="98"/>
+      <c r="A102" s="56"/>
       <c r="B102" s="27">
-        <v>41711</v>
+        <v>41709</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
@@ -3636,7 +3690,7 @@
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="56"/>
       <c r="B103" s="27">
-        <v>41712</v>
+        <v>41710</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
@@ -3651,45 +3705,45 @@
       <c r="J103" s="41"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="72">
+      <c r="A104" s="56"/>
+      <c r="B104" s="27">
+        <v>41711</v>
+      </c>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G104" s="41"/>
+      <c r="H104" s="41"/>
+      <c r="I104" s="41"/>
+      <c r="J104" s="41"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="57"/>
+      <c r="B105" s="27">
+        <v>41712</v>
+      </c>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G105" s="41"/>
+      <c r="H105" s="41"/>
+      <c r="I105" s="41"/>
+      <c r="J105" s="41"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="58">
         <v>20</v>
       </c>
-      <c r="B104" s="28">
+      <c r="B106" s="28">
         <v>41715</v>
-      </c>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G104" s="42"/>
-      <c r="H104" s="42"/>
-      <c r="I104" s="42"/>
-      <c r="J104" s="42"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="73"/>
-      <c r="B105" s="28">
-        <v>41716</v>
-      </c>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G105" s="42"/>
-      <c r="H105" s="42"/>
-      <c r="I105" s="42"/>
-      <c r="J105" s="42"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="73"/>
-      <c r="B106" s="28">
-        <v>41717</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -3704,9 +3758,9 @@
       <c r="J106" s="42"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="73"/>
+      <c r="A107" s="59"/>
       <c r="B107" s="28">
-        <v>41718</v>
+        <v>41716</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -3721,9 +3775,9 @@
       <c r="J107" s="42"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="74"/>
+      <c r="A108" s="59"/>
       <c r="B108" s="28">
-        <v>41719</v>
+        <v>41717</v>
       </c>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
@@ -3738,45 +3792,45 @@
       <c r="J108" s="42"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="55">
+      <c r="A109" s="59"/>
+      <c r="B109" s="28">
+        <v>41718</v>
+      </c>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G109" s="42"/>
+      <c r="H109" s="42"/>
+      <c r="I109" s="42"/>
+      <c r="J109" s="42"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="60"/>
+      <c r="B110" s="28">
+        <v>41719</v>
+      </c>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G110" s="42"/>
+      <c r="H110" s="42"/>
+      <c r="I110" s="42"/>
+      <c r="J110" s="42"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="55">
         <v>21</v>
       </c>
-      <c r="B109" s="27">
+      <c r="B111" s="27">
         <v>41722</v>
-      </c>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G109" s="41"/>
-      <c r="H109" s="41"/>
-      <c r="I109" s="41"/>
-      <c r="J109" s="41"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="98"/>
-      <c r="B110" s="27">
-        <v>41723</v>
-      </c>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G110" s="41"/>
-      <c r="H110" s="41"/>
-      <c r="I110" s="41"/>
-      <c r="J110" s="41"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="98"/>
-      <c r="B111" s="27">
-        <v>41724</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
@@ -3791,9 +3845,9 @@
       <c r="J111" s="41"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="98"/>
+      <c r="A112" s="56"/>
       <c r="B112" s="27">
-        <v>41725</v>
+        <v>41723</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
@@ -3810,7 +3864,7 @@
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="56"/>
       <c r="B113" s="27">
-        <v>41726</v>
+        <v>41724</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
@@ -3825,51 +3879,51 @@
       <c r="J113" s="41"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="72">
+      <c r="A114" s="56"/>
+      <c r="B114" s="27">
+        <v>41725</v>
+      </c>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G114" s="41"/>
+      <c r="H114" s="41"/>
+      <c r="I114" s="41"/>
+      <c r="J114" s="41"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="57"/>
+      <c r="B115" s="27">
+        <v>41726</v>
+      </c>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G115" s="41"/>
+      <c r="H115" s="41"/>
+      <c r="I115" s="41"/>
+      <c r="J115" s="41"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="58">
         <v>22</v>
       </c>
-      <c r="B114" s="28">
+      <c r="B116" s="28">
         <v>41729</v>
-      </c>
-      <c r="C114" s="6"/>
-      <c r="D114" s="6"/>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G114" s="42"/>
-      <c r="H114" s="42"/>
-      <c r="I114" s="42"/>
-      <c r="J114" s="42"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="73"/>
-      <c r="B115" s="28">
-        <v>41730</v>
-      </c>
-      <c r="C115" s="6"/>
-      <c r="D115" s="6"/>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6">
-        <f t="shared" ref="F115:F146" si="3">E115</f>
-        <v>0</v>
-      </c>
-      <c r="G115" s="42"/>
-      <c r="H115" s="42"/>
-      <c r="I115" s="42"/>
-      <c r="J115" s="42"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="73"/>
-      <c r="B116" s="28">
-        <v>41731</v>
       </c>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
       <c r="E116" s="6"/>
       <c r="F116" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G116" s="42"/>
@@ -3878,15 +3932,15 @@
       <c r="J116" s="42"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="73"/>
+      <c r="A117" s="59"/>
       <c r="B117" s="28">
-        <v>41732</v>
+        <v>41730</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
       <c r="E117" s="6"/>
       <c r="F117" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F117:F148" si="3">E117</f>
         <v>0</v>
       </c>
       <c r="G117" s="42"/>
@@ -3895,9 +3949,9 @@
       <c r="J117" s="42"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="74"/>
+      <c r="A118" s="59"/>
       <c r="B118" s="28">
-        <v>41733</v>
+        <v>41731</v>
       </c>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
@@ -3912,45 +3966,45 @@
       <c r="J118" s="42"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="55">
+      <c r="A119" s="59"/>
+      <c r="B119" s="28">
+        <v>41732</v>
+      </c>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G119" s="42"/>
+      <c r="H119" s="42"/>
+      <c r="I119" s="42"/>
+      <c r="J119" s="42"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="60"/>
+      <c r="B120" s="28">
+        <v>41733</v>
+      </c>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G120" s="42"/>
+      <c r="H120" s="42"/>
+      <c r="I120" s="42"/>
+      <c r="J120" s="42"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="55">
         <v>23</v>
       </c>
-      <c r="B119" s="27">
+      <c r="B121" s="27">
         <v>41736</v>
-      </c>
-      <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G119" s="41"/>
-      <c r="H119" s="41"/>
-      <c r="I119" s="41"/>
-      <c r="J119" s="41"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="98"/>
-      <c r="B120" s="27">
-        <v>41737</v>
-      </c>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G120" s="41"/>
-      <c r="H120" s="41"/>
-      <c r="I120" s="41"/>
-      <c r="J120" s="41"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="98"/>
-      <c r="B121" s="27">
-        <v>41738</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
@@ -3965,9 +4019,9 @@
       <c r="J121" s="41"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="98"/>
+      <c r="A122" s="56"/>
       <c r="B122" s="27">
-        <v>41739</v>
+        <v>41737</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
@@ -3984,7 +4038,7 @@
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="56"/>
       <c r="B123" s="27">
-        <v>41740</v>
+        <v>41738</v>
       </c>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
@@ -3999,45 +4053,45 @@
       <c r="J123" s="41"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="72">
+      <c r="A124" s="56"/>
+      <c r="B124" s="27">
+        <v>41739</v>
+      </c>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G124" s="41"/>
+      <c r="H124" s="41"/>
+      <c r="I124" s="41"/>
+      <c r="J124" s="41"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="57"/>
+      <c r="B125" s="27">
+        <v>41740</v>
+      </c>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G125" s="41"/>
+      <c r="H125" s="41"/>
+      <c r="I125" s="41"/>
+      <c r="J125" s="41"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="58">
         <v>24</v>
       </c>
-      <c r="B124" s="28">
+      <c r="B126" s="28">
         <v>41743</v>
-      </c>
-      <c r="C124" s="6"/>
-      <c r="D124" s="6"/>
-      <c r="E124" s="6"/>
-      <c r="F124" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G124" s="42"/>
-      <c r="H124" s="42"/>
-      <c r="I124" s="42"/>
-      <c r="J124" s="42"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="73"/>
-      <c r="B125" s="28">
-        <v>41744</v>
-      </c>
-      <c r="C125" s="6"/>
-      <c r="D125" s="6"/>
-      <c r="E125" s="6"/>
-      <c r="F125" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G125" s="42"/>
-      <c r="H125" s="42"/>
-      <c r="I125" s="42"/>
-      <c r="J125" s="42"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="73"/>
-      <c r="B126" s="28">
-        <v>41745</v>
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
@@ -4052,9 +4106,9 @@
       <c r="J126" s="42"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="73"/>
+      <c r="A127" s="59"/>
       <c r="B127" s="28">
-        <v>41746</v>
+        <v>41744</v>
       </c>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
@@ -4069,9 +4123,9 @@
       <c r="J127" s="42"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="74"/>
+      <c r="A128" s="59"/>
       <c r="B128" s="28">
-        <v>41747</v>
+        <v>41745</v>
       </c>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
@@ -4086,45 +4140,45 @@
       <c r="J128" s="42"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="55">
+      <c r="A129" s="59"/>
+      <c r="B129" s="28">
+        <v>41746</v>
+      </c>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G129" s="42"/>
+      <c r="H129" s="42"/>
+      <c r="I129" s="42"/>
+      <c r="J129" s="42"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="60"/>
+      <c r="B130" s="28">
+        <v>41747</v>
+      </c>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G130" s="42"/>
+      <c r="H130" s="42"/>
+      <c r="I130" s="42"/>
+      <c r="J130" s="42"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="55">
         <v>25</v>
       </c>
-      <c r="B129" s="27">
+      <c r="B131" s="27">
         <v>41750</v>
-      </c>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G129" s="41"/>
-      <c r="H129" s="41"/>
-      <c r="I129" s="41"/>
-      <c r="J129" s="41"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="98"/>
-      <c r="B130" s="27">
-        <v>41751</v>
-      </c>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
-      <c r="F130" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G130" s="41"/>
-      <c r="H130" s="41"/>
-      <c r="I130" s="41"/>
-      <c r="J130" s="41"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="98"/>
-      <c r="B131" s="27">
-        <v>41752</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
@@ -4139,9 +4193,9 @@
       <c r="J131" s="41"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="98"/>
+      <c r="A132" s="56"/>
       <c r="B132" s="27">
-        <v>41753</v>
+        <v>41751</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
@@ -4158,7 +4212,7 @@
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="56"/>
       <c r="B133" s="27">
-        <v>41754</v>
+        <v>41752</v>
       </c>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
@@ -4173,45 +4227,45 @@
       <c r="J133" s="41"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="72">
+      <c r="A134" s="56"/>
+      <c r="B134" s="27">
+        <v>41753</v>
+      </c>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G134" s="41"/>
+      <c r="H134" s="41"/>
+      <c r="I134" s="41"/>
+      <c r="J134" s="41"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="57"/>
+      <c r="B135" s="27">
+        <v>41754</v>
+      </c>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G135" s="41"/>
+      <c r="H135" s="41"/>
+      <c r="I135" s="41"/>
+      <c r="J135" s="41"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="58">
         <v>26</v>
       </c>
-      <c r="B134" s="28">
+      <c r="B136" s="28">
         <v>41757</v>
-      </c>
-      <c r="C134" s="6"/>
-      <c r="D134" s="6"/>
-      <c r="E134" s="6"/>
-      <c r="F134" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G134" s="42"/>
-      <c r="H134" s="42"/>
-      <c r="I134" s="42"/>
-      <c r="J134" s="42"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="73"/>
-      <c r="B135" s="28">
-        <v>41758</v>
-      </c>
-      <c r="C135" s="6"/>
-      <c r="D135" s="6"/>
-      <c r="E135" s="6"/>
-      <c r="F135" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G135" s="42"/>
-      <c r="H135" s="42"/>
-      <c r="I135" s="42"/>
-      <c r="J135" s="42"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="73"/>
-      <c r="B136" s="28">
-        <v>41759</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
@@ -4226,9 +4280,9 @@
       <c r="J136" s="42"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="73"/>
+      <c r="A137" s="59"/>
       <c r="B137" s="28">
-        <v>41760</v>
+        <v>41758</v>
       </c>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
@@ -4243,9 +4297,9 @@
       <c r="J137" s="42"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="74"/>
+      <c r="A138" s="59"/>
       <c r="B138" s="28">
-        <v>41761</v>
+        <v>41759</v>
       </c>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
@@ -4260,45 +4314,45 @@
       <c r="J138" s="42"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="55">
+      <c r="A139" s="59"/>
+      <c r="B139" s="28">
+        <v>41760</v>
+      </c>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G139" s="42"/>
+      <c r="H139" s="42"/>
+      <c r="I139" s="42"/>
+      <c r="J139" s="42"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="60"/>
+      <c r="B140" s="28">
+        <v>41761</v>
+      </c>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
+      <c r="F140" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G140" s="42"/>
+      <c r="H140" s="42"/>
+      <c r="I140" s="42"/>
+      <c r="J140" s="42"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="55">
         <v>27</v>
       </c>
-      <c r="B139" s="27">
+      <c r="B141" s="27">
         <v>41764</v>
-      </c>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
-      <c r="E139" s="5"/>
-      <c r="F139" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G139" s="41"/>
-      <c r="H139" s="41"/>
-      <c r="I139" s="41"/>
-      <c r="J139" s="41"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="98"/>
-      <c r="B140" s="27">
-        <v>41765</v>
-      </c>
-      <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
-      <c r="E140" s="5"/>
-      <c r="F140" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G140" s="41"/>
-      <c r="H140" s="41"/>
-      <c r="I140" s="41"/>
-      <c r="J140" s="41"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="98"/>
-      <c r="B141" s="27">
-        <v>41766</v>
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
@@ -4313,9 +4367,9 @@
       <c r="J141" s="41"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="98"/>
+      <c r="A142" s="56"/>
       <c r="B142" s="27">
-        <v>41767</v>
+        <v>41765</v>
       </c>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
@@ -4332,7 +4386,7 @@
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="56"/>
       <c r="B143" s="27">
-        <v>41768</v>
+        <v>41766</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
@@ -4347,45 +4401,45 @@
       <c r="J143" s="41"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="72">
+      <c r="A144" s="56"/>
+      <c r="B144" s="27">
+        <v>41767</v>
+      </c>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G144" s="41"/>
+      <c r="H144" s="41"/>
+      <c r="I144" s="41"/>
+      <c r="J144" s="41"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" s="57"/>
+      <c r="B145" s="27">
+        <v>41768</v>
+      </c>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G145" s="41"/>
+      <c r="H145" s="41"/>
+      <c r="I145" s="41"/>
+      <c r="J145" s="41"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" s="58">
         <v>28</v>
       </c>
-      <c r="B144" s="28">
+      <c r="B146" s="28">
         <v>41771</v>
-      </c>
-      <c r="C144" s="6"/>
-      <c r="D144" s="6"/>
-      <c r="E144" s="6"/>
-      <c r="F144" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G144" s="42"/>
-      <c r="H144" s="42"/>
-      <c r="I144" s="42"/>
-      <c r="J144" s="42"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="73"/>
-      <c r="B145" s="28">
-        <v>41772</v>
-      </c>
-      <c r="C145" s="6"/>
-      <c r="D145" s="6"/>
-      <c r="E145" s="6"/>
-      <c r="F145" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G145" s="42"/>
-      <c r="H145" s="42"/>
-      <c r="I145" s="42"/>
-      <c r="J145" s="42"/>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="73"/>
-      <c r="B146" s="28">
-        <v>41773</v>
       </c>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
@@ -4400,15 +4454,15 @@
       <c r="J146" s="42"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="73"/>
+      <c r="A147" s="59"/>
       <c r="B147" s="28">
-        <v>41774</v>
+        <v>41772</v>
       </c>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
       <c r="E147" s="6"/>
       <c r="F147" s="6">
-        <f t="shared" ref="F147:F158" si="4">E147</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G147" s="42"/>
@@ -4417,15 +4471,15 @@
       <c r="J147" s="42"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="74"/>
+      <c r="A148" s="59"/>
       <c r="B148" s="28">
-        <v>41775</v>
+        <v>41773</v>
       </c>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
       <c r="E148" s="6"/>
       <c r="F148" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G148" s="42"/>
@@ -4434,45 +4488,45 @@
       <c r="J148" s="42"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="55">
+      <c r="A149" s="59"/>
+      <c r="B149" s="28">
+        <v>41774</v>
+      </c>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+      <c r="F149" s="6">
+        <f t="shared" ref="F149:F160" si="4">E149</f>
+        <v>0</v>
+      </c>
+      <c r="G149" s="42"/>
+      <c r="H149" s="42"/>
+      <c r="I149" s="42"/>
+      <c r="J149" s="42"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="60"/>
+      <c r="B150" s="28">
+        <v>41775</v>
+      </c>
+      <c r="C150" s="6"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="6"/>
+      <c r="F150" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G150" s="42"/>
+      <c r="H150" s="42"/>
+      <c r="I150" s="42"/>
+      <c r="J150" s="42"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" s="55">
         <v>29</v>
       </c>
-      <c r="B149" s="27">
+      <c r="B151" s="27">
         <v>41778</v>
-      </c>
-      <c r="C149" s="5"/>
-      <c r="D149" s="5"/>
-      <c r="E149" s="5"/>
-      <c r="F149" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G149" s="41"/>
-      <c r="H149" s="41"/>
-      <c r="I149" s="41"/>
-      <c r="J149" s="41"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="98"/>
-      <c r="B150" s="27">
-        <v>41779</v>
-      </c>
-      <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
-      <c r="E150" s="5"/>
-      <c r="F150" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G150" s="41"/>
-      <c r="H150" s="41"/>
-      <c r="I150" s="41"/>
-      <c r="J150" s="41"/>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="98"/>
-      <c r="B151" s="27">
-        <v>41780</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
@@ -4487,9 +4541,9 @@
       <c r="J151" s="41"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="98"/>
+      <c r="A152" s="56"/>
       <c r="B152" s="27">
-        <v>41781</v>
+        <v>41779</v>
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
@@ -4506,7 +4560,7 @@
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="56"/>
       <c r="B153" s="27">
-        <v>41782</v>
+        <v>41780</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
@@ -4521,45 +4575,45 @@
       <c r="J153" s="41"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="106">
+      <c r="A154" s="56"/>
+      <c r="B154" s="27">
+        <v>41781</v>
+      </c>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G154" s="41"/>
+      <c r="H154" s="41"/>
+      <c r="I154" s="41"/>
+      <c r="J154" s="41"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" s="57"/>
+      <c r="B155" s="27">
+        <v>41782</v>
+      </c>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G155" s="41"/>
+      <c r="H155" s="41"/>
+      <c r="I155" s="41"/>
+      <c r="J155" s="41"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" s="61">
         <v>30</v>
       </c>
-      <c r="B154" s="28">
+      <c r="B156" s="28">
         <v>41785</v>
-      </c>
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
-      <c r="E154" s="2"/>
-      <c r="F154" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G154" s="43"/>
-      <c r="H154" s="43"/>
-      <c r="I154" s="43"/>
-      <c r="J154" s="43"/>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="107"/>
-      <c r="B155" s="28">
-        <v>41786</v>
-      </c>
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
-      <c r="E155" s="2"/>
-      <c r="F155" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G155" s="43"/>
-      <c r="H155" s="43"/>
-      <c r="I155" s="43"/>
-      <c r="J155" s="43"/>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="107"/>
-      <c r="B156" s="28">
-        <v>41787</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -4574,9 +4628,9 @@
       <c r="J156" s="43"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="107"/>
+      <c r="A157" s="62"/>
       <c r="B157" s="28">
-        <v>41788</v>
+        <v>41786</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -4591,9 +4645,9 @@
       <c r="J157" s="43"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="108"/>
+      <c r="A158" s="62"/>
       <c r="B158" s="28">
-        <v>41789</v>
+        <v>41787</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -4607,56 +4661,92 @@
       <c r="I158" s="43"/>
       <c r="J158" s="43"/>
     </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" s="62"/>
+      <c r="B159" s="28">
+        <v>41788</v>
+      </c>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G159" s="43"/>
+      <c r="H159" s="43"/>
+      <c r="I159" s="43"/>
+      <c r="J159" s="43"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="63"/>
+      <c r="B160" s="28">
+        <v>41789</v>
+      </c>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G160" s="43"/>
+      <c r="H160" s="43"/>
+      <c r="I160" s="43"/>
+      <c r="J160" s="43"/>
+    </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="A139:A143"/>
-    <mergeCell ref="A144:A148"/>
-    <mergeCell ref="A149:A153"/>
-    <mergeCell ref="A154:A158"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="A124:A128"/>
-    <mergeCell ref="A129:A133"/>
-    <mergeCell ref="A134:A138"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="A89:A93"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="F19:F20"/>
+  <mergeCells count="50">
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="G2:N4"/>
     <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F4"/>
-    <mergeCell ref="A10:A16"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="A10:A18"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A71:A75"/>
+    <mergeCell ref="A76:A80"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A66:A70"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="A61:A65"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="A96:A100"/>
+    <mergeCell ref="A101:A105"/>
+    <mergeCell ref="A106:A110"/>
+    <mergeCell ref="A111:A115"/>
+    <mergeCell ref="A141:A145"/>
+    <mergeCell ref="A146:A150"/>
+    <mergeCell ref="A151:A155"/>
+    <mergeCell ref="A156:A160"/>
+    <mergeCell ref="A116:A120"/>
+    <mergeCell ref="A121:A125"/>
+    <mergeCell ref="A126:A130"/>
+    <mergeCell ref="A131:A135"/>
+    <mergeCell ref="A136:A140"/>
   </mergeCells>
   <conditionalFormatting sqref="M7">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
@@ -4676,7 +4766,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F8 F12 M8 M10 F15" formulaRange="1"/>
+    <ignoredError sqref="F8 F14 M8 M12 F17" formulaRange="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -4698,7 +4788,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M10:M11</xm:sqref>
+          <xm:sqref>M12:M13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="36" id="{64BAD167-7C90-4434-9494-BC007D5CA8F5}">
@@ -4717,7 +4807,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M12:M13</xm:sqref>
+          <xm:sqref>M14:M15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="35" id="{71646626-2950-4450-989F-AF3A1BD8FAC2}">
@@ -4736,29 +4826,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M14</xm:sqref>
+          <xm:sqref>M16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="33" id="{8DF54BCB-92DC-49D8-B5B7-C930B758DAC9}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M15:M16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="32" id="{F3D4927F-C508-4AEC-AE77-5B47D8246C97}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4777,7 +4848,7 @@
           <xm:sqref>M17:M18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="31" id="{6C6B1EFA-99FD-4C7D-9FDE-A1C62DFDC4A6}">
+          <x14:cfRule type="iconSet" priority="32" id="{F3D4927F-C508-4AEC-AE77-5B47D8246C97}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4796,7 +4867,7 @@
           <xm:sqref>M19:M20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="30" id="{728DDD0C-59C2-4EAA-A943-37D530A87696}">
+          <x14:cfRule type="iconSet" priority="31" id="{6C6B1EFA-99FD-4C7D-9FDE-A1C62DFDC4A6}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4812,29 +4883,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M21</xm:sqref>
+          <xm:sqref>M21:M22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="29" id="{9AF6B611-56EC-46E2-A851-4E09E28F0C39}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M22</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="28" id="{7A1C8DB1-F7B5-44DF-B6AD-BD94518E2F59}">
+          <x14:cfRule type="iconSet" priority="30" id="{728DDD0C-59C2-4EAA-A943-37D530A87696}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4853,7 +4905,7 @@
           <xm:sqref>M23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="27" id="{798FB9D7-6FEF-4CEA-8CC2-45EE73486721}">
+          <x14:cfRule type="iconSet" priority="29" id="{9AF6B611-56EC-46E2-A851-4E09E28F0C39}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4872,7 +4924,7 @@
           <xm:sqref>M24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="26" id="{9D5A3639-C9C5-40BD-82EE-496926295966}">
+          <x14:cfRule type="iconSet" priority="28" id="{7A1C8DB1-F7B5-44DF-B6AD-BD94518E2F59}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4891,7 +4943,7 @@
           <xm:sqref>M25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="25" id="{042E6B91-B838-419B-9746-9D04172CBCE2}">
+          <x14:cfRule type="iconSet" priority="27" id="{798FB9D7-6FEF-4CEA-8CC2-45EE73486721}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4910,7 +4962,7 @@
           <xm:sqref>M26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="24" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
+          <x14:cfRule type="iconSet" priority="26" id="{9D5A3639-C9C5-40BD-82EE-496926295966}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4929,7 +4981,7 @@
           <xm:sqref>M27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="23" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
+          <x14:cfRule type="iconSet" priority="25" id="{042E6B91-B838-419B-9746-9D04172CBCE2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4948,7 +5000,7 @@
           <xm:sqref>M28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="22" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
+          <x14:cfRule type="iconSet" priority="24" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4967,7 +5019,7 @@
           <xm:sqref>M29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="21" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
+          <x14:cfRule type="iconSet" priority="23" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4986,7 +5038,7 @@
           <xm:sqref>M30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="20" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
+          <x14:cfRule type="iconSet" priority="22" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5005,7 +5057,7 @@
           <xm:sqref>M31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="19" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
+          <x14:cfRule type="iconSet" priority="21" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5024,7 +5076,7 @@
           <xm:sqref>M32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
+          <x14:cfRule type="iconSet" priority="20" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5043,7 +5095,7 @@
           <xm:sqref>M33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="17" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
+          <x14:cfRule type="iconSet" priority="19" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5062,7 +5114,7 @@
           <xm:sqref>M34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="16" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
+          <x14:cfRule type="iconSet" priority="18" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5081,7 +5133,7 @@
           <xm:sqref>M35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="15" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
+          <x14:cfRule type="iconSet" priority="17" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5100,7 +5152,7 @@
           <xm:sqref>M36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
+          <x14:cfRule type="iconSet" priority="16" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5119,7 +5171,7 @@
           <xm:sqref>M37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
+          <x14:cfRule type="iconSet" priority="15" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5138,7 +5190,7 @@
           <xm:sqref>M38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+          <x14:cfRule type="iconSet" priority="14" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5157,7 +5209,7 @@
           <xm:sqref>M39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="11" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+          <x14:cfRule type="iconSet" priority="13" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5176,7 +5228,7 @@
           <xm:sqref>M40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="10" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+          <x14:cfRule type="iconSet" priority="12" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5193,6 +5245,44 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>M41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="11" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="10" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="9" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
@@ -5230,7 +5320,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F17 F7:F8 F10:F12 F14 F19 F21:F158</xm:sqref>
+          <xm:sqref>F19 F7:F8 F12:F14 F16 F21 F23:F160</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="1" id="{E123B8DB-3F09-4577-A02F-B5F22850E800}">
@@ -5249,7 +5339,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F15</xm:sqref>
+          <xm:sqref>F17</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNgo.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNgo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\capstone\1. Project management\9. Timelog\individual time log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NC\Desktop\Admission project\1. Project management\9. Timelog\individual time log\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="84">
   <si>
     <t>Week</t>
   </si>
@@ -279,9 +279,6 @@
   </si>
   <si>
     <t xml:space="preserve"> - java and spring</t>
-  </si>
-  <si>
-    <t>team meeting</t>
   </si>
   <si>
     <t>.- review change management
@@ -314,7 +311,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -322,14 +319,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -342,7 +339,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -355,20 +352,20 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -381,7 +378,7 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -605,7 +602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -743,6 +740,27 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="18" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -773,161 +791,143 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1253,13 +1253,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>28</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>7</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>9</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>11</v>
       </c>
@@ -1365,106 +1365,106 @@
   <dimension ref="A1:O160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10:F11"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="50.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="50.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="1" customWidth="1"/>
-    <col min="11" max="11" width="27.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.25" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="14" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="75"/>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="77"/>
+      <c r="A1" s="83"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="85"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="78" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="80"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="88"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="83"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="91"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="96"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="86"/>
+      <c r="A4" s="104"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="94"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="106"/>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="108"/>
+      <c r="A5" s="111"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="113"/>
       <c r="F5" s="16"/>
       <c r="H5" s="45" t="s">
         <v>67</v>
@@ -1478,7 +1478,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>0</v>
       </c>
@@ -1509,13 +1509,13 @@
       <c r="J6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="117"/>
     </row>
     <row r="7" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="87">
+      <c r="A7" s="95">
         <v>1</v>
       </c>
       <c r="B7" s="17">
@@ -1542,10 +1542,10 @@
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="31"/>
-      <c r="K7" s="66" t="s">
+      <c r="K7" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="66"/>
+      <c r="L7" s="72"/>
       <c r="M7" s="34">
         <f>SUM(M8:M43)</f>
         <v>13.403</v>
@@ -1554,9 +1554,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="88"/>
-      <c r="B8" s="102">
+    <row r="8" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="96"/>
+      <c r="B8" s="107">
         <v>41586</v>
       </c>
       <c r="C8" s="18">
@@ -1568,7 +1568,7 @@
       <c r="E8" s="19">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F8" s="104">
+      <c r="F8" s="109">
         <f>SUM(E8:E9)</f>
         <v>1.66</v>
       </c>
@@ -1593,8 +1593,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="89"/>
-      <c r="B9" s="103"/>
+      <c r="A9" s="97"/>
+      <c r="B9" s="108"/>
       <c r="C9" s="18">
         <v>0.63194444444444442</v>
       </c>
@@ -1604,7 +1604,7 @@
       <c r="E9" s="19">
         <v>0.5</v>
       </c>
-      <c r="F9" s="105"/>
+      <c r="F9" s="110"/>
       <c r="G9" s="31" t="s">
         <v>25</v>
       </c>
@@ -1615,59 +1615,59 @@
       <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="99">
+      <c r="A10" s="114">
         <v>2</v>
       </c>
-      <c r="B10" s="69">
+      <c r="B10" s="75">
         <v>41589</v>
       </c>
-      <c r="C10" s="109">
+      <c r="C10" s="55">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D10" s="109">
+      <c r="D10" s="55">
         <v>0.64583333333333337</v>
       </c>
-      <c r="E10" s="110">
+      <c r="E10" s="56">
         <v>1.5</v>
       </c>
-      <c r="F10" s="115">
+      <c r="F10" s="81">
         <f>SUM(E10:E11)</f>
         <v>2.5</v>
       </c>
-      <c r="G10" s="111" t="s">
+      <c r="G10" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="H10" s="116" t="s">
+      <c r="I10" s="59"/>
+      <c r="J10" s="57"/>
+    </row>
+    <row r="11" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="115"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="55">
+        <v>0.875</v>
+      </c>
+      <c r="D11" s="55">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E11" s="56">
+        <v>1</v>
+      </c>
+      <c r="F11" s="82"/>
+      <c r="G11" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="I10" s="113"/>
-      <c r="J10" s="111"/>
-    </row>
-    <row r="11" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="100"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="109">
-        <v>0.875</v>
-      </c>
-      <c r="D11" s="109">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="E11" s="110">
-        <v>1</v>
-      </c>
-      <c r="F11" s="114"/>
-      <c r="G11" s="111" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="112" t="s">
-        <v>84</v>
-      </c>
-      <c r="I11" s="113"/>
-      <c r="J11" s="111"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="57"/>
     </row>
     <row r="12" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A12" s="100"/>
-      <c r="B12" s="69">
+      <c r="A12" s="115"/>
+      <c r="B12" s="75">
         <v>41590</v>
       </c>
       <c r="C12" s="23">
@@ -1707,8 +1707,8 @@
       <c r="O12" s="36"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="100"/>
-      <c r="B13" s="70"/>
+      <c r="A13" s="115"/>
+      <c r="B13" s="76"/>
       <c r="C13" s="23">
         <v>0.875</v>
       </c>
@@ -1737,8 +1737,8 @@
       <c r="O13" s="36"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="100"/>
-      <c r="B14" s="69">
+      <c r="A14" s="115"/>
+      <c r="B14" s="75">
         <v>41592</v>
       </c>
       <c r="C14" s="26">
@@ -1750,7 +1750,7 @@
       <c r="E14" s="29">
         <v>1.25</v>
       </c>
-      <c r="F14" s="67">
+      <c r="F14" s="73">
         <f>SUM(E14:E15)</f>
         <v>3.25</v>
       </c>
@@ -1777,8 +1777,8 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="100"/>
-      <c r="B15" s="70"/>
+      <c r="A15" s="115"/>
+      <c r="B15" s="76"/>
       <c r="C15" s="26">
         <v>0.42708333333333331</v>
       </c>
@@ -1788,7 +1788,7 @@
       <c r="E15" s="29">
         <v>2</v>
       </c>
-      <c r="F15" s="68"/>
+      <c r="F15" s="74"/>
       <c r="G15" s="48" t="s">
         <v>30</v>
       </c>
@@ -1803,7 +1803,7 @@
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="100"/>
+      <c r="A16" s="115"/>
       <c r="B16" s="46">
         <v>41593</v>
       </c>
@@ -1843,8 +1843,8 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="100"/>
-      <c r="B17" s="69">
+      <c r="A17" s="115"/>
+      <c r="B17" s="75">
         <v>41594</v>
       </c>
       <c r="C17" s="26">
@@ -1856,7 +1856,7 @@
       <c r="E17" s="29">
         <v>2</v>
       </c>
-      <c r="F17" s="67">
+      <c r="F17" s="73">
         <f>SUM(E17:E18)</f>
         <v>3</v>
       </c>
@@ -1883,8 +1883,8 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="101"/>
-      <c r="B18" s="70"/>
+      <c r="A18" s="116"/>
+      <c r="B18" s="76"/>
       <c r="C18" s="26">
         <v>0.83333333333333337</v>
       </c>
@@ -1894,7 +1894,7 @@
       <c r="E18" s="29">
         <v>1</v>
       </c>
-      <c r="F18" s="68"/>
+      <c r="F18" s="74"/>
       <c r="G18" s="30" t="s">
         <v>24</v>
       </c>
@@ -1911,10 +1911,10 @@
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="64">
+      <c r="A19" s="71">
         <v>3</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="77">
         <v>41596</v>
       </c>
       <c r="C19" s="53">
@@ -1924,11 +1924,11 @@
         <v>0.89166666666666661</v>
       </c>
       <c r="E19" s="5">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="F19" s="55">
+        <v>0.6</v>
+      </c>
+      <c r="F19" s="62">
         <f>SUM(E19:E20)</f>
-        <v>2.5900000000000003</v>
+        <v>1.18</v>
       </c>
       <c r="G19" s="41" t="s">
         <v>24</v>
@@ -1953,8 +1953,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="64"/>
-      <c r="B20" s="72"/>
+      <c r="A20" s="71"/>
+      <c r="B20" s="78"/>
       <c r="C20" s="53">
         <v>0.89236111111111116</v>
       </c>
@@ -1962,9 +1962,9 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E20" s="5">
-        <v>0.35</v>
-      </c>
-      <c r="F20" s="57"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F20" s="64"/>
       <c r="G20" s="41" t="s">
         <v>30</v>
       </c>
@@ -1979,8 +1979,8 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A21" s="64"/>
-      <c r="B21" s="73">
+      <c r="A21" s="71"/>
+      <c r="B21" s="79">
         <v>41597</v>
       </c>
       <c r="C21" s="53">
@@ -1992,15 +1992,15 @@
       <c r="E21" s="52">
         <v>1</v>
       </c>
-      <c r="F21" s="55">
+      <c r="F21" s="62">
         <f>SUM(E21:E22)</f>
         <v>3</v>
       </c>
-      <c r="G21" s="41" t="s">
+      <c r="G21" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="54" t="s">
         <v>79</v>
-      </c>
-      <c r="H21" s="54" t="s">
-        <v>80</v>
       </c>
       <c r="I21" s="41"/>
       <c r="J21" s="41"/>
@@ -2017,8 +2017,8 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="64"/>
-      <c r="B22" s="74"/>
+      <c r="A22" s="71"/>
+      <c r="B22" s="80"/>
       <c r="C22" s="53">
         <v>0.91666666666666663</v>
       </c>
@@ -2028,12 +2028,12 @@
       <c r="E22" s="52">
         <v>2</v>
       </c>
-      <c r="F22" s="57"/>
+      <c r="F22" s="64"/>
       <c r="G22" s="41" t="s">
         <v>24</v>
       </c>
       <c r="H22" s="54" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I22" s="41" t="s">
         <v>77</v>
@@ -2045,7 +2045,7 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="64"/>
+      <c r="A23" s="71"/>
       <c r="B23" s="27">
         <v>41598</v>
       </c>
@@ -2073,7 +2073,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="64"/>
+      <c r="A24" s="71"/>
       <c r="B24" s="27">
         <v>41599</v>
       </c>
@@ -2101,7 +2101,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="64"/>
+      <c r="A25" s="71"/>
       <c r="B25" s="27">
         <v>41600</v>
       </c>
@@ -2129,7 +2129,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="58">
+      <c r="A26" s="65">
         <v>4</v>
       </c>
       <c r="B26" s="28">
@@ -2159,7 +2159,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="59"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="28">
         <v>41604</v>
       </c>
@@ -2187,7 +2187,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="59"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="28">
         <v>41605</v>
       </c>
@@ -2215,7 +2215,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="59"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="28">
         <v>41606</v>
       </c>
@@ -2243,7 +2243,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="60"/>
+      <c r="A30" s="67"/>
       <c r="B30" s="28">
         <v>41607</v>
       </c>
@@ -2271,7 +2271,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="55">
+      <c r="A31" s="62">
         <v>5</v>
       </c>
       <c r="B31" s="27">
@@ -2301,7 +2301,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
+      <c r="A32" s="63"/>
       <c r="B32" s="27">
         <v>41611</v>
       </c>
@@ -2329,7 +2329,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="56"/>
+      <c r="A33" s="63"/>
       <c r="B33" s="27">
         <v>41612</v>
       </c>
@@ -2357,7 +2357,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="56"/>
+      <c r="A34" s="63"/>
       <c r="B34" s="27">
         <v>41613</v>
       </c>
@@ -2385,7 +2385,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="57"/>
+      <c r="A35" s="64"/>
       <c r="B35" s="27">
         <v>41614</v>
       </c>
@@ -2413,7 +2413,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="58">
+      <c r="A36" s="65">
         <v>6</v>
       </c>
       <c r="B36" s="28">
@@ -2443,7 +2443,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="59"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="28">
         <v>41618</v>
       </c>
@@ -2471,7 +2471,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="59"/>
+      <c r="A38" s="66"/>
       <c r="B38" s="28">
         <v>41619</v>
       </c>
@@ -2499,7 +2499,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="59"/>
+      <c r="A39" s="66"/>
       <c r="B39" s="28">
         <v>41620</v>
       </c>
@@ -2527,7 +2527,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="60"/>
+      <c r="A40" s="67"/>
       <c r="B40" s="28">
         <v>41621</v>
       </c>
@@ -2555,7 +2555,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="55">
+      <c r="A41" s="62">
         <v>7</v>
       </c>
       <c r="B41" s="27">
@@ -2585,7 +2585,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="56"/>
+      <c r="A42" s="63"/>
       <c r="B42" s="27">
         <v>41625</v>
       </c>
@@ -2613,7 +2613,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="56"/>
+      <c r="A43" s="63"/>
       <c r="B43" s="27">
         <v>41626</v>
       </c>
@@ -2641,7 +2641,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="56"/>
+      <c r="A44" s="63"/>
       <c r="B44" s="27">
         <v>41627</v>
       </c>
@@ -2658,7 +2658,7 @@
       <c r="J44" s="41"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="57"/>
+      <c r="A45" s="64"/>
       <c r="B45" s="27">
         <v>41628</v>
       </c>
@@ -2675,7 +2675,7 @@
       <c r="J45" s="41"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="58">
+      <c r="A46" s="65">
         <v>8</v>
       </c>
       <c r="B46" s="28">
@@ -2694,7 +2694,7 @@
       <c r="J46" s="42"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="59"/>
+      <c r="A47" s="66"/>
       <c r="B47" s="28">
         <v>41632</v>
       </c>
@@ -2711,7 +2711,7 @@
       <c r="J47" s="42"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="59"/>
+      <c r="A48" s="66"/>
       <c r="B48" s="28">
         <v>41633</v>
       </c>
@@ -2728,7 +2728,7 @@
       <c r="J48" s="42"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="59"/>
+      <c r="A49" s="66"/>
       <c r="B49" s="28">
         <v>41634</v>
       </c>
@@ -2745,7 +2745,7 @@
       <c r="J49" s="42"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="60"/>
+      <c r="A50" s="67"/>
       <c r="B50" s="28">
         <v>41635</v>
       </c>
@@ -2762,7 +2762,7 @@
       <c r="J50" s="42"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="55">
+      <c r="A51" s="62">
         <v>9</v>
       </c>
       <c r="B51" s="27">
@@ -2781,7 +2781,7 @@
       <c r="J51" s="41"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="56"/>
+      <c r="A52" s="63"/>
       <c r="B52" s="27">
         <v>41639</v>
       </c>
@@ -2798,7 +2798,7 @@
       <c r="J52" s="41"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="56"/>
+      <c r="A53" s="63"/>
       <c r="B53" s="27">
         <v>41640</v>
       </c>
@@ -2815,7 +2815,7 @@
       <c r="J53" s="41"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="56"/>
+      <c r="A54" s="63"/>
       <c r="B54" s="27">
         <v>41641</v>
       </c>
@@ -2832,7 +2832,7 @@
       <c r="J54" s="41"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="57"/>
+      <c r="A55" s="64"/>
       <c r="B55" s="27">
         <v>41642</v>
       </c>
@@ -2849,7 +2849,7 @@
       <c r="J55" s="41"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="58">
+      <c r="A56" s="65">
         <v>10</v>
       </c>
       <c r="B56" s="28">
@@ -2868,7 +2868,7 @@
       <c r="J56" s="42"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="59"/>
+      <c r="A57" s="66"/>
       <c r="B57" s="28">
         <v>41646</v>
       </c>
@@ -2885,7 +2885,7 @@
       <c r="J57" s="42"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="59"/>
+      <c r="A58" s="66"/>
       <c r="B58" s="28">
         <v>41647</v>
       </c>
@@ -2902,7 +2902,7 @@
       <c r="J58" s="42"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="59"/>
+      <c r="A59" s="66"/>
       <c r="B59" s="28">
         <v>41648</v>
       </c>
@@ -2919,7 +2919,7 @@
       <c r="J59" s="42"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="60"/>
+      <c r="A60" s="67"/>
       <c r="B60" s="28">
         <v>41649</v>
       </c>
@@ -2936,7 +2936,7 @@
       <c r="J60" s="42"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="55">
+      <c r="A61" s="62">
         <v>11</v>
       </c>
       <c r="B61" s="27">
@@ -2955,7 +2955,7 @@
       <c r="J61" s="41"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="56"/>
+      <c r="A62" s="63"/>
       <c r="B62" s="27">
         <v>41653</v>
       </c>
@@ -2972,7 +2972,7 @@
       <c r="J62" s="41"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="56"/>
+      <c r="A63" s="63"/>
       <c r="B63" s="27">
         <v>41654</v>
       </c>
@@ -2989,7 +2989,7 @@
       <c r="J63" s="41"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="56"/>
+      <c r="A64" s="63"/>
       <c r="B64" s="27">
         <v>41655</v>
       </c>
@@ -3006,7 +3006,7 @@
       <c r="J64" s="41"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="57"/>
+      <c r="A65" s="64"/>
       <c r="B65" s="27">
         <v>41656</v>
       </c>
@@ -3023,7 +3023,7 @@
       <c r="J65" s="41"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="58">
+      <c r="A66" s="65">
         <v>12</v>
       </c>
       <c r="B66" s="28">
@@ -3042,7 +3042,7 @@
       <c r="J66" s="42"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="59"/>
+      <c r="A67" s="66"/>
       <c r="B67" s="28">
         <v>41660</v>
       </c>
@@ -3059,7 +3059,7 @@
       <c r="J67" s="42"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="59"/>
+      <c r="A68" s="66"/>
       <c r="B68" s="28">
         <v>41661</v>
       </c>
@@ -3076,7 +3076,7 @@
       <c r="J68" s="42"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="59"/>
+      <c r="A69" s="66"/>
       <c r="B69" s="28">
         <v>41662</v>
       </c>
@@ -3093,7 +3093,7 @@
       <c r="J69" s="42"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="60"/>
+      <c r="A70" s="67"/>
       <c r="B70" s="28">
         <v>41663</v>
       </c>
@@ -3110,7 +3110,7 @@
       <c r="J70" s="42"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="55">
+      <c r="A71" s="62">
         <v>13</v>
       </c>
       <c r="B71" s="27">
@@ -3131,7 +3131,7 @@
       <c r="J71" s="41"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="56"/>
+      <c r="A72" s="63"/>
       <c r="B72" s="27">
         <v>41667</v>
       </c>
@@ -3150,7 +3150,7 @@
       <c r="J72" s="41"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="56"/>
+      <c r="A73" s="63"/>
       <c r="B73" s="27">
         <v>41668</v>
       </c>
@@ -3169,7 +3169,7 @@
       <c r="J73" s="41"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="56"/>
+      <c r="A74" s="63"/>
       <c r="B74" s="27">
         <v>41669</v>
       </c>
@@ -3188,7 +3188,7 @@
       <c r="J74" s="41"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="57"/>
+      <c r="A75" s="64"/>
       <c r="B75" s="27">
         <v>41670</v>
       </c>
@@ -3207,7 +3207,7 @@
       <c r="J75" s="41"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="58">
+      <c r="A76" s="65">
         <v>14</v>
       </c>
       <c r="B76" s="28">
@@ -3228,7 +3228,7 @@
       <c r="J76" s="42"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="59"/>
+      <c r="A77" s="66"/>
       <c r="B77" s="28">
         <v>41674</v>
       </c>
@@ -3247,7 +3247,7 @@
       <c r="J77" s="42"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="59"/>
+      <c r="A78" s="66"/>
       <c r="B78" s="28">
         <v>41675</v>
       </c>
@@ -3266,7 +3266,7 @@
       <c r="J78" s="42"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="59"/>
+      <c r="A79" s="66"/>
       <c r="B79" s="28">
         <v>41676</v>
       </c>
@@ -3285,7 +3285,7 @@
       <c r="J79" s="42"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="60"/>
+      <c r="A80" s="67"/>
       <c r="B80" s="28">
         <v>41677</v>
       </c>
@@ -3304,7 +3304,7 @@
       <c r="J80" s="42"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="55">
+      <c r="A81" s="62">
         <v>15</v>
       </c>
       <c r="B81" s="27">
@@ -3323,7 +3323,7 @@
       <c r="J81" s="41"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="56"/>
+      <c r="A82" s="63"/>
       <c r="B82" s="27">
         <v>41681</v>
       </c>
@@ -3340,7 +3340,7 @@
       <c r="J82" s="41"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="56"/>
+      <c r="A83" s="63"/>
       <c r="B83" s="27">
         <v>41682</v>
       </c>
@@ -3357,7 +3357,7 @@
       <c r="J83" s="41"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="56"/>
+      <c r="A84" s="63"/>
       <c r="B84" s="27">
         <v>41683</v>
       </c>
@@ -3374,7 +3374,7 @@
       <c r="J84" s="41"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="57"/>
+      <c r="A85" s="64"/>
       <c r="B85" s="27">
         <v>41684</v>
       </c>
@@ -3391,7 +3391,7 @@
       <c r="J85" s="41"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="58">
+      <c r="A86" s="65">
         <v>16</v>
       </c>
       <c r="B86" s="28">
@@ -3410,7 +3410,7 @@
       <c r="J86" s="42"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="59"/>
+      <c r="A87" s="66"/>
       <c r="B87" s="28">
         <v>41688</v>
       </c>
@@ -3427,7 +3427,7 @@
       <c r="J87" s="42"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="59"/>
+      <c r="A88" s="66"/>
       <c r="B88" s="28">
         <v>41689</v>
       </c>
@@ -3444,7 +3444,7 @@
       <c r="J88" s="42"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="59"/>
+      <c r="A89" s="66"/>
       <c r="B89" s="28">
         <v>41690</v>
       </c>
@@ -3461,7 +3461,7 @@
       <c r="J89" s="42"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="60"/>
+      <c r="A90" s="67"/>
       <c r="B90" s="28">
         <v>41691</v>
       </c>
@@ -3478,7 +3478,7 @@
       <c r="J90" s="42"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="55">
+      <c r="A91" s="62">
         <v>17</v>
       </c>
       <c r="B91" s="27">
@@ -3497,7 +3497,7 @@
       <c r="J91" s="41"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="56"/>
+      <c r="A92" s="63"/>
       <c r="B92" s="27">
         <v>41695</v>
       </c>
@@ -3514,7 +3514,7 @@
       <c r="J92" s="41"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="56"/>
+      <c r="A93" s="63"/>
       <c r="B93" s="27">
         <v>41696</v>
       </c>
@@ -3531,7 +3531,7 @@
       <c r="J93" s="41"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="56"/>
+      <c r="A94" s="63"/>
       <c r="B94" s="27">
         <v>41697</v>
       </c>
@@ -3548,7 +3548,7 @@
       <c r="J94" s="41"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="57"/>
+      <c r="A95" s="64"/>
       <c r="B95" s="27">
         <v>41698</v>
       </c>
@@ -3565,7 +3565,7 @@
       <c r="J95" s="41"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="58">
+      <c r="A96" s="65">
         <v>18</v>
       </c>
       <c r="B96" s="28">
@@ -3584,7 +3584,7 @@
       <c r="J96" s="42"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="59"/>
+      <c r="A97" s="66"/>
       <c r="B97" s="28">
         <v>41702</v>
       </c>
@@ -3601,7 +3601,7 @@
       <c r="J97" s="42"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="59"/>
+      <c r="A98" s="66"/>
       <c r="B98" s="28">
         <v>41703</v>
       </c>
@@ -3618,7 +3618,7 @@
       <c r="J98" s="42"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="59"/>
+      <c r="A99" s="66"/>
       <c r="B99" s="28">
         <v>41704</v>
       </c>
@@ -3635,7 +3635,7 @@
       <c r="J99" s="42"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="60"/>
+      <c r="A100" s="67"/>
       <c r="B100" s="28">
         <v>41705</v>
       </c>
@@ -3652,7 +3652,7 @@
       <c r="J100" s="42"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="55">
+      <c r="A101" s="62">
         <v>19</v>
       </c>
       <c r="B101" s="27">
@@ -3671,7 +3671,7 @@
       <c r="J101" s="41"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="56"/>
+      <c r="A102" s="63"/>
       <c r="B102" s="27">
         <v>41709</v>
       </c>
@@ -3688,7 +3688,7 @@
       <c r="J102" s="41"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="56"/>
+      <c r="A103" s="63"/>
       <c r="B103" s="27">
         <v>41710</v>
       </c>
@@ -3705,7 +3705,7 @@
       <c r="J103" s="41"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="56"/>
+      <c r="A104" s="63"/>
       <c r="B104" s="27">
         <v>41711</v>
       </c>
@@ -3722,7 +3722,7 @@
       <c r="J104" s="41"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="57"/>
+      <c r="A105" s="64"/>
       <c r="B105" s="27">
         <v>41712</v>
       </c>
@@ -3739,7 +3739,7 @@
       <c r="J105" s="41"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="58">
+      <c r="A106" s="65">
         <v>20</v>
       </c>
       <c r="B106" s="28">
@@ -3758,7 +3758,7 @@
       <c r="J106" s="42"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="59"/>
+      <c r="A107" s="66"/>
       <c r="B107" s="28">
         <v>41716</v>
       </c>
@@ -3775,7 +3775,7 @@
       <c r="J107" s="42"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="59"/>
+      <c r="A108" s="66"/>
       <c r="B108" s="28">
         <v>41717</v>
       </c>
@@ -3792,7 +3792,7 @@
       <c r="J108" s="42"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="59"/>
+      <c r="A109" s="66"/>
       <c r="B109" s="28">
         <v>41718</v>
       </c>
@@ -3809,7 +3809,7 @@
       <c r="J109" s="42"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="60"/>
+      <c r="A110" s="67"/>
       <c r="B110" s="28">
         <v>41719</v>
       </c>
@@ -3826,7 +3826,7 @@
       <c r="J110" s="42"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="55">
+      <c r="A111" s="62">
         <v>21</v>
       </c>
       <c r="B111" s="27">
@@ -3845,7 +3845,7 @@
       <c r="J111" s="41"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="56"/>
+      <c r="A112" s="63"/>
       <c r="B112" s="27">
         <v>41723</v>
       </c>
@@ -3862,7 +3862,7 @@
       <c r="J112" s="41"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="56"/>
+      <c r="A113" s="63"/>
       <c r="B113" s="27">
         <v>41724</v>
       </c>
@@ -3879,7 +3879,7 @@
       <c r="J113" s="41"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="56"/>
+      <c r="A114" s="63"/>
       <c r="B114" s="27">
         <v>41725</v>
       </c>
@@ -3896,7 +3896,7 @@
       <c r="J114" s="41"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="57"/>
+      <c r="A115" s="64"/>
       <c r="B115" s="27">
         <v>41726</v>
       </c>
@@ -3913,7 +3913,7 @@
       <c r="J115" s="41"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="58">
+      <c r="A116" s="65">
         <v>22</v>
       </c>
       <c r="B116" s="28">
@@ -3932,7 +3932,7 @@
       <c r="J116" s="42"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="59"/>
+      <c r="A117" s="66"/>
       <c r="B117" s="28">
         <v>41730</v>
       </c>
@@ -3949,7 +3949,7 @@
       <c r="J117" s="42"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="59"/>
+      <c r="A118" s="66"/>
       <c r="B118" s="28">
         <v>41731</v>
       </c>
@@ -3966,7 +3966,7 @@
       <c r="J118" s="42"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="59"/>
+      <c r="A119" s="66"/>
       <c r="B119" s="28">
         <v>41732</v>
       </c>
@@ -3983,7 +3983,7 @@
       <c r="J119" s="42"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="60"/>
+      <c r="A120" s="67"/>
       <c r="B120" s="28">
         <v>41733</v>
       </c>
@@ -4000,7 +4000,7 @@
       <c r="J120" s="42"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="55">
+      <c r="A121" s="62">
         <v>23</v>
       </c>
       <c r="B121" s="27">
@@ -4019,7 +4019,7 @@
       <c r="J121" s="41"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="56"/>
+      <c r="A122" s="63"/>
       <c r="B122" s="27">
         <v>41737</v>
       </c>
@@ -4036,7 +4036,7 @@
       <c r="J122" s="41"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="56"/>
+      <c r="A123" s="63"/>
       <c r="B123" s="27">
         <v>41738</v>
       </c>
@@ -4053,7 +4053,7 @@
       <c r="J123" s="41"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="56"/>
+      <c r="A124" s="63"/>
       <c r="B124" s="27">
         <v>41739</v>
       </c>
@@ -4070,7 +4070,7 @@
       <c r="J124" s="41"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="57"/>
+      <c r="A125" s="64"/>
       <c r="B125" s="27">
         <v>41740</v>
       </c>
@@ -4087,7 +4087,7 @@
       <c r="J125" s="41"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="58">
+      <c r="A126" s="65">
         <v>24</v>
       </c>
       <c r="B126" s="28">
@@ -4106,7 +4106,7 @@
       <c r="J126" s="42"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="59"/>
+      <c r="A127" s="66"/>
       <c r="B127" s="28">
         <v>41744</v>
       </c>
@@ -4123,7 +4123,7 @@
       <c r="J127" s="42"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="59"/>
+      <c r="A128" s="66"/>
       <c r="B128" s="28">
         <v>41745</v>
       </c>
@@ -4140,7 +4140,7 @@
       <c r="J128" s="42"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="59"/>
+      <c r="A129" s="66"/>
       <c r="B129" s="28">
         <v>41746</v>
       </c>
@@ -4157,7 +4157,7 @@
       <c r="J129" s="42"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="60"/>
+      <c r="A130" s="67"/>
       <c r="B130" s="28">
         <v>41747</v>
       </c>
@@ -4174,7 +4174,7 @@
       <c r="J130" s="42"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="55">
+      <c r="A131" s="62">
         <v>25</v>
       </c>
       <c r="B131" s="27">
@@ -4193,7 +4193,7 @@
       <c r="J131" s="41"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="56"/>
+      <c r="A132" s="63"/>
       <c r="B132" s="27">
         <v>41751</v>
       </c>
@@ -4210,7 +4210,7 @@
       <c r="J132" s="41"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="56"/>
+      <c r="A133" s="63"/>
       <c r="B133" s="27">
         <v>41752</v>
       </c>
@@ -4227,7 +4227,7 @@
       <c r="J133" s="41"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="56"/>
+      <c r="A134" s="63"/>
       <c r="B134" s="27">
         <v>41753</v>
       </c>
@@ -4244,7 +4244,7 @@
       <c r="J134" s="41"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="57"/>
+      <c r="A135" s="64"/>
       <c r="B135" s="27">
         <v>41754</v>
       </c>
@@ -4261,7 +4261,7 @@
       <c r="J135" s="41"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="58">
+      <c r="A136" s="65">
         <v>26</v>
       </c>
       <c r="B136" s="28">
@@ -4280,7 +4280,7 @@
       <c r="J136" s="42"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="59"/>
+      <c r="A137" s="66"/>
       <c r="B137" s="28">
         <v>41758</v>
       </c>
@@ -4297,7 +4297,7 @@
       <c r="J137" s="42"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="59"/>
+      <c r="A138" s="66"/>
       <c r="B138" s="28">
         <v>41759</v>
       </c>
@@ -4314,7 +4314,7 @@
       <c r="J138" s="42"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="59"/>
+      <c r="A139" s="66"/>
       <c r="B139" s="28">
         <v>41760</v>
       </c>
@@ -4331,7 +4331,7 @@
       <c r="J139" s="42"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="60"/>
+      <c r="A140" s="67"/>
       <c r="B140" s="28">
         <v>41761</v>
       </c>
@@ -4348,7 +4348,7 @@
       <c r="J140" s="42"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="55">
+      <c r="A141" s="62">
         <v>27</v>
       </c>
       <c r="B141" s="27">
@@ -4367,7 +4367,7 @@
       <c r="J141" s="41"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="56"/>
+      <c r="A142" s="63"/>
       <c r="B142" s="27">
         <v>41765</v>
       </c>
@@ -4384,7 +4384,7 @@
       <c r="J142" s="41"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="56"/>
+      <c r="A143" s="63"/>
       <c r="B143" s="27">
         <v>41766</v>
       </c>
@@ -4401,7 +4401,7 @@
       <c r="J143" s="41"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="56"/>
+      <c r="A144" s="63"/>
       <c r="B144" s="27">
         <v>41767</v>
       </c>
@@ -4418,7 +4418,7 @@
       <c r="J144" s="41"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="57"/>
+      <c r="A145" s="64"/>
       <c r="B145" s="27">
         <v>41768</v>
       </c>
@@ -4435,7 +4435,7 @@
       <c r="J145" s="41"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="58">
+      <c r="A146" s="65">
         <v>28</v>
       </c>
       <c r="B146" s="28">
@@ -4454,7 +4454,7 @@
       <c r="J146" s="42"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="59"/>
+      <c r="A147" s="66"/>
       <c r="B147" s="28">
         <v>41772</v>
       </c>
@@ -4471,7 +4471,7 @@
       <c r="J147" s="42"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="59"/>
+      <c r="A148" s="66"/>
       <c r="B148" s="28">
         <v>41773</v>
       </c>
@@ -4488,7 +4488,7 @@
       <c r="J148" s="42"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="59"/>
+      <c r="A149" s="66"/>
       <c r="B149" s="28">
         <v>41774</v>
       </c>
@@ -4505,7 +4505,7 @@
       <c r="J149" s="42"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="60"/>
+      <c r="A150" s="67"/>
       <c r="B150" s="28">
         <v>41775</v>
       </c>
@@ -4522,7 +4522,7 @@
       <c r="J150" s="42"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="55">
+      <c r="A151" s="62">
         <v>29</v>
       </c>
       <c r="B151" s="27">
@@ -4541,7 +4541,7 @@
       <c r="J151" s="41"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="56"/>
+      <c r="A152" s="63"/>
       <c r="B152" s="27">
         <v>41779</v>
       </c>
@@ -4558,7 +4558,7 @@
       <c r="J152" s="41"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="56"/>
+      <c r="A153" s="63"/>
       <c r="B153" s="27">
         <v>41780</v>
       </c>
@@ -4575,7 +4575,7 @@
       <c r="J153" s="41"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="56"/>
+      <c r="A154" s="63"/>
       <c r="B154" s="27">
         <v>41781</v>
       </c>
@@ -4592,7 +4592,7 @@
       <c r="J154" s="41"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="57"/>
+      <c r="A155" s="64"/>
       <c r="B155" s="27">
         <v>41782</v>
       </c>
@@ -4609,7 +4609,7 @@
       <c r="J155" s="41"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="61">
+      <c r="A156" s="68">
         <v>30</v>
       </c>
       <c r="B156" s="28">
@@ -4628,7 +4628,7 @@
       <c r="J156" s="43"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="62"/>
+      <c r="A157" s="69"/>
       <c r="B157" s="28">
         <v>41786</v>
       </c>
@@ -4645,7 +4645,7 @@
       <c r="J157" s="43"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="62"/>
+      <c r="A158" s="69"/>
       <c r="B158" s="28">
         <v>41787</v>
       </c>
@@ -4662,7 +4662,7 @@
       <c r="J158" s="43"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="62"/>
+      <c r="A159" s="69"/>
       <c r="B159" s="28">
         <v>41788</v>
       </c>
@@ -4679,7 +4679,7 @@
       <c r="J159" s="43"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="63"/>
+      <c r="A160" s="70"/>
       <c r="B160" s="28">
         <v>41789</v>
       </c>

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNgo.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNgo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NC\Desktop\Admission project\1. Project management\9. Timelog\individual time log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\capstone\1. Project management\9. Timelog\individual time log\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="89">
   <si>
     <t>Week</t>
   </si>
@@ -137,9 +137,6 @@
   </si>
   <si>
     <t>Time for doing week 11</t>
-  </si>
-  <si>
-    <t>Time for doing week 12</t>
   </si>
   <si>
     <t>Time for doing week 13</t>
@@ -298,6 +295,24 @@
   </si>
   <si>
     <t>- processes</t>
+  </si>
+  <si>
+    <t>self prepare</t>
+  </si>
+  <si>
+    <t>- risk register template</t>
+  </si>
+  <si>
+    <t>- update timelog</t>
+  </si>
+  <si>
+    <t>prepare</t>
+  </si>
+  <si>
+    <t>team meeting</t>
+  </si>
+  <si>
+    <t>team homework</t>
   </si>
 </sst>
 </file>
@@ -311,7 +326,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -319,14 +334,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -339,7 +354,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -352,20 +367,20 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -378,7 +393,7 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -602,7 +617,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -764,6 +779,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -927,6 +948,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1253,13 +1286,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>28</v>
       </c>
@@ -1267,7 +1300,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -1275,7 +1308,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -1283,7 +1316,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -1291,7 +1324,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -1299,7 +1332,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -1307,7 +1340,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -1315,7 +1348,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>7</v>
       </c>
@@ -1323,7 +1356,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -1331,7 +1364,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>9</v>
       </c>
@@ -1339,7 +1372,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -1347,7 +1380,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>11</v>
       </c>
@@ -1362,115 +1395,115 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O160"/>
+  <dimension ref="A1:O166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21:F22"/>
+      <selection pane="bottomRight" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="50.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="50.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="1" customWidth="1"/>
-    <col min="11" max="11" width="27.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.28515625" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="14" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="83"/>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="85"/>
+      <c r="A1" s="85"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="87"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="86" t="s">
+      <c r="A2" s="100" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="88"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="90"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="101" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="91"/>
+      <c r="A3" s="103" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="93"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="104"/>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="94"/>
+      <c r="A4" s="106"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="96"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="111"/>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="113"/>
+      <c r="A5" s="113"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="115"/>
       <c r="F5" s="16"/>
       <c r="H5" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="45" t="s">
         <v>67</v>
-      </c>
-      <c r="I5" s="45" t="s">
-        <v>68</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -1478,7 +1511,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>0</v>
       </c>
@@ -1495,7 +1528,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6" s="33" t="s">
         <v>5</v>
@@ -1509,13 +1542,13 @@
       <c r="J6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="117"/>
-      <c r="L6" s="117"/>
-      <c r="M6" s="117"/>
-      <c r="N6" s="117"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
     </row>
     <row r="7" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="95">
+      <c r="A7" s="97">
         <v>1</v>
       </c>
       <c r="B7" s="17">
@@ -1538,25 +1571,25 @@
         <v>10</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="31"/>
-      <c r="K7" s="72" t="s">
+      <c r="K7" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="72"/>
+      <c r="L7" s="74"/>
       <c r="M7" s="34">
-        <f>SUM(M8:M43)</f>
+        <f>SUM(M8:M49)</f>
         <v>13.403</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="96"/>
-      <c r="B8" s="107">
+    <row r="8" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="98"/>
+      <c r="B8" s="109">
         <v>41586</v>
       </c>
       <c r="C8" s="18">
@@ -1568,7 +1601,7 @@
       <c r="E8" s="19">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F8" s="109">
+      <c r="F8" s="111">
         <f>SUM(E8:E9)</f>
         <v>1.66</v>
       </c>
@@ -1576,7 +1609,7 @@
         <v>20</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I8" s="44"/>
       <c r="J8" s="31"/>
@@ -1593,8 +1626,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="97"/>
-      <c r="B9" s="108"/>
+      <c r="A9" s="99"/>
+      <c r="B9" s="110"/>
       <c r="C9" s="18">
         <v>0.63194444444444442</v>
       </c>
@@ -1604,21 +1637,21 @@
       <c r="E9" s="19">
         <v>0.5</v>
       </c>
-      <c r="F9" s="110"/>
+      <c r="F9" s="112"/>
       <c r="G9" s="31" t="s">
         <v>25</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I9" s="44"/>
       <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="114">
+      <c r="A10" s="116">
         <v>2</v>
       </c>
-      <c r="B10" s="75">
+      <c r="B10" s="77">
         <v>41589</v>
       </c>
       <c r="C10" s="55">
@@ -1630,22 +1663,22 @@
       <c r="E10" s="56">
         <v>1.5</v>
       </c>
-      <c r="F10" s="81">
+      <c r="F10" s="83">
         <f>SUM(E10:E11)</f>
         <v>2.5</v>
       </c>
       <c r="G10" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="60" t="s">
         <v>81</v>
-      </c>
-      <c r="H10" s="60" t="s">
-        <v>82</v>
       </c>
       <c r="I10" s="59"/>
       <c r="J10" s="57"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="115"/>
-      <c r="B11" s="76"/>
+      <c r="A11" s="117"/>
+      <c r="B11" s="78"/>
       <c r="C11" s="55">
         <v>0.875</v>
       </c>
@@ -1655,19 +1688,19 @@
       <c r="E11" s="56">
         <v>1</v>
       </c>
-      <c r="F11" s="82"/>
+      <c r="F11" s="84"/>
       <c r="G11" s="57" t="s">
         <v>30</v>
       </c>
       <c r="H11" s="58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I11" s="59"/>
       <c r="J11" s="57"/>
     </row>
     <row r="12" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A12" s="115"/>
-      <c r="B12" s="75">
+      <c r="A12" s="117"/>
+      <c r="B12" s="77">
         <v>41590</v>
       </c>
       <c r="C12" s="23">
@@ -1687,10 +1720,10 @@
         <v>21</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J12" s="39"/>
       <c r="K12" s="8" t="s">
@@ -1707,8 +1740,8 @@
       <c r="O12" s="36"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="115"/>
-      <c r="B13" s="76"/>
+      <c r="A13" s="117"/>
+      <c r="B13" s="78"/>
       <c r="C13" s="23">
         <v>0.875</v>
       </c>
@@ -1726,7 +1759,7 @@
         <v>24</v>
       </c>
       <c r="H13" s="49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I13" s="38"/>
       <c r="J13" s="39"/>
@@ -1737,8 +1770,8 @@
       <c r="O13" s="36"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="115"/>
-      <c r="B14" s="75">
+      <c r="A14" s="117"/>
+      <c r="B14" s="77">
         <v>41592</v>
       </c>
       <c r="C14" s="26">
@@ -1750,7 +1783,7 @@
       <c r="E14" s="29">
         <v>1.25</v>
       </c>
-      <c r="F14" s="73">
+      <c r="F14" s="75">
         <f>SUM(E14:E15)</f>
         <v>3.25</v>
       </c>
@@ -1758,10 +1791,10 @@
         <v>25</v>
       </c>
       <c r="H14" s="51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J14" s="39"/>
       <c r="K14" s="8" t="s">
@@ -1769,7 +1802,7 @@
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="10">
-        <f>SUM(E26:E30)</f>
+        <f>SUM(E32:E36)</f>
         <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
@@ -1777,8 +1810,8 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="115"/>
-      <c r="B15" s="76"/>
+      <c r="A15" s="117"/>
+      <c r="B15" s="78"/>
       <c r="C15" s="26">
         <v>0.42708333333333331</v>
       </c>
@@ -1788,12 +1821,12 @@
       <c r="E15" s="29">
         <v>2</v>
       </c>
-      <c r="F15" s="74"/>
+      <c r="F15" s="76"/>
       <c r="G15" s="48" t="s">
         <v>30</v>
       </c>
       <c r="H15" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I15" s="40"/>
       <c r="J15" s="39"/>
@@ -1803,7 +1836,7 @@
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="115"/>
+      <c r="A16" s="117"/>
       <c r="B16" s="46">
         <v>41593</v>
       </c>
@@ -1824,10 +1857,10 @@
         <v>21</v>
       </c>
       <c r="H16" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I16" s="37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J16" s="39"/>
       <c r="K16" s="8" t="s">
@@ -1835,7 +1868,7 @@
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="10">
-        <f>SUM(E31:E35)</f>
+        <f>SUM(E37:E41)</f>
         <v>0</v>
       </c>
       <c r="N16" s="3" t="s">
@@ -1843,8 +1876,8 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="115"/>
-      <c r="B17" s="75">
+      <c r="A17" s="117"/>
+      <c r="B17" s="77">
         <v>41594</v>
       </c>
       <c r="C17" s="26">
@@ -1856,7 +1889,7 @@
       <c r="E17" s="29">
         <v>2</v>
       </c>
-      <c r="F17" s="73">
+      <c r="F17" s="75">
         <f>SUM(E17:E18)</f>
         <v>3</v>
       </c>
@@ -1864,10 +1897,10 @@
         <v>24</v>
       </c>
       <c r="H17" s="51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I17" s="37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J17" s="39"/>
       <c r="K17" s="8" t="s">
@@ -1875,7 +1908,7 @@
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="10">
-        <f>SUM(E41:E45)</f>
+        <f>SUM(E47:E51)</f>
         <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
@@ -1883,8 +1916,8 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="116"/>
-      <c r="B18" s="76"/>
+      <c r="A18" s="118"/>
+      <c r="B18" s="78"/>
       <c r="C18" s="26">
         <v>0.83333333333333337</v>
       </c>
@@ -1894,15 +1927,15 @@
       <c r="E18" s="29">
         <v>1</v>
       </c>
-      <c r="F18" s="74"/>
+      <c r="F18" s="76"/>
       <c r="G18" s="30" t="s">
         <v>24</v>
       </c>
       <c r="H18" s="50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I18" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J18" s="39"/>
       <c r="K18" s="8"/>
@@ -1911,10 +1944,10 @@
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="71">
+      <c r="A19" s="73">
         <v>3</v>
       </c>
-      <c r="B19" s="77">
+      <c r="B19" s="79">
         <v>41596</v>
       </c>
       <c r="C19" s="53">
@@ -1926,7 +1959,7 @@
       <c r="E19" s="5">
         <v>0.6</v>
       </c>
-      <c r="F19" s="62">
+      <c r="F19" s="64">
         <f>SUM(E19:E20)</f>
         <v>1.18</v>
       </c>
@@ -1934,10 +1967,10 @@
         <v>24</v>
       </c>
       <c r="H19" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="41" t="s">
         <v>76</v>
-      </c>
-      <c r="I19" s="41" t="s">
-        <v>77</v>
       </c>
       <c r="J19" s="41"/>
       <c r="K19" s="8" t="s">
@@ -1945,7 +1978,7 @@
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="10">
-        <f>SUM(E46:E50)</f>
+        <f>SUM(E52:E56)</f>
         <v>0</v>
       </c>
       <c r="N19" s="3" t="s">
@@ -1953,8 +1986,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="71"/>
-      <c r="B20" s="78"/>
+      <c r="A20" s="73"/>
+      <c r="B20" s="80"/>
       <c r="C20" s="53">
         <v>0.89236111111111116</v>
       </c>
@@ -1964,12 +1997,12 @@
       <c r="E20" s="5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F20" s="64"/>
+      <c r="F20" s="66"/>
       <c r="G20" s="41" t="s">
         <v>30</v>
       </c>
       <c r="H20" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I20" s="41"/>
       <c r="J20" s="41"/>
@@ -1979,8 +2012,8 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A21" s="71"/>
-      <c r="B21" s="79">
+      <c r="A21" s="73"/>
+      <c r="B21" s="81">
         <v>41597</v>
       </c>
       <c r="C21" s="53">
@@ -1992,7 +2025,7 @@
       <c r="E21" s="52">
         <v>1</v>
       </c>
-      <c r="F21" s="62">
+      <c r="F21" s="64">
         <f>SUM(E21:E22)</f>
         <v>3</v>
       </c>
@@ -2000,7 +2033,7 @@
         <v>21</v>
       </c>
       <c r="H21" s="54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I21" s="41"/>
       <c r="J21" s="41"/>
@@ -2009,7 +2042,7 @@
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="10">
-        <f>SUM(E51:E55)</f>
+        <f>SUM(E57:E61)</f>
         <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
@@ -2017,8 +2050,8 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="71"/>
-      <c r="B22" s="80"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="82"/>
       <c r="C22" s="53">
         <v>0.91666666666666663</v>
       </c>
@@ -2028,15 +2061,15 @@
       <c r="E22" s="52">
         <v>2</v>
       </c>
-      <c r="F22" s="64"/>
+      <c r="F22" s="66"/>
       <c r="G22" s="41" t="s">
         <v>24</v>
       </c>
       <c r="H22" s="54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I22" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J22" s="41"/>
       <c r="K22" s="8"/>
@@ -2045,19 +2078,29 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="71"/>
-      <c r="B23" s="27">
+      <c r="A23" s="73"/>
+      <c r="B23" s="79">
         <v>41598</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5">
-        <f t="shared" ref="F23:F52" si="0">E23</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
+      <c r="C23" s="53">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D23" s="53">
+        <v>0.625</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
+      <c r="F23" s="121">
+        <f>SUM(E23:E24)</f>
+        <v>3</v>
+      </c>
+      <c r="G23" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" s="63" t="s">
+        <v>84</v>
+      </c>
       <c r="I23" s="41"/>
       <c r="J23" s="41"/>
       <c r="K23" s="8" t="s">
@@ -2065,7 +2108,7 @@
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="10">
-        <f>SUM(E56:E60)</f>
+        <f>SUM(E62:E66)</f>
         <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
@@ -2073,19 +2116,24 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="71"/>
-      <c r="B24" s="27">
-        <v>41599</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="53">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D24" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="5">
+        <v>2</v>
+      </c>
+      <c r="F24" s="122"/>
+      <c r="G24" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="63" t="s">
+        <v>85</v>
+      </c>
       <c r="I24" s="41"/>
       <c r="J24" s="41"/>
       <c r="K24" s="8" t="s">
@@ -2093,7 +2141,7 @@
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="10">
-        <f>SUM(E61:E65)</f>
+        <f>SUM(E67:E71)</f>
         <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
@@ -2101,227 +2149,196 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="71"/>
-      <c r="B25" s="27">
-        <v>41600</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="79">
+        <v>41599</v>
+      </c>
+      <c r="C25" s="53">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D25" s="53">
+        <v>0.375</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1</v>
+      </c>
+      <c r="F25" s="64">
+        <f>SUM(E25:E30)</f>
+        <v>10.35</v>
+      </c>
+      <c r="G25" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="H25" s="63"/>
       <c r="I25" s="41"/>
       <c r="J25" s="41"/>
-      <c r="K25" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="K25" s="8"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="10">
-        <f>SUM(E66:E70)</f>
-        <v>0</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="M25" s="10"/>
+      <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="65">
-        <v>4</v>
-      </c>
-      <c r="B26" s="28">
-        <v>41603</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="A26" s="73"/>
+      <c r="B26" s="120"/>
+      <c r="C26" s="53">
+        <v>0.375</v>
+      </c>
+      <c r="D26" s="53">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F26" s="65"/>
+      <c r="G26" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="63"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="8"/>
       <c r="L26" s="6"/>
-      <c r="M26" s="10">
-        <f>SUM(E71:E75)</f>
-        <v>0</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="M26" s="10"/>
+      <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="66"/>
-      <c r="B27" s="28">
-        <v>41604</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="A27" s="73"/>
+      <c r="B27" s="120"/>
+      <c r="C27" s="53">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="D27" s="53">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F27" s="65"/>
+      <c r="G27" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" s="63"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="8"/>
       <c r="L27" s="6"/>
-      <c r="M27" s="10">
-        <f>SUM(E76:E80)</f>
-        <v>0</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="M27" s="10"/>
+      <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="66"/>
-      <c r="B28" s="28">
-        <v>41605</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="8" t="s">
-        <v>40</v>
-      </c>
+      <c r="A28" s="73"/>
+      <c r="B28" s="120"/>
+      <c r="C28" s="53">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D28" s="53">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E28" s="5">
+        <v>2</v>
+      </c>
+      <c r="F28" s="65"/>
+      <c r="G28" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" s="63"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="8"/>
       <c r="L28" s="6"/>
-      <c r="M28" s="10">
-        <f>SUM(E81:E85)</f>
-        <v>0</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="M28" s="10"/>
+      <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="66"/>
-      <c r="B29" s="28">
-        <v>41606</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="8" t="s">
-        <v>41</v>
-      </c>
+      <c r="A29" s="73"/>
+      <c r="B29" s="120"/>
+      <c r="C29" s="53">
+        <v>0.625</v>
+      </c>
+      <c r="D29" s="53">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="E29" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="F29" s="65"/>
+      <c r="G29" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="H29" s="63"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="8"/>
       <c r="L29" s="6"/>
-      <c r="M29" s="10">
-        <f>SUM(E86:E90)</f>
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="M29" s="10"/>
+      <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="67"/>
-      <c r="B30" s="28">
-        <v>41607</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="8" t="s">
-        <v>42</v>
-      </c>
+      <c r="A30" s="73"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="53">
+        <v>0.84375</v>
+      </c>
+      <c r="D30" s="53">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E30" s="5">
+        <v>2.65</v>
+      </c>
+      <c r="F30" s="66"/>
+      <c r="G30" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="H30" s="63"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="8"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="10">
-        <f>SUM(E91:E95)</f>
-        <v>0</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="M30" s="10"/>
+      <c r="N30" s="3"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="62">
-        <v>5</v>
-      </c>
+      <c r="A31" s="62"/>
       <c r="B31" s="27">
-        <v>41610</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
+        <v>41600</v>
+      </c>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="F31" s="123"/>
       <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
+      <c r="H31" s="63"/>
       <c r="I31" s="41"/>
       <c r="J31" s="41"/>
-      <c r="K31" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="K31" s="8"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="10">
-        <f>SUM(E96:E100)</f>
-        <v>0</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="M31" s="10"/>
+      <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="63"/>
-      <c r="B32" s="27">
-        <v>41611</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
+      <c r="A32" s="67">
+        <v>4</v>
+      </c>
+      <c r="B32" s="28">
+        <v>41603</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6">
+        <f t="shared" ref="F23:F58" si="0">E32</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
       <c r="K32" s="8" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="L32" s="6"/>
       <c r="M32" s="10">
-        <f>SUM(E101:E105)</f>
+        <f>SUM(E77:E81)</f>
         <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
@@ -2329,27 +2346,27 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="63"/>
-      <c r="B33" s="27">
-        <v>41612</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5">
+      <c r="A33" s="68"/>
+      <c r="B33" s="28">
+        <v>41604</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
       <c r="K33" s="8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="L33" s="6"/>
       <c r="M33" s="10">
-        <f>SUM(E106:E110)</f>
+        <f>SUM(E82:E86)</f>
         <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
@@ -2357,27 +2374,27 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="63"/>
-      <c r="B34" s="27">
-        <v>41613</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5">
+      <c r="A34" s="68"/>
+      <c r="B34" s="28">
+        <v>41605</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
       <c r="K34" s="8" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="10">
-        <f>SUM(E111:E115)</f>
+        <f>SUM(E87:E91)</f>
         <v>0</v>
       </c>
       <c r="N34" s="3" t="s">
@@ -2385,27 +2402,27 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="64"/>
-      <c r="B35" s="27">
-        <v>41614</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5">
+      <c r="A35" s="68"/>
+      <c r="B35" s="28">
+        <v>41606</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
       <c r="K35" s="8" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="10">
-        <f>SUM(E116:E120)</f>
+        <f>SUM(E92:E96)</f>
         <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
@@ -2413,11 +2430,9 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="65">
-        <v>6</v>
-      </c>
+      <c r="A36" s="69"/>
       <c r="B36" s="28">
-        <v>41617</v>
+        <v>41607</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -2431,11 +2446,11 @@
       <c r="I36" s="42"/>
       <c r="J36" s="42"/>
       <c r="K36" s="8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="L36" s="6"/>
       <c r="M36" s="10">
-        <f>SUM(E121:E125)</f>
+        <f>SUM(E97:E101)</f>
         <v>0</v>
       </c>
       <c r="N36" s="3" t="s">
@@ -2443,27 +2458,29 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="66"/>
-      <c r="B37" s="28">
-        <v>41618</v>
-      </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6">
+      <c r="A37" s="64">
+        <v>5</v>
+      </c>
+      <c r="B37" s="27">
+        <v>41610</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
       <c r="K37" s="8" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="10">
-        <f>SUM(E126:E130)</f>
+        <f>SUM(E102:E106)</f>
         <v>0</v>
       </c>
       <c r="N37" s="3" t="s">
@@ -2471,27 +2488,27 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="66"/>
-      <c r="B38" s="28">
-        <v>41619</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6">
+      <c r="A38" s="65"/>
+      <c r="B38" s="27">
+        <v>41611</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
       <c r="K38" s="8" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="L38" s="6"/>
       <c r="M38" s="10">
-        <f>SUM(E131:E135)</f>
+        <f>SUM(E107:E111)</f>
         <v>0</v>
       </c>
       <c r="N38" s="3" t="s">
@@ -2499,27 +2516,27 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="66"/>
-      <c r="B39" s="28">
-        <v>41620</v>
-      </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6">
+      <c r="A39" s="65"/>
+      <c r="B39" s="27">
+        <v>41612</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="42"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
       <c r="K39" s="8" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="10">
-        <f>SUM(E136:E140)</f>
+        <f>SUM(E112:E116)</f>
         <v>0</v>
       </c>
       <c r="N39" s="3" t="s">
@@ -2527,27 +2544,27 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="67"/>
-      <c r="B40" s="28">
-        <v>41621</v>
-      </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6">
+      <c r="A40" s="65"/>
+      <c r="B40" s="27">
+        <v>41613</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
       <c r="K40" s="8" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="L40" s="6"/>
       <c r="M40" s="10">
-        <f>SUM(E141:E145)</f>
+        <f>SUM(E117:E121)</f>
         <v>0</v>
       </c>
       <c r="N40" s="3" t="s">
@@ -2555,11 +2572,9 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="62">
-        <v>7</v>
-      </c>
+      <c r="A41" s="66"/>
       <c r="B41" s="27">
-        <v>41624</v>
+        <v>41614</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -2573,11 +2588,11 @@
       <c r="I41" s="41"/>
       <c r="J41" s="41"/>
       <c r="K41" s="8" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="L41" s="6"/>
       <c r="M41" s="10">
-        <f>SUM(E146:E150)</f>
+        <f>SUM(E122:E126)</f>
         <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
@@ -2585,27 +2600,29 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="63"/>
-      <c r="B42" s="27">
-        <v>41625</v>
-      </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5">
+      <c r="A42" s="67">
+        <v>6</v>
+      </c>
+      <c r="B42" s="28">
+        <v>41617</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
       <c r="K42" s="8" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="L42" s="6"/>
       <c r="M42" s="10">
-        <f>SUM(E151:E155)</f>
+        <f>SUM(E127:E131)</f>
         <v>0</v>
       </c>
       <c r="N42" s="3" t="s">
@@ -2613,27 +2630,27 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="63"/>
-      <c r="B43" s="27">
-        <v>41626</v>
-      </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5">
+      <c r="A43" s="68"/>
+      <c r="B43" s="28">
+        <v>41618</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="41"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
       <c r="K43" s="8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="L43" s="6"/>
       <c r="M43" s="10">
-        <f>SUM(E156:E160)</f>
+        <f>SUM(E132:E136)</f>
         <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
@@ -2641,45 +2658,65 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="63"/>
-      <c r="B44" s="27">
-        <v>41627</v>
-      </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5">
+      <c r="A44" s="68"/>
+      <c r="B44" s="28">
+        <v>41619</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L44" s="6"/>
+      <c r="M44" s="10">
+        <f>SUM(E137:E141)</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="64"/>
-      <c r="B45" s="27">
-        <v>41628</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5">
+      <c r="A45" s="68"/>
+      <c r="B45" s="28">
+        <v>41620</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="41"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L45" s="6"/>
+      <c r="M45" s="10">
+        <f>SUM(E142:E146)</f>
+        <v>0</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="65">
-        <v>8</v>
-      </c>
+      <c r="A46" s="69"/>
       <c r="B46" s="28">
-        <v>41631</v>
+        <v>41621</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -2692,81 +2729,125 @@
       <c r="H46" s="42"/>
       <c r="I46" s="42"/>
       <c r="J46" s="42"/>
+      <c r="K46" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L46" s="6"/>
+      <c r="M46" s="10">
+        <f>SUM(E147:E151)</f>
+        <v>0</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="66"/>
-      <c r="B47" s="28">
-        <v>41632</v>
-      </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6">
+      <c r="A47" s="64">
+        <v>7</v>
+      </c>
+      <c r="B47" s="27">
+        <v>41624</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L47" s="6"/>
+      <c r="M47" s="10">
+        <f>SUM(E152:E156)</f>
+        <v>0</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="66"/>
-      <c r="B48" s="28">
-        <v>41633</v>
-      </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6">
+      <c r="A48" s="65"/>
+      <c r="B48" s="27">
+        <v>41625</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="42"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="66"/>
-      <c r="B49" s="28">
-        <v>41634</v>
-      </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6">
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L48" s="6"/>
+      <c r="M48" s="10">
+        <f>SUM(E157:E161)</f>
+        <v>0</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="65"/>
+      <c r="B49" s="27">
+        <v>41626</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="42"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="67"/>
-      <c r="B50" s="28">
-        <v>41635</v>
-      </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6">
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L49" s="6"/>
+      <c r="M49" s="10">
+        <f>SUM(E162:E166)</f>
+        <v>0</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="65"/>
+      <c r="B50" s="27">
+        <v>41627</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G50" s="42"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="42"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="62">
-        <v>9</v>
-      </c>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="41"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="66"/>
       <c r="B51" s="27">
-        <v>41638</v>
+        <v>41628</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -2780,86 +2861,86 @@
       <c r="I51" s="41"/>
       <c r="J51" s="41"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="63"/>
-      <c r="B52" s="27">
-        <v>41639</v>
-      </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="67">
+        <v>8</v>
+      </c>
+      <c r="B52" s="28">
+        <v>41631</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="41"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="63"/>
-      <c r="B53" s="27">
-        <v>41640</v>
-      </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5">
-        <f t="shared" ref="F53:F84" si="1">E53</f>
-        <v>0</v>
-      </c>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="41"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="63"/>
-      <c r="B54" s="27">
-        <v>41641</v>
-      </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G54" s="41"/>
-      <c r="H54" s="41"/>
-      <c r="I54" s="41"/>
-      <c r="J54" s="41"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="64"/>
-      <c r="B55" s="27">
-        <v>41642</v>
-      </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="41"/>
-      <c r="J55" s="41"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="65">
-        <v>10</v>
-      </c>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="42"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="68"/>
+      <c r="B53" s="28">
+        <v>41632</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="42"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="68"/>
+      <c r="B54" s="28">
+        <v>41633</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="68"/>
+      <c r="B55" s="28">
+        <v>41634</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="69"/>
       <c r="B56" s="28">
-        <v>41645</v>
+        <v>41635</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G56" s="42"/>
@@ -2867,80 +2948,80 @@
       <c r="I56" s="42"/>
       <c r="J56" s="42"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="66"/>
-      <c r="B57" s="28">
-        <v>41646</v>
-      </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="64">
+        <v>9</v>
+      </c>
+      <c r="B57" s="27">
+        <v>41638</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="41"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="65"/>
+      <c r="B58" s="27">
+        <v>41639</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="41"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="65"/>
+      <c r="B59" s="27">
+        <v>41640</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5">
+        <f t="shared" ref="F59:F90" si="1">E59</f>
+        <v>0</v>
+      </c>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="41"/>
+      <c r="J59" s="41"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="65"/>
+      <c r="B60" s="27">
+        <v>41641</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G57" s="42"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="42"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="66"/>
-      <c r="B58" s="28">
-        <v>41647</v>
-      </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="42"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="66"/>
-      <c r="B59" s="28">
-        <v>41648</v>
-      </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G59" s="42"/>
-      <c r="H59" s="42"/>
-      <c r="I59" s="42"/>
-      <c r="J59" s="42"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="67"/>
-      <c r="B60" s="28">
-        <v>41649</v>
-      </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G60" s="42"/>
-      <c r="H60" s="42"/>
-      <c r="I60" s="42"/>
-      <c r="J60" s="42"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="62">
-        <v>11</v>
-      </c>
+      <c r="G60" s="41"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="41"/>
+      <c r="J60" s="41"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="66"/>
       <c r="B61" s="27">
-        <v>41652</v>
+        <v>41642</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -2954,80 +3035,80 @@
       <c r="I61" s="41"/>
       <c r="J61" s="41"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="63"/>
-      <c r="B62" s="27">
-        <v>41653</v>
-      </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="67">
+        <v>10</v>
+      </c>
+      <c r="B62" s="28">
+        <v>41645</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G62" s="41"/>
-      <c r="H62" s="41"/>
-      <c r="I62" s="41"/>
-      <c r="J62" s="41"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="63"/>
-      <c r="B63" s="27">
-        <v>41654</v>
-      </c>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5">
+      <c r="G62" s="42"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="42"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="68"/>
+      <c r="B63" s="28">
+        <v>41646</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G63" s="41"/>
-      <c r="H63" s="41"/>
-      <c r="I63" s="41"/>
-      <c r="J63" s="41"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="63"/>
-      <c r="B64" s="27">
-        <v>41655</v>
-      </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5">
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="68"/>
+      <c r="B64" s="28">
+        <v>41647</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G64" s="41"/>
-      <c r="H64" s="41"/>
-      <c r="I64" s="41"/>
-      <c r="J64" s="41"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="42"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="64"/>
-      <c r="B65" s="27">
-        <v>41656</v>
-      </c>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5">
+      <c r="A65" s="68"/>
+      <c r="B65" s="28">
+        <v>41648</v>
+      </c>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G65" s="41"/>
-      <c r="H65" s="41"/>
-      <c r="I65" s="41"/>
-      <c r="J65" s="41"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="42"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="65">
-        <v>12</v>
-      </c>
+      <c r="A66" s="69"/>
       <c r="B66" s="28">
-        <v>41659</v>
+        <v>41649</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -3042,79 +3123,79 @@
       <c r="J66" s="42"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="66"/>
-      <c r="B67" s="28">
-        <v>41660</v>
-      </c>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6">
+      <c r="A67" s="64">
+        <v>11</v>
+      </c>
+      <c r="B67" s="27">
+        <v>41652</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G67" s="42"/>
-      <c r="H67" s="42"/>
-      <c r="I67" s="42"/>
-      <c r="J67" s="42"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="41"/>
+      <c r="I67" s="41"/>
+      <c r="J67" s="41"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="66"/>
-      <c r="B68" s="28">
-        <v>41661</v>
-      </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6">
+      <c r="A68" s="65"/>
+      <c r="B68" s="27">
+        <v>41653</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G68" s="42"/>
-      <c r="H68" s="42"/>
-      <c r="I68" s="42"/>
-      <c r="J68" s="42"/>
+      <c r="G68" s="41"/>
+      <c r="H68" s="41"/>
+      <c r="I68" s="41"/>
+      <c r="J68" s="41"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="66"/>
-      <c r="B69" s="28">
-        <v>41662</v>
-      </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6">
+      <c r="A69" s="65"/>
+      <c r="B69" s="27">
+        <v>41654</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G69" s="42"/>
-      <c r="H69" s="42"/>
-      <c r="I69" s="42"/>
-      <c r="J69" s="42"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="41"/>
+      <c r="I69" s="41"/>
+      <c r="J69" s="41"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="67"/>
-      <c r="B70" s="28">
-        <v>41663</v>
-      </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6">
+      <c r="A70" s="65"/>
+      <c r="B70" s="27">
+        <v>41655</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G70" s="42"/>
-      <c r="H70" s="42"/>
-      <c r="I70" s="42"/>
-      <c r="J70" s="42"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="41"/>
+      <c r="I70" s="41"/>
+      <c r="J70" s="41"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="62">
-        <v>13</v>
-      </c>
+      <c r="A71" s="66"/>
       <c r="B71" s="27">
-        <v>41666</v>
+        <v>41656</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
@@ -3123,95 +3204,85 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G71" s="41" t="s">
-        <v>35</v>
-      </c>
+      <c r="G71" s="41"/>
       <c r="H71" s="41"/>
       <c r="I71" s="41"/>
       <c r="J71" s="41"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="63"/>
-      <c r="B72" s="27">
-        <v>41667</v>
-      </c>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5">
+      <c r="A72" s="67">
+        <v>12</v>
+      </c>
+      <c r="B72" s="28">
+        <v>41659</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G72" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="H72" s="41"/>
-      <c r="I72" s="41"/>
-      <c r="J72" s="41"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="42"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="63"/>
-      <c r="B73" s="27">
-        <v>41668</v>
-      </c>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5">
+      <c r="A73" s="68"/>
+      <c r="B73" s="28">
+        <v>41660</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G73" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="H73" s="41"/>
-      <c r="I73" s="41"/>
-      <c r="J73" s="41"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="63"/>
-      <c r="B74" s="27">
-        <v>41669</v>
-      </c>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5">
+      <c r="A74" s="68"/>
+      <c r="B74" s="28">
+        <v>41661</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G74" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="H74" s="41"/>
-      <c r="I74" s="41"/>
-      <c r="J74" s="41"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="42"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="64"/>
-      <c r="B75" s="27">
-        <v>41670</v>
-      </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5">
+      <c r="A75" s="68"/>
+      <c r="B75" s="28">
+        <v>41662</v>
+      </c>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G75" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="H75" s="41"/>
-      <c r="I75" s="41"/>
-      <c r="J75" s="41"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="42"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="65">
-        <v>14</v>
-      </c>
+      <c r="A76" s="69"/>
       <c r="B76" s="28">
-        <v>41673</v>
+        <v>41663</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -3220,95 +3291,93 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G76" s="43" t="s">
-        <v>35</v>
-      </c>
+      <c r="G76" s="42"/>
       <c r="H76" s="42"/>
       <c r="I76" s="42"/>
       <c r="J76" s="42"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="66"/>
-      <c r="B77" s="28">
-        <v>41674</v>
-      </c>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6">
+      <c r="A77" s="64">
+        <v>13</v>
+      </c>
+      <c r="B77" s="27">
+        <v>41666</v>
+      </c>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G77" s="43" t="s">
+      <c r="G77" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H77" s="42"/>
-      <c r="I77" s="42"/>
-      <c r="J77" s="42"/>
+      <c r="H77" s="41"/>
+      <c r="I77" s="41"/>
+      <c r="J77" s="41"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="66"/>
-      <c r="B78" s="28">
-        <v>41675</v>
-      </c>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6">
+      <c r="A78" s="65"/>
+      <c r="B78" s="27">
+        <v>41667</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G78" s="43" t="s">
+      <c r="G78" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H78" s="42"/>
-      <c r="I78" s="42"/>
-      <c r="J78" s="42"/>
+      <c r="H78" s="41"/>
+      <c r="I78" s="41"/>
+      <c r="J78" s="41"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="66"/>
-      <c r="B79" s="28">
-        <v>41676</v>
-      </c>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6">
+      <c r="A79" s="65"/>
+      <c r="B79" s="27">
+        <v>41668</v>
+      </c>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G79" s="43" t="s">
+      <c r="G79" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H79" s="42"/>
-      <c r="I79" s="42"/>
-      <c r="J79" s="42"/>
+      <c r="H79" s="41"/>
+      <c r="I79" s="41"/>
+      <c r="J79" s="41"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="67"/>
-      <c r="B80" s="28">
-        <v>41677</v>
-      </c>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6">
+      <c r="A80" s="65"/>
+      <c r="B80" s="27">
+        <v>41669</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G80" s="43" t="s">
+      <c r="G80" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H80" s="42"/>
-      <c r="I80" s="42"/>
-      <c r="J80" s="42"/>
+      <c r="H80" s="41"/>
+      <c r="I80" s="41"/>
+      <c r="J80" s="41"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="62">
-        <v>15</v>
-      </c>
+      <c r="A81" s="66"/>
       <c r="B81" s="27">
-        <v>41680</v>
+        <v>41670</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -3317,178 +3386,190 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G81" s="41"/>
+      <c r="G81" s="41" t="s">
+        <v>35</v>
+      </c>
       <c r="H81" s="41"/>
       <c r="I81" s="41"/>
       <c r="J81" s="41"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="63"/>
-      <c r="B82" s="27">
-        <v>41681</v>
-      </c>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5">
+      <c r="A82" s="67">
+        <v>14</v>
+      </c>
+      <c r="B82" s="28">
+        <v>41673</v>
+      </c>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G82" s="41"/>
-      <c r="H82" s="41"/>
-      <c r="I82" s="41"/>
-      <c r="J82" s="41"/>
+      <c r="G82" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H82" s="42"/>
+      <c r="I82" s="42"/>
+      <c r="J82" s="42"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="63"/>
-      <c r="B83" s="27">
-        <v>41682</v>
-      </c>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5">
+      <c r="A83" s="68"/>
+      <c r="B83" s="28">
+        <v>41674</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G83" s="41"/>
-      <c r="H83" s="41"/>
-      <c r="I83" s="41"/>
-      <c r="J83" s="41"/>
+      <c r="G83" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H83" s="42"/>
+      <c r="I83" s="42"/>
+      <c r="J83" s="42"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="63"/>
-      <c r="B84" s="27">
-        <v>41683</v>
-      </c>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5">
+      <c r="A84" s="68"/>
+      <c r="B84" s="28">
+        <v>41675</v>
+      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G84" s="41"/>
-      <c r="H84" s="41"/>
-      <c r="I84" s="41"/>
-      <c r="J84" s="41"/>
+      <c r="G84" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H84" s="42"/>
+      <c r="I84" s="42"/>
+      <c r="J84" s="42"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="64"/>
-      <c r="B85" s="27">
-        <v>41684</v>
-      </c>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5">
-        <f t="shared" ref="F85:F116" si="2">E85</f>
-        <v>0</v>
-      </c>
-      <c r="G85" s="41"/>
-      <c r="H85" s="41"/>
-      <c r="I85" s="41"/>
-      <c r="J85" s="41"/>
+      <c r="A85" s="68"/>
+      <c r="B85" s="28">
+        <v>41676</v>
+      </c>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G85" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H85" s="42"/>
+      <c r="I85" s="42"/>
+      <c r="J85" s="42"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="65">
-        <v>16</v>
-      </c>
+      <c r="A86" s="69"/>
       <c r="B86" s="28">
-        <v>41687</v>
+        <v>41677</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
       <c r="F86" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G86" s="42"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G86" s="43" t="s">
+        <v>35</v>
+      </c>
       <c r="H86" s="42"/>
       <c r="I86" s="42"/>
       <c r="J86" s="42"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="66"/>
-      <c r="B87" s="28">
-        <v>41688</v>
-      </c>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G87" s="42"/>
-      <c r="H87" s="42"/>
-      <c r="I87" s="42"/>
-      <c r="J87" s="42"/>
+      <c r="A87" s="64">
+        <v>15</v>
+      </c>
+      <c r="B87" s="27">
+        <v>41680</v>
+      </c>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G87" s="41"/>
+      <c r="H87" s="41"/>
+      <c r="I87" s="41"/>
+      <c r="J87" s="41"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="66"/>
-      <c r="B88" s="28">
-        <v>41689</v>
-      </c>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G88" s="42"/>
-      <c r="H88" s="42"/>
-      <c r="I88" s="42"/>
-      <c r="J88" s="42"/>
+      <c r="A88" s="65"/>
+      <c r="B88" s="27">
+        <v>41681</v>
+      </c>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G88" s="41"/>
+      <c r="H88" s="41"/>
+      <c r="I88" s="41"/>
+      <c r="J88" s="41"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="66"/>
-      <c r="B89" s="28">
-        <v>41690</v>
-      </c>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G89" s="42"/>
-      <c r="H89" s="42"/>
-      <c r="I89" s="42"/>
-      <c r="J89" s="42"/>
+      <c r="A89" s="65"/>
+      <c r="B89" s="27">
+        <v>41682</v>
+      </c>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G89" s="41"/>
+      <c r="H89" s="41"/>
+      <c r="I89" s="41"/>
+      <c r="J89" s="41"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="67"/>
-      <c r="B90" s="28">
-        <v>41691</v>
-      </c>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G90" s="42"/>
-      <c r="H90" s="42"/>
-      <c r="I90" s="42"/>
-      <c r="J90" s="42"/>
+      <c r="A90" s="65"/>
+      <c r="B90" s="27">
+        <v>41683</v>
+      </c>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G90" s="41"/>
+      <c r="H90" s="41"/>
+      <c r="I90" s="41"/>
+      <c r="J90" s="41"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="62">
-        <v>17</v>
-      </c>
+      <c r="A91" s="66"/>
       <c r="B91" s="27">
-        <v>41694</v>
+        <v>41684</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
       <c r="F91" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F91:F122" si="2">E91</f>
         <v>0</v>
       </c>
       <c r="G91" s="41"/>
@@ -3497,79 +3578,79 @@
       <c r="J91" s="41"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="63"/>
-      <c r="B92" s="27">
-        <v>41695</v>
-      </c>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5">
+      <c r="A92" s="67">
+        <v>16</v>
+      </c>
+      <c r="B92" s="28">
+        <v>41687</v>
+      </c>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G92" s="41"/>
-      <c r="H92" s="41"/>
-      <c r="I92" s="41"/>
-      <c r="J92" s="41"/>
+      <c r="G92" s="42"/>
+      <c r="H92" s="42"/>
+      <c r="I92" s="42"/>
+      <c r="J92" s="42"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="63"/>
-      <c r="B93" s="27">
-        <v>41696</v>
-      </c>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5">
+      <c r="A93" s="68"/>
+      <c r="B93" s="28">
+        <v>41688</v>
+      </c>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G93" s="41"/>
-      <c r="H93" s="41"/>
-      <c r="I93" s="41"/>
-      <c r="J93" s="41"/>
+      <c r="G93" s="42"/>
+      <c r="H93" s="42"/>
+      <c r="I93" s="42"/>
+      <c r="J93" s="42"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="63"/>
-      <c r="B94" s="27">
-        <v>41697</v>
-      </c>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5">
+      <c r="A94" s="68"/>
+      <c r="B94" s="28">
+        <v>41689</v>
+      </c>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G94" s="41"/>
-      <c r="H94" s="41"/>
-      <c r="I94" s="41"/>
-      <c r="J94" s="41"/>
+      <c r="G94" s="42"/>
+      <c r="H94" s="42"/>
+      <c r="I94" s="42"/>
+      <c r="J94" s="42"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="64"/>
-      <c r="B95" s="27">
-        <v>41698</v>
-      </c>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5">
+      <c r="A95" s="68"/>
+      <c r="B95" s="28">
+        <v>41690</v>
+      </c>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G95" s="41"/>
-      <c r="H95" s="41"/>
-      <c r="I95" s="41"/>
-      <c r="J95" s="41"/>
+      <c r="G95" s="42"/>
+      <c r="H95" s="42"/>
+      <c r="I95" s="42"/>
+      <c r="J95" s="42"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="65">
-        <v>18</v>
-      </c>
+      <c r="A96" s="69"/>
       <c r="B96" s="28">
-        <v>41701</v>
+        <v>41691</v>
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -3584,79 +3665,79 @@
       <c r="J96" s="42"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="66"/>
-      <c r="B97" s="28">
-        <v>41702</v>
-      </c>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6">
+      <c r="A97" s="64">
+        <v>17</v>
+      </c>
+      <c r="B97" s="27">
+        <v>41694</v>
+      </c>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G97" s="42"/>
-      <c r="H97" s="42"/>
-      <c r="I97" s="42"/>
-      <c r="J97" s="42"/>
+      <c r="G97" s="41"/>
+      <c r="H97" s="41"/>
+      <c r="I97" s="41"/>
+      <c r="J97" s="41"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="66"/>
-      <c r="B98" s="28">
-        <v>41703</v>
-      </c>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6">
+      <c r="A98" s="65"/>
+      <c r="B98" s="27">
+        <v>41695</v>
+      </c>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G98" s="42"/>
-      <c r="H98" s="42"/>
-      <c r="I98" s="42"/>
-      <c r="J98" s="42"/>
+      <c r="G98" s="41"/>
+      <c r="H98" s="41"/>
+      <c r="I98" s="41"/>
+      <c r="J98" s="41"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="66"/>
-      <c r="B99" s="28">
-        <v>41704</v>
-      </c>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6">
+      <c r="A99" s="65"/>
+      <c r="B99" s="27">
+        <v>41696</v>
+      </c>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G99" s="42"/>
-      <c r="H99" s="42"/>
-      <c r="I99" s="42"/>
-      <c r="J99" s="42"/>
+      <c r="G99" s="41"/>
+      <c r="H99" s="41"/>
+      <c r="I99" s="41"/>
+      <c r="J99" s="41"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="67"/>
-      <c r="B100" s="28">
-        <v>41705</v>
-      </c>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6">
+      <c r="A100" s="65"/>
+      <c r="B100" s="27">
+        <v>41697</v>
+      </c>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G100" s="42"/>
-      <c r="H100" s="42"/>
-      <c r="I100" s="42"/>
-      <c r="J100" s="42"/>
+      <c r="G100" s="41"/>
+      <c r="H100" s="41"/>
+      <c r="I100" s="41"/>
+      <c r="J100" s="41"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="62">
-        <v>19</v>
-      </c>
+      <c r="A101" s="66"/>
       <c r="B101" s="27">
-        <v>41708</v>
+        <v>41698</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
@@ -3671,79 +3752,79 @@
       <c r="J101" s="41"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="63"/>
-      <c r="B102" s="27">
-        <v>41709</v>
-      </c>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5">
+      <c r="A102" s="67">
+        <v>18</v>
+      </c>
+      <c r="B102" s="28">
+        <v>41701</v>
+      </c>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G102" s="41"/>
-      <c r="H102" s="41"/>
-      <c r="I102" s="41"/>
-      <c r="J102" s="41"/>
+      <c r="G102" s="42"/>
+      <c r="H102" s="42"/>
+      <c r="I102" s="42"/>
+      <c r="J102" s="42"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="63"/>
-      <c r="B103" s="27">
-        <v>41710</v>
-      </c>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5">
+      <c r="A103" s="68"/>
+      <c r="B103" s="28">
+        <v>41702</v>
+      </c>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G103" s="41"/>
-      <c r="H103" s="41"/>
-      <c r="I103" s="41"/>
-      <c r="J103" s="41"/>
+      <c r="G103" s="42"/>
+      <c r="H103" s="42"/>
+      <c r="I103" s="42"/>
+      <c r="J103" s="42"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="63"/>
-      <c r="B104" s="27">
-        <v>41711</v>
-      </c>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5">
+      <c r="A104" s="68"/>
+      <c r="B104" s="28">
+        <v>41703</v>
+      </c>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G104" s="41"/>
-      <c r="H104" s="41"/>
-      <c r="I104" s="41"/>
-      <c r="J104" s="41"/>
+      <c r="G104" s="42"/>
+      <c r="H104" s="42"/>
+      <c r="I104" s="42"/>
+      <c r="J104" s="42"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="64"/>
-      <c r="B105" s="27">
-        <v>41712</v>
-      </c>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5">
+      <c r="A105" s="68"/>
+      <c r="B105" s="28">
+        <v>41704</v>
+      </c>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G105" s="41"/>
-      <c r="H105" s="41"/>
-      <c r="I105" s="41"/>
-      <c r="J105" s="41"/>
+      <c r="G105" s="42"/>
+      <c r="H105" s="42"/>
+      <c r="I105" s="42"/>
+      <c r="J105" s="42"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="65">
-        <v>20</v>
-      </c>
+      <c r="A106" s="69"/>
       <c r="B106" s="28">
-        <v>41715</v>
+        <v>41705</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -3758,79 +3839,79 @@
       <c r="J106" s="42"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="66"/>
-      <c r="B107" s="28">
-        <v>41716</v>
-      </c>
-      <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6">
+      <c r="A107" s="64">
+        <v>19</v>
+      </c>
+      <c r="B107" s="27">
+        <v>41708</v>
+      </c>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G107" s="42"/>
-      <c r="H107" s="42"/>
-      <c r="I107" s="42"/>
-      <c r="J107" s="42"/>
+      <c r="G107" s="41"/>
+      <c r="H107" s="41"/>
+      <c r="I107" s="41"/>
+      <c r="J107" s="41"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="66"/>
-      <c r="B108" s="28">
-        <v>41717</v>
-      </c>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6">
+      <c r="A108" s="65"/>
+      <c r="B108" s="27">
+        <v>41709</v>
+      </c>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G108" s="42"/>
-      <c r="H108" s="42"/>
-      <c r="I108" s="42"/>
-      <c r="J108" s="42"/>
+      <c r="G108" s="41"/>
+      <c r="H108" s="41"/>
+      <c r="I108" s="41"/>
+      <c r="J108" s="41"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="66"/>
-      <c r="B109" s="28">
-        <v>41718</v>
-      </c>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6">
+      <c r="A109" s="65"/>
+      <c r="B109" s="27">
+        <v>41710</v>
+      </c>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G109" s="42"/>
-      <c r="H109" s="42"/>
-      <c r="I109" s="42"/>
-      <c r="J109" s="42"/>
+      <c r="G109" s="41"/>
+      <c r="H109" s="41"/>
+      <c r="I109" s="41"/>
+      <c r="J109" s="41"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="67"/>
-      <c r="B110" s="28">
-        <v>41719</v>
-      </c>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="6">
+      <c r="A110" s="65"/>
+      <c r="B110" s="27">
+        <v>41711</v>
+      </c>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G110" s="42"/>
-      <c r="H110" s="42"/>
-      <c r="I110" s="42"/>
-      <c r="J110" s="42"/>
+      <c r="G110" s="41"/>
+      <c r="H110" s="41"/>
+      <c r="I110" s="41"/>
+      <c r="J110" s="41"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="62">
-        <v>21</v>
-      </c>
+      <c r="A111" s="66"/>
       <c r="B111" s="27">
-        <v>41722</v>
+        <v>41712</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
@@ -3845,79 +3926,79 @@
       <c r="J111" s="41"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="63"/>
-      <c r="B112" s="27">
-        <v>41723</v>
-      </c>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5">
+      <c r="A112" s="67">
+        <v>20</v>
+      </c>
+      <c r="B112" s="28">
+        <v>41715</v>
+      </c>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G112" s="41"/>
-      <c r="H112" s="41"/>
-      <c r="I112" s="41"/>
-      <c r="J112" s="41"/>
+      <c r="G112" s="42"/>
+      <c r="H112" s="42"/>
+      <c r="I112" s="42"/>
+      <c r="J112" s="42"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="63"/>
-      <c r="B113" s="27">
-        <v>41724</v>
-      </c>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5">
+      <c r="A113" s="68"/>
+      <c r="B113" s="28">
+        <v>41716</v>
+      </c>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G113" s="41"/>
-      <c r="H113" s="41"/>
-      <c r="I113" s="41"/>
-      <c r="J113" s="41"/>
+      <c r="G113" s="42"/>
+      <c r="H113" s="42"/>
+      <c r="I113" s="42"/>
+      <c r="J113" s="42"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="63"/>
-      <c r="B114" s="27">
-        <v>41725</v>
-      </c>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
-      <c r="F114" s="5">
+      <c r="A114" s="68"/>
+      <c r="B114" s="28">
+        <v>41717</v>
+      </c>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G114" s="41"/>
-      <c r="H114" s="41"/>
-      <c r="I114" s="41"/>
-      <c r="J114" s="41"/>
+      <c r="G114" s="42"/>
+      <c r="H114" s="42"/>
+      <c r="I114" s="42"/>
+      <c r="J114" s="42"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="64"/>
-      <c r="B115" s="27">
-        <v>41726</v>
-      </c>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5">
+      <c r="A115" s="68"/>
+      <c r="B115" s="28">
+        <v>41718</v>
+      </c>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G115" s="41"/>
-      <c r="H115" s="41"/>
-      <c r="I115" s="41"/>
-      <c r="J115" s="41"/>
+      <c r="G115" s="42"/>
+      <c r="H115" s="42"/>
+      <c r="I115" s="42"/>
+      <c r="J115" s="42"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="65">
-        <v>22</v>
-      </c>
+      <c r="A116" s="69"/>
       <c r="B116" s="28">
-        <v>41729</v>
+        <v>41719</v>
       </c>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
@@ -3932,85 +4013,85 @@
       <c r="J116" s="42"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="66"/>
-      <c r="B117" s="28">
-        <v>41730</v>
-      </c>
-      <c r="C117" s="6"/>
-      <c r="D117" s="6"/>
-      <c r="E117" s="6"/>
-      <c r="F117" s="6">
-        <f t="shared" ref="F117:F148" si="3">E117</f>
-        <v>0</v>
-      </c>
-      <c r="G117" s="42"/>
-      <c r="H117" s="42"/>
-      <c r="I117" s="42"/>
-      <c r="J117" s="42"/>
+      <c r="A117" s="64">
+        <v>21</v>
+      </c>
+      <c r="B117" s="27">
+        <v>41722</v>
+      </c>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G117" s="41"/>
+      <c r="H117" s="41"/>
+      <c r="I117" s="41"/>
+      <c r="J117" s="41"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="66"/>
-      <c r="B118" s="28">
-        <v>41731</v>
-      </c>
-      <c r="C118" s="6"/>
-      <c r="D118" s="6"/>
-      <c r="E118" s="6"/>
-      <c r="F118" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G118" s="42"/>
-      <c r="H118" s="42"/>
-      <c r="I118" s="42"/>
-      <c r="J118" s="42"/>
+      <c r="A118" s="65"/>
+      <c r="B118" s="27">
+        <v>41723</v>
+      </c>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G118" s="41"/>
+      <c r="H118" s="41"/>
+      <c r="I118" s="41"/>
+      <c r="J118" s="41"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="66"/>
-      <c r="B119" s="28">
-        <v>41732</v>
-      </c>
-      <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-      <c r="F119" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G119" s="42"/>
-      <c r="H119" s="42"/>
-      <c r="I119" s="42"/>
-      <c r="J119" s="42"/>
+      <c r="A119" s="65"/>
+      <c r="B119" s="27">
+        <v>41724</v>
+      </c>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G119" s="41"/>
+      <c r="H119" s="41"/>
+      <c r="I119" s="41"/>
+      <c r="J119" s="41"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="67"/>
-      <c r="B120" s="28">
-        <v>41733</v>
-      </c>
-      <c r="C120" s="6"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
-      <c r="F120" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G120" s="42"/>
-      <c r="H120" s="42"/>
-      <c r="I120" s="42"/>
-      <c r="J120" s="42"/>
+      <c r="A120" s="65"/>
+      <c r="B120" s="27">
+        <v>41725</v>
+      </c>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G120" s="41"/>
+      <c r="H120" s="41"/>
+      <c r="I120" s="41"/>
+      <c r="J120" s="41"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="62">
-        <v>23</v>
-      </c>
+      <c r="A121" s="66"/>
       <c r="B121" s="27">
-        <v>41736</v>
+        <v>41726</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
       <c r="F121" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G121" s="41"/>
@@ -4019,79 +4100,79 @@
       <c r="J121" s="41"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="63"/>
-      <c r="B122" s="27">
-        <v>41737</v>
-      </c>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
-      <c r="F122" s="5">
+      <c r="A122" s="67">
+        <v>22</v>
+      </c>
+      <c r="B122" s="28">
+        <v>41729</v>
+      </c>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G122" s="42"/>
+      <c r="H122" s="42"/>
+      <c r="I122" s="42"/>
+      <c r="J122" s="42"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="68"/>
+      <c r="B123" s="28">
+        <v>41730</v>
+      </c>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6">
+        <f t="shared" ref="F123:F154" si="3">E123</f>
+        <v>0</v>
+      </c>
+      <c r="G123" s="42"/>
+      <c r="H123" s="42"/>
+      <c r="I123" s="42"/>
+      <c r="J123" s="42"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="68"/>
+      <c r="B124" s="28">
+        <v>41731</v>
+      </c>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G122" s="41"/>
-      <c r="H122" s="41"/>
-      <c r="I122" s="41"/>
-      <c r="J122" s="41"/>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="63"/>
-      <c r="B123" s="27">
-        <v>41738</v>
-      </c>
-      <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5">
+      <c r="G124" s="42"/>
+      <c r="H124" s="42"/>
+      <c r="I124" s="42"/>
+      <c r="J124" s="42"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="68"/>
+      <c r="B125" s="28">
+        <v>41732</v>
+      </c>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G123" s="41"/>
-      <c r="H123" s="41"/>
-      <c r="I123" s="41"/>
-      <c r="J123" s="41"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="63"/>
-      <c r="B124" s="27">
-        <v>41739</v>
-      </c>
-      <c r="C124" s="5"/>
-      <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G124" s="41"/>
-      <c r="H124" s="41"/>
-      <c r="I124" s="41"/>
-      <c r="J124" s="41"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="64"/>
-      <c r="B125" s="27">
-        <v>41740</v>
-      </c>
-      <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G125" s="41"/>
-      <c r="H125" s="41"/>
-      <c r="I125" s="41"/>
-      <c r="J125" s="41"/>
+      <c r="G125" s="42"/>
+      <c r="H125" s="42"/>
+      <c r="I125" s="42"/>
+      <c r="J125" s="42"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="65">
-        <v>24</v>
-      </c>
+      <c r="A126" s="69"/>
       <c r="B126" s="28">
-        <v>41743</v>
+        <v>41733</v>
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
@@ -4106,79 +4187,79 @@
       <c r="J126" s="42"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="66"/>
-      <c r="B127" s="28">
-        <v>41744</v>
-      </c>
-      <c r="C127" s="6"/>
-      <c r="D127" s="6"/>
-      <c r="E127" s="6"/>
-      <c r="F127" s="6">
+      <c r="A127" s="64">
+        <v>23</v>
+      </c>
+      <c r="B127" s="27">
+        <v>41736</v>
+      </c>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G127" s="42"/>
-      <c r="H127" s="42"/>
-      <c r="I127" s="42"/>
-      <c r="J127" s="42"/>
+      <c r="G127" s="41"/>
+      <c r="H127" s="41"/>
+      <c r="I127" s="41"/>
+      <c r="J127" s="41"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="66"/>
-      <c r="B128" s="28">
-        <v>41745</v>
-      </c>
-      <c r="C128" s="6"/>
-      <c r="D128" s="6"/>
-      <c r="E128" s="6"/>
-      <c r="F128" s="6">
+      <c r="A128" s="65"/>
+      <c r="B128" s="27">
+        <v>41737</v>
+      </c>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G128" s="42"/>
-      <c r="H128" s="42"/>
-      <c r="I128" s="42"/>
-      <c r="J128" s="42"/>
+      <c r="G128" s="41"/>
+      <c r="H128" s="41"/>
+      <c r="I128" s="41"/>
+      <c r="J128" s="41"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="66"/>
-      <c r="B129" s="28">
-        <v>41746</v>
-      </c>
-      <c r="C129" s="6"/>
-      <c r="D129" s="6"/>
-      <c r="E129" s="6"/>
-      <c r="F129" s="6">
+      <c r="A129" s="65"/>
+      <c r="B129" s="27">
+        <v>41738</v>
+      </c>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G129" s="42"/>
-      <c r="H129" s="42"/>
-      <c r="I129" s="42"/>
-      <c r="J129" s="42"/>
+      <c r="G129" s="41"/>
+      <c r="H129" s="41"/>
+      <c r="I129" s="41"/>
+      <c r="J129" s="41"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="67"/>
-      <c r="B130" s="28">
-        <v>41747</v>
-      </c>
-      <c r="C130" s="6"/>
-      <c r="D130" s="6"/>
-      <c r="E130" s="6"/>
-      <c r="F130" s="6">
+      <c r="A130" s="65"/>
+      <c r="B130" s="27">
+        <v>41739</v>
+      </c>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G130" s="42"/>
-      <c r="H130" s="42"/>
-      <c r="I130" s="42"/>
-      <c r="J130" s="42"/>
+      <c r="G130" s="41"/>
+      <c r="H130" s="41"/>
+      <c r="I130" s="41"/>
+      <c r="J130" s="41"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="62">
-        <v>25</v>
-      </c>
+      <c r="A131" s="66"/>
       <c r="B131" s="27">
-        <v>41750</v>
+        <v>41740</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
@@ -4193,79 +4274,79 @@
       <c r="J131" s="41"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="63"/>
-      <c r="B132" s="27">
-        <v>41751</v>
-      </c>
-      <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
-      <c r="F132" s="5">
+      <c r="A132" s="67">
+        <v>24</v>
+      </c>
+      <c r="B132" s="28">
+        <v>41743</v>
+      </c>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+      <c r="F132" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G132" s="41"/>
-      <c r="H132" s="41"/>
-      <c r="I132" s="41"/>
-      <c r="J132" s="41"/>
+      <c r="G132" s="42"/>
+      <c r="H132" s="42"/>
+      <c r="I132" s="42"/>
+      <c r="J132" s="42"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="63"/>
-      <c r="B133" s="27">
-        <v>41752</v>
-      </c>
-      <c r="C133" s="5"/>
-      <c r="D133" s="5"/>
-      <c r="E133" s="5"/>
-      <c r="F133" s="5">
+      <c r="A133" s="68"/>
+      <c r="B133" s="28">
+        <v>41744</v>
+      </c>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G133" s="41"/>
-      <c r="H133" s="41"/>
-      <c r="I133" s="41"/>
-      <c r="J133" s="41"/>
+      <c r="G133" s="42"/>
+      <c r="H133" s="42"/>
+      <c r="I133" s="42"/>
+      <c r="J133" s="42"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="63"/>
-      <c r="B134" s="27">
-        <v>41753</v>
-      </c>
-      <c r="C134" s="5"/>
-      <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
-      <c r="F134" s="5">
+      <c r="A134" s="68"/>
+      <c r="B134" s="28">
+        <v>41745</v>
+      </c>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+      <c r="F134" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G134" s="41"/>
-      <c r="H134" s="41"/>
-      <c r="I134" s="41"/>
-      <c r="J134" s="41"/>
+      <c r="G134" s="42"/>
+      <c r="H134" s="42"/>
+      <c r="I134" s="42"/>
+      <c r="J134" s="42"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="64"/>
-      <c r="B135" s="27">
-        <v>41754</v>
-      </c>
-      <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
-      <c r="F135" s="5">
+      <c r="A135" s="68"/>
+      <c r="B135" s="28">
+        <v>41746</v>
+      </c>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G135" s="41"/>
-      <c r="H135" s="41"/>
-      <c r="I135" s="41"/>
-      <c r="J135" s="41"/>
+      <c r="G135" s="42"/>
+      <c r="H135" s="42"/>
+      <c r="I135" s="42"/>
+      <c r="J135" s="42"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="65">
-        <v>26</v>
-      </c>
+      <c r="A136" s="69"/>
       <c r="B136" s="28">
-        <v>41757</v>
+        <v>41747</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
@@ -4280,79 +4361,79 @@
       <c r="J136" s="42"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="66"/>
-      <c r="B137" s="28">
-        <v>41758</v>
-      </c>
-      <c r="C137" s="6"/>
-      <c r="D137" s="6"/>
-      <c r="E137" s="6"/>
-      <c r="F137" s="6">
+      <c r="A137" s="64">
+        <v>25</v>
+      </c>
+      <c r="B137" s="27">
+        <v>41750</v>
+      </c>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G137" s="42"/>
-      <c r="H137" s="42"/>
-      <c r="I137" s="42"/>
-      <c r="J137" s="42"/>
+      <c r="G137" s="41"/>
+      <c r="H137" s="41"/>
+      <c r="I137" s="41"/>
+      <c r="J137" s="41"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="66"/>
-      <c r="B138" s="28">
-        <v>41759</v>
-      </c>
-      <c r="C138" s="6"/>
-      <c r="D138" s="6"/>
-      <c r="E138" s="6"/>
-      <c r="F138" s="6">
+      <c r="A138" s="65"/>
+      <c r="B138" s="27">
+        <v>41751</v>
+      </c>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G138" s="42"/>
-      <c r="H138" s="42"/>
-      <c r="I138" s="42"/>
-      <c r="J138" s="42"/>
+      <c r="G138" s="41"/>
+      <c r="H138" s="41"/>
+      <c r="I138" s="41"/>
+      <c r="J138" s="41"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="66"/>
-      <c r="B139" s="28">
-        <v>41760</v>
-      </c>
-      <c r="C139" s="6"/>
-      <c r="D139" s="6"/>
-      <c r="E139" s="6"/>
-      <c r="F139" s="6">
+      <c r="A139" s="65"/>
+      <c r="B139" s="27">
+        <v>41752</v>
+      </c>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G139" s="42"/>
-      <c r="H139" s="42"/>
-      <c r="I139" s="42"/>
-      <c r="J139" s="42"/>
+      <c r="G139" s="41"/>
+      <c r="H139" s="41"/>
+      <c r="I139" s="41"/>
+      <c r="J139" s="41"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="67"/>
-      <c r="B140" s="28">
-        <v>41761</v>
-      </c>
-      <c r="C140" s="6"/>
-      <c r="D140" s="6"/>
-      <c r="E140" s="6"/>
-      <c r="F140" s="6">
+      <c r="A140" s="65"/>
+      <c r="B140" s="27">
+        <v>41753</v>
+      </c>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G140" s="42"/>
-      <c r="H140" s="42"/>
-      <c r="I140" s="42"/>
-      <c r="J140" s="42"/>
+      <c r="G140" s="41"/>
+      <c r="H140" s="41"/>
+      <c r="I140" s="41"/>
+      <c r="J140" s="41"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="62">
-        <v>27</v>
-      </c>
+      <c r="A141" s="66"/>
       <c r="B141" s="27">
-        <v>41764</v>
+        <v>41754</v>
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
@@ -4367,79 +4448,79 @@
       <c r="J141" s="41"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="63"/>
-      <c r="B142" s="27">
-        <v>41765</v>
-      </c>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
-      <c r="F142" s="5">
+      <c r="A142" s="67">
+        <v>26</v>
+      </c>
+      <c r="B142" s="28">
+        <v>41757</v>
+      </c>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
+      <c r="F142" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G142" s="41"/>
-      <c r="H142" s="41"/>
-      <c r="I142" s="41"/>
-      <c r="J142" s="41"/>
+      <c r="G142" s="42"/>
+      <c r="H142" s="42"/>
+      <c r="I142" s="42"/>
+      <c r="J142" s="42"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="63"/>
-      <c r="B143" s="27">
-        <v>41766</v>
-      </c>
-      <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
-      <c r="E143" s="5"/>
-      <c r="F143" s="5">
+      <c r="A143" s="68"/>
+      <c r="B143" s="28">
+        <v>41758</v>
+      </c>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G143" s="41"/>
-      <c r="H143" s="41"/>
-      <c r="I143" s="41"/>
-      <c r="J143" s="41"/>
+      <c r="G143" s="42"/>
+      <c r="H143" s="42"/>
+      <c r="I143" s="42"/>
+      <c r="J143" s="42"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="63"/>
-      <c r="B144" s="27">
-        <v>41767</v>
-      </c>
-      <c r="C144" s="5"/>
-      <c r="D144" s="5"/>
-      <c r="E144" s="5"/>
-      <c r="F144" s="5">
+      <c r="A144" s="68"/>
+      <c r="B144" s="28">
+        <v>41759</v>
+      </c>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
+      <c r="F144" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G144" s="41"/>
-      <c r="H144" s="41"/>
-      <c r="I144" s="41"/>
-      <c r="J144" s="41"/>
+      <c r="G144" s="42"/>
+      <c r="H144" s="42"/>
+      <c r="I144" s="42"/>
+      <c r="J144" s="42"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="64"/>
-      <c r="B145" s="27">
-        <v>41768</v>
-      </c>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
-      <c r="E145" s="5"/>
-      <c r="F145" s="5">
+      <c r="A145" s="68"/>
+      <c r="B145" s="28">
+        <v>41760</v>
+      </c>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+      <c r="F145" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G145" s="41"/>
-      <c r="H145" s="41"/>
-      <c r="I145" s="41"/>
-      <c r="J145" s="41"/>
+      <c r="G145" s="42"/>
+      <c r="H145" s="42"/>
+      <c r="I145" s="42"/>
+      <c r="J145" s="42"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="65">
-        <v>28</v>
-      </c>
+      <c r="A146" s="69"/>
       <c r="B146" s="28">
-        <v>41771</v>
+        <v>41761</v>
       </c>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
@@ -4454,85 +4535,85 @@
       <c r="J146" s="42"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="66"/>
-      <c r="B147" s="28">
-        <v>41772</v>
-      </c>
-      <c r="C147" s="6"/>
-      <c r="D147" s="6"/>
-      <c r="E147" s="6"/>
-      <c r="F147" s="6">
+      <c r="A147" s="64">
+        <v>27</v>
+      </c>
+      <c r="B147" s="27">
+        <v>41764</v>
+      </c>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G147" s="42"/>
-      <c r="H147" s="42"/>
-      <c r="I147" s="42"/>
-      <c r="J147" s="42"/>
+      <c r="G147" s="41"/>
+      <c r="H147" s="41"/>
+      <c r="I147" s="41"/>
+      <c r="J147" s="41"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="66"/>
-      <c r="B148" s="28">
-        <v>41773</v>
-      </c>
-      <c r="C148" s="6"/>
-      <c r="D148" s="6"/>
-      <c r="E148" s="6"/>
-      <c r="F148" s="6">
+      <c r="A148" s="65"/>
+      <c r="B148" s="27">
+        <v>41765</v>
+      </c>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G148" s="42"/>
-      <c r="H148" s="42"/>
-      <c r="I148" s="42"/>
-      <c r="J148" s="42"/>
+      <c r="G148" s="41"/>
+      <c r="H148" s="41"/>
+      <c r="I148" s="41"/>
+      <c r="J148" s="41"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="66"/>
-      <c r="B149" s="28">
-        <v>41774</v>
-      </c>
-      <c r="C149" s="6"/>
-      <c r="D149" s="6"/>
-      <c r="E149" s="6"/>
-      <c r="F149" s="6">
-        <f t="shared" ref="F149:F160" si="4">E149</f>
-        <v>0</v>
-      </c>
-      <c r="G149" s="42"/>
-      <c r="H149" s="42"/>
-      <c r="I149" s="42"/>
-      <c r="J149" s="42"/>
+      <c r="A149" s="65"/>
+      <c r="B149" s="27">
+        <v>41766</v>
+      </c>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G149" s="41"/>
+      <c r="H149" s="41"/>
+      <c r="I149" s="41"/>
+      <c r="J149" s="41"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="67"/>
-      <c r="B150" s="28">
-        <v>41775</v>
-      </c>
-      <c r="C150" s="6"/>
-      <c r="D150" s="6"/>
-      <c r="E150" s="6"/>
-      <c r="F150" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G150" s="42"/>
-      <c r="H150" s="42"/>
-      <c r="I150" s="42"/>
-      <c r="J150" s="42"/>
+      <c r="A150" s="65"/>
+      <c r="B150" s="27">
+        <v>41767</v>
+      </c>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G150" s="41"/>
+      <c r="H150" s="41"/>
+      <c r="I150" s="41"/>
+      <c r="J150" s="41"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="62">
-        <v>29</v>
-      </c>
+      <c r="A151" s="66"/>
       <c r="B151" s="27">
-        <v>41778</v>
+        <v>41768</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
       <c r="F151" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G151" s="41"/>
@@ -4541,166 +4622,272 @@
       <c r="J151" s="41"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="63"/>
-      <c r="B152" s="27">
+      <c r="A152" s="67">
+        <v>28</v>
+      </c>
+      <c r="B152" s="28">
+        <v>41771</v>
+      </c>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6"/>
+      <c r="F152" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G152" s="42"/>
+      <c r="H152" s="42"/>
+      <c r="I152" s="42"/>
+      <c r="J152" s="42"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="68"/>
+      <c r="B153" s="28">
+        <v>41772</v>
+      </c>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+      <c r="F153" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G153" s="42"/>
+      <c r="H153" s="42"/>
+      <c r="I153" s="42"/>
+      <c r="J153" s="42"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="68"/>
+      <c r="B154" s="28">
+        <v>41773</v>
+      </c>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6"/>
+      <c r="F154" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G154" s="42"/>
+      <c r="H154" s="42"/>
+      <c r="I154" s="42"/>
+      <c r="J154" s="42"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" s="68"/>
+      <c r="B155" s="28">
+        <v>41774</v>
+      </c>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
+      <c r="F155" s="6">
+        <f t="shared" ref="F155:F166" si="4">E155</f>
+        <v>0</v>
+      </c>
+      <c r="G155" s="42"/>
+      <c r="H155" s="42"/>
+      <c r="I155" s="42"/>
+      <c r="J155" s="42"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" s="69"/>
+      <c r="B156" s="28">
+        <v>41775</v>
+      </c>
+      <c r="C156" s="6"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="6"/>
+      <c r="F156" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G156" s="42"/>
+      <c r="H156" s="42"/>
+      <c r="I156" s="42"/>
+      <c r="J156" s="42"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" s="64">
+        <v>29</v>
+      </c>
+      <c r="B157" s="27">
+        <v>41778</v>
+      </c>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G157" s="41"/>
+      <c r="H157" s="41"/>
+      <c r="I157" s="41"/>
+      <c r="J157" s="41"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" s="65"/>
+      <c r="B158" s="27">
         <v>41779</v>
       </c>
-      <c r="C152" s="5"/>
-      <c r="D152" s="5"/>
-      <c r="E152" s="5"/>
-      <c r="F152" s="5">
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G152" s="41"/>
-      <c r="H152" s="41"/>
-      <c r="I152" s="41"/>
-      <c r="J152" s="41"/>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="63"/>
-      <c r="B153" s="27">
+      <c r="G158" s="41"/>
+      <c r="H158" s="41"/>
+      <c r="I158" s="41"/>
+      <c r="J158" s="41"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" s="65"/>
+      <c r="B159" s="27">
         <v>41780</v>
       </c>
-      <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
-      <c r="F153" s="5">
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G153" s="41"/>
-      <c r="H153" s="41"/>
-      <c r="I153" s="41"/>
-      <c r="J153" s="41"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="63"/>
-      <c r="B154" s="27">
+      <c r="G159" s="41"/>
+      <c r="H159" s="41"/>
+      <c r="I159" s="41"/>
+      <c r="J159" s="41"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="65"/>
+      <c r="B160" s="27">
         <v>41781</v>
       </c>
-      <c r="C154" s="5"/>
-      <c r="D154" s="5"/>
-      <c r="E154" s="5"/>
-      <c r="F154" s="5">
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G154" s="41"/>
-      <c r="H154" s="41"/>
-      <c r="I154" s="41"/>
-      <c r="J154" s="41"/>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="64"/>
-      <c r="B155" s="27">
+      <c r="G160" s="41"/>
+      <c r="H160" s="41"/>
+      <c r="I160" s="41"/>
+      <c r="J160" s="41"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="66"/>
+      <c r="B161" s="27">
         <v>41782</v>
       </c>
-      <c r="C155" s="5"/>
-      <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
-      <c r="F155" s="5">
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G155" s="41"/>
-      <c r="H155" s="41"/>
-      <c r="I155" s="41"/>
-      <c r="J155" s="41"/>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="68">
+      <c r="G161" s="41"/>
+      <c r="H161" s="41"/>
+      <c r="I161" s="41"/>
+      <c r="J161" s="41"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="70">
         <v>30</v>
       </c>
-      <c r="B156" s="28">
+      <c r="B162" s="28">
         <v>41785</v>
       </c>
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
-      <c r="F156" s="2">
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G156" s="43"/>
-      <c r="H156" s="43"/>
-      <c r="I156" s="43"/>
-      <c r="J156" s="43"/>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="69"/>
-      <c r="B157" s="28">
+      <c r="G162" s="43"/>
+      <c r="H162" s="43"/>
+      <c r="I162" s="43"/>
+      <c r="J162" s="43"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="71"/>
+      <c r="B163" s="28">
         <v>41786</v>
       </c>
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
-      <c r="F157" s="2">
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G157" s="43"/>
-      <c r="H157" s="43"/>
-      <c r="I157" s="43"/>
-      <c r="J157" s="43"/>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="69"/>
-      <c r="B158" s="28">
+      <c r="G163" s="43"/>
+      <c r="H163" s="43"/>
+      <c r="I163" s="43"/>
+      <c r="J163" s="43"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="71"/>
+      <c r="B164" s="28">
         <v>41787</v>
       </c>
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
-      <c r="F158" s="2">
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G158" s="43"/>
-      <c r="H158" s="43"/>
-      <c r="I158" s="43"/>
-      <c r="J158" s="43"/>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="69"/>
-      <c r="B159" s="28">
+      <c r="G164" s="43"/>
+      <c r="H164" s="43"/>
+      <c r="I164" s="43"/>
+      <c r="J164" s="43"/>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" s="71"/>
+      <c r="B165" s="28">
         <v>41788</v>
       </c>
-      <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
-      <c r="E159" s="2"/>
-      <c r="F159" s="2">
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G159" s="43"/>
-      <c r="H159" s="43"/>
-      <c r="I159" s="43"/>
-      <c r="J159" s="43"/>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="70"/>
-      <c r="B160" s="28">
+      <c r="G165" s="43"/>
+      <c r="H165" s="43"/>
+      <c r="I165" s="43"/>
+      <c r="J165" s="43"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="72"/>
+      <c r="B166" s="28">
         <v>41789</v>
       </c>
-      <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
-      <c r="E160" s="2"/>
-      <c r="F160" s="2">
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G160" s="43"/>
-      <c r="H160" s="43"/>
-      <c r="I160" s="43"/>
-      <c r="J160" s="43"/>
+      <c r="G166" s="43"/>
+      <c r="H166" s="43"/>
+      <c r="I166" s="43"/>
+      <c r="J166" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="54">
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="G2:N4"/>
     <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="A62:A66"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F4"/>
@@ -4709,14 +4896,14 @@
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A47:A51"/>
     <mergeCell ref="A10:A18"/>
     <mergeCell ref="K6:N6"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="F17:F18"/>
-    <mergeCell ref="A71:A75"/>
-    <mergeCell ref="A76:A80"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A82:A86"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="F19:F20"/>
@@ -4724,29 +4911,33 @@
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="A19:A25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A66:A70"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="A61:A65"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="A96:A100"/>
-    <mergeCell ref="A101:A105"/>
-    <mergeCell ref="A106:A110"/>
-    <mergeCell ref="A111:A115"/>
-    <mergeCell ref="A141:A145"/>
-    <mergeCell ref="A146:A150"/>
-    <mergeCell ref="A151:A155"/>
-    <mergeCell ref="A156:A160"/>
-    <mergeCell ref="A116:A120"/>
-    <mergeCell ref="A121:A125"/>
-    <mergeCell ref="A126:A130"/>
-    <mergeCell ref="A131:A135"/>
-    <mergeCell ref="A136:A140"/>
+    <mergeCell ref="F25:F30"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="A19:A30"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="A92:A96"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="A112:A116"/>
+    <mergeCell ref="A117:A121"/>
+    <mergeCell ref="A147:A151"/>
+    <mergeCell ref="A152:A156"/>
+    <mergeCell ref="A157:A161"/>
+    <mergeCell ref="A162:A166"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="A127:A131"/>
+    <mergeCell ref="A132:A136"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="A142:A146"/>
   </mergeCells>
   <conditionalFormatting sqref="M7">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
@@ -4921,143 +5112,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M24</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="28" id="{7A1C8DB1-F7B5-44DF-B6AD-BD94518E2F59}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M25</xm:sqref>
+          <xm:sqref>M24:M31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="27" id="{798FB9D7-6FEF-4CEA-8CC2-45EE73486721}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M26</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="26" id="{9D5A3639-C9C5-40BD-82EE-496926295966}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M27</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="25" id="{042E6B91-B838-419B-9746-9D04172CBCE2}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="24" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M29</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="23" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M30</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="22" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M31</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="21" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5076,7 +5134,7 @@
           <xm:sqref>M32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="20" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
+          <x14:cfRule type="iconSet" priority="26" id="{9D5A3639-C9C5-40BD-82EE-496926295966}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5095,7 +5153,7 @@
           <xm:sqref>M33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="19" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
+          <x14:cfRule type="iconSet" priority="25" id="{042E6B91-B838-419B-9746-9D04172CBCE2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5114,7 +5172,7 @@
           <xm:sqref>M34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
+          <x14:cfRule type="iconSet" priority="24" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5133,7 +5191,7 @@
           <xm:sqref>M35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="17" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
+          <x14:cfRule type="iconSet" priority="23" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5152,7 +5210,7 @@
           <xm:sqref>M36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="16" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
+          <x14:cfRule type="iconSet" priority="22" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5171,7 +5229,7 @@
           <xm:sqref>M37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="15" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
+          <x14:cfRule type="iconSet" priority="21" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5190,7 +5248,7 @@
           <xm:sqref>M38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
+          <x14:cfRule type="iconSet" priority="20" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5209,7 +5267,7 @@
           <xm:sqref>M39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
+          <x14:cfRule type="iconSet" priority="19" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5228,7 +5286,7 @@
           <xm:sqref>M40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+          <x14:cfRule type="iconSet" priority="18" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5247,7 +5305,7 @@
           <xm:sqref>M41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="11" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+          <x14:cfRule type="iconSet" priority="17" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5266,7 +5324,7 @@
           <xm:sqref>M42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="10" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+          <x14:cfRule type="iconSet" priority="16" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5285,6 +5343,120 @@
           <xm:sqref>M43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="15" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="14" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M45</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="13" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M46</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="12" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M47</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="11" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M48</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="10" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="9" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
@@ -5304,25 +5476,6 @@
           <xm:sqref>M8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="8" id="{F4E0A23A-4149-4A2A-B8B1-3E1EE910632F}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>5</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>24</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>F19 F7:F8 F12:F14 F16 F21 F23:F160</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="1" id="{E123B8DB-3F09-4577-A02F-B5F22850E800}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
@@ -5341,6 +5494,25 @@
           </x14:cfRule>
           <xm:sqref>F17</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="40" id="{F4E0A23A-4149-4A2A-B8B1-3E1EE910632F}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>5</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>24</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F19 F7:F8 F12:F14 F16 F21 F25 F23 F32:F166</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNgo.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNgo.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="97">
   <si>
     <t>Week</t>
   </si>
@@ -313,6 +313,31 @@
   </si>
   <si>
     <t>team homework</t>
+  </si>
+  <si>
+    <t>teammeeting</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>description stage 7 &amp; 8 of ACDM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>interate ACDM and SCRUM : role,step,document</t>
+  </si>
+  <si>
+    <t>sprint life cycle</t>
+  </si>
+  <si>
+    <t>discuss about : process,document of each phase</t>
+  </si>
+  <si>
+    <t>conduct stage 7-8 ACDM</t>
   </si>
 </sst>
 </file>
@@ -617,7 +642,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -776,15 +801,24 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -809,9 +843,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -828,12 +859,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -845,6 +870,15 @@
     <xf numFmtId="2" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -948,18 +982,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1395,13 +1417,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O166"/>
+  <dimension ref="A1:O169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H30" sqref="H30"/>
+      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1423,81 +1445,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="85"/>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="87"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="90"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="88" t="s">
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="90"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="93"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="93"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="96"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="106"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="96"/>
+      <c r="A4" s="109"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="99"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="113"/>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="115"/>
+      <c r="A5" s="116"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="118"/>
       <c r="F5" s="16"/>
       <c r="H5" s="45" t="s">
         <v>66</v>
@@ -1542,13 +1564,13 @@
       <c r="J6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="119"/>
-      <c r="L6" s="119"/>
-      <c r="M6" s="119"/>
-      <c r="N6" s="119"/>
+      <c r="K6" s="122"/>
+      <c r="L6" s="122"/>
+      <c r="M6" s="122"/>
+      <c r="N6" s="122"/>
     </row>
     <row r="7" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="97">
+      <c r="A7" s="100">
         <v>1</v>
       </c>
       <c r="B7" s="17">
@@ -1575,12 +1597,12 @@
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="31"/>
-      <c r="K7" s="74" t="s">
+      <c r="K7" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="74"/>
+      <c r="L7" s="76"/>
       <c r="M7" s="34">
-        <f>SUM(M8:M49)</f>
+        <f>SUM(M8:M52)</f>
         <v>13.403</v>
       </c>
       <c r="N7" s="3" t="s">
@@ -1588,8 +1610,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="98"/>
-      <c r="B8" s="109">
+      <c r="A8" s="101"/>
+      <c r="B8" s="112">
         <v>41586</v>
       </c>
       <c r="C8" s="18">
@@ -1601,7 +1623,7 @@
       <c r="E8" s="19">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F8" s="111">
+      <c r="F8" s="114">
         <f>SUM(E8:E9)</f>
         <v>1.66</v>
       </c>
@@ -1626,8 +1648,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="99"/>
-      <c r="B9" s="110"/>
+      <c r="A9" s="102"/>
+      <c r="B9" s="113"/>
       <c r="C9" s="18">
         <v>0.63194444444444442</v>
       </c>
@@ -1637,7 +1659,7 @@
       <c r="E9" s="19">
         <v>0.5</v>
       </c>
-      <c r="F9" s="112"/>
+      <c r="F9" s="115"/>
       <c r="G9" s="31" t="s">
         <v>25</v>
       </c>
@@ -1648,10 +1670,10 @@
       <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="116">
+      <c r="A10" s="119">
         <v>2</v>
       </c>
-      <c r="B10" s="77">
+      <c r="B10" s="79">
         <v>41589</v>
       </c>
       <c r="C10" s="55">
@@ -1677,8 +1699,8 @@
       <c r="J10" s="57"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="117"/>
-      <c r="B11" s="78"/>
+      <c r="A11" s="120"/>
+      <c r="B11" s="80"/>
       <c r="C11" s="55">
         <v>0.875</v>
       </c>
@@ -1699,8 +1721,8 @@
       <c r="J11" s="57"/>
     </row>
     <row r="12" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A12" s="117"/>
-      <c r="B12" s="77">
+      <c r="A12" s="120"/>
+      <c r="B12" s="79">
         <v>41590</v>
       </c>
       <c r="C12" s="23">
@@ -1740,8 +1762,8 @@
       <c r="O12" s="36"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="117"/>
-      <c r="B13" s="78"/>
+      <c r="A13" s="120"/>
+      <c r="B13" s="80"/>
       <c r="C13" s="23">
         <v>0.875</v>
       </c>
@@ -1770,8 +1792,8 @@
       <c r="O13" s="36"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="117"/>
-      <c r="B14" s="77">
+      <c r="A14" s="120"/>
+      <c r="B14" s="79">
         <v>41592</v>
       </c>
       <c r="C14" s="26">
@@ -1783,7 +1805,7 @@
       <c r="E14" s="29">
         <v>1.25</v>
       </c>
-      <c r="F14" s="75">
+      <c r="F14" s="77">
         <f>SUM(E14:E15)</f>
         <v>3.25</v>
       </c>
@@ -1802,7 +1824,7 @@
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="10">
-        <f>SUM(E32:E36)</f>
+        <f>SUM(E35:E39)</f>
         <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
@@ -1810,8 +1832,8 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="117"/>
-      <c r="B15" s="78"/>
+      <c r="A15" s="120"/>
+      <c r="B15" s="80"/>
       <c r="C15" s="26">
         <v>0.42708333333333331</v>
       </c>
@@ -1821,7 +1843,7 @@
       <c r="E15" s="29">
         <v>2</v>
       </c>
-      <c r="F15" s="76"/>
+      <c r="F15" s="78"/>
       <c r="G15" s="48" t="s">
         <v>30</v>
       </c>
@@ -1836,7 +1858,7 @@
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="117"/>
+      <c r="A16" s="120"/>
       <c r="B16" s="46">
         <v>41593</v>
       </c>
@@ -1868,7 +1890,7 @@
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="10">
-        <f>SUM(E37:E41)</f>
+        <f>SUM(E40:E44)</f>
         <v>0</v>
       </c>
       <c r="N16" s="3" t="s">
@@ -1876,8 +1898,8 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="117"/>
-      <c r="B17" s="77">
+      <c r="A17" s="120"/>
+      <c r="B17" s="79">
         <v>41594</v>
       </c>
       <c r="C17" s="26">
@@ -1889,7 +1911,7 @@
       <c r="E17" s="29">
         <v>2</v>
       </c>
-      <c r="F17" s="75">
+      <c r="F17" s="77">
         <f>SUM(E17:E18)</f>
         <v>3</v>
       </c>
@@ -1908,7 +1930,7 @@
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="10">
-        <f>SUM(E47:E51)</f>
+        <f>SUM(E50:E54)</f>
         <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
@@ -1916,8 +1938,8 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="118"/>
-      <c r="B18" s="78"/>
+      <c r="A18" s="121"/>
+      <c r="B18" s="80"/>
       <c r="C18" s="26">
         <v>0.83333333333333337</v>
       </c>
@@ -1927,7 +1949,7 @@
       <c r="E18" s="29">
         <v>1</v>
       </c>
-      <c r="F18" s="76"/>
+      <c r="F18" s="78"/>
       <c r="G18" s="30" t="s">
         <v>24</v>
       </c>
@@ -1944,10 +1966,10 @@
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="73">
+      <c r="A19" s="67">
         <v>3</v>
       </c>
-      <c r="B19" s="79">
+      <c r="B19" s="65">
         <v>41596</v>
       </c>
       <c r="C19" s="53">
@@ -1959,7 +1981,7 @@
       <c r="E19" s="5">
         <v>0.6</v>
       </c>
-      <c r="F19" s="64">
+      <c r="F19" s="67">
         <f>SUM(E19:E20)</f>
         <v>1.18</v>
       </c>
@@ -1978,7 +2000,7 @@
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="10">
-        <f>SUM(E52:E56)</f>
+        <f>SUM(E55:E59)</f>
         <v>0</v>
       </c>
       <c r="N19" s="3" t="s">
@@ -1986,8 +2008,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="73"/>
-      <c r="B20" s="80"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="66"/>
       <c r="C20" s="53">
         <v>0.89236111111111116</v>
       </c>
@@ -1997,7 +2019,7 @@
       <c r="E20" s="5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F20" s="66"/>
+      <c r="F20" s="69"/>
       <c r="G20" s="41" t="s">
         <v>30</v>
       </c>
@@ -2012,7 +2034,7 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A21" s="73"/>
+      <c r="A21" s="68"/>
       <c r="B21" s="81">
         <v>41597</v>
       </c>
@@ -2025,7 +2047,7 @@
       <c r="E21" s="52">
         <v>1</v>
       </c>
-      <c r="F21" s="64">
+      <c r="F21" s="67">
         <f>SUM(E21:E22)</f>
         <v>3</v>
       </c>
@@ -2042,7 +2064,7 @@
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="10">
-        <f>SUM(E57:E61)</f>
+        <f>SUM(E60:E64)</f>
         <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
@@ -2050,7 +2072,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
+      <c r="A22" s="68"/>
       <c r="B22" s="82"/>
       <c r="C22" s="53">
         <v>0.91666666666666663</v>
@@ -2061,7 +2083,7 @@
       <c r="E22" s="52">
         <v>2</v>
       </c>
-      <c r="F22" s="66"/>
+      <c r="F22" s="69"/>
       <c r="G22" s="41" t="s">
         <v>24</v>
       </c>
@@ -2078,8 +2100,8 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="73"/>
-      <c r="B23" s="79">
+      <c r="A23" s="68"/>
+      <c r="B23" s="65">
         <v>41598</v>
       </c>
       <c r="C23" s="53">
@@ -2091,14 +2113,14 @@
       <c r="E23" s="5">
         <v>1</v>
       </c>
-      <c r="F23" s="121">
+      <c r="F23" s="86">
         <f>SUM(E23:E24)</f>
         <v>3</v>
       </c>
       <c r="G23" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="H23" s="63" t="s">
+      <c r="H23" s="62" t="s">
         <v>84</v>
       </c>
       <c r="I23" s="41"/>
@@ -2108,7 +2130,7 @@
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="10">
-        <f>SUM(E62:E66)</f>
+        <f>SUM(E65:E69)</f>
         <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
@@ -2116,8 +2138,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="73"/>
-      <c r="B24" s="80"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="66"/>
       <c r="C24" s="53">
         <v>0.91666666666666663</v>
       </c>
@@ -2127,11 +2149,11 @@
       <c r="E24" s="5">
         <v>2</v>
       </c>
-      <c r="F24" s="122"/>
+      <c r="F24" s="87"/>
       <c r="G24" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="63" t="s">
+      <c r="H24" s="62" t="s">
         <v>85</v>
       </c>
       <c r="I24" s="41"/>
@@ -2141,7 +2163,7 @@
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="10">
-        <f>SUM(E67:E71)</f>
+        <f>SUM(E70:E74)</f>
         <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
@@ -2149,8 +2171,8 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="73"/>
-      <c r="B25" s="79">
+      <c r="A25" s="68"/>
+      <c r="B25" s="65">
         <v>41599</v>
       </c>
       <c r="C25" s="53">
@@ -2162,14 +2184,14 @@
       <c r="E25" s="5">
         <v>1</v>
       </c>
-      <c r="F25" s="64">
+      <c r="F25" s="67">
         <f>SUM(E25:E30)</f>
         <v>10.35</v>
       </c>
       <c r="G25" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="H25" s="63"/>
+      <c r="H25" s="62"/>
       <c r="I25" s="41"/>
       <c r="J25" s="41"/>
       <c r="K25" s="8"/>
@@ -2177,9 +2199,9 @@
       <c r="M25" s="10"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="73"/>
-      <c r="B26" s="120"/>
+    <row r="26" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="68"/>
+      <c r="B26" s="85"/>
       <c r="C26" s="53">
         <v>0.375</v>
       </c>
@@ -2189,11 +2211,13 @@
       <c r="E26" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F26" s="65"/>
-      <c r="G26" s="41" t="s">
+      <c r="F26" s="68"/>
+      <c r="G26" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="H26" s="63"/>
+      <c r="H26" s="62" t="s">
+        <v>95</v>
+      </c>
       <c r="I26" s="41"/>
       <c r="J26" s="41"/>
       <c r="K26" s="8"/>
@@ -2202,8 +2226,8 @@
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="73"/>
-      <c r="B27" s="120"/>
+      <c r="A27" s="68"/>
+      <c r="B27" s="85"/>
       <c r="C27" s="53">
         <v>0.4236111111111111</v>
       </c>
@@ -2213,11 +2237,11 @@
       <c r="E27" s="5">
         <v>1.5</v>
       </c>
-      <c r="F27" s="65"/>
+      <c r="F27" s="68"/>
       <c r="G27" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="H27" s="63"/>
+      <c r="H27" s="62"/>
       <c r="I27" s="41"/>
       <c r="J27" s="41"/>
       <c r="K27" s="8"/>
@@ -2226,8 +2250,8 @@
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="73"/>
-      <c r="B28" s="120"/>
+      <c r="A28" s="68"/>
+      <c r="B28" s="85"/>
       <c r="C28" s="53">
         <v>0.52083333333333337</v>
       </c>
@@ -2237,11 +2261,13 @@
       <c r="E28" s="5">
         <v>2</v>
       </c>
-      <c r="F28" s="65"/>
+      <c r="F28" s="68"/>
       <c r="G28" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="H28" s="63"/>
+      <c r="H28" s="62" t="s">
+        <v>96</v>
+      </c>
       <c r="I28" s="41"/>
       <c r="J28" s="41"/>
       <c r="K28" s="8"/>
@@ -2250,8 +2276,8 @@
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="73"/>
-      <c r="B29" s="120"/>
+      <c r="A29" s="68"/>
+      <c r="B29" s="85"/>
       <c r="C29" s="53">
         <v>0.625</v>
       </c>
@@ -2261,11 +2287,11 @@
       <c r="E29" s="5">
         <v>2.1</v>
       </c>
-      <c r="F29" s="65"/>
+      <c r="F29" s="68"/>
       <c r="G29" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="H29" s="63"/>
+      <c r="H29" s="62"/>
       <c r="I29" s="41"/>
       <c r="J29" s="41"/>
       <c r="K29" s="8"/>
@@ -2274,8 +2300,8 @@
       <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="73"/>
-      <c r="B30" s="80"/>
+      <c r="A30" s="68"/>
+      <c r="B30" s="66"/>
       <c r="C30" s="53">
         <v>0.84375</v>
       </c>
@@ -2285,11 +2311,11 @@
       <c r="E30" s="5">
         <v>2.65</v>
       </c>
-      <c r="F30" s="66"/>
+      <c r="F30" s="69"/>
       <c r="G30" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="H30" s="63"/>
+      <c r="H30" s="62"/>
       <c r="I30" s="41"/>
       <c r="J30" s="41"/>
       <c r="K30" s="8"/>
@@ -2298,16 +2324,29 @@
       <c r="N30" s="3"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="62"/>
-      <c r="B31" s="27">
+      <c r="A31" s="68"/>
+      <c r="B31" s="65">
         <v>41600</v>
       </c>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="63"/>
+      <c r="C31" s="53">
+        <v>0.9375</v>
+      </c>
+      <c r="D31" s="53">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="F31" s="86">
+        <f>SUM(E31:E32)</f>
+        <v>2.75</v>
+      </c>
+      <c r="G31" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="H31" s="62" t="s">
+        <v>93</v>
+      </c>
       <c r="I31" s="41"/>
       <c r="J31" s="41"/>
       <c r="K31" s="8"/>
@@ -2316,101 +2355,102 @@
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="67">
+      <c r="A32" s="69"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="53">
+        <v>0.625</v>
+      </c>
+      <c r="D32" s="53">
+        <v>0.6875</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F32" s="87"/>
+      <c r="G32" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="H32" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="63"/>
+      <c r="B33" s="65">
+        <v>41601</v>
+      </c>
+      <c r="C33" s="53">
+        <v>0.5625</v>
+      </c>
+      <c r="D33" s="53">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="F33" s="86">
+        <f>SUM(E33:E34)</f>
+        <v>1.5</v>
+      </c>
+      <c r="G33" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="H33" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="64"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="53">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="D34" s="53">
+        <v>0.625</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="F34" s="87"/>
+      <c r="G34" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="H34" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="I34" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="J34" s="41"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="70">
         <v>4</v>
       </c>
-      <c r="B32" s="28">
+      <c r="B35" s="28">
         <v>41603</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6">
-        <f t="shared" ref="F23:F58" si="0">E32</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="L32" s="6"/>
-      <c r="M32" s="10">
-        <f>SUM(E77:E81)</f>
-        <v>0</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="68"/>
-      <c r="B33" s="28">
-        <v>41604</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="L33" s="6"/>
-      <c r="M33" s="10">
-        <f>SUM(E82:E86)</f>
-        <v>0</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="68"/>
-      <c r="B34" s="28">
-        <v>41605</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="L34" s="6"/>
-      <c r="M34" s="10">
-        <f>SUM(E87:E91)</f>
-        <v>0</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="68"/>
-      <c r="B35" s="28">
-        <v>41606</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F35:F61" si="0">E35</f>
         <v>0</v>
       </c>
       <c r="G35" s="42"/>
@@ -2418,11 +2458,11 @@
       <c r="I35" s="42"/>
       <c r="J35" s="42"/>
       <c r="K35" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="10">
-        <f>SUM(E92:E96)</f>
+        <f>SUM(E80:E84)</f>
         <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
@@ -2430,9 +2470,9 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="69"/>
+      <c r="A36" s="71"/>
       <c r="B36" s="28">
-        <v>41607</v>
+        <v>41604</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -2446,11 +2486,11 @@
       <c r="I36" s="42"/>
       <c r="J36" s="42"/>
       <c r="K36" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L36" s="6"/>
       <c r="M36" s="10">
-        <f>SUM(E97:E101)</f>
+        <f>SUM(E85:E89)</f>
         <v>0</v>
       </c>
       <c r="N36" s="3" t="s">
@@ -2458,29 +2498,27 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="64">
-        <v>5</v>
-      </c>
-      <c r="B37" s="27">
-        <v>41610</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5">
+      <c r="A37" s="71"/>
+      <c r="B37" s="28">
+        <v>41605</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
       <c r="K37" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="10">
-        <f>SUM(E102:E106)</f>
+        <f>SUM(E90:E94)</f>
         <v>0</v>
       </c>
       <c r="N37" s="3" t="s">
@@ -2488,27 +2526,27 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="65"/>
-      <c r="B38" s="27">
-        <v>41611</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5">
+      <c r="A38" s="71"/>
+      <c r="B38" s="28">
+        <v>41606</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
       <c r="K38" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L38" s="6"/>
       <c r="M38" s="10">
-        <f>SUM(E107:E111)</f>
+        <f>SUM(E95:E99)</f>
         <v>0</v>
       </c>
       <c r="N38" s="3" t="s">
@@ -2516,27 +2554,27 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="65"/>
-      <c r="B39" s="27">
-        <v>41612</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5">
+      <c r="A39" s="72"/>
+      <c r="B39" s="28">
+        <v>41607</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
       <c r="K39" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="10">
-        <f>SUM(E112:E116)</f>
+        <f>SUM(E100:E104)</f>
         <v>0</v>
       </c>
       <c r="N39" s="3" t="s">
@@ -2544,9 +2582,11 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="65"/>
+      <c r="A40" s="67">
+        <v>5</v>
+      </c>
       <c r="B40" s="27">
-        <v>41613</v>
+        <v>41610</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -2560,11 +2600,11 @@
       <c r="I40" s="41"/>
       <c r="J40" s="41"/>
       <c r="K40" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L40" s="6"/>
       <c r="M40" s="10">
-        <f>SUM(E117:E121)</f>
+        <f>SUM(E105:E109)</f>
         <v>0</v>
       </c>
       <c r="N40" s="3" t="s">
@@ -2572,9 +2612,9 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="66"/>
+      <c r="A41" s="68"/>
       <c r="B41" s="27">
-        <v>41614</v>
+        <v>41611</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -2588,11 +2628,11 @@
       <c r="I41" s="41"/>
       <c r="J41" s="41"/>
       <c r="K41" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L41" s="6"/>
       <c r="M41" s="10">
-        <f>SUM(E122:E126)</f>
+        <f>SUM(E110:E114)</f>
         <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
@@ -2600,29 +2640,27 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="67">
-        <v>6</v>
-      </c>
-      <c r="B42" s="28">
-        <v>41617</v>
-      </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6">
+      <c r="A42" s="68"/>
+      <c r="B42" s="27">
+        <v>41612</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
       <c r="K42" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L42" s="6"/>
       <c r="M42" s="10">
-        <f>SUM(E127:E131)</f>
+        <f>SUM(E115:E119)</f>
         <v>0</v>
       </c>
       <c r="N42" s="3" t="s">
@@ -2631,26 +2669,26 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="68"/>
-      <c r="B43" s="28">
-        <v>41618</v>
-      </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6">
+      <c r="B43" s="27">
+        <v>41613</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
       <c r="K43" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L43" s="6"/>
       <c r="M43" s="10">
-        <f>SUM(E132:E136)</f>
+        <f>SUM(E120:E124)</f>
         <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
@@ -2658,27 +2696,27 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="68"/>
-      <c r="B44" s="28">
-        <v>41619</v>
-      </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6">
+      <c r="A44" s="69"/>
+      <c r="B44" s="27">
+        <v>41614</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="42"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
       <c r="K44" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L44" s="6"/>
       <c r="M44" s="10">
-        <f>SUM(E137:E141)</f>
+        <f>SUM(E125:E129)</f>
         <v>0</v>
       </c>
       <c r="N44" s="3" t="s">
@@ -2686,9 +2724,11 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="68"/>
+      <c r="A45" s="70">
+        <v>6</v>
+      </c>
       <c r="B45" s="28">
-        <v>41620</v>
+        <v>41617</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -2702,11 +2742,11 @@
       <c r="I45" s="42"/>
       <c r="J45" s="42"/>
       <c r="K45" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="10">
-        <f>SUM(E142:E146)</f>
+        <f>SUM(E130:E134)</f>
         <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
@@ -2714,9 +2754,9 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="69"/>
+      <c r="A46" s="71"/>
       <c r="B46" s="28">
-        <v>41621</v>
+        <v>41618</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -2730,11 +2770,11 @@
       <c r="I46" s="42"/>
       <c r="J46" s="42"/>
       <c r="K46" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="10">
-        <f>SUM(E147:E151)</f>
+        <f>SUM(E135:E139)</f>
         <v>0</v>
       </c>
       <c r="N46" s="3" t="s">
@@ -2742,29 +2782,27 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="64">
-        <v>7</v>
-      </c>
-      <c r="B47" s="27">
-        <v>41624</v>
-      </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5">
+      <c r="A47" s="71"/>
+      <c r="B47" s="28">
+        <v>41619</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
       <c r="K47" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L47" s="6"/>
       <c r="M47" s="10">
-        <f>SUM(E152:E156)</f>
+        <f>SUM(E140:E144)</f>
         <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
@@ -2772,27 +2810,27 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="65"/>
-      <c r="B48" s="27">
-        <v>41625</v>
-      </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5">
+      <c r="A48" s="71"/>
+      <c r="B48" s="28">
+        <v>41620</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="41"/>
-      <c r="J48" s="41"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42"/>
       <c r="K48" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L48" s="6"/>
       <c r="M48" s="10">
-        <f>SUM(E157:E161)</f>
+        <f>SUM(E145:E149)</f>
         <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
@@ -2800,27 +2838,27 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="65"/>
-      <c r="B49" s="27">
-        <v>41626</v>
-      </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5">
+      <c r="A49" s="72"/>
+      <c r="B49" s="28">
+        <v>41621</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="41"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="42"/>
       <c r="K49" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L49" s="6"/>
       <c r="M49" s="10">
-        <f>SUM(E162:E166)</f>
+        <f>SUM(E150:E154)</f>
         <v>0</v>
       </c>
       <c r="N49" s="3" t="s">
@@ -2828,9 +2866,11 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="65"/>
+      <c r="A50" s="67">
+        <v>7</v>
+      </c>
       <c r="B50" s="27">
-        <v>41627</v>
+        <v>41624</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -2843,11 +2883,22 @@
       <c r="H50" s="41"/>
       <c r="I50" s="41"/>
       <c r="J50" s="41"/>
+      <c r="K50" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L50" s="6"/>
+      <c r="M50" s="10">
+        <f>SUM(E155:E159)</f>
+        <v>0</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="66"/>
+      <c r="A51" s="68"/>
       <c r="B51" s="27">
-        <v>41628</v>
+        <v>41625</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -2860,64 +2911,86 @@
       <c r="H51" s="41"/>
       <c r="I51" s="41"/>
       <c r="J51" s="41"/>
+      <c r="K51" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L51" s="6"/>
+      <c r="M51" s="10">
+        <f>SUM(E160:E164)</f>
+        <v>0</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="67">
-        <v>8</v>
-      </c>
-      <c r="B52" s="28">
-        <v>41631</v>
-      </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6">
+      <c r="A52" s="68"/>
+      <c r="B52" s="27">
+        <v>41626</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="42"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="41"/>
+      <c r="K52" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L52" s="6"/>
+      <c r="M52" s="10">
+        <f>SUM(E165:E169)</f>
+        <v>0</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="68"/>
-      <c r="B53" s="28">
-        <v>41632</v>
-      </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6">
+      <c r="B53" s="27">
+        <v>41627</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G53" s="42"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="42"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="41"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="68"/>
-      <c r="B54" s="28">
-        <v>41633</v>
-      </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6">
+      <c r="A54" s="69"/>
+      <c r="B54" s="27">
+        <v>41628</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="42"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="41"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="68"/>
+      <c r="A55" s="70">
+        <v>8</v>
+      </c>
       <c r="B55" s="28">
-        <v>41634</v>
+        <v>41631</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -2932,9 +3005,9 @@
       <c r="J55" s="42"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="69"/>
+      <c r="A56" s="71"/>
       <c r="B56" s="28">
-        <v>41635</v>
+        <v>41632</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -2949,68 +3022,68 @@
       <c r="J56" s="42"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="64">
+      <c r="A57" s="71"/>
+      <c r="B57" s="28">
+        <v>41633</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="71"/>
+      <c r="B58" s="28">
+        <v>41634</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="72"/>
+      <c r="B59" s="28">
+        <v>41635</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="67">
         <v>9</v>
       </c>
-      <c r="B57" s="27">
+      <c r="B60" s="27">
         <v>41638</v>
-      </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G57" s="41"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="41"/>
-      <c r="J57" s="41"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="65"/>
-      <c r="B58" s="27">
-        <v>41639</v>
-      </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G58" s="41"/>
-      <c r="H58" s="41"/>
-      <c r="I58" s="41"/>
-      <c r="J58" s="41"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="65"/>
-      <c r="B59" s="27">
-        <v>41640</v>
-      </c>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5">
-        <f t="shared" ref="F59:F90" si="1">E59</f>
-        <v>0</v>
-      </c>
-      <c r="G59" s="41"/>
-      <c r="H59" s="41"/>
-      <c r="I59" s="41"/>
-      <c r="J59" s="41"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="65"/>
-      <c r="B60" s="27">
-        <v>41641</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G60" s="41"/>
@@ -3019,15 +3092,15 @@
       <c r="J60" s="41"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="66"/>
+      <c r="A61" s="68"/>
       <c r="B61" s="27">
-        <v>41642</v>
+        <v>41639</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
       <c r="F61" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G61" s="41"/>
@@ -3036,62 +3109,62 @@
       <c r="J61" s="41"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="67">
-        <v>10</v>
-      </c>
-      <c r="B62" s="28">
-        <v>41645</v>
-      </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G62" s="42"/>
-      <c r="H62" s="42"/>
-      <c r="I62" s="42"/>
-      <c r="J62" s="42"/>
+      <c r="A62" s="68"/>
+      <c r="B62" s="27">
+        <v>41640</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5">
+        <f t="shared" ref="F62:F93" si="1">E62</f>
+        <v>0</v>
+      </c>
+      <c r="G62" s="41"/>
+      <c r="H62" s="41"/>
+      <c r="I62" s="41"/>
+      <c r="J62" s="41"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="68"/>
-      <c r="B63" s="28">
-        <v>41646</v>
-      </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6">
+      <c r="B63" s="27">
+        <v>41641</v>
+      </c>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G63" s="42"/>
-      <c r="H63" s="42"/>
-      <c r="I63" s="42"/>
-      <c r="J63" s="42"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="41"/>
+      <c r="I63" s="41"/>
+      <c r="J63" s="41"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="68"/>
-      <c r="B64" s="28">
-        <v>41647</v>
-      </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6">
+      <c r="A64" s="69"/>
+      <c r="B64" s="27">
+        <v>41642</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G64" s="42"/>
-      <c r="H64" s="42"/>
-      <c r="I64" s="42"/>
-      <c r="J64" s="42"/>
+      <c r="G64" s="41"/>
+      <c r="H64" s="41"/>
+      <c r="I64" s="41"/>
+      <c r="J64" s="41"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="68"/>
+      <c r="A65" s="70">
+        <v>10</v>
+      </c>
       <c r="B65" s="28">
-        <v>41648</v>
+        <v>41645</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -3106,9 +3179,9 @@
       <c r="J65" s="42"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="69"/>
+      <c r="A66" s="71"/>
       <c r="B66" s="28">
-        <v>41649</v>
+        <v>41646</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -3123,62 +3196,62 @@
       <c r="J66" s="42"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="64">
+      <c r="A67" s="71"/>
+      <c r="B67" s="28">
+        <v>41647</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="42"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="71"/>
+      <c r="B68" s="28">
+        <v>41648</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G68" s="42"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="42"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="72"/>
+      <c r="B69" s="28">
+        <v>41649</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="42"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="42"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="67">
         <v>11</v>
       </c>
-      <c r="B67" s="27">
+      <c r="B70" s="27">
         <v>41652</v>
-      </c>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G67" s="41"/>
-      <c r="H67" s="41"/>
-      <c r="I67" s="41"/>
-      <c r="J67" s="41"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="65"/>
-      <c r="B68" s="27">
-        <v>41653</v>
-      </c>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G68" s="41"/>
-      <c r="H68" s="41"/>
-      <c r="I68" s="41"/>
-      <c r="J68" s="41"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="65"/>
-      <c r="B69" s="27">
-        <v>41654</v>
-      </c>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G69" s="41"/>
-      <c r="H69" s="41"/>
-      <c r="I69" s="41"/>
-      <c r="J69" s="41"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="65"/>
-      <c r="B70" s="27">
-        <v>41655</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -3193,9 +3266,9 @@
       <c r="J70" s="41"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="66"/>
+      <c r="A71" s="68"/>
       <c r="B71" s="27">
-        <v>41656</v>
+        <v>41653</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
@@ -3210,62 +3283,62 @@
       <c r="J71" s="41"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="67">
-        <v>12</v>
-      </c>
-      <c r="B72" s="28">
-        <v>41659</v>
-      </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6">
+      <c r="A72" s="68"/>
+      <c r="B72" s="27">
+        <v>41654</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G72" s="42"/>
-      <c r="H72" s="42"/>
-      <c r="I72" s="42"/>
-      <c r="J72" s="42"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="41"/>
+      <c r="I72" s="41"/>
+      <c r="J72" s="41"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="68"/>
-      <c r="B73" s="28">
-        <v>41660</v>
-      </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6">
+      <c r="B73" s="27">
+        <v>41655</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G73" s="42"/>
-      <c r="H73" s="42"/>
-      <c r="I73" s="42"/>
-      <c r="J73" s="42"/>
+      <c r="G73" s="41"/>
+      <c r="H73" s="41"/>
+      <c r="I73" s="41"/>
+      <c r="J73" s="41"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="68"/>
-      <c r="B74" s="28">
-        <v>41661</v>
-      </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6">
+      <c r="A74" s="69"/>
+      <c r="B74" s="27">
+        <v>41656</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G74" s="42"/>
-      <c r="H74" s="42"/>
-      <c r="I74" s="42"/>
-      <c r="J74" s="42"/>
+      <c r="G74" s="41"/>
+      <c r="H74" s="41"/>
+      <c r="I74" s="41"/>
+      <c r="J74" s="41"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="68"/>
+      <c r="A75" s="70">
+        <v>12</v>
+      </c>
       <c r="B75" s="28">
-        <v>41662</v>
+        <v>41659</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -3280,9 +3353,9 @@
       <c r="J75" s="42"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="69"/>
+      <c r="A76" s="71"/>
       <c r="B76" s="28">
-        <v>41663</v>
+        <v>41660</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -3297,68 +3370,62 @@
       <c r="J76" s="42"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="64">
+      <c r="A77" s="71"/>
+      <c r="B77" s="28">
+        <v>41661</v>
+      </c>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G77" s="42"/>
+      <c r="H77" s="42"/>
+      <c r="I77" s="42"/>
+      <c r="J77" s="42"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="71"/>
+      <c r="B78" s="28">
+        <v>41662</v>
+      </c>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G78" s="42"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="42"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="72"/>
+      <c r="B79" s="28">
+        <v>41663</v>
+      </c>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G79" s="42"/>
+      <c r="H79" s="42"/>
+      <c r="I79" s="42"/>
+      <c r="J79" s="42"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="67">
         <v>13</v>
       </c>
-      <c r="B77" s="27">
+      <c r="B80" s="27">
         <v>41666</v>
-      </c>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G77" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="H77" s="41"/>
-      <c r="I77" s="41"/>
-      <c r="J77" s="41"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="65"/>
-      <c r="B78" s="27">
-        <v>41667</v>
-      </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G78" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="H78" s="41"/>
-      <c r="I78" s="41"/>
-      <c r="J78" s="41"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="65"/>
-      <c r="B79" s="27">
-        <v>41668</v>
-      </c>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G79" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="H79" s="41"/>
-      <c r="I79" s="41"/>
-      <c r="J79" s="41"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="65"/>
-      <c r="B80" s="27">
-        <v>41669</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
@@ -3375,9 +3442,9 @@
       <c r="J80" s="41"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="66"/>
+      <c r="A81" s="68"/>
       <c r="B81" s="27">
-        <v>41670</v>
+        <v>41667</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -3394,68 +3461,68 @@
       <c r="J81" s="41"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="67">
-        <v>14</v>
-      </c>
-      <c r="B82" s="28">
-        <v>41673</v>
-      </c>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6">
+      <c r="A82" s="68"/>
+      <c r="B82" s="27">
+        <v>41668</v>
+      </c>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G82" s="43" t="s">
+      <c r="G82" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H82" s="42"/>
-      <c r="I82" s="42"/>
-      <c r="J82" s="42"/>
+      <c r="H82" s="41"/>
+      <c r="I82" s="41"/>
+      <c r="J82" s="41"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="68"/>
-      <c r="B83" s="28">
-        <v>41674</v>
-      </c>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6">
+      <c r="B83" s="27">
+        <v>41669</v>
+      </c>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G83" s="43" t="s">
+      <c r="G83" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H83" s="42"/>
-      <c r="I83" s="42"/>
-      <c r="J83" s="42"/>
+      <c r="H83" s="41"/>
+      <c r="I83" s="41"/>
+      <c r="J83" s="41"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="68"/>
-      <c r="B84" s="28">
-        <v>41675</v>
-      </c>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6">
+      <c r="A84" s="69"/>
+      <c r="B84" s="27">
+        <v>41670</v>
+      </c>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G84" s="43" t="s">
+      <c r="G84" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H84" s="42"/>
-      <c r="I84" s="42"/>
-      <c r="J84" s="42"/>
+      <c r="H84" s="41"/>
+      <c r="I84" s="41"/>
+      <c r="J84" s="41"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="68"/>
+      <c r="A85" s="70">
+        <v>14</v>
+      </c>
       <c r="B85" s="28">
-        <v>41676</v>
+        <v>41673</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -3472,9 +3539,9 @@
       <c r="J85" s="42"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="69"/>
+      <c r="A86" s="71"/>
       <c r="B86" s="28">
-        <v>41677</v>
+        <v>41674</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
@@ -3491,62 +3558,68 @@
       <c r="J86" s="42"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="64">
+      <c r="A87" s="71"/>
+      <c r="B87" s="28">
+        <v>41675</v>
+      </c>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G87" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H87" s="42"/>
+      <c r="I87" s="42"/>
+      <c r="J87" s="42"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="71"/>
+      <c r="B88" s="28">
+        <v>41676</v>
+      </c>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G88" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H88" s="42"/>
+      <c r="I88" s="42"/>
+      <c r="J88" s="42"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="72"/>
+      <c r="B89" s="28">
+        <v>41677</v>
+      </c>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G89" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H89" s="42"/>
+      <c r="I89" s="42"/>
+      <c r="J89" s="42"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="67">
         <v>15</v>
       </c>
-      <c r="B87" s="27">
+      <c r="B90" s="27">
         <v>41680</v>
-      </c>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G87" s="41"/>
-      <c r="H87" s="41"/>
-      <c r="I87" s="41"/>
-      <c r="J87" s="41"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="65"/>
-      <c r="B88" s="27">
-        <v>41681</v>
-      </c>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G88" s="41"/>
-      <c r="H88" s="41"/>
-      <c r="I88" s="41"/>
-      <c r="J88" s="41"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="65"/>
-      <c r="B89" s="27">
-        <v>41682</v>
-      </c>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G89" s="41"/>
-      <c r="H89" s="41"/>
-      <c r="I89" s="41"/>
-      <c r="J89" s="41"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="65"/>
-      <c r="B90" s="27">
-        <v>41683</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
@@ -3561,15 +3634,15 @@
       <c r="J90" s="41"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="66"/>
+      <c r="A91" s="68"/>
       <c r="B91" s="27">
-        <v>41684</v>
+        <v>41681</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
       <c r="F91" s="5">
-        <f t="shared" ref="F91:F122" si="2">E91</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G91" s="41"/>
@@ -3578,62 +3651,62 @@
       <c r="J91" s="41"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="67">
-        <v>16</v>
-      </c>
-      <c r="B92" s="28">
-        <v>41687</v>
-      </c>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G92" s="42"/>
-      <c r="H92" s="42"/>
-      <c r="I92" s="42"/>
-      <c r="J92" s="42"/>
+      <c r="A92" s="68"/>
+      <c r="B92" s="27">
+        <v>41682</v>
+      </c>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G92" s="41"/>
+      <c r="H92" s="41"/>
+      <c r="I92" s="41"/>
+      <c r="J92" s="41"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="68"/>
-      <c r="B93" s="28">
-        <v>41688</v>
-      </c>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G93" s="42"/>
-      <c r="H93" s="42"/>
-      <c r="I93" s="42"/>
-      <c r="J93" s="42"/>
+      <c r="B93" s="27">
+        <v>41683</v>
+      </c>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G93" s="41"/>
+      <c r="H93" s="41"/>
+      <c r="I93" s="41"/>
+      <c r="J93" s="41"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="68"/>
-      <c r="B94" s="28">
-        <v>41689</v>
-      </c>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G94" s="42"/>
-      <c r="H94" s="42"/>
-      <c r="I94" s="42"/>
-      <c r="J94" s="42"/>
+      <c r="A94" s="69"/>
+      <c r="B94" s="27">
+        <v>41684</v>
+      </c>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5">
+        <f t="shared" ref="F94:F125" si="2">E94</f>
+        <v>0</v>
+      </c>
+      <c r="G94" s="41"/>
+      <c r="H94" s="41"/>
+      <c r="I94" s="41"/>
+      <c r="J94" s="41"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="68"/>
+      <c r="A95" s="70">
+        <v>16</v>
+      </c>
       <c r="B95" s="28">
-        <v>41690</v>
+        <v>41687</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -3648,9 +3721,9 @@
       <c r="J95" s="42"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="69"/>
+      <c r="A96" s="71"/>
       <c r="B96" s="28">
-        <v>41691</v>
+        <v>41688</v>
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -3665,62 +3738,62 @@
       <c r="J96" s="42"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="64">
+      <c r="A97" s="71"/>
+      <c r="B97" s="28">
+        <v>41689</v>
+      </c>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G97" s="42"/>
+      <c r="H97" s="42"/>
+      <c r="I97" s="42"/>
+      <c r="J97" s="42"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="71"/>
+      <c r="B98" s="28">
+        <v>41690</v>
+      </c>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G98" s="42"/>
+      <c r="H98" s="42"/>
+      <c r="I98" s="42"/>
+      <c r="J98" s="42"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="72"/>
+      <c r="B99" s="28">
+        <v>41691</v>
+      </c>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G99" s="42"/>
+      <c r="H99" s="42"/>
+      <c r="I99" s="42"/>
+      <c r="J99" s="42"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="67">
         <v>17</v>
       </c>
-      <c r="B97" s="27">
+      <c r="B100" s="27">
         <v>41694</v>
-      </c>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G97" s="41"/>
-      <c r="H97" s="41"/>
-      <c r="I97" s="41"/>
-      <c r="J97" s="41"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="65"/>
-      <c r="B98" s="27">
-        <v>41695</v>
-      </c>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G98" s="41"/>
-      <c r="H98" s="41"/>
-      <c r="I98" s="41"/>
-      <c r="J98" s="41"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="65"/>
-      <c r="B99" s="27">
-        <v>41696</v>
-      </c>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G99" s="41"/>
-      <c r="H99" s="41"/>
-      <c r="I99" s="41"/>
-      <c r="J99" s="41"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="65"/>
-      <c r="B100" s="27">
-        <v>41697</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
@@ -3735,9 +3808,9 @@
       <c r="J100" s="41"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="66"/>
+      <c r="A101" s="68"/>
       <c r="B101" s="27">
-        <v>41698</v>
+        <v>41695</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
@@ -3752,62 +3825,62 @@
       <c r="J101" s="41"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="67">
-        <v>18</v>
-      </c>
-      <c r="B102" s="28">
-        <v>41701</v>
-      </c>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6">
+      <c r="A102" s="68"/>
+      <c r="B102" s="27">
+        <v>41696</v>
+      </c>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G102" s="42"/>
-      <c r="H102" s="42"/>
-      <c r="I102" s="42"/>
-      <c r="J102" s="42"/>
+      <c r="G102" s="41"/>
+      <c r="H102" s="41"/>
+      <c r="I102" s="41"/>
+      <c r="J102" s="41"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="68"/>
-      <c r="B103" s="28">
-        <v>41702</v>
-      </c>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6">
+      <c r="B103" s="27">
+        <v>41697</v>
+      </c>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G103" s="42"/>
-      <c r="H103" s="42"/>
-      <c r="I103" s="42"/>
-      <c r="J103" s="42"/>
+      <c r="G103" s="41"/>
+      <c r="H103" s="41"/>
+      <c r="I103" s="41"/>
+      <c r="J103" s="41"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="68"/>
-      <c r="B104" s="28">
-        <v>41703</v>
-      </c>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6">
+      <c r="A104" s="69"/>
+      <c r="B104" s="27">
+        <v>41698</v>
+      </c>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G104" s="42"/>
-      <c r="H104" s="42"/>
-      <c r="I104" s="42"/>
-      <c r="J104" s="42"/>
+      <c r="G104" s="41"/>
+      <c r="H104" s="41"/>
+      <c r="I104" s="41"/>
+      <c r="J104" s="41"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="68"/>
+      <c r="A105" s="70">
+        <v>18</v>
+      </c>
       <c r="B105" s="28">
-        <v>41704</v>
+        <v>41701</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -3822,9 +3895,9 @@
       <c r="J105" s="42"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="69"/>
+      <c r="A106" s="71"/>
       <c r="B106" s="28">
-        <v>41705</v>
+        <v>41702</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -3839,62 +3912,62 @@
       <c r="J106" s="42"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="64">
+      <c r="A107" s="71"/>
+      <c r="B107" s="28">
+        <v>41703</v>
+      </c>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G107" s="42"/>
+      <c r="H107" s="42"/>
+      <c r="I107" s="42"/>
+      <c r="J107" s="42"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="71"/>
+      <c r="B108" s="28">
+        <v>41704</v>
+      </c>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G108" s="42"/>
+      <c r="H108" s="42"/>
+      <c r="I108" s="42"/>
+      <c r="J108" s="42"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="72"/>
+      <c r="B109" s="28">
+        <v>41705</v>
+      </c>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G109" s="42"/>
+      <c r="H109" s="42"/>
+      <c r="I109" s="42"/>
+      <c r="J109" s="42"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="67">
         <v>19</v>
       </c>
-      <c r="B107" s="27">
+      <c r="B110" s="27">
         <v>41708</v>
-      </c>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G107" s="41"/>
-      <c r="H107" s="41"/>
-      <c r="I107" s="41"/>
-      <c r="J107" s="41"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="65"/>
-      <c r="B108" s="27">
-        <v>41709</v>
-      </c>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G108" s="41"/>
-      <c r="H108" s="41"/>
-      <c r="I108" s="41"/>
-      <c r="J108" s="41"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="65"/>
-      <c r="B109" s="27">
-        <v>41710</v>
-      </c>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G109" s="41"/>
-      <c r="H109" s="41"/>
-      <c r="I109" s="41"/>
-      <c r="J109" s="41"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="65"/>
-      <c r="B110" s="27">
-        <v>41711</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
@@ -3909,9 +3982,9 @@
       <c r="J110" s="41"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="66"/>
+      <c r="A111" s="68"/>
       <c r="B111" s="27">
-        <v>41712</v>
+        <v>41709</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
@@ -3926,62 +3999,62 @@
       <c r="J111" s="41"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="67">
-        <v>20</v>
-      </c>
-      <c r="B112" s="28">
-        <v>41715</v>
-      </c>
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6">
+      <c r="A112" s="68"/>
+      <c r="B112" s="27">
+        <v>41710</v>
+      </c>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G112" s="42"/>
-      <c r="H112" s="42"/>
-      <c r="I112" s="42"/>
-      <c r="J112" s="42"/>
+      <c r="G112" s="41"/>
+      <c r="H112" s="41"/>
+      <c r="I112" s="41"/>
+      <c r="J112" s="41"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="68"/>
-      <c r="B113" s="28">
-        <v>41716</v>
-      </c>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6">
+      <c r="B113" s="27">
+        <v>41711</v>
+      </c>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G113" s="42"/>
-      <c r="H113" s="42"/>
-      <c r="I113" s="42"/>
-      <c r="J113" s="42"/>
+      <c r="G113" s="41"/>
+      <c r="H113" s="41"/>
+      <c r="I113" s="41"/>
+      <c r="J113" s="41"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="68"/>
-      <c r="B114" s="28">
-        <v>41717</v>
-      </c>
-      <c r="C114" s="6"/>
-      <c r="D114" s="6"/>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6">
+      <c r="A114" s="69"/>
+      <c r="B114" s="27">
+        <v>41712</v>
+      </c>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G114" s="42"/>
-      <c r="H114" s="42"/>
-      <c r="I114" s="42"/>
-      <c r="J114" s="42"/>
+      <c r="G114" s="41"/>
+      <c r="H114" s="41"/>
+      <c r="I114" s="41"/>
+      <c r="J114" s="41"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="68"/>
+      <c r="A115" s="70">
+        <v>20</v>
+      </c>
       <c r="B115" s="28">
-        <v>41718</v>
+        <v>41715</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -3996,9 +4069,9 @@
       <c r="J115" s="42"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="69"/>
+      <c r="A116" s="71"/>
       <c r="B116" s="28">
-        <v>41719</v>
+        <v>41716</v>
       </c>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
@@ -4013,62 +4086,62 @@
       <c r="J116" s="42"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="64">
+      <c r="A117" s="71"/>
+      <c r="B117" s="28">
+        <v>41717</v>
+      </c>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G117" s="42"/>
+      <c r="H117" s="42"/>
+      <c r="I117" s="42"/>
+      <c r="J117" s="42"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="71"/>
+      <c r="B118" s="28">
+        <v>41718</v>
+      </c>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G118" s="42"/>
+      <c r="H118" s="42"/>
+      <c r="I118" s="42"/>
+      <c r="J118" s="42"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="72"/>
+      <c r="B119" s="28">
+        <v>41719</v>
+      </c>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G119" s="42"/>
+      <c r="H119" s="42"/>
+      <c r="I119" s="42"/>
+      <c r="J119" s="42"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="67">
         <v>21</v>
       </c>
-      <c r="B117" s="27">
+      <c r="B120" s="27">
         <v>41722</v>
-      </c>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G117" s="41"/>
-      <c r="H117" s="41"/>
-      <c r="I117" s="41"/>
-      <c r="J117" s="41"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="65"/>
-      <c r="B118" s="27">
-        <v>41723</v>
-      </c>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G118" s="41"/>
-      <c r="H118" s="41"/>
-      <c r="I118" s="41"/>
-      <c r="J118" s="41"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="65"/>
-      <c r="B119" s="27">
-        <v>41724</v>
-      </c>
-      <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G119" s="41"/>
-      <c r="H119" s="41"/>
-      <c r="I119" s="41"/>
-      <c r="J119" s="41"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="65"/>
-      <c r="B120" s="27">
-        <v>41725</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
@@ -4083,9 +4156,9 @@
       <c r="J120" s="41"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="66"/>
+      <c r="A121" s="68"/>
       <c r="B121" s="27">
-        <v>41726</v>
+        <v>41723</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
@@ -4100,68 +4173,68 @@
       <c r="J121" s="41"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="67">
-        <v>22</v>
-      </c>
-      <c r="B122" s="28">
-        <v>41729</v>
-      </c>
-      <c r="C122" s="6"/>
-      <c r="D122" s="6"/>
-      <c r="E122" s="6"/>
-      <c r="F122" s="6">
+      <c r="A122" s="68"/>
+      <c r="B122" s="27">
+        <v>41724</v>
+      </c>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G122" s="42"/>
-      <c r="H122" s="42"/>
-      <c r="I122" s="42"/>
-      <c r="J122" s="42"/>
+      <c r="G122" s="41"/>
+      <c r="H122" s="41"/>
+      <c r="I122" s="41"/>
+      <c r="J122" s="41"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="68"/>
-      <c r="B123" s="28">
-        <v>41730</v>
-      </c>
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
-      <c r="F123" s="6">
-        <f t="shared" ref="F123:F154" si="3">E123</f>
-        <v>0</v>
-      </c>
-      <c r="G123" s="42"/>
-      <c r="H123" s="42"/>
-      <c r="I123" s="42"/>
-      <c r="J123" s="42"/>
+      <c r="B123" s="27">
+        <v>41725</v>
+      </c>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G123" s="41"/>
+      <c r="H123" s="41"/>
+      <c r="I123" s="41"/>
+      <c r="J123" s="41"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="68"/>
-      <c r="B124" s="28">
-        <v>41731</v>
-      </c>
-      <c r="C124" s="6"/>
-      <c r="D124" s="6"/>
-      <c r="E124" s="6"/>
-      <c r="F124" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G124" s="42"/>
-      <c r="H124" s="42"/>
-      <c r="I124" s="42"/>
-      <c r="J124" s="42"/>
+      <c r="A124" s="69"/>
+      <c r="B124" s="27">
+        <v>41726</v>
+      </c>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G124" s="41"/>
+      <c r="H124" s="41"/>
+      <c r="I124" s="41"/>
+      <c r="J124" s="41"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="68"/>
+      <c r="A125" s="70">
+        <v>22</v>
+      </c>
       <c r="B125" s="28">
-        <v>41732</v>
+        <v>41729</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
       <c r="E125" s="6"/>
       <c r="F125" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G125" s="42"/>
@@ -4170,15 +4243,15 @@
       <c r="J125" s="42"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="69"/>
+      <c r="A126" s="71"/>
       <c r="B126" s="28">
-        <v>41733</v>
+        <v>41730</v>
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
       <c r="E126" s="6"/>
       <c r="F126" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F126:F157" si="3">E126</f>
         <v>0</v>
       </c>
       <c r="G126" s="42"/>
@@ -4187,62 +4260,62 @@
       <c r="J126" s="42"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="64">
+      <c r="A127" s="71"/>
+      <c r="B127" s="28">
+        <v>41731</v>
+      </c>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G127" s="42"/>
+      <c r="H127" s="42"/>
+      <c r="I127" s="42"/>
+      <c r="J127" s="42"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="71"/>
+      <c r="B128" s="28">
+        <v>41732</v>
+      </c>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G128" s="42"/>
+      <c r="H128" s="42"/>
+      <c r="I128" s="42"/>
+      <c r="J128" s="42"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="72"/>
+      <c r="B129" s="28">
+        <v>41733</v>
+      </c>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G129" s="42"/>
+      <c r="H129" s="42"/>
+      <c r="I129" s="42"/>
+      <c r="J129" s="42"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="67">
         <v>23</v>
       </c>
-      <c r="B127" s="27">
+      <c r="B130" s="27">
         <v>41736</v>
-      </c>
-      <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="5"/>
-      <c r="F127" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G127" s="41"/>
-      <c r="H127" s="41"/>
-      <c r="I127" s="41"/>
-      <c r="J127" s="41"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="65"/>
-      <c r="B128" s="27">
-        <v>41737</v>
-      </c>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G128" s="41"/>
-      <c r="H128" s="41"/>
-      <c r="I128" s="41"/>
-      <c r="J128" s="41"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="65"/>
-      <c r="B129" s="27">
-        <v>41738</v>
-      </c>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G129" s="41"/>
-      <c r="H129" s="41"/>
-      <c r="I129" s="41"/>
-      <c r="J129" s="41"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="65"/>
-      <c r="B130" s="27">
-        <v>41739</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
@@ -4257,9 +4330,9 @@
       <c r="J130" s="41"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="66"/>
+      <c r="A131" s="68"/>
       <c r="B131" s="27">
-        <v>41740</v>
+        <v>41737</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
@@ -4274,62 +4347,62 @@
       <c r="J131" s="41"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="67">
-        <v>24</v>
-      </c>
-      <c r="B132" s="28">
-        <v>41743</v>
-      </c>
-      <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
-      <c r="E132" s="6"/>
-      <c r="F132" s="6">
+      <c r="A132" s="68"/>
+      <c r="B132" s="27">
+        <v>41738</v>
+      </c>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G132" s="42"/>
-      <c r="H132" s="42"/>
-      <c r="I132" s="42"/>
-      <c r="J132" s="42"/>
+      <c r="G132" s="41"/>
+      <c r="H132" s="41"/>
+      <c r="I132" s="41"/>
+      <c r="J132" s="41"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="68"/>
-      <c r="B133" s="28">
-        <v>41744</v>
-      </c>
-      <c r="C133" s="6"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="6"/>
-      <c r="F133" s="6">
+      <c r="B133" s="27">
+        <v>41739</v>
+      </c>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G133" s="42"/>
-      <c r="H133" s="42"/>
-      <c r="I133" s="42"/>
-      <c r="J133" s="42"/>
+      <c r="G133" s="41"/>
+      <c r="H133" s="41"/>
+      <c r="I133" s="41"/>
+      <c r="J133" s="41"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="68"/>
-      <c r="B134" s="28">
-        <v>41745</v>
-      </c>
-      <c r="C134" s="6"/>
-      <c r="D134" s="6"/>
-      <c r="E134" s="6"/>
-      <c r="F134" s="6">
+      <c r="A134" s="69"/>
+      <c r="B134" s="27">
+        <v>41740</v>
+      </c>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G134" s="42"/>
-      <c r="H134" s="42"/>
-      <c r="I134" s="42"/>
-      <c r="J134" s="42"/>
+      <c r="G134" s="41"/>
+      <c r="H134" s="41"/>
+      <c r="I134" s="41"/>
+      <c r="J134" s="41"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="68"/>
+      <c r="A135" s="70">
+        <v>24</v>
+      </c>
       <c r="B135" s="28">
-        <v>41746</v>
+        <v>41743</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
@@ -4344,9 +4417,9 @@
       <c r="J135" s="42"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="69"/>
+      <c r="A136" s="71"/>
       <c r="B136" s="28">
-        <v>41747</v>
+        <v>41744</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
@@ -4361,62 +4434,62 @@
       <c r="J136" s="42"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="64">
+      <c r="A137" s="71"/>
+      <c r="B137" s="28">
+        <v>41745</v>
+      </c>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G137" s="42"/>
+      <c r="H137" s="42"/>
+      <c r="I137" s="42"/>
+      <c r="J137" s="42"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="71"/>
+      <c r="B138" s="28">
+        <v>41746</v>
+      </c>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G138" s="42"/>
+      <c r="H138" s="42"/>
+      <c r="I138" s="42"/>
+      <c r="J138" s="42"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="72"/>
+      <c r="B139" s="28">
+        <v>41747</v>
+      </c>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G139" s="42"/>
+      <c r="H139" s="42"/>
+      <c r="I139" s="42"/>
+      <c r="J139" s="42"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="67">
         <v>25</v>
       </c>
-      <c r="B137" s="27">
+      <c r="B140" s="27">
         <v>41750</v>
-      </c>
-      <c r="C137" s="5"/>
-      <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G137" s="41"/>
-      <c r="H137" s="41"/>
-      <c r="I137" s="41"/>
-      <c r="J137" s="41"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="65"/>
-      <c r="B138" s="27">
-        <v>41751</v>
-      </c>
-      <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G138" s="41"/>
-      <c r="H138" s="41"/>
-      <c r="I138" s="41"/>
-      <c r="J138" s="41"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="65"/>
-      <c r="B139" s="27">
-        <v>41752</v>
-      </c>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
-      <c r="E139" s="5"/>
-      <c r="F139" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G139" s="41"/>
-      <c r="H139" s="41"/>
-      <c r="I139" s="41"/>
-      <c r="J139" s="41"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="65"/>
-      <c r="B140" s="27">
-        <v>41753</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
@@ -4431,9 +4504,9 @@
       <c r="J140" s="41"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="66"/>
+      <c r="A141" s="68"/>
       <c r="B141" s="27">
-        <v>41754</v>
+        <v>41751</v>
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
@@ -4448,62 +4521,62 @@
       <c r="J141" s="41"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="67">
-        <v>26</v>
-      </c>
-      <c r="B142" s="28">
-        <v>41757</v>
-      </c>
-      <c r="C142" s="6"/>
-      <c r="D142" s="6"/>
-      <c r="E142" s="6"/>
-      <c r="F142" s="6">
+      <c r="A142" s="68"/>
+      <c r="B142" s="27">
+        <v>41752</v>
+      </c>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G142" s="42"/>
-      <c r="H142" s="42"/>
-      <c r="I142" s="42"/>
-      <c r="J142" s="42"/>
+      <c r="G142" s="41"/>
+      <c r="H142" s="41"/>
+      <c r="I142" s="41"/>
+      <c r="J142" s="41"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="68"/>
-      <c r="B143" s="28">
-        <v>41758</v>
-      </c>
-      <c r="C143" s="6"/>
-      <c r="D143" s="6"/>
-      <c r="E143" s="6"/>
-      <c r="F143" s="6">
+      <c r="B143" s="27">
+        <v>41753</v>
+      </c>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G143" s="42"/>
-      <c r="H143" s="42"/>
-      <c r="I143" s="42"/>
-      <c r="J143" s="42"/>
+      <c r="G143" s="41"/>
+      <c r="H143" s="41"/>
+      <c r="I143" s="41"/>
+      <c r="J143" s="41"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="68"/>
-      <c r="B144" s="28">
-        <v>41759</v>
-      </c>
-      <c r="C144" s="6"/>
-      <c r="D144" s="6"/>
-      <c r="E144" s="6"/>
-      <c r="F144" s="6">
+      <c r="A144" s="69"/>
+      <c r="B144" s="27">
+        <v>41754</v>
+      </c>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G144" s="42"/>
-      <c r="H144" s="42"/>
-      <c r="I144" s="42"/>
-      <c r="J144" s="42"/>
+      <c r="G144" s="41"/>
+      <c r="H144" s="41"/>
+      <c r="I144" s="41"/>
+      <c r="J144" s="41"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="68"/>
+      <c r="A145" s="70">
+        <v>26</v>
+      </c>
       <c r="B145" s="28">
-        <v>41760</v>
+        <v>41757</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
@@ -4518,9 +4591,9 @@
       <c r="J145" s="42"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="69"/>
+      <c r="A146" s="71"/>
       <c r="B146" s="28">
-        <v>41761</v>
+        <v>41758</v>
       </c>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
@@ -4535,62 +4608,62 @@
       <c r="J146" s="42"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="64">
+      <c r="A147" s="71"/>
+      <c r="B147" s="28">
+        <v>41759</v>
+      </c>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+      <c r="F147" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G147" s="42"/>
+      <c r="H147" s="42"/>
+      <c r="I147" s="42"/>
+      <c r="J147" s="42"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="71"/>
+      <c r="B148" s="28">
+        <v>41760</v>
+      </c>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+      <c r="F148" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G148" s="42"/>
+      <c r="H148" s="42"/>
+      <c r="I148" s="42"/>
+      <c r="J148" s="42"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="72"/>
+      <c r="B149" s="28">
+        <v>41761</v>
+      </c>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+      <c r="F149" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G149" s="42"/>
+      <c r="H149" s="42"/>
+      <c r="I149" s="42"/>
+      <c r="J149" s="42"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="67">
         <v>27</v>
       </c>
-      <c r="B147" s="27">
+      <c r="B150" s="27">
         <v>41764</v>
-      </c>
-      <c r="C147" s="5"/>
-      <c r="D147" s="5"/>
-      <c r="E147" s="5"/>
-      <c r="F147" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G147" s="41"/>
-      <c r="H147" s="41"/>
-      <c r="I147" s="41"/>
-      <c r="J147" s="41"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="65"/>
-      <c r="B148" s="27">
-        <v>41765</v>
-      </c>
-      <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
-      <c r="E148" s="5"/>
-      <c r="F148" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G148" s="41"/>
-      <c r="H148" s="41"/>
-      <c r="I148" s="41"/>
-      <c r="J148" s="41"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="65"/>
-      <c r="B149" s="27">
-        <v>41766</v>
-      </c>
-      <c r="C149" s="5"/>
-      <c r="D149" s="5"/>
-      <c r="E149" s="5"/>
-      <c r="F149" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G149" s="41"/>
-      <c r="H149" s="41"/>
-      <c r="I149" s="41"/>
-      <c r="J149" s="41"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="65"/>
-      <c r="B150" s="27">
-        <v>41767</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
@@ -4605,9 +4678,9 @@
       <c r="J150" s="41"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="66"/>
+      <c r="A151" s="68"/>
       <c r="B151" s="27">
-        <v>41768</v>
+        <v>41765</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
@@ -4622,68 +4695,68 @@
       <c r="J151" s="41"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="67">
-        <v>28</v>
-      </c>
-      <c r="B152" s="28">
-        <v>41771</v>
-      </c>
-      <c r="C152" s="6"/>
-      <c r="D152" s="6"/>
-      <c r="E152" s="6"/>
-      <c r="F152" s="6">
+      <c r="A152" s="68"/>
+      <c r="B152" s="27">
+        <v>41766</v>
+      </c>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G152" s="42"/>
-      <c r="H152" s="42"/>
-      <c r="I152" s="42"/>
-      <c r="J152" s="42"/>
+      <c r="G152" s="41"/>
+      <c r="H152" s="41"/>
+      <c r="I152" s="41"/>
+      <c r="J152" s="41"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="68"/>
-      <c r="B153" s="28">
-        <v>41772</v>
-      </c>
-      <c r="C153" s="6"/>
-      <c r="D153" s="6"/>
-      <c r="E153" s="6"/>
-      <c r="F153" s="6">
+      <c r="B153" s="27">
+        <v>41767</v>
+      </c>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G153" s="42"/>
-      <c r="H153" s="42"/>
-      <c r="I153" s="42"/>
-      <c r="J153" s="42"/>
+      <c r="G153" s="41"/>
+      <c r="H153" s="41"/>
+      <c r="I153" s="41"/>
+      <c r="J153" s="41"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="68"/>
-      <c r="B154" s="28">
-        <v>41773</v>
-      </c>
-      <c r="C154" s="6"/>
-      <c r="D154" s="6"/>
-      <c r="E154" s="6"/>
-      <c r="F154" s="6">
+      <c r="A154" s="69"/>
+      <c r="B154" s="27">
+        <v>41768</v>
+      </c>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G154" s="42"/>
-      <c r="H154" s="42"/>
-      <c r="I154" s="42"/>
-      <c r="J154" s="42"/>
+      <c r="G154" s="41"/>
+      <c r="H154" s="41"/>
+      <c r="I154" s="41"/>
+      <c r="J154" s="41"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="68"/>
+      <c r="A155" s="70">
+        <v>28</v>
+      </c>
       <c r="B155" s="28">
-        <v>41774</v>
+        <v>41771</v>
       </c>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
       <c r="E155" s="6"/>
       <c r="F155" s="6">
-        <f t="shared" ref="F155:F166" si="4">E155</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G155" s="42"/>
@@ -4692,15 +4765,15 @@
       <c r="J155" s="42"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="69"/>
+      <c r="A156" s="71"/>
       <c r="B156" s="28">
-        <v>41775</v>
+        <v>41772</v>
       </c>
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
       <c r="E156" s="6"/>
       <c r="F156" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G156" s="42"/>
@@ -4709,62 +4782,62 @@
       <c r="J156" s="42"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="64">
+      <c r="A157" s="71"/>
+      <c r="B157" s="28">
+        <v>41773</v>
+      </c>
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
+      <c r="F157" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G157" s="42"/>
+      <c r="H157" s="42"/>
+      <c r="I157" s="42"/>
+      <c r="J157" s="42"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" s="71"/>
+      <c r="B158" s="28">
+        <v>41774</v>
+      </c>
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+      <c r="F158" s="6">
+        <f t="shared" ref="F158:F169" si="4">E158</f>
+        <v>0</v>
+      </c>
+      <c r="G158" s="42"/>
+      <c r="H158" s="42"/>
+      <c r="I158" s="42"/>
+      <c r="J158" s="42"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" s="72"/>
+      <c r="B159" s="28">
+        <v>41775</v>
+      </c>
+      <c r="C159" s="6"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6"/>
+      <c r="F159" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G159" s="42"/>
+      <c r="H159" s="42"/>
+      <c r="I159" s="42"/>
+      <c r="J159" s="42"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="67">
         <v>29</v>
       </c>
-      <c r="B157" s="27">
+      <c r="B160" s="27">
         <v>41778</v>
-      </c>
-      <c r="C157" s="5"/>
-      <c r="D157" s="5"/>
-      <c r="E157" s="5"/>
-      <c r="F157" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G157" s="41"/>
-      <c r="H157" s="41"/>
-      <c r="I157" s="41"/>
-      <c r="J157" s="41"/>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="65"/>
-      <c r="B158" s="27">
-        <v>41779</v>
-      </c>
-      <c r="C158" s="5"/>
-      <c r="D158" s="5"/>
-      <c r="E158" s="5"/>
-      <c r="F158" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G158" s="41"/>
-      <c r="H158" s="41"/>
-      <c r="I158" s="41"/>
-      <c r="J158" s="41"/>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="65"/>
-      <c r="B159" s="27">
-        <v>41780</v>
-      </c>
-      <c r="C159" s="5"/>
-      <c r="D159" s="5"/>
-      <c r="E159" s="5"/>
-      <c r="F159" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G159" s="41"/>
-      <c r="H159" s="41"/>
-      <c r="I159" s="41"/>
-      <c r="J159" s="41"/>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="65"/>
-      <c r="B160" s="27">
-        <v>41781</v>
       </c>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
@@ -4779,9 +4852,9 @@
       <c r="J160" s="41"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="66"/>
+      <c r="A161" s="68"/>
       <c r="B161" s="27">
-        <v>41782</v>
+        <v>41779</v>
       </c>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
@@ -4796,62 +4869,62 @@
       <c r="J161" s="41"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="70">
+      <c r="A162" s="68"/>
+      <c r="B162" s="27">
+        <v>41780</v>
+      </c>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G162" s="41"/>
+      <c r="H162" s="41"/>
+      <c r="I162" s="41"/>
+      <c r="J162" s="41"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="68"/>
+      <c r="B163" s="27">
+        <v>41781</v>
+      </c>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G163" s="41"/>
+      <c r="H163" s="41"/>
+      <c r="I163" s="41"/>
+      <c r="J163" s="41"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="69"/>
+      <c r="B164" s="27">
+        <v>41782</v>
+      </c>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G164" s="41"/>
+      <c r="H164" s="41"/>
+      <c r="I164" s="41"/>
+      <c r="J164" s="41"/>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" s="73">
         <v>30</v>
       </c>
-      <c r="B162" s="28">
+      <c r="B165" s="28">
         <v>41785</v>
-      </c>
-      <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
-      <c r="E162" s="2"/>
-      <c r="F162" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G162" s="43"/>
-      <c r="H162" s="43"/>
-      <c r="I162" s="43"/>
-      <c r="J162" s="43"/>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="71"/>
-      <c r="B163" s="28">
-        <v>41786</v>
-      </c>
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
-      <c r="E163" s="2"/>
-      <c r="F163" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G163" s="43"/>
-      <c r="H163" s="43"/>
-      <c r="I163" s="43"/>
-      <c r="J163" s="43"/>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="71"/>
-      <c r="B164" s="28">
-        <v>41787</v>
-      </c>
-      <c r="C164" s="2"/>
-      <c r="D164" s="2"/>
-      <c r="E164" s="2"/>
-      <c r="F164" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G164" s="43"/>
-      <c r="H164" s="43"/>
-      <c r="I164" s="43"/>
-      <c r="J164" s="43"/>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="71"/>
-      <c r="B165" s="28">
-        <v>41788</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
@@ -4866,9 +4939,9 @@
       <c r="J165" s="43"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="72"/>
+      <c r="A166" s="74"/>
       <c r="B166" s="28">
-        <v>41789</v>
+        <v>41786</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
@@ -4882,12 +4955,67 @@
       <c r="I166" s="43"/>
       <c r="J166" s="43"/>
     </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" s="74"/>
+      <c r="B167" s="28">
+        <v>41787</v>
+      </c>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G167" s="43"/>
+      <c r="H167" s="43"/>
+      <c r="I167" s="43"/>
+      <c r="J167" s="43"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="74"/>
+      <c r="B168" s="28">
+        <v>41788</v>
+      </c>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G168" s="43"/>
+      <c r="H168" s="43"/>
+      <c r="I168" s="43"/>
+      <c r="J168" s="43"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" s="75"/>
+      <c r="B169" s="28">
+        <v>41789</v>
+      </c>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G169" s="43"/>
+      <c r="H169" s="43"/>
+      <c r="I169" s="43"/>
+      <c r="J169" s="43"/>
+    </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="58">
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="F31:F32"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="G2:N4"/>
     <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="A65:A69"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F4"/>
@@ -4896,14 +5024,14 @@
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="A50:A54"/>
     <mergeCell ref="A10:A18"/>
-    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="A70:A74"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="F17:F18"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="A85:A89"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="F19:F20"/>
@@ -4915,29 +5043,29 @@
     <mergeCell ref="B25:B30"/>
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="A19:A30"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="A92:A96"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="A112:A116"/>
-    <mergeCell ref="A117:A121"/>
-    <mergeCell ref="A147:A151"/>
-    <mergeCell ref="A152:A156"/>
-    <mergeCell ref="A157:A161"/>
-    <mergeCell ref="A162:A166"/>
-    <mergeCell ref="A122:A126"/>
-    <mergeCell ref="A127:A131"/>
-    <mergeCell ref="A132:A136"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="A142:A146"/>
+    <mergeCell ref="A160:A164"/>
+    <mergeCell ref="A165:A169"/>
+    <mergeCell ref="A125:A129"/>
+    <mergeCell ref="A130:A134"/>
+    <mergeCell ref="A135:A139"/>
+    <mergeCell ref="A140:A144"/>
+    <mergeCell ref="A145:A149"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A19:A32"/>
+    <mergeCell ref="A120:A124"/>
+    <mergeCell ref="A150:A154"/>
+    <mergeCell ref="A155:A159"/>
+    <mergeCell ref="A95:A99"/>
+    <mergeCell ref="A100:A104"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="A110:A114"/>
+    <mergeCell ref="A115:A119"/>
+    <mergeCell ref="A90:A94"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A60:A64"/>
   </mergeCells>
   <conditionalFormatting sqref="M7">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
@@ -5112,67 +5240,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M24:M31</xm:sqref>
+          <xm:sqref>M24:M34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="27" id="{798FB9D7-6FEF-4CEA-8CC2-45EE73486721}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M32</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="26" id="{9D5A3639-C9C5-40BD-82EE-496926295966}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M33</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="25" id="{042E6B91-B838-419B-9746-9D04172CBCE2}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="24" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5191,7 +5262,7 @@
           <xm:sqref>M35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="23" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
+          <x14:cfRule type="iconSet" priority="26" id="{9D5A3639-C9C5-40BD-82EE-496926295966}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5210,7 +5281,7 @@
           <xm:sqref>M36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="22" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
+          <x14:cfRule type="iconSet" priority="25" id="{042E6B91-B838-419B-9746-9D04172CBCE2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5229,7 +5300,7 @@
           <xm:sqref>M37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="21" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
+          <x14:cfRule type="iconSet" priority="24" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5248,7 +5319,7 @@
           <xm:sqref>M38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="20" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
+          <x14:cfRule type="iconSet" priority="23" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5267,7 +5338,7 @@
           <xm:sqref>M39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="19" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
+          <x14:cfRule type="iconSet" priority="22" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5286,7 +5357,7 @@
           <xm:sqref>M40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
+          <x14:cfRule type="iconSet" priority="21" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5305,7 +5376,7 @@
           <xm:sqref>M41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="17" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
+          <x14:cfRule type="iconSet" priority="20" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5324,7 +5395,7 @@
           <xm:sqref>M42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="16" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
+          <x14:cfRule type="iconSet" priority="19" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5343,7 +5414,7 @@
           <xm:sqref>M43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="15" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
+          <x14:cfRule type="iconSet" priority="18" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5362,7 +5433,7 @@
           <xm:sqref>M44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
+          <x14:cfRule type="iconSet" priority="17" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5381,7 +5452,7 @@
           <xm:sqref>M45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
+          <x14:cfRule type="iconSet" priority="16" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5400,7 +5471,7 @@
           <xm:sqref>M46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+          <x14:cfRule type="iconSet" priority="15" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5419,7 +5490,7 @@
           <xm:sqref>M47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="11" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+          <x14:cfRule type="iconSet" priority="14" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5438,7 +5509,7 @@
           <xm:sqref>M48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="10" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+          <x14:cfRule type="iconSet" priority="13" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5455,6 +5526,63 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>M49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="12" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M50</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="11" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M51</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="10" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="9" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
@@ -5511,7 +5639,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F19 F7:F8 F12:F14 F16 F21 F25 F23 F32:F166</xm:sqref>
+          <xm:sqref>F19 F7:F8 F12:F14 F16 F21 F25 F23 F35:F169</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNgo.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNgo.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="102">
   <si>
     <t>Week</t>
   </si>
@@ -338,6 +338,24 @@
   </si>
   <si>
     <t>conduct stage 7-8 ACDM</t>
+  </si>
+  <si>
+    <t>update master design plan
+update product schedule
+update sprint life cycle</t>
+  </si>
+  <si>
+    <t>reading</t>
+  </si>
+  <si>
+    <t>review documents</t>
+  </si>
+  <si>
+    <t>presents about : process,change management,risk management,measure management,…</t>
+  </si>
+  <si>
+    <t>devide task
+overall about website system</t>
   </si>
 </sst>
 </file>
@@ -642,7 +660,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -810,54 +828,60 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="18" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -879,6 +903,72 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -923,66 +1013,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1417,13 +1447,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O169"/>
+  <dimension ref="A1:O171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
+      <selection pane="bottomRight" activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1434,7 +1464,7 @@
     <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="50.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="47.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="1" customWidth="1"/>
@@ -1445,81 +1475,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="90"/>
+      <c r="A1" s="112"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="114"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="91" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="93"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="117"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="96"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="120"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="109"/>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="99"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="122"/>
+      <c r="M4" s="122"/>
+      <c r="N4" s="123"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="116"/>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="118"/>
+      <c r="A5" s="103"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="105"/>
       <c r="F5" s="16"/>
       <c r="H5" s="45" t="s">
         <v>66</v>
@@ -1564,13 +1594,13 @@
       <c r="J6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="122"/>
-      <c r="L6" s="122"/>
-      <c r="M6" s="122"/>
-      <c r="N6" s="122"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
     </row>
     <row r="7" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="100">
+      <c r="A7" s="124">
         <v>1</v>
       </c>
       <c r="B7" s="17">
@@ -1602,16 +1632,16 @@
       </c>
       <c r="L7" s="76"/>
       <c r="M7" s="34">
-        <f>SUM(M8:M52)</f>
-        <v>13.403</v>
+        <f>SUM(M8:M54)</f>
+        <v>20.152999999999999</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="101"/>
-      <c r="B8" s="112">
+      <c r="A8" s="125"/>
+      <c r="B8" s="99">
         <v>41586</v>
       </c>
       <c r="C8" s="18">
@@ -1623,7 +1653,7 @@
       <c r="E8" s="19">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F8" s="114">
+      <c r="F8" s="101">
         <f>SUM(E8:E9)</f>
         <v>1.66</v>
       </c>
@@ -1648,8 +1678,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="102"/>
-      <c r="B9" s="113"/>
+      <c r="A9" s="126"/>
+      <c r="B9" s="100"/>
       <c r="C9" s="18">
         <v>0.63194444444444442</v>
       </c>
@@ -1659,7 +1689,7 @@
       <c r="E9" s="19">
         <v>0.5</v>
       </c>
-      <c r="F9" s="115"/>
+      <c r="F9" s="102"/>
       <c r="G9" s="31" t="s">
         <v>25</v>
       </c>
@@ -1670,7 +1700,7 @@
       <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="119">
+      <c r="A10" s="106">
         <v>2</v>
       </c>
       <c r="B10" s="79">
@@ -1685,7 +1715,7 @@
       <c r="E10" s="56">
         <v>1.5</v>
       </c>
-      <c r="F10" s="83">
+      <c r="F10" s="85">
         <f>SUM(E10:E11)</f>
         <v>2.5</v>
       </c>
@@ -1699,7 +1729,7 @@
       <c r="J10" s="57"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="120"/>
+      <c r="A11" s="107"/>
       <c r="B11" s="80"/>
       <c r="C11" s="55">
         <v>0.875</v>
@@ -1710,7 +1740,7 @@
       <c r="E11" s="56">
         <v>1</v>
       </c>
-      <c r="F11" s="84"/>
+      <c r="F11" s="86"/>
       <c r="G11" s="57" t="s">
         <v>30</v>
       </c>
@@ -1721,7 +1751,7 @@
       <c r="J11" s="57"/>
     </row>
     <row r="12" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A12" s="120"/>
+      <c r="A12" s="107"/>
       <c r="B12" s="79">
         <v>41590</v>
       </c>
@@ -1762,7 +1792,7 @@
       <c r="O12" s="36"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="120"/>
+      <c r="A13" s="107"/>
       <c r="B13" s="80"/>
       <c r="C13" s="23">
         <v>0.875</v>
@@ -1792,7 +1822,7 @@
       <c r="O13" s="36"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="120"/>
+      <c r="A14" s="107"/>
       <c r="B14" s="79">
         <v>41592</v>
       </c>
@@ -1824,15 +1854,15 @@
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="10">
-        <f>SUM(E35:E39)</f>
-        <v>0</v>
+        <f>SUM(E35:E41)</f>
+        <v>6.75</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="120"/>
+      <c r="A15" s="107"/>
       <c r="B15" s="80"/>
       <c r="C15" s="26">
         <v>0.42708333333333331</v>
@@ -1858,7 +1888,7 @@
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="120"/>
+      <c r="A16" s="107"/>
       <c r="B16" s="46">
         <v>41593</v>
       </c>
@@ -1890,7 +1920,7 @@
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="10">
-        <f>SUM(E40:E44)</f>
+        <f>SUM(E42:E46)</f>
         <v>0</v>
       </c>
       <c r="N16" s="3" t="s">
@@ -1898,7 +1928,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="120"/>
+      <c r="A17" s="107"/>
       <c r="B17" s="79">
         <v>41594</v>
       </c>
@@ -1930,7 +1960,7 @@
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="10">
-        <f>SUM(E50:E54)</f>
+        <f>SUM(E52:E56)</f>
         <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
@@ -1938,7 +1968,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="121"/>
+      <c r="A18" s="108"/>
       <c r="B18" s="80"/>
       <c r="C18" s="26">
         <v>0.83333333333333337</v>
@@ -1969,7 +1999,7 @@
       <c r="A19" s="67">
         <v>3</v>
       </c>
-      <c r="B19" s="65">
+      <c r="B19" s="81">
         <v>41596</v>
       </c>
       <c r="C19" s="53">
@@ -2000,7 +2030,7 @@
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="10">
-        <f>SUM(E55:E59)</f>
+        <f>SUM(E57:E61)</f>
         <v>0</v>
       </c>
       <c r="N19" s="3" t="s">
@@ -2009,7 +2039,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="68"/>
-      <c r="B20" s="66"/>
+      <c r="B20" s="82"/>
       <c r="C20" s="53">
         <v>0.89236111111111116</v>
       </c>
@@ -2035,7 +2065,7 @@
     </row>
     <row r="21" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A21" s="68"/>
-      <c r="B21" s="81">
+      <c r="B21" s="83">
         <v>41597</v>
       </c>
       <c r="C21" s="53">
@@ -2064,7 +2094,7 @@
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="10">
-        <f>SUM(E60:E64)</f>
+        <f>SUM(E62:E66)</f>
         <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
@@ -2073,7 +2103,7 @@
     </row>
     <row r="22" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="68"/>
-      <c r="B22" s="82"/>
+      <c r="B22" s="84"/>
       <c r="C22" s="53">
         <v>0.91666666666666663</v>
       </c>
@@ -2101,7 +2131,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="68"/>
-      <c r="B23" s="65">
+      <c r="B23" s="81">
         <v>41598</v>
       </c>
       <c r="C23" s="53">
@@ -2113,7 +2143,7 @@
       <c r="E23" s="5">
         <v>1</v>
       </c>
-      <c r="F23" s="86">
+      <c r="F23" s="88">
         <f>SUM(E23:E24)</f>
         <v>3</v>
       </c>
@@ -2130,7 +2160,7 @@
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="10">
-        <f>SUM(E65:E69)</f>
+        <f>SUM(E67:E71)</f>
         <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
@@ -2139,7 +2169,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="68"/>
-      <c r="B24" s="66"/>
+      <c r="B24" s="82"/>
       <c r="C24" s="53">
         <v>0.91666666666666663</v>
       </c>
@@ -2149,7 +2179,7 @@
       <c r="E24" s="5">
         <v>2</v>
       </c>
-      <c r="F24" s="87"/>
+      <c r="F24" s="89"/>
       <c r="G24" s="41" t="s">
         <v>24</v>
       </c>
@@ -2163,7 +2193,7 @@
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="10">
-        <f>SUM(E70:E74)</f>
+        <f>SUM(E72:E76)</f>
         <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
@@ -2172,7 +2202,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="68"/>
-      <c r="B25" s="65">
+      <c r="B25" s="81">
         <v>41599</v>
       </c>
       <c r="C25" s="53">
@@ -2199,9 +2229,9 @@
       <c r="M25" s="10"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="68"/>
-      <c r="B26" s="85"/>
+      <c r="B26" s="87"/>
       <c r="C26" s="53">
         <v>0.375</v>
       </c>
@@ -2227,7 +2257,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="68"/>
-      <c r="B27" s="85"/>
+      <c r="B27" s="87"/>
       <c r="C27" s="53">
         <v>0.4236111111111111</v>
       </c>
@@ -2251,7 +2281,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="68"/>
-      <c r="B28" s="85"/>
+      <c r="B28" s="87"/>
       <c r="C28" s="53">
         <v>0.52083333333333337</v>
       </c>
@@ -2277,7 +2307,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="68"/>
-      <c r="B29" s="85"/>
+      <c r="B29" s="87"/>
       <c r="C29" s="53">
         <v>0.625</v>
       </c>
@@ -2301,7 +2331,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="68"/>
-      <c r="B30" s="66"/>
+      <c r="B30" s="82"/>
       <c r="C30" s="53">
         <v>0.84375</v>
       </c>
@@ -2325,7 +2355,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="68"/>
-      <c r="B31" s="65">
+      <c r="B31" s="81">
         <v>41600</v>
       </c>
       <c r="C31" s="53">
@@ -2337,7 +2367,7 @@
       <c r="E31" s="5">
         <v>1.25</v>
       </c>
-      <c r="F31" s="86">
+      <c r="F31" s="88">
         <f>SUM(E31:E32)</f>
         <v>2.75</v>
       </c>
@@ -2356,7 +2386,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="69"/>
-      <c r="B32" s="66"/>
+      <c r="B32" s="82"/>
       <c r="C32" s="53">
         <v>0.625</v>
       </c>
@@ -2366,7 +2396,7 @@
       <c r="E32" s="5">
         <v>1.5</v>
       </c>
-      <c r="F32" s="87"/>
+      <c r="F32" s="89"/>
       <c r="G32" s="41" t="s">
         <v>88</v>
       </c>
@@ -2382,7 +2412,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="63"/>
-      <c r="B33" s="65">
+      <c r="B33" s="81">
         <v>41601</v>
       </c>
       <c r="C33" s="53">
@@ -2394,7 +2424,7 @@
       <c r="E33" s="5">
         <v>0.25</v>
       </c>
-      <c r="F33" s="86">
+      <c r="F33" s="88">
         <f>SUM(E33:E34)</f>
         <v>1.5</v>
       </c>
@@ -2413,7 +2443,7 @@
     </row>
     <row r="34" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="64"/>
-      <c r="B34" s="66"/>
+      <c r="B34" s="82"/>
       <c r="C34" s="53">
         <v>0.57291666666666663</v>
       </c>
@@ -2423,7 +2453,7 @@
       <c r="E34" s="5">
         <v>1.25</v>
       </c>
-      <c r="F34" s="87"/>
+      <c r="F34" s="89"/>
       <c r="G34" s="41" t="s">
         <v>88</v>
       </c>
@@ -2439,22 +2469,32 @@
       <c r="M34" s="10"/>
       <c r="N34" s="3"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="70">
         <v>4</v>
       </c>
-      <c r="B35" s="28">
+      <c r="B35" s="109">
         <v>41603</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6">
-        <f t="shared" ref="F35:F61" si="0">E35</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
+      <c r="C35" s="65">
+        <v>0.625</v>
+      </c>
+      <c r="D35" s="65">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="E35" s="6">
+        <v>1.25</v>
+      </c>
+      <c r="F35" s="70">
+        <f>SUM(E35:E36)</f>
+        <v>3.25</v>
+      </c>
+      <c r="G35" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="H35" s="66" t="s">
+        <v>97</v>
+      </c>
       <c r="I35" s="42"/>
       <c r="J35" s="42"/>
       <c r="K35" s="8" t="s">
@@ -2462,7 +2502,7 @@
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="10">
-        <f>SUM(E80:E84)</f>
+        <f>SUM(E82:E86)</f>
         <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
@@ -2471,98 +2511,104 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="71"/>
-      <c r="B36" s="28">
-        <v>41604</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
+      <c r="B36" s="110"/>
+      <c r="C36" s="65">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D36" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="E36" s="6">
+        <v>2</v>
+      </c>
+      <c r="F36" s="72"/>
+      <c r="G36" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="H36" s="66" t="s">
+        <v>99</v>
+      </c>
       <c r="I36" s="42"/>
       <c r="J36" s="42"/>
-      <c r="K36" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="K36" s="8"/>
       <c r="L36" s="6"/>
-      <c r="M36" s="10">
-        <f>SUM(E85:E89)</f>
-        <v>0</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M36" s="10"/>
+      <c r="N36" s="3"/>
+    </row>
+    <row r="37" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="71"/>
-      <c r="B37" s="28">
-        <v>41605</v>
-      </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
+      <c r="B37" s="109">
+        <v>41604</v>
+      </c>
+      <c r="C37" s="65">
+        <v>0.375</v>
+      </c>
+      <c r="D37" s="65">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E37" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="F37" s="70">
+        <f>SUM(E37:E38)</f>
+        <v>3.5</v>
+      </c>
+      <c r="G37" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="66" t="s">
+        <v>100</v>
+      </c>
       <c r="I37" s="42"/>
       <c r="J37" s="42"/>
       <c r="K37" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="10">
-        <f>SUM(E90:E94)</f>
+        <f>SUM(E87:E91)</f>
         <v>0</v>
       </c>
       <c r="N37" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="71"/>
-      <c r="B38" s="28">
-        <v>41606</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
+      <c r="B38" s="110"/>
+      <c r="C38" s="65">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D38" s="65">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="E38" s="6">
+        <v>1</v>
+      </c>
+      <c r="F38" s="72"/>
+      <c r="G38" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="H38" s="66" t="s">
+        <v>101</v>
+      </c>
       <c r="I38" s="42"/>
       <c r="J38" s="42"/>
-      <c r="K38" s="8" t="s">
-        <v>40</v>
-      </c>
+      <c r="K38" s="8"/>
       <c r="L38" s="6"/>
-      <c r="M38" s="10">
-        <f>SUM(E95:E99)</f>
-        <v>0</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="M38" s="10"/>
+      <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="72"/>
+      <c r="A39" s="71"/>
       <c r="B39" s="28">
-        <v>41607</v>
+        <v>41605</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F37:F63" si="0">E39</f>
         <v>0</v>
       </c>
       <c r="G39" s="42"/>
@@ -2570,11 +2616,11 @@
       <c r="I39" s="42"/>
       <c r="J39" s="42"/>
       <c r="K39" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="10">
-        <f>SUM(E100:E104)</f>
+        <f>SUM(E92:E96)</f>
         <v>0</v>
       </c>
       <c r="N39" s="3" t="s">
@@ -2582,29 +2628,27 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="67">
-        <v>5</v>
-      </c>
-      <c r="B40" s="27">
-        <v>41610</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5">
+      <c r="A40" s="71"/>
+      <c r="B40" s="28">
+        <v>41606</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
       <c r="K40" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L40" s="6"/>
       <c r="M40" s="10">
-        <f>SUM(E105:E109)</f>
+        <f>SUM(E97:E101)</f>
         <v>0</v>
       </c>
       <c r="N40" s="3" t="s">
@@ -2612,27 +2656,27 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="68"/>
-      <c r="B41" s="27">
-        <v>41611</v>
-      </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5">
+      <c r="A41" s="72"/>
+      <c r="B41" s="28">
+        <v>41607</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
       <c r="K41" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L41" s="6"/>
       <c r="M41" s="10">
-        <f>SUM(E110:E114)</f>
+        <f>SUM(E102:E106)</f>
         <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
@@ -2640,9 +2684,11 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="68"/>
+      <c r="A42" s="67">
+        <v>5</v>
+      </c>
       <c r="B42" s="27">
-        <v>41612</v>
+        <v>41610</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -2656,11 +2702,11 @@
       <c r="I42" s="41"/>
       <c r="J42" s="41"/>
       <c r="K42" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L42" s="6"/>
       <c r="M42" s="10">
-        <f>SUM(E115:E119)</f>
+        <f>SUM(E107:E111)</f>
         <v>0</v>
       </c>
       <c r="N42" s="3" t="s">
@@ -2670,7 +2716,7 @@
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="68"/>
       <c r="B43" s="27">
-        <v>41613</v>
+        <v>41611</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -2684,11 +2730,11 @@
       <c r="I43" s="41"/>
       <c r="J43" s="41"/>
       <c r="K43" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L43" s="6"/>
       <c r="M43" s="10">
-        <f>SUM(E120:E124)</f>
+        <f>SUM(E112:E116)</f>
         <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
@@ -2696,9 +2742,9 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="69"/>
+      <c r="A44" s="68"/>
       <c r="B44" s="27">
-        <v>41614</v>
+        <v>41612</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -2712,11 +2758,11 @@
       <c r="I44" s="41"/>
       <c r="J44" s="41"/>
       <c r="K44" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L44" s="6"/>
       <c r="M44" s="10">
-        <f>SUM(E125:E129)</f>
+        <f>SUM(E117:E121)</f>
         <v>0</v>
       </c>
       <c r="N44" s="3" t="s">
@@ -2724,29 +2770,27 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="70">
-        <v>6</v>
-      </c>
-      <c r="B45" s="28">
-        <v>41617</v>
-      </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6">
+      <c r="A45" s="68"/>
+      <c r="B45" s="27">
+        <v>41613</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G45" s="42"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="42"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
       <c r="K45" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="10">
-        <f>SUM(E130:E134)</f>
+        <f>SUM(E122:E126)</f>
         <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
@@ -2754,27 +2798,27 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="71"/>
-      <c r="B46" s="28">
-        <v>41618</v>
-      </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6">
+      <c r="A46" s="69"/>
+      <c r="B46" s="27">
+        <v>41614</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
       <c r="K46" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="10">
-        <f>SUM(E135:E139)</f>
+        <f>SUM(E127:E131)</f>
         <v>0</v>
       </c>
       <c r="N46" s="3" t="s">
@@ -2782,9 +2826,11 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="71"/>
+      <c r="A47" s="70">
+        <v>6</v>
+      </c>
       <c r="B47" s="28">
-        <v>41619</v>
+        <v>41617</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -2798,11 +2844,11 @@
       <c r="I47" s="42"/>
       <c r="J47" s="42"/>
       <c r="K47" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L47" s="6"/>
       <c r="M47" s="10">
-        <f>SUM(E140:E144)</f>
+        <f>SUM(E132:E136)</f>
         <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
@@ -2812,7 +2858,7 @@
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="71"/>
       <c r="B48" s="28">
-        <v>41620</v>
+        <v>41618</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -2826,11 +2872,11 @@
       <c r="I48" s="42"/>
       <c r="J48" s="42"/>
       <c r="K48" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L48" s="6"/>
       <c r="M48" s="10">
-        <f>SUM(E145:E149)</f>
+        <f>SUM(E137:E141)</f>
         <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
@@ -2838,9 +2884,9 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="72"/>
+      <c r="A49" s="71"/>
       <c r="B49" s="28">
-        <v>41621</v>
+        <v>41619</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -2854,11 +2900,11 @@
       <c r="I49" s="42"/>
       <c r="J49" s="42"/>
       <c r="K49" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L49" s="6"/>
       <c r="M49" s="10">
-        <f>SUM(E150:E154)</f>
+        <f>SUM(E142:E146)</f>
         <v>0</v>
       </c>
       <c r="N49" s="3" t="s">
@@ -2866,29 +2912,27 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="67">
-        <v>7</v>
-      </c>
-      <c r="B50" s="27">
-        <v>41624</v>
-      </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5">
+      <c r="A50" s="71"/>
+      <c r="B50" s="28">
+        <v>41620</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="41"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
       <c r="K50" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L50" s="6"/>
       <c r="M50" s="10">
-        <f>SUM(E155:E159)</f>
+        <f>SUM(E147:E151)</f>
         <v>0</v>
       </c>
       <c r="N50" s="3" t="s">
@@ -2896,27 +2940,27 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="68"/>
-      <c r="B51" s="27">
-        <v>41625</v>
-      </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5">
+      <c r="A51" s="72"/>
+      <c r="B51" s="28">
+        <v>41621</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="41"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
       <c r="K51" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L51" s="6"/>
       <c r="M51" s="10">
-        <f>SUM(E160:E164)</f>
+        <f>SUM(E152:E156)</f>
         <v>0</v>
       </c>
       <c r="N51" s="3" t="s">
@@ -2924,9 +2968,11 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="68"/>
+      <c r="A52" s="67">
+        <v>7</v>
+      </c>
       <c r="B52" s="27">
-        <v>41626</v>
+        <v>41624</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -2940,11 +2986,11 @@
       <c r="I52" s="41"/>
       <c r="J52" s="41"/>
       <c r="K52" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L52" s="6"/>
       <c r="M52" s="10">
-        <f>SUM(E165:E169)</f>
+        <f>SUM(E157:E161)</f>
         <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
@@ -2954,7 +3000,7 @@
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="68"/>
       <c r="B53" s="27">
-        <v>41627</v>
+        <v>41625</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -2967,11 +3013,22 @@
       <c r="H53" s="41"/>
       <c r="I53" s="41"/>
       <c r="J53" s="41"/>
+      <c r="K53" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L53" s="6"/>
+      <c r="M53" s="10">
+        <f>SUM(E162:E166)</f>
+        <v>0</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="69"/>
+      <c r="A54" s="68"/>
       <c r="B54" s="27">
-        <v>41628</v>
+        <v>41626</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -2984,47 +3041,58 @@
       <c r="H54" s="41"/>
       <c r="I54" s="41"/>
       <c r="J54" s="41"/>
+      <c r="K54" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L54" s="6"/>
+      <c r="M54" s="10">
+        <f>SUM(E167:E171)</f>
+        <v>0</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="70">
+      <c r="A55" s="68"/>
+      <c r="B55" s="27">
+        <v>41627</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="41"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="69"/>
+      <c r="B56" s="27">
+        <v>41628</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="41"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="70">
         <v>8</v>
       </c>
-      <c r="B55" s="28">
+      <c r="B57" s="28">
         <v>41631</v>
-      </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="42"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="71"/>
-      <c r="B56" s="28">
-        <v>41632</v>
-      </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="42"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="71"/>
-      <c r="B57" s="28">
-        <v>41633</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -3041,7 +3109,7 @@
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="71"/>
       <c r="B58" s="28">
-        <v>41634</v>
+        <v>41632</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -3056,9 +3124,9 @@
       <c r="J58" s="42"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="72"/>
+      <c r="A59" s="71"/>
       <c r="B59" s="28">
-        <v>41635</v>
+        <v>41633</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -3073,51 +3141,51 @@
       <c r="J59" s="42"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="67">
+      <c r="A60" s="71"/>
+      <c r="B60" s="28">
+        <v>41634</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="72"/>
+      <c r="B61" s="28">
+        <v>41635</v>
+      </c>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="67">
         <v>9</v>
       </c>
-      <c r="B60" s="27">
+      <c r="B62" s="27">
         <v>41638</v>
-      </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G60" s="41"/>
-      <c r="H60" s="41"/>
-      <c r="I60" s="41"/>
-      <c r="J60" s="41"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="68"/>
-      <c r="B61" s="27">
-        <v>41639</v>
-      </c>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G61" s="41"/>
-      <c r="H61" s="41"/>
-      <c r="I61" s="41"/>
-      <c r="J61" s="41"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="68"/>
-      <c r="B62" s="27">
-        <v>41640</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5">
-        <f t="shared" ref="F62:F93" si="1">E62</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G62" s="41"/>
@@ -3128,13 +3196,13 @@
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="68"/>
       <c r="B63" s="27">
-        <v>41641</v>
+        <v>41639</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
       <c r="F63" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G63" s="41"/>
@@ -3143,15 +3211,15 @@
       <c r="J63" s="41"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="69"/>
+      <c r="A64" s="68"/>
       <c r="B64" s="27">
-        <v>41642</v>
+        <v>41640</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F64:F95" si="1">E64</f>
         <v>0</v>
       </c>
       <c r="G64" s="41"/>
@@ -3160,45 +3228,45 @@
       <c r="J64" s="41"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="70">
+      <c r="A65" s="68"/>
+      <c r="B65" s="27">
+        <v>41641</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="41"/>
+      <c r="H65" s="41"/>
+      <c r="I65" s="41"/>
+      <c r="J65" s="41"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="69"/>
+      <c r="B66" s="27">
+        <v>41642</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G66" s="41"/>
+      <c r="H66" s="41"/>
+      <c r="I66" s="41"/>
+      <c r="J66" s="41"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="70">
         <v>10</v>
       </c>
-      <c r="B65" s="28">
+      <c r="B67" s="28">
         <v>41645</v>
-      </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G65" s="42"/>
-      <c r="H65" s="42"/>
-      <c r="I65" s="42"/>
-      <c r="J65" s="42"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="71"/>
-      <c r="B66" s="28">
-        <v>41646</v>
-      </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G66" s="42"/>
-      <c r="H66" s="42"/>
-      <c r="I66" s="42"/>
-      <c r="J66" s="42"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="71"/>
-      <c r="B67" s="28">
-        <v>41647</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -3215,7 +3283,7 @@
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="71"/>
       <c r="B68" s="28">
-        <v>41648</v>
+        <v>41646</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
@@ -3230,9 +3298,9 @@
       <c r="J68" s="42"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="72"/>
+      <c r="A69" s="71"/>
       <c r="B69" s="28">
-        <v>41649</v>
+        <v>41647</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -3247,45 +3315,45 @@
       <c r="J69" s="42"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="67">
+      <c r="A70" s="71"/>
+      <c r="B70" s="28">
+        <v>41648</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G70" s="42"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="42"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="72"/>
+      <c r="B71" s="28">
+        <v>41649</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G71" s="42"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="42"/>
+      <c r="J71" s="42"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="67">
         <v>11</v>
       </c>
-      <c r="B70" s="27">
+      <c r="B72" s="27">
         <v>41652</v>
-      </c>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G70" s="41"/>
-      <c r="H70" s="41"/>
-      <c r="I70" s="41"/>
-      <c r="J70" s="41"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="68"/>
-      <c r="B71" s="27">
-        <v>41653</v>
-      </c>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G71" s="41"/>
-      <c r="H71" s="41"/>
-      <c r="I71" s="41"/>
-      <c r="J71" s="41"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="68"/>
-      <c r="B72" s="27">
-        <v>41654</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
@@ -3302,7 +3370,7 @@
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="68"/>
       <c r="B73" s="27">
-        <v>41655</v>
+        <v>41653</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
@@ -3317,9 +3385,9 @@
       <c r="J73" s="41"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="69"/>
+      <c r="A74" s="68"/>
       <c r="B74" s="27">
-        <v>41656</v>
+        <v>41654</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
@@ -3334,45 +3402,45 @@
       <c r="J74" s="41"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="70">
+      <c r="A75" s="68"/>
+      <c r="B75" s="27">
+        <v>41655</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G75" s="41"/>
+      <c r="H75" s="41"/>
+      <c r="I75" s="41"/>
+      <c r="J75" s="41"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="69"/>
+      <c r="B76" s="27">
+        <v>41656</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G76" s="41"/>
+      <c r="H76" s="41"/>
+      <c r="I76" s="41"/>
+      <c r="J76" s="41"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="70">
         <v>12</v>
       </c>
-      <c r="B75" s="28">
+      <c r="B77" s="28">
         <v>41659</v>
-      </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G75" s="42"/>
-      <c r="H75" s="42"/>
-      <c r="I75" s="42"/>
-      <c r="J75" s="42"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="71"/>
-      <c r="B76" s="28">
-        <v>41660</v>
-      </c>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G76" s="42"/>
-      <c r="H76" s="42"/>
-      <c r="I76" s="42"/>
-      <c r="J76" s="42"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="71"/>
-      <c r="B77" s="28">
-        <v>41661</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -3389,7 +3457,7 @@
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="71"/>
       <c r="B78" s="28">
-        <v>41662</v>
+        <v>41660</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -3404,9 +3472,9 @@
       <c r="J78" s="42"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="72"/>
+      <c r="A79" s="71"/>
       <c r="B79" s="28">
-        <v>41663</v>
+        <v>41661</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -3421,49 +3489,45 @@
       <c r="J79" s="42"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="67">
+      <c r="A80" s="71"/>
+      <c r="B80" s="28">
+        <v>41662</v>
+      </c>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G80" s="42"/>
+      <c r="H80" s="42"/>
+      <c r="I80" s="42"/>
+      <c r="J80" s="42"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="72"/>
+      <c r="B81" s="28">
+        <v>41663</v>
+      </c>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G81" s="42"/>
+      <c r="H81" s="42"/>
+      <c r="I81" s="42"/>
+      <c r="J81" s="42"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="67">
         <v>13</v>
       </c>
-      <c r="B80" s="27">
+      <c r="B82" s="27">
         <v>41666</v>
-      </c>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G80" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="H80" s="41"/>
-      <c r="I80" s="41"/>
-      <c r="J80" s="41"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="68"/>
-      <c r="B81" s="27">
-        <v>41667</v>
-      </c>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G81" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="H81" s="41"/>
-      <c r="I81" s="41"/>
-      <c r="J81" s="41"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="68"/>
-      <c r="B82" s="27">
-        <v>41668</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -3482,7 +3546,7 @@
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="68"/>
       <c r="B83" s="27">
-        <v>41669</v>
+        <v>41667</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
@@ -3499,9 +3563,9 @@
       <c r="J83" s="41"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="69"/>
+      <c r="A84" s="68"/>
       <c r="B84" s="27">
-        <v>41670</v>
+        <v>41668</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
@@ -3518,49 +3582,49 @@
       <c r="J84" s="41"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="70">
+      <c r="A85" s="68"/>
+      <c r="B85" s="27">
+        <v>41669</v>
+      </c>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G85" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="H85" s="41"/>
+      <c r="I85" s="41"/>
+      <c r="J85" s="41"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="69"/>
+      <c r="B86" s="27">
+        <v>41670</v>
+      </c>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G86" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="H86" s="41"/>
+      <c r="I86" s="41"/>
+      <c r="J86" s="41"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="70">
         <v>14</v>
       </c>
-      <c r="B85" s="28">
+      <c r="B87" s="28">
         <v>41673</v>
-      </c>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G85" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="H85" s="42"/>
-      <c r="I85" s="42"/>
-      <c r="J85" s="42"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="71"/>
-      <c r="B86" s="28">
-        <v>41674</v>
-      </c>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G86" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="H86" s="42"/>
-      <c r="I86" s="42"/>
-      <c r="J86" s="42"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="71"/>
-      <c r="B87" s="28">
-        <v>41675</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -3579,7 +3643,7 @@
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="71"/>
       <c r="B88" s="28">
-        <v>41676</v>
+        <v>41674</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -3596,9 +3660,9 @@
       <c r="J88" s="42"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="72"/>
+      <c r="A89" s="71"/>
       <c r="B89" s="28">
-        <v>41677</v>
+        <v>41675</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -3615,45 +3679,49 @@
       <c r="J89" s="42"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="67">
+      <c r="A90" s="71"/>
+      <c r="B90" s="28">
+        <v>41676</v>
+      </c>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G90" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H90" s="42"/>
+      <c r="I90" s="42"/>
+      <c r="J90" s="42"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="72"/>
+      <c r="B91" s="28">
+        <v>41677</v>
+      </c>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G91" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H91" s="42"/>
+      <c r="I91" s="42"/>
+      <c r="J91" s="42"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="67">
         <v>15</v>
       </c>
-      <c r="B90" s="27">
+      <c r="B92" s="27">
         <v>41680</v>
-      </c>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G90" s="41"/>
-      <c r="H90" s="41"/>
-      <c r="I90" s="41"/>
-      <c r="J90" s="41"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="68"/>
-      <c r="B91" s="27">
-        <v>41681</v>
-      </c>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G91" s="41"/>
-      <c r="H91" s="41"/>
-      <c r="I91" s="41"/>
-      <c r="J91" s="41"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="68"/>
-      <c r="B92" s="27">
-        <v>41682</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
@@ -3670,7 +3738,7 @@
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="68"/>
       <c r="B93" s="27">
-        <v>41683</v>
+        <v>41681</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
@@ -3685,15 +3753,15 @@
       <c r="J93" s="41"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="69"/>
+      <c r="A94" s="68"/>
       <c r="B94" s="27">
-        <v>41684</v>
+        <v>41682</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
       <c r="F94" s="5">
-        <f t="shared" ref="F94:F125" si="2">E94</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G94" s="41"/>
@@ -3702,45 +3770,45 @@
       <c r="J94" s="41"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="70">
+      <c r="A95" s="68"/>
+      <c r="B95" s="27">
+        <v>41683</v>
+      </c>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G95" s="41"/>
+      <c r="H95" s="41"/>
+      <c r="I95" s="41"/>
+      <c r="J95" s="41"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="69"/>
+      <c r="B96" s="27">
+        <v>41684</v>
+      </c>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5">
+        <f t="shared" ref="F96:F127" si="2">E96</f>
+        <v>0</v>
+      </c>
+      <c r="G96" s="41"/>
+      <c r="H96" s="41"/>
+      <c r="I96" s="41"/>
+      <c r="J96" s="41"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="70">
         <v>16</v>
       </c>
-      <c r="B95" s="28">
+      <c r="B97" s="28">
         <v>41687</v>
-      </c>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G95" s="42"/>
-      <c r="H95" s="42"/>
-      <c r="I95" s="42"/>
-      <c r="J95" s="42"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="71"/>
-      <c r="B96" s="28">
-        <v>41688</v>
-      </c>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G96" s="42"/>
-      <c r="H96" s="42"/>
-      <c r="I96" s="42"/>
-      <c r="J96" s="42"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="71"/>
-      <c r="B97" s="28">
-        <v>41689</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -3757,7 +3825,7 @@
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="71"/>
       <c r="B98" s="28">
-        <v>41690</v>
+        <v>41688</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
@@ -3772,9 +3840,9 @@
       <c r="J98" s="42"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="72"/>
+      <c r="A99" s="71"/>
       <c r="B99" s="28">
-        <v>41691</v>
+        <v>41689</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -3789,45 +3857,45 @@
       <c r="J99" s="42"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="67">
+      <c r="A100" s="71"/>
+      <c r="B100" s="28">
+        <v>41690</v>
+      </c>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G100" s="42"/>
+      <c r="H100" s="42"/>
+      <c r="I100" s="42"/>
+      <c r="J100" s="42"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="72"/>
+      <c r="B101" s="28">
+        <v>41691</v>
+      </c>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G101" s="42"/>
+      <c r="H101" s="42"/>
+      <c r="I101" s="42"/>
+      <c r="J101" s="42"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="67">
         <v>17</v>
       </c>
-      <c r="B100" s="27">
+      <c r="B102" s="27">
         <v>41694</v>
-      </c>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G100" s="41"/>
-      <c r="H100" s="41"/>
-      <c r="I100" s="41"/>
-      <c r="J100" s="41"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="68"/>
-      <c r="B101" s="27">
-        <v>41695</v>
-      </c>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G101" s="41"/>
-      <c r="H101" s="41"/>
-      <c r="I101" s="41"/>
-      <c r="J101" s="41"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="68"/>
-      <c r="B102" s="27">
-        <v>41696</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
@@ -3844,7 +3912,7 @@
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="68"/>
       <c r="B103" s="27">
-        <v>41697</v>
+        <v>41695</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
@@ -3859,9 +3927,9 @@
       <c r="J103" s="41"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="69"/>
+      <c r="A104" s="68"/>
       <c r="B104" s="27">
-        <v>41698</v>
+        <v>41696</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
@@ -3876,45 +3944,45 @@
       <c r="J104" s="41"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="70">
+      <c r="A105" s="68"/>
+      <c r="B105" s="27">
+        <v>41697</v>
+      </c>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G105" s="41"/>
+      <c r="H105" s="41"/>
+      <c r="I105" s="41"/>
+      <c r="J105" s="41"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="69"/>
+      <c r="B106" s="27">
+        <v>41698</v>
+      </c>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G106" s="41"/>
+      <c r="H106" s="41"/>
+      <c r="I106" s="41"/>
+      <c r="J106" s="41"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="70">
         <v>18</v>
       </c>
-      <c r="B105" s="28">
+      <c r="B107" s="28">
         <v>41701</v>
-      </c>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G105" s="42"/>
-      <c r="H105" s="42"/>
-      <c r="I105" s="42"/>
-      <c r="J105" s="42"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="71"/>
-      <c r="B106" s="28">
-        <v>41702</v>
-      </c>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G106" s="42"/>
-      <c r="H106" s="42"/>
-      <c r="I106" s="42"/>
-      <c r="J106" s="42"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="71"/>
-      <c r="B107" s="28">
-        <v>41703</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -3931,7 +3999,7 @@
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="71"/>
       <c r="B108" s="28">
-        <v>41704</v>
+        <v>41702</v>
       </c>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
@@ -3946,9 +4014,9 @@
       <c r="J108" s="42"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="72"/>
+      <c r="A109" s="71"/>
       <c r="B109" s="28">
-        <v>41705</v>
+        <v>41703</v>
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
@@ -3963,45 +4031,45 @@
       <c r="J109" s="42"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="67">
+      <c r="A110" s="71"/>
+      <c r="B110" s="28">
+        <v>41704</v>
+      </c>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G110" s="42"/>
+      <c r="H110" s="42"/>
+      <c r="I110" s="42"/>
+      <c r="J110" s="42"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="72"/>
+      <c r="B111" s="28">
+        <v>41705</v>
+      </c>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G111" s="42"/>
+      <c r="H111" s="42"/>
+      <c r="I111" s="42"/>
+      <c r="J111" s="42"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="67">
         <v>19</v>
       </c>
-      <c r="B110" s="27">
+      <c r="B112" s="27">
         <v>41708</v>
-      </c>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G110" s="41"/>
-      <c r="H110" s="41"/>
-      <c r="I110" s="41"/>
-      <c r="J110" s="41"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="68"/>
-      <c r="B111" s="27">
-        <v>41709</v>
-      </c>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G111" s="41"/>
-      <c r="H111" s="41"/>
-      <c r="I111" s="41"/>
-      <c r="J111" s="41"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="68"/>
-      <c r="B112" s="27">
-        <v>41710</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
@@ -4018,7 +4086,7 @@
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="68"/>
       <c r="B113" s="27">
-        <v>41711</v>
+        <v>41709</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
@@ -4033,9 +4101,9 @@
       <c r="J113" s="41"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="69"/>
+      <c r="A114" s="68"/>
       <c r="B114" s="27">
-        <v>41712</v>
+        <v>41710</v>
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
@@ -4050,45 +4118,45 @@
       <c r="J114" s="41"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="70">
+      <c r="A115" s="68"/>
+      <c r="B115" s="27">
+        <v>41711</v>
+      </c>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G115" s="41"/>
+      <c r="H115" s="41"/>
+      <c r="I115" s="41"/>
+      <c r="J115" s="41"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="69"/>
+      <c r="B116" s="27">
+        <v>41712</v>
+      </c>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G116" s="41"/>
+      <c r="H116" s="41"/>
+      <c r="I116" s="41"/>
+      <c r="J116" s="41"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="70">
         <v>20</v>
       </c>
-      <c r="B115" s="28">
+      <c r="B117" s="28">
         <v>41715</v>
-      </c>
-      <c r="C115" s="6"/>
-      <c r="D115" s="6"/>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G115" s="42"/>
-      <c r="H115" s="42"/>
-      <c r="I115" s="42"/>
-      <c r="J115" s="42"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="71"/>
-      <c r="B116" s="28">
-        <v>41716</v>
-      </c>
-      <c r="C116" s="6"/>
-      <c r="D116" s="6"/>
-      <c r="E116" s="6"/>
-      <c r="F116" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G116" s="42"/>
-      <c r="H116" s="42"/>
-      <c r="I116" s="42"/>
-      <c r="J116" s="42"/>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="71"/>
-      <c r="B117" s="28">
-        <v>41717</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
@@ -4105,7 +4173,7 @@
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="71"/>
       <c r="B118" s="28">
-        <v>41718</v>
+        <v>41716</v>
       </c>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
@@ -4120,9 +4188,9 @@
       <c r="J118" s="42"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="72"/>
+      <c r="A119" s="71"/>
       <c r="B119" s="28">
-        <v>41719</v>
+        <v>41717</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
@@ -4137,45 +4205,45 @@
       <c r="J119" s="42"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="67">
+      <c r="A120" s="71"/>
+      <c r="B120" s="28">
+        <v>41718</v>
+      </c>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G120" s="42"/>
+      <c r="H120" s="42"/>
+      <c r="I120" s="42"/>
+      <c r="J120" s="42"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="72"/>
+      <c r="B121" s="28">
+        <v>41719</v>
+      </c>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G121" s="42"/>
+      <c r="H121" s="42"/>
+      <c r="I121" s="42"/>
+      <c r="J121" s="42"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="67">
         <v>21</v>
       </c>
-      <c r="B120" s="27">
+      <c r="B122" s="27">
         <v>41722</v>
-      </c>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G120" s="41"/>
-      <c r="H120" s="41"/>
-      <c r="I120" s="41"/>
-      <c r="J120" s="41"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="68"/>
-      <c r="B121" s="27">
-        <v>41723</v>
-      </c>
-      <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G121" s="41"/>
-      <c r="H121" s="41"/>
-      <c r="I121" s="41"/>
-      <c r="J121" s="41"/>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="68"/>
-      <c r="B122" s="27">
-        <v>41724</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
@@ -4192,7 +4260,7 @@
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="68"/>
       <c r="B123" s="27">
-        <v>41725</v>
+        <v>41723</v>
       </c>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
@@ -4207,9 +4275,9 @@
       <c r="J123" s="41"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="69"/>
+      <c r="A124" s="68"/>
       <c r="B124" s="27">
-        <v>41726</v>
+        <v>41724</v>
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
@@ -4224,51 +4292,51 @@
       <c r="J124" s="41"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="70">
+      <c r="A125" s="68"/>
+      <c r="B125" s="27">
+        <v>41725</v>
+      </c>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G125" s="41"/>
+      <c r="H125" s="41"/>
+      <c r="I125" s="41"/>
+      <c r="J125" s="41"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="69"/>
+      <c r="B126" s="27">
+        <v>41726</v>
+      </c>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G126" s="41"/>
+      <c r="H126" s="41"/>
+      <c r="I126" s="41"/>
+      <c r="J126" s="41"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="70">
         <v>22</v>
       </c>
-      <c r="B125" s="28">
+      <c r="B127" s="28">
         <v>41729</v>
-      </c>
-      <c r="C125" s="6"/>
-      <c r="D125" s="6"/>
-      <c r="E125" s="6"/>
-      <c r="F125" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G125" s="42"/>
-      <c r="H125" s="42"/>
-      <c r="I125" s="42"/>
-      <c r="J125" s="42"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="71"/>
-      <c r="B126" s="28">
-        <v>41730</v>
-      </c>
-      <c r="C126" s="6"/>
-      <c r="D126" s="6"/>
-      <c r="E126" s="6"/>
-      <c r="F126" s="6">
-        <f t="shared" ref="F126:F157" si="3">E126</f>
-        <v>0</v>
-      </c>
-      <c r="G126" s="42"/>
-      <c r="H126" s="42"/>
-      <c r="I126" s="42"/>
-      <c r="J126" s="42"/>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="71"/>
-      <c r="B127" s="28">
-        <v>41731</v>
       </c>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
       <c r="E127" s="6"/>
       <c r="F127" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G127" s="42"/>
@@ -4279,13 +4347,13 @@
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="71"/>
       <c r="B128" s="28">
-        <v>41732</v>
+        <v>41730</v>
       </c>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
       <c r="E128" s="6"/>
       <c r="F128" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F128:F159" si="3">E128</f>
         <v>0</v>
       </c>
       <c r="G128" s="42"/>
@@ -4294,9 +4362,9 @@
       <c r="J128" s="42"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="72"/>
+      <c r="A129" s="71"/>
       <c r="B129" s="28">
-        <v>41733</v>
+        <v>41731</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
@@ -4311,45 +4379,45 @@
       <c r="J129" s="42"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="67">
+      <c r="A130" s="71"/>
+      <c r="B130" s="28">
+        <v>41732</v>
+      </c>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G130" s="42"/>
+      <c r="H130" s="42"/>
+      <c r="I130" s="42"/>
+      <c r="J130" s="42"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="72"/>
+      <c r="B131" s="28">
+        <v>41733</v>
+      </c>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G131" s="42"/>
+      <c r="H131" s="42"/>
+      <c r="I131" s="42"/>
+      <c r="J131" s="42"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="67">
         <v>23</v>
       </c>
-      <c r="B130" s="27">
+      <c r="B132" s="27">
         <v>41736</v>
-      </c>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
-      <c r="F130" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G130" s="41"/>
-      <c r="H130" s="41"/>
-      <c r="I130" s="41"/>
-      <c r="J130" s="41"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="68"/>
-      <c r="B131" s="27">
-        <v>41737</v>
-      </c>
-      <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
-      <c r="E131" s="5"/>
-      <c r="F131" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G131" s="41"/>
-      <c r="H131" s="41"/>
-      <c r="I131" s="41"/>
-      <c r="J131" s="41"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="68"/>
-      <c r="B132" s="27">
-        <v>41738</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
@@ -4366,7 +4434,7 @@
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="68"/>
       <c r="B133" s="27">
-        <v>41739</v>
+        <v>41737</v>
       </c>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
@@ -4381,9 +4449,9 @@
       <c r="J133" s="41"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="69"/>
+      <c r="A134" s="68"/>
       <c r="B134" s="27">
-        <v>41740</v>
+        <v>41738</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
@@ -4398,45 +4466,45 @@
       <c r="J134" s="41"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="70">
+      <c r="A135" s="68"/>
+      <c r="B135" s="27">
+        <v>41739</v>
+      </c>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G135" s="41"/>
+      <c r="H135" s="41"/>
+      <c r="I135" s="41"/>
+      <c r="J135" s="41"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="69"/>
+      <c r="B136" s="27">
+        <v>41740</v>
+      </c>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G136" s="41"/>
+      <c r="H136" s="41"/>
+      <c r="I136" s="41"/>
+      <c r="J136" s="41"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="70">
         <v>24</v>
       </c>
-      <c r="B135" s="28">
+      <c r="B137" s="28">
         <v>41743</v>
-      </c>
-      <c r="C135" s="6"/>
-      <c r="D135" s="6"/>
-      <c r="E135" s="6"/>
-      <c r="F135" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G135" s="42"/>
-      <c r="H135" s="42"/>
-      <c r="I135" s="42"/>
-      <c r="J135" s="42"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="71"/>
-      <c r="B136" s="28">
-        <v>41744</v>
-      </c>
-      <c r="C136" s="6"/>
-      <c r="D136" s="6"/>
-      <c r="E136" s="6"/>
-      <c r="F136" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G136" s="42"/>
-      <c r="H136" s="42"/>
-      <c r="I136" s="42"/>
-      <c r="J136" s="42"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="71"/>
-      <c r="B137" s="28">
-        <v>41745</v>
       </c>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
@@ -4453,7 +4521,7 @@
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="71"/>
       <c r="B138" s="28">
-        <v>41746</v>
+        <v>41744</v>
       </c>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
@@ -4468,9 +4536,9 @@
       <c r="J138" s="42"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="72"/>
+      <c r="A139" s="71"/>
       <c r="B139" s="28">
-        <v>41747</v>
+        <v>41745</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
@@ -4485,45 +4553,45 @@
       <c r="J139" s="42"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="67">
+      <c r="A140" s="71"/>
+      <c r="B140" s="28">
+        <v>41746</v>
+      </c>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
+      <c r="F140" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G140" s="42"/>
+      <c r="H140" s="42"/>
+      <c r="I140" s="42"/>
+      <c r="J140" s="42"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="72"/>
+      <c r="B141" s="28">
+        <v>41747</v>
+      </c>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+      <c r="F141" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G141" s="42"/>
+      <c r="H141" s="42"/>
+      <c r="I141" s="42"/>
+      <c r="J141" s="42"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="67">
         <v>25</v>
       </c>
-      <c r="B140" s="27">
+      <c r="B142" s="27">
         <v>41750</v>
-      </c>
-      <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
-      <c r="E140" s="5"/>
-      <c r="F140" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G140" s="41"/>
-      <c r="H140" s="41"/>
-      <c r="I140" s="41"/>
-      <c r="J140" s="41"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="68"/>
-      <c r="B141" s="27">
-        <v>41751</v>
-      </c>
-      <c r="C141" s="5"/>
-      <c r="D141" s="5"/>
-      <c r="E141" s="5"/>
-      <c r="F141" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G141" s="41"/>
-      <c r="H141" s="41"/>
-      <c r="I141" s="41"/>
-      <c r="J141" s="41"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="68"/>
-      <c r="B142" s="27">
-        <v>41752</v>
       </c>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
@@ -4540,7 +4608,7 @@
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="68"/>
       <c r="B143" s="27">
-        <v>41753</v>
+        <v>41751</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
@@ -4555,9 +4623,9 @@
       <c r="J143" s="41"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="69"/>
+      <c r="A144" s="68"/>
       <c r="B144" s="27">
-        <v>41754</v>
+        <v>41752</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
@@ -4572,45 +4640,45 @@
       <c r="J144" s="41"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="70">
+      <c r="A145" s="68"/>
+      <c r="B145" s="27">
+        <v>41753</v>
+      </c>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G145" s="41"/>
+      <c r="H145" s="41"/>
+      <c r="I145" s="41"/>
+      <c r="J145" s="41"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" s="69"/>
+      <c r="B146" s="27">
+        <v>41754</v>
+      </c>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G146" s="41"/>
+      <c r="H146" s="41"/>
+      <c r="I146" s="41"/>
+      <c r="J146" s="41"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="70">
         <v>26</v>
       </c>
-      <c r="B145" s="28">
+      <c r="B147" s="28">
         <v>41757</v>
-      </c>
-      <c r="C145" s="6"/>
-      <c r="D145" s="6"/>
-      <c r="E145" s="6"/>
-      <c r="F145" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G145" s="42"/>
-      <c r="H145" s="42"/>
-      <c r="I145" s="42"/>
-      <c r="J145" s="42"/>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="71"/>
-      <c r="B146" s="28">
-        <v>41758</v>
-      </c>
-      <c r="C146" s="6"/>
-      <c r="D146" s="6"/>
-      <c r="E146" s="6"/>
-      <c r="F146" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G146" s="42"/>
-      <c r="H146" s="42"/>
-      <c r="I146" s="42"/>
-      <c r="J146" s="42"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="71"/>
-      <c r="B147" s="28">
-        <v>41759</v>
       </c>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
@@ -4627,7 +4695,7 @@
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="71"/>
       <c r="B148" s="28">
-        <v>41760</v>
+        <v>41758</v>
       </c>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
@@ -4642,9 +4710,9 @@
       <c r="J148" s="42"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="72"/>
+      <c r="A149" s="71"/>
       <c r="B149" s="28">
-        <v>41761</v>
+        <v>41759</v>
       </c>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
@@ -4659,45 +4727,45 @@
       <c r="J149" s="42"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="67">
+      <c r="A150" s="71"/>
+      <c r="B150" s="28">
+        <v>41760</v>
+      </c>
+      <c r="C150" s="6"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="6"/>
+      <c r="F150" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G150" s="42"/>
+      <c r="H150" s="42"/>
+      <c r="I150" s="42"/>
+      <c r="J150" s="42"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" s="72"/>
+      <c r="B151" s="28">
+        <v>41761</v>
+      </c>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+      <c r="F151" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G151" s="42"/>
+      <c r="H151" s="42"/>
+      <c r="I151" s="42"/>
+      <c r="J151" s="42"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" s="67">
         <v>27</v>
       </c>
-      <c r="B150" s="27">
+      <c r="B152" s="27">
         <v>41764</v>
-      </c>
-      <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
-      <c r="E150" s="5"/>
-      <c r="F150" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G150" s="41"/>
-      <c r="H150" s="41"/>
-      <c r="I150" s="41"/>
-      <c r="J150" s="41"/>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="68"/>
-      <c r="B151" s="27">
-        <v>41765</v>
-      </c>
-      <c r="C151" s="5"/>
-      <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
-      <c r="F151" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G151" s="41"/>
-      <c r="H151" s="41"/>
-      <c r="I151" s="41"/>
-      <c r="J151" s="41"/>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="68"/>
-      <c r="B152" s="27">
-        <v>41766</v>
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
@@ -4714,7 +4782,7 @@
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="68"/>
       <c r="B153" s="27">
-        <v>41767</v>
+        <v>41765</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
@@ -4729,9 +4797,9 @@
       <c r="J153" s="41"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="69"/>
+      <c r="A154" s="68"/>
       <c r="B154" s="27">
-        <v>41768</v>
+        <v>41766</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
@@ -4746,45 +4814,45 @@
       <c r="J154" s="41"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="70">
+      <c r="A155" s="68"/>
+      <c r="B155" s="27">
+        <v>41767</v>
+      </c>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G155" s="41"/>
+      <c r="H155" s="41"/>
+      <c r="I155" s="41"/>
+      <c r="J155" s="41"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" s="69"/>
+      <c r="B156" s="27">
+        <v>41768</v>
+      </c>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G156" s="41"/>
+      <c r="H156" s="41"/>
+      <c r="I156" s="41"/>
+      <c r="J156" s="41"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" s="70">
         <v>28</v>
       </c>
-      <c r="B155" s="28">
+      <c r="B157" s="28">
         <v>41771</v>
-      </c>
-      <c r="C155" s="6"/>
-      <c r="D155" s="6"/>
-      <c r="E155" s="6"/>
-      <c r="F155" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G155" s="42"/>
-      <c r="H155" s="42"/>
-      <c r="I155" s="42"/>
-      <c r="J155" s="42"/>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="71"/>
-      <c r="B156" s="28">
-        <v>41772</v>
-      </c>
-      <c r="C156" s="6"/>
-      <c r="D156" s="6"/>
-      <c r="E156" s="6"/>
-      <c r="F156" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G156" s="42"/>
-      <c r="H156" s="42"/>
-      <c r="I156" s="42"/>
-      <c r="J156" s="42"/>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="71"/>
-      <c r="B157" s="28">
-        <v>41773</v>
       </c>
       <c r="C157" s="6"/>
       <c r="D157" s="6"/>
@@ -4801,13 +4869,13 @@
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="71"/>
       <c r="B158" s="28">
-        <v>41774</v>
+        <v>41772</v>
       </c>
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
       <c r="E158" s="6"/>
       <c r="F158" s="6">
-        <f t="shared" ref="F158:F169" si="4">E158</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G158" s="42"/>
@@ -4816,15 +4884,15 @@
       <c r="J158" s="42"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="72"/>
+      <c r="A159" s="71"/>
       <c r="B159" s="28">
-        <v>41775</v>
+        <v>41773</v>
       </c>
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
       <c r="E159" s="6"/>
       <c r="F159" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G159" s="42"/>
@@ -4833,45 +4901,45 @@
       <c r="J159" s="42"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="67">
+      <c r="A160" s="71"/>
+      <c r="B160" s="28">
+        <v>41774</v>
+      </c>
+      <c r="C160" s="6"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="6"/>
+      <c r="F160" s="6">
+        <f t="shared" ref="F160:F171" si="4">E160</f>
+        <v>0</v>
+      </c>
+      <c r="G160" s="42"/>
+      <c r="H160" s="42"/>
+      <c r="I160" s="42"/>
+      <c r="J160" s="42"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="72"/>
+      <c r="B161" s="28">
+        <v>41775</v>
+      </c>
+      <c r="C161" s="6"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="6"/>
+      <c r="F161" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G161" s="42"/>
+      <c r="H161" s="42"/>
+      <c r="I161" s="42"/>
+      <c r="J161" s="42"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="67">
         <v>29</v>
       </c>
-      <c r="B160" s="27">
+      <c r="B162" s="27">
         <v>41778</v>
-      </c>
-      <c r="C160" s="5"/>
-      <c r="D160" s="5"/>
-      <c r="E160" s="5"/>
-      <c r="F160" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G160" s="41"/>
-      <c r="H160" s="41"/>
-      <c r="I160" s="41"/>
-      <c r="J160" s="41"/>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="68"/>
-      <c r="B161" s="27">
-        <v>41779</v>
-      </c>
-      <c r="C161" s="5"/>
-      <c r="D161" s="5"/>
-      <c r="E161" s="5"/>
-      <c r="F161" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G161" s="41"/>
-      <c r="H161" s="41"/>
-      <c r="I161" s="41"/>
-      <c r="J161" s="41"/>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="68"/>
-      <c r="B162" s="27">
-        <v>41780</v>
       </c>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
@@ -4888,7 +4956,7 @@
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="68"/>
       <c r="B163" s="27">
-        <v>41781</v>
+        <v>41779</v>
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
@@ -4903,9 +4971,9 @@
       <c r="J163" s="41"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="69"/>
+      <c r="A164" s="68"/>
       <c r="B164" s="27">
-        <v>41782</v>
+        <v>41780</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
@@ -4920,45 +4988,45 @@
       <c r="J164" s="41"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="73">
+      <c r="A165" s="68"/>
+      <c r="B165" s="27">
+        <v>41781</v>
+      </c>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G165" s="41"/>
+      <c r="H165" s="41"/>
+      <c r="I165" s="41"/>
+      <c r="J165" s="41"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="69"/>
+      <c r="B166" s="27">
+        <v>41782</v>
+      </c>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G166" s="41"/>
+      <c r="H166" s="41"/>
+      <c r="I166" s="41"/>
+      <c r="J166" s="41"/>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" s="73">
         <v>30</v>
       </c>
-      <c r="B165" s="28">
+      <c r="B167" s="28">
         <v>41785</v>
-      </c>
-      <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
-      <c r="E165" s="2"/>
-      <c r="F165" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G165" s="43"/>
-      <c r="H165" s="43"/>
-      <c r="I165" s="43"/>
-      <c r="J165" s="43"/>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="74"/>
-      <c r="B166" s="28">
-        <v>41786</v>
-      </c>
-      <c r="C166" s="2"/>
-      <c r="D166" s="2"/>
-      <c r="E166" s="2"/>
-      <c r="F166" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G166" s="43"/>
-      <c r="H166" s="43"/>
-      <c r="I166" s="43"/>
-      <c r="J166" s="43"/>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="74"/>
-      <c r="B167" s="28">
-        <v>41787</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
@@ -4975,7 +5043,7 @@
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="74"/>
       <c r="B168" s="28">
-        <v>41788</v>
+        <v>41786</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
@@ -4990,9 +5058,9 @@
       <c r="J168" s="43"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="75"/>
+      <c r="A169" s="74"/>
       <c r="B169" s="28">
-        <v>41789</v>
+        <v>41787</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
@@ -5006,16 +5074,55 @@
       <c r="I169" s="43"/>
       <c r="J169" s="43"/>
     </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" s="74"/>
+      <c r="B170" s="28">
+        <v>41788</v>
+      </c>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G170" s="43"/>
+      <c r="H170" s="43"/>
+      <c r="I170" s="43"/>
+      <c r="J170" s="43"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" s="75"/>
+      <c r="B171" s="28">
+        <v>41789</v>
+      </c>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G171" s="43"/>
+      <c r="H171" s="43"/>
+      <c r="I171" s="43"/>
+      <c r="J171" s="43"/>
+    </row>
   </sheetData>
-  <mergeCells count="58">
+  <mergeCells count="62">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="G2:N4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A19:A32"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="F35:F36"/>
     <mergeCell ref="K6:N6"/>
     <mergeCell ref="F33:F34"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="F31:F32"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="G2:N4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A65:A69"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F4"/>
@@ -5024,14 +5131,11 @@
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="A50:A54"/>
     <mergeCell ref="A10:A18"/>
-    <mergeCell ref="A70:A74"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="F17:F18"/>
-    <mergeCell ref="A80:A84"/>
-    <mergeCell ref="A85:A89"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="A87:A91"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="F19:F20"/>
@@ -5043,29 +5147,31 @@
     <mergeCell ref="B25:B30"/>
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A160:A164"/>
-    <mergeCell ref="A165:A169"/>
-    <mergeCell ref="A125:A129"/>
-    <mergeCell ref="A130:A134"/>
-    <mergeCell ref="A135:A139"/>
-    <mergeCell ref="A140:A144"/>
-    <mergeCell ref="A145:A149"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A19:A32"/>
-    <mergeCell ref="A120:A124"/>
-    <mergeCell ref="A150:A154"/>
-    <mergeCell ref="A155:A159"/>
-    <mergeCell ref="A95:A99"/>
-    <mergeCell ref="A100:A104"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="A110:A114"/>
-    <mergeCell ref="A115:A119"/>
-    <mergeCell ref="A90:A94"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="A162:A166"/>
+    <mergeCell ref="A167:A171"/>
+    <mergeCell ref="A127:A131"/>
+    <mergeCell ref="A132:A136"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="A142:A146"/>
+    <mergeCell ref="A147:A151"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="A152:A156"/>
+    <mergeCell ref="A157:A161"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="A112:A116"/>
+    <mergeCell ref="A117:A121"/>
+    <mergeCell ref="A92:A96"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A52:A56"/>
   </mergeCells>
   <conditionalFormatting sqref="M7">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
@@ -5259,7 +5365,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M35</xm:sqref>
+          <xm:sqref>M35:M36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="26" id="{9D5A3639-C9C5-40BD-82EE-496926295966}">
@@ -5278,48 +5384,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M36</xm:sqref>
+          <xm:sqref>M37:M38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="25" id="{042E6B91-B838-419B-9746-9D04172CBCE2}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="24" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M38</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="23" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5338,7 +5406,7 @@
           <xm:sqref>M39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="22" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
+          <x14:cfRule type="iconSet" priority="24" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5357,7 +5425,7 @@
           <xm:sqref>M40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="21" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
+          <x14:cfRule type="iconSet" priority="23" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5376,7 +5444,7 @@
           <xm:sqref>M41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="20" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
+          <x14:cfRule type="iconSet" priority="22" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5395,7 +5463,7 @@
           <xm:sqref>M42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="19" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
+          <x14:cfRule type="iconSet" priority="21" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5414,7 +5482,7 @@
           <xm:sqref>M43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
+          <x14:cfRule type="iconSet" priority="20" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5433,7 +5501,7 @@
           <xm:sqref>M44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="17" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
+          <x14:cfRule type="iconSet" priority="19" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5452,7 +5520,7 @@
           <xm:sqref>M45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="16" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
+          <x14:cfRule type="iconSet" priority="18" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5471,7 +5539,7 @@
           <xm:sqref>M46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="15" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
+          <x14:cfRule type="iconSet" priority="17" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5490,7 +5558,7 @@
           <xm:sqref>M47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
+          <x14:cfRule type="iconSet" priority="16" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5509,7 +5577,7 @@
           <xm:sqref>M48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
+          <x14:cfRule type="iconSet" priority="15" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5528,7 +5596,7 @@
           <xm:sqref>M49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+          <x14:cfRule type="iconSet" priority="14" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5547,7 +5615,7 @@
           <xm:sqref>M50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="11" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+          <x14:cfRule type="iconSet" priority="13" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5566,7 +5634,7 @@
           <xm:sqref>M51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="10" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+          <x14:cfRule type="iconSet" priority="12" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5583,6 +5651,44 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>M52</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="11" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M53</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="10" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="9" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
@@ -5639,7 +5745,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F19 F7:F8 F12:F14 F16 F21 F25 F23 F35:F169</xm:sqref>
+          <xm:sqref>F19 F7:F8 F12:F14 F16 F21 F25 F23 F35 F37 F39:F171</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNgo.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNgo.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="104">
   <si>
     <t>Week</t>
   </si>
@@ -356,6 +356,12 @@
   <si>
     <t>devide task
 overall about website system</t>
+  </si>
+  <si>
+    <t>prepare question to get requirement</t>
+  </si>
+  <si>
+    <t>analyze requirement</t>
   </si>
 </sst>
 </file>
@@ -834,6 +840,69 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -843,14 +912,104 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -860,159 +1019,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1450,10 +1456,10 @@
   <dimension ref="A1:O171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="I37" sqref="I37"/>
+      <selection pane="bottomRight" activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1475,81 +1481,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="112"/>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="114"/>
+      <c r="A1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="69"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="115" t="s">
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="117"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="72"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="120"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="75"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="96"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
-      <c r="M4" s="122"/>
-      <c r="N4" s="123"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="78"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="103"/>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="105"/>
+      <c r="A5" s="111"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="113"/>
       <c r="F5" s="16"/>
       <c r="H5" s="45" t="s">
         <v>66</v>
@@ -1594,13 +1600,13 @@
       <c r="J6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
     </row>
     <row r="7" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="124">
+      <c r="A7" s="79">
         <v>1</v>
       </c>
       <c r="B7" s="17">
@@ -1627,21 +1633,21 @@
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="31"/>
-      <c r="K7" s="76" t="s">
+      <c r="K7" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="76"/>
+      <c r="L7" s="117"/>
       <c r="M7" s="34">
         <f>SUM(M8:M54)</f>
-        <v>20.152999999999999</v>
+        <v>25.203000000000003</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="125"/>
-      <c r="B8" s="99">
+      <c r="A8" s="80"/>
+      <c r="B8" s="105">
         <v>41586</v>
       </c>
       <c r="C8" s="18">
@@ -1653,7 +1659,7 @@
       <c r="E8" s="19">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F8" s="101">
+      <c r="F8" s="107">
         <f>SUM(E8:E9)</f>
         <v>1.66</v>
       </c>
@@ -1678,8 +1684,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="126"/>
-      <c r="B9" s="100"/>
+      <c r="A9" s="81"/>
+      <c r="B9" s="106"/>
       <c r="C9" s="18">
         <v>0.63194444444444442</v>
       </c>
@@ -1689,7 +1695,7 @@
       <c r="E9" s="19">
         <v>0.5</v>
       </c>
-      <c r="F9" s="102"/>
+      <c r="F9" s="108"/>
       <c r="G9" s="31" t="s">
         <v>25</v>
       </c>
@@ -1700,10 +1706,10 @@
       <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="106">
+      <c r="A10" s="114">
         <v>2</v>
       </c>
-      <c r="B10" s="79">
+      <c r="B10" s="94">
         <v>41589</v>
       </c>
       <c r="C10" s="55">
@@ -1715,7 +1721,7 @@
       <c r="E10" s="56">
         <v>1.5</v>
       </c>
-      <c r="F10" s="85">
+      <c r="F10" s="121">
         <f>SUM(E10:E11)</f>
         <v>2.5</v>
       </c>
@@ -1729,8 +1735,8 @@
       <c r="J10" s="57"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="107"/>
-      <c r="B11" s="80"/>
+      <c r="A11" s="115"/>
+      <c r="B11" s="95"/>
       <c r="C11" s="55">
         <v>0.875</v>
       </c>
@@ -1740,7 +1746,7 @@
       <c r="E11" s="56">
         <v>1</v>
       </c>
-      <c r="F11" s="86"/>
+      <c r="F11" s="122"/>
       <c r="G11" s="57" t="s">
         <v>30</v>
       </c>
@@ -1751,8 +1757,8 @@
       <c r="J11" s="57"/>
     </row>
     <row r="12" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A12" s="107"/>
-      <c r="B12" s="79">
+      <c r="A12" s="115"/>
+      <c r="B12" s="94">
         <v>41590</v>
       </c>
       <c r="C12" s="23">
@@ -1792,8 +1798,8 @@
       <c r="O12" s="36"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="107"/>
-      <c r="B13" s="80"/>
+      <c r="A13" s="115"/>
+      <c r="B13" s="95"/>
       <c r="C13" s="23">
         <v>0.875</v>
       </c>
@@ -1822,8 +1828,8 @@
       <c r="O13" s="36"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="107"/>
-      <c r="B14" s="79">
+      <c r="A14" s="115"/>
+      <c r="B14" s="94">
         <v>41592</v>
       </c>
       <c r="C14" s="26">
@@ -1835,7 +1841,7 @@
       <c r="E14" s="29">
         <v>1.25</v>
       </c>
-      <c r="F14" s="77">
+      <c r="F14" s="109">
         <f>SUM(E14:E15)</f>
         <v>3.25</v>
       </c>
@@ -1855,15 +1861,15 @@
       <c r="L14" s="6"/>
       <c r="M14" s="10">
         <f>SUM(E35:E41)</f>
-        <v>6.75</v>
+        <v>11.8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="107"/>
-      <c r="B15" s="80"/>
+      <c r="A15" s="115"/>
+      <c r="B15" s="95"/>
       <c r="C15" s="26">
         <v>0.42708333333333331</v>
       </c>
@@ -1873,7 +1879,7 @@
       <c r="E15" s="29">
         <v>2</v>
       </c>
-      <c r="F15" s="78"/>
+      <c r="F15" s="110"/>
       <c r="G15" s="48" t="s">
         <v>30</v>
       </c>
@@ -1888,7 +1894,7 @@
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="107"/>
+      <c r="A16" s="115"/>
       <c r="B16" s="46">
         <v>41593</v>
       </c>
@@ -1928,8 +1934,8 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="107"/>
-      <c r="B17" s="79">
+      <c r="A17" s="115"/>
+      <c r="B17" s="94">
         <v>41594</v>
       </c>
       <c r="C17" s="26">
@@ -1941,7 +1947,7 @@
       <c r="E17" s="29">
         <v>2</v>
       </c>
-      <c r="F17" s="77">
+      <c r="F17" s="109">
         <f>SUM(E17:E18)</f>
         <v>3</v>
       </c>
@@ -1968,8 +1974,8 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="108"/>
-      <c r="B18" s="80"/>
+      <c r="A18" s="116"/>
+      <c r="B18" s="95"/>
       <c r="C18" s="26">
         <v>0.83333333333333337</v>
       </c>
@@ -1979,7 +1985,7 @@
       <c r="E18" s="29">
         <v>1</v>
       </c>
-      <c r="F18" s="78"/>
+      <c r="F18" s="110"/>
       <c r="G18" s="30" t="s">
         <v>24</v>
       </c>
@@ -1996,10 +2002,10 @@
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="67">
+      <c r="A19" s="88">
         <v>3</v>
       </c>
-      <c r="B19" s="81">
+      <c r="B19" s="86">
         <v>41596</v>
       </c>
       <c r="C19" s="53">
@@ -2011,7 +2017,7 @@
       <c r="E19" s="5">
         <v>0.6</v>
       </c>
-      <c r="F19" s="67">
+      <c r="F19" s="88">
         <f>SUM(E19:E20)</f>
         <v>1.18</v>
       </c>
@@ -2038,8 +2044,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="68"/>
-      <c r="B20" s="82"/>
+      <c r="A20" s="89"/>
+      <c r="B20" s="87"/>
       <c r="C20" s="53">
         <v>0.89236111111111116</v>
       </c>
@@ -2049,7 +2055,7 @@
       <c r="E20" s="5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F20" s="69"/>
+      <c r="F20" s="90"/>
       <c r="G20" s="41" t="s">
         <v>30</v>
       </c>
@@ -2064,8 +2070,8 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A21" s="68"/>
-      <c r="B21" s="83">
+      <c r="A21" s="89"/>
+      <c r="B21" s="119">
         <v>41597</v>
       </c>
       <c r="C21" s="53">
@@ -2077,7 +2083,7 @@
       <c r="E21" s="52">
         <v>1</v>
       </c>
-      <c r="F21" s="67">
+      <c r="F21" s="88">
         <f>SUM(E21:E22)</f>
         <v>3</v>
       </c>
@@ -2102,8 +2108,8 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="68"/>
-      <c r="B22" s="84"/>
+      <c r="A22" s="89"/>
+      <c r="B22" s="120"/>
       <c r="C22" s="53">
         <v>0.91666666666666663</v>
       </c>
@@ -2113,7 +2119,7 @@
       <c r="E22" s="52">
         <v>2</v>
       </c>
-      <c r="F22" s="69"/>
+      <c r="F22" s="90"/>
       <c r="G22" s="41" t="s">
         <v>24</v>
       </c>
@@ -2130,8 +2136,8 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="68"/>
-      <c r="B23" s="81">
+      <c r="A23" s="89"/>
+      <c r="B23" s="86">
         <v>41598</v>
       </c>
       <c r="C23" s="53">
@@ -2143,7 +2149,7 @@
       <c r="E23" s="5">
         <v>1</v>
       </c>
-      <c r="F23" s="88">
+      <c r="F23" s="92">
         <f>SUM(E23:E24)</f>
         <v>3</v>
       </c>
@@ -2168,8 +2174,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="68"/>
-      <c r="B24" s="82"/>
+      <c r="A24" s="89"/>
+      <c r="B24" s="87"/>
       <c r="C24" s="53">
         <v>0.91666666666666663</v>
       </c>
@@ -2179,7 +2185,7 @@
       <c r="E24" s="5">
         <v>2</v>
       </c>
-      <c r="F24" s="89"/>
+      <c r="F24" s="93"/>
       <c r="G24" s="41" t="s">
         <v>24</v>
       </c>
@@ -2201,8 +2207,8 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="68"/>
-      <c r="B25" s="81">
+      <c r="A25" s="89"/>
+      <c r="B25" s="86">
         <v>41599</v>
       </c>
       <c r="C25" s="53">
@@ -2214,7 +2220,7 @@
       <c r="E25" s="5">
         <v>1</v>
       </c>
-      <c r="F25" s="67">
+      <c r="F25" s="88">
         <f>SUM(E25:E30)</f>
         <v>10.35</v>
       </c>
@@ -2230,8 +2236,8 @@
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="68"/>
-      <c r="B26" s="87"/>
+      <c r="A26" s="89"/>
+      <c r="B26" s="123"/>
       <c r="C26" s="53">
         <v>0.375</v>
       </c>
@@ -2241,7 +2247,7 @@
       <c r="E26" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F26" s="68"/>
+      <c r="F26" s="89"/>
       <c r="G26" s="54" t="s">
         <v>25</v>
       </c>
@@ -2256,8 +2262,8 @@
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="68"/>
-      <c r="B27" s="87"/>
+      <c r="A27" s="89"/>
+      <c r="B27" s="123"/>
       <c r="C27" s="53">
         <v>0.4236111111111111</v>
       </c>
@@ -2267,7 +2273,7 @@
       <c r="E27" s="5">
         <v>1.5</v>
       </c>
-      <c r="F27" s="68"/>
+      <c r="F27" s="89"/>
       <c r="G27" s="41" t="s">
         <v>87</v>
       </c>
@@ -2280,8 +2286,8 @@
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="68"/>
-      <c r="B28" s="87"/>
+      <c r="A28" s="89"/>
+      <c r="B28" s="123"/>
       <c r="C28" s="53">
         <v>0.52083333333333337</v>
       </c>
@@ -2291,7 +2297,7 @@
       <c r="E28" s="5">
         <v>2</v>
       </c>
-      <c r="F28" s="68"/>
+      <c r="F28" s="89"/>
       <c r="G28" s="41" t="s">
         <v>83</v>
       </c>
@@ -2306,8 +2312,8 @@
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="68"/>
-      <c r="B29" s="87"/>
+      <c r="A29" s="89"/>
+      <c r="B29" s="123"/>
       <c r="C29" s="53">
         <v>0.625</v>
       </c>
@@ -2317,7 +2323,7 @@
       <c r="E29" s="5">
         <v>2.1</v>
       </c>
-      <c r="F29" s="68"/>
+      <c r="F29" s="89"/>
       <c r="G29" s="41" t="s">
         <v>87</v>
       </c>
@@ -2330,8 +2336,8 @@
       <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="68"/>
-      <c r="B30" s="82"/>
+      <c r="A30" s="89"/>
+      <c r="B30" s="87"/>
       <c r="C30" s="53">
         <v>0.84375</v>
       </c>
@@ -2341,7 +2347,7 @@
       <c r="E30" s="5">
         <v>2.65</v>
       </c>
-      <c r="F30" s="69"/>
+      <c r="F30" s="90"/>
       <c r="G30" s="41" t="s">
         <v>88</v>
       </c>
@@ -2354,8 +2360,8 @@
       <c r="N30" s="3"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="68"/>
-      <c r="B31" s="81">
+      <c r="A31" s="89"/>
+      <c r="B31" s="86">
         <v>41600</v>
       </c>
       <c r="C31" s="53">
@@ -2367,7 +2373,7 @@
       <c r="E31" s="5">
         <v>1.25</v>
       </c>
-      <c r="F31" s="88">
+      <c r="F31" s="92">
         <f>SUM(E31:E32)</f>
         <v>2.75</v>
       </c>
@@ -2385,8 +2391,8 @@
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="69"/>
-      <c r="B32" s="82"/>
+      <c r="A32" s="90"/>
+      <c r="B32" s="87"/>
       <c r="C32" s="53">
         <v>0.625</v>
       </c>
@@ -2396,7 +2402,7 @@
       <c r="E32" s="5">
         <v>1.5</v>
       </c>
-      <c r="F32" s="89"/>
+      <c r="F32" s="93"/>
       <c r="G32" s="41" t="s">
         <v>88</v>
       </c>
@@ -2412,7 +2418,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="63"/>
-      <c r="B33" s="81">
+      <c r="B33" s="86">
         <v>41601</v>
       </c>
       <c r="C33" s="53">
@@ -2424,7 +2430,7 @@
       <c r="E33" s="5">
         <v>0.25</v>
       </c>
-      <c r="F33" s="88">
+      <c r="F33" s="92">
         <f>SUM(E33:E34)</f>
         <v>1.5</v>
       </c>
@@ -2443,7 +2449,7 @@
     </row>
     <row r="34" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="64"/>
-      <c r="B34" s="82"/>
+      <c r="B34" s="87"/>
       <c r="C34" s="53">
         <v>0.57291666666666663</v>
       </c>
@@ -2453,7 +2459,7 @@
       <c r="E34" s="5">
         <v>1.25</v>
       </c>
-      <c r="F34" s="89"/>
+      <c r="F34" s="93"/>
       <c r="G34" s="41" t="s">
         <v>88</v>
       </c>
@@ -2470,10 +2476,10 @@
       <c r="N34" s="3"/>
     </row>
     <row r="35" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="70">
+      <c r="A35" s="84">
         <v>4</v>
       </c>
-      <c r="B35" s="109">
+      <c r="B35" s="82">
         <v>41603</v>
       </c>
       <c r="C35" s="65">
@@ -2485,7 +2491,7 @@
       <c r="E35" s="6">
         <v>1.25</v>
       </c>
-      <c r="F35" s="70">
+      <c r="F35" s="84">
         <f>SUM(E35:E36)</f>
         <v>3.25</v>
       </c>
@@ -2510,8 +2516,8 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="71"/>
-      <c r="B36" s="110"/>
+      <c r="A36" s="118"/>
+      <c r="B36" s="83"/>
       <c r="C36" s="65">
         <v>0.91666666666666663</v>
       </c>
@@ -2521,7 +2527,7 @@
       <c r="E36" s="6">
         <v>2</v>
       </c>
-      <c r="F36" s="72"/>
+      <c r="F36" s="85"/>
       <c r="G36" s="42" t="s">
         <v>98</v>
       </c>
@@ -2536,8 +2542,8 @@
       <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="71"/>
-      <c r="B37" s="109">
+      <c r="A37" s="118"/>
+      <c r="B37" s="82">
         <v>41604</v>
       </c>
       <c r="C37" s="65">
@@ -2549,7 +2555,7 @@
       <c r="E37" s="6">
         <v>2.5</v>
       </c>
-      <c r="F37" s="70">
+      <c r="F37" s="84">
         <f>SUM(E37:E38)</f>
         <v>3.5</v>
       </c>
@@ -2574,18 +2580,18 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="71"/>
-      <c r="B38" s="110"/>
+      <c r="A38" s="118"/>
+      <c r="B38" s="83"/>
       <c r="C38" s="65">
-        <v>6.25E-2</v>
+        <v>0.5625</v>
       </c>
       <c r="D38" s="65">
-        <v>0.104166666666667</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="E38" s="6">
         <v>1</v>
       </c>
-      <c r="F38" s="72"/>
+      <c r="F38" s="85"/>
       <c r="G38" s="42" t="s">
         <v>87</v>
       </c>
@@ -2600,19 +2606,29 @@
       <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="71"/>
+      <c r="A39" s="118"/>
       <c r="B39" s="28">
         <v>41605</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
+      <c r="C39" s="65">
+        <v>0.5625</v>
+      </c>
+      <c r="D39" s="65">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="E39" s="6">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="F39" s="6">
-        <f t="shared" ref="F37:F63" si="0">E39</f>
-        <v>0</v>
-      </c>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
+        <f t="shared" ref="F39:F63" si="0">E39</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G39" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="H39" s="42" t="s">
+        <v>102</v>
+      </c>
       <c r="I39" s="42"/>
       <c r="J39" s="42"/>
       <c r="K39" s="8" t="s">
@@ -2628,19 +2644,29 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="71"/>
+      <c r="A40" s="118"/>
       <c r="B40" s="28">
         <v>41606</v>
       </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
+      <c r="C40" s="65">
+        <v>0.5625</v>
+      </c>
+      <c r="D40" s="65">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="E40" s="6">
+        <v>2.75</v>
+      </c>
       <c r="F40" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
+        <v>2.75</v>
+      </c>
+      <c r="G40" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="H40" s="42" t="s">
+        <v>103</v>
+      </c>
       <c r="I40" s="42"/>
       <c r="J40" s="42"/>
       <c r="K40" s="8" t="s">
@@ -2656,7 +2682,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="72"/>
+      <c r="A41" s="85"/>
       <c r="B41" s="28">
         <v>41607</v>
       </c>
@@ -2684,7 +2710,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="67">
+      <c r="A42" s="88">
         <v>5</v>
       </c>
       <c r="B42" s="27">
@@ -2714,7 +2740,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="68"/>
+      <c r="A43" s="89"/>
       <c r="B43" s="27">
         <v>41611</v>
       </c>
@@ -2742,7 +2768,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="68"/>
+      <c r="A44" s="89"/>
       <c r="B44" s="27">
         <v>41612</v>
       </c>
@@ -2770,7 +2796,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="68"/>
+      <c r="A45" s="89"/>
       <c r="B45" s="27">
         <v>41613</v>
       </c>
@@ -2798,7 +2824,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="69"/>
+      <c r="A46" s="90"/>
       <c r="B46" s="27">
         <v>41614</v>
       </c>
@@ -2826,7 +2852,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="70">
+      <c r="A47" s="84">
         <v>6</v>
       </c>
       <c r="B47" s="28">
@@ -2856,7 +2882,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="71"/>
+      <c r="A48" s="118"/>
       <c r="B48" s="28">
         <v>41618</v>
       </c>
@@ -2884,7 +2910,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="71"/>
+      <c r="A49" s="118"/>
       <c r="B49" s="28">
         <v>41619</v>
       </c>
@@ -2912,7 +2938,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="71"/>
+      <c r="A50" s="118"/>
       <c r="B50" s="28">
         <v>41620</v>
       </c>
@@ -2940,7 +2966,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="72"/>
+      <c r="A51" s="85"/>
       <c r="B51" s="28">
         <v>41621</v>
       </c>
@@ -2968,7 +2994,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="67">
+      <c r="A52" s="88">
         <v>7</v>
       </c>
       <c r="B52" s="27">
@@ -2998,7 +3024,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="68"/>
+      <c r="A53" s="89"/>
       <c r="B53" s="27">
         <v>41625</v>
       </c>
@@ -3026,7 +3052,7 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="68"/>
+      <c r="A54" s="89"/>
       <c r="B54" s="27">
         <v>41626</v>
       </c>
@@ -3054,7 +3080,7 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="68"/>
+      <c r="A55" s="89"/>
       <c r="B55" s="27">
         <v>41627</v>
       </c>
@@ -3071,7 +3097,7 @@
       <c r="J55" s="41"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="69"/>
+      <c r="A56" s="90"/>
       <c r="B56" s="27">
         <v>41628</v>
       </c>
@@ -3088,7 +3114,7 @@
       <c r="J56" s="41"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="70">
+      <c r="A57" s="84">
         <v>8</v>
       </c>
       <c r="B57" s="28">
@@ -3107,7 +3133,7 @@
       <c r="J57" s="42"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="71"/>
+      <c r="A58" s="118"/>
       <c r="B58" s="28">
         <v>41632</v>
       </c>
@@ -3124,7 +3150,7 @@
       <c r="J58" s="42"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="71"/>
+      <c r="A59" s="118"/>
       <c r="B59" s="28">
         <v>41633</v>
       </c>
@@ -3141,7 +3167,7 @@
       <c r="J59" s="42"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="71"/>
+      <c r="A60" s="118"/>
       <c r="B60" s="28">
         <v>41634</v>
       </c>
@@ -3158,7 +3184,7 @@
       <c r="J60" s="42"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="72"/>
+      <c r="A61" s="85"/>
       <c r="B61" s="28">
         <v>41635</v>
       </c>
@@ -3175,7 +3201,7 @@
       <c r="J61" s="42"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="67">
+      <c r="A62" s="88">
         <v>9</v>
       </c>
       <c r="B62" s="27">
@@ -3194,7 +3220,7 @@
       <c r="J62" s="41"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="68"/>
+      <c r="A63" s="89"/>
       <c r="B63" s="27">
         <v>41639</v>
       </c>
@@ -3211,7 +3237,7 @@
       <c r="J63" s="41"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="68"/>
+      <c r="A64" s="89"/>
       <c r="B64" s="27">
         <v>41640</v>
       </c>
@@ -3228,7 +3254,7 @@
       <c r="J64" s="41"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="68"/>
+      <c r="A65" s="89"/>
       <c r="B65" s="27">
         <v>41641</v>
       </c>
@@ -3245,7 +3271,7 @@
       <c r="J65" s="41"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="69"/>
+      <c r="A66" s="90"/>
       <c r="B66" s="27">
         <v>41642</v>
       </c>
@@ -3262,7 +3288,7 @@
       <c r="J66" s="41"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="70">
+      <c r="A67" s="84">
         <v>10</v>
       </c>
       <c r="B67" s="28">
@@ -3281,7 +3307,7 @@
       <c r="J67" s="42"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="71"/>
+      <c r="A68" s="118"/>
       <c r="B68" s="28">
         <v>41646</v>
       </c>
@@ -3298,7 +3324,7 @@
       <c r="J68" s="42"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="71"/>
+      <c r="A69" s="118"/>
       <c r="B69" s="28">
         <v>41647</v>
       </c>
@@ -3315,7 +3341,7 @@
       <c r="J69" s="42"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="71"/>
+      <c r="A70" s="118"/>
       <c r="B70" s="28">
         <v>41648</v>
       </c>
@@ -3332,7 +3358,7 @@
       <c r="J70" s="42"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="72"/>
+      <c r="A71" s="85"/>
       <c r="B71" s="28">
         <v>41649</v>
       </c>
@@ -3349,7 +3375,7 @@
       <c r="J71" s="42"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="67">
+      <c r="A72" s="88">
         <v>11</v>
       </c>
       <c r="B72" s="27">
@@ -3368,7 +3394,7 @@
       <c r="J72" s="41"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="68"/>
+      <c r="A73" s="89"/>
       <c r="B73" s="27">
         <v>41653</v>
       </c>
@@ -3385,7 +3411,7 @@
       <c r="J73" s="41"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="68"/>
+      <c r="A74" s="89"/>
       <c r="B74" s="27">
         <v>41654</v>
       </c>
@@ -3402,7 +3428,7 @@
       <c r="J74" s="41"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="68"/>
+      <c r="A75" s="89"/>
       <c r="B75" s="27">
         <v>41655</v>
       </c>
@@ -3419,7 +3445,7 @@
       <c r="J75" s="41"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="69"/>
+      <c r="A76" s="90"/>
       <c r="B76" s="27">
         <v>41656</v>
       </c>
@@ -3436,7 +3462,7 @@
       <c r="J76" s="41"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="70">
+      <c r="A77" s="84">
         <v>12</v>
       </c>
       <c r="B77" s="28">
@@ -3455,7 +3481,7 @@
       <c r="J77" s="42"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="71"/>
+      <c r="A78" s="118"/>
       <c r="B78" s="28">
         <v>41660</v>
       </c>
@@ -3472,7 +3498,7 @@
       <c r="J78" s="42"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="71"/>
+      <c r="A79" s="118"/>
       <c r="B79" s="28">
         <v>41661</v>
       </c>
@@ -3489,7 +3515,7 @@
       <c r="J79" s="42"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="71"/>
+      <c r="A80" s="118"/>
       <c r="B80" s="28">
         <v>41662</v>
       </c>
@@ -3506,7 +3532,7 @@
       <c r="J80" s="42"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="72"/>
+      <c r="A81" s="85"/>
       <c r="B81" s="28">
         <v>41663</v>
       </c>
@@ -3523,7 +3549,7 @@
       <c r="J81" s="42"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="67">
+      <c r="A82" s="88">
         <v>13</v>
       </c>
       <c r="B82" s="27">
@@ -3544,7 +3570,7 @@
       <c r="J82" s="41"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="68"/>
+      <c r="A83" s="89"/>
       <c r="B83" s="27">
         <v>41667</v>
       </c>
@@ -3563,7 +3589,7 @@
       <c r="J83" s="41"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="68"/>
+      <c r="A84" s="89"/>
       <c r="B84" s="27">
         <v>41668</v>
       </c>
@@ -3582,7 +3608,7 @@
       <c r="J84" s="41"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="68"/>
+      <c r="A85" s="89"/>
       <c r="B85" s="27">
         <v>41669</v>
       </c>
@@ -3601,7 +3627,7 @@
       <c r="J85" s="41"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="69"/>
+      <c r="A86" s="90"/>
       <c r="B86" s="27">
         <v>41670</v>
       </c>
@@ -3620,7 +3646,7 @@
       <c r="J86" s="41"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="70">
+      <c r="A87" s="84">
         <v>14</v>
       </c>
       <c r="B87" s="28">
@@ -3641,7 +3667,7 @@
       <c r="J87" s="42"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="71"/>
+      <c r="A88" s="118"/>
       <c r="B88" s="28">
         <v>41674</v>
       </c>
@@ -3660,7 +3686,7 @@
       <c r="J88" s="42"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="71"/>
+      <c r="A89" s="118"/>
       <c r="B89" s="28">
         <v>41675</v>
       </c>
@@ -3679,7 +3705,7 @@
       <c r="J89" s="42"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="71"/>
+      <c r="A90" s="118"/>
       <c r="B90" s="28">
         <v>41676</v>
       </c>
@@ -3698,7 +3724,7 @@
       <c r="J90" s="42"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="72"/>
+      <c r="A91" s="85"/>
       <c r="B91" s="28">
         <v>41677</v>
       </c>
@@ -3717,7 +3743,7 @@
       <c r="J91" s="42"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="67">
+      <c r="A92" s="88">
         <v>15</v>
       </c>
       <c r="B92" s="27">
@@ -3736,7 +3762,7 @@
       <c r="J92" s="41"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="68"/>
+      <c r="A93" s="89"/>
       <c r="B93" s="27">
         <v>41681</v>
       </c>
@@ -3753,7 +3779,7 @@
       <c r="J93" s="41"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="68"/>
+      <c r="A94" s="89"/>
       <c r="B94" s="27">
         <v>41682</v>
       </c>
@@ -3770,7 +3796,7 @@
       <c r="J94" s="41"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="68"/>
+      <c r="A95" s="89"/>
       <c r="B95" s="27">
         <v>41683</v>
       </c>
@@ -3787,7 +3813,7 @@
       <c r="J95" s="41"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="69"/>
+      <c r="A96" s="90"/>
       <c r="B96" s="27">
         <v>41684</v>
       </c>
@@ -3804,7 +3830,7 @@
       <c r="J96" s="41"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="70">
+      <c r="A97" s="84">
         <v>16</v>
       </c>
       <c r="B97" s="28">
@@ -3823,7 +3849,7 @@
       <c r="J97" s="42"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="71"/>
+      <c r="A98" s="118"/>
       <c r="B98" s="28">
         <v>41688</v>
       </c>
@@ -3840,7 +3866,7 @@
       <c r="J98" s="42"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="71"/>
+      <c r="A99" s="118"/>
       <c r="B99" s="28">
         <v>41689</v>
       </c>
@@ -3857,7 +3883,7 @@
       <c r="J99" s="42"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="71"/>
+      <c r="A100" s="118"/>
       <c r="B100" s="28">
         <v>41690</v>
       </c>
@@ -3874,7 +3900,7 @@
       <c r="J100" s="42"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="72"/>
+      <c r="A101" s="85"/>
       <c r="B101" s="28">
         <v>41691</v>
       </c>
@@ -3891,7 +3917,7 @@
       <c r="J101" s="42"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="67">
+      <c r="A102" s="88">
         <v>17</v>
       </c>
       <c r="B102" s="27">
@@ -3910,7 +3936,7 @@
       <c r="J102" s="41"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="68"/>
+      <c r="A103" s="89"/>
       <c r="B103" s="27">
         <v>41695</v>
       </c>
@@ -3927,7 +3953,7 @@
       <c r="J103" s="41"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="68"/>
+      <c r="A104" s="89"/>
       <c r="B104" s="27">
         <v>41696</v>
       </c>
@@ -3944,7 +3970,7 @@
       <c r="J104" s="41"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="68"/>
+      <c r="A105" s="89"/>
       <c r="B105" s="27">
         <v>41697</v>
       </c>
@@ -3961,7 +3987,7 @@
       <c r="J105" s="41"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="69"/>
+      <c r="A106" s="90"/>
       <c r="B106" s="27">
         <v>41698</v>
       </c>
@@ -3978,7 +4004,7 @@
       <c r="J106" s="41"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="70">
+      <c r="A107" s="84">
         <v>18</v>
       </c>
       <c r="B107" s="28">
@@ -3997,7 +4023,7 @@
       <c r="J107" s="42"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="71"/>
+      <c r="A108" s="118"/>
       <c r="B108" s="28">
         <v>41702</v>
       </c>
@@ -4014,7 +4040,7 @@
       <c r="J108" s="42"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="71"/>
+      <c r="A109" s="118"/>
       <c r="B109" s="28">
         <v>41703</v>
       </c>
@@ -4031,7 +4057,7 @@
       <c r="J109" s="42"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="71"/>
+      <c r="A110" s="118"/>
       <c r="B110" s="28">
         <v>41704</v>
       </c>
@@ -4048,7 +4074,7 @@
       <c r="J110" s="42"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="72"/>
+      <c r="A111" s="85"/>
       <c r="B111" s="28">
         <v>41705</v>
       </c>
@@ -4065,7 +4091,7 @@
       <c r="J111" s="42"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="67">
+      <c r="A112" s="88">
         <v>19</v>
       </c>
       <c r="B112" s="27">
@@ -4084,7 +4110,7 @@
       <c r="J112" s="41"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="68"/>
+      <c r="A113" s="89"/>
       <c r="B113" s="27">
         <v>41709</v>
       </c>
@@ -4101,7 +4127,7 @@
       <c r="J113" s="41"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="68"/>
+      <c r="A114" s="89"/>
       <c r="B114" s="27">
         <v>41710</v>
       </c>
@@ -4118,7 +4144,7 @@
       <c r="J114" s="41"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="68"/>
+      <c r="A115" s="89"/>
       <c r="B115" s="27">
         <v>41711</v>
       </c>
@@ -4135,7 +4161,7 @@
       <c r="J115" s="41"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="69"/>
+      <c r="A116" s="90"/>
       <c r="B116" s="27">
         <v>41712</v>
       </c>
@@ -4152,7 +4178,7 @@
       <c r="J116" s="41"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="70">
+      <c r="A117" s="84">
         <v>20</v>
       </c>
       <c r="B117" s="28">
@@ -4171,7 +4197,7 @@
       <c r="J117" s="42"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="71"/>
+      <c r="A118" s="118"/>
       <c r="B118" s="28">
         <v>41716</v>
       </c>
@@ -4188,7 +4214,7 @@
       <c r="J118" s="42"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="71"/>
+      <c r="A119" s="118"/>
       <c r="B119" s="28">
         <v>41717</v>
       </c>
@@ -4205,7 +4231,7 @@
       <c r="J119" s="42"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="71"/>
+      <c r="A120" s="118"/>
       <c r="B120" s="28">
         <v>41718</v>
       </c>
@@ -4222,7 +4248,7 @@
       <c r="J120" s="42"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="72"/>
+      <c r="A121" s="85"/>
       <c r="B121" s="28">
         <v>41719</v>
       </c>
@@ -4239,7 +4265,7 @@
       <c r="J121" s="42"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="67">
+      <c r="A122" s="88">
         <v>21</v>
       </c>
       <c r="B122" s="27">
@@ -4258,7 +4284,7 @@
       <c r="J122" s="41"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="68"/>
+      <c r="A123" s="89"/>
       <c r="B123" s="27">
         <v>41723</v>
       </c>
@@ -4275,7 +4301,7 @@
       <c r="J123" s="41"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="68"/>
+      <c r="A124" s="89"/>
       <c r="B124" s="27">
         <v>41724</v>
       </c>
@@ -4292,7 +4318,7 @@
       <c r="J124" s="41"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="68"/>
+      <c r="A125" s="89"/>
       <c r="B125" s="27">
         <v>41725</v>
       </c>
@@ -4309,7 +4335,7 @@
       <c r="J125" s="41"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="69"/>
+      <c r="A126" s="90"/>
       <c r="B126" s="27">
         <v>41726</v>
       </c>
@@ -4326,7 +4352,7 @@
       <c r="J126" s="41"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="70">
+      <c r="A127" s="84">
         <v>22</v>
       </c>
       <c r="B127" s="28">
@@ -4345,7 +4371,7 @@
       <c r="J127" s="42"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="71"/>
+      <c r="A128" s="118"/>
       <c r="B128" s="28">
         <v>41730</v>
       </c>
@@ -4362,7 +4388,7 @@
       <c r="J128" s="42"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="71"/>
+      <c r="A129" s="118"/>
       <c r="B129" s="28">
         <v>41731</v>
       </c>
@@ -4379,7 +4405,7 @@
       <c r="J129" s="42"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="71"/>
+      <c r="A130" s="118"/>
       <c r="B130" s="28">
         <v>41732</v>
       </c>
@@ -4396,7 +4422,7 @@
       <c r="J130" s="42"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="72"/>
+      <c r="A131" s="85"/>
       <c r="B131" s="28">
         <v>41733</v>
       </c>
@@ -4413,7 +4439,7 @@
       <c r="J131" s="42"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="67">
+      <c r="A132" s="88">
         <v>23</v>
       </c>
       <c r="B132" s="27">
@@ -4432,7 +4458,7 @@
       <c r="J132" s="41"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="68"/>
+      <c r="A133" s="89"/>
       <c r="B133" s="27">
         <v>41737</v>
       </c>
@@ -4449,7 +4475,7 @@
       <c r="J133" s="41"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="68"/>
+      <c r="A134" s="89"/>
       <c r="B134" s="27">
         <v>41738</v>
       </c>
@@ -4466,7 +4492,7 @@
       <c r="J134" s="41"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="68"/>
+      <c r="A135" s="89"/>
       <c r="B135" s="27">
         <v>41739</v>
       </c>
@@ -4483,7 +4509,7 @@
       <c r="J135" s="41"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="69"/>
+      <c r="A136" s="90"/>
       <c r="B136" s="27">
         <v>41740</v>
       </c>
@@ -4500,7 +4526,7 @@
       <c r="J136" s="41"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="70">
+      <c r="A137" s="84">
         <v>24</v>
       </c>
       <c r="B137" s="28">
@@ -4519,7 +4545,7 @@
       <c r="J137" s="42"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="71"/>
+      <c r="A138" s="118"/>
       <c r="B138" s="28">
         <v>41744</v>
       </c>
@@ -4536,7 +4562,7 @@
       <c r="J138" s="42"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="71"/>
+      <c r="A139" s="118"/>
       <c r="B139" s="28">
         <v>41745</v>
       </c>
@@ -4553,7 +4579,7 @@
       <c r="J139" s="42"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="71"/>
+      <c r="A140" s="118"/>
       <c r="B140" s="28">
         <v>41746</v>
       </c>
@@ -4570,7 +4596,7 @@
       <c r="J140" s="42"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="72"/>
+      <c r="A141" s="85"/>
       <c r="B141" s="28">
         <v>41747</v>
       </c>
@@ -4587,7 +4613,7 @@
       <c r="J141" s="42"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="67">
+      <c r="A142" s="88">
         <v>25</v>
       </c>
       <c r="B142" s="27">
@@ -4606,7 +4632,7 @@
       <c r="J142" s="41"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="68"/>
+      <c r="A143" s="89"/>
       <c r="B143" s="27">
         <v>41751</v>
       </c>
@@ -4623,7 +4649,7 @@
       <c r="J143" s="41"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="68"/>
+      <c r="A144" s="89"/>
       <c r="B144" s="27">
         <v>41752</v>
       </c>
@@ -4640,7 +4666,7 @@
       <c r="J144" s="41"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="68"/>
+      <c r="A145" s="89"/>
       <c r="B145" s="27">
         <v>41753</v>
       </c>
@@ -4657,7 +4683,7 @@
       <c r="J145" s="41"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="69"/>
+      <c r="A146" s="90"/>
       <c r="B146" s="27">
         <v>41754</v>
       </c>
@@ -4674,7 +4700,7 @@
       <c r="J146" s="41"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="70">
+      <c r="A147" s="84">
         <v>26</v>
       </c>
       <c r="B147" s="28">
@@ -4693,7 +4719,7 @@
       <c r="J147" s="42"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="71"/>
+      <c r="A148" s="118"/>
       <c r="B148" s="28">
         <v>41758</v>
       </c>
@@ -4710,7 +4736,7 @@
       <c r="J148" s="42"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="71"/>
+      <c r="A149" s="118"/>
       <c r="B149" s="28">
         <v>41759</v>
       </c>
@@ -4727,7 +4753,7 @@
       <c r="J149" s="42"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="71"/>
+      <c r="A150" s="118"/>
       <c r="B150" s="28">
         <v>41760</v>
       </c>
@@ -4744,7 +4770,7 @@
       <c r="J150" s="42"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="72"/>
+      <c r="A151" s="85"/>
       <c r="B151" s="28">
         <v>41761</v>
       </c>
@@ -4761,7 +4787,7 @@
       <c r="J151" s="42"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="67">
+      <c r="A152" s="88">
         <v>27</v>
       </c>
       <c r="B152" s="27">
@@ -4780,7 +4806,7 @@
       <c r="J152" s="41"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="68"/>
+      <c r="A153" s="89"/>
       <c r="B153" s="27">
         <v>41765</v>
       </c>
@@ -4797,7 +4823,7 @@
       <c r="J153" s="41"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="68"/>
+      <c r="A154" s="89"/>
       <c r="B154" s="27">
         <v>41766</v>
       </c>
@@ -4814,7 +4840,7 @@
       <c r="J154" s="41"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="68"/>
+      <c r="A155" s="89"/>
       <c r="B155" s="27">
         <v>41767</v>
       </c>
@@ -4831,7 +4857,7 @@
       <c r="J155" s="41"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="69"/>
+      <c r="A156" s="90"/>
       <c r="B156" s="27">
         <v>41768</v>
       </c>
@@ -4848,7 +4874,7 @@
       <c r="J156" s="41"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="70">
+      <c r="A157" s="84">
         <v>28</v>
       </c>
       <c r="B157" s="28">
@@ -4867,7 +4893,7 @@
       <c r="J157" s="42"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="71"/>
+      <c r="A158" s="118"/>
       <c r="B158" s="28">
         <v>41772</v>
       </c>
@@ -4884,7 +4910,7 @@
       <c r="J158" s="42"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="71"/>
+      <c r="A159" s="118"/>
       <c r="B159" s="28">
         <v>41773</v>
       </c>
@@ -4901,7 +4927,7 @@
       <c r="J159" s="42"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="71"/>
+      <c r="A160" s="118"/>
       <c r="B160" s="28">
         <v>41774</v>
       </c>
@@ -4918,7 +4944,7 @@
       <c r="J160" s="42"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="72"/>
+      <c r="A161" s="85"/>
       <c r="B161" s="28">
         <v>41775</v>
       </c>
@@ -4935,7 +4961,7 @@
       <c r="J161" s="42"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="67">
+      <c r="A162" s="88">
         <v>29</v>
       </c>
       <c r="B162" s="27">
@@ -4954,7 +4980,7 @@
       <c r="J162" s="41"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="68"/>
+      <c r="A163" s="89"/>
       <c r="B163" s="27">
         <v>41779</v>
       </c>
@@ -4971,7 +4997,7 @@
       <c r="J163" s="41"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="68"/>
+      <c r="A164" s="89"/>
       <c r="B164" s="27">
         <v>41780</v>
       </c>
@@ -4988,7 +5014,7 @@
       <c r="J164" s="41"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="68"/>
+      <c r="A165" s="89"/>
       <c r="B165" s="27">
         <v>41781</v>
       </c>
@@ -5005,7 +5031,7 @@
       <c r="J165" s="41"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="69"/>
+      <c r="A166" s="90"/>
       <c r="B166" s="27">
         <v>41782</v>
       </c>
@@ -5022,7 +5048,7 @@
       <c r="J166" s="41"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="73">
+      <c r="A167" s="124">
         <v>30</v>
       </c>
       <c r="B167" s="28">
@@ -5041,7 +5067,7 @@
       <c r="J167" s="43"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="74"/>
+      <c r="A168" s="125"/>
       <c r="B168" s="28">
         <v>41786</v>
       </c>
@@ -5058,7 +5084,7 @@
       <c r="J168" s="43"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="74"/>
+      <c r="A169" s="125"/>
       <c r="B169" s="28">
         <v>41787</v>
       </c>
@@ -5075,7 +5101,7 @@
       <c r="J169" s="43"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="74"/>
+      <c r="A170" s="125"/>
       <c r="B170" s="28">
         <v>41788</v>
       </c>
@@ -5092,7 +5118,7 @@
       <c r="J170" s="43"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="75"/>
+      <c r="A171" s="126"/>
       <c r="B171" s="28">
         <v>41789</v>
       </c>
@@ -5110,6 +5136,52 @@
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="A92:A96"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="A152:A156"/>
+    <mergeCell ref="A157:A161"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="A112:A116"/>
+    <mergeCell ref="A117:A121"/>
+    <mergeCell ref="A162:A166"/>
+    <mergeCell ref="A167:A171"/>
+    <mergeCell ref="A127:A131"/>
+    <mergeCell ref="A132:A136"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="A142:A146"/>
+    <mergeCell ref="A147:A151"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F25:F30"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A10:A18"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="G2:N4"/>
     <mergeCell ref="A7:A9"/>
@@ -5126,52 +5198,6 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A10:A18"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F25:F30"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="A162:A166"/>
-    <mergeCell ref="A167:A171"/>
-    <mergeCell ref="A127:A131"/>
-    <mergeCell ref="A132:A136"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="A142:A146"/>
-    <mergeCell ref="A147:A151"/>
-    <mergeCell ref="A122:A126"/>
-    <mergeCell ref="A152:A156"/>
-    <mergeCell ref="A157:A161"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="A112:A116"/>
-    <mergeCell ref="A117:A121"/>
-    <mergeCell ref="A92:A96"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A52:A56"/>
   </mergeCells>
   <conditionalFormatting sqref="M7">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNgo.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNgo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\capstone\1. Project management\9. Timelog\individual time log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Capstone\1. Project management\9. Timelog\individual time log\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="104">
   <si>
     <t>Week</t>
   </si>
@@ -840,6 +840,105 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -891,42 +990,9 @@
     <xf numFmtId="16" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -952,72 +1018,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1456,10 +1456,10 @@
   <dimension ref="A1:O171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H44" sqref="H44"/>
+      <selection pane="bottomRight" activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1481,81 +1481,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="67"/>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="69"/>
+      <c r="A1" s="100"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="102"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="118" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="70" t="s">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="72"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="105"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="121" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="75"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="108"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="102"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="78"/>
+      <c r="A4" s="124"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="111"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="111"/>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="113"/>
+      <c r="A5" s="94"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="96"/>
       <c r="F5" s="16"/>
       <c r="H5" s="45" t="s">
         <v>66</v>
@@ -1600,13 +1600,13 @@
       <c r="J6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="91"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="117"/>
     </row>
     <row r="7" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="79">
+      <c r="A7" s="112">
         <v>1</v>
       </c>
       <c r="B7" s="17">
@@ -1633,21 +1633,21 @@
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="31"/>
-      <c r="K7" s="117" t="s">
+      <c r="K7" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="117"/>
+      <c r="L7" s="76"/>
       <c r="M7" s="34">
         <f>SUM(M8:M54)</f>
-        <v>25.203000000000003</v>
+        <v>28.703000000000003</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="80"/>
-      <c r="B8" s="105">
+      <c r="A8" s="113"/>
+      <c r="B8" s="90">
         <v>41586</v>
       </c>
       <c r="C8" s="18">
@@ -1659,7 +1659,7 @@
       <c r="E8" s="19">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F8" s="107">
+      <c r="F8" s="92">
         <f>SUM(E8:E9)</f>
         <v>1.66</v>
       </c>
@@ -1684,8 +1684,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="81"/>
-      <c r="B9" s="106"/>
+      <c r="A9" s="114"/>
+      <c r="B9" s="91"/>
       <c r="C9" s="18">
         <v>0.63194444444444442</v>
       </c>
@@ -1695,7 +1695,7 @@
       <c r="E9" s="19">
         <v>0.5</v>
       </c>
-      <c r="F9" s="108"/>
+      <c r="F9" s="93"/>
       <c r="G9" s="31" t="s">
         <v>25</v>
       </c>
@@ -1706,10 +1706,10 @@
       <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="114">
+      <c r="A10" s="97">
         <v>2</v>
       </c>
-      <c r="B10" s="94">
+      <c r="B10" s="79">
         <v>41589</v>
       </c>
       <c r="C10" s="55">
@@ -1721,7 +1721,7 @@
       <c r="E10" s="56">
         <v>1.5</v>
       </c>
-      <c r="F10" s="121">
+      <c r="F10" s="85">
         <f>SUM(E10:E11)</f>
         <v>2.5</v>
       </c>
@@ -1735,8 +1735,8 @@
       <c r="J10" s="57"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="115"/>
-      <c r="B11" s="95"/>
+      <c r="A11" s="98"/>
+      <c r="B11" s="80"/>
       <c r="C11" s="55">
         <v>0.875</v>
       </c>
@@ -1746,7 +1746,7 @@
       <c r="E11" s="56">
         <v>1</v>
       </c>
-      <c r="F11" s="122"/>
+      <c r="F11" s="86"/>
       <c r="G11" s="57" t="s">
         <v>30</v>
       </c>
@@ -1757,8 +1757,8 @@
       <c r="J11" s="57"/>
     </row>
     <row r="12" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A12" s="115"/>
-      <c r="B12" s="94">
+      <c r="A12" s="98"/>
+      <c r="B12" s="79">
         <v>41590</v>
       </c>
       <c r="C12" s="23">
@@ -1798,8 +1798,8 @@
       <c r="O12" s="36"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="115"/>
-      <c r="B13" s="95"/>
+      <c r="A13" s="98"/>
+      <c r="B13" s="80"/>
       <c r="C13" s="23">
         <v>0.875</v>
       </c>
@@ -1828,8 +1828,8 @@
       <c r="O13" s="36"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="115"/>
-      <c r="B14" s="94">
+      <c r="A14" s="98"/>
+      <c r="B14" s="79">
         <v>41592</v>
       </c>
       <c r="C14" s="26">
@@ -1841,7 +1841,7 @@
       <c r="E14" s="29">
         <v>1.25</v>
       </c>
-      <c r="F14" s="109">
+      <c r="F14" s="77">
         <f>SUM(E14:E15)</f>
         <v>3.25</v>
       </c>
@@ -1861,15 +1861,15 @@
       <c r="L14" s="6"/>
       <c r="M14" s="10">
         <f>SUM(E35:E41)</f>
-        <v>11.8</v>
+        <v>15.3</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="115"/>
-      <c r="B15" s="95"/>
+      <c r="A15" s="98"/>
+      <c r="B15" s="80"/>
       <c r="C15" s="26">
         <v>0.42708333333333331</v>
       </c>
@@ -1879,7 +1879,7 @@
       <c r="E15" s="29">
         <v>2</v>
       </c>
-      <c r="F15" s="110"/>
+      <c r="F15" s="78"/>
       <c r="G15" s="48" t="s">
         <v>30</v>
       </c>
@@ -1894,7 +1894,7 @@
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="115"/>
+      <c r="A16" s="98"/>
       <c r="B16" s="46">
         <v>41593</v>
       </c>
@@ -1934,8 +1934,8 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="115"/>
-      <c r="B17" s="94">
+      <c r="A17" s="98"/>
+      <c r="B17" s="79">
         <v>41594</v>
       </c>
       <c r="C17" s="26">
@@ -1947,7 +1947,7 @@
       <c r="E17" s="29">
         <v>2</v>
       </c>
-      <c r="F17" s="109">
+      <c r="F17" s="77">
         <f>SUM(E17:E18)</f>
         <v>3</v>
       </c>
@@ -1974,8 +1974,8 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="116"/>
-      <c r="B18" s="95"/>
+      <c r="A18" s="99"/>
+      <c r="B18" s="80"/>
       <c r="C18" s="26">
         <v>0.83333333333333337</v>
       </c>
@@ -1985,7 +1985,7 @@
       <c r="E18" s="29">
         <v>1</v>
       </c>
-      <c r="F18" s="110"/>
+      <c r="F18" s="78"/>
       <c r="G18" s="30" t="s">
         <v>24</v>
       </c>
@@ -2002,10 +2002,10 @@
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="88">
+      <c r="A19" s="67">
         <v>3</v>
       </c>
-      <c r="B19" s="86">
+      <c r="B19" s="81">
         <v>41596</v>
       </c>
       <c r="C19" s="53">
@@ -2017,7 +2017,7 @@
       <c r="E19" s="5">
         <v>0.6</v>
       </c>
-      <c r="F19" s="88">
+      <c r="F19" s="67">
         <f>SUM(E19:E20)</f>
         <v>1.18</v>
       </c>
@@ -2044,8 +2044,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="89"/>
-      <c r="B20" s="87"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="82"/>
       <c r="C20" s="53">
         <v>0.89236111111111116</v>
       </c>
@@ -2055,7 +2055,7 @@
       <c r="E20" s="5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F20" s="90"/>
+      <c r="F20" s="69"/>
       <c r="G20" s="41" t="s">
         <v>30</v>
       </c>
@@ -2070,8 +2070,8 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A21" s="89"/>
-      <c r="B21" s="119">
+      <c r="A21" s="68"/>
+      <c r="B21" s="83">
         <v>41597</v>
       </c>
       <c r="C21" s="53">
@@ -2083,7 +2083,7 @@
       <c r="E21" s="52">
         <v>1</v>
       </c>
-      <c r="F21" s="88">
+      <c r="F21" s="67">
         <f>SUM(E21:E22)</f>
         <v>3</v>
       </c>
@@ -2108,8 +2108,8 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="89"/>
-      <c r="B22" s="120"/>
+      <c r="A22" s="68"/>
+      <c r="B22" s="84"/>
       <c r="C22" s="53">
         <v>0.91666666666666663</v>
       </c>
@@ -2119,7 +2119,7 @@
       <c r="E22" s="52">
         <v>2</v>
       </c>
-      <c r="F22" s="90"/>
+      <c r="F22" s="69"/>
       <c r="G22" s="41" t="s">
         <v>24</v>
       </c>
@@ -2136,8 +2136,8 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="89"/>
-      <c r="B23" s="86">
+      <c r="A23" s="68"/>
+      <c r="B23" s="81">
         <v>41598</v>
       </c>
       <c r="C23" s="53">
@@ -2149,7 +2149,7 @@
       <c r="E23" s="5">
         <v>1</v>
       </c>
-      <c r="F23" s="92">
+      <c r="F23" s="88">
         <f>SUM(E23:E24)</f>
         <v>3</v>
       </c>
@@ -2174,8 +2174,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="89"/>
-      <c r="B24" s="87"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="82"/>
       <c r="C24" s="53">
         <v>0.91666666666666663</v>
       </c>
@@ -2185,7 +2185,7 @@
       <c r="E24" s="5">
         <v>2</v>
       </c>
-      <c r="F24" s="93"/>
+      <c r="F24" s="89"/>
       <c r="G24" s="41" t="s">
         <v>24</v>
       </c>
@@ -2207,8 +2207,8 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="89"/>
-      <c r="B25" s="86">
+      <c r="A25" s="68"/>
+      <c r="B25" s="81">
         <v>41599</v>
       </c>
       <c r="C25" s="53">
@@ -2220,7 +2220,7 @@
       <c r="E25" s="5">
         <v>1</v>
       </c>
-      <c r="F25" s="88">
+      <c r="F25" s="67">
         <f>SUM(E25:E30)</f>
         <v>10.35</v>
       </c>
@@ -2236,8 +2236,8 @@
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="89"/>
-      <c r="B26" s="123"/>
+      <c r="A26" s="68"/>
+      <c r="B26" s="87"/>
       <c r="C26" s="53">
         <v>0.375</v>
       </c>
@@ -2247,7 +2247,7 @@
       <c r="E26" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F26" s="89"/>
+      <c r="F26" s="68"/>
       <c r="G26" s="54" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2262,8 @@
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="89"/>
-      <c r="B27" s="123"/>
+      <c r="A27" s="68"/>
+      <c r="B27" s="87"/>
       <c r="C27" s="53">
         <v>0.4236111111111111</v>
       </c>
@@ -2273,7 +2273,7 @@
       <c r="E27" s="5">
         <v>1.5</v>
       </c>
-      <c r="F27" s="89"/>
+      <c r="F27" s="68"/>
       <c r="G27" s="41" t="s">
         <v>87</v>
       </c>
@@ -2286,8 +2286,8 @@
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="89"/>
-      <c r="B28" s="123"/>
+      <c r="A28" s="68"/>
+      <c r="B28" s="87"/>
       <c r="C28" s="53">
         <v>0.52083333333333337</v>
       </c>
@@ -2297,7 +2297,7 @@
       <c r="E28" s="5">
         <v>2</v>
       </c>
-      <c r="F28" s="89"/>
+      <c r="F28" s="68"/>
       <c r="G28" s="41" t="s">
         <v>83</v>
       </c>
@@ -2312,8 +2312,8 @@
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="89"/>
-      <c r="B29" s="123"/>
+      <c r="A29" s="68"/>
+      <c r="B29" s="87"/>
       <c r="C29" s="53">
         <v>0.625</v>
       </c>
@@ -2323,7 +2323,7 @@
       <c r="E29" s="5">
         <v>2.1</v>
       </c>
-      <c r="F29" s="89"/>
+      <c r="F29" s="68"/>
       <c r="G29" s="41" t="s">
         <v>87</v>
       </c>
@@ -2336,8 +2336,8 @@
       <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="89"/>
-      <c r="B30" s="87"/>
+      <c r="A30" s="68"/>
+      <c r="B30" s="82"/>
       <c r="C30" s="53">
         <v>0.84375</v>
       </c>
@@ -2347,7 +2347,7 @@
       <c r="E30" s="5">
         <v>2.65</v>
       </c>
-      <c r="F30" s="90"/>
+      <c r="F30" s="69"/>
       <c r="G30" s="41" t="s">
         <v>88</v>
       </c>
@@ -2360,8 +2360,8 @@
       <c r="N30" s="3"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="89"/>
-      <c r="B31" s="86">
+      <c r="A31" s="68"/>
+      <c r="B31" s="81">
         <v>41600</v>
       </c>
       <c r="C31" s="53">
@@ -2373,7 +2373,7 @@
       <c r="E31" s="5">
         <v>1.25</v>
       </c>
-      <c r="F31" s="92">
+      <c r="F31" s="88">
         <f>SUM(E31:E32)</f>
         <v>2.75</v>
       </c>
@@ -2391,8 +2391,8 @@
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="90"/>
-      <c r="B32" s="87"/>
+      <c r="A32" s="69"/>
+      <c r="B32" s="82"/>
       <c r="C32" s="53">
         <v>0.625</v>
       </c>
@@ -2402,7 +2402,7 @@
       <c r="E32" s="5">
         <v>1.5</v>
       </c>
-      <c r="F32" s="93"/>
+      <c r="F32" s="89"/>
       <c r="G32" s="41" t="s">
         <v>88</v>
       </c>
@@ -2418,7 +2418,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="63"/>
-      <c r="B33" s="86">
+      <c r="B33" s="81">
         <v>41601</v>
       </c>
       <c r="C33" s="53">
@@ -2430,7 +2430,7 @@
       <c r="E33" s="5">
         <v>0.25</v>
       </c>
-      <c r="F33" s="92">
+      <c r="F33" s="88">
         <f>SUM(E33:E34)</f>
         <v>1.5</v>
       </c>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="34" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="64"/>
-      <c r="B34" s="87"/>
+      <c r="B34" s="82"/>
       <c r="C34" s="53">
         <v>0.57291666666666663</v>
       </c>
@@ -2459,7 +2459,7 @@
       <c r="E34" s="5">
         <v>1.25</v>
       </c>
-      <c r="F34" s="93"/>
+      <c r="F34" s="89"/>
       <c r="G34" s="41" t="s">
         <v>88</v>
       </c>
@@ -2476,10 +2476,10 @@
       <c r="N34" s="3"/>
     </row>
     <row r="35" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="84">
+      <c r="A35" s="70">
         <v>4</v>
       </c>
-      <c r="B35" s="82">
+      <c r="B35" s="115">
         <v>41603</v>
       </c>
       <c r="C35" s="65">
@@ -2491,7 +2491,7 @@
       <c r="E35" s="6">
         <v>1.25</v>
       </c>
-      <c r="F35" s="84">
+      <c r="F35" s="70">
         <f>SUM(E35:E36)</f>
         <v>3.25</v>
       </c>
@@ -2516,8 +2516,8 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="118"/>
-      <c r="B36" s="83"/>
+      <c r="A36" s="71"/>
+      <c r="B36" s="116"/>
       <c r="C36" s="65">
         <v>0.91666666666666663</v>
       </c>
@@ -2527,7 +2527,7 @@
       <c r="E36" s="6">
         <v>2</v>
       </c>
-      <c r="F36" s="85"/>
+      <c r="F36" s="72"/>
       <c r="G36" s="42" t="s">
         <v>98</v>
       </c>
@@ -2542,8 +2542,8 @@
       <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="118"/>
-      <c r="B37" s="82">
+      <c r="A37" s="71"/>
+      <c r="B37" s="115">
         <v>41604</v>
       </c>
       <c r="C37" s="65">
@@ -2555,7 +2555,7 @@
       <c r="E37" s="6">
         <v>2.5</v>
       </c>
-      <c r="F37" s="84">
+      <c r="F37" s="70">
         <f>SUM(E37:E38)</f>
         <v>3.5</v>
       </c>
@@ -2580,8 +2580,8 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="118"/>
-      <c r="B38" s="83"/>
+      <c r="A38" s="71"/>
+      <c r="B38" s="116"/>
       <c r="C38" s="65">
         <v>0.5625</v>
       </c>
@@ -2591,7 +2591,7 @@
       <c r="E38" s="6">
         <v>1</v>
       </c>
-      <c r="F38" s="85"/>
+      <c r="F38" s="72"/>
       <c r="G38" s="42" t="s">
         <v>87</v>
       </c>
@@ -2606,7 +2606,7 @@
       <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="118"/>
+      <c r="A39" s="71"/>
       <c r="B39" s="28">
         <v>41605</v>
       </c>
@@ -2644,7 +2644,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="118"/>
+      <c r="A40" s="71"/>
       <c r="B40" s="28">
         <v>41606</v>
       </c>
@@ -2682,19 +2682,29 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="85"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="28">
         <v>41607</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
+      <c r="C41" s="65">
+        <v>0.5625</v>
+      </c>
+      <c r="D41" s="65">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E41" s="6">
+        <v>3.5</v>
+      </c>
       <c r="F41" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
+        <v>3.5</v>
+      </c>
+      <c r="G41" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="H41" s="42" t="s">
+        <v>103</v>
+      </c>
       <c r="I41" s="42"/>
       <c r="J41" s="42"/>
       <c r="K41" s="8" t="s">
@@ -2710,7 +2720,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="88">
+      <c r="A42" s="67">
         <v>5</v>
       </c>
       <c r="B42" s="27">
@@ -2740,7 +2750,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="89"/>
+      <c r="A43" s="68"/>
       <c r="B43" s="27">
         <v>41611</v>
       </c>
@@ -2768,7 +2778,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="89"/>
+      <c r="A44" s="68"/>
       <c r="B44" s="27">
         <v>41612</v>
       </c>
@@ -2796,7 +2806,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="89"/>
+      <c r="A45" s="68"/>
       <c r="B45" s="27">
         <v>41613</v>
       </c>
@@ -2824,7 +2834,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="90"/>
+      <c r="A46" s="69"/>
       <c r="B46" s="27">
         <v>41614</v>
       </c>
@@ -2852,7 +2862,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="84">
+      <c r="A47" s="70">
         <v>6</v>
       </c>
       <c r="B47" s="28">
@@ -2882,7 +2892,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="118"/>
+      <c r="A48" s="71"/>
       <c r="B48" s="28">
         <v>41618</v>
       </c>
@@ -2910,7 +2920,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="118"/>
+      <c r="A49" s="71"/>
       <c r="B49" s="28">
         <v>41619</v>
       </c>
@@ -2938,7 +2948,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="118"/>
+      <c r="A50" s="71"/>
       <c r="B50" s="28">
         <v>41620</v>
       </c>
@@ -2966,7 +2976,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="85"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="28">
         <v>41621</v>
       </c>
@@ -2994,7 +3004,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="88">
+      <c r="A52" s="67">
         <v>7</v>
       </c>
       <c r="B52" s="27">
@@ -3024,7 +3034,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="89"/>
+      <c r="A53" s="68"/>
       <c r="B53" s="27">
         <v>41625</v>
       </c>
@@ -3052,7 +3062,7 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="89"/>
+      <c r="A54" s="68"/>
       <c r="B54" s="27">
         <v>41626</v>
       </c>
@@ -3080,7 +3090,7 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="89"/>
+      <c r="A55" s="68"/>
       <c r="B55" s="27">
         <v>41627</v>
       </c>
@@ -3097,7 +3107,7 @@
       <c r="J55" s="41"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="90"/>
+      <c r="A56" s="69"/>
       <c r="B56" s="27">
         <v>41628</v>
       </c>
@@ -3114,7 +3124,7 @@
       <c r="J56" s="41"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="84">
+      <c r="A57" s="70">
         <v>8</v>
       </c>
       <c r="B57" s="28">
@@ -3133,7 +3143,7 @@
       <c r="J57" s="42"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="118"/>
+      <c r="A58" s="71"/>
       <c r="B58" s="28">
         <v>41632</v>
       </c>
@@ -3150,7 +3160,7 @@
       <c r="J58" s="42"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="118"/>
+      <c r="A59" s="71"/>
       <c r="B59" s="28">
         <v>41633</v>
       </c>
@@ -3167,7 +3177,7 @@
       <c r="J59" s="42"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="118"/>
+      <c r="A60" s="71"/>
       <c r="B60" s="28">
         <v>41634</v>
       </c>
@@ -3184,7 +3194,7 @@
       <c r="J60" s="42"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="85"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="28">
         <v>41635</v>
       </c>
@@ -3201,7 +3211,7 @@
       <c r="J61" s="42"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="88">
+      <c r="A62" s="67">
         <v>9</v>
       </c>
       <c r="B62" s="27">
@@ -3220,7 +3230,7 @@
       <c r="J62" s="41"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="89"/>
+      <c r="A63" s="68"/>
       <c r="B63" s="27">
         <v>41639</v>
       </c>
@@ -3237,7 +3247,7 @@
       <c r="J63" s="41"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="89"/>
+      <c r="A64" s="68"/>
       <c r="B64" s="27">
         <v>41640</v>
       </c>
@@ -3254,7 +3264,7 @@
       <c r="J64" s="41"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="89"/>
+      <c r="A65" s="68"/>
       <c r="B65" s="27">
         <v>41641</v>
       </c>
@@ -3271,7 +3281,7 @@
       <c r="J65" s="41"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="90"/>
+      <c r="A66" s="69"/>
       <c r="B66" s="27">
         <v>41642</v>
       </c>
@@ -3288,7 +3298,7 @@
       <c r="J66" s="41"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="84">
+      <c r="A67" s="70">
         <v>10</v>
       </c>
       <c r="B67" s="28">
@@ -3307,7 +3317,7 @@
       <c r="J67" s="42"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="118"/>
+      <c r="A68" s="71"/>
       <c r="B68" s="28">
         <v>41646</v>
       </c>
@@ -3324,7 +3334,7 @@
       <c r="J68" s="42"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="118"/>
+      <c r="A69" s="71"/>
       <c r="B69" s="28">
         <v>41647</v>
       </c>
@@ -3341,7 +3351,7 @@
       <c r="J69" s="42"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="118"/>
+      <c r="A70" s="71"/>
       <c r="B70" s="28">
         <v>41648</v>
       </c>
@@ -3358,7 +3368,7 @@
       <c r="J70" s="42"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="85"/>
+      <c r="A71" s="72"/>
       <c r="B71" s="28">
         <v>41649</v>
       </c>
@@ -3375,7 +3385,7 @@
       <c r="J71" s="42"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="88">
+      <c r="A72" s="67">
         <v>11</v>
       </c>
       <c r="B72" s="27">
@@ -3394,7 +3404,7 @@
       <c r="J72" s="41"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="89"/>
+      <c r="A73" s="68"/>
       <c r="B73" s="27">
         <v>41653</v>
       </c>
@@ -3411,7 +3421,7 @@
       <c r="J73" s="41"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="89"/>
+      <c r="A74" s="68"/>
       <c r="B74" s="27">
         <v>41654</v>
       </c>
@@ -3428,7 +3438,7 @@
       <c r="J74" s="41"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="89"/>
+      <c r="A75" s="68"/>
       <c r="B75" s="27">
         <v>41655</v>
       </c>
@@ -3445,7 +3455,7 @@
       <c r="J75" s="41"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="90"/>
+      <c r="A76" s="69"/>
       <c r="B76" s="27">
         <v>41656</v>
       </c>
@@ -3462,7 +3472,7 @@
       <c r="J76" s="41"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="84">
+      <c r="A77" s="70">
         <v>12</v>
       </c>
       <c r="B77" s="28">
@@ -3481,7 +3491,7 @@
       <c r="J77" s="42"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="118"/>
+      <c r="A78" s="71"/>
       <c r="B78" s="28">
         <v>41660</v>
       </c>
@@ -3498,7 +3508,7 @@
       <c r="J78" s="42"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="118"/>
+      <c r="A79" s="71"/>
       <c r="B79" s="28">
         <v>41661</v>
       </c>
@@ -3515,7 +3525,7 @@
       <c r="J79" s="42"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="118"/>
+      <c r="A80" s="71"/>
       <c r="B80" s="28">
         <v>41662</v>
       </c>
@@ -3532,7 +3542,7 @@
       <c r="J80" s="42"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="85"/>
+      <c r="A81" s="72"/>
       <c r="B81" s="28">
         <v>41663</v>
       </c>
@@ -3549,7 +3559,7 @@
       <c r="J81" s="42"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="88">
+      <c r="A82" s="67">
         <v>13</v>
       </c>
       <c r="B82" s="27">
@@ -3570,7 +3580,7 @@
       <c r="J82" s="41"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="89"/>
+      <c r="A83" s="68"/>
       <c r="B83" s="27">
         <v>41667</v>
       </c>
@@ -3589,7 +3599,7 @@
       <c r="J83" s="41"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="89"/>
+      <c r="A84" s="68"/>
       <c r="B84" s="27">
         <v>41668</v>
       </c>
@@ -3608,7 +3618,7 @@
       <c r="J84" s="41"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="89"/>
+      <c r="A85" s="68"/>
       <c r="B85" s="27">
         <v>41669</v>
       </c>
@@ -3627,7 +3637,7 @@
       <c r="J85" s="41"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="90"/>
+      <c r="A86" s="69"/>
       <c r="B86" s="27">
         <v>41670</v>
       </c>
@@ -3646,7 +3656,7 @@
       <c r="J86" s="41"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="84">
+      <c r="A87" s="70">
         <v>14</v>
       </c>
       <c r="B87" s="28">
@@ -3667,7 +3677,7 @@
       <c r="J87" s="42"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="118"/>
+      <c r="A88" s="71"/>
       <c r="B88" s="28">
         <v>41674</v>
       </c>
@@ -3686,7 +3696,7 @@
       <c r="J88" s="42"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="118"/>
+      <c r="A89" s="71"/>
       <c r="B89" s="28">
         <v>41675</v>
       </c>
@@ -3705,7 +3715,7 @@
       <c r="J89" s="42"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="118"/>
+      <c r="A90" s="71"/>
       <c r="B90" s="28">
         <v>41676</v>
       </c>
@@ -3724,7 +3734,7 @@
       <c r="J90" s="42"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="85"/>
+      <c r="A91" s="72"/>
       <c r="B91" s="28">
         <v>41677</v>
       </c>
@@ -3743,7 +3753,7 @@
       <c r="J91" s="42"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="88">
+      <c r="A92" s="67">
         <v>15</v>
       </c>
       <c r="B92" s="27">
@@ -3762,7 +3772,7 @@
       <c r="J92" s="41"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="89"/>
+      <c r="A93" s="68"/>
       <c r="B93" s="27">
         <v>41681</v>
       </c>
@@ -3779,7 +3789,7 @@
       <c r="J93" s="41"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="89"/>
+      <c r="A94" s="68"/>
       <c r="B94" s="27">
         <v>41682</v>
       </c>
@@ -3796,7 +3806,7 @@
       <c r="J94" s="41"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="89"/>
+      <c r="A95" s="68"/>
       <c r="B95" s="27">
         <v>41683</v>
       </c>
@@ -3813,7 +3823,7 @@
       <c r="J95" s="41"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="90"/>
+      <c r="A96" s="69"/>
       <c r="B96" s="27">
         <v>41684</v>
       </c>
@@ -3830,7 +3840,7 @@
       <c r="J96" s="41"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="84">
+      <c r="A97" s="70">
         <v>16</v>
       </c>
       <c r="B97" s="28">
@@ -3849,7 +3859,7 @@
       <c r="J97" s="42"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="118"/>
+      <c r="A98" s="71"/>
       <c r="B98" s="28">
         <v>41688</v>
       </c>
@@ -3866,7 +3876,7 @@
       <c r="J98" s="42"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="118"/>
+      <c r="A99" s="71"/>
       <c r="B99" s="28">
         <v>41689</v>
       </c>
@@ -3883,7 +3893,7 @@
       <c r="J99" s="42"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="118"/>
+      <c r="A100" s="71"/>
       <c r="B100" s="28">
         <v>41690</v>
       </c>
@@ -3900,7 +3910,7 @@
       <c r="J100" s="42"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="85"/>
+      <c r="A101" s="72"/>
       <c r="B101" s="28">
         <v>41691</v>
       </c>
@@ -3917,7 +3927,7 @@
       <c r="J101" s="42"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="88">
+      <c r="A102" s="67">
         <v>17</v>
       </c>
       <c r="B102" s="27">
@@ -3936,7 +3946,7 @@
       <c r="J102" s="41"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="89"/>
+      <c r="A103" s="68"/>
       <c r="B103" s="27">
         <v>41695</v>
       </c>
@@ -3953,7 +3963,7 @@
       <c r="J103" s="41"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="89"/>
+      <c r="A104" s="68"/>
       <c r="B104" s="27">
         <v>41696</v>
       </c>
@@ -3970,7 +3980,7 @@
       <c r="J104" s="41"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="89"/>
+      <c r="A105" s="68"/>
       <c r="B105" s="27">
         <v>41697</v>
       </c>
@@ -3987,7 +3997,7 @@
       <c r="J105" s="41"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="90"/>
+      <c r="A106" s="69"/>
       <c r="B106" s="27">
         <v>41698</v>
       </c>
@@ -4004,7 +4014,7 @@
       <c r="J106" s="41"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="84">
+      <c r="A107" s="70">
         <v>18</v>
       </c>
       <c r="B107" s="28">
@@ -4023,7 +4033,7 @@
       <c r="J107" s="42"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="118"/>
+      <c r="A108" s="71"/>
       <c r="B108" s="28">
         <v>41702</v>
       </c>
@@ -4040,7 +4050,7 @@
       <c r="J108" s="42"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="118"/>
+      <c r="A109" s="71"/>
       <c r="B109" s="28">
         <v>41703</v>
       </c>
@@ -4057,7 +4067,7 @@
       <c r="J109" s="42"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="118"/>
+      <c r="A110" s="71"/>
       <c r="B110" s="28">
         <v>41704</v>
       </c>
@@ -4074,7 +4084,7 @@
       <c r="J110" s="42"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="85"/>
+      <c r="A111" s="72"/>
       <c r="B111" s="28">
         <v>41705</v>
       </c>
@@ -4091,7 +4101,7 @@
       <c r="J111" s="42"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="88">
+      <c r="A112" s="67">
         <v>19</v>
       </c>
       <c r="B112" s="27">
@@ -4110,7 +4120,7 @@
       <c r="J112" s="41"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="89"/>
+      <c r="A113" s="68"/>
       <c r="B113" s="27">
         <v>41709</v>
       </c>
@@ -4127,7 +4137,7 @@
       <c r="J113" s="41"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="89"/>
+      <c r="A114" s="68"/>
       <c r="B114" s="27">
         <v>41710</v>
       </c>
@@ -4144,7 +4154,7 @@
       <c r="J114" s="41"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="89"/>
+      <c r="A115" s="68"/>
       <c r="B115" s="27">
         <v>41711</v>
       </c>
@@ -4161,7 +4171,7 @@
       <c r="J115" s="41"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="90"/>
+      <c r="A116" s="69"/>
       <c r="B116" s="27">
         <v>41712</v>
       </c>
@@ -4178,7 +4188,7 @@
       <c r="J116" s="41"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="84">
+      <c r="A117" s="70">
         <v>20</v>
       </c>
       <c r="B117" s="28">
@@ -4197,7 +4207,7 @@
       <c r="J117" s="42"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="118"/>
+      <c r="A118" s="71"/>
       <c r="B118" s="28">
         <v>41716</v>
       </c>
@@ -4214,7 +4224,7 @@
       <c r="J118" s="42"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="118"/>
+      <c r="A119" s="71"/>
       <c r="B119" s="28">
         <v>41717</v>
       </c>
@@ -4231,7 +4241,7 @@
       <c r="J119" s="42"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="118"/>
+      <c r="A120" s="71"/>
       <c r="B120" s="28">
         <v>41718</v>
       </c>
@@ -4248,7 +4258,7 @@
       <c r="J120" s="42"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="85"/>
+      <c r="A121" s="72"/>
       <c r="B121" s="28">
         <v>41719</v>
       </c>
@@ -4265,7 +4275,7 @@
       <c r="J121" s="42"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="88">
+      <c r="A122" s="67">
         <v>21</v>
       </c>
       <c r="B122" s="27">
@@ -4284,7 +4294,7 @@
       <c r="J122" s="41"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="89"/>
+      <c r="A123" s="68"/>
       <c r="B123" s="27">
         <v>41723</v>
       </c>
@@ -4301,7 +4311,7 @@
       <c r="J123" s="41"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="89"/>
+      <c r="A124" s="68"/>
       <c r="B124" s="27">
         <v>41724</v>
       </c>
@@ -4318,7 +4328,7 @@
       <c r="J124" s="41"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="89"/>
+      <c r="A125" s="68"/>
       <c r="B125" s="27">
         <v>41725</v>
       </c>
@@ -4335,7 +4345,7 @@
       <c r="J125" s="41"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="90"/>
+      <c r="A126" s="69"/>
       <c r="B126" s="27">
         <v>41726</v>
       </c>
@@ -4352,7 +4362,7 @@
       <c r="J126" s="41"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="84">
+      <c r="A127" s="70">
         <v>22</v>
       </c>
       <c r="B127" s="28">
@@ -4371,7 +4381,7 @@
       <c r="J127" s="42"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="118"/>
+      <c r="A128" s="71"/>
       <c r="B128" s="28">
         <v>41730</v>
       </c>
@@ -4388,7 +4398,7 @@
       <c r="J128" s="42"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="118"/>
+      <c r="A129" s="71"/>
       <c r="B129" s="28">
         <v>41731</v>
       </c>
@@ -4405,7 +4415,7 @@
       <c r="J129" s="42"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="118"/>
+      <c r="A130" s="71"/>
       <c r="B130" s="28">
         <v>41732</v>
       </c>
@@ -4422,7 +4432,7 @@
       <c r="J130" s="42"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="85"/>
+      <c r="A131" s="72"/>
       <c r="B131" s="28">
         <v>41733</v>
       </c>
@@ -4439,7 +4449,7 @@
       <c r="J131" s="42"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="88">
+      <c r="A132" s="67">
         <v>23</v>
       </c>
       <c r="B132" s="27">
@@ -4458,7 +4468,7 @@
       <c r="J132" s="41"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="89"/>
+      <c r="A133" s="68"/>
       <c r="B133" s="27">
         <v>41737</v>
       </c>
@@ -4475,7 +4485,7 @@
       <c r="J133" s="41"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="89"/>
+      <c r="A134" s="68"/>
       <c r="B134" s="27">
         <v>41738</v>
       </c>
@@ -4492,7 +4502,7 @@
       <c r="J134" s="41"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="89"/>
+      <c r="A135" s="68"/>
       <c r="B135" s="27">
         <v>41739</v>
       </c>
@@ -4509,7 +4519,7 @@
       <c r="J135" s="41"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="90"/>
+      <c r="A136" s="69"/>
       <c r="B136" s="27">
         <v>41740</v>
       </c>
@@ -4526,7 +4536,7 @@
       <c r="J136" s="41"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="84">
+      <c r="A137" s="70">
         <v>24</v>
       </c>
       <c r="B137" s="28">
@@ -4545,7 +4555,7 @@
       <c r="J137" s="42"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="118"/>
+      <c r="A138" s="71"/>
       <c r="B138" s="28">
         <v>41744</v>
       </c>
@@ -4562,7 +4572,7 @@
       <c r="J138" s="42"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="118"/>
+      <c r="A139" s="71"/>
       <c r="B139" s="28">
         <v>41745</v>
       </c>
@@ -4579,7 +4589,7 @@
       <c r="J139" s="42"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="118"/>
+      <c r="A140" s="71"/>
       <c r="B140" s="28">
         <v>41746</v>
       </c>
@@ -4596,7 +4606,7 @@
       <c r="J140" s="42"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="85"/>
+      <c r="A141" s="72"/>
       <c r="B141" s="28">
         <v>41747</v>
       </c>
@@ -4613,7 +4623,7 @@
       <c r="J141" s="42"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="88">
+      <c r="A142" s="67">
         <v>25</v>
       </c>
       <c r="B142" s="27">
@@ -4632,7 +4642,7 @@
       <c r="J142" s="41"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="89"/>
+      <c r="A143" s="68"/>
       <c r="B143" s="27">
         <v>41751</v>
       </c>
@@ -4649,7 +4659,7 @@
       <c r="J143" s="41"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="89"/>
+      <c r="A144" s="68"/>
       <c r="B144" s="27">
         <v>41752</v>
       </c>
@@ -4666,7 +4676,7 @@
       <c r="J144" s="41"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="89"/>
+      <c r="A145" s="68"/>
       <c r="B145" s="27">
         <v>41753</v>
       </c>
@@ -4683,7 +4693,7 @@
       <c r="J145" s="41"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="90"/>
+      <c r="A146" s="69"/>
       <c r="B146" s="27">
         <v>41754</v>
       </c>
@@ -4700,7 +4710,7 @@
       <c r="J146" s="41"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="84">
+      <c r="A147" s="70">
         <v>26</v>
       </c>
       <c r="B147" s="28">
@@ -4719,7 +4729,7 @@
       <c r="J147" s="42"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="118"/>
+      <c r="A148" s="71"/>
       <c r="B148" s="28">
         <v>41758</v>
       </c>
@@ -4736,7 +4746,7 @@
       <c r="J148" s="42"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="118"/>
+      <c r="A149" s="71"/>
       <c r="B149" s="28">
         <v>41759</v>
       </c>
@@ -4753,7 +4763,7 @@
       <c r="J149" s="42"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="118"/>
+      <c r="A150" s="71"/>
       <c r="B150" s="28">
         <v>41760</v>
       </c>
@@ -4770,7 +4780,7 @@
       <c r="J150" s="42"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="85"/>
+      <c r="A151" s="72"/>
       <c r="B151" s="28">
         <v>41761</v>
       </c>
@@ -4787,7 +4797,7 @@
       <c r="J151" s="42"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="88">
+      <c r="A152" s="67">
         <v>27</v>
       </c>
       <c r="B152" s="27">
@@ -4806,7 +4816,7 @@
       <c r="J152" s="41"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="89"/>
+      <c r="A153" s="68"/>
       <c r="B153" s="27">
         <v>41765</v>
       </c>
@@ -4823,7 +4833,7 @@
       <c r="J153" s="41"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="89"/>
+      <c r="A154" s="68"/>
       <c r="B154" s="27">
         <v>41766</v>
       </c>
@@ -4840,7 +4850,7 @@
       <c r="J154" s="41"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="89"/>
+      <c r="A155" s="68"/>
       <c r="B155" s="27">
         <v>41767</v>
       </c>
@@ -4857,7 +4867,7 @@
       <c r="J155" s="41"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="90"/>
+      <c r="A156" s="69"/>
       <c r="B156" s="27">
         <v>41768</v>
       </c>
@@ -4874,7 +4884,7 @@
       <c r="J156" s="41"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="84">
+      <c r="A157" s="70">
         <v>28</v>
       </c>
       <c r="B157" s="28">
@@ -4893,7 +4903,7 @@
       <c r="J157" s="42"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="118"/>
+      <c r="A158" s="71"/>
       <c r="B158" s="28">
         <v>41772</v>
       </c>
@@ -4910,7 +4920,7 @@
       <c r="J158" s="42"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="118"/>
+      <c r="A159" s="71"/>
       <c r="B159" s="28">
         <v>41773</v>
       </c>
@@ -4927,7 +4937,7 @@
       <c r="J159" s="42"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="118"/>
+      <c r="A160" s="71"/>
       <c r="B160" s="28">
         <v>41774</v>
       </c>
@@ -4944,7 +4954,7 @@
       <c r="J160" s="42"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="85"/>
+      <c r="A161" s="72"/>
       <c r="B161" s="28">
         <v>41775</v>
       </c>
@@ -4961,7 +4971,7 @@
       <c r="J161" s="42"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="88">
+      <c r="A162" s="67">
         <v>29</v>
       </c>
       <c r="B162" s="27">
@@ -4980,7 +4990,7 @@
       <c r="J162" s="41"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="89"/>
+      <c r="A163" s="68"/>
       <c r="B163" s="27">
         <v>41779</v>
       </c>
@@ -4997,7 +5007,7 @@
       <c r="J163" s="41"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="89"/>
+      <c r="A164" s="68"/>
       <c r="B164" s="27">
         <v>41780</v>
       </c>
@@ -5014,7 +5024,7 @@
       <c r="J164" s="41"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="89"/>
+      <c r="A165" s="68"/>
       <c r="B165" s="27">
         <v>41781</v>
       </c>
@@ -5031,7 +5041,7 @@
       <c r="J165" s="41"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="90"/>
+      <c r="A166" s="69"/>
       <c r="B166" s="27">
         <v>41782</v>
       </c>
@@ -5048,7 +5058,7 @@
       <c r="J166" s="41"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="124">
+      <c r="A167" s="73">
         <v>30</v>
       </c>
       <c r="B167" s="28">
@@ -5067,7 +5077,7 @@
       <c r="J167" s="43"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="125"/>
+      <c r="A168" s="74"/>
       <c r="B168" s="28">
         <v>41786</v>
       </c>
@@ -5084,7 +5094,7 @@
       <c r="J168" s="43"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="125"/>
+      <c r="A169" s="74"/>
       <c r="B169" s="28">
         <v>41787</v>
       </c>
@@ -5101,7 +5111,7 @@
       <c r="J169" s="43"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="125"/>
+      <c r="A170" s="74"/>
       <c r="B170" s="28">
         <v>41788</v>
       </c>
@@ -5118,7 +5128,7 @@
       <c r="J170" s="43"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="126"/>
+      <c r="A171" s="75"/>
       <c r="B171" s="28">
         <v>41789</v>
       </c>
@@ -5136,30 +5146,28 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A92:A96"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A122:A126"/>
-    <mergeCell ref="A152:A156"/>
-    <mergeCell ref="A157:A161"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="A112:A116"/>
-    <mergeCell ref="A117:A121"/>
-    <mergeCell ref="A162:A166"/>
-    <mergeCell ref="A167:A171"/>
-    <mergeCell ref="A127:A131"/>
-    <mergeCell ref="A132:A136"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="A142:A146"/>
-    <mergeCell ref="A147:A151"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="G2:N4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A19:A32"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A10:A18"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="A82:A86"/>
@@ -5176,28 +5184,30 @@
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="A67:A71"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A10:A18"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="G2:N4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A19:A32"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="A162:A166"/>
+    <mergeCell ref="A167:A171"/>
+    <mergeCell ref="A127:A131"/>
+    <mergeCell ref="A132:A136"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="A142:A146"/>
+    <mergeCell ref="A147:A151"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="A152:A156"/>
+    <mergeCell ref="A157:A161"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="A112:A116"/>
+    <mergeCell ref="A117:A121"/>
+    <mergeCell ref="A92:A96"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A52:A56"/>
   </mergeCells>
   <conditionalFormatting sqref="M7">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNgo.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNgo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Capstone\1. Project management\9. Timelog\individual time log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\capstone\1. Project management\9. Timelog\individual time log\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="108">
   <si>
     <t>Week</t>
   </si>
@@ -362,6 +362,19 @@
   </si>
   <si>
     <t>analyze requirement</t>
+  </si>
+  <si>
+    <t>Write Functional, Quality Attribute and Entity of Module hỏi đáp</t>
+  </si>
+  <si>
+    <t>update Functional, Quality Attribute and Entity of Module hỏi đáp</t>
+  </si>
+  <si>
+    <t>update risk log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update master design plan
+</t>
   </si>
 </sst>
 </file>
@@ -371,7 +384,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,8 +465,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -481,6 +501,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,7 +692,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -840,6 +866,72 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -849,14 +941,104 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -867,157 +1049,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1453,13 +1488,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O171"/>
+  <dimension ref="A1:O175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="6" topLeftCell="G40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H45" sqref="H45"/>
+      <selection pane="bottomRight" activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1481,81 +1516,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="100"/>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="102"/>
+      <c r="A1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="70"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="103" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="105"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="73"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="108"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="76"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="124"/>
-      <c r="B4" s="125"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="111"/>
+      <c r="A4" s="103"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="79"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="96"/>
+      <c r="A5" s="112"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="114"/>
       <c r="F5" s="16"/>
       <c r="H5" s="45" t="s">
         <v>66</v>
@@ -1600,13 +1635,13 @@
       <c r="J6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="117"/>
-      <c r="L6" s="117"/>
-      <c r="M6" s="117"/>
-      <c r="N6" s="117"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
     </row>
     <row r="7" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="112">
+      <c r="A7" s="80">
         <v>1</v>
       </c>
       <c r="B7" s="17">
@@ -1633,21 +1668,21 @@
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="31"/>
-      <c r="K7" s="76" t="s">
+      <c r="K7" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="76"/>
+      <c r="L7" s="118"/>
       <c r="M7" s="34">
-        <f>SUM(M8:M54)</f>
-        <v>28.703000000000003</v>
+        <f>SUM(M8:M58)</f>
+        <v>32.203000000000003</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="113"/>
-      <c r="B8" s="90">
+      <c r="A8" s="81"/>
+      <c r="B8" s="106">
         <v>41586</v>
       </c>
       <c r="C8" s="18">
@@ -1659,7 +1694,7 @@
       <c r="E8" s="19">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F8" s="92">
+      <c r="F8" s="108">
         <f>SUM(E8:E9)</f>
         <v>1.66</v>
       </c>
@@ -1684,8 +1719,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="114"/>
-      <c r="B9" s="91"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="107"/>
       <c r="C9" s="18">
         <v>0.63194444444444442</v>
       </c>
@@ -1695,7 +1730,7 @@
       <c r="E9" s="19">
         <v>0.5</v>
       </c>
-      <c r="F9" s="93"/>
+      <c r="F9" s="109"/>
       <c r="G9" s="31" t="s">
         <v>25</v>
       </c>
@@ -1706,10 +1741,10 @@
       <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="97">
+      <c r="A10" s="115">
         <v>2</v>
       </c>
-      <c r="B10" s="79">
+      <c r="B10" s="95">
         <v>41589</v>
       </c>
       <c r="C10" s="55">
@@ -1721,7 +1756,7 @@
       <c r="E10" s="56">
         <v>1.5</v>
       </c>
-      <c r="F10" s="85">
+      <c r="F10" s="122">
         <f>SUM(E10:E11)</f>
         <v>2.5</v>
       </c>
@@ -1735,8 +1770,8 @@
       <c r="J10" s="57"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="98"/>
-      <c r="B11" s="80"/>
+      <c r="A11" s="116"/>
+      <c r="B11" s="96"/>
       <c r="C11" s="55">
         <v>0.875</v>
       </c>
@@ -1746,7 +1781,7 @@
       <c r="E11" s="56">
         <v>1</v>
       </c>
-      <c r="F11" s="86"/>
+      <c r="F11" s="123"/>
       <c r="G11" s="57" t="s">
         <v>30</v>
       </c>
@@ -1757,8 +1792,8 @@
       <c r="J11" s="57"/>
     </row>
     <row r="12" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A12" s="98"/>
-      <c r="B12" s="79">
+      <c r="A12" s="116"/>
+      <c r="B12" s="95">
         <v>41590</v>
       </c>
       <c r="C12" s="23">
@@ -1798,8 +1833,8 @@
       <c r="O12" s="36"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="98"/>
-      <c r="B13" s="80"/>
+      <c r="A13" s="116"/>
+      <c r="B13" s="96"/>
       <c r="C13" s="23">
         <v>0.875</v>
       </c>
@@ -1828,8 +1863,8 @@
       <c r="O13" s="36"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="98"/>
-      <c r="B14" s="79">
+      <c r="A14" s="116"/>
+      <c r="B14" s="95">
         <v>41592</v>
       </c>
       <c r="C14" s="26">
@@ -1841,7 +1876,7 @@
       <c r="E14" s="29">
         <v>1.25</v>
       </c>
-      <c r="F14" s="77">
+      <c r="F14" s="110">
         <f>SUM(E14:E15)</f>
         <v>3.25</v>
       </c>
@@ -1868,8 +1903,8 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="98"/>
-      <c r="B15" s="80"/>
+      <c r="A15" s="116"/>
+      <c r="B15" s="96"/>
       <c r="C15" s="26">
         <v>0.42708333333333331</v>
       </c>
@@ -1879,7 +1914,7 @@
       <c r="E15" s="29">
         <v>2</v>
       </c>
-      <c r="F15" s="78"/>
+      <c r="F15" s="111"/>
       <c r="G15" s="48" t="s">
         <v>30</v>
       </c>
@@ -1894,7 +1929,7 @@
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="98"/>
+      <c r="A16" s="116"/>
       <c r="B16" s="46">
         <v>41593</v>
       </c>
@@ -1926,16 +1961,16 @@
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="10">
-        <f>SUM(E42:E46)</f>
-        <v>0</v>
+        <f>SUM(E44:E50)</f>
+        <v>3.5</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="98"/>
-      <c r="B17" s="79">
+      <c r="A17" s="116"/>
+      <c r="B17" s="95">
         <v>41594</v>
       </c>
       <c r="C17" s="26">
@@ -1947,7 +1982,7 @@
       <c r="E17" s="29">
         <v>2</v>
       </c>
-      <c r="F17" s="77">
+      <c r="F17" s="110">
         <f>SUM(E17:E18)</f>
         <v>3</v>
       </c>
@@ -1966,7 +2001,7 @@
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="10">
-        <f>SUM(E52:E56)</f>
+        <f>SUM(E56:E60)</f>
         <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
@@ -1974,8 +2009,8 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="99"/>
-      <c r="B18" s="80"/>
+      <c r="A18" s="117"/>
+      <c r="B18" s="96"/>
       <c r="C18" s="26">
         <v>0.83333333333333337</v>
       </c>
@@ -1985,7 +2020,7 @@
       <c r="E18" s="29">
         <v>1</v>
       </c>
-      <c r="F18" s="78"/>
+      <c r="F18" s="111"/>
       <c r="G18" s="30" t="s">
         <v>24</v>
       </c>
@@ -2002,10 +2037,10 @@
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="67">
+      <c r="A19" s="89">
         <v>3</v>
       </c>
-      <c r="B19" s="81">
+      <c r="B19" s="87">
         <v>41596</v>
       </c>
       <c r="C19" s="53">
@@ -2017,7 +2052,7 @@
       <c r="E19" s="5">
         <v>0.6</v>
       </c>
-      <c r="F19" s="67">
+      <c r="F19" s="89">
         <f>SUM(E19:E20)</f>
         <v>1.18</v>
       </c>
@@ -2036,7 +2071,7 @@
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="10">
-        <f>SUM(E57:E61)</f>
+        <f>SUM(E61:E65)</f>
         <v>0</v>
       </c>
       <c r="N19" s="3" t="s">
@@ -2044,8 +2079,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="68"/>
-      <c r="B20" s="82"/>
+      <c r="A20" s="90"/>
+      <c r="B20" s="88"/>
       <c r="C20" s="53">
         <v>0.89236111111111116</v>
       </c>
@@ -2055,7 +2090,7 @@
       <c r="E20" s="5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F20" s="69"/>
+      <c r="F20" s="91"/>
       <c r="G20" s="41" t="s">
         <v>30</v>
       </c>
@@ -2070,8 +2105,8 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A21" s="68"/>
-      <c r="B21" s="83">
+      <c r="A21" s="90"/>
+      <c r="B21" s="120">
         <v>41597</v>
       </c>
       <c r="C21" s="53">
@@ -2083,7 +2118,7 @@
       <c r="E21" s="52">
         <v>1</v>
       </c>
-      <c r="F21" s="67">
+      <c r="F21" s="89">
         <f>SUM(E21:E22)</f>
         <v>3</v>
       </c>
@@ -2100,7 +2135,7 @@
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="10">
-        <f>SUM(E62:E66)</f>
+        <f>SUM(E66:E70)</f>
         <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
@@ -2108,8 +2143,8 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="68"/>
-      <c r="B22" s="84"/>
+      <c r="A22" s="90"/>
+      <c r="B22" s="121"/>
       <c r="C22" s="53">
         <v>0.91666666666666663</v>
       </c>
@@ -2119,7 +2154,7 @@
       <c r="E22" s="52">
         <v>2</v>
       </c>
-      <c r="F22" s="69"/>
+      <c r="F22" s="91"/>
       <c r="G22" s="41" t="s">
         <v>24</v>
       </c>
@@ -2136,8 +2171,8 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="68"/>
-      <c r="B23" s="81">
+      <c r="A23" s="90"/>
+      <c r="B23" s="87">
         <v>41598</v>
       </c>
       <c r="C23" s="53">
@@ -2149,7 +2184,7 @@
       <c r="E23" s="5">
         <v>1</v>
       </c>
-      <c r="F23" s="88">
+      <c r="F23" s="93">
         <f>SUM(E23:E24)</f>
         <v>3</v>
       </c>
@@ -2166,7 +2201,7 @@
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="10">
-        <f>SUM(E67:E71)</f>
+        <f>SUM(E71:E75)</f>
         <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
@@ -2174,8 +2209,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="68"/>
-      <c r="B24" s="82"/>
+      <c r="A24" s="90"/>
+      <c r="B24" s="88"/>
       <c r="C24" s="53">
         <v>0.91666666666666663</v>
       </c>
@@ -2185,7 +2220,7 @@
       <c r="E24" s="5">
         <v>2</v>
       </c>
-      <c r="F24" s="89"/>
+      <c r="F24" s="94"/>
       <c r="G24" s="41" t="s">
         <v>24</v>
       </c>
@@ -2199,7 +2234,7 @@
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="10">
-        <f>SUM(E72:E76)</f>
+        <f>SUM(E76:E80)</f>
         <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
@@ -2207,8 +2242,8 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="68"/>
-      <c r="B25" s="81">
+      <c r="A25" s="90"/>
+      <c r="B25" s="87">
         <v>41599</v>
       </c>
       <c r="C25" s="53">
@@ -2220,7 +2255,7 @@
       <c r="E25" s="5">
         <v>1</v>
       </c>
-      <c r="F25" s="67">
+      <c r="F25" s="89">
         <f>SUM(E25:E30)</f>
         <v>10.35</v>
       </c>
@@ -2236,8 +2271,8 @@
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="68"/>
-      <c r="B26" s="87"/>
+      <c r="A26" s="90"/>
+      <c r="B26" s="124"/>
       <c r="C26" s="53">
         <v>0.375</v>
       </c>
@@ -2247,7 +2282,7 @@
       <c r="E26" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F26" s="68"/>
+      <c r="F26" s="90"/>
       <c r="G26" s="54" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2297,8 @@
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="68"/>
-      <c r="B27" s="87"/>
+      <c r="A27" s="90"/>
+      <c r="B27" s="124"/>
       <c r="C27" s="53">
         <v>0.4236111111111111</v>
       </c>
@@ -2273,7 +2308,7 @@
       <c r="E27" s="5">
         <v>1.5</v>
       </c>
-      <c r="F27" s="68"/>
+      <c r="F27" s="90"/>
       <c r="G27" s="41" t="s">
         <v>87</v>
       </c>
@@ -2286,8 +2321,8 @@
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="68"/>
-      <c r="B28" s="87"/>
+      <c r="A28" s="90"/>
+      <c r="B28" s="124"/>
       <c r="C28" s="53">
         <v>0.52083333333333337</v>
       </c>
@@ -2297,7 +2332,7 @@
       <c r="E28" s="5">
         <v>2</v>
       </c>
-      <c r="F28" s="68"/>
+      <c r="F28" s="90"/>
       <c r="G28" s="41" t="s">
         <v>83</v>
       </c>
@@ -2312,8 +2347,8 @@
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="68"/>
-      <c r="B29" s="87"/>
+      <c r="A29" s="90"/>
+      <c r="B29" s="124"/>
       <c r="C29" s="53">
         <v>0.625</v>
       </c>
@@ -2323,7 +2358,7 @@
       <c r="E29" s="5">
         <v>2.1</v>
       </c>
-      <c r="F29" s="68"/>
+      <c r="F29" s="90"/>
       <c r="G29" s="41" t="s">
         <v>87</v>
       </c>
@@ -2336,8 +2371,8 @@
       <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="68"/>
-      <c r="B30" s="82"/>
+      <c r="A30" s="90"/>
+      <c r="B30" s="88"/>
       <c r="C30" s="53">
         <v>0.84375</v>
       </c>
@@ -2347,7 +2382,7 @@
       <c r="E30" s="5">
         <v>2.65</v>
       </c>
-      <c r="F30" s="69"/>
+      <c r="F30" s="91"/>
       <c r="G30" s="41" t="s">
         <v>88</v>
       </c>
@@ -2360,8 +2395,8 @@
       <c r="N30" s="3"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="68"/>
-      <c r="B31" s="81">
+      <c r="A31" s="90"/>
+      <c r="B31" s="87">
         <v>41600</v>
       </c>
       <c r="C31" s="53">
@@ -2373,7 +2408,7 @@
       <c r="E31" s="5">
         <v>1.25</v>
       </c>
-      <c r="F31" s="88">
+      <c r="F31" s="93">
         <f>SUM(E31:E32)</f>
         <v>2.75</v>
       </c>
@@ -2391,8 +2426,8 @@
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="69"/>
-      <c r="B32" s="82"/>
+      <c r="A32" s="91"/>
+      <c r="B32" s="88"/>
       <c r="C32" s="53">
         <v>0.625</v>
       </c>
@@ -2402,7 +2437,7 @@
       <c r="E32" s="5">
         <v>1.5</v>
       </c>
-      <c r="F32" s="89"/>
+      <c r="F32" s="94"/>
       <c r="G32" s="41" t="s">
         <v>88</v>
       </c>
@@ -2418,7 +2453,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="63"/>
-      <c r="B33" s="81">
+      <c r="B33" s="87">
         <v>41601</v>
       </c>
       <c r="C33" s="53">
@@ -2430,7 +2465,7 @@
       <c r="E33" s="5">
         <v>0.25</v>
       </c>
-      <c r="F33" s="88">
+      <c r="F33" s="93">
         <f>SUM(E33:E34)</f>
         <v>1.5</v>
       </c>
@@ -2449,7 +2484,7 @@
     </row>
     <row r="34" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="64"/>
-      <c r="B34" s="82"/>
+      <c r="B34" s="88"/>
       <c r="C34" s="53">
         <v>0.57291666666666663</v>
       </c>
@@ -2459,7 +2494,7 @@
       <c r="E34" s="5">
         <v>1.25</v>
       </c>
-      <c r="F34" s="89"/>
+      <c r="F34" s="94"/>
       <c r="G34" s="41" t="s">
         <v>88</v>
       </c>
@@ -2476,10 +2511,10 @@
       <c r="N34" s="3"/>
     </row>
     <row r="35" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="70">
+      <c r="A35" s="85">
         <v>4</v>
       </c>
-      <c r="B35" s="115">
+      <c r="B35" s="83">
         <v>41603</v>
       </c>
       <c r="C35" s="65">
@@ -2491,7 +2526,7 @@
       <c r="E35" s="6">
         <v>1.25</v>
       </c>
-      <c r="F35" s="70">
+      <c r="F35" s="85">
         <f>SUM(E35:E36)</f>
         <v>3.25</v>
       </c>
@@ -2508,7 +2543,7 @@
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="10">
-        <f>SUM(E82:E86)</f>
+        <f>SUM(E86:E90)</f>
         <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
@@ -2516,8 +2551,8 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="71"/>
-      <c r="B36" s="116"/>
+      <c r="A36" s="119"/>
+      <c r="B36" s="84"/>
       <c r="C36" s="65">
         <v>0.91666666666666663</v>
       </c>
@@ -2527,7 +2562,7 @@
       <c r="E36" s="6">
         <v>2</v>
       </c>
-      <c r="F36" s="72"/>
+      <c r="F36" s="86"/>
       <c r="G36" s="42" t="s">
         <v>98</v>
       </c>
@@ -2542,8 +2577,8 @@
       <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="71"/>
-      <c r="B37" s="115">
+      <c r="A37" s="119"/>
+      <c r="B37" s="83">
         <v>41604</v>
       </c>
       <c r="C37" s="65">
@@ -2555,7 +2590,7 @@
       <c r="E37" s="6">
         <v>2.5</v>
       </c>
-      <c r="F37" s="70">
+      <c r="F37" s="85">
         <f>SUM(E37:E38)</f>
         <v>3.5</v>
       </c>
@@ -2572,7 +2607,7 @@
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="10">
-        <f>SUM(E87:E91)</f>
+        <f>SUM(E91:E95)</f>
         <v>0</v>
       </c>
       <c r="N37" s="3" t="s">
@@ -2580,8 +2615,8 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="71"/>
-      <c r="B38" s="116"/>
+      <c r="A38" s="119"/>
+      <c r="B38" s="84"/>
       <c r="C38" s="65">
         <v>0.5625</v>
       </c>
@@ -2591,7 +2626,7 @@
       <c r="E38" s="6">
         <v>1</v>
       </c>
-      <c r="F38" s="72"/>
+      <c r="F38" s="86"/>
       <c r="G38" s="42" t="s">
         <v>87</v>
       </c>
@@ -2606,7 +2641,7 @@
       <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="71"/>
+      <c r="A39" s="119"/>
       <c r="B39" s="28">
         <v>41605</v>
       </c>
@@ -2620,7 +2655,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="F39" s="6">
-        <f t="shared" ref="F39:F63" si="0">E39</f>
+        <f t="shared" ref="F39:F67" si="0">E39</f>
         <v>2.2999999999999998</v>
       </c>
       <c r="G39" s="42" t="s">
@@ -2636,7 +2671,7 @@
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="10">
-        <f>SUM(E92:E96)</f>
+        <f>SUM(E96:E100)</f>
         <v>0</v>
       </c>
       <c r="N39" s="3" t="s">
@@ -2644,7 +2679,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="71"/>
+      <c r="A40" s="119"/>
       <c r="B40" s="28">
         <v>41606</v>
       </c>
@@ -2674,7 +2709,7 @@
       </c>
       <c r="L40" s="6"/>
       <c r="M40" s="10">
-        <f>SUM(E97:E101)</f>
+        <f>SUM(E101:E105)</f>
         <v>0</v>
       </c>
       <c r="N40" s="3" t="s">
@@ -2682,7 +2717,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="72"/>
+      <c r="A41" s="86"/>
       <c r="B41" s="28">
         <v>41607</v>
       </c>
@@ -2712,179 +2747,184 @@
       </c>
       <c r="L41" s="6"/>
       <c r="M41" s="10">
-        <f>SUM(E102:E106)</f>
+        <f>SUM(E106:E110)</f>
         <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="67">
+    <row r="42" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="67"/>
+      <c r="B42" s="83">
+        <v>41608</v>
+      </c>
+      <c r="C42" s="65">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="D42" s="65">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E42" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="F42" s="85">
+        <f>SUM(E42:E43)</f>
+        <v>2.5</v>
+      </c>
+      <c r="G42" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="H42" s="128" t="s">
+        <v>104</v>
+      </c>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="67"/>
+      <c r="B43" s="84"/>
+      <c r="C43" s="65">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D43" s="65">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="E43" s="6">
+        <v>1</v>
+      </c>
+      <c r="F43" s="86"/>
+      <c r="G43" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="H43" s="128" t="s">
+        <v>105</v>
+      </c>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="89">
         <v>5</v>
       </c>
-      <c r="B42" s="27">
+      <c r="B44" s="87">
         <v>41610</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="L42" s="6"/>
-      <c r="M42" s="10">
-        <f>SUM(E107:E111)</f>
-        <v>0</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="68"/>
-      <c r="B43" s="27">
-        <v>41611</v>
-      </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="41"/>
-      <c r="K43" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="L43" s="6"/>
-      <c r="M43" s="10">
-        <f>SUM(E112:E116)</f>
-        <v>0</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="68"/>
-      <c r="B44" s="27">
-        <v>41612</v>
-      </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
+      <c r="C44" s="129">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D44" s="129">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="E44" s="5">
+        <v>1</v>
+      </c>
+      <c r="F44" s="89">
+        <f>SUM(E44:E46)</f>
+        <v>3.5</v>
+      </c>
+      <c r="G44" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="H44" s="41" t="s">
+        <v>106</v>
+      </c>
       <c r="I44" s="41"/>
       <c r="J44" s="41"/>
       <c r="K44" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L44" s="6"/>
       <c r="M44" s="10">
-        <f>SUM(E117:E121)</f>
+        <f>SUM(E111:E115)</f>
         <v>0</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="68"/>
-      <c r="B45" s="27">
-        <v>41613</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
+    <row r="45" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="90"/>
+      <c r="B45" s="124"/>
+      <c r="C45" s="129">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D45" s="129">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E45" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F45" s="90"/>
+      <c r="G45" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="H45" s="54" t="s">
+        <v>107</v>
+      </c>
       <c r="I45" s="41"/>
       <c r="J45" s="41"/>
-      <c r="K45" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="K45" s="8"/>
       <c r="L45" s="6"/>
-      <c r="M45" s="10">
-        <f>SUM(E122:E126)</f>
-        <v>0</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="M45" s="10"/>
+      <c r="N45" s="3"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="69"/>
-      <c r="B46" s="27">
-        <v>41614</v>
-      </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
+      <c r="A46" s="90"/>
+      <c r="B46" s="88"/>
+      <c r="C46" s="129">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D46" s="129">
+        <v>1</v>
+      </c>
+      <c r="E46" s="5">
+        <v>1</v>
+      </c>
+      <c r="F46" s="91"/>
+      <c r="G46" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="H46" s="54" t="s">
+        <v>99</v>
+      </c>
       <c r="I46" s="41"/>
       <c r="J46" s="41"/>
-      <c r="K46" s="8" t="s">
-        <v>46</v>
-      </c>
+      <c r="K46" s="8"/>
       <c r="L46" s="6"/>
-      <c r="M46" s="10">
-        <f>SUM(E127:E131)</f>
-        <v>0</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="M46" s="10"/>
+      <c r="N46" s="3"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="70">
-        <v>6</v>
-      </c>
-      <c r="B47" s="28">
-        <v>41617</v>
-      </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6">
+      <c r="A47" s="90"/>
+      <c r="B47" s="27">
+        <v>41611</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
       <c r="K47" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L47" s="6"/>
       <c r="M47" s="10">
-        <f>SUM(E132:E136)</f>
+        <f>SUM(E116:E120)</f>
         <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
@@ -2892,27 +2932,27 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="71"/>
-      <c r="B48" s="28">
-        <v>41618</v>
-      </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6">
+      <c r="A48" s="90"/>
+      <c r="B48" s="27">
+        <v>41612</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="42"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="41"/>
       <c r="K48" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L48" s="6"/>
       <c r="M48" s="10">
-        <f>SUM(E137:E141)</f>
+        <f>SUM(E121:E125)</f>
         <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
@@ -2920,27 +2960,27 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="71"/>
-      <c r="B49" s="28">
-        <v>41619</v>
-      </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6">
+      <c r="A49" s="90"/>
+      <c r="B49" s="27">
+        <v>41613</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="42"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="41"/>
       <c r="K49" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="L49" s="6"/>
       <c r="M49" s="10">
-        <f>SUM(E142:E146)</f>
+        <f>SUM(E126:E130)</f>
         <v>0</v>
       </c>
       <c r="N49" s="3" t="s">
@@ -2948,27 +2988,27 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="71"/>
-      <c r="B50" s="28">
-        <v>41620</v>
-      </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6">
+      <c r="A50" s="91"/>
+      <c r="B50" s="27">
+        <v>41614</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G50" s="42"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="42"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="41"/>
       <c r="K50" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L50" s="6"/>
       <c r="M50" s="10">
-        <f>SUM(E147:E151)</f>
+        <f>SUM(E131:E135)</f>
         <v>0</v>
       </c>
       <c r="N50" s="3" t="s">
@@ -2976,9 +3016,11 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="72"/>
+      <c r="A51" s="85">
+        <v>6</v>
+      </c>
       <c r="B51" s="28">
-        <v>41621</v>
+        <v>41617</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -2992,11 +3034,11 @@
       <c r="I51" s="42"/>
       <c r="J51" s="42"/>
       <c r="K51" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L51" s="6"/>
       <c r="M51" s="10">
-        <f>SUM(E152:E156)</f>
+        <f>SUM(E136:E140)</f>
         <v>0</v>
       </c>
       <c r="N51" s="3" t="s">
@@ -3004,29 +3046,27 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="67">
-        <v>7</v>
-      </c>
-      <c r="B52" s="27">
-        <v>41624</v>
-      </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5">
+      <c r="A52" s="119"/>
+      <c r="B52" s="28">
+        <v>41618</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="41"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="42"/>
       <c r="K52" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L52" s="6"/>
       <c r="M52" s="10">
-        <f>SUM(E157:E161)</f>
+        <f>SUM(E141:E145)</f>
         <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
@@ -3034,27 +3074,27 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="68"/>
-      <c r="B53" s="27">
-        <v>41625</v>
-      </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5">
+      <c r="A53" s="119"/>
+      <c r="B53" s="28">
+        <v>41619</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="41"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="42"/>
       <c r="K53" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L53" s="6"/>
       <c r="M53" s="10">
-        <f>SUM(E162:E166)</f>
+        <f>SUM(E146:E150)</f>
         <v>0</v>
       </c>
       <c r="N53" s="3" t="s">
@@ -3062,27 +3102,27 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="68"/>
-      <c r="B54" s="27">
-        <v>41626</v>
-      </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5">
+      <c r="A54" s="119"/>
+      <c r="B54" s="28">
+        <v>41620</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G54" s="41"/>
-      <c r="H54" s="41"/>
-      <c r="I54" s="41"/>
-      <c r="J54" s="41"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42"/>
       <c r="K54" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L54" s="6"/>
       <c r="M54" s="10">
-        <f>SUM(E167:E171)</f>
+        <f>SUM(E151:E155)</f>
         <v>0</v>
       </c>
       <c r="N54" s="3" t="s">
@@ -3090,26 +3130,39 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="68"/>
-      <c r="B55" s="27">
-        <v>41627</v>
-      </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5">
+      <c r="A55" s="86"/>
+      <c r="B55" s="28">
+        <v>41621</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="41"/>
-      <c r="J55" s="41"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L55" s="6"/>
+      <c r="M55" s="10">
+        <f>SUM(E156:E160)</f>
+        <v>0</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="69"/>
+      <c r="A56" s="89">
+        <v>7</v>
+      </c>
       <c r="B56" s="27">
-        <v>41628</v>
+        <v>41624</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -3122,81 +3175,114 @@
       <c r="H56" s="41"/>
       <c r="I56" s="41"/>
       <c r="J56" s="41"/>
+      <c r="K56" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L56" s="6"/>
+      <c r="M56" s="10">
+        <f>SUM(E161:E165)</f>
+        <v>0</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="70">
+      <c r="A57" s="90"/>
+      <c r="B57" s="27">
+        <v>41625</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="41"/>
+      <c r="K57" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L57" s="6"/>
+      <c r="M57" s="10">
+        <f>SUM(E166:E170)</f>
+        <v>0</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="90"/>
+      <c r="B58" s="27">
+        <v>41626</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="41"/>
+      <c r="K58" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L58" s="6"/>
+      <c r="M58" s="10">
+        <f>SUM(E171:E175)</f>
+        <v>0</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="90"/>
+      <c r="B59" s="27">
+        <v>41627</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="41"/>
+      <c r="J59" s="41"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="91"/>
+      <c r="B60" s="27">
+        <v>41628</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G60" s="41"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="41"/>
+      <c r="J60" s="41"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="85">
         <v>8</v>
       </c>
-      <c r="B57" s="28">
+      <c r="B61" s="28">
         <v>41631</v>
-      </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G57" s="42"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="42"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="71"/>
-      <c r="B58" s="28">
-        <v>41632</v>
-      </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="42"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="71"/>
-      <c r="B59" s="28">
-        <v>41633</v>
-      </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G59" s="42"/>
-      <c r="H59" s="42"/>
-      <c r="I59" s="42"/>
-      <c r="J59" s="42"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="71"/>
-      <c r="B60" s="28">
-        <v>41634</v>
-      </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G60" s="42"/>
-      <c r="H60" s="42"/>
-      <c r="I60" s="42"/>
-      <c r="J60" s="42"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="72"/>
-      <c r="B61" s="28">
-        <v>41635</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -3211,85 +3297,85 @@
       <c r="J61" s="42"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="67">
+      <c r="A62" s="119"/>
+      <c r="B62" s="28">
+        <v>41632</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G62" s="42"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="42"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="119"/>
+      <c r="B63" s="28">
+        <v>41633</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="119"/>
+      <c r="B64" s="28">
+        <v>41634</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="42"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="42"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="86"/>
+      <c r="B65" s="28">
+        <v>41635</v>
+      </c>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="42"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="89">
         <v>9</v>
       </c>
-      <c r="B62" s="27">
+      <c r="B66" s="27">
         <v>41638</v>
-      </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G62" s="41"/>
-      <c r="H62" s="41"/>
-      <c r="I62" s="41"/>
-      <c r="J62" s="41"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="68"/>
-      <c r="B63" s="27">
-        <v>41639</v>
-      </c>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G63" s="41"/>
-      <c r="H63" s="41"/>
-      <c r="I63" s="41"/>
-      <c r="J63" s="41"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="68"/>
-      <c r="B64" s="27">
-        <v>41640</v>
-      </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5">
-        <f t="shared" ref="F64:F95" si="1">E64</f>
-        <v>0</v>
-      </c>
-      <c r="G64" s="41"/>
-      <c r="H64" s="41"/>
-      <c r="I64" s="41"/>
-      <c r="J64" s="41"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="68"/>
-      <c r="B65" s="27">
-        <v>41641</v>
-      </c>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G65" s="41"/>
-      <c r="H65" s="41"/>
-      <c r="I65" s="41"/>
-      <c r="J65" s="41"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="69"/>
-      <c r="B66" s="27">
-        <v>41642</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G66" s="41"/>
@@ -3298,79 +3384,79 @@
       <c r="J66" s="41"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="70">
+      <c r="A67" s="90"/>
+      <c r="B67" s="27">
+        <v>41639</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G67" s="41"/>
+      <c r="H67" s="41"/>
+      <c r="I67" s="41"/>
+      <c r="J67" s="41"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="90"/>
+      <c r="B68" s="27">
+        <v>41640</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5">
+        <f t="shared" ref="F68:F99" si="1">E68</f>
+        <v>0</v>
+      </c>
+      <c r="G68" s="41"/>
+      <c r="H68" s="41"/>
+      <c r="I68" s="41"/>
+      <c r="J68" s="41"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="90"/>
+      <c r="B69" s="27">
+        <v>41641</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="41"/>
+      <c r="H69" s="41"/>
+      <c r="I69" s="41"/>
+      <c r="J69" s="41"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="91"/>
+      <c r="B70" s="27">
+        <v>41642</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G70" s="41"/>
+      <c r="H70" s="41"/>
+      <c r="I70" s="41"/>
+      <c r="J70" s="41"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="85">
         <v>10</v>
       </c>
-      <c r="B67" s="28">
+      <c r="B71" s="28">
         <v>41645</v>
-      </c>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G67" s="42"/>
-      <c r="H67" s="42"/>
-      <c r="I67" s="42"/>
-      <c r="J67" s="42"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="71"/>
-      <c r="B68" s="28">
-        <v>41646</v>
-      </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G68" s="42"/>
-      <c r="H68" s="42"/>
-      <c r="I68" s="42"/>
-      <c r="J68" s="42"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="71"/>
-      <c r="B69" s="28">
-        <v>41647</v>
-      </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G69" s="42"/>
-      <c r="H69" s="42"/>
-      <c r="I69" s="42"/>
-      <c r="J69" s="42"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="71"/>
-      <c r="B70" s="28">
-        <v>41648</v>
-      </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G70" s="42"/>
-      <c r="H70" s="42"/>
-      <c r="I70" s="42"/>
-      <c r="J70" s="42"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="72"/>
-      <c r="B71" s="28">
-        <v>41649</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -3385,79 +3471,79 @@
       <c r="J71" s="42"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="67">
+      <c r="A72" s="119"/>
+      <c r="B72" s="28">
+        <v>41646</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="42"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="119"/>
+      <c r="B73" s="28">
+        <v>41647</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G73" s="42"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="119"/>
+      <c r="B74" s="28">
+        <v>41648</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G74" s="42"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="42"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="86"/>
+      <c r="B75" s="28">
+        <v>41649</v>
+      </c>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G75" s="42"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="42"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="89">
         <v>11</v>
       </c>
-      <c r="B72" s="27">
+      <c r="B76" s="27">
         <v>41652</v>
-      </c>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G72" s="41"/>
-      <c r="H72" s="41"/>
-      <c r="I72" s="41"/>
-      <c r="J72" s="41"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="68"/>
-      <c r="B73" s="27">
-        <v>41653</v>
-      </c>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G73" s="41"/>
-      <c r="H73" s="41"/>
-      <c r="I73" s="41"/>
-      <c r="J73" s="41"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="68"/>
-      <c r="B74" s="27">
-        <v>41654</v>
-      </c>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G74" s="41"/>
-      <c r="H74" s="41"/>
-      <c r="I74" s="41"/>
-      <c r="J74" s="41"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="68"/>
-      <c r="B75" s="27">
-        <v>41655</v>
-      </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G75" s="41"/>
-      <c r="H75" s="41"/>
-      <c r="I75" s="41"/>
-      <c r="J75" s="41"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="69"/>
-      <c r="B76" s="27">
-        <v>41656</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
@@ -3472,79 +3558,79 @@
       <c r="J76" s="41"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="70">
+      <c r="A77" s="90"/>
+      <c r="B77" s="27">
+        <v>41653</v>
+      </c>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G77" s="41"/>
+      <c r="H77" s="41"/>
+      <c r="I77" s="41"/>
+      <c r="J77" s="41"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="90"/>
+      <c r="B78" s="27">
+        <v>41654</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G78" s="41"/>
+      <c r="H78" s="41"/>
+      <c r="I78" s="41"/>
+      <c r="J78" s="41"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="90"/>
+      <c r="B79" s="27">
+        <v>41655</v>
+      </c>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G79" s="41"/>
+      <c r="H79" s="41"/>
+      <c r="I79" s="41"/>
+      <c r="J79" s="41"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="91"/>
+      <c r="B80" s="27">
+        <v>41656</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G80" s="41"/>
+      <c r="H80" s="41"/>
+      <c r="I80" s="41"/>
+      <c r="J80" s="41"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="85">
         <v>12</v>
       </c>
-      <c r="B77" s="28">
+      <c r="B81" s="28">
         <v>41659</v>
-      </c>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G77" s="42"/>
-      <c r="H77" s="42"/>
-      <c r="I77" s="42"/>
-      <c r="J77" s="42"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="71"/>
-      <c r="B78" s="28">
-        <v>41660</v>
-      </c>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G78" s="42"/>
-      <c r="H78" s="42"/>
-      <c r="I78" s="42"/>
-      <c r="J78" s="42"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="71"/>
-      <c r="B79" s="28">
-        <v>41661</v>
-      </c>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G79" s="42"/>
-      <c r="H79" s="42"/>
-      <c r="I79" s="42"/>
-      <c r="J79" s="42"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="71"/>
-      <c r="B80" s="28">
-        <v>41662</v>
-      </c>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G80" s="42"/>
-      <c r="H80" s="42"/>
-      <c r="I80" s="42"/>
-      <c r="J80" s="42"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="72"/>
-      <c r="B81" s="28">
-        <v>41663</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -3559,87 +3645,79 @@
       <c r="J81" s="42"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="67">
+      <c r="A82" s="119"/>
+      <c r="B82" s="28">
+        <v>41660</v>
+      </c>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G82" s="42"/>
+      <c r="H82" s="42"/>
+      <c r="I82" s="42"/>
+      <c r="J82" s="42"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="119"/>
+      <c r="B83" s="28">
+        <v>41661</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G83" s="42"/>
+      <c r="H83" s="42"/>
+      <c r="I83" s="42"/>
+      <c r="J83" s="42"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="119"/>
+      <c r="B84" s="28">
+        <v>41662</v>
+      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G84" s="42"/>
+      <c r="H84" s="42"/>
+      <c r="I84" s="42"/>
+      <c r="J84" s="42"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="86"/>
+      <c r="B85" s="28">
+        <v>41663</v>
+      </c>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G85" s="42"/>
+      <c r="H85" s="42"/>
+      <c r="I85" s="42"/>
+      <c r="J85" s="42"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="89">
         <v>13</v>
       </c>
-      <c r="B82" s="27">
+      <c r="B86" s="27">
         <v>41666</v>
-      </c>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G82" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="H82" s="41"/>
-      <c r="I82" s="41"/>
-      <c r="J82" s="41"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="68"/>
-      <c r="B83" s="27">
-        <v>41667</v>
-      </c>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G83" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="H83" s="41"/>
-      <c r="I83" s="41"/>
-      <c r="J83" s="41"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="68"/>
-      <c r="B84" s="27">
-        <v>41668</v>
-      </c>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G84" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="H84" s="41"/>
-      <c r="I84" s="41"/>
-      <c r="J84" s="41"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="68"/>
-      <c r="B85" s="27">
-        <v>41669</v>
-      </c>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G85" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="H85" s="41"/>
-      <c r="I85" s="41"/>
-      <c r="J85" s="41"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="69"/>
-      <c r="B86" s="27">
-        <v>41670</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -3656,87 +3734,87 @@
       <c r="J86" s="41"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="70">
+      <c r="A87" s="90"/>
+      <c r="B87" s="27">
+        <v>41667</v>
+      </c>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G87" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="H87" s="41"/>
+      <c r="I87" s="41"/>
+      <c r="J87" s="41"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="90"/>
+      <c r="B88" s="27">
+        <v>41668</v>
+      </c>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G88" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="H88" s="41"/>
+      <c r="I88" s="41"/>
+      <c r="J88" s="41"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="90"/>
+      <c r="B89" s="27">
+        <v>41669</v>
+      </c>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G89" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="H89" s="41"/>
+      <c r="I89" s="41"/>
+      <c r="J89" s="41"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="91"/>
+      <c r="B90" s="27">
+        <v>41670</v>
+      </c>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G90" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="H90" s="41"/>
+      <c r="I90" s="41"/>
+      <c r="J90" s="41"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="85">
         <v>14</v>
       </c>
-      <c r="B87" s="28">
+      <c r="B91" s="28">
         <v>41673</v>
-      </c>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G87" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="H87" s="42"/>
-      <c r="I87" s="42"/>
-      <c r="J87" s="42"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="71"/>
-      <c r="B88" s="28">
-        <v>41674</v>
-      </c>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G88" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="H88" s="42"/>
-      <c r="I88" s="42"/>
-      <c r="J88" s="42"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="71"/>
-      <c r="B89" s="28">
-        <v>41675</v>
-      </c>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G89" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="H89" s="42"/>
-      <c r="I89" s="42"/>
-      <c r="J89" s="42"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="71"/>
-      <c r="B90" s="28">
-        <v>41676</v>
-      </c>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G90" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="H90" s="42"/>
-      <c r="I90" s="42"/>
-      <c r="J90" s="42"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="72"/>
-      <c r="B91" s="28">
-        <v>41677</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -3753,85 +3831,93 @@
       <c r="J91" s="42"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="67">
+      <c r="A92" s="119"/>
+      <c r="B92" s="28">
+        <v>41674</v>
+      </c>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G92" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H92" s="42"/>
+      <c r="I92" s="42"/>
+      <c r="J92" s="42"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="119"/>
+      <c r="B93" s="28">
+        <v>41675</v>
+      </c>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G93" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H93" s="42"/>
+      <c r="I93" s="42"/>
+      <c r="J93" s="42"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="119"/>
+      <c r="B94" s="28">
+        <v>41676</v>
+      </c>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G94" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H94" s="42"/>
+      <c r="I94" s="42"/>
+      <c r="J94" s="42"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="86"/>
+      <c r="B95" s="28">
+        <v>41677</v>
+      </c>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G95" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H95" s="42"/>
+      <c r="I95" s="42"/>
+      <c r="J95" s="42"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="89">
         <v>15</v>
       </c>
-      <c r="B92" s="27">
+      <c r="B96" s="27">
         <v>41680</v>
-      </c>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G92" s="41"/>
-      <c r="H92" s="41"/>
-      <c r="I92" s="41"/>
-      <c r="J92" s="41"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="68"/>
-      <c r="B93" s="27">
-        <v>41681</v>
-      </c>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G93" s="41"/>
-      <c r="H93" s="41"/>
-      <c r="I93" s="41"/>
-      <c r="J93" s="41"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="68"/>
-      <c r="B94" s="27">
-        <v>41682</v>
-      </c>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G94" s="41"/>
-      <c r="H94" s="41"/>
-      <c r="I94" s="41"/>
-      <c r="J94" s="41"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="68"/>
-      <c r="B95" s="27">
-        <v>41683</v>
-      </c>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G95" s="41"/>
-      <c r="H95" s="41"/>
-      <c r="I95" s="41"/>
-      <c r="J95" s="41"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="69"/>
-      <c r="B96" s="27">
-        <v>41684</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5">
-        <f t="shared" ref="F96:F127" si="2">E96</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G96" s="41"/>
@@ -3840,79 +3926,79 @@
       <c r="J96" s="41"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="70">
+      <c r="A97" s="90"/>
+      <c r="B97" s="27">
+        <v>41681</v>
+      </c>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G97" s="41"/>
+      <c r="H97" s="41"/>
+      <c r="I97" s="41"/>
+      <c r="J97" s="41"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="90"/>
+      <c r="B98" s="27">
+        <v>41682</v>
+      </c>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G98" s="41"/>
+      <c r="H98" s="41"/>
+      <c r="I98" s="41"/>
+      <c r="J98" s="41"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="90"/>
+      <c r="B99" s="27">
+        <v>41683</v>
+      </c>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G99" s="41"/>
+      <c r="H99" s="41"/>
+      <c r="I99" s="41"/>
+      <c r="J99" s="41"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="91"/>
+      <c r="B100" s="27">
+        <v>41684</v>
+      </c>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5">
+        <f t="shared" ref="F100:F131" si="2">E100</f>
+        <v>0</v>
+      </c>
+      <c r="G100" s="41"/>
+      <c r="H100" s="41"/>
+      <c r="I100" s="41"/>
+      <c r="J100" s="41"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="85">
         <v>16</v>
       </c>
-      <c r="B97" s="28">
+      <c r="B101" s="28">
         <v>41687</v>
-      </c>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G97" s="42"/>
-      <c r="H97" s="42"/>
-      <c r="I97" s="42"/>
-      <c r="J97" s="42"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="71"/>
-      <c r="B98" s="28">
-        <v>41688</v>
-      </c>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G98" s="42"/>
-      <c r="H98" s="42"/>
-      <c r="I98" s="42"/>
-      <c r="J98" s="42"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="71"/>
-      <c r="B99" s="28">
-        <v>41689</v>
-      </c>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G99" s="42"/>
-      <c r="H99" s="42"/>
-      <c r="I99" s="42"/>
-      <c r="J99" s="42"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="71"/>
-      <c r="B100" s="28">
-        <v>41690</v>
-      </c>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G100" s="42"/>
-      <c r="H100" s="42"/>
-      <c r="I100" s="42"/>
-      <c r="J100" s="42"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="72"/>
-      <c r="B101" s="28">
-        <v>41691</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -3927,79 +4013,79 @@
       <c r="J101" s="42"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="67">
+      <c r="A102" s="119"/>
+      <c r="B102" s="28">
+        <v>41688</v>
+      </c>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G102" s="42"/>
+      <c r="H102" s="42"/>
+      <c r="I102" s="42"/>
+      <c r="J102" s="42"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="119"/>
+      <c r="B103" s="28">
+        <v>41689</v>
+      </c>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G103" s="42"/>
+      <c r="H103" s="42"/>
+      <c r="I103" s="42"/>
+      <c r="J103" s="42"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="119"/>
+      <c r="B104" s="28">
+        <v>41690</v>
+      </c>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G104" s="42"/>
+      <c r="H104" s="42"/>
+      <c r="I104" s="42"/>
+      <c r="J104" s="42"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="86"/>
+      <c r="B105" s="28">
+        <v>41691</v>
+      </c>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G105" s="42"/>
+      <c r="H105" s="42"/>
+      <c r="I105" s="42"/>
+      <c r="J105" s="42"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="89">
         <v>17</v>
       </c>
-      <c r="B102" s="27">
+      <c r="B106" s="27">
         <v>41694</v>
-      </c>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G102" s="41"/>
-      <c r="H102" s="41"/>
-      <c r="I102" s="41"/>
-      <c r="J102" s="41"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="68"/>
-      <c r="B103" s="27">
-        <v>41695</v>
-      </c>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G103" s="41"/>
-      <c r="H103" s="41"/>
-      <c r="I103" s="41"/>
-      <c r="J103" s="41"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="68"/>
-      <c r="B104" s="27">
-        <v>41696</v>
-      </c>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G104" s="41"/>
-      <c r="H104" s="41"/>
-      <c r="I104" s="41"/>
-      <c r="J104" s="41"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="68"/>
-      <c r="B105" s="27">
-        <v>41697</v>
-      </c>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G105" s="41"/>
-      <c r="H105" s="41"/>
-      <c r="I105" s="41"/>
-      <c r="J105" s="41"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="69"/>
-      <c r="B106" s="27">
-        <v>41698</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
@@ -4014,79 +4100,79 @@
       <c r="J106" s="41"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="70">
+      <c r="A107" s="90"/>
+      <c r="B107" s="27">
+        <v>41695</v>
+      </c>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G107" s="41"/>
+      <c r="H107" s="41"/>
+      <c r="I107" s="41"/>
+      <c r="J107" s="41"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="90"/>
+      <c r="B108" s="27">
+        <v>41696</v>
+      </c>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G108" s="41"/>
+      <c r="H108" s="41"/>
+      <c r="I108" s="41"/>
+      <c r="J108" s="41"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="90"/>
+      <c r="B109" s="27">
+        <v>41697</v>
+      </c>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G109" s="41"/>
+      <c r="H109" s="41"/>
+      <c r="I109" s="41"/>
+      <c r="J109" s="41"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="91"/>
+      <c r="B110" s="27">
+        <v>41698</v>
+      </c>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G110" s="41"/>
+      <c r="H110" s="41"/>
+      <c r="I110" s="41"/>
+      <c r="J110" s="41"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="85">
         <v>18</v>
       </c>
-      <c r="B107" s="28">
+      <c r="B111" s="28">
         <v>41701</v>
-      </c>
-      <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G107" s="42"/>
-      <c r="H107" s="42"/>
-      <c r="I107" s="42"/>
-      <c r="J107" s="42"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="71"/>
-      <c r="B108" s="28">
-        <v>41702</v>
-      </c>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G108" s="42"/>
-      <c r="H108" s="42"/>
-      <c r="I108" s="42"/>
-      <c r="J108" s="42"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="71"/>
-      <c r="B109" s="28">
-        <v>41703</v>
-      </c>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G109" s="42"/>
-      <c r="H109" s="42"/>
-      <c r="I109" s="42"/>
-      <c r="J109" s="42"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="71"/>
-      <c r="B110" s="28">
-        <v>41704</v>
-      </c>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G110" s="42"/>
-      <c r="H110" s="42"/>
-      <c r="I110" s="42"/>
-      <c r="J110" s="42"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="72"/>
-      <c r="B111" s="28">
-        <v>41705</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -4101,79 +4187,79 @@
       <c r="J111" s="42"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="67">
+      <c r="A112" s="119"/>
+      <c r="B112" s="28">
+        <v>41702</v>
+      </c>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G112" s="42"/>
+      <c r="H112" s="42"/>
+      <c r="I112" s="42"/>
+      <c r="J112" s="42"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="119"/>
+      <c r="B113" s="28">
+        <v>41703</v>
+      </c>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G113" s="42"/>
+      <c r="H113" s="42"/>
+      <c r="I113" s="42"/>
+      <c r="J113" s="42"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="119"/>
+      <c r="B114" s="28">
+        <v>41704</v>
+      </c>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G114" s="42"/>
+      <c r="H114" s="42"/>
+      <c r="I114" s="42"/>
+      <c r="J114" s="42"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="86"/>
+      <c r="B115" s="28">
+        <v>41705</v>
+      </c>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G115" s="42"/>
+      <c r="H115" s="42"/>
+      <c r="I115" s="42"/>
+      <c r="J115" s="42"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="89">
         <v>19</v>
       </c>
-      <c r="B112" s="27">
+      <c r="B116" s="27">
         <v>41708</v>
-      </c>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G112" s="41"/>
-      <c r="H112" s="41"/>
-      <c r="I112" s="41"/>
-      <c r="J112" s="41"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="68"/>
-      <c r="B113" s="27">
-        <v>41709</v>
-      </c>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G113" s="41"/>
-      <c r="H113" s="41"/>
-      <c r="I113" s="41"/>
-      <c r="J113" s="41"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="68"/>
-      <c r="B114" s="27">
-        <v>41710</v>
-      </c>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
-      <c r="F114" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G114" s="41"/>
-      <c r="H114" s="41"/>
-      <c r="I114" s="41"/>
-      <c r="J114" s="41"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="68"/>
-      <c r="B115" s="27">
-        <v>41711</v>
-      </c>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G115" s="41"/>
-      <c r="H115" s="41"/>
-      <c r="I115" s="41"/>
-      <c r="J115" s="41"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="69"/>
-      <c r="B116" s="27">
-        <v>41712</v>
       </c>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
@@ -4188,79 +4274,79 @@
       <c r="J116" s="41"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="70">
+      <c r="A117" s="90"/>
+      <c r="B117" s="27">
+        <v>41709</v>
+      </c>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G117" s="41"/>
+      <c r="H117" s="41"/>
+      <c r="I117" s="41"/>
+      <c r="J117" s="41"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="90"/>
+      <c r="B118" s="27">
+        <v>41710</v>
+      </c>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G118" s="41"/>
+      <c r="H118" s="41"/>
+      <c r="I118" s="41"/>
+      <c r="J118" s="41"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="90"/>
+      <c r="B119" s="27">
+        <v>41711</v>
+      </c>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G119" s="41"/>
+      <c r="H119" s="41"/>
+      <c r="I119" s="41"/>
+      <c r="J119" s="41"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="91"/>
+      <c r="B120" s="27">
+        <v>41712</v>
+      </c>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G120" s="41"/>
+      <c r="H120" s="41"/>
+      <c r="I120" s="41"/>
+      <c r="J120" s="41"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="85">
         <v>20</v>
       </c>
-      <c r="B117" s="28">
+      <c r="B121" s="28">
         <v>41715</v>
-      </c>
-      <c r="C117" s="6"/>
-      <c r="D117" s="6"/>
-      <c r="E117" s="6"/>
-      <c r="F117" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G117" s="42"/>
-      <c r="H117" s="42"/>
-      <c r="I117" s="42"/>
-      <c r="J117" s="42"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="71"/>
-      <c r="B118" s="28">
-        <v>41716</v>
-      </c>
-      <c r="C118" s="6"/>
-      <c r="D118" s="6"/>
-      <c r="E118" s="6"/>
-      <c r="F118" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G118" s="42"/>
-      <c r="H118" s="42"/>
-      <c r="I118" s="42"/>
-      <c r="J118" s="42"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="71"/>
-      <c r="B119" s="28">
-        <v>41717</v>
-      </c>
-      <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-      <c r="F119" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G119" s="42"/>
-      <c r="H119" s="42"/>
-      <c r="I119" s="42"/>
-      <c r="J119" s="42"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="71"/>
-      <c r="B120" s="28">
-        <v>41718</v>
-      </c>
-      <c r="C120" s="6"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
-      <c r="F120" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G120" s="42"/>
-      <c r="H120" s="42"/>
-      <c r="I120" s="42"/>
-      <c r="J120" s="42"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="72"/>
-      <c r="B121" s="28">
-        <v>41719</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
@@ -4275,79 +4361,79 @@
       <c r="J121" s="42"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="67">
+      <c r="A122" s="119"/>
+      <c r="B122" s="28">
+        <v>41716</v>
+      </c>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G122" s="42"/>
+      <c r="H122" s="42"/>
+      <c r="I122" s="42"/>
+      <c r="J122" s="42"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="119"/>
+      <c r="B123" s="28">
+        <v>41717</v>
+      </c>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G123" s="42"/>
+      <c r="H123" s="42"/>
+      <c r="I123" s="42"/>
+      <c r="J123" s="42"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="119"/>
+      <c r="B124" s="28">
+        <v>41718</v>
+      </c>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G124" s="42"/>
+      <c r="H124" s="42"/>
+      <c r="I124" s="42"/>
+      <c r="J124" s="42"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="86"/>
+      <c r="B125" s="28">
+        <v>41719</v>
+      </c>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G125" s="42"/>
+      <c r="H125" s="42"/>
+      <c r="I125" s="42"/>
+      <c r="J125" s="42"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="89">
         <v>21</v>
       </c>
-      <c r="B122" s="27">
+      <c r="B126" s="27">
         <v>41722</v>
-      </c>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
-      <c r="F122" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G122" s="41"/>
-      <c r="H122" s="41"/>
-      <c r="I122" s="41"/>
-      <c r="J122" s="41"/>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="68"/>
-      <c r="B123" s="27">
-        <v>41723</v>
-      </c>
-      <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G123" s="41"/>
-      <c r="H123" s="41"/>
-      <c r="I123" s="41"/>
-      <c r="J123" s="41"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="68"/>
-      <c r="B124" s="27">
-        <v>41724</v>
-      </c>
-      <c r="C124" s="5"/>
-      <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G124" s="41"/>
-      <c r="H124" s="41"/>
-      <c r="I124" s="41"/>
-      <c r="J124" s="41"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="68"/>
-      <c r="B125" s="27">
-        <v>41725</v>
-      </c>
-      <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G125" s="41"/>
-      <c r="H125" s="41"/>
-      <c r="I125" s="41"/>
-      <c r="J125" s="41"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="69"/>
-      <c r="B126" s="27">
-        <v>41726</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
@@ -4362,85 +4448,85 @@
       <c r="J126" s="41"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="70">
+      <c r="A127" s="90"/>
+      <c r="B127" s="27">
+        <v>41723</v>
+      </c>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G127" s="41"/>
+      <c r="H127" s="41"/>
+      <c r="I127" s="41"/>
+      <c r="J127" s="41"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="90"/>
+      <c r="B128" s="27">
+        <v>41724</v>
+      </c>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G128" s="41"/>
+      <c r="H128" s="41"/>
+      <c r="I128" s="41"/>
+      <c r="J128" s="41"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="90"/>
+      <c r="B129" s="27">
+        <v>41725</v>
+      </c>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G129" s="41"/>
+      <c r="H129" s="41"/>
+      <c r="I129" s="41"/>
+      <c r="J129" s="41"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="91"/>
+      <c r="B130" s="27">
+        <v>41726</v>
+      </c>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G130" s="41"/>
+      <c r="H130" s="41"/>
+      <c r="I130" s="41"/>
+      <c r="J130" s="41"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="85">
         <v>22</v>
       </c>
-      <c r="B127" s="28">
+      <c r="B131" s="28">
         <v>41729</v>
-      </c>
-      <c r="C127" s="6"/>
-      <c r="D127" s="6"/>
-      <c r="E127" s="6"/>
-      <c r="F127" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G127" s="42"/>
-      <c r="H127" s="42"/>
-      <c r="I127" s="42"/>
-      <c r="J127" s="42"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="71"/>
-      <c r="B128" s="28">
-        <v>41730</v>
-      </c>
-      <c r="C128" s="6"/>
-      <c r="D128" s="6"/>
-      <c r="E128" s="6"/>
-      <c r="F128" s="6">
-        <f t="shared" ref="F128:F159" si="3">E128</f>
-        <v>0</v>
-      </c>
-      <c r="G128" s="42"/>
-      <c r="H128" s="42"/>
-      <c r="I128" s="42"/>
-      <c r="J128" s="42"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="71"/>
-      <c r="B129" s="28">
-        <v>41731</v>
-      </c>
-      <c r="C129" s="6"/>
-      <c r="D129" s="6"/>
-      <c r="E129" s="6"/>
-      <c r="F129" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G129" s="42"/>
-      <c r="H129" s="42"/>
-      <c r="I129" s="42"/>
-      <c r="J129" s="42"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="71"/>
-      <c r="B130" s="28">
-        <v>41732</v>
-      </c>
-      <c r="C130" s="6"/>
-      <c r="D130" s="6"/>
-      <c r="E130" s="6"/>
-      <c r="F130" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G130" s="42"/>
-      <c r="H130" s="42"/>
-      <c r="I130" s="42"/>
-      <c r="J130" s="42"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="72"/>
-      <c r="B131" s="28">
-        <v>41733</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
       <c r="E131" s="6"/>
       <c r="F131" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G131" s="42"/>
@@ -4449,79 +4535,79 @@
       <c r="J131" s="42"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="67">
+      <c r="A132" s="119"/>
+      <c r="B132" s="28">
+        <v>41730</v>
+      </c>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+      <c r="F132" s="6">
+        <f t="shared" ref="F132:F163" si="3">E132</f>
+        <v>0</v>
+      </c>
+      <c r="G132" s="42"/>
+      <c r="H132" s="42"/>
+      <c r="I132" s="42"/>
+      <c r="J132" s="42"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="119"/>
+      <c r="B133" s="28">
+        <v>41731</v>
+      </c>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G133" s="42"/>
+      <c r="H133" s="42"/>
+      <c r="I133" s="42"/>
+      <c r="J133" s="42"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="119"/>
+      <c r="B134" s="28">
+        <v>41732</v>
+      </c>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+      <c r="F134" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G134" s="42"/>
+      <c r="H134" s="42"/>
+      <c r="I134" s="42"/>
+      <c r="J134" s="42"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="86"/>
+      <c r="B135" s="28">
+        <v>41733</v>
+      </c>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G135" s="42"/>
+      <c r="H135" s="42"/>
+      <c r="I135" s="42"/>
+      <c r="J135" s="42"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="89">
         <v>23</v>
       </c>
-      <c r="B132" s="27">
+      <c r="B136" s="27">
         <v>41736</v>
-      </c>
-      <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
-      <c r="F132" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G132" s="41"/>
-      <c r="H132" s="41"/>
-      <c r="I132" s="41"/>
-      <c r="J132" s="41"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="68"/>
-      <c r="B133" s="27">
-        <v>41737</v>
-      </c>
-      <c r="C133" s="5"/>
-      <c r="D133" s="5"/>
-      <c r="E133" s="5"/>
-      <c r="F133" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G133" s="41"/>
-      <c r="H133" s="41"/>
-      <c r="I133" s="41"/>
-      <c r="J133" s="41"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="68"/>
-      <c r="B134" s="27">
-        <v>41738</v>
-      </c>
-      <c r="C134" s="5"/>
-      <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
-      <c r="F134" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G134" s="41"/>
-      <c r="H134" s="41"/>
-      <c r="I134" s="41"/>
-      <c r="J134" s="41"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="68"/>
-      <c r="B135" s="27">
-        <v>41739</v>
-      </c>
-      <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
-      <c r="F135" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G135" s="41"/>
-      <c r="H135" s="41"/>
-      <c r="I135" s="41"/>
-      <c r="J135" s="41"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="69"/>
-      <c r="B136" s="27">
-        <v>41740</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
@@ -4536,79 +4622,79 @@
       <c r="J136" s="41"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="70">
+      <c r="A137" s="90"/>
+      <c r="B137" s="27">
+        <v>41737</v>
+      </c>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G137" s="41"/>
+      <c r="H137" s="41"/>
+      <c r="I137" s="41"/>
+      <c r="J137" s="41"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="90"/>
+      <c r="B138" s="27">
+        <v>41738</v>
+      </c>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G138" s="41"/>
+      <c r="H138" s="41"/>
+      <c r="I138" s="41"/>
+      <c r="J138" s="41"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="90"/>
+      <c r="B139" s="27">
+        <v>41739</v>
+      </c>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G139" s="41"/>
+      <c r="H139" s="41"/>
+      <c r="I139" s="41"/>
+      <c r="J139" s="41"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="91"/>
+      <c r="B140" s="27">
+        <v>41740</v>
+      </c>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G140" s="41"/>
+      <c r="H140" s="41"/>
+      <c r="I140" s="41"/>
+      <c r="J140" s="41"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="85">
         <v>24</v>
       </c>
-      <c r="B137" s="28">
+      <c r="B141" s="28">
         <v>41743</v>
-      </c>
-      <c r="C137" s="6"/>
-      <c r="D137" s="6"/>
-      <c r="E137" s="6"/>
-      <c r="F137" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G137" s="42"/>
-      <c r="H137" s="42"/>
-      <c r="I137" s="42"/>
-      <c r="J137" s="42"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="71"/>
-      <c r="B138" s="28">
-        <v>41744</v>
-      </c>
-      <c r="C138" s="6"/>
-      <c r="D138" s="6"/>
-      <c r="E138" s="6"/>
-      <c r="F138" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G138" s="42"/>
-      <c r="H138" s="42"/>
-      <c r="I138" s="42"/>
-      <c r="J138" s="42"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="71"/>
-      <c r="B139" s="28">
-        <v>41745</v>
-      </c>
-      <c r="C139" s="6"/>
-      <c r="D139" s="6"/>
-      <c r="E139" s="6"/>
-      <c r="F139" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G139" s="42"/>
-      <c r="H139" s="42"/>
-      <c r="I139" s="42"/>
-      <c r="J139" s="42"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="71"/>
-      <c r="B140" s="28">
-        <v>41746</v>
-      </c>
-      <c r="C140" s="6"/>
-      <c r="D140" s="6"/>
-      <c r="E140" s="6"/>
-      <c r="F140" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G140" s="42"/>
-      <c r="H140" s="42"/>
-      <c r="I140" s="42"/>
-      <c r="J140" s="42"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="72"/>
-      <c r="B141" s="28">
-        <v>41747</v>
       </c>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
@@ -4623,79 +4709,79 @@
       <c r="J141" s="42"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="67">
+      <c r="A142" s="119"/>
+      <c r="B142" s="28">
+        <v>41744</v>
+      </c>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
+      <c r="F142" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G142" s="42"/>
+      <c r="H142" s="42"/>
+      <c r="I142" s="42"/>
+      <c r="J142" s="42"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="119"/>
+      <c r="B143" s="28">
+        <v>41745</v>
+      </c>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G143" s="42"/>
+      <c r="H143" s="42"/>
+      <c r="I143" s="42"/>
+      <c r="J143" s="42"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="119"/>
+      <c r="B144" s="28">
+        <v>41746</v>
+      </c>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
+      <c r="F144" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G144" s="42"/>
+      <c r="H144" s="42"/>
+      <c r="I144" s="42"/>
+      <c r="J144" s="42"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" s="86"/>
+      <c r="B145" s="28">
+        <v>41747</v>
+      </c>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+      <c r="F145" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G145" s="42"/>
+      <c r="H145" s="42"/>
+      <c r="I145" s="42"/>
+      <c r="J145" s="42"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" s="89">
         <v>25</v>
       </c>
-      <c r="B142" s="27">
+      <c r="B146" s="27">
         <v>41750</v>
-      </c>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
-      <c r="F142" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G142" s="41"/>
-      <c r="H142" s="41"/>
-      <c r="I142" s="41"/>
-      <c r="J142" s="41"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="68"/>
-      <c r="B143" s="27">
-        <v>41751</v>
-      </c>
-      <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
-      <c r="E143" s="5"/>
-      <c r="F143" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G143" s="41"/>
-      <c r="H143" s="41"/>
-      <c r="I143" s="41"/>
-      <c r="J143" s="41"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="68"/>
-      <c r="B144" s="27">
-        <v>41752</v>
-      </c>
-      <c r="C144" s="5"/>
-      <c r="D144" s="5"/>
-      <c r="E144" s="5"/>
-      <c r="F144" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G144" s="41"/>
-      <c r="H144" s="41"/>
-      <c r="I144" s="41"/>
-      <c r="J144" s="41"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="68"/>
-      <c r="B145" s="27">
-        <v>41753</v>
-      </c>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
-      <c r="E145" s="5"/>
-      <c r="F145" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G145" s="41"/>
-      <c r="H145" s="41"/>
-      <c r="I145" s="41"/>
-      <c r="J145" s="41"/>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="69"/>
-      <c r="B146" s="27">
-        <v>41754</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
@@ -4710,79 +4796,79 @@
       <c r="J146" s="41"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="70">
+      <c r="A147" s="90"/>
+      <c r="B147" s="27">
+        <v>41751</v>
+      </c>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G147" s="41"/>
+      <c r="H147" s="41"/>
+      <c r="I147" s="41"/>
+      <c r="J147" s="41"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="90"/>
+      <c r="B148" s="27">
+        <v>41752</v>
+      </c>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G148" s="41"/>
+      <c r="H148" s="41"/>
+      <c r="I148" s="41"/>
+      <c r="J148" s="41"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="90"/>
+      <c r="B149" s="27">
+        <v>41753</v>
+      </c>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G149" s="41"/>
+      <c r="H149" s="41"/>
+      <c r="I149" s="41"/>
+      <c r="J149" s="41"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="91"/>
+      <c r="B150" s="27">
+        <v>41754</v>
+      </c>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G150" s="41"/>
+      <c r="H150" s="41"/>
+      <c r="I150" s="41"/>
+      <c r="J150" s="41"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" s="85">
         <v>26</v>
       </c>
-      <c r="B147" s="28">
+      <c r="B151" s="28">
         <v>41757</v>
-      </c>
-      <c r="C147" s="6"/>
-      <c r="D147" s="6"/>
-      <c r="E147" s="6"/>
-      <c r="F147" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G147" s="42"/>
-      <c r="H147" s="42"/>
-      <c r="I147" s="42"/>
-      <c r="J147" s="42"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="71"/>
-      <c r="B148" s="28">
-        <v>41758</v>
-      </c>
-      <c r="C148" s="6"/>
-      <c r="D148" s="6"/>
-      <c r="E148" s="6"/>
-      <c r="F148" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G148" s="42"/>
-      <c r="H148" s="42"/>
-      <c r="I148" s="42"/>
-      <c r="J148" s="42"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="71"/>
-      <c r="B149" s="28">
-        <v>41759</v>
-      </c>
-      <c r="C149" s="6"/>
-      <c r="D149" s="6"/>
-      <c r="E149" s="6"/>
-      <c r="F149" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G149" s="42"/>
-      <c r="H149" s="42"/>
-      <c r="I149" s="42"/>
-      <c r="J149" s="42"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="71"/>
-      <c r="B150" s="28">
-        <v>41760</v>
-      </c>
-      <c r="C150" s="6"/>
-      <c r="D150" s="6"/>
-      <c r="E150" s="6"/>
-      <c r="F150" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G150" s="42"/>
-      <c r="H150" s="42"/>
-      <c r="I150" s="42"/>
-      <c r="J150" s="42"/>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="72"/>
-      <c r="B151" s="28">
-        <v>41761</v>
       </c>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
@@ -4797,79 +4883,79 @@
       <c r="J151" s="42"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="67">
+      <c r="A152" s="119"/>
+      <c r="B152" s="28">
+        <v>41758</v>
+      </c>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6"/>
+      <c r="F152" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G152" s="42"/>
+      <c r="H152" s="42"/>
+      <c r="I152" s="42"/>
+      <c r="J152" s="42"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="119"/>
+      <c r="B153" s="28">
+        <v>41759</v>
+      </c>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+      <c r="F153" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G153" s="42"/>
+      <c r="H153" s="42"/>
+      <c r="I153" s="42"/>
+      <c r="J153" s="42"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="119"/>
+      <c r="B154" s="28">
+        <v>41760</v>
+      </c>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6"/>
+      <c r="F154" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G154" s="42"/>
+      <c r="H154" s="42"/>
+      <c r="I154" s="42"/>
+      <c r="J154" s="42"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" s="86"/>
+      <c r="B155" s="28">
+        <v>41761</v>
+      </c>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
+      <c r="F155" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G155" s="42"/>
+      <c r="H155" s="42"/>
+      <c r="I155" s="42"/>
+      <c r="J155" s="42"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" s="89">
         <v>27</v>
       </c>
-      <c r="B152" s="27">
+      <c r="B156" s="27">
         <v>41764</v>
-      </c>
-      <c r="C152" s="5"/>
-      <c r="D152" s="5"/>
-      <c r="E152" s="5"/>
-      <c r="F152" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G152" s="41"/>
-      <c r="H152" s="41"/>
-      <c r="I152" s="41"/>
-      <c r="J152" s="41"/>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="68"/>
-      <c r="B153" s="27">
-        <v>41765</v>
-      </c>
-      <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
-      <c r="F153" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G153" s="41"/>
-      <c r="H153" s="41"/>
-      <c r="I153" s="41"/>
-      <c r="J153" s="41"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="68"/>
-      <c r="B154" s="27">
-        <v>41766</v>
-      </c>
-      <c r="C154" s="5"/>
-      <c r="D154" s="5"/>
-      <c r="E154" s="5"/>
-      <c r="F154" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G154" s="41"/>
-      <c r="H154" s="41"/>
-      <c r="I154" s="41"/>
-      <c r="J154" s="41"/>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="68"/>
-      <c r="B155" s="27">
-        <v>41767</v>
-      </c>
-      <c r="C155" s="5"/>
-      <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
-      <c r="F155" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G155" s="41"/>
-      <c r="H155" s="41"/>
-      <c r="I155" s="41"/>
-      <c r="J155" s="41"/>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="69"/>
-      <c r="B156" s="27">
-        <v>41768</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
@@ -4884,85 +4970,85 @@
       <c r="J156" s="41"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="70">
+      <c r="A157" s="90"/>
+      <c r="B157" s="27">
+        <v>41765</v>
+      </c>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G157" s="41"/>
+      <c r="H157" s="41"/>
+      <c r="I157" s="41"/>
+      <c r="J157" s="41"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" s="90"/>
+      <c r="B158" s="27">
+        <v>41766</v>
+      </c>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G158" s="41"/>
+      <c r="H158" s="41"/>
+      <c r="I158" s="41"/>
+      <c r="J158" s="41"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" s="90"/>
+      <c r="B159" s="27">
+        <v>41767</v>
+      </c>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G159" s="41"/>
+      <c r="H159" s="41"/>
+      <c r="I159" s="41"/>
+      <c r="J159" s="41"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="91"/>
+      <c r="B160" s="27">
+        <v>41768</v>
+      </c>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G160" s="41"/>
+      <c r="H160" s="41"/>
+      <c r="I160" s="41"/>
+      <c r="J160" s="41"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="85">
         <v>28</v>
       </c>
-      <c r="B157" s="28">
+      <c r="B161" s="28">
         <v>41771</v>
-      </c>
-      <c r="C157" s="6"/>
-      <c r="D157" s="6"/>
-      <c r="E157" s="6"/>
-      <c r="F157" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G157" s="42"/>
-      <c r="H157" s="42"/>
-      <c r="I157" s="42"/>
-      <c r="J157" s="42"/>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="71"/>
-      <c r="B158" s="28">
-        <v>41772</v>
-      </c>
-      <c r="C158" s="6"/>
-      <c r="D158" s="6"/>
-      <c r="E158" s="6"/>
-      <c r="F158" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G158" s="42"/>
-      <c r="H158" s="42"/>
-      <c r="I158" s="42"/>
-      <c r="J158" s="42"/>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="71"/>
-      <c r="B159" s="28">
-        <v>41773</v>
-      </c>
-      <c r="C159" s="6"/>
-      <c r="D159" s="6"/>
-      <c r="E159" s="6"/>
-      <c r="F159" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G159" s="42"/>
-      <c r="H159" s="42"/>
-      <c r="I159" s="42"/>
-      <c r="J159" s="42"/>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="71"/>
-      <c r="B160" s="28">
-        <v>41774</v>
-      </c>
-      <c r="C160" s="6"/>
-      <c r="D160" s="6"/>
-      <c r="E160" s="6"/>
-      <c r="F160" s="6">
-        <f t="shared" ref="F160:F171" si="4">E160</f>
-        <v>0</v>
-      </c>
-      <c r="G160" s="42"/>
-      <c r="H160" s="42"/>
-      <c r="I160" s="42"/>
-      <c r="J160" s="42"/>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="72"/>
-      <c r="B161" s="28">
-        <v>41775</v>
       </c>
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
       <c r="E161" s="6"/>
       <c r="F161" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G161" s="42"/>
@@ -4971,79 +5057,79 @@
       <c r="J161" s="42"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="67">
+      <c r="A162" s="119"/>
+      <c r="B162" s="28">
+        <v>41772</v>
+      </c>
+      <c r="C162" s="6"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="6"/>
+      <c r="F162" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G162" s="42"/>
+      <c r="H162" s="42"/>
+      <c r="I162" s="42"/>
+      <c r="J162" s="42"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="119"/>
+      <c r="B163" s="28">
+        <v>41773</v>
+      </c>
+      <c r="C163" s="6"/>
+      <c r="D163" s="6"/>
+      <c r="E163" s="6"/>
+      <c r="F163" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G163" s="42"/>
+      <c r="H163" s="42"/>
+      <c r="I163" s="42"/>
+      <c r="J163" s="42"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="119"/>
+      <c r="B164" s="28">
+        <v>41774</v>
+      </c>
+      <c r="C164" s="6"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="6"/>
+      <c r="F164" s="6">
+        <f t="shared" ref="F164:F175" si="4">E164</f>
+        <v>0</v>
+      </c>
+      <c r="G164" s="42"/>
+      <c r="H164" s="42"/>
+      <c r="I164" s="42"/>
+      <c r="J164" s="42"/>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" s="86"/>
+      <c r="B165" s="28">
+        <v>41775</v>
+      </c>
+      <c r="C165" s="6"/>
+      <c r="D165" s="6"/>
+      <c r="E165" s="6"/>
+      <c r="F165" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G165" s="42"/>
+      <c r="H165" s="42"/>
+      <c r="I165" s="42"/>
+      <c r="J165" s="42"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="89">
         <v>29</v>
       </c>
-      <c r="B162" s="27">
+      <c r="B166" s="27">
         <v>41778</v>
-      </c>
-      <c r="C162" s="5"/>
-      <c r="D162" s="5"/>
-      <c r="E162" s="5"/>
-      <c r="F162" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G162" s="41"/>
-      <c r="H162" s="41"/>
-      <c r="I162" s="41"/>
-      <c r="J162" s="41"/>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="68"/>
-      <c r="B163" s="27">
-        <v>41779</v>
-      </c>
-      <c r="C163" s="5"/>
-      <c r="D163" s="5"/>
-      <c r="E163" s="5"/>
-      <c r="F163" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G163" s="41"/>
-      <c r="H163" s="41"/>
-      <c r="I163" s="41"/>
-      <c r="J163" s="41"/>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="68"/>
-      <c r="B164" s="27">
-        <v>41780</v>
-      </c>
-      <c r="C164" s="5"/>
-      <c r="D164" s="5"/>
-      <c r="E164" s="5"/>
-      <c r="F164" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G164" s="41"/>
-      <c r="H164" s="41"/>
-      <c r="I164" s="41"/>
-      <c r="J164" s="41"/>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="68"/>
-      <c r="B165" s="27">
-        <v>41781</v>
-      </c>
-      <c r="C165" s="5"/>
-      <c r="D165" s="5"/>
-      <c r="E165" s="5"/>
-      <c r="F165" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G165" s="41"/>
-      <c r="H165" s="41"/>
-      <c r="I165" s="41"/>
-      <c r="J165" s="41"/>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="69"/>
-      <c r="B166" s="27">
-        <v>41782</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
@@ -5058,79 +5144,79 @@
       <c r="J166" s="41"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="73">
+      <c r="A167" s="90"/>
+      <c r="B167" s="27">
+        <v>41779</v>
+      </c>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G167" s="41"/>
+      <c r="H167" s="41"/>
+      <c r="I167" s="41"/>
+      <c r="J167" s="41"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="90"/>
+      <c r="B168" s="27">
+        <v>41780</v>
+      </c>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G168" s="41"/>
+      <c r="H168" s="41"/>
+      <c r="I168" s="41"/>
+      <c r="J168" s="41"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" s="90"/>
+      <c r="B169" s="27">
+        <v>41781</v>
+      </c>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G169" s="41"/>
+      <c r="H169" s="41"/>
+      <c r="I169" s="41"/>
+      <c r="J169" s="41"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" s="91"/>
+      <c r="B170" s="27">
+        <v>41782</v>
+      </c>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G170" s="41"/>
+      <c r="H170" s="41"/>
+      <c r="I170" s="41"/>
+      <c r="J170" s="41"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" s="125">
         <v>30</v>
       </c>
-      <c r="B167" s="28">
+      <c r="B171" s="28">
         <v>41785</v>
-      </c>
-      <c r="C167" s="2"/>
-      <c r="D167" s="2"/>
-      <c r="E167" s="2"/>
-      <c r="F167" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G167" s="43"/>
-      <c r="H167" s="43"/>
-      <c r="I167" s="43"/>
-      <c r="J167" s="43"/>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="74"/>
-      <c r="B168" s="28">
-        <v>41786</v>
-      </c>
-      <c r="C168" s="2"/>
-      <c r="D168" s="2"/>
-      <c r="E168" s="2"/>
-      <c r="F168" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G168" s="43"/>
-      <c r="H168" s="43"/>
-      <c r="I168" s="43"/>
-      <c r="J168" s="43"/>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="74"/>
-      <c r="B169" s="28">
-        <v>41787</v>
-      </c>
-      <c r="C169" s="2"/>
-      <c r="D169" s="2"/>
-      <c r="E169" s="2"/>
-      <c r="F169" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G169" s="43"/>
-      <c r="H169" s="43"/>
-      <c r="I169" s="43"/>
-      <c r="J169" s="43"/>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="74"/>
-      <c r="B170" s="28">
-        <v>41788</v>
-      </c>
-      <c r="C170" s="2"/>
-      <c r="D170" s="2"/>
-      <c r="E170" s="2"/>
-      <c r="F170" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G170" s="43"/>
-      <c r="H170" s="43"/>
-      <c r="I170" s="43"/>
-      <c r="J170" s="43"/>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="75"/>
-      <c r="B171" s="28">
-        <v>41789</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
@@ -5144,8 +5230,126 @@
       <c r="I171" s="43"/>
       <c r="J171" s="43"/>
     </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" s="126"/>
+      <c r="B172" s="28">
+        <v>41786</v>
+      </c>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G172" s="43"/>
+      <c r="H172" s="43"/>
+      <c r="I172" s="43"/>
+      <c r="J172" s="43"/>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="126"/>
+      <c r="B173" s="28">
+        <v>41787</v>
+      </c>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G173" s="43"/>
+      <c r="H173" s="43"/>
+      <c r="I173" s="43"/>
+      <c r="J173" s="43"/>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" s="126"/>
+      <c r="B174" s="28">
+        <v>41788</v>
+      </c>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
+      <c r="F174" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G174" s="43"/>
+      <c r="H174" s="43"/>
+      <c r="I174" s="43"/>
+      <c r="J174" s="43"/>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" s="127"/>
+      <c r="B175" s="28">
+        <v>41789</v>
+      </c>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G175" s="43"/>
+      <c r="H175" s="43"/>
+      <c r="I175" s="43"/>
+      <c r="J175" s="43"/>
+    </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="66">
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="A96:A100"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="A44:A50"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="A61:A65"/>
+    <mergeCell ref="A66:A70"/>
+    <mergeCell ref="A76:A80"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="A126:A130"/>
+    <mergeCell ref="A156:A160"/>
+    <mergeCell ref="A161:A165"/>
+    <mergeCell ref="A101:A105"/>
+    <mergeCell ref="A106:A110"/>
+    <mergeCell ref="A111:A115"/>
+    <mergeCell ref="A116:A120"/>
+    <mergeCell ref="A121:A125"/>
+    <mergeCell ref="A166:A170"/>
+    <mergeCell ref="A171:A175"/>
+    <mergeCell ref="A131:A135"/>
+    <mergeCell ref="A136:A140"/>
+    <mergeCell ref="A141:A145"/>
+    <mergeCell ref="A146:A150"/>
+    <mergeCell ref="A151:A155"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F25:F30"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A71:A75"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A10:A18"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="G2:N4"/>
     <mergeCell ref="A7:A9"/>
@@ -5162,52 +5366,6 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A10:A18"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F25:F30"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="A162:A166"/>
-    <mergeCell ref="A167:A171"/>
-    <mergeCell ref="A127:A131"/>
-    <mergeCell ref="A132:A136"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="A142:A146"/>
-    <mergeCell ref="A147:A151"/>
-    <mergeCell ref="A122:A126"/>
-    <mergeCell ref="A152:A156"/>
-    <mergeCell ref="A157:A161"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="A112:A116"/>
-    <mergeCell ref="A117:A121"/>
-    <mergeCell ref="A92:A96"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A52:A56"/>
   </mergeCells>
   <conditionalFormatting sqref="M7">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
@@ -5477,7 +5635,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M41</xm:sqref>
+          <xm:sqref>M41:M43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="22" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
@@ -5496,86 +5654,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M42</xm:sqref>
+          <xm:sqref>M44:M46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="21" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M43</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="20" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M44</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="19" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M45</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M46</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="17" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5594,7 +5676,7 @@
           <xm:sqref>M47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="16" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
+          <x14:cfRule type="iconSet" priority="20" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5613,7 +5695,7 @@
           <xm:sqref>M48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="15" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
+          <x14:cfRule type="iconSet" priority="19" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5632,7 +5714,7 @@
           <xm:sqref>M49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
+          <x14:cfRule type="iconSet" priority="18" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5651,7 +5733,7 @@
           <xm:sqref>M50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
+          <x14:cfRule type="iconSet" priority="17" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5670,7 +5752,7 @@
           <xm:sqref>M51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+          <x14:cfRule type="iconSet" priority="16" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5689,7 +5771,7 @@
           <xm:sqref>M52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="11" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+          <x14:cfRule type="iconSet" priority="15" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5708,7 +5790,7 @@
           <xm:sqref>M53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="10" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+          <x14:cfRule type="iconSet" priority="14" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5725,6 +5807,82 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>M54</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="13" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="12" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M56</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="11" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M57</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="10" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="9" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
@@ -5781,7 +5939,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F19 F7:F8 F12:F14 F16 F21 F25 F23 F35 F37 F39:F171</xm:sqref>
+          <xm:sqref>F19 F7:F8 F12:F14 F16 F21 F25 F23 F35 F37 F39:F42 F44 F47:F175</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNgo.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNgo.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="116">
   <si>
     <t>Week</t>
   </si>
@@ -340,41 +340,71 @@
     <t>conduct stage 7-8 ACDM</t>
   </si>
   <si>
+    <t>reading</t>
+  </si>
+  <si>
+    <t>review documents</t>
+  </si>
+  <si>
+    <t>presents about : process,change management,risk management,measure management,…</t>
+  </si>
+  <si>
+    <t>devide task
+overall about website system</t>
+  </si>
+  <si>
+    <t>prepare question to get requirement</t>
+  </si>
+  <si>
+    <t>analyze requirement</t>
+  </si>
+  <si>
+    <t>Write Functional, Quality Attribute and Entity of Module hỏi đáp</t>
+  </si>
+  <si>
+    <t>update Functional, Quality Attribute and Entity of Module hỏi đáp</t>
+  </si>
+  <si>
+    <t>update risk log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update master design plan
+</t>
+  </si>
+  <si>
     <t>update master design plan
 update product schedule
-update sprint life cycle</t>
-  </si>
-  <si>
-    <t>reading</t>
-  </si>
-  <si>
-    <t>review documents</t>
-  </si>
-  <si>
-    <t>presents about : process,change management,risk management,measure management,…</t>
-  </si>
-  <si>
-    <t>devide task
-overall about website system</t>
-  </si>
-  <si>
-    <t>prepare question to get requirement</t>
-  </si>
-  <si>
-    <t>analyze requirement</t>
-  </si>
-  <si>
-    <t>Write Functional, Quality Attribute and Entity of Module hỏi đáp</t>
-  </si>
-  <si>
-    <t>update Functional, Quality Attribute and Entity of Module hỏi đáp</t>
-  </si>
-  <si>
-    <t>update risk log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">update master design plan
-</t>
+update sprint life cycle
+update master plan</t>
+  </si>
+  <si>
+    <t>create master plan</t>
+  </si>
+  <si>
+    <t>meetings with customer</t>
+  </si>
+  <si>
+    <t>review entities,functional and quality attribute</t>
+  </si>
+  <si>
+    <t>update Risk Management</t>
+  </si>
+  <si>
+    <t>AS_PM_RiskManagment.xlsx</t>
+  </si>
+  <si>
+    <t>update master plan.
+Update master design plan</t>
+  </si>
+  <si>
+    <t>spring core,maven…
+install tool to program product</t>
+  </si>
+  <si>
+    <t>review documents
+.-risk management
+.-master plan
+.-master design plan</t>
   </si>
 </sst>
 </file>
@@ -869,6 +899,117 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -914,48 +1055,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -981,78 +1083,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1488,13 +1518,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O175"/>
+  <dimension ref="A1:O180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H47" sqref="H47"/>
+      <selection pane="bottomRight" activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1505,7 +1535,7 @@
     <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="50.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="47.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="1" customWidth="1"/>
@@ -1516,81 +1546,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="68"/>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="70"/>
+      <c r="A1" s="105"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="107"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="71" t="s">
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="73"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="110"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="124" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="76"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="113"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="103"/>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="79"/>
+      <c r="A4" s="127"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
+      <c r="M4" s="115"/>
+      <c r="N4" s="116"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="112"/>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="114"/>
+      <c r="A5" s="99"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="101"/>
       <c r="F5" s="16"/>
       <c r="H5" s="45" t="s">
         <v>66</v>
@@ -1635,13 +1665,13 @@
       <c r="J6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="120"/>
+      <c r="M6" s="120"/>
+      <c r="N6" s="120"/>
     </row>
     <row r="7" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="80">
+      <c r="A7" s="117">
         <v>1</v>
       </c>
       <c r="B7" s="17">
@@ -1668,21 +1698,21 @@
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="31"/>
-      <c r="K7" s="118" t="s">
+      <c r="K7" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="118"/>
+      <c r="L7" s="84"/>
       <c r="M7" s="34">
-        <f>SUM(M8:M58)</f>
-        <v>32.203000000000003</v>
+        <f>SUM(M8:M63)</f>
+        <v>47.303000000000004</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="81"/>
-      <c r="B8" s="106">
+      <c r="A8" s="118"/>
+      <c r="B8" s="95">
         <v>41586</v>
       </c>
       <c r="C8" s="18">
@@ -1694,7 +1724,7 @@
       <c r="E8" s="19">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F8" s="108">
+      <c r="F8" s="97">
         <f>SUM(E8:E9)</f>
         <v>1.66</v>
       </c>
@@ -1719,8 +1749,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="82"/>
-      <c r="B9" s="107"/>
+      <c r="A9" s="119"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="18">
         <v>0.63194444444444442</v>
       </c>
@@ -1730,7 +1760,7 @@
       <c r="E9" s="19">
         <v>0.5</v>
       </c>
-      <c r="F9" s="109"/>
+      <c r="F9" s="98"/>
       <c r="G9" s="31" t="s">
         <v>25</v>
       </c>
@@ -1741,10 +1771,10 @@
       <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="115">
+      <c r="A10" s="102">
         <v>2</v>
       </c>
-      <c r="B10" s="95">
+      <c r="B10" s="87">
         <v>41589</v>
       </c>
       <c r="C10" s="55">
@@ -1756,7 +1786,7 @@
       <c r="E10" s="56">
         <v>1.5</v>
       </c>
-      <c r="F10" s="122">
+      <c r="F10" s="91">
         <f>SUM(E10:E11)</f>
         <v>2.5</v>
       </c>
@@ -1770,8 +1800,8 @@
       <c r="J10" s="57"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="116"/>
-      <c r="B11" s="96"/>
+      <c r="A11" s="103"/>
+      <c r="B11" s="88"/>
       <c r="C11" s="55">
         <v>0.875</v>
       </c>
@@ -1781,7 +1811,7 @@
       <c r="E11" s="56">
         <v>1</v>
       </c>
-      <c r="F11" s="123"/>
+      <c r="F11" s="92"/>
       <c r="G11" s="57" t="s">
         <v>30</v>
       </c>
@@ -1792,8 +1822,8 @@
       <c r="J11" s="57"/>
     </row>
     <row r="12" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A12" s="116"/>
-      <c r="B12" s="95">
+      <c r="A12" s="103"/>
+      <c r="B12" s="87">
         <v>41590</v>
       </c>
       <c r="C12" s="23">
@@ -1833,8 +1863,8 @@
       <c r="O12" s="36"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="116"/>
-      <c r="B13" s="96"/>
+      <c r="A13" s="103"/>
+      <c r="B13" s="88"/>
       <c r="C13" s="23">
         <v>0.875</v>
       </c>
@@ -1863,8 +1893,8 @@
       <c r="O13" s="36"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="116"/>
-      <c r="B14" s="95">
+      <c r="A14" s="103"/>
+      <c r="B14" s="87">
         <v>41592</v>
       </c>
       <c r="C14" s="26">
@@ -1876,7 +1906,7 @@
       <c r="E14" s="29">
         <v>1.25</v>
       </c>
-      <c r="F14" s="110">
+      <c r="F14" s="85">
         <f>SUM(E14:E15)</f>
         <v>3.25</v>
       </c>
@@ -1903,8 +1933,8 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="116"/>
-      <c r="B15" s="96"/>
+      <c r="A15" s="103"/>
+      <c r="B15" s="88"/>
       <c r="C15" s="26">
         <v>0.42708333333333331</v>
       </c>
@@ -1914,7 +1944,7 @@
       <c r="E15" s="29">
         <v>2</v>
       </c>
-      <c r="F15" s="111"/>
+      <c r="F15" s="86"/>
       <c r="G15" s="48" t="s">
         <v>30</v>
       </c>
@@ -1929,7 +1959,7 @@
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="116"/>
+      <c r="A16" s="103"/>
       <c r="B16" s="46">
         <v>41593</v>
       </c>
@@ -1961,16 +1991,16 @@
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="10">
-        <f>SUM(E44:E50)</f>
-        <v>3.5</v>
+        <f>SUM(E44:E55)</f>
+        <v>18.600000000000001</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="116"/>
-      <c r="B17" s="95">
+      <c r="A17" s="103"/>
+      <c r="B17" s="87">
         <v>41594</v>
       </c>
       <c r="C17" s="26">
@@ -1982,7 +2012,7 @@
       <c r="E17" s="29">
         <v>2</v>
       </c>
-      <c r="F17" s="110">
+      <c r="F17" s="85">
         <f>SUM(E17:E18)</f>
         <v>3</v>
       </c>
@@ -2001,7 +2031,7 @@
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="10">
-        <f>SUM(E56:E60)</f>
+        <f>SUM(E61:E65)</f>
         <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
@@ -2009,8 +2039,8 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="117"/>
-      <c r="B18" s="96"/>
+      <c r="A18" s="104"/>
+      <c r="B18" s="88"/>
       <c r="C18" s="26">
         <v>0.83333333333333337</v>
       </c>
@@ -2020,7 +2050,7 @@
       <c r="E18" s="29">
         <v>1</v>
       </c>
-      <c r="F18" s="111"/>
+      <c r="F18" s="86"/>
       <c r="G18" s="30" t="s">
         <v>24</v>
       </c>
@@ -2037,10 +2067,10 @@
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="89">
+      <c r="A19" s="77">
         <v>3</v>
       </c>
-      <c r="B19" s="87">
+      <c r="B19" s="74">
         <v>41596</v>
       </c>
       <c r="C19" s="53">
@@ -2052,7 +2082,7 @@
       <c r="E19" s="5">
         <v>0.6</v>
       </c>
-      <c r="F19" s="89">
+      <c r="F19" s="77">
         <f>SUM(E19:E20)</f>
         <v>1.18</v>
       </c>
@@ -2071,7 +2101,7 @@
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="10">
-        <f>SUM(E61:E65)</f>
+        <f>SUM(E66:E70)</f>
         <v>0</v>
       </c>
       <c r="N19" s="3" t="s">
@@ -2079,8 +2109,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="90"/>
-      <c r="B20" s="88"/>
+      <c r="A20" s="78"/>
+      <c r="B20" s="76"/>
       <c r="C20" s="53">
         <v>0.89236111111111116</v>
       </c>
@@ -2090,7 +2120,7 @@
       <c r="E20" s="5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F20" s="91"/>
+      <c r="F20" s="79"/>
       <c r="G20" s="41" t="s">
         <v>30</v>
       </c>
@@ -2105,8 +2135,8 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A21" s="90"/>
-      <c r="B21" s="120">
+      <c r="A21" s="78"/>
+      <c r="B21" s="89">
         <v>41597</v>
       </c>
       <c r="C21" s="53">
@@ -2118,7 +2148,7 @@
       <c r="E21" s="52">
         <v>1</v>
       </c>
-      <c r="F21" s="89">
+      <c r="F21" s="77">
         <f>SUM(E21:E22)</f>
         <v>3</v>
       </c>
@@ -2135,7 +2165,7 @@
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="10">
-        <f>SUM(E66:E70)</f>
+        <f>SUM(E71:E75)</f>
         <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
@@ -2143,8 +2173,8 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="90"/>
-      <c r="B22" s="121"/>
+      <c r="A22" s="78"/>
+      <c r="B22" s="90"/>
       <c r="C22" s="53">
         <v>0.91666666666666663</v>
       </c>
@@ -2154,7 +2184,7 @@
       <c r="E22" s="52">
         <v>2</v>
       </c>
-      <c r="F22" s="91"/>
+      <c r="F22" s="79"/>
       <c r="G22" s="41" t="s">
         <v>24</v>
       </c>
@@ -2171,8 +2201,8 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="90"/>
-      <c r="B23" s="87">
+      <c r="A23" s="78"/>
+      <c r="B23" s="74">
         <v>41598</v>
       </c>
       <c r="C23" s="53">
@@ -2201,7 +2231,7 @@
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="10">
-        <f>SUM(E71:E75)</f>
+        <f>SUM(E76:E80)</f>
         <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
@@ -2209,8 +2239,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="90"/>
-      <c r="B24" s="88"/>
+      <c r="A24" s="78"/>
+      <c r="B24" s="76"/>
       <c r="C24" s="53">
         <v>0.91666666666666663</v>
       </c>
@@ -2234,7 +2264,7 @@
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="10">
-        <f>SUM(E76:E80)</f>
+        <f>SUM(E81:E85)</f>
         <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
@@ -2242,8 +2272,8 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="90"/>
-      <c r="B25" s="87">
+      <c r="A25" s="78"/>
+      <c r="B25" s="74">
         <v>41599</v>
       </c>
       <c r="C25" s="53">
@@ -2255,7 +2285,7 @@
       <c r="E25" s="5">
         <v>1</v>
       </c>
-      <c r="F25" s="89">
+      <c r="F25" s="77">
         <f>SUM(E25:E30)</f>
         <v>10.35</v>
       </c>
@@ -2271,8 +2301,8 @@
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="90"/>
-      <c r="B26" s="124"/>
+      <c r="A26" s="78"/>
+      <c r="B26" s="75"/>
       <c r="C26" s="53">
         <v>0.375</v>
       </c>
@@ -2282,7 +2312,7 @@
       <c r="E26" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F26" s="90"/>
+      <c r="F26" s="78"/>
       <c r="G26" s="54" t="s">
         <v>25</v>
       </c>
@@ -2297,8 +2327,8 @@
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="90"/>
-      <c r="B27" s="124"/>
+      <c r="A27" s="78"/>
+      <c r="B27" s="75"/>
       <c r="C27" s="53">
         <v>0.4236111111111111</v>
       </c>
@@ -2308,7 +2338,7 @@
       <c r="E27" s="5">
         <v>1.5</v>
       </c>
-      <c r="F27" s="90"/>
+      <c r="F27" s="78"/>
       <c r="G27" s="41" t="s">
         <v>87</v>
       </c>
@@ -2321,8 +2351,8 @@
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="90"/>
-      <c r="B28" s="124"/>
+      <c r="A28" s="78"/>
+      <c r="B28" s="75"/>
       <c r="C28" s="53">
         <v>0.52083333333333337</v>
       </c>
@@ -2332,7 +2362,7 @@
       <c r="E28" s="5">
         <v>2</v>
       </c>
-      <c r="F28" s="90"/>
+      <c r="F28" s="78"/>
       <c r="G28" s="41" t="s">
         <v>83</v>
       </c>
@@ -2347,8 +2377,8 @@
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="90"/>
-      <c r="B29" s="124"/>
+      <c r="A29" s="78"/>
+      <c r="B29" s="75"/>
       <c r="C29" s="53">
         <v>0.625</v>
       </c>
@@ -2358,7 +2388,7 @@
       <c r="E29" s="5">
         <v>2.1</v>
       </c>
-      <c r="F29" s="90"/>
+      <c r="F29" s="78"/>
       <c r="G29" s="41" t="s">
         <v>87</v>
       </c>
@@ -2371,8 +2401,8 @@
       <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="90"/>
-      <c r="B30" s="88"/>
+      <c r="A30" s="78"/>
+      <c r="B30" s="76"/>
       <c r="C30" s="53">
         <v>0.84375</v>
       </c>
@@ -2382,11 +2412,13 @@
       <c r="E30" s="5">
         <v>2.65</v>
       </c>
-      <c r="F30" s="91"/>
+      <c r="F30" s="79"/>
       <c r="G30" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="H30" s="62"/>
+      <c r="H30" s="62" t="s">
+        <v>108</v>
+      </c>
       <c r="I30" s="41"/>
       <c r="J30" s="41"/>
       <c r="K30" s="8"/>
@@ -2395,8 +2427,8 @@
       <c r="N30" s="3"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="90"/>
-      <c r="B31" s="87">
+      <c r="A31" s="78"/>
+      <c r="B31" s="74">
         <v>41600</v>
       </c>
       <c r="C31" s="53">
@@ -2426,8 +2458,8 @@
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="91"/>
-      <c r="B32" s="88"/>
+      <c r="A32" s="79"/>
+      <c r="B32" s="76"/>
       <c r="C32" s="53">
         <v>0.625</v>
       </c>
@@ -2453,7 +2485,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="63"/>
-      <c r="B33" s="87">
+      <c r="B33" s="74">
         <v>41601</v>
       </c>
       <c r="C33" s="53">
@@ -2484,7 +2516,7 @@
     </row>
     <row r="34" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="64"/>
-      <c r="B34" s="88"/>
+      <c r="B34" s="76"/>
       <c r="C34" s="53">
         <v>0.57291666666666663</v>
       </c>
@@ -2510,11 +2542,11 @@
       <c r="M34" s="10"/>
       <c r="N34" s="3"/>
     </row>
-    <row r="35" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="85">
+    <row r="35" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A35" s="72">
         <v>4</v>
       </c>
-      <c r="B35" s="83">
+      <c r="B35" s="70">
         <v>41603</v>
       </c>
       <c r="C35" s="65">
@@ -2526,7 +2558,7 @@
       <c r="E35" s="6">
         <v>1.25</v>
       </c>
-      <c r="F35" s="85">
+      <c r="F35" s="72">
         <f>SUM(E35:E36)</f>
         <v>3.25</v>
       </c>
@@ -2534,7 +2566,7 @@
         <v>88</v>
       </c>
       <c r="H35" s="66" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="I35" s="42"/>
       <c r="J35" s="42"/>
@@ -2543,7 +2575,7 @@
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="10">
-        <f>SUM(E86:E90)</f>
+        <f>SUM(E91:E95)</f>
         <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
@@ -2551,8 +2583,8 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="119"/>
-      <c r="B36" s="84"/>
+      <c r="A36" s="80"/>
+      <c r="B36" s="71"/>
       <c r="C36" s="65">
         <v>0.91666666666666663</v>
       </c>
@@ -2562,12 +2594,12 @@
       <c r="E36" s="6">
         <v>2</v>
       </c>
-      <c r="F36" s="86"/>
+      <c r="F36" s="73"/>
       <c r="G36" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="H36" s="66" t="s">
         <v>98</v>
-      </c>
-      <c r="H36" s="66" t="s">
-        <v>99</v>
       </c>
       <c r="I36" s="42"/>
       <c r="J36" s="42"/>
@@ -2577,8 +2609,8 @@
       <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="119"/>
-      <c r="B37" s="83">
+      <c r="A37" s="80"/>
+      <c r="B37" s="70">
         <v>41604</v>
       </c>
       <c r="C37" s="65">
@@ -2590,7 +2622,7 @@
       <c r="E37" s="6">
         <v>2.5</v>
       </c>
-      <c r="F37" s="85">
+      <c r="F37" s="72">
         <f>SUM(E37:E38)</f>
         <v>3.5</v>
       </c>
@@ -2598,7 +2630,7 @@
         <v>25</v>
       </c>
       <c r="H37" s="66" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I37" s="42"/>
       <c r="J37" s="42"/>
@@ -2607,7 +2639,7 @@
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="10">
-        <f>SUM(E91:E95)</f>
+        <f>SUM(E96:E100)</f>
         <v>0</v>
       </c>
       <c r="N37" s="3" t="s">
@@ -2615,8 +2647,8 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="119"/>
-      <c r="B38" s="84"/>
+      <c r="A38" s="80"/>
+      <c r="B38" s="71"/>
       <c r="C38" s="65">
         <v>0.5625</v>
       </c>
@@ -2626,12 +2658,12 @@
       <c r="E38" s="6">
         <v>1</v>
       </c>
-      <c r="F38" s="86"/>
+      <c r="F38" s="73"/>
       <c r="G38" s="42" t="s">
         <v>87</v>
       </c>
       <c r="H38" s="66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I38" s="42"/>
       <c r="J38" s="42"/>
@@ -2641,7 +2673,7 @@
       <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="119"/>
+      <c r="A39" s="80"/>
       <c r="B39" s="28">
         <v>41605</v>
       </c>
@@ -2655,14 +2687,14 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="F39" s="6">
-        <f t="shared" ref="F39:F67" si="0">E39</f>
+        <f t="shared" ref="F39:F72" si="0">E39</f>
         <v>2.2999999999999998</v>
       </c>
       <c r="G39" s="42" t="s">
         <v>87</v>
       </c>
       <c r="H39" s="42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I39" s="42"/>
       <c r="J39" s="42"/>
@@ -2671,7 +2703,7 @@
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="10">
-        <f>SUM(E96:E100)</f>
+        <f>SUM(E101:E105)</f>
         <v>0</v>
       </c>
       <c r="N39" s="3" t="s">
@@ -2679,7 +2711,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="119"/>
+      <c r="A40" s="80"/>
       <c r="B40" s="28">
         <v>41606</v>
       </c>
@@ -2700,7 +2732,7 @@
         <v>87</v>
       </c>
       <c r="H40" s="42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I40" s="42"/>
       <c r="J40" s="42"/>
@@ -2709,7 +2741,7 @@
       </c>
       <c r="L40" s="6"/>
       <c r="M40" s="10">
-        <f>SUM(E101:E105)</f>
+        <f>SUM(E106:E110)</f>
         <v>0</v>
       </c>
       <c r="N40" s="3" t="s">
@@ -2717,7 +2749,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="86"/>
+      <c r="A41" s="73"/>
       <c r="B41" s="28">
         <v>41607</v>
       </c>
@@ -2738,7 +2770,7 @@
         <v>87</v>
       </c>
       <c r="H41" s="42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I41" s="42"/>
       <c r="J41" s="42"/>
@@ -2747,7 +2779,7 @@
       </c>
       <c r="L41" s="6"/>
       <c r="M41" s="10">
-        <f>SUM(E106:E110)</f>
+        <f>SUM(E111:E115)</f>
         <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
@@ -2756,7 +2788,7 @@
     </row>
     <row r="42" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="67"/>
-      <c r="B42" s="83">
+      <c r="B42" s="70">
         <v>41608</v>
       </c>
       <c r="C42" s="65">
@@ -2768,15 +2800,15 @@
       <c r="E42" s="6">
         <v>1.5</v>
       </c>
-      <c r="F42" s="85">
+      <c r="F42" s="72">
         <f>SUM(E42:E43)</f>
         <v>2.5</v>
       </c>
       <c r="G42" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="H42" s="128" t="s">
-        <v>104</v>
+      <c r="H42" s="68" t="s">
+        <v>103</v>
       </c>
       <c r="I42" s="42"/>
       <c r="J42" s="42"/>
@@ -2787,7 +2819,7 @@
     </row>
     <row r="43" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="67"/>
-      <c r="B43" s="84"/>
+      <c r="B43" s="71"/>
       <c r="C43" s="65">
         <v>0.85416666666666663</v>
       </c>
@@ -2797,12 +2829,12 @@
       <c r="E43" s="6">
         <v>1</v>
       </c>
-      <c r="F43" s="86"/>
+      <c r="F43" s="73"/>
       <c r="G43" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="H43" s="128" t="s">
-        <v>105</v>
+      <c r="H43" s="68" t="s">
+        <v>104</v>
       </c>
       <c r="I43" s="42"/>
       <c r="J43" s="42"/>
@@ -2812,22 +2844,22 @@
       <c r="N43" s="3"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="89">
+      <c r="A44" s="77">
         <v>5</v>
       </c>
-      <c r="B44" s="87">
+      <c r="B44" s="74">
         <v>41610</v>
       </c>
-      <c r="C44" s="129">
+      <c r="C44" s="69">
         <v>0.85416666666666663</v>
       </c>
-      <c r="D44" s="129">
+      <c r="D44" s="69">
         <v>0.89583333333333337</v>
       </c>
       <c r="E44" s="5">
         <v>1</v>
       </c>
-      <c r="F44" s="89">
+      <c r="F44" s="77">
         <f>SUM(E44:E46)</f>
         <v>3.5</v>
       </c>
@@ -2835,7 +2867,7 @@
         <v>88</v>
       </c>
       <c r="H44" s="41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I44" s="41"/>
       <c r="J44" s="41"/>
@@ -2844,7 +2876,7 @@
       </c>
       <c r="L44" s="6"/>
       <c r="M44" s="10">
-        <f>SUM(E111:E115)</f>
+        <f>SUM(E116:E120)</f>
         <v>0</v>
       </c>
       <c r="N44" s="3" t="s">
@@ -2852,23 +2884,23 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="90"/>
-      <c r="B45" s="124"/>
-      <c r="C45" s="129">
+      <c r="A45" s="78"/>
+      <c r="B45" s="75"/>
+      <c r="C45" s="69">
         <v>0.89583333333333337</v>
       </c>
-      <c r="D45" s="129">
+      <c r="D45" s="69">
         <v>0.95833333333333337</v>
       </c>
       <c r="E45" s="5">
         <v>1.5</v>
       </c>
-      <c r="F45" s="90"/>
+      <c r="F45" s="78"/>
       <c r="G45" s="41" t="s">
         <v>88</v>
       </c>
       <c r="H45" s="54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I45" s="41"/>
       <c r="J45" s="41"/>
@@ -2878,23 +2910,23 @@
       <c r="N45" s="3"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="90"/>
-      <c r="B46" s="88"/>
-      <c r="C46" s="129">
+      <c r="A46" s="78"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="69">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D46" s="129">
+      <c r="D46" s="69">
         <v>1</v>
       </c>
       <c r="E46" s="5">
         <v>1</v>
       </c>
-      <c r="F46" s="91"/>
+      <c r="F46" s="79"/>
       <c r="G46" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="H46" s="54" t="s">
         <v>98</v>
-      </c>
-      <c r="H46" s="54" t="s">
-        <v>99</v>
       </c>
       <c r="I46" s="41"/>
       <c r="J46" s="41"/>
@@ -2904,18 +2936,26 @@
       <c r="N46" s="3"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="90"/>
-      <c r="B47" s="27">
+      <c r="A47" s="78"/>
+      <c r="B47" s="74">
         <v>41611</v>
       </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="41"/>
+      <c r="C47" s="69">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D47" s="69">
+        <v>0.375</v>
+      </c>
+      <c r="E47" s="5">
+        <v>1</v>
+      </c>
+      <c r="F47" s="77">
+        <f>SUM(E47:E51)</f>
+        <v>10.5</v>
+      </c>
+      <c r="G47" s="41" t="s">
+        <v>86</v>
+      </c>
       <c r="H47" s="41"/>
       <c r="I47" s="41"/>
       <c r="J47" s="41"/>
@@ -2924,7 +2964,7 @@
       </c>
       <c r="L47" s="6"/>
       <c r="M47" s="10">
-        <f>SUM(E116:E120)</f>
+        <f>SUM(E121:E125)</f>
         <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
@@ -2932,197 +2972,197 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="90"/>
-      <c r="B48" s="27">
-        <v>41612</v>
-      </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
+      <c r="A48" s="78"/>
+      <c r="B48" s="75"/>
+      <c r="C48" s="69">
+        <v>0.375</v>
+      </c>
+      <c r="D48" s="69">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E48" s="5">
+        <v>2</v>
+      </c>
+      <c r="F48" s="78"/>
+      <c r="G48" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="H48" s="41" t="s">
+        <v>110</v>
+      </c>
       <c r="I48" s="41"/>
       <c r="J48" s="41"/>
-      <c r="K48" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="K48" s="8"/>
       <c r="L48" s="6"/>
-      <c r="M48" s="10">
-        <f>SUM(E121:E125)</f>
-        <v>0</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="90"/>
-      <c r="B49" s="27">
-        <v>41613</v>
-      </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="78"/>
+      <c r="B49" s="75"/>
+      <c r="C49" s="69">
+        <v>0.5625</v>
+      </c>
+      <c r="D49" s="69">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E49" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="F49" s="78"/>
+      <c r="G49" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="H49" s="54" t="s">
+        <v>114</v>
+      </c>
       <c r="I49" s="41"/>
       <c r="J49" s="41"/>
-      <c r="K49" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="K49" s="8"/>
       <c r="L49" s="6"/>
-      <c r="M49" s="10">
-        <f>SUM(E126:E130)</f>
-        <v>0</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="M49" s="10"/>
+      <c r="N49" s="3"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="91"/>
-      <c r="B50" s="27">
-        <v>41614</v>
-      </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41"/>
+      <c r="A50" s="78"/>
+      <c r="B50" s="75"/>
+      <c r="C50" s="69">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D50" s="69">
+        <v>0.875</v>
+      </c>
+      <c r="E50" s="5">
+        <v>1</v>
+      </c>
+      <c r="F50" s="78"/>
+      <c r="G50" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="H50" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="I50" s="41" t="s">
+        <v>112</v>
+      </c>
       <c r="J50" s="41"/>
-      <c r="K50" s="8" t="s">
-        <v>46</v>
-      </c>
+      <c r="K50" s="8"/>
       <c r="L50" s="6"/>
-      <c r="M50" s="10">
-        <f>SUM(E131:E135)</f>
-        <v>0</v>
-      </c>
-      <c r="N50" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="85">
-        <v>6</v>
-      </c>
-      <c r="B51" s="28">
-        <v>41617</v>
-      </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="42"/>
-      <c r="K51" s="8" t="s">
-        <v>47</v>
-      </c>
+      <c r="M50" s="10"/>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="78"/>
+      <c r="B51" s="76"/>
+      <c r="C51" s="69">
+        <v>0.875</v>
+      </c>
+      <c r="D51" s="69">
+        <v>0.5</v>
+      </c>
+      <c r="E51" s="5">
+        <v>3</v>
+      </c>
+      <c r="F51" s="79"/>
+      <c r="G51" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="H51" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="I51" s="41"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="8"/>
       <c r="L51" s="6"/>
-      <c r="M51" s="10">
-        <f>SUM(E136:E140)</f>
-        <v>0</v>
-      </c>
-      <c r="N51" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="119"/>
-      <c r="B52" s="28">
-        <v>41618</v>
-      </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="42"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A52" s="78"/>
+      <c r="B52" s="74">
+        <v>41612</v>
+      </c>
+      <c r="C52" s="69">
+        <v>0.5625</v>
+      </c>
+      <c r="D52" s="69">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="E52" s="5">
+        <v>2.6</v>
+      </c>
+      <c r="F52" s="77">
+        <f>SUM(E52:E53)</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G52" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="H52" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="I52" s="41"/>
+      <c r="J52" s="41"/>
       <c r="K52" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L52" s="6"/>
       <c r="M52" s="10">
-        <f>SUM(E141:E145)</f>
+        <f>SUM(E126:E130)</f>
         <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="119"/>
-      <c r="B53" s="28">
-        <v>41619</v>
-      </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6">
+    <row r="53" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="78"/>
+      <c r="B53" s="76"/>
+      <c r="C53" s="69">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D53" s="69">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E53" s="5">
+        <v>2</v>
+      </c>
+      <c r="F53" s="79"/>
+      <c r="G53" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="H53" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="I53" s="41"/>
+      <c r="J53" s="41"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="78"/>
+      <c r="B54" s="27">
+        <v>41613</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G53" s="42"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="42"/>
-      <c r="K53" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="L53" s="6"/>
-      <c r="M53" s="10">
-        <f>SUM(E146:E150)</f>
-        <v>0</v>
-      </c>
-      <c r="N53" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="119"/>
-      <c r="B54" s="28">
-        <v>41620</v>
-      </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="42"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="41"/>
       <c r="K54" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L54" s="6"/>
       <c r="M54" s="10">
-        <f>SUM(E151:E155)</f>
+        <f>SUM(E131:E135)</f>
         <v>0</v>
       </c>
       <c r="N54" s="3" t="s">
@@ -3130,27 +3170,27 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="86"/>
-      <c r="B55" s="28">
-        <v>41621</v>
-      </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6">
+      <c r="A55" s="79"/>
+      <c r="B55" s="27">
+        <v>41614</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="42"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="41"/>
       <c r="K55" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L55" s="6"/>
       <c r="M55" s="10">
-        <f>SUM(E156:E160)</f>
+        <f>SUM(E136:E140)</f>
         <v>0</v>
       </c>
       <c r="N55" s="3" t="s">
@@ -3158,29 +3198,29 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="89">
-        <v>7</v>
-      </c>
-      <c r="B56" s="27">
-        <v>41624</v>
-      </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5">
+      <c r="A56" s="72">
+        <v>6</v>
+      </c>
+      <c r="B56" s="28">
+        <v>41617</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G56" s="41"/>
-      <c r="H56" s="41"/>
-      <c r="I56" s="41"/>
-      <c r="J56" s="41"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42"/>
       <c r="K56" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="L56" s="6"/>
       <c r="M56" s="10">
-        <f>SUM(E161:E165)</f>
+        <f>SUM(E141:E145)</f>
         <v>0</v>
       </c>
       <c r="N56" s="3" t="s">
@@ -3188,27 +3228,27 @@
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="90"/>
-      <c r="B57" s="27">
-        <v>41625</v>
-      </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5">
+      <c r="A57" s="80"/>
+      <c r="B57" s="28">
+        <v>41618</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G57" s="41"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="41"/>
-      <c r="J57" s="41"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
       <c r="K57" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="L57" s="6"/>
       <c r="M57" s="10">
-        <f>SUM(E166:E170)</f>
+        <f>SUM(E146:E150)</f>
         <v>0</v>
       </c>
       <c r="N57" s="3" t="s">
@@ -3216,27 +3256,27 @@
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="90"/>
-      <c r="B58" s="27">
-        <v>41626</v>
-      </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5">
+      <c r="A58" s="80"/>
+      <c r="B58" s="28">
+        <v>41619</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G58" s="41"/>
-      <c r="H58" s="41"/>
-      <c r="I58" s="41"/>
-      <c r="J58" s="41"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
       <c r="K58" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="10">
-        <f>SUM(E171:E175)</f>
+        <f>SUM(E151:E155)</f>
         <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
@@ -3244,2112 +3284,2204 @@
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="90"/>
-      <c r="B59" s="27">
+      <c r="A59" s="80"/>
+      <c r="B59" s="28">
+        <v>41620</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L59" s="6"/>
+      <c r="M59" s="10">
+        <f>SUM(E156:E160)</f>
+        <v>0</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="73"/>
+      <c r="B60" s="28">
+        <v>41621</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L60" s="6"/>
+      <c r="M60" s="10">
+        <f>SUM(E161:E165)</f>
+        <v>0</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="77">
+        <v>7</v>
+      </c>
+      <c r="B61" s="27">
+        <v>41624</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G61" s="41"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="41"/>
+      <c r="J61" s="41"/>
+      <c r="K61" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L61" s="6"/>
+      <c r="M61" s="10">
+        <f>SUM(E166:E170)</f>
+        <v>0</v>
+      </c>
+      <c r="N61" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="78"/>
+      <c r="B62" s="27">
+        <v>41625</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G62" s="41"/>
+      <c r="H62" s="41"/>
+      <c r="I62" s="41"/>
+      <c r="J62" s="41"/>
+      <c r="K62" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L62" s="6"/>
+      <c r="M62" s="10">
+        <f>SUM(E171:E175)</f>
+        <v>0</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="78"/>
+      <c r="B63" s="27">
+        <v>41626</v>
+      </c>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="41"/>
+      <c r="H63" s="41"/>
+      <c r="I63" s="41"/>
+      <c r="J63" s="41"/>
+      <c r="K63" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L63" s="6"/>
+      <c r="M63" s="10">
+        <f>SUM(E176:E180)</f>
+        <v>0</v>
+      </c>
+      <c r="N63" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="78"/>
+      <c r="B64" s="27">
         <v>41627</v>
       </c>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5">
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G59" s="41"/>
-      <c r="H59" s="41"/>
-      <c r="I59" s="41"/>
-      <c r="J59" s="41"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="91"/>
-      <c r="B60" s="27">
+      <c r="G64" s="41"/>
+      <c r="H64" s="41"/>
+      <c r="I64" s="41"/>
+      <c r="J64" s="41"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="79"/>
+      <c r="B65" s="27">
         <v>41628</v>
       </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5">
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G60" s="41"/>
-      <c r="H60" s="41"/>
-      <c r="I60" s="41"/>
-      <c r="J60" s="41"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="85">
+      <c r="G65" s="41"/>
+      <c r="H65" s="41"/>
+      <c r="I65" s="41"/>
+      <c r="J65" s="41"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="72">
         <v>8</v>
       </c>
-      <c r="B61" s="28">
+      <c r="B66" s="28">
         <v>41631</v>
       </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6">
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
-      <c r="I61" s="42"/>
-      <c r="J61" s="42"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="119"/>
-      <c r="B62" s="28">
+      <c r="G66" s="42"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="42"/>
+      <c r="J66" s="42"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="80"/>
+      <c r="B67" s="28">
         <v>41632</v>
       </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6">
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G62" s="42"/>
-      <c r="H62" s="42"/>
-      <c r="I62" s="42"/>
-      <c r="J62" s="42"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="119"/>
-      <c r="B63" s="28">
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="42"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="80"/>
+      <c r="B68" s="28">
         <v>41633</v>
       </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6">
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G63" s="42"/>
-      <c r="H63" s="42"/>
-      <c r="I63" s="42"/>
-      <c r="J63" s="42"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="119"/>
-      <c r="B64" s="28">
+      <c r="G68" s="42"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="42"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="80"/>
+      <c r="B69" s="28">
         <v>41634</v>
       </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6">
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G64" s="42"/>
-      <c r="H64" s="42"/>
-      <c r="I64" s="42"/>
-      <c r="J64" s="42"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="86"/>
-      <c r="B65" s="28">
+      <c r="G69" s="42"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="42"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="73"/>
+      <c r="B70" s="28">
         <v>41635</v>
       </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6">
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G65" s="42"/>
-      <c r="H65" s="42"/>
-      <c r="I65" s="42"/>
-      <c r="J65" s="42"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="89">
+      <c r="G70" s="42"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="42"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="77">
         <v>9</v>
       </c>
-      <c r="B66" s="27">
+      <c r="B71" s="27">
         <v>41638</v>
       </c>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5">
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G66" s="41"/>
-      <c r="H66" s="41"/>
-      <c r="I66" s="41"/>
-      <c r="J66" s="41"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="90"/>
-      <c r="B67" s="27">
+      <c r="G71" s="41"/>
+      <c r="H71" s="41"/>
+      <c r="I71" s="41"/>
+      <c r="J71" s="41"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="78"/>
+      <c r="B72" s="27">
         <v>41639</v>
       </c>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5">
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G67" s="41"/>
-      <c r="H67" s="41"/>
-      <c r="I67" s="41"/>
-      <c r="J67" s="41"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="90"/>
-      <c r="B68" s="27">
+      <c r="G72" s="41"/>
+      <c r="H72" s="41"/>
+      <c r="I72" s="41"/>
+      <c r="J72" s="41"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="78"/>
+      <c r="B73" s="27">
         <v>41640</v>
       </c>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5">
-        <f t="shared" ref="F68:F99" si="1">E68</f>
-        <v>0</v>
-      </c>
-      <c r="G68" s="41"/>
-      <c r="H68" s="41"/>
-      <c r="I68" s="41"/>
-      <c r="J68" s="41"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="90"/>
-      <c r="B69" s="27">
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5">
+        <f t="shared" ref="F73:F104" si="1">E73</f>
+        <v>0</v>
+      </c>
+      <c r="G73" s="41"/>
+      <c r="H73" s="41"/>
+      <c r="I73" s="41"/>
+      <c r="J73" s="41"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="78"/>
+      <c r="B74" s="27">
         <v>41641</v>
       </c>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5">
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G69" s="41"/>
-      <c r="H69" s="41"/>
-      <c r="I69" s="41"/>
-      <c r="J69" s="41"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="91"/>
-      <c r="B70" s="27">
+      <c r="G74" s="41"/>
+      <c r="H74" s="41"/>
+      <c r="I74" s="41"/>
+      <c r="J74" s="41"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="79"/>
+      <c r="B75" s="27">
         <v>41642</v>
       </c>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5">
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G70" s="41"/>
-      <c r="H70" s="41"/>
-      <c r="I70" s="41"/>
-      <c r="J70" s="41"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="85">
+      <c r="G75" s="41"/>
+      <c r="H75" s="41"/>
+      <c r="I75" s="41"/>
+      <c r="J75" s="41"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="72">
         <v>10</v>
       </c>
-      <c r="B71" s="28">
+      <c r="B76" s="28">
         <v>41645</v>
       </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6">
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G71" s="42"/>
-      <c r="H71" s="42"/>
-      <c r="I71" s="42"/>
-      <c r="J71" s="42"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="119"/>
-      <c r="B72" s="28">
+      <c r="G76" s="42"/>
+      <c r="H76" s="42"/>
+      <c r="I76" s="42"/>
+      <c r="J76" s="42"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="80"/>
+      <c r="B77" s="28">
         <v>41646</v>
       </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6">
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G72" s="42"/>
-      <c r="H72" s="42"/>
-      <c r="I72" s="42"/>
-      <c r="J72" s="42"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="119"/>
-      <c r="B73" s="28">
+      <c r="G77" s="42"/>
+      <c r="H77" s="42"/>
+      <c r="I77" s="42"/>
+      <c r="J77" s="42"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="80"/>
+      <c r="B78" s="28">
         <v>41647</v>
       </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6">
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G73" s="42"/>
-      <c r="H73" s="42"/>
-      <c r="I73" s="42"/>
-      <c r="J73" s="42"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="119"/>
-      <c r="B74" s="28">
+      <c r="G78" s="42"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="42"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="80"/>
+      <c r="B79" s="28">
         <v>41648</v>
       </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6">
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G74" s="42"/>
-      <c r="H74" s="42"/>
-      <c r="I74" s="42"/>
-      <c r="J74" s="42"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="86"/>
-      <c r="B75" s="28">
+      <c r="G79" s="42"/>
+      <c r="H79" s="42"/>
+      <c r="I79" s="42"/>
+      <c r="J79" s="42"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="73"/>
+      <c r="B80" s="28">
         <v>41649</v>
       </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6">
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G75" s="42"/>
-      <c r="H75" s="42"/>
-      <c r="I75" s="42"/>
-      <c r="J75" s="42"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="89">
+      <c r="G80" s="42"/>
+      <c r="H80" s="42"/>
+      <c r="I80" s="42"/>
+      <c r="J80" s="42"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="77">
         <v>11</v>
       </c>
-      <c r="B76" s="27">
+      <c r="B81" s="27">
         <v>41652</v>
       </c>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5">
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G76" s="41"/>
-      <c r="H76" s="41"/>
-      <c r="I76" s="41"/>
-      <c r="J76" s="41"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="90"/>
-      <c r="B77" s="27">
+      <c r="G81" s="41"/>
+      <c r="H81" s="41"/>
+      <c r="I81" s="41"/>
+      <c r="J81" s="41"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="78"/>
+      <c r="B82" s="27">
         <v>41653</v>
       </c>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5">
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G77" s="41"/>
-      <c r="H77" s="41"/>
-      <c r="I77" s="41"/>
-      <c r="J77" s="41"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="90"/>
-      <c r="B78" s="27">
+      <c r="G82" s="41"/>
+      <c r="H82" s="41"/>
+      <c r="I82" s="41"/>
+      <c r="J82" s="41"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="78"/>
+      <c r="B83" s="27">
         <v>41654</v>
       </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5">
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G78" s="41"/>
-      <c r="H78" s="41"/>
-      <c r="I78" s="41"/>
-      <c r="J78" s="41"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="90"/>
-      <c r="B79" s="27">
+      <c r="G83" s="41"/>
+      <c r="H83" s="41"/>
+      <c r="I83" s="41"/>
+      <c r="J83" s="41"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="78"/>
+      <c r="B84" s="27">
         <v>41655</v>
       </c>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5">
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G79" s="41"/>
-      <c r="H79" s="41"/>
-      <c r="I79" s="41"/>
-      <c r="J79" s="41"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="91"/>
-      <c r="B80" s="27">
+      <c r="G84" s="41"/>
+      <c r="H84" s="41"/>
+      <c r="I84" s="41"/>
+      <c r="J84" s="41"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="79"/>
+      <c r="B85" s="27">
         <v>41656</v>
       </c>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5">
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G80" s="41"/>
-      <c r="H80" s="41"/>
-      <c r="I80" s="41"/>
-      <c r="J80" s="41"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="85">
+      <c r="G85" s="41"/>
+      <c r="H85" s="41"/>
+      <c r="I85" s="41"/>
+      <c r="J85" s="41"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="72">
         <v>12</v>
       </c>
-      <c r="B81" s="28">
+      <c r="B86" s="28">
         <v>41659</v>
       </c>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6">
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G81" s="42"/>
-      <c r="H81" s="42"/>
-      <c r="I81" s="42"/>
-      <c r="J81" s="42"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="119"/>
-      <c r="B82" s="28">
+      <c r="G86" s="42"/>
+      <c r="H86" s="42"/>
+      <c r="I86" s="42"/>
+      <c r="J86" s="42"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="80"/>
+      <c r="B87" s="28">
         <v>41660</v>
       </c>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6">
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G82" s="42"/>
-      <c r="H82" s="42"/>
-      <c r="I82" s="42"/>
-      <c r="J82" s="42"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="119"/>
-      <c r="B83" s="28">
+      <c r="G87" s="42"/>
+      <c r="H87" s="42"/>
+      <c r="I87" s="42"/>
+      <c r="J87" s="42"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="80"/>
+      <c r="B88" s="28">
         <v>41661</v>
       </c>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6">
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G83" s="42"/>
-      <c r="H83" s="42"/>
-      <c r="I83" s="42"/>
-      <c r="J83" s="42"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="119"/>
-      <c r="B84" s="28">
+      <c r="G88" s="42"/>
+      <c r="H88" s="42"/>
+      <c r="I88" s="42"/>
+      <c r="J88" s="42"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="80"/>
+      <c r="B89" s="28">
         <v>41662</v>
       </c>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6">
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G84" s="42"/>
-      <c r="H84" s="42"/>
-      <c r="I84" s="42"/>
-      <c r="J84" s="42"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="86"/>
-      <c r="B85" s="28">
+      <c r="G89" s="42"/>
+      <c r="H89" s="42"/>
+      <c r="I89" s="42"/>
+      <c r="J89" s="42"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="73"/>
+      <c r="B90" s="28">
         <v>41663</v>
       </c>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6">
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G85" s="42"/>
-      <c r="H85" s="42"/>
-      <c r="I85" s="42"/>
-      <c r="J85" s="42"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="89">
+      <c r="G90" s="42"/>
+      <c r="H90" s="42"/>
+      <c r="I90" s="42"/>
+      <c r="J90" s="42"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="77">
         <v>13</v>
       </c>
-      <c r="B86" s="27">
+      <c r="B91" s="27">
         <v>41666</v>
       </c>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5">
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G86" s="41" t="s">
+      <c r="G91" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H86" s="41"/>
-      <c r="I86" s="41"/>
-      <c r="J86" s="41"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="90"/>
-      <c r="B87" s="27">
+      <c r="H91" s="41"/>
+      <c r="I91" s="41"/>
+      <c r="J91" s="41"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="78"/>
+      <c r="B92" s="27">
         <v>41667</v>
       </c>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5">
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G87" s="41" t="s">
+      <c r="G92" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H87" s="41"/>
-      <c r="I87" s="41"/>
-      <c r="J87" s="41"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="90"/>
-      <c r="B88" s="27">
+      <c r="H92" s="41"/>
+      <c r="I92" s="41"/>
+      <c r="J92" s="41"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="78"/>
+      <c r="B93" s="27">
         <v>41668</v>
       </c>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5">
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G88" s="41" t="s">
+      <c r="G93" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H88" s="41"/>
-      <c r="I88" s="41"/>
-      <c r="J88" s="41"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="90"/>
-      <c r="B89" s="27">
+      <c r="H93" s="41"/>
+      <c r="I93" s="41"/>
+      <c r="J93" s="41"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="78"/>
+      <c r="B94" s="27">
         <v>41669</v>
       </c>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5">
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G89" s="41" t="s">
+      <c r="G94" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H89" s="41"/>
-      <c r="I89" s="41"/>
-      <c r="J89" s="41"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="91"/>
-      <c r="B90" s="27">
+      <c r="H94" s="41"/>
+      <c r="I94" s="41"/>
+      <c r="J94" s="41"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="79"/>
+      <c r="B95" s="27">
         <v>41670</v>
       </c>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5">
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G90" s="41" t="s">
+      <c r="G95" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H90" s="41"/>
-      <c r="I90" s="41"/>
-      <c r="J90" s="41"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="85">
+      <c r="H95" s="41"/>
+      <c r="I95" s="41"/>
+      <c r="J95" s="41"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="72">
         <v>14</v>
       </c>
-      <c r="B91" s="28">
+      <c r="B96" s="28">
         <v>41673</v>
       </c>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6">
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G91" s="43" t="s">
+      <c r="G96" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="H91" s="42"/>
-      <c r="I91" s="42"/>
-      <c r="J91" s="42"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="119"/>
-      <c r="B92" s="28">
+      <c r="H96" s="42"/>
+      <c r="I96" s="42"/>
+      <c r="J96" s="42"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="80"/>
+      <c r="B97" s="28">
         <v>41674</v>
       </c>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6">
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G92" s="43" t="s">
+      <c r="G97" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="H92" s="42"/>
-      <c r="I92" s="42"/>
-      <c r="J92" s="42"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="119"/>
-      <c r="B93" s="28">
+      <c r="H97" s="42"/>
+      <c r="I97" s="42"/>
+      <c r="J97" s="42"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="80"/>
+      <c r="B98" s="28">
         <v>41675</v>
       </c>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6">
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G93" s="43" t="s">
+      <c r="G98" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="H93" s="42"/>
-      <c r="I93" s="42"/>
-      <c r="J93" s="42"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="119"/>
-      <c r="B94" s="28">
+      <c r="H98" s="42"/>
+      <c r="I98" s="42"/>
+      <c r="J98" s="42"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="80"/>
+      <c r="B99" s="28">
         <v>41676</v>
       </c>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6">
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G94" s="43" t="s">
+      <c r="G99" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="H94" s="42"/>
-      <c r="I94" s="42"/>
-      <c r="J94" s="42"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="86"/>
-      <c r="B95" s="28">
+      <c r="H99" s="42"/>
+      <c r="I99" s="42"/>
+      <c r="J99" s="42"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="73"/>
+      <c r="B100" s="28">
         <v>41677</v>
       </c>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6">
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G95" s="43" t="s">
+      <c r="G100" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="H95" s="42"/>
-      <c r="I95" s="42"/>
-      <c r="J95" s="42"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="89">
+      <c r="H100" s="42"/>
+      <c r="I100" s="42"/>
+      <c r="J100" s="42"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="77">
         <v>15</v>
       </c>
-      <c r="B96" s="27">
+      <c r="B101" s="27">
         <v>41680</v>
       </c>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5">
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G96" s="41"/>
-      <c r="H96" s="41"/>
-      <c r="I96" s="41"/>
-      <c r="J96" s="41"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="90"/>
-      <c r="B97" s="27">
+      <c r="G101" s="41"/>
+      <c r="H101" s="41"/>
+      <c r="I101" s="41"/>
+      <c r="J101" s="41"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="78"/>
+      <c r="B102" s="27">
         <v>41681</v>
       </c>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5">
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G97" s="41"/>
-      <c r="H97" s="41"/>
-      <c r="I97" s="41"/>
-      <c r="J97" s="41"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="90"/>
-      <c r="B98" s="27">
+      <c r="G102" s="41"/>
+      <c r="H102" s="41"/>
+      <c r="I102" s="41"/>
+      <c r="J102" s="41"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="78"/>
+      <c r="B103" s="27">
         <v>41682</v>
       </c>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5">
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G98" s="41"/>
-      <c r="H98" s="41"/>
-      <c r="I98" s="41"/>
-      <c r="J98" s="41"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="90"/>
-      <c r="B99" s="27">
+      <c r="G103" s="41"/>
+      <c r="H103" s="41"/>
+      <c r="I103" s="41"/>
+      <c r="J103" s="41"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="78"/>
+      <c r="B104" s="27">
         <v>41683</v>
       </c>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5">
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G99" s="41"/>
-      <c r="H99" s="41"/>
-      <c r="I99" s="41"/>
-      <c r="J99" s="41"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="91"/>
-      <c r="B100" s="27">
+      <c r="G104" s="41"/>
+      <c r="H104" s="41"/>
+      <c r="I104" s="41"/>
+      <c r="J104" s="41"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="79"/>
+      <c r="B105" s="27">
         <v>41684</v>
       </c>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5">
-        <f t="shared" ref="F100:F131" si="2">E100</f>
-        <v>0</v>
-      </c>
-      <c r="G100" s="41"/>
-      <c r="H100" s="41"/>
-      <c r="I100" s="41"/>
-      <c r="J100" s="41"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="85">
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5">
+        <f t="shared" ref="F105:F136" si="2">E105</f>
+        <v>0</v>
+      </c>
+      <c r="G105" s="41"/>
+      <c r="H105" s="41"/>
+      <c r="I105" s="41"/>
+      <c r="J105" s="41"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="72">
         <v>16</v>
       </c>
-      <c r="B101" s="28">
+      <c r="B106" s="28">
         <v>41687</v>
       </c>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6">
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G101" s="42"/>
-      <c r="H101" s="42"/>
-      <c r="I101" s="42"/>
-      <c r="J101" s="42"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="119"/>
-      <c r="B102" s="28">
+      <c r="G106" s="42"/>
+      <c r="H106" s="42"/>
+      <c r="I106" s="42"/>
+      <c r="J106" s="42"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="80"/>
+      <c r="B107" s="28">
         <v>41688</v>
       </c>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6">
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G102" s="42"/>
-      <c r="H102" s="42"/>
-      <c r="I102" s="42"/>
-      <c r="J102" s="42"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="119"/>
-      <c r="B103" s="28">
+      <c r="G107" s="42"/>
+      <c r="H107" s="42"/>
+      <c r="I107" s="42"/>
+      <c r="J107" s="42"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="80"/>
+      <c r="B108" s="28">
         <v>41689</v>
       </c>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6">
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G103" s="42"/>
-      <c r="H103" s="42"/>
-      <c r="I103" s="42"/>
-      <c r="J103" s="42"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="119"/>
-      <c r="B104" s="28">
+      <c r="G108" s="42"/>
+      <c r="H108" s="42"/>
+      <c r="I108" s="42"/>
+      <c r="J108" s="42"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="80"/>
+      <c r="B109" s="28">
         <v>41690</v>
       </c>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6">
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G104" s="42"/>
-      <c r="H104" s="42"/>
-      <c r="I104" s="42"/>
-      <c r="J104" s="42"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="86"/>
-      <c r="B105" s="28">
+      <c r="G109" s="42"/>
+      <c r="H109" s="42"/>
+      <c r="I109" s="42"/>
+      <c r="J109" s="42"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="73"/>
+      <c r="B110" s="28">
         <v>41691</v>
       </c>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6">
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G105" s="42"/>
-      <c r="H105" s="42"/>
-      <c r="I105" s="42"/>
-      <c r="J105" s="42"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="89">
+      <c r="G110" s="42"/>
+      <c r="H110" s="42"/>
+      <c r="I110" s="42"/>
+      <c r="J110" s="42"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="77">
         <v>17</v>
       </c>
-      <c r="B106" s="27">
+      <c r="B111" s="27">
         <v>41694</v>
       </c>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5">
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G106" s="41"/>
-      <c r="H106" s="41"/>
-      <c r="I106" s="41"/>
-      <c r="J106" s="41"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="90"/>
-      <c r="B107" s="27">
+      <c r="G111" s="41"/>
+      <c r="H111" s="41"/>
+      <c r="I111" s="41"/>
+      <c r="J111" s="41"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="78"/>
+      <c r="B112" s="27">
         <v>41695</v>
       </c>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5">
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G107" s="41"/>
-      <c r="H107" s="41"/>
-      <c r="I107" s="41"/>
-      <c r="J107" s="41"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="90"/>
-      <c r="B108" s="27">
+      <c r="G112" s="41"/>
+      <c r="H112" s="41"/>
+      <c r="I112" s="41"/>
+      <c r="J112" s="41"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="78"/>
+      <c r="B113" s="27">
         <v>41696</v>
       </c>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5">
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G108" s="41"/>
-      <c r="H108" s="41"/>
-      <c r="I108" s="41"/>
-      <c r="J108" s="41"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="90"/>
-      <c r="B109" s="27">
+      <c r="G113" s="41"/>
+      <c r="H113" s="41"/>
+      <c r="I113" s="41"/>
+      <c r="J113" s="41"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="78"/>
+      <c r="B114" s="27">
         <v>41697</v>
       </c>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5">
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G109" s="41"/>
-      <c r="H109" s="41"/>
-      <c r="I109" s="41"/>
-      <c r="J109" s="41"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="91"/>
-      <c r="B110" s="27">
+      <c r="G114" s="41"/>
+      <c r="H114" s="41"/>
+      <c r="I114" s="41"/>
+      <c r="J114" s="41"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="79"/>
+      <c r="B115" s="27">
         <v>41698</v>
       </c>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5">
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G110" s="41"/>
-      <c r="H110" s="41"/>
-      <c r="I110" s="41"/>
-      <c r="J110" s="41"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="85">
+      <c r="G115" s="41"/>
+      <c r="H115" s="41"/>
+      <c r="I115" s="41"/>
+      <c r="J115" s="41"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="72">
         <v>18</v>
       </c>
-      <c r="B111" s="28">
+      <c r="B116" s="28">
         <v>41701</v>
       </c>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6">
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G111" s="42"/>
-      <c r="H111" s="42"/>
-      <c r="I111" s="42"/>
-      <c r="J111" s="42"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="119"/>
-      <c r="B112" s="28">
+      <c r="G116" s="42"/>
+      <c r="H116" s="42"/>
+      <c r="I116" s="42"/>
+      <c r="J116" s="42"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="80"/>
+      <c r="B117" s="28">
         <v>41702</v>
       </c>
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6">
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G112" s="42"/>
-      <c r="H112" s="42"/>
-      <c r="I112" s="42"/>
-      <c r="J112" s="42"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="119"/>
-      <c r="B113" s="28">
+      <c r="G117" s="42"/>
+      <c r="H117" s="42"/>
+      <c r="I117" s="42"/>
+      <c r="J117" s="42"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="80"/>
+      <c r="B118" s="28">
         <v>41703</v>
       </c>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6">
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G113" s="42"/>
-      <c r="H113" s="42"/>
-      <c r="I113" s="42"/>
-      <c r="J113" s="42"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="119"/>
-      <c r="B114" s="28">
+      <c r="G118" s="42"/>
+      <c r="H118" s="42"/>
+      <c r="I118" s="42"/>
+      <c r="J118" s="42"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="80"/>
+      <c r="B119" s="28">
         <v>41704</v>
       </c>
-      <c r="C114" s="6"/>
-      <c r="D114" s="6"/>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6">
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G114" s="42"/>
-      <c r="H114" s="42"/>
-      <c r="I114" s="42"/>
-      <c r="J114" s="42"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="86"/>
-      <c r="B115" s="28">
+      <c r="G119" s="42"/>
+      <c r="H119" s="42"/>
+      <c r="I119" s="42"/>
+      <c r="J119" s="42"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="73"/>
+      <c r="B120" s="28">
         <v>41705</v>
       </c>
-      <c r="C115" s="6"/>
-      <c r="D115" s="6"/>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6">
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G115" s="42"/>
-      <c r="H115" s="42"/>
-      <c r="I115" s="42"/>
-      <c r="J115" s="42"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="89">
+      <c r="G120" s="42"/>
+      <c r="H120" s="42"/>
+      <c r="I120" s="42"/>
+      <c r="J120" s="42"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="77">
         <v>19</v>
       </c>
-      <c r="B116" s="27">
+      <c r="B121" s="27">
         <v>41708</v>
       </c>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5">
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G116" s="41"/>
-      <c r="H116" s="41"/>
-      <c r="I116" s="41"/>
-      <c r="J116" s="41"/>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="90"/>
-      <c r="B117" s="27">
+      <c r="G121" s="41"/>
+      <c r="H121" s="41"/>
+      <c r="I121" s="41"/>
+      <c r="J121" s="41"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="78"/>
+      <c r="B122" s="27">
         <v>41709</v>
       </c>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5">
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G117" s="41"/>
-      <c r="H117" s="41"/>
-      <c r="I117" s="41"/>
-      <c r="J117" s="41"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="90"/>
-      <c r="B118" s="27">
+      <c r="G122" s="41"/>
+      <c r="H122" s="41"/>
+      <c r="I122" s="41"/>
+      <c r="J122" s="41"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="78"/>
+      <c r="B123" s="27">
         <v>41710</v>
       </c>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5">
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G118" s="41"/>
-      <c r="H118" s="41"/>
-      <c r="I118" s="41"/>
-      <c r="J118" s="41"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="90"/>
-      <c r="B119" s="27">
+      <c r="G123" s="41"/>
+      <c r="H123" s="41"/>
+      <c r="I123" s="41"/>
+      <c r="J123" s="41"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="78"/>
+      <c r="B124" s="27">
         <v>41711</v>
       </c>
-      <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5">
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G119" s="41"/>
-      <c r="H119" s="41"/>
-      <c r="I119" s="41"/>
-      <c r="J119" s="41"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="91"/>
-      <c r="B120" s="27">
+      <c r="G124" s="41"/>
+      <c r="H124" s="41"/>
+      <c r="I124" s="41"/>
+      <c r="J124" s="41"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="79"/>
+      <c r="B125" s="27">
         <v>41712</v>
       </c>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5">
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G120" s="41"/>
-      <c r="H120" s="41"/>
-      <c r="I120" s="41"/>
-      <c r="J120" s="41"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="85">
+      <c r="G125" s="41"/>
+      <c r="H125" s="41"/>
+      <c r="I125" s="41"/>
+      <c r="J125" s="41"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="72">
         <v>20</v>
       </c>
-      <c r="B121" s="28">
+      <c r="B126" s="28">
         <v>41715</v>
       </c>
-      <c r="C121" s="6"/>
-      <c r="D121" s="6"/>
-      <c r="E121" s="6"/>
-      <c r="F121" s="6">
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G121" s="42"/>
-      <c r="H121" s="42"/>
-      <c r="I121" s="42"/>
-      <c r="J121" s="42"/>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="119"/>
-      <c r="B122" s="28">
+      <c r="G126" s="42"/>
+      <c r="H126" s="42"/>
+      <c r="I126" s="42"/>
+      <c r="J126" s="42"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="80"/>
+      <c r="B127" s="28">
         <v>41716</v>
       </c>
-      <c r="C122" s="6"/>
-      <c r="D122" s="6"/>
-      <c r="E122" s="6"/>
-      <c r="F122" s="6">
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G122" s="42"/>
-      <c r="H122" s="42"/>
-      <c r="I122" s="42"/>
-      <c r="J122" s="42"/>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="119"/>
-      <c r="B123" s="28">
+      <c r="G127" s="42"/>
+      <c r="H127" s="42"/>
+      <c r="I127" s="42"/>
+      <c r="J127" s="42"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="80"/>
+      <c r="B128" s="28">
         <v>41717</v>
       </c>
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
-      <c r="F123" s="6">
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G123" s="42"/>
-      <c r="H123" s="42"/>
-      <c r="I123" s="42"/>
-      <c r="J123" s="42"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="119"/>
-      <c r="B124" s="28">
+      <c r="G128" s="42"/>
+      <c r="H128" s="42"/>
+      <c r="I128" s="42"/>
+      <c r="J128" s="42"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="80"/>
+      <c r="B129" s="28">
         <v>41718</v>
       </c>
-      <c r="C124" s="6"/>
-      <c r="D124" s="6"/>
-      <c r="E124" s="6"/>
-      <c r="F124" s="6">
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G124" s="42"/>
-      <c r="H124" s="42"/>
-      <c r="I124" s="42"/>
-      <c r="J124" s="42"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="86"/>
-      <c r="B125" s="28">
+      <c r="G129" s="42"/>
+      <c r="H129" s="42"/>
+      <c r="I129" s="42"/>
+      <c r="J129" s="42"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="73"/>
+      <c r="B130" s="28">
         <v>41719</v>
       </c>
-      <c r="C125" s="6"/>
-      <c r="D125" s="6"/>
-      <c r="E125" s="6"/>
-      <c r="F125" s="6">
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G125" s="42"/>
-      <c r="H125" s="42"/>
-      <c r="I125" s="42"/>
-      <c r="J125" s="42"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="89">
+      <c r="G130" s="42"/>
+      <c r="H130" s="42"/>
+      <c r="I130" s="42"/>
+      <c r="J130" s="42"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="77">
         <v>21</v>
       </c>
-      <c r="B126" s="27">
+      <c r="B131" s="27">
         <v>41722</v>
       </c>
-      <c r="C126" s="5"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5">
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G126" s="41"/>
-      <c r="H126" s="41"/>
-      <c r="I126" s="41"/>
-      <c r="J126" s="41"/>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="90"/>
-      <c r="B127" s="27">
+      <c r="G131" s="41"/>
+      <c r="H131" s="41"/>
+      <c r="I131" s="41"/>
+      <c r="J131" s="41"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="78"/>
+      <c r="B132" s="27">
         <v>41723</v>
       </c>
-      <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="5"/>
-      <c r="F127" s="5">
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G127" s="41"/>
-      <c r="H127" s="41"/>
-      <c r="I127" s="41"/>
-      <c r="J127" s="41"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="90"/>
-      <c r="B128" s="27">
+      <c r="G132" s="41"/>
+      <c r="H132" s="41"/>
+      <c r="I132" s="41"/>
+      <c r="J132" s="41"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="78"/>
+      <c r="B133" s="27">
         <v>41724</v>
       </c>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="5">
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G128" s="41"/>
-      <c r="H128" s="41"/>
-      <c r="I128" s="41"/>
-      <c r="J128" s="41"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="90"/>
-      <c r="B129" s="27">
+      <c r="G133" s="41"/>
+      <c r="H133" s="41"/>
+      <c r="I133" s="41"/>
+      <c r="J133" s="41"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="78"/>
+      <c r="B134" s="27">
         <v>41725</v>
       </c>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="5">
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G129" s="41"/>
-      <c r="H129" s="41"/>
-      <c r="I129" s="41"/>
-      <c r="J129" s="41"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="91"/>
-      <c r="B130" s="27">
+      <c r="G134" s="41"/>
+      <c r="H134" s="41"/>
+      <c r="I134" s="41"/>
+      <c r="J134" s="41"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="79"/>
+      <c r="B135" s="27">
         <v>41726</v>
       </c>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
-      <c r="F130" s="5">
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G130" s="41"/>
-      <c r="H130" s="41"/>
-      <c r="I130" s="41"/>
-      <c r="J130" s="41"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="85">
+      <c r="G135" s="41"/>
+      <c r="H135" s="41"/>
+      <c r="I135" s="41"/>
+      <c r="J135" s="41"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="72">
         <v>22</v>
       </c>
-      <c r="B131" s="28">
+      <c r="B136" s="28">
         <v>41729</v>
       </c>
-      <c r="C131" s="6"/>
-      <c r="D131" s="6"/>
-      <c r="E131" s="6"/>
-      <c r="F131" s="6">
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+      <c r="F136" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G131" s="42"/>
-      <c r="H131" s="42"/>
-      <c r="I131" s="42"/>
-      <c r="J131" s="42"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="119"/>
-      <c r="B132" s="28">
+      <c r="G136" s="42"/>
+      <c r="H136" s="42"/>
+      <c r="I136" s="42"/>
+      <c r="J136" s="42"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="80"/>
+      <c r="B137" s="28">
         <v>41730</v>
       </c>
-      <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
-      <c r="E132" s="6"/>
-      <c r="F132" s="6">
-        <f t="shared" ref="F132:F163" si="3">E132</f>
-        <v>0</v>
-      </c>
-      <c r="G132" s="42"/>
-      <c r="H132" s="42"/>
-      <c r="I132" s="42"/>
-      <c r="J132" s="42"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="119"/>
-      <c r="B133" s="28">
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6">
+        <f t="shared" ref="F137:F168" si="3">E137</f>
+        <v>0</v>
+      </c>
+      <c r="G137" s="42"/>
+      <c r="H137" s="42"/>
+      <c r="I137" s="42"/>
+      <c r="J137" s="42"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="80"/>
+      <c r="B138" s="28">
         <v>41731</v>
       </c>
-      <c r="C133" s="6"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="6"/>
-      <c r="F133" s="6">
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G133" s="42"/>
-      <c r="H133" s="42"/>
-      <c r="I133" s="42"/>
-      <c r="J133" s="42"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="119"/>
-      <c r="B134" s="28">
+      <c r="G138" s="42"/>
+      <c r="H138" s="42"/>
+      <c r="I138" s="42"/>
+      <c r="J138" s="42"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="80"/>
+      <c r="B139" s="28">
         <v>41732</v>
       </c>
-      <c r="C134" s="6"/>
-      <c r="D134" s="6"/>
-      <c r="E134" s="6"/>
-      <c r="F134" s="6">
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G134" s="42"/>
-      <c r="H134" s="42"/>
-      <c r="I134" s="42"/>
-      <c r="J134" s="42"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="86"/>
-      <c r="B135" s="28">
+      <c r="G139" s="42"/>
+      <c r="H139" s="42"/>
+      <c r="I139" s="42"/>
+      <c r="J139" s="42"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="73"/>
+      <c r="B140" s="28">
         <v>41733</v>
       </c>
-      <c r="C135" s="6"/>
-      <c r="D135" s="6"/>
-      <c r="E135" s="6"/>
-      <c r="F135" s="6">
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
+      <c r="F140" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G135" s="42"/>
-      <c r="H135" s="42"/>
-      <c r="I135" s="42"/>
-      <c r="J135" s="42"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="89">
+      <c r="G140" s="42"/>
+      <c r="H140" s="42"/>
+      <c r="I140" s="42"/>
+      <c r="J140" s="42"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="77">
         <v>23</v>
       </c>
-      <c r="B136" s="27">
+      <c r="B141" s="27">
         <v>41736</v>
       </c>
-      <c r="C136" s="5"/>
-      <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
-      <c r="F136" s="5">
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G136" s="41"/>
-      <c r="H136" s="41"/>
-      <c r="I136" s="41"/>
-      <c r="J136" s="41"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="90"/>
-      <c r="B137" s="27">
+      <c r="G141" s="41"/>
+      <c r="H141" s="41"/>
+      <c r="I141" s="41"/>
+      <c r="J141" s="41"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="78"/>
+      <c r="B142" s="27">
         <v>41737</v>
       </c>
-      <c r="C137" s="5"/>
-      <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5">
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G137" s="41"/>
-      <c r="H137" s="41"/>
-      <c r="I137" s="41"/>
-      <c r="J137" s="41"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="90"/>
-      <c r="B138" s="27">
+      <c r="G142" s="41"/>
+      <c r="H142" s="41"/>
+      <c r="I142" s="41"/>
+      <c r="J142" s="41"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="78"/>
+      <c r="B143" s="27">
         <v>41738</v>
       </c>
-      <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5">
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G138" s="41"/>
-      <c r="H138" s="41"/>
-      <c r="I138" s="41"/>
-      <c r="J138" s="41"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="90"/>
-      <c r="B139" s="27">
+      <c r="G143" s="41"/>
+      <c r="H143" s="41"/>
+      <c r="I143" s="41"/>
+      <c r="J143" s="41"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="78"/>
+      <c r="B144" s="27">
         <v>41739</v>
       </c>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
-      <c r="E139" s="5"/>
-      <c r="F139" s="5">
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G139" s="41"/>
-      <c r="H139" s="41"/>
-      <c r="I139" s="41"/>
-      <c r="J139" s="41"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="91"/>
-      <c r="B140" s="27">
+      <c r="G144" s="41"/>
+      <c r="H144" s="41"/>
+      <c r="I144" s="41"/>
+      <c r="J144" s="41"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" s="79"/>
+      <c r="B145" s="27">
         <v>41740</v>
       </c>
-      <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
-      <c r="E140" s="5"/>
-      <c r="F140" s="5">
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G140" s="41"/>
-      <c r="H140" s="41"/>
-      <c r="I140" s="41"/>
-      <c r="J140" s="41"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="85">
+      <c r="G145" s="41"/>
+      <c r="H145" s="41"/>
+      <c r="I145" s="41"/>
+      <c r="J145" s="41"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" s="72">
         <v>24</v>
       </c>
-      <c r="B141" s="28">
+      <c r="B146" s="28">
         <v>41743</v>
       </c>
-      <c r="C141" s="6"/>
-      <c r="D141" s="6"/>
-      <c r="E141" s="6"/>
-      <c r="F141" s="6">
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
+      <c r="F146" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G141" s="42"/>
-      <c r="H141" s="42"/>
-      <c r="I141" s="42"/>
-      <c r="J141" s="42"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="119"/>
-      <c r="B142" s="28">
+      <c r="G146" s="42"/>
+      <c r="H146" s="42"/>
+      <c r="I146" s="42"/>
+      <c r="J146" s="42"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="80"/>
+      <c r="B147" s="28">
         <v>41744</v>
       </c>
-      <c r="C142" s="6"/>
-      <c r="D142" s="6"/>
-      <c r="E142" s="6"/>
-      <c r="F142" s="6">
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+      <c r="F147" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G142" s="42"/>
-      <c r="H142" s="42"/>
-      <c r="I142" s="42"/>
-      <c r="J142" s="42"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="119"/>
-      <c r="B143" s="28">
+      <c r="G147" s="42"/>
+      <c r="H147" s="42"/>
+      <c r="I147" s="42"/>
+      <c r="J147" s="42"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="80"/>
+      <c r="B148" s="28">
         <v>41745</v>
       </c>
-      <c r="C143" s="6"/>
-      <c r="D143" s="6"/>
-      <c r="E143" s="6"/>
-      <c r="F143" s="6">
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+      <c r="F148" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G143" s="42"/>
-      <c r="H143" s="42"/>
-      <c r="I143" s="42"/>
-      <c r="J143" s="42"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="119"/>
-      <c r="B144" s="28">
+      <c r="G148" s="42"/>
+      <c r="H148" s="42"/>
+      <c r="I148" s="42"/>
+      <c r="J148" s="42"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="80"/>
+      <c r="B149" s="28">
         <v>41746</v>
       </c>
-      <c r="C144" s="6"/>
-      <c r="D144" s="6"/>
-      <c r="E144" s="6"/>
-      <c r="F144" s="6">
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+      <c r="F149" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G144" s="42"/>
-      <c r="H144" s="42"/>
-      <c r="I144" s="42"/>
-      <c r="J144" s="42"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="86"/>
-      <c r="B145" s="28">
+      <c r="G149" s="42"/>
+      <c r="H149" s="42"/>
+      <c r="I149" s="42"/>
+      <c r="J149" s="42"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="73"/>
+      <c r="B150" s="28">
         <v>41747</v>
       </c>
-      <c r="C145" s="6"/>
-      <c r="D145" s="6"/>
-      <c r="E145" s="6"/>
-      <c r="F145" s="6">
+      <c r="C150" s="6"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="6"/>
+      <c r="F150" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G145" s="42"/>
-      <c r="H145" s="42"/>
-      <c r="I145" s="42"/>
-      <c r="J145" s="42"/>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="89">
+      <c r="G150" s="42"/>
+      <c r="H150" s="42"/>
+      <c r="I150" s="42"/>
+      <c r="J150" s="42"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" s="77">
         <v>25</v>
       </c>
-      <c r="B146" s="27">
+      <c r="B151" s="27">
         <v>41750</v>
       </c>
-      <c r="C146" s="5"/>
-      <c r="D146" s="5"/>
-      <c r="E146" s="5"/>
-      <c r="F146" s="5">
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G146" s="41"/>
-      <c r="H146" s="41"/>
-      <c r="I146" s="41"/>
-      <c r="J146" s="41"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="90"/>
-      <c r="B147" s="27">
+      <c r="G151" s="41"/>
+      <c r="H151" s="41"/>
+      <c r="I151" s="41"/>
+      <c r="J151" s="41"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" s="78"/>
+      <c r="B152" s="27">
         <v>41751</v>
       </c>
-      <c r="C147" s="5"/>
-      <c r="D147" s="5"/>
-      <c r="E147" s="5"/>
-      <c r="F147" s="5">
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G147" s="41"/>
-      <c r="H147" s="41"/>
-      <c r="I147" s="41"/>
-      <c r="J147" s="41"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="90"/>
-      <c r="B148" s="27">
+      <c r="G152" s="41"/>
+      <c r="H152" s="41"/>
+      <c r="I152" s="41"/>
+      <c r="J152" s="41"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="78"/>
+      <c r="B153" s="27">
         <v>41752</v>
       </c>
-      <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
-      <c r="E148" s="5"/>
-      <c r="F148" s="5">
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G148" s="41"/>
-      <c r="H148" s="41"/>
-      <c r="I148" s="41"/>
-      <c r="J148" s="41"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="90"/>
-      <c r="B149" s="27">
+      <c r="G153" s="41"/>
+      <c r="H153" s="41"/>
+      <c r="I153" s="41"/>
+      <c r="J153" s="41"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="78"/>
+      <c r="B154" s="27">
         <v>41753</v>
       </c>
-      <c r="C149" s="5"/>
-      <c r="D149" s="5"/>
-      <c r="E149" s="5"/>
-      <c r="F149" s="5">
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G149" s="41"/>
-      <c r="H149" s="41"/>
-      <c r="I149" s="41"/>
-      <c r="J149" s="41"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="91"/>
-      <c r="B150" s="27">
+      <c r="G154" s="41"/>
+      <c r="H154" s="41"/>
+      <c r="I154" s="41"/>
+      <c r="J154" s="41"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" s="79"/>
+      <c r="B155" s="27">
         <v>41754</v>
       </c>
-      <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
-      <c r="E150" s="5"/>
-      <c r="F150" s="5">
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G150" s="41"/>
-      <c r="H150" s="41"/>
-      <c r="I150" s="41"/>
-      <c r="J150" s="41"/>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="85">
+      <c r="G155" s="41"/>
+      <c r="H155" s="41"/>
+      <c r="I155" s="41"/>
+      <c r="J155" s="41"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" s="72">
         <v>26</v>
       </c>
-      <c r="B151" s="28">
+      <c r="B156" s="28">
         <v>41757</v>
       </c>
-      <c r="C151" s="6"/>
-      <c r="D151" s="6"/>
-      <c r="E151" s="6"/>
-      <c r="F151" s="6">
+      <c r="C156" s="6"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="6"/>
+      <c r="F156" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G151" s="42"/>
-      <c r="H151" s="42"/>
-      <c r="I151" s="42"/>
-      <c r="J151" s="42"/>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="119"/>
-      <c r="B152" s="28">
+      <c r="G156" s="42"/>
+      <c r="H156" s="42"/>
+      <c r="I156" s="42"/>
+      <c r="J156" s="42"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" s="80"/>
+      <c r="B157" s="28">
         <v>41758</v>
       </c>
-      <c r="C152" s="6"/>
-      <c r="D152" s="6"/>
-      <c r="E152" s="6"/>
-      <c r="F152" s="6">
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
+      <c r="F157" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G152" s="42"/>
-      <c r="H152" s="42"/>
-      <c r="I152" s="42"/>
-      <c r="J152" s="42"/>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="119"/>
-      <c r="B153" s="28">
+      <c r="G157" s="42"/>
+      <c r="H157" s="42"/>
+      <c r="I157" s="42"/>
+      <c r="J157" s="42"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" s="80"/>
+      <c r="B158" s="28">
         <v>41759</v>
       </c>
-      <c r="C153" s="6"/>
-      <c r="D153" s="6"/>
-      <c r="E153" s="6"/>
-      <c r="F153" s="6">
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+      <c r="F158" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G153" s="42"/>
-      <c r="H153" s="42"/>
-      <c r="I153" s="42"/>
-      <c r="J153" s="42"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="119"/>
-      <c r="B154" s="28">
+      <c r="G158" s="42"/>
+      <c r="H158" s="42"/>
+      <c r="I158" s="42"/>
+      <c r="J158" s="42"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" s="80"/>
+      <c r="B159" s="28">
         <v>41760</v>
       </c>
-      <c r="C154" s="6"/>
-      <c r="D154" s="6"/>
-      <c r="E154" s="6"/>
-      <c r="F154" s="6">
+      <c r="C159" s="6"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6"/>
+      <c r="F159" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G154" s="42"/>
-      <c r="H154" s="42"/>
-      <c r="I154" s="42"/>
-      <c r="J154" s="42"/>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="86"/>
-      <c r="B155" s="28">
+      <c r="G159" s="42"/>
+      <c r="H159" s="42"/>
+      <c r="I159" s="42"/>
+      <c r="J159" s="42"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="73"/>
+      <c r="B160" s="28">
         <v>41761</v>
       </c>
-      <c r="C155" s="6"/>
-      <c r="D155" s="6"/>
-      <c r="E155" s="6"/>
-      <c r="F155" s="6">
+      <c r="C160" s="6"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="6"/>
+      <c r="F160" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G155" s="42"/>
-      <c r="H155" s="42"/>
-      <c r="I155" s="42"/>
-      <c r="J155" s="42"/>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="89">
+      <c r="G160" s="42"/>
+      <c r="H160" s="42"/>
+      <c r="I160" s="42"/>
+      <c r="J160" s="42"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="77">
         <v>27</v>
       </c>
-      <c r="B156" s="27">
+      <c r="B161" s="27">
         <v>41764</v>
       </c>
-      <c r="C156" s="5"/>
-      <c r="D156" s="5"/>
-      <c r="E156" s="5"/>
-      <c r="F156" s="5">
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G156" s="41"/>
-      <c r="H156" s="41"/>
-      <c r="I156" s="41"/>
-      <c r="J156" s="41"/>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="90"/>
-      <c r="B157" s="27">
+      <c r="G161" s="41"/>
+      <c r="H161" s="41"/>
+      <c r="I161" s="41"/>
+      <c r="J161" s="41"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="78"/>
+      <c r="B162" s="27">
         <v>41765</v>
       </c>
-      <c r="C157" s="5"/>
-      <c r="D157" s="5"/>
-      <c r="E157" s="5"/>
-      <c r="F157" s="5">
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G157" s="41"/>
-      <c r="H157" s="41"/>
-      <c r="I157" s="41"/>
-      <c r="J157" s="41"/>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="90"/>
-      <c r="B158" s="27">
+      <c r="G162" s="41"/>
+      <c r="H162" s="41"/>
+      <c r="I162" s="41"/>
+      <c r="J162" s="41"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="78"/>
+      <c r="B163" s="27">
         <v>41766</v>
       </c>
-      <c r="C158" s="5"/>
-      <c r="D158" s="5"/>
-      <c r="E158" s="5"/>
-      <c r="F158" s="5">
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G158" s="41"/>
-      <c r="H158" s="41"/>
-      <c r="I158" s="41"/>
-      <c r="J158" s="41"/>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="90"/>
-      <c r="B159" s="27">
+      <c r="G163" s="41"/>
+      <c r="H163" s="41"/>
+      <c r="I163" s="41"/>
+      <c r="J163" s="41"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="78"/>
+      <c r="B164" s="27">
         <v>41767</v>
       </c>
-      <c r="C159" s="5"/>
-      <c r="D159" s="5"/>
-      <c r="E159" s="5"/>
-      <c r="F159" s="5">
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G159" s="41"/>
-      <c r="H159" s="41"/>
-      <c r="I159" s="41"/>
-      <c r="J159" s="41"/>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="91"/>
-      <c r="B160" s="27">
+      <c r="G164" s="41"/>
+      <c r="H164" s="41"/>
+      <c r="I164" s="41"/>
+      <c r="J164" s="41"/>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" s="79"/>
+      <c r="B165" s="27">
         <v>41768</v>
       </c>
-      <c r="C160" s="5"/>
-      <c r="D160" s="5"/>
-      <c r="E160" s="5"/>
-      <c r="F160" s="5">
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G160" s="41"/>
-      <c r="H160" s="41"/>
-      <c r="I160" s="41"/>
-      <c r="J160" s="41"/>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="85">
+      <c r="G165" s="41"/>
+      <c r="H165" s="41"/>
+      <c r="I165" s="41"/>
+      <c r="J165" s="41"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="72">
         <v>28</v>
       </c>
-      <c r="B161" s="28">
+      <c r="B166" s="28">
         <v>41771</v>
       </c>
-      <c r="C161" s="6"/>
-      <c r="D161" s="6"/>
-      <c r="E161" s="6"/>
-      <c r="F161" s="6">
+      <c r="C166" s="6"/>
+      <c r="D166" s="6"/>
+      <c r="E166" s="6"/>
+      <c r="F166" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G161" s="42"/>
-      <c r="H161" s="42"/>
-      <c r="I161" s="42"/>
-      <c r="J161" s="42"/>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="119"/>
-      <c r="B162" s="28">
+      <c r="G166" s="42"/>
+      <c r="H166" s="42"/>
+      <c r="I166" s="42"/>
+      <c r="J166" s="42"/>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" s="80"/>
+      <c r="B167" s="28">
         <v>41772</v>
       </c>
-      <c r="C162" s="6"/>
-      <c r="D162" s="6"/>
-      <c r="E162" s="6"/>
-      <c r="F162" s="6">
+      <c r="C167" s="6"/>
+      <c r="D167" s="6"/>
+      <c r="E167" s="6"/>
+      <c r="F167" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G162" s="42"/>
-      <c r="H162" s="42"/>
-      <c r="I162" s="42"/>
-      <c r="J162" s="42"/>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="119"/>
-      <c r="B163" s="28">
+      <c r="G167" s="42"/>
+      <c r="H167" s="42"/>
+      <c r="I167" s="42"/>
+      <c r="J167" s="42"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="80"/>
+      <c r="B168" s="28">
         <v>41773</v>
       </c>
-      <c r="C163" s="6"/>
-      <c r="D163" s="6"/>
-      <c r="E163" s="6"/>
-      <c r="F163" s="6">
+      <c r="C168" s="6"/>
+      <c r="D168" s="6"/>
+      <c r="E168" s="6"/>
+      <c r="F168" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G163" s="42"/>
-      <c r="H163" s="42"/>
-      <c r="I163" s="42"/>
-      <c r="J163" s="42"/>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="119"/>
-      <c r="B164" s="28">
+      <c r="G168" s="42"/>
+      <c r="H168" s="42"/>
+      <c r="I168" s="42"/>
+      <c r="J168" s="42"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" s="80"/>
+      <c r="B169" s="28">
         <v>41774</v>
       </c>
-      <c r="C164" s="6"/>
-      <c r="D164" s="6"/>
-      <c r="E164" s="6"/>
-      <c r="F164" s="6">
-        <f t="shared" ref="F164:F175" si="4">E164</f>
-        <v>0</v>
-      </c>
-      <c r="G164" s="42"/>
-      <c r="H164" s="42"/>
-      <c r="I164" s="42"/>
-      <c r="J164" s="42"/>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="86"/>
-      <c r="B165" s="28">
+      <c r="C169" s="6"/>
+      <c r="D169" s="6"/>
+      <c r="E169" s="6"/>
+      <c r="F169" s="6">
+        <f t="shared" ref="F169:F180" si="4">E169</f>
+        <v>0</v>
+      </c>
+      <c r="G169" s="42"/>
+      <c r="H169" s="42"/>
+      <c r="I169" s="42"/>
+      <c r="J169" s="42"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" s="73"/>
+      <c r="B170" s="28">
         <v>41775</v>
       </c>
-      <c r="C165" s="6"/>
-      <c r="D165" s="6"/>
-      <c r="E165" s="6"/>
-      <c r="F165" s="6">
+      <c r="C170" s="6"/>
+      <c r="D170" s="6"/>
+      <c r="E170" s="6"/>
+      <c r="F170" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G165" s="42"/>
-      <c r="H165" s="42"/>
-      <c r="I165" s="42"/>
-      <c r="J165" s="42"/>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="89">
+      <c r="G170" s="42"/>
+      <c r="H170" s="42"/>
+      <c r="I170" s="42"/>
+      <c r="J170" s="42"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" s="77">
         <v>29</v>
       </c>
-      <c r="B166" s="27">
+      <c r="B171" s="27">
         <v>41778</v>
       </c>
-      <c r="C166" s="5"/>
-      <c r="D166" s="5"/>
-      <c r="E166" s="5"/>
-      <c r="F166" s="5">
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
+      <c r="F171" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G166" s="41"/>
-      <c r="H166" s="41"/>
-      <c r="I166" s="41"/>
-      <c r="J166" s="41"/>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="90"/>
-      <c r="B167" s="27">
+      <c r="G171" s="41"/>
+      <c r="H171" s="41"/>
+      <c r="I171" s="41"/>
+      <c r="J171" s="41"/>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" s="78"/>
+      <c r="B172" s="27">
         <v>41779</v>
       </c>
-      <c r="C167" s="5"/>
-      <c r="D167" s="5"/>
-      <c r="E167" s="5"/>
-      <c r="F167" s="5">
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5"/>
+      <c r="F172" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G167" s="41"/>
-      <c r="H167" s="41"/>
-      <c r="I167" s="41"/>
-      <c r="J167" s="41"/>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="90"/>
-      <c r="B168" s="27">
+      <c r="G172" s="41"/>
+      <c r="H172" s="41"/>
+      <c r="I172" s="41"/>
+      <c r="J172" s="41"/>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="78"/>
+      <c r="B173" s="27">
         <v>41780</v>
       </c>
-      <c r="C168" s="5"/>
-      <c r="D168" s="5"/>
-      <c r="E168" s="5"/>
-      <c r="F168" s="5">
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
+      <c r="F173" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G168" s="41"/>
-      <c r="H168" s="41"/>
-      <c r="I168" s="41"/>
-      <c r="J168" s="41"/>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="90"/>
-      <c r="B169" s="27">
+      <c r="G173" s="41"/>
+      <c r="H173" s="41"/>
+      <c r="I173" s="41"/>
+      <c r="J173" s="41"/>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" s="78"/>
+      <c r="B174" s="27">
         <v>41781</v>
       </c>
-      <c r="C169" s="5"/>
-      <c r="D169" s="5"/>
-      <c r="E169" s="5"/>
-      <c r="F169" s="5">
+      <c r="C174" s="5"/>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
+      <c r="F174" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G169" s="41"/>
-      <c r="H169" s="41"/>
-      <c r="I169" s="41"/>
-      <c r="J169" s="41"/>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="91"/>
-      <c r="B170" s="27">
+      <c r="G174" s="41"/>
+      <c r="H174" s="41"/>
+      <c r="I174" s="41"/>
+      <c r="J174" s="41"/>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" s="79"/>
+      <c r="B175" s="27">
         <v>41782</v>
       </c>
-      <c r="C170" s="5"/>
-      <c r="D170" s="5"/>
-      <c r="E170" s="5"/>
-      <c r="F170" s="5">
+      <c r="C175" s="5"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G170" s="41"/>
-      <c r="H170" s="41"/>
-      <c r="I170" s="41"/>
-      <c r="J170" s="41"/>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="125">
+      <c r="G175" s="41"/>
+      <c r="H175" s="41"/>
+      <c r="I175" s="41"/>
+      <c r="J175" s="41"/>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" s="81">
         <v>30</v>
       </c>
-      <c r="B171" s="28">
+      <c r="B176" s="28">
         <v>41785</v>
       </c>
-      <c r="C171" s="2"/>
-      <c r="D171" s="2"/>
-      <c r="E171" s="2"/>
-      <c r="F171" s="2">
+      <c r="C176" s="2"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
+      <c r="F176" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G171" s="43"/>
-      <c r="H171" s="43"/>
-      <c r="I171" s="43"/>
-      <c r="J171" s="43"/>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="126"/>
-      <c r="B172" s="28">
+      <c r="G176" s="43"/>
+      <c r="H176" s="43"/>
+      <c r="I176" s="43"/>
+      <c r="J176" s="43"/>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" s="82"/>
+      <c r="B177" s="28">
         <v>41786</v>
       </c>
-      <c r="C172" s="2"/>
-      <c r="D172" s="2"/>
-      <c r="E172" s="2"/>
-      <c r="F172" s="2">
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
+      <c r="E177" s="2"/>
+      <c r="F177" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G172" s="43"/>
-      <c r="H172" s="43"/>
-      <c r="I172" s="43"/>
-      <c r="J172" s="43"/>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A173" s="126"/>
-      <c r="B173" s="28">
+      <c r="G177" s="43"/>
+      <c r="H177" s="43"/>
+      <c r="I177" s="43"/>
+      <c r="J177" s="43"/>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" s="82"/>
+      <c r="B178" s="28">
         <v>41787</v>
       </c>
-      <c r="C173" s="2"/>
-      <c r="D173" s="2"/>
-      <c r="E173" s="2"/>
-      <c r="F173" s="2">
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
+      <c r="F178" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G173" s="43"/>
-      <c r="H173" s="43"/>
-      <c r="I173" s="43"/>
-      <c r="J173" s="43"/>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A174" s="126"/>
-      <c r="B174" s="28">
+      <c r="G178" s="43"/>
+      <c r="H178" s="43"/>
+      <c r="I178" s="43"/>
+      <c r="J178" s="43"/>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" s="82"/>
+      <c r="B179" s="28">
         <v>41788</v>
       </c>
-      <c r="C174" s="2"/>
-      <c r="D174" s="2"/>
-      <c r="E174" s="2"/>
-      <c r="F174" s="2">
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
+      <c r="F179" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G174" s="43"/>
-      <c r="H174" s="43"/>
-      <c r="I174" s="43"/>
-      <c r="J174" s="43"/>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A175" s="127"/>
-      <c r="B175" s="28">
+      <c r="G179" s="43"/>
+      <c r="H179" s="43"/>
+      <c r="I179" s="43"/>
+      <c r="J179" s="43"/>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" s="83"/>
+      <c r="B180" s="28">
         <v>41789</v>
       </c>
-      <c r="C175" s="2"/>
-      <c r="D175" s="2"/>
-      <c r="E175" s="2"/>
-      <c r="F175" s="2">
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+      <c r="F180" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G175" s="43"/>
-      <c r="H175" s="43"/>
-      <c r="I175" s="43"/>
-      <c r="J175" s="43"/>
+      <c r="G180" s="43"/>
+      <c r="H180" s="43"/>
+      <c r="I180" s="43"/>
+      <c r="J180" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="66">
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="A96:A100"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="A44:A50"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="A61:A65"/>
-    <mergeCell ref="A66:A70"/>
-    <mergeCell ref="A76:A80"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="A126:A130"/>
-    <mergeCell ref="A156:A160"/>
-    <mergeCell ref="A161:A165"/>
-    <mergeCell ref="A101:A105"/>
-    <mergeCell ref="A106:A110"/>
-    <mergeCell ref="A111:A115"/>
-    <mergeCell ref="A116:A120"/>
-    <mergeCell ref="A121:A125"/>
-    <mergeCell ref="A166:A170"/>
-    <mergeCell ref="A171:A175"/>
-    <mergeCell ref="A131:A135"/>
-    <mergeCell ref="A136:A140"/>
-    <mergeCell ref="A141:A145"/>
-    <mergeCell ref="A146:A150"/>
-    <mergeCell ref="A151:A155"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F25:F30"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A71:A75"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A10:A18"/>
+  <mergeCells count="70">
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="G2:N4"/>
     <mergeCell ref="A7:A9"/>
@@ -5366,6 +5498,60 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A10:A18"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="A96:A100"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F25:F30"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A76:A80"/>
+    <mergeCell ref="A171:A175"/>
+    <mergeCell ref="A176:A180"/>
+    <mergeCell ref="A136:A140"/>
+    <mergeCell ref="A141:A145"/>
+    <mergeCell ref="A146:A150"/>
+    <mergeCell ref="A151:A155"/>
+    <mergeCell ref="A156:A160"/>
+    <mergeCell ref="A131:A135"/>
+    <mergeCell ref="A161:A165"/>
+    <mergeCell ref="A166:A170"/>
+    <mergeCell ref="A106:A110"/>
+    <mergeCell ref="A111:A115"/>
+    <mergeCell ref="A116:A120"/>
+    <mergeCell ref="A121:A125"/>
+    <mergeCell ref="A126:A130"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="A44:A55"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="A66:A70"/>
+    <mergeCell ref="A71:A75"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="A61:A65"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="A101:A105"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="F47:F51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="F52:F53"/>
   </mergeCells>
   <conditionalFormatting sqref="M7">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
@@ -5673,7 +5859,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M47</xm:sqref>
+          <xm:sqref>M47:M51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="20" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
@@ -5692,105 +5878,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M48</xm:sqref>
+          <xm:sqref>M52:M53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="19" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M49</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M50</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="17" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M51</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="16" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M52</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="15" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M53</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5809,7 +5900,7 @@
           <xm:sqref>M54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
+          <x14:cfRule type="iconSet" priority="18" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5828,7 +5919,7 @@
           <xm:sqref>M55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+          <x14:cfRule type="iconSet" priority="17" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5847,7 +5938,7 @@
           <xm:sqref>M56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="11" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+          <x14:cfRule type="iconSet" priority="16" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5866,7 +5957,7 @@
           <xm:sqref>M57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="10" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+          <x14:cfRule type="iconSet" priority="15" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5883,6 +5974,101 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>M58</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="14" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M59</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="13" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M60</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="12" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M61</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="11" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M62</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="10" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="9" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
@@ -5939,7 +6125,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F19 F7:F8 F12:F14 F16 F21 F25 F23 F35 F37 F39:F42 F44 F47:F175</xm:sqref>
+          <xm:sqref>F19 F7:F8 F12:F14 F16 F21 F25 F23 F35 F37 F39:F42 F44 F47 F52 F54:F180</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNgo.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNgo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\capstone\1. Project management\9. Timelog\individual time log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NC\Desktop\Admission project\1. Project management\9. Timelog\individual time log\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="120">
   <si>
     <t>Week</t>
   </si>
@@ -405,6 +405,18 @@
 .-risk management
 .-master plan
 .-master design plan</t>
+  </si>
+  <si>
+    <t>10:30AM</t>
+  </si>
+  <si>
+    <t>11:00AM</t>
+  </si>
+  <si>
+    <t>Team meetings</t>
+  </si>
+  <si>
+    <t>Discuss about document</t>
   </si>
 </sst>
 </file>
@@ -418,7 +430,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -426,14 +438,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -446,7 +458,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -459,20 +471,20 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -485,7 +497,7 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -498,12 +510,12 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -537,6 +549,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,7 +740,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -905,6 +923,51 @@
     <xf numFmtId="18" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -920,24 +983,117 @@
     <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -947,143 +1103,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1406,16 +1427,16 @@
   <dimension ref="A3:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>28</v>
       </c>
@@ -1423,7 +1444,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -1431,7 +1452,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -1439,7 +1460,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -1447,7 +1468,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -1455,7 +1476,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -1463,7 +1484,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -1471,7 +1492,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>7</v>
       </c>
@@ -1479,7 +1500,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -1487,7 +1508,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>9</v>
       </c>
@@ -1495,7 +1516,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -1503,7 +1524,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>11</v>
       </c>
@@ -1518,109 +1539,109 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O180"/>
+  <dimension ref="A1:O181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H52" sqref="H52"/>
+      <selection pane="bottomRight" activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="50.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="50.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="1" customWidth="1"/>
-    <col min="11" max="11" width="27.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.25" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="14" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="105"/>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="107"/>
+      <c r="A1" s="70"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="72"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="108" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="110"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="75"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="113"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="78"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="127"/>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
-      <c r="M4" s="115"/>
-      <c r="N4" s="116"/>
+      <c r="A4" s="105"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="81"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="99"/>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="101"/>
+      <c r="A5" s="114"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="116"/>
       <c r="F5" s="16"/>
       <c r="H5" s="45" t="s">
         <v>66</v>
@@ -1634,7 +1655,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>0</v>
       </c>
@@ -1665,13 +1686,13 @@
       <c r="J6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="120"/>
-      <c r="L6" s="120"/>
-      <c r="M6" s="120"/>
-      <c r="N6" s="120"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
     </row>
     <row r="7" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="117">
+      <c r="A7" s="82">
         <v>1</v>
       </c>
       <c r="B7" s="17">
@@ -1698,21 +1719,21 @@
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="31"/>
-      <c r="K7" s="84" t="s">
+      <c r="K7" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="84"/>
+      <c r="L7" s="120"/>
       <c r="M7" s="34">
-        <f>SUM(M8:M63)</f>
+        <f>SUM(M8:M64)</f>
         <v>47.303000000000004</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="118"/>
-      <c r="B8" s="95">
+    <row r="8" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="83"/>
+      <c r="B8" s="108">
         <v>41586</v>
       </c>
       <c r="C8" s="18">
@@ -1724,7 +1745,7 @@
       <c r="E8" s="19">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F8" s="97">
+      <c r="F8" s="110">
         <f>SUM(E8:E9)</f>
         <v>1.66</v>
       </c>
@@ -1749,8 +1770,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="119"/>
-      <c r="B9" s="96"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="109"/>
       <c r="C9" s="18">
         <v>0.63194444444444442</v>
       </c>
@@ -1760,7 +1781,7 @@
       <c r="E9" s="19">
         <v>0.5</v>
       </c>
-      <c r="F9" s="98"/>
+      <c r="F9" s="111"/>
       <c r="G9" s="31" t="s">
         <v>25</v>
       </c>
@@ -1771,10 +1792,10 @@
       <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="102">
+      <c r="A10" s="117">
         <v>2</v>
       </c>
-      <c r="B10" s="87">
+      <c r="B10" s="97">
         <v>41589</v>
       </c>
       <c r="C10" s="55">
@@ -1786,7 +1807,7 @@
       <c r="E10" s="56">
         <v>1.5</v>
       </c>
-      <c r="F10" s="91">
+      <c r="F10" s="124">
         <f>SUM(E10:E11)</f>
         <v>2.5</v>
       </c>
@@ -1800,8 +1821,8 @@
       <c r="J10" s="57"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="103"/>
-      <c r="B11" s="88"/>
+      <c r="A11" s="118"/>
+      <c r="B11" s="98"/>
       <c r="C11" s="55">
         <v>0.875</v>
       </c>
@@ -1811,7 +1832,7 @@
       <c r="E11" s="56">
         <v>1</v>
       </c>
-      <c r="F11" s="92"/>
+      <c r="F11" s="125"/>
       <c r="G11" s="57" t="s">
         <v>30</v>
       </c>
@@ -1822,8 +1843,8 @@
       <c r="J11" s="57"/>
     </row>
     <row r="12" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A12" s="103"/>
-      <c r="B12" s="87">
+      <c r="A12" s="118"/>
+      <c r="B12" s="97">
         <v>41590</v>
       </c>
       <c r="C12" s="23">
@@ -1863,8 +1884,8 @@
       <c r="O12" s="36"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="103"/>
-      <c r="B13" s="88"/>
+      <c r="A13" s="118"/>
+      <c r="B13" s="98"/>
       <c r="C13" s="23">
         <v>0.875</v>
       </c>
@@ -1893,8 +1914,8 @@
       <c r="O13" s="36"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="103"/>
-      <c r="B14" s="87">
+      <c r="A14" s="118"/>
+      <c r="B14" s="97">
         <v>41592</v>
       </c>
       <c r="C14" s="26">
@@ -1906,7 +1927,7 @@
       <c r="E14" s="29">
         <v>1.25</v>
       </c>
-      <c r="F14" s="85">
+      <c r="F14" s="112">
         <f>SUM(E14:E15)</f>
         <v>3.25</v>
       </c>
@@ -1933,8 +1954,8 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="103"/>
-      <c r="B15" s="88"/>
+      <c r="A15" s="118"/>
+      <c r="B15" s="98"/>
       <c r="C15" s="26">
         <v>0.42708333333333331</v>
       </c>
@@ -1944,7 +1965,7 @@
       <c r="E15" s="29">
         <v>2</v>
       </c>
-      <c r="F15" s="86"/>
+      <c r="F15" s="113"/>
       <c r="G15" s="48" t="s">
         <v>30</v>
       </c>
@@ -1959,7 +1980,7 @@
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="103"/>
+      <c r="A16" s="118"/>
       <c r="B16" s="46">
         <v>41593</v>
       </c>
@@ -1991,7 +2012,7 @@
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="10">
-        <f>SUM(E44:E55)</f>
+        <f>SUM(E44:E56)</f>
         <v>18.600000000000001</v>
       </c>
       <c r="N16" s="3" t="s">
@@ -1999,8 +2020,8 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="103"/>
-      <c r="B17" s="87">
+      <c r="A17" s="118"/>
+      <c r="B17" s="97">
         <v>41594</v>
       </c>
       <c r="C17" s="26">
@@ -2012,7 +2033,7 @@
       <c r="E17" s="29">
         <v>2</v>
       </c>
-      <c r="F17" s="85">
+      <c r="F17" s="112">
         <f>SUM(E17:E18)</f>
         <v>3</v>
       </c>
@@ -2031,7 +2052,7 @@
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="10">
-        <f>SUM(E61:E65)</f>
+        <f>SUM(E62:E66)</f>
         <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
@@ -2039,8 +2060,8 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="104"/>
-      <c r="B18" s="88"/>
+      <c r="A18" s="119"/>
+      <c r="B18" s="98"/>
       <c r="C18" s="26">
         <v>0.83333333333333337</v>
       </c>
@@ -2050,7 +2071,7 @@
       <c r="E18" s="29">
         <v>1</v>
       </c>
-      <c r="F18" s="86"/>
+      <c r="F18" s="113"/>
       <c r="G18" s="30" t="s">
         <v>24</v>
       </c>
@@ -2067,10 +2088,10 @@
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="77">
+      <c r="A19" s="91">
         <v>3</v>
       </c>
-      <c r="B19" s="74">
+      <c r="B19" s="89">
         <v>41596</v>
       </c>
       <c r="C19" s="53">
@@ -2082,7 +2103,7 @@
       <c r="E19" s="5">
         <v>0.6</v>
       </c>
-      <c r="F19" s="77">
+      <c r="F19" s="91">
         <f>SUM(E19:E20)</f>
         <v>1.18</v>
       </c>
@@ -2101,7 +2122,7 @@
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="10">
-        <f>SUM(E66:E70)</f>
+        <f>SUM(E67:E71)</f>
         <v>0</v>
       </c>
       <c r="N19" s="3" t="s">
@@ -2109,8 +2130,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="78"/>
-      <c r="B20" s="76"/>
+      <c r="A20" s="92"/>
+      <c r="B20" s="90"/>
       <c r="C20" s="53">
         <v>0.89236111111111116</v>
       </c>
@@ -2120,7 +2141,7 @@
       <c r="E20" s="5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F20" s="79"/>
+      <c r="F20" s="93"/>
       <c r="G20" s="41" t="s">
         <v>30</v>
       </c>
@@ -2135,8 +2156,8 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A21" s="78"/>
-      <c r="B21" s="89">
+      <c r="A21" s="92"/>
+      <c r="B21" s="122">
         <v>41597</v>
       </c>
       <c r="C21" s="53">
@@ -2148,7 +2169,7 @@
       <c r="E21" s="52">
         <v>1</v>
       </c>
-      <c r="F21" s="77">
+      <c r="F21" s="91">
         <f>SUM(E21:E22)</f>
         <v>3</v>
       </c>
@@ -2165,7 +2186,7 @@
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="10">
-        <f>SUM(E71:E75)</f>
+        <f>SUM(E72:E76)</f>
         <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
@@ -2173,8 +2194,8 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="78"/>
-      <c r="B22" s="90"/>
+      <c r="A22" s="92"/>
+      <c r="B22" s="123"/>
       <c r="C22" s="53">
         <v>0.91666666666666663</v>
       </c>
@@ -2184,7 +2205,7 @@
       <c r="E22" s="52">
         <v>2</v>
       </c>
-      <c r="F22" s="79"/>
+      <c r="F22" s="93"/>
       <c r="G22" s="41" t="s">
         <v>24</v>
       </c>
@@ -2201,8 +2222,8 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="78"/>
-      <c r="B23" s="74">
+      <c r="A23" s="92"/>
+      <c r="B23" s="89">
         <v>41598</v>
       </c>
       <c r="C23" s="53">
@@ -2214,7 +2235,7 @@
       <c r="E23" s="5">
         <v>1</v>
       </c>
-      <c r="F23" s="93">
+      <c r="F23" s="95">
         <f>SUM(E23:E24)</f>
         <v>3</v>
       </c>
@@ -2231,7 +2252,7 @@
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="10">
-        <f>SUM(E76:E80)</f>
+        <f>SUM(E77:E81)</f>
         <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
@@ -2239,8 +2260,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="78"/>
-      <c r="B24" s="76"/>
+      <c r="A24" s="92"/>
+      <c r="B24" s="90"/>
       <c r="C24" s="53">
         <v>0.91666666666666663</v>
       </c>
@@ -2250,7 +2271,7 @@
       <c r="E24" s="5">
         <v>2</v>
       </c>
-      <c r="F24" s="94"/>
+      <c r="F24" s="96"/>
       <c r="G24" s="41" t="s">
         <v>24</v>
       </c>
@@ -2264,7 +2285,7 @@
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="10">
-        <f>SUM(E81:E85)</f>
+        <f>SUM(E82:E86)</f>
         <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
@@ -2272,8 +2293,8 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="78"/>
-      <c r="B25" s="74">
+      <c r="A25" s="92"/>
+      <c r="B25" s="89">
         <v>41599</v>
       </c>
       <c r="C25" s="53">
@@ -2285,7 +2306,7 @@
       <c r="E25" s="5">
         <v>1</v>
       </c>
-      <c r="F25" s="77">
+      <c r="F25" s="91">
         <f>SUM(E25:E30)</f>
         <v>10.35</v>
       </c>
@@ -2301,8 +2322,8 @@
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="78"/>
-      <c r="B26" s="75"/>
+      <c r="A26" s="92"/>
+      <c r="B26" s="126"/>
       <c r="C26" s="53">
         <v>0.375</v>
       </c>
@@ -2312,7 +2333,7 @@
       <c r="E26" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F26" s="78"/>
+      <c r="F26" s="92"/>
       <c r="G26" s="54" t="s">
         <v>25</v>
       </c>
@@ -2327,8 +2348,8 @@
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="78"/>
-      <c r="B27" s="75"/>
+      <c r="A27" s="92"/>
+      <c r="B27" s="126"/>
       <c r="C27" s="53">
         <v>0.4236111111111111</v>
       </c>
@@ -2338,7 +2359,7 @@
       <c r="E27" s="5">
         <v>1.5</v>
       </c>
-      <c r="F27" s="78"/>
+      <c r="F27" s="92"/>
       <c r="G27" s="41" t="s">
         <v>87</v>
       </c>
@@ -2351,8 +2372,8 @@
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="78"/>
-      <c r="B28" s="75"/>
+      <c r="A28" s="92"/>
+      <c r="B28" s="126"/>
       <c r="C28" s="53">
         <v>0.52083333333333337</v>
       </c>
@@ -2362,7 +2383,7 @@
       <c r="E28" s="5">
         <v>2</v>
       </c>
-      <c r="F28" s="78"/>
+      <c r="F28" s="92"/>
       <c r="G28" s="41" t="s">
         <v>83</v>
       </c>
@@ -2377,8 +2398,8 @@
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="78"/>
-      <c r="B29" s="75"/>
+      <c r="A29" s="92"/>
+      <c r="B29" s="126"/>
       <c r="C29" s="53">
         <v>0.625</v>
       </c>
@@ -2388,7 +2409,7 @@
       <c r="E29" s="5">
         <v>2.1</v>
       </c>
-      <c r="F29" s="78"/>
+      <c r="F29" s="92"/>
       <c r="G29" s="41" t="s">
         <v>87</v>
       </c>
@@ -2401,8 +2422,8 @@
       <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="78"/>
-      <c r="B30" s="76"/>
+      <c r="A30" s="92"/>
+      <c r="B30" s="90"/>
       <c r="C30" s="53">
         <v>0.84375</v>
       </c>
@@ -2412,7 +2433,7 @@
       <c r="E30" s="5">
         <v>2.65</v>
       </c>
-      <c r="F30" s="79"/>
+      <c r="F30" s="93"/>
       <c r="G30" s="41" t="s">
         <v>88</v>
       </c>
@@ -2427,8 +2448,8 @@
       <c r="N30" s="3"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="78"/>
-      <c r="B31" s="74">
+      <c r="A31" s="92"/>
+      <c r="B31" s="89">
         <v>41600</v>
       </c>
       <c r="C31" s="53">
@@ -2440,7 +2461,7 @@
       <c r="E31" s="5">
         <v>1.25</v>
       </c>
-      <c r="F31" s="93">
+      <c r="F31" s="95">
         <f>SUM(E31:E32)</f>
         <v>2.75</v>
       </c>
@@ -2458,8 +2479,8 @@
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="79"/>
-      <c r="B32" s="76"/>
+      <c r="A32" s="93"/>
+      <c r="B32" s="90"/>
       <c r="C32" s="53">
         <v>0.625</v>
       </c>
@@ -2469,7 +2490,7 @@
       <c r="E32" s="5">
         <v>1.5</v>
       </c>
-      <c r="F32" s="94"/>
+      <c r="F32" s="96"/>
       <c r="G32" s="41" t="s">
         <v>88</v>
       </c>
@@ -2485,7 +2506,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="63"/>
-      <c r="B33" s="74">
+      <c r="B33" s="89">
         <v>41601</v>
       </c>
       <c r="C33" s="53">
@@ -2497,7 +2518,7 @@
       <c r="E33" s="5">
         <v>0.25</v>
       </c>
-      <c r="F33" s="93">
+      <c r="F33" s="95">
         <f>SUM(E33:E34)</f>
         <v>1.5</v>
       </c>
@@ -2516,7 +2537,7 @@
     </row>
     <row r="34" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="64"/>
-      <c r="B34" s="76"/>
+      <c r="B34" s="90"/>
       <c r="C34" s="53">
         <v>0.57291666666666663</v>
       </c>
@@ -2526,7 +2547,7 @@
       <c r="E34" s="5">
         <v>1.25</v>
       </c>
-      <c r="F34" s="94"/>
+      <c r="F34" s="96"/>
       <c r="G34" s="41" t="s">
         <v>88</v>
       </c>
@@ -2543,10 +2564,10 @@
       <c r="N34" s="3"/>
     </row>
     <row r="35" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A35" s="72">
+      <c r="A35" s="87">
         <v>4</v>
       </c>
-      <c r="B35" s="70">
+      <c r="B35" s="85">
         <v>41603</v>
       </c>
       <c r="C35" s="65">
@@ -2558,7 +2579,7 @@
       <c r="E35" s="6">
         <v>1.25</v>
       </c>
-      <c r="F35" s="72">
+      <c r="F35" s="87">
         <f>SUM(E35:E36)</f>
         <v>3.25</v>
       </c>
@@ -2575,7 +2596,7 @@
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="10">
-        <f>SUM(E91:E95)</f>
+        <f>SUM(E92:E96)</f>
         <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
@@ -2583,8 +2604,8 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="80"/>
-      <c r="B36" s="71"/>
+      <c r="A36" s="121"/>
+      <c r="B36" s="86"/>
       <c r="C36" s="65">
         <v>0.91666666666666663</v>
       </c>
@@ -2594,7 +2615,7 @@
       <c r="E36" s="6">
         <v>2</v>
       </c>
-      <c r="F36" s="73"/>
+      <c r="F36" s="88"/>
       <c r="G36" s="42" t="s">
         <v>97</v>
       </c>
@@ -2609,8 +2630,8 @@
       <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="80"/>
-      <c r="B37" s="70">
+      <c r="A37" s="121"/>
+      <c r="B37" s="85">
         <v>41604</v>
       </c>
       <c r="C37" s="65">
@@ -2622,7 +2643,7 @@
       <c r="E37" s="6">
         <v>2.5</v>
       </c>
-      <c r="F37" s="72">
+      <c r="F37" s="87">
         <f>SUM(E37:E38)</f>
         <v>3.5</v>
       </c>
@@ -2639,7 +2660,7 @@
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="10">
-        <f>SUM(E96:E100)</f>
+        <f>SUM(E97:E101)</f>
         <v>0</v>
       </c>
       <c r="N37" s="3" t="s">
@@ -2647,8 +2668,8 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="80"/>
-      <c r="B38" s="71"/>
+      <c r="A38" s="121"/>
+      <c r="B38" s="86"/>
       <c r="C38" s="65">
         <v>0.5625</v>
       </c>
@@ -2658,7 +2679,7 @@
       <c r="E38" s="6">
         <v>1</v>
       </c>
-      <c r="F38" s="73"/>
+      <c r="F38" s="88"/>
       <c r="G38" s="42" t="s">
         <v>87</v>
       </c>
@@ -2673,7 +2694,7 @@
       <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="80"/>
+      <c r="A39" s="121"/>
       <c r="B39" s="28">
         <v>41605</v>
       </c>
@@ -2687,7 +2708,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="F39" s="6">
-        <f t="shared" ref="F39:F72" si="0">E39</f>
+        <f t="shared" ref="F39:F73" si="0">E39</f>
         <v>2.2999999999999998</v>
       </c>
       <c r="G39" s="42" t="s">
@@ -2703,7 +2724,7 @@
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="10">
-        <f>SUM(E101:E105)</f>
+        <f>SUM(E102:E106)</f>
         <v>0</v>
       </c>
       <c r="N39" s="3" t="s">
@@ -2711,7 +2732,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="80"/>
+      <c r="A40" s="121"/>
       <c r="B40" s="28">
         <v>41606</v>
       </c>
@@ -2741,7 +2762,7 @@
       </c>
       <c r="L40" s="6"/>
       <c r="M40" s="10">
-        <f>SUM(E106:E110)</f>
+        <f>SUM(E107:E111)</f>
         <v>0</v>
       </c>
       <c r="N40" s="3" t="s">
@@ -2749,7 +2770,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="73"/>
+      <c r="A41" s="88"/>
       <c r="B41" s="28">
         <v>41607</v>
       </c>
@@ -2779,16 +2800,16 @@
       </c>
       <c r="L41" s="6"/>
       <c r="M41" s="10">
-        <f>SUM(E111:E115)</f>
+        <f>SUM(E112:E116)</f>
         <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="67"/>
-      <c r="B42" s="70">
+      <c r="B42" s="85">
         <v>41608</v>
       </c>
       <c r="C42" s="65">
@@ -2800,7 +2821,7 @@
       <c r="E42" s="6">
         <v>1.5</v>
       </c>
-      <c r="F42" s="72">
+      <c r="F42" s="87">
         <f>SUM(E42:E43)</f>
         <v>2.5</v>
       </c>
@@ -2819,7 +2840,7 @@
     </row>
     <row r="43" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="67"/>
-      <c r="B43" s="71"/>
+      <c r="B43" s="86"/>
       <c r="C43" s="65">
         <v>0.85416666666666663</v>
       </c>
@@ -2829,7 +2850,7 @@
       <c r="E43" s="6">
         <v>1</v>
       </c>
-      <c r="F43" s="73"/>
+      <c r="F43" s="88"/>
       <c r="G43" s="42" t="s">
         <v>88</v>
       </c>
@@ -2844,10 +2865,10 @@
       <c r="N43" s="3"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="77">
+      <c r="A44" s="91">
         <v>5</v>
       </c>
-      <c r="B44" s="74">
+      <c r="B44" s="89">
         <v>41610</v>
       </c>
       <c r="C44" s="69">
@@ -2859,7 +2880,7 @@
       <c r="E44" s="5">
         <v>1</v>
       </c>
-      <c r="F44" s="77">
+      <c r="F44" s="91">
         <f>SUM(E44:E46)</f>
         <v>3.5</v>
       </c>
@@ -2876,7 +2897,7 @@
       </c>
       <c r="L44" s="6"/>
       <c r="M44" s="10">
-        <f>SUM(E116:E120)</f>
+        <f>SUM(E117:E121)</f>
         <v>0</v>
       </c>
       <c r="N44" s="3" t="s">
@@ -2884,8 +2905,8 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="78"/>
-      <c r="B45" s="75"/>
+      <c r="A45" s="92"/>
+      <c r="B45" s="126"/>
       <c r="C45" s="69">
         <v>0.89583333333333337</v>
       </c>
@@ -2895,7 +2916,7 @@
       <c r="E45" s="5">
         <v>1.5</v>
       </c>
-      <c r="F45" s="78"/>
+      <c r="F45" s="92"/>
       <c r="G45" s="41" t="s">
         <v>88</v>
       </c>
@@ -2910,8 +2931,8 @@
       <c r="N45" s="3"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="78"/>
-      <c r="B46" s="76"/>
+      <c r="A46" s="92"/>
+      <c r="B46" s="90"/>
       <c r="C46" s="69">
         <v>0.95833333333333337</v>
       </c>
@@ -2921,7 +2942,7 @@
       <c r="E46" s="5">
         <v>1</v>
       </c>
-      <c r="F46" s="79"/>
+      <c r="F46" s="93"/>
       <c r="G46" s="41" t="s">
         <v>97</v>
       </c>
@@ -2936,8 +2957,8 @@
       <c r="N46" s="3"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="78"/>
-      <c r="B47" s="74">
+      <c r="A47" s="92"/>
+      <c r="B47" s="89">
         <v>41611</v>
       </c>
       <c r="C47" s="69">
@@ -2949,11 +2970,11 @@
       <c r="E47" s="5">
         <v>1</v>
       </c>
-      <c r="F47" s="77">
-        <f>SUM(E47:E51)</f>
+      <c r="F47" s="91">
+        <f>SUM(E47:E52)</f>
         <v>10.5</v>
       </c>
-      <c r="G47" s="41" t="s">
+      <c r="G47" s="130" t="s">
         <v>86</v>
       </c>
       <c r="H47" s="41"/>
@@ -2964,7 +2985,7 @@
       </c>
       <c r="L47" s="6"/>
       <c r="M47" s="10">
-        <f>SUM(E121:E125)</f>
+        <f>SUM(E122:E126)</f>
         <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
@@ -2972,18 +2993,18 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="78"/>
-      <c r="B48" s="75"/>
+      <c r="A48" s="92"/>
+      <c r="B48" s="126"/>
       <c r="C48" s="69">
         <v>0.375</v>
       </c>
       <c r="D48" s="69">
-        <v>0.45833333333333331</v>
+        <v>0.4375</v>
       </c>
       <c r="E48" s="5">
-        <v>2</v>
-      </c>
-      <c r="F48" s="78"/>
+        <v>1.5</v>
+      </c>
+      <c r="F48" s="92"/>
       <c r="G48" s="41" t="s">
         <v>109</v>
       </c>
@@ -2997,24 +3018,24 @@
       <c r="M48" s="10"/>
       <c r="N48" s="3"/>
     </row>
-    <row r="49" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="78"/>
-      <c r="B49" s="75"/>
-      <c r="C49" s="69">
-        <v>0.5625</v>
-      </c>
-      <c r="D49" s="69">
-        <v>0.70833333333333337</v>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="92"/>
+      <c r="B49" s="126"/>
+      <c r="C49" s="69" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" s="69" t="s">
+        <v>117</v>
       </c>
       <c r="E49" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="F49" s="78"/>
+        <v>0.5</v>
+      </c>
+      <c r="F49" s="92"/>
       <c r="G49" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="H49" s="54" t="s">
-        <v>114</v>
+        <v>118</v>
+      </c>
+      <c r="H49" s="41" t="s">
+        <v>119</v>
       </c>
       <c r="I49" s="41"/>
       <c r="J49" s="41"/>
@@ -3023,156 +3044,154 @@
       <c r="M49" s="10"/>
       <c r="N49" s="3"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="78"/>
-      <c r="B50" s="75"/>
+    <row r="50" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="92"/>
+      <c r="B50" s="126"/>
       <c r="C50" s="69">
-        <v>0.83333333333333337</v>
+        <v>0.5625</v>
       </c>
       <c r="D50" s="69">
-        <v>0.875</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E50" s="5">
-        <v>1</v>
-      </c>
-      <c r="F50" s="78"/>
+        <v>3.5</v>
+      </c>
+      <c r="F50" s="92"/>
       <c r="G50" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="H50" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="I50" s="41" t="s">
-        <v>112</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="H50" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="I50" s="41"/>
       <c r="J50" s="41"/>
       <c r="K50" s="8"/>
       <c r="L50" s="6"/>
       <c r="M50" s="10"/>
       <c r="N50" s="3"/>
     </row>
-    <row r="51" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="78"/>
-      <c r="B51" s="76"/>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="92"/>
+      <c r="B51" s="126"/>
       <c r="C51" s="69">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D51" s="69">
         <v>0.875</v>
       </c>
-      <c r="D51" s="69">
-        <v>0.5</v>
-      </c>
       <c r="E51" s="5">
-        <v>3</v>
-      </c>
-      <c r="F51" s="79"/>
+        <v>1</v>
+      </c>
+      <c r="F51" s="92"/>
       <c r="G51" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="H51" s="54" t="s">
-        <v>113</v>
-      </c>
-      <c r="I51" s="41"/>
+      <c r="H51" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="I51" s="41" t="s">
+        <v>112</v>
+      </c>
       <c r="J51" s="41"/>
       <c r="K51" s="8"/>
       <c r="L51" s="6"/>
       <c r="M51" s="10"/>
       <c r="N51" s="3"/>
     </row>
-    <row r="52" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A52" s="78"/>
-      <c r="B52" s="74">
-        <v>41612</v>
-      </c>
+    <row r="52" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="92"/>
+      <c r="B52" s="90"/>
       <c r="C52" s="69">
-        <v>0.5625</v>
+        <v>0.875</v>
       </c>
       <c r="D52" s="69">
-        <v>0.67361111111111116</v>
+        <v>0.5</v>
       </c>
       <c r="E52" s="5">
-        <v>2.6</v>
-      </c>
-      <c r="F52" s="77">
-        <f>SUM(E52:E53)</f>
-        <v>4.5999999999999996</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F52" s="93"/>
       <c r="G52" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H52" s="54" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I52" s="41"/>
       <c r="J52" s="41"/>
-      <c r="K52" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="K52" s="8"/>
       <c r="L52" s="6"/>
-      <c r="M52" s="10">
-        <f>SUM(E126:E130)</f>
-        <v>0</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="78"/>
-      <c r="B53" s="76"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A53" s="92"/>
+      <c r="B53" s="89">
+        <v>41612</v>
+      </c>
       <c r="C53" s="69">
-        <v>0.83333333333333337</v>
+        <v>0.5625</v>
       </c>
       <c r="D53" s="69">
-        <v>0.91666666666666663</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="E53" s="5">
-        <v>2</v>
-      </c>
-      <c r="F53" s="79"/>
+        <v>2.6</v>
+      </c>
+      <c r="F53" s="91">
+        <f>SUM(E53:E54)</f>
+        <v>4.5999999999999996</v>
+      </c>
       <c r="G53" s="41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H53" s="54" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I53" s="41"/>
       <c r="J53" s="41"/>
-      <c r="K53" s="8"/>
+      <c r="K53" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="L53" s="6"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="78"/>
-      <c r="B54" s="27">
-        <v>41613</v>
-      </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G54" s="41"/>
-      <c r="H54" s="41"/>
+      <c r="M53" s="10">
+        <f>SUM(E127:E131)</f>
+        <v>0</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="92"/>
+      <c r="B54" s="90"/>
+      <c r="C54" s="69">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D54" s="69">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E54" s="5">
+        <v>2</v>
+      </c>
+      <c r="F54" s="93"/>
+      <c r="G54" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="H54" s="54" t="s">
+        <v>113</v>
+      </c>
       <c r="I54" s="41"/>
       <c r="J54" s="41"/>
-      <c r="K54" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="K54" s="8"/>
       <c r="L54" s="6"/>
-      <c r="M54" s="10">
-        <f>SUM(E131:E135)</f>
-        <v>0</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="M54" s="10"/>
+      <c r="N54" s="3"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="79"/>
+      <c r="A55" s="92"/>
       <c r="B55" s="27">
-        <v>41614</v>
+        <v>41613</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -3186,11 +3205,11 @@
       <c r="I55" s="41"/>
       <c r="J55" s="41"/>
       <c r="K55" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L55" s="6"/>
       <c r="M55" s="10">
-        <f>SUM(E136:E140)</f>
+        <f>SUM(E132:E136)</f>
         <v>0</v>
       </c>
       <c r="N55" s="3" t="s">
@@ -3198,29 +3217,27 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="72">
-        <v>6</v>
-      </c>
-      <c r="B56" s="28">
-        <v>41617</v>
-      </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6">
+      <c r="A56" s="93"/>
+      <c r="B56" s="27">
+        <v>41614</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="42"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="41"/>
       <c r="K56" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L56" s="6"/>
       <c r="M56" s="10">
-        <f>SUM(E141:E145)</f>
+        <f>SUM(E137:E141)</f>
         <v>0</v>
       </c>
       <c r="N56" s="3" t="s">
@@ -3228,9 +3245,11 @@
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="80"/>
+      <c r="A57" s="87">
+        <v>6</v>
+      </c>
       <c r="B57" s="28">
-        <v>41618</v>
+        <v>41617</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -3244,11 +3263,11 @@
       <c r="I57" s="42"/>
       <c r="J57" s="42"/>
       <c r="K57" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L57" s="6"/>
       <c r="M57" s="10">
-        <f>SUM(E146:E150)</f>
+        <f>SUM(E142:E146)</f>
         <v>0</v>
       </c>
       <c r="N57" s="3" t="s">
@@ -3256,9 +3275,9 @@
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="80"/>
+      <c r="A58" s="121"/>
       <c r="B58" s="28">
-        <v>41619</v>
+        <v>41618</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -3272,11 +3291,11 @@
       <c r="I58" s="42"/>
       <c r="J58" s="42"/>
       <c r="K58" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="10">
-        <f>SUM(E151:E155)</f>
+        <f>SUM(E147:E151)</f>
         <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
@@ -3284,9 +3303,9 @@
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="80"/>
+      <c r="A59" s="121"/>
       <c r="B59" s="28">
-        <v>41620</v>
+        <v>41619</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -3300,11 +3319,11 @@
       <c r="I59" s="42"/>
       <c r="J59" s="42"/>
       <c r="K59" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L59" s="6"/>
       <c r="M59" s="10">
-        <f>SUM(E156:E160)</f>
+        <f>SUM(E152:E156)</f>
         <v>0</v>
       </c>
       <c r="N59" s="3" t="s">
@@ -3312,9 +3331,9 @@
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="73"/>
+      <c r="A60" s="121"/>
       <c r="B60" s="28">
-        <v>41621</v>
+        <v>41620</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -3328,11 +3347,11 @@
       <c r="I60" s="42"/>
       <c r="J60" s="42"/>
       <c r="K60" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L60" s="6"/>
       <c r="M60" s="10">
-        <f>SUM(E161:E165)</f>
+        <f>SUM(E157:E161)</f>
         <v>0</v>
       </c>
       <c r="N60" s="3" t="s">
@@ -3340,29 +3359,27 @@
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="77">
-        <v>7</v>
-      </c>
-      <c r="B61" s="27">
-        <v>41624</v>
-      </c>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5">
+      <c r="A61" s="88"/>
+      <c r="B61" s="28">
+        <v>41621</v>
+      </c>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G61" s="41"/>
-      <c r="H61" s="41"/>
-      <c r="I61" s="41"/>
-      <c r="J61" s="41"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42"/>
       <c r="K61" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L61" s="6"/>
       <c r="M61" s="10">
-        <f>SUM(E166:E170)</f>
+        <f>SUM(E162:E166)</f>
         <v>0</v>
       </c>
       <c r="N61" s="3" t="s">
@@ -3370,9 +3387,11 @@
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="78"/>
+      <c r="A62" s="91">
+        <v>7</v>
+      </c>
       <c r="B62" s="27">
-        <v>41625</v>
+        <v>41624</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -3386,11 +3405,11 @@
       <c r="I62" s="41"/>
       <c r="J62" s="41"/>
       <c r="K62" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L62" s="6"/>
       <c r="M62" s="10">
-        <f>SUM(E171:E175)</f>
+        <f>SUM(E167:E171)</f>
         <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
@@ -3398,9 +3417,9 @@
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="78"/>
+      <c r="A63" s="92"/>
       <c r="B63" s="27">
-        <v>41626</v>
+        <v>41625</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -3414,11 +3433,11 @@
       <c r="I63" s="41"/>
       <c r="J63" s="41"/>
       <c r="K63" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L63" s="6"/>
       <c r="M63" s="10">
-        <f>SUM(E176:E180)</f>
+        <f>SUM(E172:E176)</f>
         <v>0</v>
       </c>
       <c r="N63" s="3" t="s">
@@ -3426,9 +3445,9 @@
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="78"/>
+      <c r="A64" s="92"/>
       <c r="B64" s="27">
-        <v>41627</v>
+        <v>41626</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -3441,11 +3460,22 @@
       <c r="H64" s="41"/>
       <c r="I64" s="41"/>
       <c r="J64" s="41"/>
+      <c r="K64" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L64" s="6"/>
+      <c r="M64" s="10">
+        <f>SUM(E177:E181)</f>
+        <v>0</v>
+      </c>
+      <c r="N64" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="79"/>
+      <c r="A65" s="92"/>
       <c r="B65" s="27">
-        <v>41628</v>
+        <v>41627</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
@@ -3460,28 +3490,28 @@
       <c r="J65" s="41"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="72">
+      <c r="A66" s="93"/>
+      <c r="B66" s="27">
+        <v>41628</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G66" s="41"/>
+      <c r="H66" s="41"/>
+      <c r="I66" s="41"/>
+      <c r="J66" s="41"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="87">
         <v>8</v>
       </c>
-      <c r="B66" s="28">
+      <c r="B67" s="28">
         <v>41631</v>
-      </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G66" s="42"/>
-      <c r="H66" s="42"/>
-      <c r="I66" s="42"/>
-      <c r="J66" s="42"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="80"/>
-      <c r="B67" s="28">
-        <v>41632</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -3496,9 +3526,9 @@
       <c r="J67" s="42"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="80"/>
+      <c r="A68" s="121"/>
       <c r="B68" s="28">
-        <v>41633</v>
+        <v>41632</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
@@ -3513,9 +3543,9 @@
       <c r="J68" s="42"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="80"/>
+      <c r="A69" s="121"/>
       <c r="B69" s="28">
-        <v>41634</v>
+        <v>41633</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -3530,9 +3560,9 @@
       <c r="J69" s="42"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="73"/>
+      <c r="A70" s="121"/>
       <c r="B70" s="28">
-        <v>41635</v>
+        <v>41634</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -3547,28 +3577,28 @@
       <c r="J70" s="42"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="77">
+      <c r="A71" s="88"/>
+      <c r="B71" s="28">
+        <v>41635</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G71" s="42"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="42"/>
+      <c r="J71" s="42"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="91">
         <v>9</v>
       </c>
-      <c r="B71" s="27">
+      <c r="B72" s="27">
         <v>41638</v>
-      </c>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G71" s="41"/>
-      <c r="H71" s="41"/>
-      <c r="I71" s="41"/>
-      <c r="J71" s="41"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="78"/>
-      <c r="B72" s="27">
-        <v>41639</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
@@ -3583,15 +3613,15 @@
       <c r="J72" s="41"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="78"/>
+      <c r="A73" s="92"/>
       <c r="B73" s="27">
-        <v>41640</v>
+        <v>41639</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5">
-        <f t="shared" ref="F73:F104" si="1">E73</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G73" s="41"/>
@@ -3600,15 +3630,15 @@
       <c r="J73" s="41"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="78"/>
+      <c r="A74" s="92"/>
       <c r="B74" s="27">
-        <v>41641</v>
+        <v>41640</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F74:F105" si="1">E74</f>
         <v>0</v>
       </c>
       <c r="G74" s="41"/>
@@ -3617,9 +3647,9 @@
       <c r="J74" s="41"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="79"/>
+      <c r="A75" s="92"/>
       <c r="B75" s="27">
-        <v>41642</v>
+        <v>41641</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
@@ -3634,28 +3664,28 @@
       <c r="J75" s="41"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="72">
+      <c r="A76" s="93"/>
+      <c r="B76" s="27">
+        <v>41642</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G76" s="41"/>
+      <c r="H76" s="41"/>
+      <c r="I76" s="41"/>
+      <c r="J76" s="41"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="87">
         <v>10</v>
       </c>
-      <c r="B76" s="28">
+      <c r="B77" s="28">
         <v>41645</v>
-      </c>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G76" s="42"/>
-      <c r="H76" s="42"/>
-      <c r="I76" s="42"/>
-      <c r="J76" s="42"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="80"/>
-      <c r="B77" s="28">
-        <v>41646</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -3670,9 +3700,9 @@
       <c r="J77" s="42"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="80"/>
+      <c r="A78" s="121"/>
       <c r="B78" s="28">
-        <v>41647</v>
+        <v>41646</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -3687,9 +3717,9 @@
       <c r="J78" s="42"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="80"/>
+      <c r="A79" s="121"/>
       <c r="B79" s="28">
-        <v>41648</v>
+        <v>41647</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -3704,9 +3734,9 @@
       <c r="J79" s="42"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="73"/>
+      <c r="A80" s="121"/>
       <c r="B80" s="28">
-        <v>41649</v>
+        <v>41648</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -3721,28 +3751,28 @@
       <c r="J80" s="42"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="77">
+      <c r="A81" s="88"/>
+      <c r="B81" s="28">
+        <v>41649</v>
+      </c>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G81" s="42"/>
+      <c r="H81" s="42"/>
+      <c r="I81" s="42"/>
+      <c r="J81" s="42"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="91">
         <v>11</v>
       </c>
-      <c r="B81" s="27">
+      <c r="B82" s="27">
         <v>41652</v>
-      </c>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G81" s="41"/>
-      <c r="H81" s="41"/>
-      <c r="I81" s="41"/>
-      <c r="J81" s="41"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="78"/>
-      <c r="B82" s="27">
-        <v>41653</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -3757,9 +3787,9 @@
       <c r="J82" s="41"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="78"/>
+      <c r="A83" s="92"/>
       <c r="B83" s="27">
-        <v>41654</v>
+        <v>41653</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
@@ -3774,9 +3804,9 @@
       <c r="J83" s="41"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="78"/>
+      <c r="A84" s="92"/>
       <c r="B84" s="27">
-        <v>41655</v>
+        <v>41654</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
@@ -3791,9 +3821,9 @@
       <c r="J84" s="41"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="79"/>
+      <c r="A85" s="92"/>
       <c r="B85" s="27">
-        <v>41656</v>
+        <v>41655</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
@@ -3808,28 +3838,28 @@
       <c r="J85" s="41"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="72">
+      <c r="A86" s="93"/>
+      <c r="B86" s="27">
+        <v>41656</v>
+      </c>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G86" s="41"/>
+      <c r="H86" s="41"/>
+      <c r="I86" s="41"/>
+      <c r="J86" s="41"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="87">
         <v>12</v>
       </c>
-      <c r="B86" s="28">
+      <c r="B87" s="28">
         <v>41659</v>
-      </c>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G86" s="42"/>
-      <c r="H86" s="42"/>
-      <c r="I86" s="42"/>
-      <c r="J86" s="42"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="80"/>
-      <c r="B87" s="28">
-        <v>41660</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -3844,9 +3874,9 @@
       <c r="J87" s="42"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="80"/>
+      <c r="A88" s="121"/>
       <c r="B88" s="28">
-        <v>41661</v>
+        <v>41660</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -3861,9 +3891,9 @@
       <c r="J88" s="42"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="80"/>
+      <c r="A89" s="121"/>
       <c r="B89" s="28">
-        <v>41662</v>
+        <v>41661</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -3878,9 +3908,9 @@
       <c r="J89" s="42"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="73"/>
+      <c r="A90" s="121"/>
       <c r="B90" s="28">
-        <v>41663</v>
+        <v>41662</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -3895,30 +3925,28 @@
       <c r="J90" s="42"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="77">
+      <c r="A91" s="88"/>
+      <c r="B91" s="28">
+        <v>41663</v>
+      </c>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G91" s="42"/>
+      <c r="H91" s="42"/>
+      <c r="I91" s="42"/>
+      <c r="J91" s="42"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="91">
         <v>13</v>
       </c>
-      <c r="B91" s="27">
+      <c r="B92" s="27">
         <v>41666</v>
-      </c>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G91" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="H91" s="41"/>
-      <c r="I91" s="41"/>
-      <c r="J91" s="41"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="78"/>
-      <c r="B92" s="27">
-        <v>41667</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
@@ -3935,9 +3963,9 @@
       <c r="J92" s="41"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="78"/>
+      <c r="A93" s="92"/>
       <c r="B93" s="27">
-        <v>41668</v>
+        <v>41667</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
@@ -3954,9 +3982,9 @@
       <c r="J93" s="41"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="78"/>
+      <c r="A94" s="92"/>
       <c r="B94" s="27">
-        <v>41669</v>
+        <v>41668</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
@@ -3973,9 +4001,9 @@
       <c r="J94" s="41"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="79"/>
+      <c r="A95" s="92"/>
       <c r="B95" s="27">
-        <v>41670</v>
+        <v>41669</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
@@ -3992,30 +4020,30 @@
       <c r="J95" s="41"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="72">
+      <c r="A96" s="93"/>
+      <c r="B96" s="27">
+        <v>41670</v>
+      </c>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G96" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="H96" s="41"/>
+      <c r="I96" s="41"/>
+      <c r="J96" s="41"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="87">
         <v>14</v>
       </c>
-      <c r="B96" s="28">
+      <c r="B97" s="28">
         <v>41673</v>
-      </c>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G96" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="H96" s="42"/>
-      <c r="I96" s="42"/>
-      <c r="J96" s="42"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="80"/>
-      <c r="B97" s="28">
-        <v>41674</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -4032,9 +4060,9 @@
       <c r="J97" s="42"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="80"/>
+      <c r="A98" s="121"/>
       <c r="B98" s="28">
-        <v>41675</v>
+        <v>41674</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
@@ -4051,9 +4079,9 @@
       <c r="J98" s="42"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="80"/>
+      <c r="A99" s="121"/>
       <c r="B99" s="28">
-        <v>41676</v>
+        <v>41675</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -4070,9 +4098,9 @@
       <c r="J99" s="42"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="73"/>
+      <c r="A100" s="121"/>
       <c r="B100" s="28">
-        <v>41677</v>
+        <v>41676</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
@@ -4089,28 +4117,30 @@
       <c r="J100" s="42"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="77">
+      <c r="A101" s="88"/>
+      <c r="B101" s="28">
+        <v>41677</v>
+      </c>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G101" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H101" s="42"/>
+      <c r="I101" s="42"/>
+      <c r="J101" s="42"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="91">
         <v>15</v>
       </c>
-      <c r="B101" s="27">
+      <c r="B102" s="27">
         <v>41680</v>
-      </c>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G101" s="41"/>
-      <c r="H101" s="41"/>
-      <c r="I101" s="41"/>
-      <c r="J101" s="41"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="78"/>
-      <c r="B102" s="27">
-        <v>41681</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
@@ -4125,9 +4155,9 @@
       <c r="J102" s="41"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="78"/>
+      <c r="A103" s="92"/>
       <c r="B103" s="27">
-        <v>41682</v>
+        <v>41681</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
@@ -4142,9 +4172,9 @@
       <c r="J103" s="41"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="78"/>
+      <c r="A104" s="92"/>
       <c r="B104" s="27">
-        <v>41683</v>
+        <v>41682</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
@@ -4159,15 +4189,15 @@
       <c r="J104" s="41"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="79"/>
+      <c r="A105" s="92"/>
       <c r="B105" s="27">
-        <v>41684</v>
+        <v>41683</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
       <c r="F105" s="5">
-        <f t="shared" ref="F105:F136" si="2">E105</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G105" s="41"/>
@@ -4176,28 +4206,28 @@
       <c r="J105" s="41"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="72">
+      <c r="A106" s="93"/>
+      <c r="B106" s="27">
+        <v>41684</v>
+      </c>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5">
+        <f t="shared" ref="F106:F137" si="2">E106</f>
+        <v>0</v>
+      </c>
+      <c r="G106" s="41"/>
+      <c r="H106" s="41"/>
+      <c r="I106" s="41"/>
+      <c r="J106" s="41"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="87">
         <v>16</v>
       </c>
-      <c r="B106" s="28">
+      <c r="B107" s="28">
         <v>41687</v>
-      </c>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G106" s="42"/>
-      <c r="H106" s="42"/>
-      <c r="I106" s="42"/>
-      <c r="J106" s="42"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="80"/>
-      <c r="B107" s="28">
-        <v>41688</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -4212,9 +4242,9 @@
       <c r="J107" s="42"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="80"/>
+      <c r="A108" s="121"/>
       <c r="B108" s="28">
-        <v>41689</v>
+        <v>41688</v>
       </c>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
@@ -4229,9 +4259,9 @@
       <c r="J108" s="42"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="80"/>
+      <c r="A109" s="121"/>
       <c r="B109" s="28">
-        <v>41690</v>
+        <v>41689</v>
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
@@ -4246,9 +4276,9 @@
       <c r="J109" s="42"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="73"/>
+      <c r="A110" s="121"/>
       <c r="B110" s="28">
-        <v>41691</v>
+        <v>41690</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
@@ -4263,28 +4293,28 @@
       <c r="J110" s="42"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="77">
+      <c r="A111" s="88"/>
+      <c r="B111" s="28">
+        <v>41691</v>
+      </c>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G111" s="42"/>
+      <c r="H111" s="42"/>
+      <c r="I111" s="42"/>
+      <c r="J111" s="42"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="91">
         <v>17</v>
       </c>
-      <c r="B111" s="27">
+      <c r="B112" s="27">
         <v>41694</v>
-      </c>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G111" s="41"/>
-      <c r="H111" s="41"/>
-      <c r="I111" s="41"/>
-      <c r="J111" s="41"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="78"/>
-      <c r="B112" s="27">
-        <v>41695</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
@@ -4299,9 +4329,9 @@
       <c r="J112" s="41"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="78"/>
+      <c r="A113" s="92"/>
       <c r="B113" s="27">
-        <v>41696</v>
+        <v>41695</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
@@ -4316,9 +4346,9 @@
       <c r="J113" s="41"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="78"/>
+      <c r="A114" s="92"/>
       <c r="B114" s="27">
-        <v>41697</v>
+        <v>41696</v>
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
@@ -4333,9 +4363,9 @@
       <c r="J114" s="41"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="79"/>
+      <c r="A115" s="92"/>
       <c r="B115" s="27">
-        <v>41698</v>
+        <v>41697</v>
       </c>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
@@ -4350,28 +4380,28 @@
       <c r="J115" s="41"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="72">
+      <c r="A116" s="93"/>
+      <c r="B116" s="27">
+        <v>41698</v>
+      </c>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G116" s="41"/>
+      <c r="H116" s="41"/>
+      <c r="I116" s="41"/>
+      <c r="J116" s="41"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="87">
         <v>18</v>
       </c>
-      <c r="B116" s="28">
+      <c r="B117" s="28">
         <v>41701</v>
-      </c>
-      <c r="C116" s="6"/>
-      <c r="D116" s="6"/>
-      <c r="E116" s="6"/>
-      <c r="F116" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G116" s="42"/>
-      <c r="H116" s="42"/>
-      <c r="I116" s="42"/>
-      <c r="J116" s="42"/>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="80"/>
-      <c r="B117" s="28">
-        <v>41702</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
@@ -4386,9 +4416,9 @@
       <c r="J117" s="42"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="80"/>
+      <c r="A118" s="121"/>
       <c r="B118" s="28">
-        <v>41703</v>
+        <v>41702</v>
       </c>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
@@ -4403,9 +4433,9 @@
       <c r="J118" s="42"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="80"/>
+      <c r="A119" s="121"/>
       <c r="B119" s="28">
-        <v>41704</v>
+        <v>41703</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
@@ -4420,9 +4450,9 @@
       <c r="J119" s="42"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="73"/>
+      <c r="A120" s="121"/>
       <c r="B120" s="28">
-        <v>41705</v>
+        <v>41704</v>
       </c>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
@@ -4437,28 +4467,28 @@
       <c r="J120" s="42"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="77">
+      <c r="A121" s="88"/>
+      <c r="B121" s="28">
+        <v>41705</v>
+      </c>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G121" s="42"/>
+      <c r="H121" s="42"/>
+      <c r="I121" s="42"/>
+      <c r="J121" s="42"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="91">
         <v>19</v>
       </c>
-      <c r="B121" s="27">
+      <c r="B122" s="27">
         <v>41708</v>
-      </c>
-      <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G121" s="41"/>
-      <c r="H121" s="41"/>
-      <c r="I121" s="41"/>
-      <c r="J121" s="41"/>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="78"/>
-      <c r="B122" s="27">
-        <v>41709</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
@@ -4473,9 +4503,9 @@
       <c r="J122" s="41"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="78"/>
+      <c r="A123" s="92"/>
       <c r="B123" s="27">
-        <v>41710</v>
+        <v>41709</v>
       </c>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
@@ -4490,9 +4520,9 @@
       <c r="J123" s="41"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="78"/>
+      <c r="A124" s="92"/>
       <c r="B124" s="27">
-        <v>41711</v>
+        <v>41710</v>
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
@@ -4507,9 +4537,9 @@
       <c r="J124" s="41"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="79"/>
+      <c r="A125" s="92"/>
       <c r="B125" s="27">
-        <v>41712</v>
+        <v>41711</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
@@ -4524,28 +4554,28 @@
       <c r="J125" s="41"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="72">
+      <c r="A126" s="93"/>
+      <c r="B126" s="27">
+        <v>41712</v>
+      </c>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G126" s="41"/>
+      <c r="H126" s="41"/>
+      <c r="I126" s="41"/>
+      <c r="J126" s="41"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="87">
         <v>20</v>
       </c>
-      <c r="B126" s="28">
+      <c r="B127" s="28">
         <v>41715</v>
-      </c>
-      <c r="C126" s="6"/>
-      <c r="D126" s="6"/>
-      <c r="E126" s="6"/>
-      <c r="F126" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G126" s="42"/>
-      <c r="H126" s="42"/>
-      <c r="I126" s="42"/>
-      <c r="J126" s="42"/>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="80"/>
-      <c r="B127" s="28">
-        <v>41716</v>
       </c>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
@@ -4560,9 +4590,9 @@
       <c r="J127" s="42"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="80"/>
+      <c r="A128" s="121"/>
       <c r="B128" s="28">
-        <v>41717</v>
+        <v>41716</v>
       </c>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
@@ -4577,9 +4607,9 @@
       <c r="J128" s="42"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="80"/>
+      <c r="A129" s="121"/>
       <c r="B129" s="28">
-        <v>41718</v>
+        <v>41717</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
@@ -4594,9 +4624,9 @@
       <c r="J129" s="42"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="73"/>
+      <c r="A130" s="121"/>
       <c r="B130" s="28">
-        <v>41719</v>
+        <v>41718</v>
       </c>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
@@ -4611,28 +4641,28 @@
       <c r="J130" s="42"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="77">
+      <c r="A131" s="88"/>
+      <c r="B131" s="28">
+        <v>41719</v>
+      </c>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G131" s="42"/>
+      <c r="H131" s="42"/>
+      <c r="I131" s="42"/>
+      <c r="J131" s="42"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="91">
         <v>21</v>
       </c>
-      <c r="B131" s="27">
+      <c r="B132" s="27">
         <v>41722</v>
-      </c>
-      <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
-      <c r="E131" s="5"/>
-      <c r="F131" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G131" s="41"/>
-      <c r="H131" s="41"/>
-      <c r="I131" s="41"/>
-      <c r="J131" s="41"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="78"/>
-      <c r="B132" s="27">
-        <v>41723</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
@@ -4647,9 +4677,9 @@
       <c r="J132" s="41"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="78"/>
+      <c r="A133" s="92"/>
       <c r="B133" s="27">
-        <v>41724</v>
+        <v>41723</v>
       </c>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
@@ -4664,9 +4694,9 @@
       <c r="J133" s="41"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="78"/>
+      <c r="A134" s="92"/>
       <c r="B134" s="27">
-        <v>41725</v>
+        <v>41724</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
@@ -4681,9 +4711,9 @@
       <c r="J134" s="41"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="79"/>
+      <c r="A135" s="92"/>
       <c r="B135" s="27">
-        <v>41726</v>
+        <v>41725</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
@@ -4698,34 +4728,34 @@
       <c r="J135" s="41"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="72">
+      <c r="A136" s="93"/>
+      <c r="B136" s="27">
+        <v>41726</v>
+      </c>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G136" s="41"/>
+      <c r="H136" s="41"/>
+      <c r="I136" s="41"/>
+      <c r="J136" s="41"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="87">
         <v>22</v>
       </c>
-      <c r="B136" s="28">
+      <c r="B137" s="28">
         <v>41729</v>
-      </c>
-      <c r="C136" s="6"/>
-      <c r="D136" s="6"/>
-      <c r="E136" s="6"/>
-      <c r="F136" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G136" s="42"/>
-      <c r="H136" s="42"/>
-      <c r="I136" s="42"/>
-      <c r="J136" s="42"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="80"/>
-      <c r="B137" s="28">
-        <v>41730</v>
       </c>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
       <c r="E137" s="6"/>
       <c r="F137" s="6">
-        <f t="shared" ref="F137:F168" si="3">E137</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G137" s="42"/>
@@ -4734,15 +4764,15 @@
       <c r="J137" s="42"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="80"/>
+      <c r="A138" s="121"/>
       <c r="B138" s="28">
-        <v>41731</v>
+        <v>41730</v>
       </c>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
       <c r="E138" s="6"/>
       <c r="F138" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F138:F169" si="3">E138</f>
         <v>0</v>
       </c>
       <c r="G138" s="42"/>
@@ -4751,9 +4781,9 @@
       <c r="J138" s="42"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="80"/>
+      <c r="A139" s="121"/>
       <c r="B139" s="28">
-        <v>41732</v>
+        <v>41731</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
@@ -4768,9 +4798,9 @@
       <c r="J139" s="42"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="73"/>
+      <c r="A140" s="121"/>
       <c r="B140" s="28">
-        <v>41733</v>
+        <v>41732</v>
       </c>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
@@ -4785,28 +4815,28 @@
       <c r="J140" s="42"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="77">
+      <c r="A141" s="88"/>
+      <c r="B141" s="28">
+        <v>41733</v>
+      </c>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+      <c r="F141" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G141" s="42"/>
+      <c r="H141" s="42"/>
+      <c r="I141" s="42"/>
+      <c r="J141" s="42"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="91">
         <v>23</v>
       </c>
-      <c r="B141" s="27">
+      <c r="B142" s="27">
         <v>41736</v>
-      </c>
-      <c r="C141" s="5"/>
-      <c r="D141" s="5"/>
-      <c r="E141" s="5"/>
-      <c r="F141" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G141" s="41"/>
-      <c r="H141" s="41"/>
-      <c r="I141" s="41"/>
-      <c r="J141" s="41"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="78"/>
-      <c r="B142" s="27">
-        <v>41737</v>
       </c>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
@@ -4821,9 +4851,9 @@
       <c r="J142" s="41"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="78"/>
+      <c r="A143" s="92"/>
       <c r="B143" s="27">
-        <v>41738</v>
+        <v>41737</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
@@ -4838,9 +4868,9 @@
       <c r="J143" s="41"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="78"/>
+      <c r="A144" s="92"/>
       <c r="B144" s="27">
-        <v>41739</v>
+        <v>41738</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
@@ -4855,9 +4885,9 @@
       <c r="J144" s="41"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="79"/>
+      <c r="A145" s="92"/>
       <c r="B145" s="27">
-        <v>41740</v>
+        <v>41739</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
@@ -4872,28 +4902,28 @@
       <c r="J145" s="41"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="72">
+      <c r="A146" s="93"/>
+      <c r="B146" s="27">
+        <v>41740</v>
+      </c>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G146" s="41"/>
+      <c r="H146" s="41"/>
+      <c r="I146" s="41"/>
+      <c r="J146" s="41"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="87">
         <v>24</v>
       </c>
-      <c r="B146" s="28">
+      <c r="B147" s="28">
         <v>41743</v>
-      </c>
-      <c r="C146" s="6"/>
-      <c r="D146" s="6"/>
-      <c r="E146" s="6"/>
-      <c r="F146" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G146" s="42"/>
-      <c r="H146" s="42"/>
-      <c r="I146" s="42"/>
-      <c r="J146" s="42"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="80"/>
-      <c r="B147" s="28">
-        <v>41744</v>
       </c>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
@@ -4908,9 +4938,9 @@
       <c r="J147" s="42"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="80"/>
+      <c r="A148" s="121"/>
       <c r="B148" s="28">
-        <v>41745</v>
+        <v>41744</v>
       </c>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
@@ -4925,9 +4955,9 @@
       <c r="J148" s="42"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="80"/>
+      <c r="A149" s="121"/>
       <c r="B149" s="28">
-        <v>41746</v>
+        <v>41745</v>
       </c>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
@@ -4942,9 +4972,9 @@
       <c r="J149" s="42"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="73"/>
+      <c r="A150" s="121"/>
       <c r="B150" s="28">
-        <v>41747</v>
+        <v>41746</v>
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
@@ -4959,28 +4989,28 @@
       <c r="J150" s="42"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="77">
+      <c r="A151" s="88"/>
+      <c r="B151" s="28">
+        <v>41747</v>
+      </c>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+      <c r="F151" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G151" s="42"/>
+      <c r="H151" s="42"/>
+      <c r="I151" s="42"/>
+      <c r="J151" s="42"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" s="91">
         <v>25</v>
       </c>
-      <c r="B151" s="27">
+      <c r="B152" s="27">
         <v>41750</v>
-      </c>
-      <c r="C151" s="5"/>
-      <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
-      <c r="F151" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G151" s="41"/>
-      <c r="H151" s="41"/>
-      <c r="I151" s="41"/>
-      <c r="J151" s="41"/>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="78"/>
-      <c r="B152" s="27">
-        <v>41751</v>
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
@@ -4995,9 +5025,9 @@
       <c r="J152" s="41"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="78"/>
+      <c r="A153" s="92"/>
       <c r="B153" s="27">
-        <v>41752</v>
+        <v>41751</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
@@ -5012,9 +5042,9 @@
       <c r="J153" s="41"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="78"/>
+      <c r="A154" s="92"/>
       <c r="B154" s="27">
-        <v>41753</v>
+        <v>41752</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
@@ -5029,9 +5059,9 @@
       <c r="J154" s="41"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="79"/>
+      <c r="A155" s="92"/>
       <c r="B155" s="27">
-        <v>41754</v>
+        <v>41753</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
@@ -5046,28 +5076,28 @@
       <c r="J155" s="41"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="72">
+      <c r="A156" s="93"/>
+      <c r="B156" s="27">
+        <v>41754</v>
+      </c>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G156" s="41"/>
+      <c r="H156" s="41"/>
+      <c r="I156" s="41"/>
+      <c r="J156" s="41"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" s="87">
         <v>26</v>
       </c>
-      <c r="B156" s="28">
+      <c r="B157" s="28">
         <v>41757</v>
-      </c>
-      <c r="C156" s="6"/>
-      <c r="D156" s="6"/>
-      <c r="E156" s="6"/>
-      <c r="F156" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G156" s="42"/>
-      <c r="H156" s="42"/>
-      <c r="I156" s="42"/>
-      <c r="J156" s="42"/>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="80"/>
-      <c r="B157" s="28">
-        <v>41758</v>
       </c>
       <c r="C157" s="6"/>
       <c r="D157" s="6"/>
@@ -5082,9 +5112,9 @@
       <c r="J157" s="42"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="80"/>
+      <c r="A158" s="121"/>
       <c r="B158" s="28">
-        <v>41759</v>
+        <v>41758</v>
       </c>
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
@@ -5099,9 +5129,9 @@
       <c r="J158" s="42"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="80"/>
+      <c r="A159" s="121"/>
       <c r="B159" s="28">
-        <v>41760</v>
+        <v>41759</v>
       </c>
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
@@ -5116,9 +5146,9 @@
       <c r="J159" s="42"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="73"/>
+      <c r="A160" s="121"/>
       <c r="B160" s="28">
-        <v>41761</v>
+        <v>41760</v>
       </c>
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
@@ -5133,28 +5163,28 @@
       <c r="J160" s="42"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="77">
+      <c r="A161" s="88"/>
+      <c r="B161" s="28">
+        <v>41761</v>
+      </c>
+      <c r="C161" s="6"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="6"/>
+      <c r="F161" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G161" s="42"/>
+      <c r="H161" s="42"/>
+      <c r="I161" s="42"/>
+      <c r="J161" s="42"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="91">
         <v>27</v>
       </c>
-      <c r="B161" s="27">
+      <c r="B162" s="27">
         <v>41764</v>
-      </c>
-      <c r="C161" s="5"/>
-      <c r="D161" s="5"/>
-      <c r="E161" s="5"/>
-      <c r="F161" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G161" s="41"/>
-      <c r="H161" s="41"/>
-      <c r="I161" s="41"/>
-      <c r="J161" s="41"/>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="78"/>
-      <c r="B162" s="27">
-        <v>41765</v>
       </c>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
@@ -5169,9 +5199,9 @@
       <c r="J162" s="41"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="78"/>
+      <c r="A163" s="92"/>
       <c r="B163" s="27">
-        <v>41766</v>
+        <v>41765</v>
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
@@ -5186,9 +5216,9 @@
       <c r="J163" s="41"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="78"/>
+      <c r="A164" s="92"/>
       <c r="B164" s="27">
-        <v>41767</v>
+        <v>41766</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
@@ -5203,9 +5233,9 @@
       <c r="J164" s="41"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="79"/>
+      <c r="A165" s="92"/>
       <c r="B165" s="27">
-        <v>41768</v>
+        <v>41767</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
@@ -5220,28 +5250,28 @@
       <c r="J165" s="41"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="72">
+      <c r="A166" s="93"/>
+      <c r="B166" s="27">
+        <v>41768</v>
+      </c>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G166" s="41"/>
+      <c r="H166" s="41"/>
+      <c r="I166" s="41"/>
+      <c r="J166" s="41"/>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" s="87">
         <v>28</v>
       </c>
-      <c r="B166" s="28">
+      <c r="B167" s="28">
         <v>41771</v>
-      </c>
-      <c r="C166" s="6"/>
-      <c r="D166" s="6"/>
-      <c r="E166" s="6"/>
-      <c r="F166" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G166" s="42"/>
-      <c r="H166" s="42"/>
-      <c r="I166" s="42"/>
-      <c r="J166" s="42"/>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="80"/>
-      <c r="B167" s="28">
-        <v>41772</v>
       </c>
       <c r="C167" s="6"/>
       <c r="D167" s="6"/>
@@ -5256,9 +5286,9 @@
       <c r="J167" s="42"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="80"/>
+      <c r="A168" s="121"/>
       <c r="B168" s="28">
-        <v>41773</v>
+        <v>41772</v>
       </c>
       <c r="C168" s="6"/>
       <c r="D168" s="6"/>
@@ -5273,15 +5303,15 @@
       <c r="J168" s="42"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="80"/>
+      <c r="A169" s="121"/>
       <c r="B169" s="28">
-        <v>41774</v>
+        <v>41773</v>
       </c>
       <c r="C169" s="6"/>
       <c r="D169" s="6"/>
       <c r="E169" s="6"/>
       <c r="F169" s="6">
-        <f t="shared" ref="F169:F180" si="4">E169</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G169" s="42"/>
@@ -5290,15 +5320,15 @@
       <c r="J169" s="42"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="73"/>
+      <c r="A170" s="121"/>
       <c r="B170" s="28">
-        <v>41775</v>
+        <v>41774</v>
       </c>
       <c r="C170" s="6"/>
       <c r="D170" s="6"/>
       <c r="E170" s="6"/>
       <c r="F170" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F170:F181" si="4">E170</f>
         <v>0</v>
       </c>
       <c r="G170" s="42"/>
@@ -5307,28 +5337,28 @@
       <c r="J170" s="42"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="77">
+      <c r="A171" s="88"/>
+      <c r="B171" s="28">
+        <v>41775</v>
+      </c>
+      <c r="C171" s="6"/>
+      <c r="D171" s="6"/>
+      <c r="E171" s="6"/>
+      <c r="F171" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G171" s="42"/>
+      <c r="H171" s="42"/>
+      <c r="I171" s="42"/>
+      <c r="J171" s="42"/>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" s="91">
         <v>29</v>
       </c>
-      <c r="B171" s="27">
+      <c r="B172" s="27">
         <v>41778</v>
-      </c>
-      <c r="C171" s="5"/>
-      <c r="D171" s="5"/>
-      <c r="E171" s="5"/>
-      <c r="F171" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G171" s="41"/>
-      <c r="H171" s="41"/>
-      <c r="I171" s="41"/>
-      <c r="J171" s="41"/>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="78"/>
-      <c r="B172" s="27">
-        <v>41779</v>
       </c>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
@@ -5343,9 +5373,9 @@
       <c r="J172" s="41"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A173" s="78"/>
+      <c r="A173" s="92"/>
       <c r="B173" s="27">
-        <v>41780</v>
+        <v>41779</v>
       </c>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
@@ -5360,9 +5390,9 @@
       <c r="J173" s="41"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A174" s="78"/>
+      <c r="A174" s="92"/>
       <c r="B174" s="27">
-        <v>41781</v>
+        <v>41780</v>
       </c>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
@@ -5377,9 +5407,9 @@
       <c r="J174" s="41"/>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A175" s="79"/>
+      <c r="A175" s="92"/>
       <c r="B175" s="27">
-        <v>41782</v>
+        <v>41781</v>
       </c>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
@@ -5394,28 +5424,28 @@
       <c r="J175" s="41"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A176" s="81">
+      <c r="A176" s="93"/>
+      <c r="B176" s="27">
+        <v>41782</v>
+      </c>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5"/>
+      <c r="F176" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G176" s="41"/>
+      <c r="H176" s="41"/>
+      <c r="I176" s="41"/>
+      <c r="J176" s="41"/>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" s="127">
         <v>30</v>
       </c>
-      <c r="B176" s="28">
+      <c r="B177" s="28">
         <v>41785</v>
-      </c>
-      <c r="C176" s="2"/>
-      <c r="D176" s="2"/>
-      <c r="E176" s="2"/>
-      <c r="F176" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G176" s="43"/>
-      <c r="H176" s="43"/>
-      <c r="I176" s="43"/>
-      <c r="J176" s="43"/>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A177" s="82"/>
-      <c r="B177" s="28">
-        <v>41786</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
@@ -5430,9 +5460,9 @@
       <c r="J177" s="43"/>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A178" s="82"/>
+      <c r="A178" s="128"/>
       <c r="B178" s="28">
-        <v>41787</v>
+        <v>41786</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
@@ -5447,9 +5477,9 @@
       <c r="J178" s="43"/>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A179" s="82"/>
+      <c r="A179" s="128"/>
       <c r="B179" s="28">
-        <v>41788</v>
+        <v>41787</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
@@ -5464,9 +5494,9 @@
       <c r="J179" s="43"/>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A180" s="83"/>
+      <c r="A180" s="128"/>
       <c r="B180" s="28">
-        <v>41789</v>
+        <v>41788</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
@@ -5480,8 +5510,79 @@
       <c r="I180" s="43"/>
       <c r="J180" s="43"/>
     </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" s="129"/>
+      <c r="B181" s="28">
+        <v>41789</v>
+      </c>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
+      <c r="F181" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G181" s="43"/>
+      <c r="H181" s="43"/>
+      <c r="I181" s="43"/>
+      <c r="J181" s="43"/>
+    </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="F47:F52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="A44:A56"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="A132:A136"/>
+    <mergeCell ref="A162:A166"/>
+    <mergeCell ref="A167:A171"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="A112:A116"/>
+    <mergeCell ref="A117:A121"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="A127:A131"/>
+    <mergeCell ref="A172:A176"/>
+    <mergeCell ref="A177:A181"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="A142:A146"/>
+    <mergeCell ref="A147:A151"/>
+    <mergeCell ref="A152:A156"/>
+    <mergeCell ref="A157:A161"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A92:A96"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F25:F30"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A10:A18"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="G2:N4"/>
     <mergeCell ref="A7:A9"/>
@@ -5498,60 +5599,6 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A10:A18"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="A96:A100"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F25:F30"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A76:A80"/>
-    <mergeCell ref="A171:A175"/>
-    <mergeCell ref="A176:A180"/>
-    <mergeCell ref="A136:A140"/>
-    <mergeCell ref="A141:A145"/>
-    <mergeCell ref="A146:A150"/>
-    <mergeCell ref="A151:A155"/>
-    <mergeCell ref="A156:A160"/>
-    <mergeCell ref="A131:A135"/>
-    <mergeCell ref="A161:A165"/>
-    <mergeCell ref="A166:A170"/>
-    <mergeCell ref="A106:A110"/>
-    <mergeCell ref="A111:A115"/>
-    <mergeCell ref="A116:A120"/>
-    <mergeCell ref="A121:A125"/>
-    <mergeCell ref="A126:A130"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="A44:A55"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="A66:A70"/>
-    <mergeCell ref="A71:A75"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="A61:A65"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="A101:A105"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="F47:F51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="F52:F53"/>
   </mergeCells>
   <conditionalFormatting sqref="M7">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
@@ -5859,7 +5906,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M47:M51</xm:sqref>
+          <xm:sqref>M47:M52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="20" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
@@ -5878,29 +5925,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M52:M53</xm:sqref>
+          <xm:sqref>M53:M54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="19" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M54</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5919,7 +5947,7 @@
           <xm:sqref>M55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="17" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
+          <x14:cfRule type="iconSet" priority="18" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5938,7 +5966,7 @@
           <xm:sqref>M56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="16" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
+          <x14:cfRule type="iconSet" priority="17" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5957,7 +5985,7 @@
           <xm:sqref>M57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="15" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
+          <x14:cfRule type="iconSet" priority="16" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5976,7 +6004,7 @@
           <xm:sqref>M58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
+          <x14:cfRule type="iconSet" priority="15" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5995,7 +6023,7 @@
           <xm:sqref>M59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
+          <x14:cfRule type="iconSet" priority="14" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6014,7 +6042,7 @@
           <xm:sqref>M60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+          <x14:cfRule type="iconSet" priority="13" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6033,7 +6061,7 @@
           <xm:sqref>M61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="11" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+          <x14:cfRule type="iconSet" priority="12" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6052,7 +6080,7 @@
           <xm:sqref>M62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="10" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+          <x14:cfRule type="iconSet" priority="11" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6069,6 +6097,25 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>M63</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="10" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="9" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
@@ -6125,7 +6172,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F19 F7:F8 F12:F14 F16 F21 F25 F23 F35 F37 F39:F42 F44 F47 F52 F54:F180</xm:sqref>
+          <xm:sqref>F19 F7:F8 F12:F14 F16 F21 F25 F23 F35 F37 F39:F42 F44 F47 F53 F55:F181</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNgo.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNgo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NC\Desktop\Admission project\1. Project management\9. Timelog\individual time log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\capstone\1. Project management\9. Timelog\individual time log\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="119">
   <si>
     <t>Week</t>
   </si>
@@ -304,9 +304,6 @@
   </si>
   <si>
     <t>- update timelog</t>
-  </si>
-  <si>
-    <t>prepare</t>
   </si>
   <si>
     <t>team meeting</t>
@@ -430,7 +427,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -438,14 +435,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -458,7 +455,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -471,20 +468,20 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -497,7 +494,7 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -510,12 +507,12 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -549,12 +546,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,7 +731,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -920,8 +911,110 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="18" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -968,48 +1061,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1037,73 +1091,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1430,13 +1418,13 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>28</v>
       </c>
@@ -1444,7 +1432,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -1452,7 +1440,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -1460,7 +1448,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -1468,7 +1456,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -1476,7 +1464,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -1484,7 +1472,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -1492,7 +1480,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>7</v>
       </c>
@@ -1500,7 +1488,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -1508,7 +1496,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>9</v>
       </c>
@@ -1516,7 +1504,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -1524,7 +1512,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>11</v>
       </c>
@@ -1542,106 +1530,106 @@
   <dimension ref="A1:O181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H50" sqref="H50"/>
+      <selection pane="bottomRight" activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="50.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="50.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="1" customWidth="1"/>
-    <col min="11" max="11" width="27.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.28515625" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="14" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="70"/>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="72"/>
+      <c r="A1" s="104"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="106"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="73" t="s">
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="75"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="109"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="78"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="112"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="105"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="81"/>
+      <c r="A4" s="126"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="115"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="114"/>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="116"/>
+      <c r="A5" s="98"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="100"/>
       <c r="F5" s="16"/>
       <c r="H5" s="45" t="s">
         <v>66</v>
@@ -1655,7 +1643,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>0</v>
       </c>
@@ -1686,13 +1674,13 @@
       <c r="J6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
     </row>
     <row r="7" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="82">
+      <c r="A7" s="116">
         <v>1</v>
       </c>
       <c r="B7" s="17">
@@ -1719,10 +1707,10 @@
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="31"/>
-      <c r="K7" s="120" t="s">
+      <c r="K7" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="120"/>
+      <c r="L7" s="83"/>
       <c r="M7" s="34">
         <f>SUM(M8:M64)</f>
         <v>47.303000000000004</v>
@@ -1731,9 +1719,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="83"/>
-      <c r="B8" s="108">
+    <row r="8" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="117"/>
+      <c r="B8" s="94">
         <v>41586</v>
       </c>
       <c r="C8" s="18">
@@ -1745,7 +1733,7 @@
       <c r="E8" s="19">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F8" s="110">
+      <c r="F8" s="96">
         <f>SUM(E8:E9)</f>
         <v>1.66</v>
       </c>
@@ -1770,8 +1758,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
-      <c r="B9" s="109"/>
+      <c r="A9" s="118"/>
+      <c r="B9" s="95"/>
       <c r="C9" s="18">
         <v>0.63194444444444442</v>
       </c>
@@ -1781,7 +1769,7 @@
       <c r="E9" s="19">
         <v>0.5</v>
       </c>
-      <c r="F9" s="111"/>
+      <c r="F9" s="97"/>
       <c r="G9" s="31" t="s">
         <v>25</v>
       </c>
@@ -1792,10 +1780,10 @@
       <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="117">
+      <c r="A10" s="101">
         <v>2</v>
       </c>
-      <c r="B10" s="97">
+      <c r="B10" s="86">
         <v>41589</v>
       </c>
       <c r="C10" s="55">
@@ -1807,7 +1795,7 @@
       <c r="E10" s="56">
         <v>1.5</v>
       </c>
-      <c r="F10" s="124">
+      <c r="F10" s="90">
         <f>SUM(E10:E11)</f>
         <v>2.5</v>
       </c>
@@ -1821,8 +1809,8 @@
       <c r="J10" s="57"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="118"/>
-      <c r="B11" s="98"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="87"/>
       <c r="C11" s="55">
         <v>0.875</v>
       </c>
@@ -1832,7 +1820,7 @@
       <c r="E11" s="56">
         <v>1</v>
       </c>
-      <c r="F11" s="125"/>
+      <c r="F11" s="91"/>
       <c r="G11" s="57" t="s">
         <v>30</v>
       </c>
@@ -1843,8 +1831,8 @@
       <c r="J11" s="57"/>
     </row>
     <row r="12" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A12" s="118"/>
-      <c r="B12" s="97">
+      <c r="A12" s="102"/>
+      <c r="B12" s="86">
         <v>41590</v>
       </c>
       <c r="C12" s="23">
@@ -1884,8 +1872,8 @@
       <c r="O12" s="36"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="118"/>
-      <c r="B13" s="98"/>
+      <c r="A13" s="102"/>
+      <c r="B13" s="87"/>
       <c r="C13" s="23">
         <v>0.875</v>
       </c>
@@ -1914,8 +1902,8 @@
       <c r="O13" s="36"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="118"/>
-      <c r="B14" s="97">
+      <c r="A14" s="102"/>
+      <c r="B14" s="86">
         <v>41592</v>
       </c>
       <c r="C14" s="26">
@@ -1927,7 +1915,7 @@
       <c r="E14" s="29">
         <v>1.25</v>
       </c>
-      <c r="F14" s="112">
+      <c r="F14" s="84">
         <f>SUM(E14:E15)</f>
         <v>3.25</v>
       </c>
@@ -1954,8 +1942,8 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="118"/>
-      <c r="B15" s="98"/>
+      <c r="A15" s="102"/>
+      <c r="B15" s="87"/>
       <c r="C15" s="26">
         <v>0.42708333333333331</v>
       </c>
@@ -1965,7 +1953,7 @@
       <c r="E15" s="29">
         <v>2</v>
       </c>
-      <c r="F15" s="113"/>
+      <c r="F15" s="85"/>
       <c r="G15" s="48" t="s">
         <v>30</v>
       </c>
@@ -1980,7 +1968,7 @@
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="118"/>
+      <c r="A16" s="102"/>
       <c r="B16" s="46">
         <v>41593</v>
       </c>
@@ -2020,8 +2008,8 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="118"/>
-      <c r="B17" s="97">
+      <c r="A17" s="102"/>
+      <c r="B17" s="86">
         <v>41594</v>
       </c>
       <c r="C17" s="26">
@@ -2033,7 +2021,7 @@
       <c r="E17" s="29">
         <v>2</v>
       </c>
-      <c r="F17" s="112">
+      <c r="F17" s="84">
         <f>SUM(E17:E18)</f>
         <v>3</v>
       </c>
@@ -2060,8 +2048,8 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="119"/>
-      <c r="B18" s="98"/>
+      <c r="A18" s="103"/>
+      <c r="B18" s="87"/>
       <c r="C18" s="26">
         <v>0.83333333333333337</v>
       </c>
@@ -2071,7 +2059,7 @@
       <c r="E18" s="29">
         <v>1</v>
       </c>
-      <c r="F18" s="113"/>
+      <c r="F18" s="85"/>
       <c r="G18" s="30" t="s">
         <v>24</v>
       </c>
@@ -2088,10 +2076,10 @@
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="91">
+      <c r="A19" s="76">
         <v>3</v>
       </c>
-      <c r="B19" s="89">
+      <c r="B19" s="73">
         <v>41596</v>
       </c>
       <c r="C19" s="53">
@@ -2103,7 +2091,7 @@
       <c r="E19" s="5">
         <v>0.6</v>
       </c>
-      <c r="F19" s="91">
+      <c r="F19" s="76">
         <f>SUM(E19:E20)</f>
         <v>1.18</v>
       </c>
@@ -2130,8 +2118,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="92"/>
-      <c r="B20" s="90"/>
+      <c r="A20" s="77"/>
+      <c r="B20" s="75"/>
       <c r="C20" s="53">
         <v>0.89236111111111116</v>
       </c>
@@ -2141,7 +2129,7 @@
       <c r="E20" s="5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F20" s="93"/>
+      <c r="F20" s="78"/>
       <c r="G20" s="41" t="s">
         <v>30</v>
       </c>
@@ -2156,8 +2144,8 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A21" s="92"/>
-      <c r="B21" s="122">
+      <c r="A21" s="77"/>
+      <c r="B21" s="88">
         <v>41597</v>
       </c>
       <c r="C21" s="53">
@@ -2169,7 +2157,7 @@
       <c r="E21" s="52">
         <v>1</v>
       </c>
-      <c r="F21" s="91">
+      <c r="F21" s="76">
         <f>SUM(E21:E22)</f>
         <v>3</v>
       </c>
@@ -2194,8 +2182,8 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="92"/>
-      <c r="B22" s="123"/>
+      <c r="A22" s="77"/>
+      <c r="B22" s="89"/>
       <c r="C22" s="53">
         <v>0.91666666666666663</v>
       </c>
@@ -2205,7 +2193,7 @@
       <c r="E22" s="52">
         <v>2</v>
       </c>
-      <c r="F22" s="93"/>
+      <c r="F22" s="78"/>
       <c r="G22" s="41" t="s">
         <v>24</v>
       </c>
@@ -2222,8 +2210,8 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="92"/>
-      <c r="B23" s="89">
+      <c r="A23" s="77"/>
+      <c r="B23" s="73">
         <v>41598</v>
       </c>
       <c r="C23" s="53">
@@ -2235,7 +2223,7 @@
       <c r="E23" s="5">
         <v>1</v>
       </c>
-      <c r="F23" s="95">
+      <c r="F23" s="92">
         <f>SUM(E23:E24)</f>
         <v>3</v>
       </c>
@@ -2260,8 +2248,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="92"/>
-      <c r="B24" s="90"/>
+      <c r="A24" s="77"/>
+      <c r="B24" s="75"/>
       <c r="C24" s="53">
         <v>0.91666666666666663</v>
       </c>
@@ -2271,7 +2259,7 @@
       <c r="E24" s="5">
         <v>2</v>
       </c>
-      <c r="F24" s="96"/>
+      <c r="F24" s="93"/>
       <c r="G24" s="41" t="s">
         <v>24</v>
       </c>
@@ -2293,8 +2281,8 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="92"/>
-      <c r="B25" s="89">
+      <c r="A25" s="77"/>
+      <c r="B25" s="73">
         <v>41599</v>
       </c>
       <c r="C25" s="53">
@@ -2306,12 +2294,12 @@
       <c r="E25" s="5">
         <v>1</v>
       </c>
-      <c r="F25" s="91">
+      <c r="F25" s="76">
         <f>SUM(E25:E30)</f>
-        <v>10.35</v>
+        <v>10.41</v>
       </c>
       <c r="G25" s="41" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H25" s="62"/>
       <c r="I25" s="41"/>
@@ -2322,8 +2310,8 @@
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="92"/>
-      <c r="B26" s="126"/>
+      <c r="A26" s="77"/>
+      <c r="B26" s="74"/>
       <c r="C26" s="53">
         <v>0.375</v>
       </c>
@@ -2331,14 +2319,14 @@
         <v>0.4236111111111111</v>
       </c>
       <c r="E26" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F26" s="92"/>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F26" s="77"/>
       <c r="G26" s="54" t="s">
         <v>25</v>
       </c>
       <c r="H26" s="62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I26" s="41"/>
       <c r="J26" s="41"/>
@@ -2348,8 +2336,8 @@
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="92"/>
-      <c r="B27" s="126"/>
+      <c r="A27" s="77"/>
+      <c r="B27" s="74"/>
       <c r="C27" s="53">
         <v>0.4236111111111111</v>
       </c>
@@ -2359,9 +2347,9 @@
       <c r="E27" s="5">
         <v>1.5</v>
       </c>
-      <c r="F27" s="92"/>
+      <c r="F27" s="77"/>
       <c r="G27" s="41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H27" s="62"/>
       <c r="I27" s="41"/>
@@ -2372,8 +2360,8 @@
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="92"/>
-      <c r="B28" s="126"/>
+      <c r="A28" s="77"/>
+      <c r="B28" s="74"/>
       <c r="C28" s="53">
         <v>0.52083333333333337</v>
       </c>
@@ -2383,12 +2371,12 @@
       <c r="E28" s="5">
         <v>2</v>
       </c>
-      <c r="F28" s="92"/>
+      <c r="F28" s="77"/>
       <c r="G28" s="41" t="s">
         <v>83</v>
       </c>
       <c r="H28" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I28" s="41"/>
       <c r="J28" s="41"/>
@@ -2398,8 +2386,8 @@
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="92"/>
-      <c r="B29" s="126"/>
+      <c r="A29" s="77"/>
+      <c r="B29" s="74"/>
       <c r="C29" s="53">
         <v>0.625</v>
       </c>
@@ -2409,9 +2397,9 @@
       <c r="E29" s="5">
         <v>2.1</v>
       </c>
-      <c r="F29" s="92"/>
+      <c r="F29" s="77"/>
       <c r="G29" s="41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H29" s="62"/>
       <c r="I29" s="41"/>
@@ -2422,8 +2410,8 @@
       <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="92"/>
-      <c r="B30" s="90"/>
+      <c r="A30" s="77"/>
+      <c r="B30" s="75"/>
       <c r="C30" s="53">
         <v>0.84375</v>
       </c>
@@ -2433,12 +2421,12 @@
       <c r="E30" s="5">
         <v>2.65</v>
       </c>
-      <c r="F30" s="93"/>
+      <c r="F30" s="78"/>
       <c r="G30" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H30" s="62" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I30" s="41"/>
       <c r="J30" s="41"/>
@@ -2448,8 +2436,8 @@
       <c r="N30" s="3"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="92"/>
-      <c r="B31" s="89">
+      <c r="A31" s="77"/>
+      <c r="B31" s="73">
         <v>41600</v>
       </c>
       <c r="C31" s="53">
@@ -2461,15 +2449,15 @@
       <c r="E31" s="5">
         <v>1.25</v>
       </c>
-      <c r="F31" s="95">
+      <c r="F31" s="92">
         <f>SUM(E31:E32)</f>
         <v>2.75</v>
       </c>
       <c r="G31" s="41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H31" s="62" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I31" s="41"/>
       <c r="J31" s="41"/>
@@ -2479,8 +2467,8 @@
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="93"/>
-      <c r="B32" s="90"/>
+      <c r="A32" s="78"/>
+      <c r="B32" s="75"/>
       <c r="C32" s="53">
         <v>0.625</v>
       </c>
@@ -2490,12 +2478,12 @@
       <c r="E32" s="5">
         <v>1.5</v>
       </c>
-      <c r="F32" s="96"/>
+      <c r="F32" s="93"/>
       <c r="G32" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H32" s="62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I32" s="41"/>
       <c r="J32" s="41"/>
@@ -2506,7 +2494,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="63"/>
-      <c r="B33" s="89">
+      <c r="B33" s="73">
         <v>41601</v>
       </c>
       <c r="C33" s="53">
@@ -2518,15 +2506,15 @@
       <c r="E33" s="5">
         <v>0.25</v>
       </c>
-      <c r="F33" s="95">
+      <c r="F33" s="92">
         <f>SUM(E33:E34)</f>
         <v>1.5</v>
       </c>
       <c r="G33" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="H33" s="62" t="s">
         <v>89</v>
-      </c>
-      <c r="H33" s="62" t="s">
-        <v>90</v>
       </c>
       <c r="I33" s="41"/>
       <c r="J33" s="41"/>
@@ -2537,7 +2525,7 @@
     </row>
     <row r="34" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="64"/>
-      <c r="B34" s="90"/>
+      <c r="B34" s="75"/>
       <c r="C34" s="53">
         <v>0.57291666666666663</v>
       </c>
@@ -2547,15 +2535,15 @@
       <c r="E34" s="5">
         <v>1.25</v>
       </c>
-      <c r="F34" s="96"/>
+      <c r="F34" s="93"/>
       <c r="G34" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H34" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="I34" s="54" t="s">
         <v>91</v>
-      </c>
-      <c r="I34" s="54" t="s">
-        <v>92</v>
       </c>
       <c r="J34" s="41"/>
       <c r="K34" s="8"/>
@@ -2564,10 +2552,10 @@
       <c r="N34" s="3"/>
     </row>
     <row r="35" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A35" s="87">
+      <c r="A35" s="71">
         <v>4</v>
       </c>
-      <c r="B35" s="85">
+      <c r="B35" s="69">
         <v>41603</v>
       </c>
       <c r="C35" s="65">
@@ -2579,15 +2567,15 @@
       <c r="E35" s="6">
         <v>1.25</v>
       </c>
-      <c r="F35" s="87">
+      <c r="F35" s="71">
         <f>SUM(E35:E36)</f>
         <v>3.25</v>
       </c>
       <c r="G35" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H35" s="66" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I35" s="42"/>
       <c r="J35" s="42"/>
@@ -2604,8 +2592,8 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="121"/>
-      <c r="B36" s="86"/>
+      <c r="A36" s="79"/>
+      <c r="B36" s="70"/>
       <c r="C36" s="65">
         <v>0.91666666666666663</v>
       </c>
@@ -2615,12 +2603,12 @@
       <c r="E36" s="6">
         <v>2</v>
       </c>
-      <c r="F36" s="88"/>
+      <c r="F36" s="72"/>
       <c r="G36" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="H36" s="66" t="s">
         <v>97</v>
-      </c>
-      <c r="H36" s="66" t="s">
-        <v>98</v>
       </c>
       <c r="I36" s="42"/>
       <c r="J36" s="42"/>
@@ -2630,8 +2618,8 @@
       <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="121"/>
-      <c r="B37" s="85">
+      <c r="A37" s="79"/>
+      <c r="B37" s="69">
         <v>41604</v>
       </c>
       <c r="C37" s="65">
@@ -2643,7 +2631,7 @@
       <c r="E37" s="6">
         <v>2.5</v>
       </c>
-      <c r="F37" s="87">
+      <c r="F37" s="71">
         <f>SUM(E37:E38)</f>
         <v>3.5</v>
       </c>
@@ -2651,7 +2639,7 @@
         <v>25</v>
       </c>
       <c r="H37" s="66" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I37" s="42"/>
       <c r="J37" s="42"/>
@@ -2668,8 +2656,8 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="121"/>
-      <c r="B38" s="86"/>
+      <c r="A38" s="79"/>
+      <c r="B38" s="70"/>
       <c r="C38" s="65">
         <v>0.5625</v>
       </c>
@@ -2679,12 +2667,12 @@
       <c r="E38" s="6">
         <v>1</v>
       </c>
-      <c r="F38" s="88"/>
+      <c r="F38" s="72"/>
       <c r="G38" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H38" s="66" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I38" s="42"/>
       <c r="J38" s="42"/>
@@ -2694,7 +2682,7 @@
       <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="121"/>
+      <c r="A39" s="79"/>
       <c r="B39" s="28">
         <v>41605</v>
       </c>
@@ -2712,10 +2700,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="G39" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H39" s="42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I39" s="42"/>
       <c r="J39" s="42"/>
@@ -2732,7 +2720,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="121"/>
+      <c r="A40" s="79"/>
       <c r="B40" s="28">
         <v>41606</v>
       </c>
@@ -2750,10 +2738,10 @@
         <v>2.75</v>
       </c>
       <c r="G40" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H40" s="42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I40" s="42"/>
       <c r="J40" s="42"/>
@@ -2770,7 +2758,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="88"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="28">
         <v>41607</v>
       </c>
@@ -2788,10 +2776,10 @@
         <v>3.5</v>
       </c>
       <c r="G41" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H41" s="42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I41" s="42"/>
       <c r="J41" s="42"/>
@@ -2807,9 +2795,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="67"/>
-      <c r="B42" s="85">
+      <c r="B42" s="69">
         <v>41608</v>
       </c>
       <c r="C42" s="65">
@@ -2821,15 +2809,15 @@
       <c r="E42" s="6">
         <v>1.5</v>
       </c>
-      <c r="F42" s="87">
+      <c r="F42" s="71">
         <f>SUM(E42:E43)</f>
         <v>2.5</v>
       </c>
       <c r="G42" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H42" s="68" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I42" s="42"/>
       <c r="J42" s="42"/>
@@ -2840,7 +2828,7 @@
     </row>
     <row r="43" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="67"/>
-      <c r="B43" s="86"/>
+      <c r="B43" s="70"/>
       <c r="C43" s="65">
         <v>0.85416666666666663</v>
       </c>
@@ -2850,12 +2838,12 @@
       <c r="E43" s="6">
         <v>1</v>
       </c>
-      <c r="F43" s="88"/>
+      <c r="F43" s="72"/>
       <c r="G43" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H43" s="68" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I43" s="42"/>
       <c r="J43" s="42"/>
@@ -2865,30 +2853,30 @@
       <c r="N43" s="3"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="91">
+      <c r="A44" s="76">
         <v>5</v>
       </c>
-      <c r="B44" s="89">
+      <c r="B44" s="73">
         <v>41610</v>
       </c>
-      <c r="C44" s="69">
+      <c r="C44" s="53">
         <v>0.85416666666666663</v>
       </c>
-      <c r="D44" s="69">
+      <c r="D44" s="53">
         <v>0.89583333333333337</v>
       </c>
       <c r="E44" s="5">
         <v>1</v>
       </c>
-      <c r="F44" s="91">
+      <c r="F44" s="76">
         <f>SUM(E44:E46)</f>
         <v>3.5</v>
       </c>
       <c r="G44" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H44" s="41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I44" s="41"/>
       <c r="J44" s="41"/>
@@ -2905,23 +2893,23 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="92"/>
-      <c r="B45" s="126"/>
-      <c r="C45" s="69">
+      <c r="A45" s="77"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="53">
         <v>0.89583333333333337</v>
       </c>
-      <c r="D45" s="69">
+      <c r="D45" s="53">
         <v>0.95833333333333337</v>
       </c>
       <c r="E45" s="5">
         <v>1.5</v>
       </c>
-      <c r="F45" s="92"/>
+      <c r="F45" s="77"/>
       <c r="G45" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H45" s="54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I45" s="41"/>
       <c r="J45" s="41"/>
@@ -2931,23 +2919,23 @@
       <c r="N45" s="3"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="92"/>
-      <c r="B46" s="90"/>
-      <c r="C46" s="69">
+      <c r="A46" s="77"/>
+      <c r="B46" s="75"/>
+      <c r="C46" s="53">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D46" s="69">
+      <c r="D46" s="53">
         <v>1</v>
       </c>
       <c r="E46" s="5">
         <v>1</v>
       </c>
-      <c r="F46" s="93"/>
+      <c r="F46" s="78"/>
       <c r="G46" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="H46" s="54" t="s">
         <v>97</v>
-      </c>
-      <c r="H46" s="54" t="s">
-        <v>98</v>
       </c>
       <c r="I46" s="41"/>
       <c r="J46" s="41"/>
@@ -2957,25 +2945,25 @@
       <c r="N46" s="3"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="92"/>
-      <c r="B47" s="89">
+      <c r="A47" s="77"/>
+      <c r="B47" s="73">
         <v>41611</v>
       </c>
-      <c r="C47" s="69">
+      <c r="C47" s="53">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D47" s="69">
+      <c r="D47" s="53">
         <v>0.375</v>
       </c>
       <c r="E47" s="5">
         <v>1</v>
       </c>
-      <c r="F47" s="91">
+      <c r="F47" s="76">
         <f>SUM(E47:E52)</f>
         <v>10.5</v>
       </c>
-      <c r="G47" s="130" t="s">
-        <v>86</v>
+      <c r="G47" s="129" t="s">
+        <v>83</v>
       </c>
       <c r="H47" s="41"/>
       <c r="I47" s="41"/>
@@ -2993,23 +2981,23 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="92"/>
-      <c r="B48" s="126"/>
-      <c r="C48" s="69">
+      <c r="A48" s="77"/>
+      <c r="B48" s="74"/>
+      <c r="C48" s="53">
         <v>0.375</v>
       </c>
-      <c r="D48" s="69">
+      <c r="D48" s="53">
         <v>0.4375</v>
       </c>
       <c r="E48" s="5">
         <v>1.5</v>
       </c>
-      <c r="F48" s="92"/>
+      <c r="F48" s="77"/>
       <c r="G48" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="H48" s="41" t="s">
         <v>109</v>
-      </c>
-      <c r="H48" s="41" t="s">
-        <v>110</v>
       </c>
       <c r="I48" s="41"/>
       <c r="J48" s="41"/>
@@ -3019,23 +3007,23 @@
       <c r="N48" s="3"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="92"/>
-      <c r="B49" s="126"/>
-      <c r="C49" s="69" t="s">
+      <c r="A49" s="77"/>
+      <c r="B49" s="74"/>
+      <c r="C49" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49" s="53" t="s">
         <v>116</v>
-      </c>
-      <c r="D49" s="69" t="s">
-        <v>117</v>
       </c>
       <c r="E49" s="5">
         <v>0.5</v>
       </c>
-      <c r="F49" s="92"/>
+      <c r="F49" s="77"/>
       <c r="G49" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="H49" s="41" t="s">
         <v>118</v>
-      </c>
-      <c r="H49" s="41" t="s">
-        <v>119</v>
       </c>
       <c r="I49" s="41"/>
       <c r="J49" s="41"/>
@@ -3045,23 +3033,23 @@
       <c r="N49" s="3"/>
     </row>
     <row r="50" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="92"/>
-      <c r="B50" s="126"/>
-      <c r="C50" s="69">
+      <c r="A50" s="77"/>
+      <c r="B50" s="74"/>
+      <c r="C50" s="53">
         <v>0.5625</v>
       </c>
-      <c r="D50" s="69">
+      <c r="D50" s="53">
         <v>0.70833333333333337</v>
       </c>
       <c r="E50" s="5">
         <v>3.5</v>
       </c>
-      <c r="F50" s="92"/>
+      <c r="F50" s="77"/>
       <c r="G50" s="41" t="s">
         <v>80</v>
       </c>
       <c r="H50" s="54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I50" s="41"/>
       <c r="J50" s="41"/>
@@ -3071,26 +3059,26 @@
       <c r="N50" s="3"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="92"/>
-      <c r="B51" s="126"/>
-      <c r="C51" s="69">
+      <c r="A51" s="77"/>
+      <c r="B51" s="74"/>
+      <c r="C51" s="53">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D51" s="69">
+      <c r="D51" s="53">
         <v>0.875</v>
       </c>
       <c r="E51" s="5">
         <v>1</v>
       </c>
-      <c r="F51" s="92"/>
+      <c r="F51" s="77"/>
       <c r="G51" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H51" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="I51" s="41" t="s">
         <v>111</v>
-      </c>
-      <c r="I51" s="41" t="s">
-        <v>112</v>
       </c>
       <c r="J51" s="41"/>
       <c r="K51" s="8"/>
@@ -3099,23 +3087,23 @@
       <c r="N51" s="3"/>
     </row>
     <row r="52" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="92"/>
-      <c r="B52" s="90"/>
-      <c r="C52" s="69">
+      <c r="A52" s="77"/>
+      <c r="B52" s="75"/>
+      <c r="C52" s="53">
         <v>0.875</v>
       </c>
-      <c r="D52" s="69">
+      <c r="D52" s="53">
         <v>0.5</v>
       </c>
       <c r="E52" s="5">
         <v>3</v>
       </c>
-      <c r="F52" s="93"/>
+      <c r="F52" s="78"/>
       <c r="G52" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H52" s="54" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I52" s="41"/>
       <c r="J52" s="41"/>
@@ -3125,28 +3113,28 @@
       <c r="N52" s="3"/>
     </row>
     <row r="53" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A53" s="92"/>
-      <c r="B53" s="89">
+      <c r="A53" s="77"/>
+      <c r="B53" s="73">
         <v>41612</v>
       </c>
-      <c r="C53" s="69">
+      <c r="C53" s="53">
         <v>0.5625</v>
       </c>
-      <c r="D53" s="69">
+      <c r="D53" s="53">
         <v>0.67361111111111116</v>
       </c>
       <c r="E53" s="5">
         <v>2.6</v>
       </c>
-      <c r="F53" s="91">
+      <c r="F53" s="76">
         <f>SUM(E53:E54)</f>
         <v>4.5999999999999996</v>
       </c>
       <c r="G53" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H53" s="54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I53" s="41"/>
       <c r="J53" s="41"/>
@@ -3163,23 +3151,23 @@
       </c>
     </row>
     <row r="54" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="92"/>
-      <c r="B54" s="90"/>
-      <c r="C54" s="69">
+      <c r="A54" s="77"/>
+      <c r="B54" s="75"/>
+      <c r="C54" s="53">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D54" s="69">
+      <c r="D54" s="53">
         <v>0.91666666666666663</v>
       </c>
       <c r="E54" s="5">
         <v>2</v>
       </c>
-      <c r="F54" s="93"/>
+      <c r="F54" s="78"/>
       <c r="G54" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H54" s="54" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I54" s="41"/>
       <c r="J54" s="41"/>
@@ -3189,7 +3177,7 @@
       <c r="N54" s="3"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="92"/>
+      <c r="A55" s="77"/>
       <c r="B55" s="27">
         <v>41613</v>
       </c>
@@ -3217,7 +3205,7 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="93"/>
+      <c r="A56" s="78"/>
       <c r="B56" s="27">
         <v>41614</v>
       </c>
@@ -3245,7 +3233,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="87">
+      <c r="A57" s="71">
         <v>6</v>
       </c>
       <c r="B57" s="28">
@@ -3275,7 +3263,7 @@
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="121"/>
+      <c r="A58" s="79"/>
       <c r="B58" s="28">
         <v>41618</v>
       </c>
@@ -3303,7 +3291,7 @@
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="121"/>
+      <c r="A59" s="79"/>
       <c r="B59" s="28">
         <v>41619</v>
       </c>
@@ -3331,7 +3319,7 @@
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="121"/>
+      <c r="A60" s="79"/>
       <c r="B60" s="28">
         <v>41620</v>
       </c>
@@ -3359,7 +3347,7 @@
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="88"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="28">
         <v>41621</v>
       </c>
@@ -3387,7 +3375,7 @@
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="91">
+      <c r="A62" s="76">
         <v>7</v>
       </c>
       <c r="B62" s="27">
@@ -3417,7 +3405,7 @@
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="92"/>
+      <c r="A63" s="77"/>
       <c r="B63" s="27">
         <v>41625</v>
       </c>
@@ -3445,7 +3433,7 @@
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="92"/>
+      <c r="A64" s="77"/>
       <c r="B64" s="27">
         <v>41626</v>
       </c>
@@ -3473,7 +3461,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="92"/>
+      <c r="A65" s="77"/>
       <c r="B65" s="27">
         <v>41627</v>
       </c>
@@ -3490,7 +3478,7 @@
       <c r="J65" s="41"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="93"/>
+      <c r="A66" s="78"/>
       <c r="B66" s="27">
         <v>41628</v>
       </c>
@@ -3507,7 +3495,7 @@
       <c r="J66" s="41"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="87">
+      <c r="A67" s="71">
         <v>8</v>
       </c>
       <c r="B67" s="28">
@@ -3526,7 +3514,7 @@
       <c r="J67" s="42"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="121"/>
+      <c r="A68" s="79"/>
       <c r="B68" s="28">
         <v>41632</v>
       </c>
@@ -3543,7 +3531,7 @@
       <c r="J68" s="42"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="121"/>
+      <c r="A69" s="79"/>
       <c r="B69" s="28">
         <v>41633</v>
       </c>
@@ -3560,7 +3548,7 @@
       <c r="J69" s="42"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="121"/>
+      <c r="A70" s="79"/>
       <c r="B70" s="28">
         <v>41634</v>
       </c>
@@ -3577,7 +3565,7 @@
       <c r="J70" s="42"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="88"/>
+      <c r="A71" s="72"/>
       <c r="B71" s="28">
         <v>41635</v>
       </c>
@@ -3594,7 +3582,7 @@
       <c r="J71" s="42"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="91">
+      <c r="A72" s="76">
         <v>9</v>
       </c>
       <c r="B72" s="27">
@@ -3613,7 +3601,7 @@
       <c r="J72" s="41"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="92"/>
+      <c r="A73" s="77"/>
       <c r="B73" s="27">
         <v>41639</v>
       </c>
@@ -3630,7 +3618,7 @@
       <c r="J73" s="41"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="92"/>
+      <c r="A74" s="77"/>
       <c r="B74" s="27">
         <v>41640</v>
       </c>
@@ -3647,7 +3635,7 @@
       <c r="J74" s="41"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="92"/>
+      <c r="A75" s="77"/>
       <c r="B75" s="27">
         <v>41641</v>
       </c>
@@ -3664,7 +3652,7 @@
       <c r="J75" s="41"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="93"/>
+      <c r="A76" s="78"/>
       <c r="B76" s="27">
         <v>41642</v>
       </c>
@@ -3681,7 +3669,7 @@
       <c r="J76" s="41"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="87">
+      <c r="A77" s="71">
         <v>10</v>
       </c>
       <c r="B77" s="28">
@@ -3700,7 +3688,7 @@
       <c r="J77" s="42"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="121"/>
+      <c r="A78" s="79"/>
       <c r="B78" s="28">
         <v>41646</v>
       </c>
@@ -3717,7 +3705,7 @@
       <c r="J78" s="42"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="121"/>
+      <c r="A79" s="79"/>
       <c r="B79" s="28">
         <v>41647</v>
       </c>
@@ -3734,7 +3722,7 @@
       <c r="J79" s="42"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="121"/>
+      <c r="A80" s="79"/>
       <c r="B80" s="28">
         <v>41648</v>
       </c>
@@ -3751,7 +3739,7 @@
       <c r="J80" s="42"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="88"/>
+      <c r="A81" s="72"/>
       <c r="B81" s="28">
         <v>41649</v>
       </c>
@@ -3768,7 +3756,7 @@
       <c r="J81" s="42"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="91">
+      <c r="A82" s="76">
         <v>11</v>
       </c>
       <c r="B82" s="27">
@@ -3787,7 +3775,7 @@
       <c r="J82" s="41"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="92"/>
+      <c r="A83" s="77"/>
       <c r="B83" s="27">
         <v>41653</v>
       </c>
@@ -3804,7 +3792,7 @@
       <c r="J83" s="41"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="92"/>
+      <c r="A84" s="77"/>
       <c r="B84" s="27">
         <v>41654</v>
       </c>
@@ -3821,7 +3809,7 @@
       <c r="J84" s="41"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="92"/>
+      <c r="A85" s="77"/>
       <c r="B85" s="27">
         <v>41655</v>
       </c>
@@ -3838,7 +3826,7 @@
       <c r="J85" s="41"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="93"/>
+      <c r="A86" s="78"/>
       <c r="B86" s="27">
         <v>41656</v>
       </c>
@@ -3855,7 +3843,7 @@
       <c r="J86" s="41"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="87">
+      <c r="A87" s="71">
         <v>12</v>
       </c>
       <c r="B87" s="28">
@@ -3874,7 +3862,7 @@
       <c r="J87" s="42"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="121"/>
+      <c r="A88" s="79"/>
       <c r="B88" s="28">
         <v>41660</v>
       </c>
@@ -3891,7 +3879,7 @@
       <c r="J88" s="42"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="121"/>
+      <c r="A89" s="79"/>
       <c r="B89" s="28">
         <v>41661</v>
       </c>
@@ -3908,7 +3896,7 @@
       <c r="J89" s="42"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="121"/>
+      <c r="A90" s="79"/>
       <c r="B90" s="28">
         <v>41662</v>
       </c>
@@ -3925,7 +3913,7 @@
       <c r="J90" s="42"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="88"/>
+      <c r="A91" s="72"/>
       <c r="B91" s="28">
         <v>41663</v>
       </c>
@@ -3942,7 +3930,7 @@
       <c r="J91" s="42"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="91">
+      <c r="A92" s="76">
         <v>13</v>
       </c>
       <c r="B92" s="27">
@@ -3963,7 +3951,7 @@
       <c r="J92" s="41"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="92"/>
+      <c r="A93" s="77"/>
       <c r="B93" s="27">
         <v>41667</v>
       </c>
@@ -3982,7 +3970,7 @@
       <c r="J93" s="41"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="92"/>
+      <c r="A94" s="77"/>
       <c r="B94" s="27">
         <v>41668</v>
       </c>
@@ -4001,7 +3989,7 @@
       <c r="J94" s="41"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="92"/>
+      <c r="A95" s="77"/>
       <c r="B95" s="27">
         <v>41669</v>
       </c>
@@ -4020,7 +4008,7 @@
       <c r="J95" s="41"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="93"/>
+      <c r="A96" s="78"/>
       <c r="B96" s="27">
         <v>41670</v>
       </c>
@@ -4039,7 +4027,7 @@
       <c r="J96" s="41"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="87">
+      <c r="A97" s="71">
         <v>14</v>
       </c>
       <c r="B97" s="28">
@@ -4060,7 +4048,7 @@
       <c r="J97" s="42"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="121"/>
+      <c r="A98" s="79"/>
       <c r="B98" s="28">
         <v>41674</v>
       </c>
@@ -4079,7 +4067,7 @@
       <c r="J98" s="42"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="121"/>
+      <c r="A99" s="79"/>
       <c r="B99" s="28">
         <v>41675</v>
       </c>
@@ -4098,7 +4086,7 @@
       <c r="J99" s="42"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="121"/>
+      <c r="A100" s="79"/>
       <c r="B100" s="28">
         <v>41676</v>
       </c>
@@ -4117,7 +4105,7 @@
       <c r="J100" s="42"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="88"/>
+      <c r="A101" s="72"/>
       <c r="B101" s="28">
         <v>41677</v>
       </c>
@@ -4136,7 +4124,7 @@
       <c r="J101" s="42"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="91">
+      <c r="A102" s="76">
         <v>15</v>
       </c>
       <c r="B102" s="27">
@@ -4155,7 +4143,7 @@
       <c r="J102" s="41"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="92"/>
+      <c r="A103" s="77"/>
       <c r="B103" s="27">
         <v>41681</v>
       </c>
@@ -4172,7 +4160,7 @@
       <c r="J103" s="41"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="92"/>
+      <c r="A104" s="77"/>
       <c r="B104" s="27">
         <v>41682</v>
       </c>
@@ -4189,7 +4177,7 @@
       <c r="J104" s="41"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="92"/>
+      <c r="A105" s="77"/>
       <c r="B105" s="27">
         <v>41683</v>
       </c>
@@ -4206,7 +4194,7 @@
       <c r="J105" s="41"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="93"/>
+      <c r="A106" s="78"/>
       <c r="B106" s="27">
         <v>41684</v>
       </c>
@@ -4223,7 +4211,7 @@
       <c r="J106" s="41"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="87">
+      <c r="A107" s="71">
         <v>16</v>
       </c>
       <c r="B107" s="28">
@@ -4242,7 +4230,7 @@
       <c r="J107" s="42"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="121"/>
+      <c r="A108" s="79"/>
       <c r="B108" s="28">
         <v>41688</v>
       </c>
@@ -4259,7 +4247,7 @@
       <c r="J108" s="42"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="121"/>
+      <c r="A109" s="79"/>
       <c r="B109" s="28">
         <v>41689</v>
       </c>
@@ -4276,7 +4264,7 @@
       <c r="J109" s="42"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="121"/>
+      <c r="A110" s="79"/>
       <c r="B110" s="28">
         <v>41690</v>
       </c>
@@ -4293,7 +4281,7 @@
       <c r="J110" s="42"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="88"/>
+      <c r="A111" s="72"/>
       <c r="B111" s="28">
         <v>41691</v>
       </c>
@@ -4310,7 +4298,7 @@
       <c r="J111" s="42"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="91">
+      <c r="A112" s="76">
         <v>17</v>
       </c>
       <c r="B112" s="27">
@@ -4329,7 +4317,7 @@
       <c r="J112" s="41"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="92"/>
+      <c r="A113" s="77"/>
       <c r="B113" s="27">
         <v>41695</v>
       </c>
@@ -4346,7 +4334,7 @@
       <c r="J113" s="41"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="92"/>
+      <c r="A114" s="77"/>
       <c r="B114" s="27">
         <v>41696</v>
       </c>
@@ -4363,7 +4351,7 @@
       <c r="J114" s="41"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="92"/>
+      <c r="A115" s="77"/>
       <c r="B115" s="27">
         <v>41697</v>
       </c>
@@ -4380,7 +4368,7 @@
       <c r="J115" s="41"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="93"/>
+      <c r="A116" s="78"/>
       <c r="B116" s="27">
         <v>41698</v>
       </c>
@@ -4397,7 +4385,7 @@
       <c r="J116" s="41"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="87">
+      <c r="A117" s="71">
         <v>18</v>
       </c>
       <c r="B117" s="28">
@@ -4416,7 +4404,7 @@
       <c r="J117" s="42"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="121"/>
+      <c r="A118" s="79"/>
       <c r="B118" s="28">
         <v>41702</v>
       </c>
@@ -4433,7 +4421,7 @@
       <c r="J118" s="42"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="121"/>
+      <c r="A119" s="79"/>
       <c r="B119" s="28">
         <v>41703</v>
       </c>
@@ -4450,7 +4438,7 @@
       <c r="J119" s="42"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="121"/>
+      <c r="A120" s="79"/>
       <c r="B120" s="28">
         <v>41704</v>
       </c>
@@ -4467,7 +4455,7 @@
       <c r="J120" s="42"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="88"/>
+      <c r="A121" s="72"/>
       <c r="B121" s="28">
         <v>41705</v>
       </c>
@@ -4484,7 +4472,7 @@
       <c r="J121" s="42"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="91">
+      <c r="A122" s="76">
         <v>19</v>
       </c>
       <c r="B122" s="27">
@@ -4503,7 +4491,7 @@
       <c r="J122" s="41"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="92"/>
+      <c r="A123" s="77"/>
       <c r="B123" s="27">
         <v>41709</v>
       </c>
@@ -4520,7 +4508,7 @@
       <c r="J123" s="41"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="92"/>
+      <c r="A124" s="77"/>
       <c r="B124" s="27">
         <v>41710</v>
       </c>
@@ -4537,7 +4525,7 @@
       <c r="J124" s="41"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="92"/>
+      <c r="A125" s="77"/>
       <c r="B125" s="27">
         <v>41711</v>
       </c>
@@ -4554,7 +4542,7 @@
       <c r="J125" s="41"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="93"/>
+      <c r="A126" s="78"/>
       <c r="B126" s="27">
         <v>41712</v>
       </c>
@@ -4571,7 +4559,7 @@
       <c r="J126" s="41"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="87">
+      <c r="A127" s="71">
         <v>20</v>
       </c>
       <c r="B127" s="28">
@@ -4590,7 +4578,7 @@
       <c r="J127" s="42"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="121"/>
+      <c r="A128" s="79"/>
       <c r="B128" s="28">
         <v>41716</v>
       </c>
@@ -4607,7 +4595,7 @@
       <c r="J128" s="42"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="121"/>
+      <c r="A129" s="79"/>
       <c r="B129" s="28">
         <v>41717</v>
       </c>
@@ -4624,7 +4612,7 @@
       <c r="J129" s="42"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="121"/>
+      <c r="A130" s="79"/>
       <c r="B130" s="28">
         <v>41718</v>
       </c>
@@ -4641,7 +4629,7 @@
       <c r="J130" s="42"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="88"/>
+      <c r="A131" s="72"/>
       <c r="B131" s="28">
         <v>41719</v>
       </c>
@@ -4658,7 +4646,7 @@
       <c r="J131" s="42"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="91">
+      <c r="A132" s="76">
         <v>21</v>
       </c>
       <c r="B132" s="27">
@@ -4677,7 +4665,7 @@
       <c r="J132" s="41"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="92"/>
+      <c r="A133" s="77"/>
       <c r="B133" s="27">
         <v>41723</v>
       </c>
@@ -4694,7 +4682,7 @@
       <c r="J133" s="41"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="92"/>
+      <c r="A134" s="77"/>
       <c r="B134" s="27">
         <v>41724</v>
       </c>
@@ -4711,7 +4699,7 @@
       <c r="J134" s="41"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="92"/>
+      <c r="A135" s="77"/>
       <c r="B135" s="27">
         <v>41725</v>
       </c>
@@ -4728,7 +4716,7 @@
       <c r="J135" s="41"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="93"/>
+      <c r="A136" s="78"/>
       <c r="B136" s="27">
         <v>41726</v>
       </c>
@@ -4745,7 +4733,7 @@
       <c r="J136" s="41"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="87">
+      <c r="A137" s="71">
         <v>22</v>
       </c>
       <c r="B137" s="28">
@@ -4764,7 +4752,7 @@
       <c r="J137" s="42"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="121"/>
+      <c r="A138" s="79"/>
       <c r="B138" s="28">
         <v>41730</v>
       </c>
@@ -4781,7 +4769,7 @@
       <c r="J138" s="42"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="121"/>
+      <c r="A139" s="79"/>
       <c r="B139" s="28">
         <v>41731</v>
       </c>
@@ -4798,7 +4786,7 @@
       <c r="J139" s="42"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="121"/>
+      <c r="A140" s="79"/>
       <c r="B140" s="28">
         <v>41732</v>
       </c>
@@ -4815,7 +4803,7 @@
       <c r="J140" s="42"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="88"/>
+      <c r="A141" s="72"/>
       <c r="B141" s="28">
         <v>41733</v>
       </c>
@@ -4832,7 +4820,7 @@
       <c r="J141" s="42"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="91">
+      <c r="A142" s="76">
         <v>23</v>
       </c>
       <c r="B142" s="27">
@@ -4851,7 +4839,7 @@
       <c r="J142" s="41"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="92"/>
+      <c r="A143" s="77"/>
       <c r="B143" s="27">
         <v>41737</v>
       </c>
@@ -4868,7 +4856,7 @@
       <c r="J143" s="41"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="92"/>
+      <c r="A144" s="77"/>
       <c r="B144" s="27">
         <v>41738</v>
       </c>
@@ -4885,7 +4873,7 @@
       <c r="J144" s="41"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="92"/>
+      <c r="A145" s="77"/>
       <c r="B145" s="27">
         <v>41739</v>
       </c>
@@ -4902,7 +4890,7 @@
       <c r="J145" s="41"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="93"/>
+      <c r="A146" s="78"/>
       <c r="B146" s="27">
         <v>41740</v>
       </c>
@@ -4919,7 +4907,7 @@
       <c r="J146" s="41"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="87">
+      <c r="A147" s="71">
         <v>24</v>
       </c>
       <c r="B147" s="28">
@@ -4938,7 +4926,7 @@
       <c r="J147" s="42"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="121"/>
+      <c r="A148" s="79"/>
       <c r="B148" s="28">
         <v>41744</v>
       </c>
@@ -4955,7 +4943,7 @@
       <c r="J148" s="42"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="121"/>
+      <c r="A149" s="79"/>
       <c r="B149" s="28">
         <v>41745</v>
       </c>
@@ -4972,7 +4960,7 @@
       <c r="J149" s="42"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="121"/>
+      <c r="A150" s="79"/>
       <c r="B150" s="28">
         <v>41746</v>
       </c>
@@ -4989,7 +4977,7 @@
       <c r="J150" s="42"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="88"/>
+      <c r="A151" s="72"/>
       <c r="B151" s="28">
         <v>41747</v>
       </c>
@@ -5006,7 +4994,7 @@
       <c r="J151" s="42"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="91">
+      <c r="A152" s="76">
         <v>25</v>
       </c>
       <c r="B152" s="27">
@@ -5025,7 +5013,7 @@
       <c r="J152" s="41"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="92"/>
+      <c r="A153" s="77"/>
       <c r="B153" s="27">
         <v>41751</v>
       </c>
@@ -5042,7 +5030,7 @@
       <c r="J153" s="41"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="92"/>
+      <c r="A154" s="77"/>
       <c r="B154" s="27">
         <v>41752</v>
       </c>
@@ -5059,7 +5047,7 @@
       <c r="J154" s="41"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="92"/>
+      <c r="A155" s="77"/>
       <c r="B155" s="27">
         <v>41753</v>
       </c>
@@ -5076,7 +5064,7 @@
       <c r="J155" s="41"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="93"/>
+      <c r="A156" s="78"/>
       <c r="B156" s="27">
         <v>41754</v>
       </c>
@@ -5093,7 +5081,7 @@
       <c r="J156" s="41"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="87">
+      <c r="A157" s="71">
         <v>26</v>
       </c>
       <c r="B157" s="28">
@@ -5112,7 +5100,7 @@
       <c r="J157" s="42"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="121"/>
+      <c r="A158" s="79"/>
       <c r="B158" s="28">
         <v>41758</v>
       </c>
@@ -5129,7 +5117,7 @@
       <c r="J158" s="42"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="121"/>
+      <c r="A159" s="79"/>
       <c r="B159" s="28">
         <v>41759</v>
       </c>
@@ -5146,7 +5134,7 @@
       <c r="J159" s="42"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="121"/>
+      <c r="A160" s="79"/>
       <c r="B160" s="28">
         <v>41760</v>
       </c>
@@ -5163,7 +5151,7 @@
       <c r="J160" s="42"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="88"/>
+      <c r="A161" s="72"/>
       <c r="B161" s="28">
         <v>41761</v>
       </c>
@@ -5180,7 +5168,7 @@
       <c r="J161" s="42"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="91">
+      <c r="A162" s="76">
         <v>27</v>
       </c>
       <c r="B162" s="27">
@@ -5199,7 +5187,7 @@
       <c r="J162" s="41"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="92"/>
+      <c r="A163" s="77"/>
       <c r="B163" s="27">
         <v>41765</v>
       </c>
@@ -5216,7 +5204,7 @@
       <c r="J163" s="41"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="92"/>
+      <c r="A164" s="77"/>
       <c r="B164" s="27">
         <v>41766</v>
       </c>
@@ -5233,7 +5221,7 @@
       <c r="J164" s="41"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="92"/>
+      <c r="A165" s="77"/>
       <c r="B165" s="27">
         <v>41767</v>
       </c>
@@ -5250,7 +5238,7 @@
       <c r="J165" s="41"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="93"/>
+      <c r="A166" s="78"/>
       <c r="B166" s="27">
         <v>41768</v>
       </c>
@@ -5267,7 +5255,7 @@
       <c r="J166" s="41"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="87">
+      <c r="A167" s="71">
         <v>28</v>
       </c>
       <c r="B167" s="28">
@@ -5286,7 +5274,7 @@
       <c r="J167" s="42"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="121"/>
+      <c r="A168" s="79"/>
       <c r="B168" s="28">
         <v>41772</v>
       </c>
@@ -5303,7 +5291,7 @@
       <c r="J168" s="42"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="121"/>
+      <c r="A169" s="79"/>
       <c r="B169" s="28">
         <v>41773</v>
       </c>
@@ -5320,7 +5308,7 @@
       <c r="J169" s="42"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="121"/>
+      <c r="A170" s="79"/>
       <c r="B170" s="28">
         <v>41774</v>
       </c>
@@ -5337,7 +5325,7 @@
       <c r="J170" s="42"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="88"/>
+      <c r="A171" s="72"/>
       <c r="B171" s="28">
         <v>41775</v>
       </c>
@@ -5354,7 +5342,7 @@
       <c r="J171" s="42"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="91">
+      <c r="A172" s="76">
         <v>29</v>
       </c>
       <c r="B172" s="27">
@@ -5373,7 +5361,7 @@
       <c r="J172" s="41"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A173" s="92"/>
+      <c r="A173" s="77"/>
       <c r="B173" s="27">
         <v>41779</v>
       </c>
@@ -5390,7 +5378,7 @@
       <c r="J173" s="41"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A174" s="92"/>
+      <c r="A174" s="77"/>
       <c r="B174" s="27">
         <v>41780</v>
       </c>
@@ -5407,7 +5395,7 @@
       <c r="J174" s="41"/>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A175" s="92"/>
+      <c r="A175" s="77"/>
       <c r="B175" s="27">
         <v>41781</v>
       </c>
@@ -5424,7 +5412,7 @@
       <c r="J175" s="41"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A176" s="93"/>
+      <c r="A176" s="78"/>
       <c r="B176" s="27">
         <v>41782</v>
       </c>
@@ -5441,7 +5429,7 @@
       <c r="J176" s="41"/>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A177" s="127">
+      <c r="A177" s="80">
         <v>30</v>
       </c>
       <c r="B177" s="28">
@@ -5460,7 +5448,7 @@
       <c r="J177" s="43"/>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A178" s="128"/>
+      <c r="A178" s="81"/>
       <c r="B178" s="28">
         <v>41786</v>
       </c>
@@ -5477,7 +5465,7 @@
       <c r="J178" s="43"/>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A179" s="128"/>
+      <c r="A179" s="81"/>
       <c r="B179" s="28">
         <v>41787</v>
       </c>
@@ -5494,7 +5482,7 @@
       <c r="J179" s="43"/>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A180" s="128"/>
+      <c r="A180" s="81"/>
       <c r="B180" s="28">
         <v>41788</v>
       </c>
@@ -5511,7 +5499,7 @@
       <c r="J180" s="43"/>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A181" s="129"/>
+      <c r="A181" s="82"/>
       <c r="B181" s="28">
         <v>41789</v>
       </c>
@@ -5529,38 +5517,28 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="B47:B52"/>
-    <mergeCell ref="F47:F52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="A44:A56"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="A132:A136"/>
-    <mergeCell ref="A162:A166"/>
-    <mergeCell ref="A167:A171"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="A112:A116"/>
-    <mergeCell ref="A117:A121"/>
-    <mergeCell ref="A122:A126"/>
-    <mergeCell ref="A127:A131"/>
-    <mergeCell ref="A172:A176"/>
-    <mergeCell ref="A177:A181"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="A142:A146"/>
-    <mergeCell ref="A147:A151"/>
-    <mergeCell ref="A152:A156"/>
-    <mergeCell ref="A157:A161"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="G2:N4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A19:A32"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A10:A18"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="A92:A96"/>
@@ -5577,28 +5555,38 @@
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="A77:A81"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A10:A18"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="G2:N4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A19:A32"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="A172:A176"/>
+    <mergeCell ref="A177:A181"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="A142:A146"/>
+    <mergeCell ref="A147:A151"/>
+    <mergeCell ref="A152:A156"/>
+    <mergeCell ref="A157:A161"/>
+    <mergeCell ref="A132:A136"/>
+    <mergeCell ref="A162:A166"/>
+    <mergeCell ref="A167:A171"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="A112:A116"/>
+    <mergeCell ref="A117:A121"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="A127:A131"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="A44:A56"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="F47:F52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="F53:F54"/>
   </mergeCells>
   <conditionalFormatting sqref="M7">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNgo.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNgo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\capstone\1. Project management\9. Timelog\individual time log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NC\Desktop\Admission project\1. Project management\9. Timelog\individual time log\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="120">
   <si>
     <t>Week</t>
   </si>
@@ -414,6 +414,9 @@
   </si>
   <si>
     <t>Discuss about document</t>
+  </si>
+  <si>
+    <t>1:30PM</t>
   </si>
 </sst>
 </file>
@@ -427,7 +430,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -435,14 +438,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -455,7 +458,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -468,20 +471,20 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -494,7 +497,7 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -507,12 +510,12 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -540,12 +543,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,7 +728,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -860,9 +857,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="18" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -911,6 +905,51 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -926,24 +965,117 @@
     <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -953,146 +1085,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1418,13 +1416,13 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>28</v>
       </c>
@@ -1432,7 +1430,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -1440,7 +1438,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -1448,7 +1446,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -1456,7 +1454,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -1464,7 +1462,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -1472,7 +1470,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -1480,7 +1478,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>7</v>
       </c>
@@ -1488,7 +1486,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -1496,7 +1494,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>9</v>
       </c>
@@ -1504,7 +1502,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -1512,7 +1510,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>11</v>
       </c>
@@ -1530,107 +1528,111 @@
   <dimension ref="A1:O181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G55" sqref="G55"/>
+      <selection pane="bottomRight" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="50.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.375" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="50.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="1" customWidth="1"/>
-    <col min="11" max="11" width="27.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.25" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="14" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="104"/>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="106"/>
+      <c r="A1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="70"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="107" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="109"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="73"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="112"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="76"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="126"/>
-      <c r="B4" s="127"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="115"/>
+      <c r="A4" s="103"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="79"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="98"/>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="100"/>
+      <c r="A5" s="112"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="114"/>
       <c r="F5" s="16"/>
+      <c r="G5" s="1">
+        <f>4/6</f>
+        <v>0.66666666666666663</v>
+      </c>
       <c r="H5" s="45" t="s">
         <v>66</v>
       </c>
@@ -1643,7 +1645,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>0</v>
       </c>
@@ -1656,7 +1658,7 @@
       <c r="D6" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="128" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="33" t="s">
@@ -1674,13 +1676,13 @@
       <c r="J6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="119"/>
-      <c r="L6" s="119"/>
-      <c r="M6" s="119"/>
-      <c r="N6" s="119"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
     </row>
     <row r="7" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="116">
+      <c r="A7" s="80">
         <v>1</v>
       </c>
       <c r="B7" s="17">
@@ -1707,21 +1709,21 @@
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="31"/>
-      <c r="K7" s="83" t="s">
+      <c r="K7" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="83"/>
+      <c r="L7" s="118"/>
       <c r="M7" s="34">
         <f>SUM(M8:M64)</f>
-        <v>47.303000000000004</v>
+        <v>47.393000000000001</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="117"/>
-      <c r="B8" s="94">
+    <row r="8" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="81"/>
+      <c r="B8" s="106">
         <v>41586</v>
       </c>
       <c r="C8" s="18">
@@ -1733,7 +1735,7 @@
       <c r="E8" s="19">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F8" s="96">
+      <c r="F8" s="108">
         <f>SUM(E8:E9)</f>
         <v>1.66</v>
       </c>
@@ -1758,8 +1760,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="118"/>
-      <c r="B9" s="95"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="107"/>
       <c r="C9" s="18">
         <v>0.63194444444444442</v>
       </c>
@@ -1769,7 +1771,7 @@
       <c r="E9" s="19">
         <v>0.5</v>
       </c>
-      <c r="F9" s="97"/>
+      <c r="F9" s="109"/>
       <c r="G9" s="31" t="s">
         <v>25</v>
       </c>
@@ -1780,59 +1782,59 @@
       <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="101">
+      <c r="A10" s="115">
         <v>2</v>
       </c>
-      <c r="B10" s="86">
+      <c r="B10" s="95">
         <v>41589</v>
       </c>
-      <c r="C10" s="55">
+      <c r="C10" s="54">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D10" s="55">
+      <c r="D10" s="54">
         <v>0.64583333333333337</v>
       </c>
-      <c r="E10" s="56">
+      <c r="E10" s="55">
         <v>1.5</v>
       </c>
-      <c r="F10" s="90">
+      <c r="F10" s="122">
         <f>SUM(E10:E11)</f>
         <v>2.5</v>
       </c>
-      <c r="G10" s="57" t="s">
+      <c r="G10" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="60" t="s">
+      <c r="H10" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="I10" s="59"/>
-      <c r="J10" s="57"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="56"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="102"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="55">
+      <c r="A11" s="116"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="54">
         <v>0.875</v>
       </c>
-      <c r="D11" s="55">
+      <c r="D11" s="54">
         <v>0.91666666666666663</v>
       </c>
-      <c r="E11" s="56">
+      <c r="E11" s="55">
         <v>1</v>
       </c>
-      <c r="F11" s="91"/>
-      <c r="G11" s="57" t="s">
+      <c r="F11" s="123"/>
+      <c r="G11" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="58" t="s">
+      <c r="H11" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="I11" s="59"/>
-      <c r="J11" s="57"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="56"/>
     </row>
     <row r="12" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A12" s="102"/>
-      <c r="B12" s="86">
+      <c r="A12" s="116"/>
+      <c r="B12" s="95">
         <v>41590</v>
       </c>
       <c r="C12" s="23">
@@ -1872,8 +1874,8 @@
       <c r="O12" s="36"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="102"/>
-      <c r="B13" s="87"/>
+      <c r="A13" s="116"/>
+      <c r="B13" s="96"/>
       <c r="C13" s="23">
         <v>0.875</v>
       </c>
@@ -1902,8 +1904,8 @@
       <c r="O13" s="36"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="102"/>
-      <c r="B14" s="86">
+      <c r="A14" s="116"/>
+      <c r="B14" s="95">
         <v>41592</v>
       </c>
       <c r="C14" s="26">
@@ -1915,7 +1917,7 @@
       <c r="E14" s="29">
         <v>1.25</v>
       </c>
-      <c r="F14" s="84">
+      <c r="F14" s="110">
         <f>SUM(E14:E15)</f>
         <v>3.25</v>
       </c>
@@ -1935,15 +1937,15 @@
       <c r="L14" s="6"/>
       <c r="M14" s="10">
         <f>SUM(E35:E41)</f>
-        <v>15.3</v>
+        <v>15.33</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="102"/>
-      <c r="B15" s="87"/>
+      <c r="A15" s="116"/>
+      <c r="B15" s="96"/>
       <c r="C15" s="26">
         <v>0.42708333333333331</v>
       </c>
@@ -1953,7 +1955,7 @@
       <c r="E15" s="29">
         <v>2</v>
       </c>
-      <c r="F15" s="85"/>
+      <c r="F15" s="111"/>
       <c r="G15" s="48" t="s">
         <v>30</v>
       </c>
@@ -1968,7 +1970,7 @@
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="102"/>
+      <c r="A16" s="116"/>
       <c r="B16" s="46">
         <v>41593</v>
       </c>
@@ -2001,15 +2003,15 @@
       <c r="L16" s="6"/>
       <c r="M16" s="10">
         <f>SUM(E44:E56)</f>
-        <v>18.600000000000001</v>
+        <v>18.66</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="102"/>
-      <c r="B17" s="86">
+      <c r="A17" s="116"/>
+      <c r="B17" s="95">
         <v>41594</v>
       </c>
       <c r="C17" s="26">
@@ -2021,7 +2023,7 @@
       <c r="E17" s="29">
         <v>2</v>
       </c>
-      <c r="F17" s="84">
+      <c r="F17" s="110">
         <f>SUM(E17:E18)</f>
         <v>3</v>
       </c>
@@ -2048,8 +2050,8 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="103"/>
-      <c r="B18" s="87"/>
+      <c r="A18" s="117"/>
+      <c r="B18" s="96"/>
       <c r="C18" s="26">
         <v>0.83333333333333337</v>
       </c>
@@ -2059,7 +2061,7 @@
       <c r="E18" s="29">
         <v>1</v>
       </c>
-      <c r="F18" s="85"/>
+      <c r="F18" s="111"/>
       <c r="G18" s="30" t="s">
         <v>24</v>
       </c>
@@ -2076,22 +2078,22 @@
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="76">
+      <c r="A19" s="89">
         <v>3</v>
       </c>
-      <c r="B19" s="73">
+      <c r="B19" s="87">
         <v>41596</v>
       </c>
-      <c r="C19" s="53">
+      <c r="C19" s="52">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D19" s="53">
+      <c r="D19" s="52">
         <v>0.89166666666666661</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="129">
         <v>0.6</v>
       </c>
-      <c r="F19" s="76">
+      <c r="F19" s="89">
         <f>SUM(E19:E20)</f>
         <v>1.18</v>
       </c>
@@ -2118,18 +2120,18 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="77"/>
-      <c r="B20" s="75"/>
-      <c r="C20" s="53">
+      <c r="A20" s="90"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="52">
         <v>0.89236111111111116</v>
       </c>
-      <c r="D20" s="53">
+      <c r="D20" s="52">
         <v>0.91666666666666663</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="129">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F20" s="78"/>
+      <c r="F20" s="91"/>
       <c r="G20" s="41" t="s">
         <v>30</v>
       </c>
@@ -2144,27 +2146,27 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A21" s="77"/>
-      <c r="B21" s="88">
+      <c r="A21" s="90"/>
+      <c r="B21" s="120">
         <v>41597</v>
       </c>
-      <c r="C21" s="53">
+      <c r="C21" s="52">
         <v>0.5625</v>
       </c>
-      <c r="D21" s="53">
+      <c r="D21" s="52">
         <v>0.60416666666666663</v>
       </c>
-      <c r="E21" s="52">
+      <c r="E21" s="130">
         <v>1</v>
       </c>
-      <c r="F21" s="76">
+      <c r="F21" s="89">
         <f>SUM(E21:E22)</f>
         <v>3</v>
       </c>
-      <c r="G21" s="61" t="s">
+      <c r="G21" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="54" t="s">
+      <c r="H21" s="53" t="s">
         <v>78</v>
       </c>
       <c r="I21" s="41"/>
@@ -2182,22 +2184,22 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="77"/>
-      <c r="B22" s="89"/>
-      <c r="C22" s="53">
+      <c r="A22" s="90"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="52">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D22" s="53">
+      <c r="D22" s="52">
         <v>0.97916666666666663</v>
       </c>
-      <c r="E22" s="52">
+      <c r="E22" s="130">
         <v>2</v>
       </c>
-      <c r="F22" s="78"/>
+      <c r="F22" s="91"/>
       <c r="G22" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="54" t="s">
+      <c r="H22" s="53" t="s">
         <v>79</v>
       </c>
       <c r="I22" s="41" t="s">
@@ -2210,27 +2212,27 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="77"/>
-      <c r="B23" s="73">
+      <c r="A23" s="90"/>
+      <c r="B23" s="87">
         <v>41598</v>
       </c>
-      <c r="C23" s="53">
+      <c r="C23" s="52">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D23" s="53">
+      <c r="D23" s="52">
         <v>0.625</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="129">
         <v>1</v>
       </c>
-      <c r="F23" s="92">
+      <c r="F23" s="93">
         <f>SUM(E23:E24)</f>
         <v>3</v>
       </c>
       <c r="G23" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="H23" s="62" t="s">
+      <c r="H23" s="61" t="s">
         <v>84</v>
       </c>
       <c r="I23" s="41"/>
@@ -2248,22 +2250,22 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="77"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="53">
+      <c r="A24" s="90"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="52">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D24" s="53">
+      <c r="D24" s="52">
         <v>0.5</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="129">
         <v>2</v>
       </c>
-      <c r="F24" s="93"/>
+      <c r="F24" s="94"/>
       <c r="G24" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="62" t="s">
+      <c r="H24" s="61" t="s">
         <v>85</v>
       </c>
       <c r="I24" s="41"/>
@@ -2281,27 +2283,27 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="77"/>
-      <c r="B25" s="73">
+      <c r="A25" s="90"/>
+      <c r="B25" s="87">
         <v>41599</v>
       </c>
-      <c r="C25" s="53">
+      <c r="C25" s="52">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D25" s="53">
+      <c r="D25" s="52">
         <v>0.375</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="129">
         <v>1</v>
       </c>
-      <c r="F25" s="76">
+      <c r="F25" s="89">
         <f>SUM(E25:E30)</f>
-        <v>10.41</v>
+        <v>10.3</v>
       </c>
       <c r="G25" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="H25" s="62"/>
+      <c r="H25" s="61"/>
       <c r="I25" s="41"/>
       <c r="J25" s="41"/>
       <c r="K25" s="8"/>
@@ -2310,22 +2312,22 @@
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="77"/>
-      <c r="B26" s="74"/>
-      <c r="C26" s="53">
+      <c r="A26" s="90"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="52">
         <v>0.375</v>
       </c>
-      <c r="D26" s="53">
+      <c r="D26" s="52">
         <v>0.4236111111111111</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="129">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F26" s="77"/>
-      <c r="G26" s="54" t="s">
+      <c r="F26" s="90"/>
+      <c r="G26" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="H26" s="62" t="s">
+      <c r="H26" s="61" t="s">
         <v>94</v>
       </c>
       <c r="I26" s="41"/>
@@ -2336,22 +2338,22 @@
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="77"/>
-      <c r="B27" s="74"/>
-      <c r="C27" s="53">
+      <c r="A27" s="90"/>
+      <c r="B27" s="124"/>
+      <c r="C27" s="52">
         <v>0.4236111111111111</v>
       </c>
-      <c r="D27" s="53">
+      <c r="D27" s="52">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E27" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="F27" s="77"/>
+      <c r="E27" s="129">
+        <v>1.33</v>
+      </c>
+      <c r="F27" s="90"/>
       <c r="G27" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="H27" s="62"/>
+      <c r="H27" s="61"/>
       <c r="I27" s="41"/>
       <c r="J27" s="41"/>
       <c r="K27" s="8"/>
@@ -2360,22 +2362,22 @@
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="77"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="53">
+      <c r="A28" s="90"/>
+      <c r="B28" s="124"/>
+      <c r="C28" s="52">
         <v>0.52083333333333337</v>
       </c>
-      <c r="D28" s="53">
+      <c r="D28" s="52">
         <v>0.60416666666666663</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="129">
         <v>2</v>
       </c>
-      <c r="F28" s="77"/>
+      <c r="F28" s="90"/>
       <c r="G28" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="H28" s="62" t="s">
+      <c r="H28" s="61" t="s">
         <v>95</v>
       </c>
       <c r="I28" s="41"/>
@@ -2386,22 +2388,22 @@
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="77"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="53">
+      <c r="A29" s="90"/>
+      <c r="B29" s="124"/>
+      <c r="C29" s="52">
         <v>0.625</v>
       </c>
-      <c r="D29" s="53">
+      <c r="D29" s="52">
         <v>0.71527777777777779</v>
       </c>
-      <c r="E29" s="5">
-        <v>2.1</v>
-      </c>
-      <c r="F29" s="77"/>
+      <c r="E29" s="129">
+        <v>2.16</v>
+      </c>
+      <c r="F29" s="90"/>
       <c r="G29" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="H29" s="62"/>
+      <c r="H29" s="61"/>
       <c r="I29" s="41"/>
       <c r="J29" s="41"/>
       <c r="K29" s="8"/>
@@ -2410,22 +2412,22 @@
       <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="77"/>
-      <c r="B30" s="75"/>
-      <c r="C30" s="53">
+      <c r="A30" s="90"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="52">
         <v>0.84375</v>
       </c>
-      <c r="D30" s="53">
+      <c r="D30" s="52">
         <v>0.95833333333333337</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="129">
         <v>2.65</v>
       </c>
-      <c r="F30" s="78"/>
+      <c r="F30" s="91"/>
       <c r="G30" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="H30" s="62" t="s">
+      <c r="H30" s="61" t="s">
         <v>107</v>
       </c>
       <c r="I30" s="41"/>
@@ -2436,27 +2438,27 @@
       <c r="N30" s="3"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="77"/>
-      <c r="B31" s="73">
+      <c r="A31" s="90"/>
+      <c r="B31" s="87">
         <v>41600</v>
       </c>
-      <c r="C31" s="53">
-        <v>0.9375</v>
-      </c>
-      <c r="D31" s="53">
+      <c r="C31" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="52">
         <v>0.61458333333333337</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="129">
         <v>1.25</v>
       </c>
-      <c r="F31" s="92">
+      <c r="F31" s="93">
         <f>SUM(E31:E32)</f>
         <v>2.75</v>
       </c>
       <c r="G31" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="H31" s="62" t="s">
+      <c r="H31" s="61" t="s">
         <v>92</v>
       </c>
       <c r="I31" s="41"/>
@@ -2467,22 +2469,22 @@
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="78"/>
-      <c r="B32" s="75"/>
-      <c r="C32" s="53">
+      <c r="A32" s="91"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="52">
         <v>0.625</v>
       </c>
-      <c r="D32" s="53">
+      <c r="D32" s="52">
         <v>0.6875</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="129">
         <v>1.5</v>
       </c>
-      <c r="F32" s="93"/>
+      <c r="F32" s="94"/>
       <c r="G32" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="H32" s="62" t="s">
+      <c r="H32" s="61" t="s">
         <v>93</v>
       </c>
       <c r="I32" s="41"/>
@@ -2493,27 +2495,27 @@
       <c r="N32" s="3"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="63"/>
-      <c r="B33" s="73">
+      <c r="A33" s="62"/>
+      <c r="B33" s="87">
         <v>41601</v>
       </c>
-      <c r="C33" s="53">
-        <v>0.5625</v>
-      </c>
-      <c r="D33" s="53">
+      <c r="C33" s="52">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D33" s="52">
         <v>0.57291666666666663</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="129">
         <v>0.25</v>
       </c>
-      <c r="F33" s="92">
+      <c r="F33" s="93">
         <f>SUM(E33:E34)</f>
         <v>1.5</v>
       </c>
       <c r="G33" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="H33" s="62" t="s">
+      <c r="H33" s="61" t="s">
         <v>89</v>
       </c>
       <c r="I33" s="41"/>
@@ -2524,25 +2526,25 @@
       <c r="N33" s="3"/>
     </row>
     <row r="34" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="64"/>
-      <c r="B34" s="75"/>
-      <c r="C34" s="53">
+      <c r="A34" s="63"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="52">
         <v>0.57291666666666663</v>
       </c>
-      <c r="D34" s="53">
+      <c r="D34" s="52">
         <v>0.625</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="129">
         <v>1.25</v>
       </c>
-      <c r="F34" s="93"/>
+      <c r="F34" s="94"/>
       <c r="G34" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="H34" s="62" t="s">
+      <c r="H34" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="I34" s="54" t="s">
+      <c r="I34" s="53" t="s">
         <v>91</v>
       </c>
       <c r="J34" s="41"/>
@@ -2552,29 +2554,29 @@
       <c r="N34" s="3"/>
     </row>
     <row r="35" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A35" s="71">
+      <c r="A35" s="85">
         <v>4</v>
       </c>
-      <c r="B35" s="69">
+      <c r="B35" s="83">
         <v>41603</v>
       </c>
-      <c r="C35" s="65">
+      <c r="C35" s="64">
         <v>0.625</v>
       </c>
-      <c r="D35" s="65">
+      <c r="D35" s="64">
         <v>0.67708333333333337</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="10">
         <v>1.25</v>
       </c>
-      <c r="F35" s="71">
+      <c r="F35" s="85">
         <f>SUM(E35:E36)</f>
         <v>3.25</v>
       </c>
       <c r="G35" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="H35" s="66" t="s">
+      <c r="H35" s="65" t="s">
         <v>106</v>
       </c>
       <c r="I35" s="42"/>
@@ -2592,22 +2594,22 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="79"/>
-      <c r="B36" s="70"/>
-      <c r="C36" s="65">
+      <c r="A36" s="119"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="64">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D36" s="65">
+      <c r="D36" s="64">
         <v>0.5</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="10">
         <v>2</v>
       </c>
-      <c r="F36" s="72"/>
+      <c r="F36" s="86"/>
       <c r="G36" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="H36" s="66" t="s">
+      <c r="H36" s="65" t="s">
         <v>97</v>
       </c>
       <c r="I36" s="42"/>
@@ -2618,27 +2620,27 @@
       <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="79"/>
-      <c r="B37" s="69">
+      <c r="A37" s="119"/>
+      <c r="B37" s="83">
         <v>41604</v>
       </c>
-      <c r="C37" s="65">
+      <c r="C37" s="64">
         <v>0.375</v>
       </c>
-      <c r="D37" s="65">
+      <c r="D37" s="64">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="10">
         <v>2.5</v>
       </c>
-      <c r="F37" s="71">
+      <c r="F37" s="85">
         <f>SUM(E37:E38)</f>
         <v>3.5</v>
       </c>
       <c r="G37" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="H37" s="66" t="s">
+      <c r="H37" s="65" t="s">
         <v>98</v>
       </c>
       <c r="I37" s="42"/>
@@ -2656,22 +2658,22 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="79"/>
-      <c r="B38" s="70"/>
-      <c r="C38" s="65">
+      <c r="A38" s="119"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="64">
         <v>0.5625</v>
       </c>
-      <c r="D38" s="65">
+      <c r="D38" s="64">
         <v>0.60416666666666663</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="10">
         <v>1</v>
       </c>
-      <c r="F38" s="72"/>
+      <c r="F38" s="86"/>
       <c r="G38" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="H38" s="66" t="s">
+      <c r="H38" s="65" t="s">
         <v>99</v>
       </c>
       <c r="I38" s="42"/>
@@ -2682,22 +2684,22 @@
       <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="79"/>
+      <c r="A39" s="119"/>
       <c r="B39" s="28">
         <v>41605</v>
       </c>
-      <c r="C39" s="65">
+      <c r="C39" s="64">
         <v>0.5625</v>
       </c>
-      <c r="D39" s="65">
+      <c r="D39" s="64">
         <v>0.65972222222222221</v>
       </c>
-      <c r="E39" s="6">
-        <v>2.2999999999999998</v>
+      <c r="E39" s="10">
+        <v>2.33</v>
       </c>
       <c r="F39" s="6">
         <f t="shared" ref="F39:F73" si="0">E39</f>
-        <v>2.2999999999999998</v>
+        <v>2.33</v>
       </c>
       <c r="G39" s="42" t="s">
         <v>86</v>
@@ -2720,17 +2722,17 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="79"/>
+      <c r="A40" s="119"/>
       <c r="B40" s="28">
         <v>41606</v>
       </c>
-      <c r="C40" s="65">
+      <c r="C40" s="64">
         <v>0.5625</v>
       </c>
-      <c r="D40" s="65">
+      <c r="D40" s="64">
         <v>0.67708333333333337</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="10">
         <v>2.75</v>
       </c>
       <c r="F40" s="6">
@@ -2758,17 +2760,17 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="72"/>
+      <c r="A41" s="86"/>
       <c r="B41" s="28">
         <v>41607</v>
       </c>
-      <c r="C41" s="65">
+      <c r="C41" s="64">
         <v>0.5625</v>
       </c>
-      <c r="D41" s="65">
+      <c r="D41" s="64">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="10">
         <v>3.5</v>
       </c>
       <c r="F41" s="6">
@@ -2795,28 +2797,28 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="67"/>
-      <c r="B42" s="69">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="66"/>
+      <c r="B42" s="83">
         <v>41608</v>
       </c>
-      <c r="C42" s="65">
+      <c r="C42" s="64">
         <v>0.60416666666666696</v>
       </c>
-      <c r="D42" s="65">
+      <c r="D42" s="64">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="10">
         <v>1.5</v>
       </c>
-      <c r="F42" s="71">
+      <c r="F42" s="85">
         <f>SUM(E42:E43)</f>
         <v>2.5</v>
       </c>
       <c r="G42" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="H42" s="68" t="s">
+      <c r="H42" s="67" t="s">
         <v>102</v>
       </c>
       <c r="I42" s="42"/>
@@ -2827,22 +2829,22 @@
       <c r="N42" s="3"/>
     </row>
     <row r="43" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="67"/>
-      <c r="B43" s="70"/>
-      <c r="C43" s="65">
+      <c r="A43" s="66"/>
+      <c r="B43" s="84"/>
+      <c r="C43" s="64">
         <v>0.85416666666666663</v>
       </c>
-      <c r="D43" s="65">
+      <c r="D43" s="64">
         <v>0.89583333333333337</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="10">
         <v>1</v>
       </c>
-      <c r="F43" s="72"/>
+      <c r="F43" s="86"/>
       <c r="G43" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="H43" s="68" t="s">
+      <c r="H43" s="67" t="s">
         <v>103</v>
       </c>
       <c r="I43" s="42"/>
@@ -2853,22 +2855,22 @@
       <c r="N43" s="3"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="76">
+      <c r="A44" s="89">
         <v>5</v>
       </c>
-      <c r="B44" s="73">
+      <c r="B44" s="87">
         <v>41610</v>
       </c>
-      <c r="C44" s="53">
+      <c r="C44" s="52">
         <v>0.85416666666666663</v>
       </c>
-      <c r="D44" s="53">
+      <c r="D44" s="52">
         <v>0.89583333333333337</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="129">
         <v>1</v>
       </c>
-      <c r="F44" s="76">
+      <c r="F44" s="89">
         <f>SUM(E44:E46)</f>
         <v>3.5</v>
       </c>
@@ -2893,22 +2895,22 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="77"/>
-      <c r="B45" s="74"/>
-      <c r="C45" s="53">
+      <c r="A45" s="90"/>
+      <c r="B45" s="124"/>
+      <c r="C45" s="52">
         <v>0.89583333333333337</v>
       </c>
-      <c r="D45" s="53">
+      <c r="D45" s="52">
         <v>0.95833333333333337</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="129">
         <v>1.5</v>
       </c>
-      <c r="F45" s="77"/>
+      <c r="F45" s="90"/>
       <c r="G45" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="H45" s="54" t="s">
+      <c r="H45" s="53" t="s">
         <v>105</v>
       </c>
       <c r="I45" s="41"/>
@@ -2919,22 +2921,22 @@
       <c r="N45" s="3"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="77"/>
-      <c r="B46" s="75"/>
-      <c r="C46" s="53">
+      <c r="A46" s="90"/>
+      <c r="B46" s="88"/>
+      <c r="C46" s="52">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D46" s="53">
+      <c r="D46" s="52">
         <v>1</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="129">
         <v>1</v>
       </c>
-      <c r="F46" s="78"/>
+      <c r="F46" s="91"/>
       <c r="G46" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="H46" s="54" t="s">
+      <c r="H46" s="53" t="s">
         <v>97</v>
       </c>
       <c r="I46" s="41"/>
@@ -2945,24 +2947,24 @@
       <c r="N46" s="3"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="77"/>
-      <c r="B47" s="73">
+      <c r="A47" s="90"/>
+      <c r="B47" s="87">
         <v>41611</v>
       </c>
-      <c r="C47" s="53">
+      <c r="C47" s="52">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D47" s="53">
+      <c r="D47" s="52">
         <v>0.375</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="129">
         <v>1</v>
       </c>
-      <c r="F47" s="76">
+      <c r="F47" s="89">
         <f>SUM(E47:E52)</f>
         <v>10.5</v>
       </c>
-      <c r="G47" s="129" t="s">
+      <c r="G47" s="41" t="s">
         <v>83</v>
       </c>
       <c r="H47" s="41"/>
@@ -2981,18 +2983,18 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="77"/>
-      <c r="B48" s="74"/>
-      <c r="C48" s="53">
+      <c r="A48" s="90"/>
+      <c r="B48" s="124"/>
+      <c r="C48" s="52">
         <v>0.375</v>
       </c>
-      <c r="D48" s="53">
+      <c r="D48" s="52">
         <v>0.4375</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="129">
         <v>1.5</v>
       </c>
-      <c r="F48" s="77"/>
+      <c r="F48" s="90"/>
       <c r="G48" s="41" t="s">
         <v>108</v>
       </c>
@@ -3007,18 +3009,18 @@
       <c r="N48" s="3"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="77"/>
-      <c r="B49" s="74"/>
-      <c r="C49" s="53" t="s">
+      <c r="A49" s="90"/>
+      <c r="B49" s="124"/>
+      <c r="C49" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="D49" s="53" t="s">
+      <c r="D49" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="129">
         <v>0.5</v>
       </c>
-      <c r="F49" s="77"/>
+      <c r="F49" s="90"/>
       <c r="G49" s="41" t="s">
         <v>117</v>
       </c>
@@ -3033,22 +3035,22 @@
       <c r="N49" s="3"/>
     </row>
     <row r="50" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="77"/>
-      <c r="B50" s="74"/>
-      <c r="C50" s="53">
+      <c r="A50" s="90"/>
+      <c r="B50" s="124"/>
+      <c r="C50" s="52">
         <v>0.5625</v>
       </c>
-      <c r="D50" s="53">
+      <c r="D50" s="52">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="129">
         <v>3.5</v>
       </c>
-      <c r="F50" s="77"/>
+      <c r="F50" s="90"/>
       <c r="G50" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="H50" s="54" t="s">
+      <c r="H50" s="53" t="s">
         <v>113</v>
       </c>
       <c r="I50" s="41"/>
@@ -3059,18 +3061,18 @@
       <c r="N50" s="3"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="77"/>
-      <c r="B51" s="74"/>
-      <c r="C51" s="53">
+      <c r="A51" s="90"/>
+      <c r="B51" s="124"/>
+      <c r="C51" s="52">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D51" s="53">
+      <c r="D51" s="52">
         <v>0.875</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51" s="129">
         <v>1</v>
       </c>
-      <c r="F51" s="77"/>
+      <c r="F51" s="90"/>
       <c r="G51" s="41" t="s">
         <v>87</v>
       </c>
@@ -3087,22 +3089,22 @@
       <c r="N51" s="3"/>
     </row>
     <row r="52" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="77"/>
-      <c r="B52" s="75"/>
-      <c r="C52" s="53">
+      <c r="A52" s="90"/>
+      <c r="B52" s="88"/>
+      <c r="C52" s="52">
         <v>0.875</v>
       </c>
-      <c r="D52" s="53">
+      <c r="D52" s="52">
         <v>0.5</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E52" s="129">
         <v>3</v>
       </c>
-      <c r="F52" s="78"/>
+      <c r="F52" s="91"/>
       <c r="G52" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="H52" s="54" t="s">
+      <c r="H52" s="53" t="s">
         <v>112</v>
       </c>
       <c r="I52" s="41"/>
@@ -3113,27 +3115,27 @@
       <c r="N52" s="3"/>
     </row>
     <row r="53" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A53" s="77"/>
-      <c r="B53" s="73">
+      <c r="A53" s="90"/>
+      <c r="B53" s="87">
         <v>41612</v>
       </c>
-      <c r="C53" s="53">
+      <c r="C53" s="52">
         <v>0.5625</v>
       </c>
-      <c r="D53" s="53">
+      <c r="D53" s="52">
         <v>0.67361111111111116</v>
       </c>
-      <c r="E53" s="5">
-        <v>2.6</v>
-      </c>
-      <c r="F53" s="76">
+      <c r="E53" s="129">
+        <v>2.66</v>
+      </c>
+      <c r="F53" s="89">
         <f>SUM(E53:E54)</f>
-        <v>4.5999999999999996</v>
+        <v>4.66</v>
       </c>
       <c r="G53" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="H53" s="54" t="s">
+      <c r="H53" s="53" t="s">
         <v>114</v>
       </c>
       <c r="I53" s="41"/>
@@ -3151,22 +3153,22 @@
       </c>
     </row>
     <row r="54" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="77"/>
-      <c r="B54" s="75"/>
-      <c r="C54" s="53">
+      <c r="A54" s="90"/>
+      <c r="B54" s="88"/>
+      <c r="C54" s="52">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D54" s="53">
+      <c r="D54" s="52">
         <v>0.91666666666666663</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E54" s="129">
         <v>2</v>
       </c>
-      <c r="F54" s="78"/>
+      <c r="F54" s="91"/>
       <c r="G54" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="H54" s="54" t="s">
+      <c r="H54" s="53" t="s">
         <v>112</v>
       </c>
       <c r="I54" s="41"/>
@@ -3177,13 +3179,13 @@
       <c r="N54" s="3"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="77"/>
+      <c r="A55" s="90"/>
       <c r="B55" s="27">
         <v>41613</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
+      <c r="E55" s="129"/>
       <c r="F55" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3205,13 +3207,13 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="78"/>
+      <c r="A56" s="91"/>
       <c r="B56" s="27">
         <v>41614</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
+      <c r="E56" s="129"/>
       <c r="F56" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3233,7 +3235,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="71">
+      <c r="A57" s="85">
         <v>6</v>
       </c>
       <c r="B57" s="28">
@@ -3241,7 +3243,7 @@
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
+      <c r="E57" s="10"/>
       <c r="F57" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3263,13 +3265,13 @@
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="79"/>
+      <c r="A58" s="119"/>
       <c r="B58" s="28">
         <v>41618</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
+      <c r="E58" s="10"/>
       <c r="F58" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3291,13 +3293,13 @@
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="79"/>
+      <c r="A59" s="119"/>
       <c r="B59" s="28">
         <v>41619</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
+      <c r="E59" s="10"/>
       <c r="F59" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3319,13 +3321,13 @@
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="79"/>
+      <c r="A60" s="119"/>
       <c r="B60" s="28">
         <v>41620</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
+      <c r="E60" s="10"/>
       <c r="F60" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3347,13 +3349,13 @@
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="72"/>
+      <c r="A61" s="86"/>
       <c r="B61" s="28">
         <v>41621</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
+      <c r="E61" s="10"/>
       <c r="F61" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3375,7 +3377,7 @@
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="76">
+      <c r="A62" s="89">
         <v>7</v>
       </c>
       <c r="B62" s="27">
@@ -3383,7 +3385,7 @@
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
+      <c r="E62" s="129"/>
       <c r="F62" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3405,13 +3407,13 @@
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="77"/>
+      <c r="A63" s="90"/>
       <c r="B63" s="27">
         <v>41625</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
+      <c r="E63" s="129"/>
       <c r="F63" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3433,13 +3435,13 @@
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="77"/>
+      <c r="A64" s="90"/>
       <c r="B64" s="27">
         <v>41626</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
+      <c r="E64" s="129"/>
       <c r="F64" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3461,13 +3463,13 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="77"/>
+      <c r="A65" s="90"/>
       <c r="B65" s="27">
         <v>41627</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
+      <c r="E65" s="129"/>
       <c r="F65" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3478,13 +3480,13 @@
       <c r="J65" s="41"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="78"/>
+      <c r="A66" s="91"/>
       <c r="B66" s="27">
         <v>41628</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
+      <c r="E66" s="129"/>
       <c r="F66" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3495,7 +3497,7 @@
       <c r="J66" s="41"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="71">
+      <c r="A67" s="85">
         <v>8</v>
       </c>
       <c r="B67" s="28">
@@ -3503,7 +3505,7 @@
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
+      <c r="E67" s="10"/>
       <c r="F67" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3514,13 +3516,13 @@
       <c r="J67" s="42"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="79"/>
+      <c r="A68" s="119"/>
       <c r="B68" s="28">
         <v>41632</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
+      <c r="E68" s="10"/>
       <c r="F68" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3531,13 +3533,13 @@
       <c r="J68" s="42"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="79"/>
+      <c r="A69" s="119"/>
       <c r="B69" s="28">
         <v>41633</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
+      <c r="E69" s="10"/>
       <c r="F69" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3548,13 +3550,13 @@
       <c r="J69" s="42"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="79"/>
+      <c r="A70" s="119"/>
       <c r="B70" s="28">
         <v>41634</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
+      <c r="E70" s="10"/>
       <c r="F70" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3565,13 +3567,13 @@
       <c r="J70" s="42"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="72"/>
+      <c r="A71" s="86"/>
       <c r="B71" s="28">
         <v>41635</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
+      <c r="E71" s="10"/>
       <c r="F71" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3582,7 +3584,7 @@
       <c r="J71" s="42"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="76">
+      <c r="A72" s="89">
         <v>9</v>
       </c>
       <c r="B72" s="27">
@@ -3590,7 +3592,7 @@
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
+      <c r="E72" s="129"/>
       <c r="F72" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3601,13 +3603,13 @@
       <c r="J72" s="41"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="77"/>
+      <c r="A73" s="90"/>
       <c r="B73" s="27">
         <v>41639</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
+      <c r="E73" s="129"/>
       <c r="F73" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3618,13 +3620,13 @@
       <c r="J73" s="41"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="77"/>
+      <c r="A74" s="90"/>
       <c r="B74" s="27">
         <v>41640</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
+      <c r="E74" s="129"/>
       <c r="F74" s="5">
         <f t="shared" ref="F74:F105" si="1">E74</f>
         <v>0</v>
@@ -3635,13 +3637,13 @@
       <c r="J74" s="41"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="77"/>
+      <c r="A75" s="90"/>
       <c r="B75" s="27">
         <v>41641</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
+      <c r="E75" s="129"/>
       <c r="F75" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3652,13 +3654,13 @@
       <c r="J75" s="41"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="78"/>
+      <c r="A76" s="91"/>
       <c r="B76" s="27">
         <v>41642</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
+      <c r="E76" s="129"/>
       <c r="F76" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3669,7 +3671,7 @@
       <c r="J76" s="41"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="71">
+      <c r="A77" s="85">
         <v>10</v>
       </c>
       <c r="B77" s="28">
@@ -3677,7 +3679,7 @@
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
+      <c r="E77" s="10"/>
       <c r="F77" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3688,13 +3690,13 @@
       <c r="J77" s="42"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="79"/>
+      <c r="A78" s="119"/>
       <c r="B78" s="28">
         <v>41646</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
+      <c r="E78" s="10"/>
       <c r="F78" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3705,13 +3707,13 @@
       <c r="J78" s="42"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="79"/>
+      <c r="A79" s="119"/>
       <c r="B79" s="28">
         <v>41647</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
+      <c r="E79" s="10"/>
       <c r="F79" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3722,13 +3724,13 @@
       <c r="J79" s="42"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="79"/>
+      <c r="A80" s="119"/>
       <c r="B80" s="28">
         <v>41648</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
+      <c r="E80" s="10"/>
       <c r="F80" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3739,13 +3741,13 @@
       <c r="J80" s="42"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="72"/>
+      <c r="A81" s="86"/>
       <c r="B81" s="28">
         <v>41649</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
+      <c r="E81" s="10"/>
       <c r="F81" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3756,7 +3758,7 @@
       <c r="J81" s="42"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="76">
+      <c r="A82" s="89">
         <v>11</v>
       </c>
       <c r="B82" s="27">
@@ -3764,7 +3766,7 @@
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
+      <c r="E82" s="129"/>
       <c r="F82" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3775,13 +3777,13 @@
       <c r="J82" s="41"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="77"/>
+      <c r="A83" s="90"/>
       <c r="B83" s="27">
         <v>41653</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
+      <c r="E83" s="129"/>
       <c r="F83" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3792,13 +3794,13 @@
       <c r="J83" s="41"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="77"/>
+      <c r="A84" s="90"/>
       <c r="B84" s="27">
         <v>41654</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
+      <c r="E84" s="129"/>
       <c r="F84" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3809,13 +3811,13 @@
       <c r="J84" s="41"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="77"/>
+      <c r="A85" s="90"/>
       <c r="B85" s="27">
         <v>41655</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
+      <c r="E85" s="129"/>
       <c r="F85" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3826,13 +3828,13 @@
       <c r="J85" s="41"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="78"/>
+      <c r="A86" s="91"/>
       <c r="B86" s="27">
         <v>41656</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
+      <c r="E86" s="129"/>
       <c r="F86" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3843,7 +3845,7 @@
       <c r="J86" s="41"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="71">
+      <c r="A87" s="85">
         <v>12</v>
       </c>
       <c r="B87" s="28">
@@ -3851,7 +3853,7 @@
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
+      <c r="E87" s="10"/>
       <c r="F87" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3862,13 +3864,13 @@
       <c r="J87" s="42"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="79"/>
+      <c r="A88" s="119"/>
       <c r="B88" s="28">
         <v>41660</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
+      <c r="E88" s="10"/>
       <c r="F88" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3879,13 +3881,13 @@
       <c r="J88" s="42"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="79"/>
+      <c r="A89" s="119"/>
       <c r="B89" s="28">
         <v>41661</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
+      <c r="E89" s="10"/>
       <c r="F89" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3896,13 +3898,13 @@
       <c r="J89" s="42"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="79"/>
+      <c r="A90" s="119"/>
       <c r="B90" s="28">
         <v>41662</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
+      <c r="E90" s="10"/>
       <c r="F90" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3913,13 +3915,13 @@
       <c r="J90" s="42"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="72"/>
+      <c r="A91" s="86"/>
       <c r="B91" s="28">
         <v>41663</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
+      <c r="E91" s="10"/>
       <c r="F91" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3930,7 +3932,7 @@
       <c r="J91" s="42"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="76">
+      <c r="A92" s="89">
         <v>13</v>
       </c>
       <c r="B92" s="27">
@@ -3938,7 +3940,7 @@
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
+      <c r="E92" s="129"/>
       <c r="F92" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3951,13 +3953,13 @@
       <c r="J92" s="41"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="77"/>
+      <c r="A93" s="90"/>
       <c r="B93" s="27">
         <v>41667</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
+      <c r="E93" s="129"/>
       <c r="F93" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3970,13 +3972,13 @@
       <c r="J93" s="41"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="77"/>
+      <c r="A94" s="90"/>
       <c r="B94" s="27">
         <v>41668</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
+      <c r="E94" s="129"/>
       <c r="F94" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3989,13 +3991,13 @@
       <c r="J94" s="41"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="77"/>
+      <c r="A95" s="90"/>
       <c r="B95" s="27">
         <v>41669</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
+      <c r="E95" s="129"/>
       <c r="F95" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4008,13 +4010,13 @@
       <c r="J95" s="41"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="78"/>
+      <c r="A96" s="91"/>
       <c r="B96" s="27">
         <v>41670</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
+      <c r="E96" s="129"/>
       <c r="F96" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4027,7 +4029,7 @@
       <c r="J96" s="41"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="71">
+      <c r="A97" s="85">
         <v>14</v>
       </c>
       <c r="B97" s="28">
@@ -4035,7 +4037,7 @@
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
+      <c r="E97" s="10"/>
       <c r="F97" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4048,13 +4050,13 @@
       <c r="J97" s="42"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="79"/>
+      <c r="A98" s="119"/>
       <c r="B98" s="28">
         <v>41674</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
+      <c r="E98" s="10"/>
       <c r="F98" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4067,13 +4069,13 @@
       <c r="J98" s="42"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="79"/>
+      <c r="A99" s="119"/>
       <c r="B99" s="28">
         <v>41675</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
+      <c r="E99" s="10"/>
       <c r="F99" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4086,13 +4088,13 @@
       <c r="J99" s="42"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="79"/>
+      <c r="A100" s="119"/>
       <c r="B100" s="28">
         <v>41676</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
+      <c r="E100" s="10"/>
       <c r="F100" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4105,13 +4107,13 @@
       <c r="J100" s="42"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="72"/>
+      <c r="A101" s="86"/>
       <c r="B101" s="28">
         <v>41677</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
+      <c r="E101" s="10"/>
       <c r="F101" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4124,7 +4126,7 @@
       <c r="J101" s="42"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="76">
+      <c r="A102" s="89">
         <v>15</v>
       </c>
       <c r="B102" s="27">
@@ -4132,7 +4134,7 @@
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
+      <c r="E102" s="129"/>
       <c r="F102" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4143,13 +4145,13 @@
       <c r="J102" s="41"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="77"/>
+      <c r="A103" s="90"/>
       <c r="B103" s="27">
         <v>41681</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
+      <c r="E103" s="129"/>
       <c r="F103" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4160,13 +4162,13 @@
       <c r="J103" s="41"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="77"/>
+      <c r="A104" s="90"/>
       <c r="B104" s="27">
         <v>41682</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
+      <c r="E104" s="129"/>
       <c r="F104" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4177,13 +4179,13 @@
       <c r="J104" s="41"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="77"/>
+      <c r="A105" s="90"/>
       <c r="B105" s="27">
         <v>41683</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
+      <c r="E105" s="129"/>
       <c r="F105" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4194,13 +4196,13 @@
       <c r="J105" s="41"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="78"/>
+      <c r="A106" s="91"/>
       <c r="B106" s="27">
         <v>41684</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
+      <c r="E106" s="129"/>
       <c r="F106" s="5">
         <f t="shared" ref="F106:F137" si="2">E106</f>
         <v>0</v>
@@ -4211,7 +4213,7 @@
       <c r="J106" s="41"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="71">
+      <c r="A107" s="85">
         <v>16</v>
       </c>
       <c r="B107" s="28">
@@ -4219,7 +4221,7 @@
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
+      <c r="E107" s="10"/>
       <c r="F107" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4230,13 +4232,13 @@
       <c r="J107" s="42"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="79"/>
+      <c r="A108" s="119"/>
       <c r="B108" s="28">
         <v>41688</v>
       </c>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
+      <c r="E108" s="10"/>
       <c r="F108" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4247,13 +4249,13 @@
       <c r="J108" s="42"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="79"/>
+      <c r="A109" s="119"/>
       <c r="B109" s="28">
         <v>41689</v>
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
+      <c r="E109" s="10"/>
       <c r="F109" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4264,13 +4266,13 @@
       <c r="J109" s="42"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="79"/>
+      <c r="A110" s="119"/>
       <c r="B110" s="28">
         <v>41690</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
+      <c r="E110" s="10"/>
       <c r="F110" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4281,13 +4283,13 @@
       <c r="J110" s="42"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="72"/>
+      <c r="A111" s="86"/>
       <c r="B111" s="28">
         <v>41691</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
+      <c r="E111" s="10"/>
       <c r="F111" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4298,7 +4300,7 @@
       <c r="J111" s="42"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="76">
+      <c r="A112" s="89">
         <v>17</v>
       </c>
       <c r="B112" s="27">
@@ -4306,7 +4308,7 @@
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
+      <c r="E112" s="129"/>
       <c r="F112" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4317,13 +4319,13 @@
       <c r="J112" s="41"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="77"/>
+      <c r="A113" s="90"/>
       <c r="B113" s="27">
         <v>41695</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
+      <c r="E113" s="129"/>
       <c r="F113" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4334,13 +4336,13 @@
       <c r="J113" s="41"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="77"/>
+      <c r="A114" s="90"/>
       <c r="B114" s="27">
         <v>41696</v>
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
+      <c r="E114" s="129"/>
       <c r="F114" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4351,13 +4353,13 @@
       <c r="J114" s="41"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="77"/>
+      <c r="A115" s="90"/>
       <c r="B115" s="27">
         <v>41697</v>
       </c>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
+      <c r="E115" s="129"/>
       <c r="F115" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4368,13 +4370,13 @@
       <c r="J115" s="41"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="78"/>
+      <c r="A116" s="91"/>
       <c r="B116" s="27">
         <v>41698</v>
       </c>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
+      <c r="E116" s="129"/>
       <c r="F116" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4385,7 +4387,7 @@
       <c r="J116" s="41"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="71">
+      <c r="A117" s="85">
         <v>18</v>
       </c>
       <c r="B117" s="28">
@@ -4393,7 +4395,7 @@
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
-      <c r="E117" s="6"/>
+      <c r="E117" s="10"/>
       <c r="F117" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4404,13 +4406,13 @@
       <c r="J117" s="42"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="79"/>
+      <c r="A118" s="119"/>
       <c r="B118" s="28">
         <v>41702</v>
       </c>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
-      <c r="E118" s="6"/>
+      <c r="E118" s="10"/>
       <c r="F118" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4421,13 +4423,13 @@
       <c r="J118" s="42"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="79"/>
+      <c r="A119" s="119"/>
       <c r="B119" s="28">
         <v>41703</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
+      <c r="E119" s="10"/>
       <c r="F119" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4438,13 +4440,13 @@
       <c r="J119" s="42"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="79"/>
+      <c r="A120" s="119"/>
       <c r="B120" s="28">
         <v>41704</v>
       </c>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
+      <c r="E120" s="10"/>
       <c r="F120" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4455,13 +4457,13 @@
       <c r="J120" s="42"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="72"/>
+      <c r="A121" s="86"/>
       <c r="B121" s="28">
         <v>41705</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
-      <c r="E121" s="6"/>
+      <c r="E121" s="10"/>
       <c r="F121" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4472,7 +4474,7 @@
       <c r="J121" s="42"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="76">
+      <c r="A122" s="89">
         <v>19</v>
       </c>
       <c r="B122" s="27">
@@ -4480,7 +4482,7 @@
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
+      <c r="E122" s="129"/>
       <c r="F122" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4491,13 +4493,13 @@
       <c r="J122" s="41"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="77"/>
+      <c r="A123" s="90"/>
       <c r="B123" s="27">
         <v>41709</v>
       </c>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
+      <c r="E123" s="129"/>
       <c r="F123" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4508,13 +4510,13 @@
       <c r="J123" s="41"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="77"/>
+      <c r="A124" s="90"/>
       <c r="B124" s="27">
         <v>41710</v>
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
+      <c r="E124" s="129"/>
       <c r="F124" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4525,13 +4527,13 @@
       <c r="J124" s="41"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="77"/>
+      <c r="A125" s="90"/>
       <c r="B125" s="27">
         <v>41711</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
+      <c r="E125" s="129"/>
       <c r="F125" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4542,13 +4544,13 @@
       <c r="J125" s="41"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="78"/>
+      <c r="A126" s="91"/>
       <c r="B126" s="27">
         <v>41712</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
+      <c r="E126" s="129"/>
       <c r="F126" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4559,7 +4561,7 @@
       <c r="J126" s="41"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="71">
+      <c r="A127" s="85">
         <v>20</v>
       </c>
       <c r="B127" s="28">
@@ -4567,7 +4569,7 @@
       </c>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
-      <c r="E127" s="6"/>
+      <c r="E127" s="10"/>
       <c r="F127" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4578,13 +4580,13 @@
       <c r="J127" s="42"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="79"/>
+      <c r="A128" s="119"/>
       <c r="B128" s="28">
         <v>41716</v>
       </c>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
-      <c r="E128" s="6"/>
+      <c r="E128" s="10"/>
       <c r="F128" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4595,13 +4597,13 @@
       <c r="J128" s="42"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="79"/>
+      <c r="A129" s="119"/>
       <c r="B129" s="28">
         <v>41717</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
-      <c r="E129" s="6"/>
+      <c r="E129" s="10"/>
       <c r="F129" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4612,13 +4614,13 @@
       <c r="J129" s="42"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="79"/>
+      <c r="A130" s="119"/>
       <c r="B130" s="28">
         <v>41718</v>
       </c>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
-      <c r="E130" s="6"/>
+      <c r="E130" s="10"/>
       <c r="F130" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4629,13 +4631,13 @@
       <c r="J130" s="42"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="72"/>
+      <c r="A131" s="86"/>
       <c r="B131" s="28">
         <v>41719</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
-      <c r="E131" s="6"/>
+      <c r="E131" s="10"/>
       <c r="F131" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4646,7 +4648,7 @@
       <c r="J131" s="42"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="76">
+      <c r="A132" s="89">
         <v>21</v>
       </c>
       <c r="B132" s="27">
@@ -4654,7 +4656,7 @@
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
+      <c r="E132" s="129"/>
       <c r="F132" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4665,13 +4667,13 @@
       <c r="J132" s="41"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="77"/>
+      <c r="A133" s="90"/>
       <c r="B133" s="27">
         <v>41723</v>
       </c>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
-      <c r="E133" s="5"/>
+      <c r="E133" s="129"/>
       <c r="F133" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4682,13 +4684,13 @@
       <c r="J133" s="41"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="77"/>
+      <c r="A134" s="90"/>
       <c r="B134" s="27">
         <v>41724</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
+      <c r="E134" s="129"/>
       <c r="F134" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4699,13 +4701,13 @@
       <c r="J134" s="41"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="77"/>
+      <c r="A135" s="90"/>
       <c r="B135" s="27">
         <v>41725</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
+      <c r="E135" s="129"/>
       <c r="F135" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4716,13 +4718,13 @@
       <c r="J135" s="41"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="78"/>
+      <c r="A136" s="91"/>
       <c r="B136" s="27">
         <v>41726</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
+      <c r="E136" s="129"/>
       <c r="F136" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4733,7 +4735,7 @@
       <c r="J136" s="41"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="71">
+      <c r="A137" s="85">
         <v>22</v>
       </c>
       <c r="B137" s="28">
@@ -4741,7 +4743,7 @@
       </c>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
-      <c r="E137" s="6"/>
+      <c r="E137" s="10"/>
       <c r="F137" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4752,13 +4754,13 @@
       <c r="J137" s="42"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="79"/>
+      <c r="A138" s="119"/>
       <c r="B138" s="28">
         <v>41730</v>
       </c>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
-      <c r="E138" s="6"/>
+      <c r="E138" s="10"/>
       <c r="F138" s="6">
         <f t="shared" ref="F138:F169" si="3">E138</f>
         <v>0</v>
@@ -4769,13 +4771,13 @@
       <c r="J138" s="42"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="79"/>
+      <c r="A139" s="119"/>
       <c r="B139" s="28">
         <v>41731</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
-      <c r="E139" s="6"/>
+      <c r="E139" s="10"/>
       <c r="F139" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4786,13 +4788,13 @@
       <c r="J139" s="42"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="79"/>
+      <c r="A140" s="119"/>
       <c r="B140" s="28">
         <v>41732</v>
       </c>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
-      <c r="E140" s="6"/>
+      <c r="E140" s="10"/>
       <c r="F140" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4803,13 +4805,13 @@
       <c r="J140" s="42"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="72"/>
+      <c r="A141" s="86"/>
       <c r="B141" s="28">
         <v>41733</v>
       </c>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
-      <c r="E141" s="6"/>
+      <c r="E141" s="10"/>
       <c r="F141" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4820,7 +4822,7 @@
       <c r="J141" s="42"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="76">
+      <c r="A142" s="89">
         <v>23</v>
       </c>
       <c r="B142" s="27">
@@ -4828,7 +4830,7 @@
       </c>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
+      <c r="E142" s="129"/>
       <c r="F142" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4839,13 +4841,13 @@
       <c r="J142" s="41"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="77"/>
+      <c r="A143" s="90"/>
       <c r="B143" s="27">
         <v>41737</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
-      <c r="E143" s="5"/>
+      <c r="E143" s="129"/>
       <c r="F143" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4856,13 +4858,13 @@
       <c r="J143" s="41"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="77"/>
+      <c r="A144" s="90"/>
       <c r="B144" s="27">
         <v>41738</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
-      <c r="E144" s="5"/>
+      <c r="E144" s="129"/>
       <c r="F144" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4873,13 +4875,13 @@
       <c r="J144" s="41"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="77"/>
+      <c r="A145" s="90"/>
       <c r="B145" s="27">
         <v>41739</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
-      <c r="E145" s="5"/>
+      <c r="E145" s="129"/>
       <c r="F145" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4890,13 +4892,13 @@
       <c r="J145" s="41"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="78"/>
+      <c r="A146" s="91"/>
       <c r="B146" s="27">
         <v>41740</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
-      <c r="E146" s="5"/>
+      <c r="E146" s="129"/>
       <c r="F146" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4907,7 +4909,7 @@
       <c r="J146" s="41"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="71">
+      <c r="A147" s="85">
         <v>24</v>
       </c>
       <c r="B147" s="28">
@@ -4915,7 +4917,7 @@
       </c>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
-      <c r="E147" s="6"/>
+      <c r="E147" s="10"/>
       <c r="F147" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4926,13 +4928,13 @@
       <c r="J147" s="42"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="79"/>
+      <c r="A148" s="119"/>
       <c r="B148" s="28">
         <v>41744</v>
       </c>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
-      <c r="E148" s="6"/>
+      <c r="E148" s="10"/>
       <c r="F148" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4943,13 +4945,13 @@
       <c r="J148" s="42"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="79"/>
+      <c r="A149" s="119"/>
       <c r="B149" s="28">
         <v>41745</v>
       </c>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
-      <c r="E149" s="6"/>
+      <c r="E149" s="10"/>
       <c r="F149" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4960,13 +4962,13 @@
       <c r="J149" s="42"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="79"/>
+      <c r="A150" s="119"/>
       <c r="B150" s="28">
         <v>41746</v>
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
-      <c r="E150" s="6"/>
+      <c r="E150" s="10"/>
       <c r="F150" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4977,13 +4979,13 @@
       <c r="J150" s="42"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="72"/>
+      <c r="A151" s="86"/>
       <c r="B151" s="28">
         <v>41747</v>
       </c>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
-      <c r="E151" s="6"/>
+      <c r="E151" s="10"/>
       <c r="F151" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4994,7 +4996,7 @@
       <c r="J151" s="42"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="76">
+      <c r="A152" s="89">
         <v>25</v>
       </c>
       <c r="B152" s="27">
@@ -5002,7 +5004,7 @@
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
-      <c r="E152" s="5"/>
+      <c r="E152" s="129"/>
       <c r="F152" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5013,13 +5015,13 @@
       <c r="J152" s="41"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="77"/>
+      <c r="A153" s="90"/>
       <c r="B153" s="27">
         <v>41751</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
+      <c r="E153" s="129"/>
       <c r="F153" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5030,13 +5032,13 @@
       <c r="J153" s="41"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="77"/>
+      <c r="A154" s="90"/>
       <c r="B154" s="27">
         <v>41752</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
-      <c r="E154" s="5"/>
+      <c r="E154" s="129"/>
       <c r="F154" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5047,13 +5049,13 @@
       <c r="J154" s="41"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="77"/>
+      <c r="A155" s="90"/>
       <c r="B155" s="27">
         <v>41753</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
+      <c r="E155" s="129"/>
       <c r="F155" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5064,13 +5066,13 @@
       <c r="J155" s="41"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="78"/>
+      <c r="A156" s="91"/>
       <c r="B156" s="27">
         <v>41754</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
-      <c r="E156" s="5"/>
+      <c r="E156" s="129"/>
       <c r="F156" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5081,7 +5083,7 @@
       <c r="J156" s="41"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="71">
+      <c r="A157" s="85">
         <v>26</v>
       </c>
       <c r="B157" s="28">
@@ -5089,7 +5091,7 @@
       </c>
       <c r="C157" s="6"/>
       <c r="D157" s="6"/>
-      <c r="E157" s="6"/>
+      <c r="E157" s="10"/>
       <c r="F157" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5100,13 +5102,13 @@
       <c r="J157" s="42"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="79"/>
+      <c r="A158" s="119"/>
       <c r="B158" s="28">
         <v>41758</v>
       </c>
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
-      <c r="E158" s="6"/>
+      <c r="E158" s="10"/>
       <c r="F158" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5117,13 +5119,13 @@
       <c r="J158" s="42"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="79"/>
+      <c r="A159" s="119"/>
       <c r="B159" s="28">
         <v>41759</v>
       </c>
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
-      <c r="E159" s="6"/>
+      <c r="E159" s="10"/>
       <c r="F159" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5134,13 +5136,13 @@
       <c r="J159" s="42"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="79"/>
+      <c r="A160" s="119"/>
       <c r="B160" s="28">
         <v>41760</v>
       </c>
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
-      <c r="E160" s="6"/>
+      <c r="E160" s="10"/>
       <c r="F160" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5151,13 +5153,13 @@
       <c r="J160" s="42"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="72"/>
+      <c r="A161" s="86"/>
       <c r="B161" s="28">
         <v>41761</v>
       </c>
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
-      <c r="E161" s="6"/>
+      <c r="E161" s="10"/>
       <c r="F161" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5168,7 +5170,7 @@
       <c r="J161" s="42"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="76">
+      <c r="A162" s="89">
         <v>27</v>
       </c>
       <c r="B162" s="27">
@@ -5176,7 +5178,7 @@
       </c>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
-      <c r="E162" s="5"/>
+      <c r="E162" s="129"/>
       <c r="F162" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5187,13 +5189,13 @@
       <c r="J162" s="41"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="77"/>
+      <c r="A163" s="90"/>
       <c r="B163" s="27">
         <v>41765</v>
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
-      <c r="E163" s="5"/>
+      <c r="E163" s="129"/>
       <c r="F163" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5204,13 +5206,13 @@
       <c r="J163" s="41"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="77"/>
+      <c r="A164" s="90"/>
       <c r="B164" s="27">
         <v>41766</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
-      <c r="E164" s="5"/>
+      <c r="E164" s="129"/>
       <c r="F164" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5221,13 +5223,13 @@
       <c r="J164" s="41"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="77"/>
+      <c r="A165" s="90"/>
       <c r="B165" s="27">
         <v>41767</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
-      <c r="E165" s="5"/>
+      <c r="E165" s="129"/>
       <c r="F165" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5238,13 +5240,13 @@
       <c r="J165" s="41"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="78"/>
+      <c r="A166" s="91"/>
       <c r="B166" s="27">
         <v>41768</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
-      <c r="E166" s="5"/>
+      <c r="E166" s="129"/>
       <c r="F166" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5255,7 +5257,7 @@
       <c r="J166" s="41"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="71">
+      <c r="A167" s="85">
         <v>28</v>
       </c>
       <c r="B167" s="28">
@@ -5263,7 +5265,7 @@
       </c>
       <c r="C167" s="6"/>
       <c r="D167" s="6"/>
-      <c r="E167" s="6"/>
+      <c r="E167" s="10"/>
       <c r="F167" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5274,13 +5276,13 @@
       <c r="J167" s="42"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="79"/>
+      <c r="A168" s="119"/>
       <c r="B168" s="28">
         <v>41772</v>
       </c>
       <c r="C168" s="6"/>
       <c r="D168" s="6"/>
-      <c r="E168" s="6"/>
+      <c r="E168" s="10"/>
       <c r="F168" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5291,13 +5293,13 @@
       <c r="J168" s="42"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="79"/>
+      <c r="A169" s="119"/>
       <c r="B169" s="28">
         <v>41773</v>
       </c>
       <c r="C169" s="6"/>
       <c r="D169" s="6"/>
-      <c r="E169" s="6"/>
+      <c r="E169" s="10"/>
       <c r="F169" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5308,13 +5310,13 @@
       <c r="J169" s="42"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="79"/>
+      <c r="A170" s="119"/>
       <c r="B170" s="28">
         <v>41774</v>
       </c>
       <c r="C170" s="6"/>
       <c r="D170" s="6"/>
-      <c r="E170" s="6"/>
+      <c r="E170" s="10"/>
       <c r="F170" s="6">
         <f t="shared" ref="F170:F181" si="4">E170</f>
         <v>0</v>
@@ -5325,13 +5327,13 @@
       <c r="J170" s="42"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="72"/>
+      <c r="A171" s="86"/>
       <c r="B171" s="28">
         <v>41775</v>
       </c>
       <c r="C171" s="6"/>
       <c r="D171" s="6"/>
-      <c r="E171" s="6"/>
+      <c r="E171" s="10"/>
       <c r="F171" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5342,7 +5344,7 @@
       <c r="J171" s="42"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="76">
+      <c r="A172" s="89">
         <v>29</v>
       </c>
       <c r="B172" s="27">
@@ -5350,7 +5352,7 @@
       </c>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
-      <c r="E172" s="5"/>
+      <c r="E172" s="129"/>
       <c r="F172" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5361,13 +5363,13 @@
       <c r="J172" s="41"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A173" s="77"/>
+      <c r="A173" s="90"/>
       <c r="B173" s="27">
         <v>41779</v>
       </c>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
-      <c r="E173" s="5"/>
+      <c r="E173" s="129"/>
       <c r="F173" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5378,13 +5380,13 @@
       <c r="J173" s="41"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A174" s="77"/>
+      <c r="A174" s="90"/>
       <c r="B174" s="27">
         <v>41780</v>
       </c>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
-      <c r="E174" s="5"/>
+      <c r="E174" s="129"/>
       <c r="F174" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5395,13 +5397,13 @@
       <c r="J174" s="41"/>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A175" s="77"/>
+      <c r="A175" s="90"/>
       <c r="B175" s="27">
         <v>41781</v>
       </c>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
-      <c r="E175" s="5"/>
+      <c r="E175" s="129"/>
       <c r="F175" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5412,13 +5414,13 @@
       <c r="J175" s="41"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A176" s="78"/>
+      <c r="A176" s="91"/>
       <c r="B176" s="27">
         <v>41782</v>
       </c>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
-      <c r="E176" s="5"/>
+      <c r="E176" s="129"/>
       <c r="F176" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5429,7 +5431,7 @@
       <c r="J176" s="41"/>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A177" s="80">
+      <c r="A177" s="125">
         <v>30</v>
       </c>
       <c r="B177" s="28">
@@ -5437,7 +5439,7 @@
       </c>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
-      <c r="E177" s="2"/>
+      <c r="E177" s="4"/>
       <c r="F177" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5448,13 +5450,13 @@
       <c r="J177" s="43"/>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A178" s="81"/>
+      <c r="A178" s="126"/>
       <c r="B178" s="28">
         <v>41786</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
-      <c r="E178" s="2"/>
+      <c r="E178" s="4"/>
       <c r="F178" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5465,13 +5467,13 @@
       <c r="J178" s="43"/>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A179" s="81"/>
+      <c r="A179" s="126"/>
       <c r="B179" s="28">
         <v>41787</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
-      <c r="E179" s="2"/>
+      <c r="E179" s="4"/>
       <c r="F179" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5482,13 +5484,13 @@
       <c r="J179" s="43"/>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A180" s="81"/>
+      <c r="A180" s="126"/>
       <c r="B180" s="28">
         <v>41788</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
-      <c r="E180" s="2"/>
+      <c r="E180" s="4"/>
       <c r="F180" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5499,13 +5501,13 @@
       <c r="J180" s="43"/>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A181" s="82"/>
+      <c r="A181" s="127"/>
       <c r="B181" s="28">
         <v>41789</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
-      <c r="E181" s="2"/>
+      <c r="E181" s="4"/>
       <c r="F181" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5517,6 +5519,60 @@
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="F47:F52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="A44:A56"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="A132:A136"/>
+    <mergeCell ref="A162:A166"/>
+    <mergeCell ref="A167:A171"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="A112:A116"/>
+    <mergeCell ref="A117:A121"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="A127:A131"/>
+    <mergeCell ref="A172:A176"/>
+    <mergeCell ref="A177:A181"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="A142:A146"/>
+    <mergeCell ref="A147:A151"/>
+    <mergeCell ref="A152:A156"/>
+    <mergeCell ref="A157:A161"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A92:A96"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F25:F30"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A10:A18"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="G2:N4"/>
     <mergeCell ref="A7:A9"/>
@@ -5533,60 +5589,6 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A10:A18"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="A92:A96"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F25:F30"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A172:A176"/>
-    <mergeCell ref="A177:A181"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="A142:A146"/>
-    <mergeCell ref="A147:A151"/>
-    <mergeCell ref="A152:A156"/>
-    <mergeCell ref="A157:A161"/>
-    <mergeCell ref="A132:A136"/>
-    <mergeCell ref="A162:A166"/>
-    <mergeCell ref="A167:A171"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="A112:A116"/>
-    <mergeCell ref="A117:A121"/>
-    <mergeCell ref="A122:A126"/>
-    <mergeCell ref="A127:A131"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="A44:A56"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="B47:B52"/>
-    <mergeCell ref="F47:F52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="F53:F54"/>
   </mergeCells>
   <conditionalFormatting sqref="M7">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNgo.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNgo.xlsx
@@ -905,6 +905,118 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -950,48 +1062,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1017,79 +1090,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1527,11 +1527,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G56" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="6" ySplit="6" topLeftCell="G32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E54" sqref="E54"/>
+      <selection pane="bottomRight" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1553,86 +1553,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="68"/>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="70"/>
+      <c r="A1" s="106"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="108"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="71" t="s">
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="73"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="111"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="125" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="76"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="114"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="103"/>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="79"/>
+      <c r="A4" s="128"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="117"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="112"/>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="114"/>
+      <c r="A5" s="100"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="102"/>
       <c r="F5" s="16"/>
-      <c r="G5" s="1">
-        <f>4/6</f>
-        <v>0.66666666666666663</v>
-      </c>
       <c r="H5" s="45" t="s">
         <v>66</v>
       </c>
@@ -1658,7 +1654,7 @@
       <c r="D6" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="128" t="s">
+      <c r="E6" s="68" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="33" t="s">
@@ -1676,13 +1672,13 @@
       <c r="J6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="121"/>
+      <c r="M6" s="121"/>
+      <c r="N6" s="121"/>
     </row>
     <row r="7" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="80">
+      <c r="A7" s="118">
         <v>1</v>
       </c>
       <c r="B7" s="17">
@@ -1709,10 +1705,10 @@
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="31"/>
-      <c r="K7" s="118" t="s">
+      <c r="K7" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="118"/>
+      <c r="L7" s="85"/>
       <c r="M7" s="34">
         <f>SUM(M8:M64)</f>
         <v>47.393000000000001</v>
@@ -1722,8 +1718,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="81"/>
-      <c r="B8" s="106">
+      <c r="A8" s="119"/>
+      <c r="B8" s="96">
         <v>41586</v>
       </c>
       <c r="C8" s="18">
@@ -1735,7 +1731,7 @@
       <c r="E8" s="19">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F8" s="108">
+      <c r="F8" s="98">
         <f>SUM(E8:E9)</f>
         <v>1.66</v>
       </c>
@@ -1760,8 +1756,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="82"/>
-      <c r="B9" s="107"/>
+      <c r="A9" s="120"/>
+      <c r="B9" s="97"/>
       <c r="C9" s="18">
         <v>0.63194444444444442</v>
       </c>
@@ -1771,7 +1767,7 @@
       <c r="E9" s="19">
         <v>0.5</v>
       </c>
-      <c r="F9" s="109"/>
+      <c r="F9" s="99"/>
       <c r="G9" s="31" t="s">
         <v>25</v>
       </c>
@@ -1782,10 +1778,10 @@
       <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="115">
+      <c r="A10" s="103">
         <v>2</v>
       </c>
-      <c r="B10" s="95">
+      <c r="B10" s="88">
         <v>41589</v>
       </c>
       <c r="C10" s="54">
@@ -1797,7 +1793,7 @@
       <c r="E10" s="55">
         <v>1.5</v>
       </c>
-      <c r="F10" s="122">
+      <c r="F10" s="92">
         <f>SUM(E10:E11)</f>
         <v>2.5</v>
       </c>
@@ -1811,8 +1807,8 @@
       <c r="J10" s="56"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="116"/>
-      <c r="B11" s="96"/>
+      <c r="A11" s="104"/>
+      <c r="B11" s="89"/>
       <c r="C11" s="54">
         <v>0.875</v>
       </c>
@@ -1822,7 +1818,7 @@
       <c r="E11" s="55">
         <v>1</v>
       </c>
-      <c r="F11" s="123"/>
+      <c r="F11" s="93"/>
       <c r="G11" s="56" t="s">
         <v>30</v>
       </c>
@@ -1833,8 +1829,8 @@
       <c r="J11" s="56"/>
     </row>
     <row r="12" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A12" s="116"/>
-      <c r="B12" s="95">
+      <c r="A12" s="104"/>
+      <c r="B12" s="88">
         <v>41590</v>
       </c>
       <c r="C12" s="23">
@@ -1874,8 +1870,8 @@
       <c r="O12" s="36"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="116"/>
-      <c r="B13" s="96"/>
+      <c r="A13" s="104"/>
+      <c r="B13" s="89"/>
       <c r="C13" s="23">
         <v>0.875</v>
       </c>
@@ -1904,8 +1900,8 @@
       <c r="O13" s="36"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="116"/>
-      <c r="B14" s="95">
+      <c r="A14" s="104"/>
+      <c r="B14" s="88">
         <v>41592</v>
       </c>
       <c r="C14" s="26">
@@ -1917,7 +1913,7 @@
       <c r="E14" s="29">
         <v>1.25</v>
       </c>
-      <c r="F14" s="110">
+      <c r="F14" s="86">
         <f>SUM(E14:E15)</f>
         <v>3.25</v>
       </c>
@@ -1944,8 +1940,8 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="116"/>
-      <c r="B15" s="96"/>
+      <c r="A15" s="104"/>
+      <c r="B15" s="89"/>
       <c r="C15" s="26">
         <v>0.42708333333333331</v>
       </c>
@@ -1955,7 +1951,7 @@
       <c r="E15" s="29">
         <v>2</v>
       </c>
-      <c r="F15" s="111"/>
+      <c r="F15" s="87"/>
       <c r="G15" s="48" t="s">
         <v>30</v>
       </c>
@@ -1970,7 +1966,7 @@
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="116"/>
+      <c r="A16" s="104"/>
       <c r="B16" s="46">
         <v>41593</v>
       </c>
@@ -2010,8 +2006,8 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="116"/>
-      <c r="B17" s="95">
+      <c r="A17" s="104"/>
+      <c r="B17" s="88">
         <v>41594</v>
       </c>
       <c r="C17" s="26">
@@ -2023,7 +2019,7 @@
       <c r="E17" s="29">
         <v>2</v>
       </c>
-      <c r="F17" s="110">
+      <c r="F17" s="86">
         <f>SUM(E17:E18)</f>
         <v>3</v>
       </c>
@@ -2050,8 +2046,8 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="117"/>
-      <c r="B18" s="96"/>
+      <c r="A18" s="105"/>
+      <c r="B18" s="89"/>
       <c r="C18" s="26">
         <v>0.83333333333333337</v>
       </c>
@@ -2061,7 +2057,7 @@
       <c r="E18" s="29">
         <v>1</v>
       </c>
-      <c r="F18" s="111"/>
+      <c r="F18" s="87"/>
       <c r="G18" s="30" t="s">
         <v>24</v>
       </c>
@@ -2078,10 +2074,10 @@
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="89">
+      <c r="A19" s="78">
         <v>3</v>
       </c>
-      <c r="B19" s="87">
+      <c r="B19" s="75">
         <v>41596</v>
       </c>
       <c r="C19" s="52">
@@ -2090,10 +2086,10 @@
       <c r="D19" s="52">
         <v>0.89166666666666661</v>
       </c>
-      <c r="E19" s="129">
+      <c r="E19" s="69">
         <v>0.6</v>
       </c>
-      <c r="F19" s="89">
+      <c r="F19" s="78">
         <f>SUM(E19:E20)</f>
         <v>1.18</v>
       </c>
@@ -2120,18 +2116,18 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="90"/>
-      <c r="B20" s="88"/>
+      <c r="A20" s="79"/>
+      <c r="B20" s="77"/>
       <c r="C20" s="52">
         <v>0.89236111111111116</v>
       </c>
       <c r="D20" s="52">
         <v>0.91666666666666663</v>
       </c>
-      <c r="E20" s="129">
+      <c r="E20" s="69">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F20" s="91"/>
+      <c r="F20" s="80"/>
       <c r="G20" s="41" t="s">
         <v>30</v>
       </c>
@@ -2146,8 +2142,8 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A21" s="90"/>
-      <c r="B21" s="120">
+      <c r="A21" s="79"/>
+      <c r="B21" s="90">
         <v>41597</v>
       </c>
       <c r="C21" s="52">
@@ -2156,10 +2152,10 @@
       <c r="D21" s="52">
         <v>0.60416666666666663</v>
       </c>
-      <c r="E21" s="130">
+      <c r="E21" s="70">
         <v>1</v>
       </c>
-      <c r="F21" s="89">
+      <c r="F21" s="78">
         <f>SUM(E21:E22)</f>
         <v>3</v>
       </c>
@@ -2184,18 +2180,18 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="90"/>
-      <c r="B22" s="121"/>
+      <c r="A22" s="79"/>
+      <c r="B22" s="91"/>
       <c r="C22" s="52">
         <v>0.91666666666666663</v>
       </c>
       <c r="D22" s="52">
         <v>0.97916666666666663</v>
       </c>
-      <c r="E22" s="130">
+      <c r="E22" s="70">
         <v>2</v>
       </c>
-      <c r="F22" s="91"/>
+      <c r="F22" s="80"/>
       <c r="G22" s="41" t="s">
         <v>24</v>
       </c>
@@ -2212,8 +2208,8 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="90"/>
-      <c r="B23" s="87">
+      <c r="A23" s="79"/>
+      <c r="B23" s="75">
         <v>41598</v>
       </c>
       <c r="C23" s="52">
@@ -2222,10 +2218,10 @@
       <c r="D23" s="52">
         <v>0.625</v>
       </c>
-      <c r="E23" s="129">
+      <c r="E23" s="69">
         <v>1</v>
       </c>
-      <c r="F23" s="93">
+      <c r="F23" s="94">
         <f>SUM(E23:E24)</f>
         <v>3</v>
       </c>
@@ -2250,18 +2246,18 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="90"/>
-      <c r="B24" s="88"/>
+      <c r="A24" s="79"/>
+      <c r="B24" s="77"/>
       <c r="C24" s="52">
         <v>0.91666666666666663</v>
       </c>
       <c r="D24" s="52">
         <v>0.5</v>
       </c>
-      <c r="E24" s="129">
+      <c r="E24" s="69">
         <v>2</v>
       </c>
-      <c r="F24" s="94"/>
+      <c r="F24" s="95"/>
       <c r="G24" s="41" t="s">
         <v>24</v>
       </c>
@@ -2283,8 +2279,8 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="90"/>
-      <c r="B25" s="87">
+      <c r="A25" s="79"/>
+      <c r="B25" s="75">
         <v>41599</v>
       </c>
       <c r="C25" s="52">
@@ -2293,12 +2289,12 @@
       <c r="D25" s="52">
         <v>0.375</v>
       </c>
-      <c r="E25" s="129">
+      <c r="E25" s="69">
         <v>1</v>
       </c>
-      <c r="F25" s="89">
+      <c r="F25" s="78">
         <f>SUM(E25:E30)</f>
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="G25" s="41" t="s">
         <v>83</v>
@@ -2312,18 +2308,18 @@
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="90"/>
-      <c r="B26" s="124"/>
+      <c r="A26" s="79"/>
+      <c r="B26" s="76"/>
       <c r="C26" s="52">
         <v>0.375</v>
       </c>
       <c r="D26" s="52">
         <v>0.4236111111111111</v>
       </c>
-      <c r="E26" s="129">
+      <c r="E26" s="69">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F26" s="90"/>
+      <c r="F26" s="79"/>
       <c r="G26" s="53" t="s">
         <v>25</v>
       </c>
@@ -2338,18 +2334,18 @@
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="90"/>
-      <c r="B27" s="124"/>
+      <c r="A27" s="79"/>
+      <c r="B27" s="76"/>
       <c r="C27" s="52">
         <v>0.4236111111111111</v>
       </c>
       <c r="D27" s="52">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E27" s="129">
+      <c r="E27" s="69">
         <v>1.33</v>
       </c>
-      <c r="F27" s="90"/>
+      <c r="F27" s="79"/>
       <c r="G27" s="41" t="s">
         <v>86</v>
       </c>
@@ -2362,18 +2358,18 @@
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="90"/>
-      <c r="B28" s="124"/>
+      <c r="A28" s="79"/>
+      <c r="B28" s="76"/>
       <c r="C28" s="52">
         <v>0.52083333333333337</v>
       </c>
       <c r="D28" s="52">
         <v>0.60416666666666663</v>
       </c>
-      <c r="E28" s="129">
+      <c r="E28" s="69">
         <v>2</v>
       </c>
-      <c r="F28" s="90"/>
+      <c r="F28" s="79"/>
       <c r="G28" s="41" t="s">
         <v>83</v>
       </c>
@@ -2388,18 +2384,18 @@
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="90"/>
-      <c r="B29" s="124"/>
+      <c r="A29" s="79"/>
+      <c r="B29" s="76"/>
       <c r="C29" s="52">
         <v>0.625</v>
       </c>
       <c r="D29" s="52">
         <v>0.71527777777777779</v>
       </c>
-      <c r="E29" s="129">
+      <c r="E29" s="69">
         <v>2.16</v>
       </c>
-      <c r="F29" s="90"/>
+      <c r="F29" s="79"/>
       <c r="G29" s="41" t="s">
         <v>86</v>
       </c>
@@ -2412,18 +2408,18 @@
       <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="90"/>
-      <c r="B30" s="88"/>
+      <c r="A30" s="79"/>
+      <c r="B30" s="77"/>
       <c r="C30" s="52">
         <v>0.84375</v>
       </c>
       <c r="D30" s="52">
         <v>0.95833333333333337</v>
       </c>
-      <c r="E30" s="129">
-        <v>2.65</v>
-      </c>
-      <c r="F30" s="91"/>
+      <c r="E30" s="69">
+        <v>2.75</v>
+      </c>
+      <c r="F30" s="80"/>
       <c r="G30" s="41" t="s">
         <v>87</v>
       </c>
@@ -2438,8 +2434,8 @@
       <c r="N30" s="3"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="90"/>
-      <c r="B31" s="87">
+      <c r="A31" s="79"/>
+      <c r="B31" s="75">
         <v>41600</v>
       </c>
       <c r="C31" s="52" t="s">
@@ -2448,10 +2444,10 @@
       <c r="D31" s="52">
         <v>0.61458333333333337</v>
       </c>
-      <c r="E31" s="129">
+      <c r="E31" s="69">
         <v>1.25</v>
       </c>
-      <c r="F31" s="93">
+      <c r="F31" s="94">
         <f>SUM(E31:E32)</f>
         <v>2.75</v>
       </c>
@@ -2469,18 +2465,18 @@
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="91"/>
-      <c r="B32" s="88"/>
+      <c r="A32" s="80"/>
+      <c r="B32" s="77"/>
       <c r="C32" s="52">
         <v>0.625</v>
       </c>
       <c r="D32" s="52">
         <v>0.6875</v>
       </c>
-      <c r="E32" s="129">
+      <c r="E32" s="69">
         <v>1.5</v>
       </c>
-      <c r="F32" s="94"/>
+      <c r="F32" s="95"/>
       <c r="G32" s="41" t="s">
         <v>87</v>
       </c>
@@ -2496,7 +2492,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="62"/>
-      <c r="B33" s="87">
+      <c r="B33" s="75">
         <v>41601</v>
       </c>
       <c r="C33" s="52">
@@ -2505,10 +2501,10 @@
       <c r="D33" s="52">
         <v>0.57291666666666663</v>
       </c>
-      <c r="E33" s="129">
+      <c r="E33" s="69">
         <v>0.25</v>
       </c>
-      <c r="F33" s="93">
+      <c r="F33" s="94">
         <f>SUM(E33:E34)</f>
         <v>1.5</v>
       </c>
@@ -2527,17 +2523,17 @@
     </row>
     <row r="34" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="63"/>
-      <c r="B34" s="88"/>
+      <c r="B34" s="77"/>
       <c r="C34" s="52">
         <v>0.57291666666666663</v>
       </c>
       <c r="D34" s="52">
         <v>0.625</v>
       </c>
-      <c r="E34" s="129">
+      <c r="E34" s="69">
         <v>1.25</v>
       </c>
-      <c r="F34" s="94"/>
+      <c r="F34" s="95"/>
       <c r="G34" s="41" t="s">
         <v>87</v>
       </c>
@@ -2554,10 +2550,10 @@
       <c r="N34" s="3"/>
     </row>
     <row r="35" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A35" s="85">
+      <c r="A35" s="73">
         <v>4</v>
       </c>
-      <c r="B35" s="83">
+      <c r="B35" s="71">
         <v>41603</v>
       </c>
       <c r="C35" s="64">
@@ -2569,7 +2565,7 @@
       <c r="E35" s="10">
         <v>1.25</v>
       </c>
-      <c r="F35" s="85">
+      <c r="F35" s="73">
         <f>SUM(E35:E36)</f>
         <v>3.25</v>
       </c>
@@ -2594,8 +2590,8 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="119"/>
-      <c r="B36" s="84"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="72"/>
       <c r="C36" s="64">
         <v>0.91666666666666663</v>
       </c>
@@ -2605,7 +2601,7 @@
       <c r="E36" s="10">
         <v>2</v>
       </c>
-      <c r="F36" s="86"/>
+      <c r="F36" s="74"/>
       <c r="G36" s="42" t="s">
         <v>96</v>
       </c>
@@ -2620,8 +2616,8 @@
       <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="119"/>
-      <c r="B37" s="83">
+      <c r="A37" s="81"/>
+      <c r="B37" s="71">
         <v>41604</v>
       </c>
       <c r="C37" s="64">
@@ -2633,7 +2629,7 @@
       <c r="E37" s="10">
         <v>2.5</v>
       </c>
-      <c r="F37" s="85">
+      <c r="F37" s="73">
         <f>SUM(E37:E38)</f>
         <v>3.5</v>
       </c>
@@ -2658,8 +2654,8 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="119"/>
-      <c r="B38" s="84"/>
+      <c r="A38" s="81"/>
+      <c r="B38" s="72"/>
       <c r="C38" s="64">
         <v>0.5625</v>
       </c>
@@ -2669,7 +2665,7 @@
       <c r="E38" s="10">
         <v>1</v>
       </c>
-      <c r="F38" s="86"/>
+      <c r="F38" s="74"/>
       <c r="G38" s="42" t="s">
         <v>86</v>
       </c>
@@ -2684,7 +2680,7 @@
       <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="119"/>
+      <c r="A39" s="81"/>
       <c r="B39" s="28">
         <v>41605</v>
       </c>
@@ -2722,7 +2718,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="119"/>
+      <c r="A40" s="81"/>
       <c r="B40" s="28">
         <v>41606</v>
       </c>
@@ -2760,7 +2756,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="86"/>
+      <c r="A41" s="74"/>
       <c r="B41" s="28">
         <v>41607</v>
       </c>
@@ -2799,7 +2795,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="66"/>
-      <c r="B42" s="83">
+      <c r="B42" s="71">
         <v>41608</v>
       </c>
       <c r="C42" s="64">
@@ -2811,7 +2807,7 @@
       <c r="E42" s="10">
         <v>1.5</v>
       </c>
-      <c r="F42" s="85">
+      <c r="F42" s="73">
         <f>SUM(E42:E43)</f>
         <v>2.5</v>
       </c>
@@ -2830,7 +2826,7 @@
     </row>
     <row r="43" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="66"/>
-      <c r="B43" s="84"/>
+      <c r="B43" s="72"/>
       <c r="C43" s="64">
         <v>0.85416666666666663</v>
       </c>
@@ -2840,7 +2836,7 @@
       <c r="E43" s="10">
         <v>1</v>
       </c>
-      <c r="F43" s="86"/>
+      <c r="F43" s="74"/>
       <c r="G43" s="42" t="s">
         <v>87</v>
       </c>
@@ -2855,10 +2851,10 @@
       <c r="N43" s="3"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="89">
+      <c r="A44" s="78">
         <v>5</v>
       </c>
-      <c r="B44" s="87">
+      <c r="B44" s="75">
         <v>41610</v>
       </c>
       <c r="C44" s="52">
@@ -2867,10 +2863,10 @@
       <c r="D44" s="52">
         <v>0.89583333333333337</v>
       </c>
-      <c r="E44" s="129">
+      <c r="E44" s="69">
         <v>1</v>
       </c>
-      <c r="F44" s="89">
+      <c r="F44" s="78">
         <f>SUM(E44:E46)</f>
         <v>3.5</v>
       </c>
@@ -2895,18 +2891,18 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="90"/>
-      <c r="B45" s="124"/>
+      <c r="A45" s="79"/>
+      <c r="B45" s="76"/>
       <c r="C45" s="52">
         <v>0.89583333333333337</v>
       </c>
       <c r="D45" s="52">
         <v>0.95833333333333337</v>
       </c>
-      <c r="E45" s="129">
+      <c r="E45" s="69">
         <v>1.5</v>
       </c>
-      <c r="F45" s="90"/>
+      <c r="F45" s="79"/>
       <c r="G45" s="41" t="s">
         <v>87</v>
       </c>
@@ -2921,18 +2917,18 @@
       <c r="N45" s="3"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="90"/>
-      <c r="B46" s="88"/>
+      <c r="A46" s="79"/>
+      <c r="B46" s="77"/>
       <c r="C46" s="52">
         <v>0.95833333333333337</v>
       </c>
       <c r="D46" s="52">
         <v>1</v>
       </c>
-      <c r="E46" s="129">
+      <c r="E46" s="69">
         <v>1</v>
       </c>
-      <c r="F46" s="91"/>
+      <c r="F46" s="80"/>
       <c r="G46" s="41" t="s">
         <v>96</v>
       </c>
@@ -2947,8 +2943,8 @@
       <c r="N46" s="3"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="90"/>
-      <c r="B47" s="87">
+      <c r="A47" s="79"/>
+      <c r="B47" s="75">
         <v>41611</v>
       </c>
       <c r="C47" s="52">
@@ -2957,10 +2953,10 @@
       <c r="D47" s="52">
         <v>0.375</v>
       </c>
-      <c r="E47" s="129">
+      <c r="E47" s="69">
         <v>1</v>
       </c>
-      <c r="F47" s="89">
+      <c r="F47" s="78">
         <f>SUM(E47:E52)</f>
         <v>10.5</v>
       </c>
@@ -2983,18 +2979,18 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="90"/>
-      <c r="B48" s="124"/>
+      <c r="A48" s="79"/>
+      <c r="B48" s="76"/>
       <c r="C48" s="52">
         <v>0.375</v>
       </c>
       <c r="D48" s="52">
         <v>0.4375</v>
       </c>
-      <c r="E48" s="129">
+      <c r="E48" s="69">
         <v>1.5</v>
       </c>
-      <c r="F48" s="90"/>
+      <c r="F48" s="79"/>
       <c r="G48" s="41" t="s">
         <v>108</v>
       </c>
@@ -3009,18 +3005,18 @@
       <c r="N48" s="3"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="90"/>
-      <c r="B49" s="124"/>
+      <c r="A49" s="79"/>
+      <c r="B49" s="76"/>
       <c r="C49" s="52" t="s">
         <v>115</v>
       </c>
       <c r="D49" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="E49" s="129">
+      <c r="E49" s="69">
         <v>0.5</v>
       </c>
-      <c r="F49" s="90"/>
+      <c r="F49" s="79"/>
       <c r="G49" s="41" t="s">
         <v>117</v>
       </c>
@@ -3035,18 +3031,18 @@
       <c r="N49" s="3"/>
     </row>
     <row r="50" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="90"/>
-      <c r="B50" s="124"/>
+      <c r="A50" s="79"/>
+      <c r="B50" s="76"/>
       <c r="C50" s="52">
         <v>0.5625</v>
       </c>
       <c r="D50" s="52">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E50" s="129">
+      <c r="E50" s="69">
         <v>3.5</v>
       </c>
-      <c r="F50" s="90"/>
+      <c r="F50" s="79"/>
       <c r="G50" s="41" t="s">
         <v>80</v>
       </c>
@@ -3061,18 +3057,18 @@
       <c r="N50" s="3"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="90"/>
-      <c r="B51" s="124"/>
+      <c r="A51" s="79"/>
+      <c r="B51" s="76"/>
       <c r="C51" s="52">
         <v>0.83333333333333337</v>
       </c>
       <c r="D51" s="52">
         <v>0.875</v>
       </c>
-      <c r="E51" s="129">
+      <c r="E51" s="69">
         <v>1</v>
       </c>
-      <c r="F51" s="90"/>
+      <c r="F51" s="79"/>
       <c r="G51" s="41" t="s">
         <v>87</v>
       </c>
@@ -3089,18 +3085,18 @@
       <c r="N51" s="3"/>
     </row>
     <row r="52" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="90"/>
-      <c r="B52" s="88"/>
+      <c r="A52" s="79"/>
+      <c r="B52" s="77"/>
       <c r="C52" s="52">
         <v>0.875</v>
       </c>
       <c r="D52" s="52">
         <v>0.5</v>
       </c>
-      <c r="E52" s="129">
+      <c r="E52" s="69">
         <v>3</v>
       </c>
-      <c r="F52" s="91"/>
+      <c r="F52" s="80"/>
       <c r="G52" s="41" t="s">
         <v>87</v>
       </c>
@@ -3115,8 +3111,8 @@
       <c r="N52" s="3"/>
     </row>
     <row r="53" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A53" s="90"/>
-      <c r="B53" s="87">
+      <c r="A53" s="79"/>
+      <c r="B53" s="75">
         <v>41612</v>
       </c>
       <c r="C53" s="52">
@@ -3125,10 +3121,10 @@
       <c r="D53" s="52">
         <v>0.67361111111111116</v>
       </c>
-      <c r="E53" s="129">
+      <c r="E53" s="69">
         <v>2.66</v>
       </c>
-      <c r="F53" s="89">
+      <c r="F53" s="78">
         <f>SUM(E53:E54)</f>
         <v>4.66</v>
       </c>
@@ -3153,18 +3149,18 @@
       </c>
     </row>
     <row r="54" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="90"/>
-      <c r="B54" s="88"/>
+      <c r="A54" s="79"/>
+      <c r="B54" s="77"/>
       <c r="C54" s="52">
         <v>0.83333333333333337</v>
       </c>
       <c r="D54" s="52">
         <v>0.91666666666666663</v>
       </c>
-      <c r="E54" s="129">
+      <c r="E54" s="69">
         <v>2</v>
       </c>
-      <c r="F54" s="91"/>
+      <c r="F54" s="80"/>
       <c r="G54" s="41" t="s">
         <v>87</v>
       </c>
@@ -3179,13 +3175,13 @@
       <c r="N54" s="3"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="90"/>
+      <c r="A55" s="79"/>
       <c r="B55" s="27">
         <v>41613</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
-      <c r="E55" s="129"/>
+      <c r="E55" s="69"/>
       <c r="F55" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3207,13 +3203,13 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="91"/>
+      <c r="A56" s="80"/>
       <c r="B56" s="27">
         <v>41614</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
-      <c r="E56" s="129"/>
+      <c r="E56" s="69"/>
       <c r="F56" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3235,7 +3231,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="85">
+      <c r="A57" s="73">
         <v>6</v>
       </c>
       <c r="B57" s="28">
@@ -3265,7 +3261,7 @@
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="119"/>
+      <c r="A58" s="81"/>
       <c r="B58" s="28">
         <v>41618</v>
       </c>
@@ -3293,7 +3289,7 @@
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="119"/>
+      <c r="A59" s="81"/>
       <c r="B59" s="28">
         <v>41619</v>
       </c>
@@ -3321,7 +3317,7 @@
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="119"/>
+      <c r="A60" s="81"/>
       <c r="B60" s="28">
         <v>41620</v>
       </c>
@@ -3349,7 +3345,7 @@
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="86"/>
+      <c r="A61" s="74"/>
       <c r="B61" s="28">
         <v>41621</v>
       </c>
@@ -3377,7 +3373,7 @@
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="89">
+      <c r="A62" s="78">
         <v>7</v>
       </c>
       <c r="B62" s="27">
@@ -3385,7 +3381,7 @@
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
-      <c r="E62" s="129"/>
+      <c r="E62" s="69"/>
       <c r="F62" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3407,13 +3403,13 @@
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="90"/>
+      <c r="A63" s="79"/>
       <c r="B63" s="27">
         <v>41625</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
-      <c r="E63" s="129"/>
+      <c r="E63" s="69"/>
       <c r="F63" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3435,13 +3431,13 @@
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="90"/>
+      <c r="A64" s="79"/>
       <c r="B64" s="27">
         <v>41626</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
-      <c r="E64" s="129"/>
+      <c r="E64" s="69"/>
       <c r="F64" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3463,13 +3459,13 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="90"/>
+      <c r="A65" s="79"/>
       <c r="B65" s="27">
         <v>41627</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
-      <c r="E65" s="129"/>
+      <c r="E65" s="69"/>
       <c r="F65" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3480,13 +3476,13 @@
       <c r="J65" s="41"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="91"/>
+      <c r="A66" s="80"/>
       <c r="B66" s="27">
         <v>41628</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
-      <c r="E66" s="129"/>
+      <c r="E66" s="69"/>
       <c r="F66" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3497,7 +3493,7 @@
       <c r="J66" s="41"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="85">
+      <c r="A67" s="73">
         <v>8</v>
       </c>
       <c r="B67" s="28">
@@ -3516,7 +3512,7 @@
       <c r="J67" s="42"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="119"/>
+      <c r="A68" s="81"/>
       <c r="B68" s="28">
         <v>41632</v>
       </c>
@@ -3533,7 +3529,7 @@
       <c r="J68" s="42"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="119"/>
+      <c r="A69" s="81"/>
       <c r="B69" s="28">
         <v>41633</v>
       </c>
@@ -3550,7 +3546,7 @@
       <c r="J69" s="42"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="119"/>
+      <c r="A70" s="81"/>
       <c r="B70" s="28">
         <v>41634</v>
       </c>
@@ -3567,7 +3563,7 @@
       <c r="J70" s="42"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="86"/>
+      <c r="A71" s="74"/>
       <c r="B71" s="28">
         <v>41635</v>
       </c>
@@ -3584,7 +3580,7 @@
       <c r="J71" s="42"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="89">
+      <c r="A72" s="78">
         <v>9</v>
       </c>
       <c r="B72" s="27">
@@ -3592,7 +3588,7 @@
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
-      <c r="E72" s="129"/>
+      <c r="E72" s="69"/>
       <c r="F72" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3603,13 +3599,13 @@
       <c r="J72" s="41"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="90"/>
+      <c r="A73" s="79"/>
       <c r="B73" s="27">
         <v>41639</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
-      <c r="E73" s="129"/>
+      <c r="E73" s="69"/>
       <c r="F73" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3620,13 +3616,13 @@
       <c r="J73" s="41"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="90"/>
+      <c r="A74" s="79"/>
       <c r="B74" s="27">
         <v>41640</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
-      <c r="E74" s="129"/>
+      <c r="E74" s="69"/>
       <c r="F74" s="5">
         <f t="shared" ref="F74:F105" si="1">E74</f>
         <v>0</v>
@@ -3637,13 +3633,13 @@
       <c r="J74" s="41"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="90"/>
+      <c r="A75" s="79"/>
       <c r="B75" s="27">
         <v>41641</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
-      <c r="E75" s="129"/>
+      <c r="E75" s="69"/>
       <c r="F75" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3654,13 +3650,13 @@
       <c r="J75" s="41"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="91"/>
+      <c r="A76" s="80"/>
       <c r="B76" s="27">
         <v>41642</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
-      <c r="E76" s="129"/>
+      <c r="E76" s="69"/>
       <c r="F76" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3671,7 +3667,7 @@
       <c r="J76" s="41"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="85">
+      <c r="A77" s="73">
         <v>10</v>
       </c>
       <c r="B77" s="28">
@@ -3690,7 +3686,7 @@
       <c r="J77" s="42"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="119"/>
+      <c r="A78" s="81"/>
       <c r="B78" s="28">
         <v>41646</v>
       </c>
@@ -3707,7 +3703,7 @@
       <c r="J78" s="42"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="119"/>
+      <c r="A79" s="81"/>
       <c r="B79" s="28">
         <v>41647</v>
       </c>
@@ -3724,7 +3720,7 @@
       <c r="J79" s="42"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="119"/>
+      <c r="A80" s="81"/>
       <c r="B80" s="28">
         <v>41648</v>
       </c>
@@ -3741,7 +3737,7 @@
       <c r="J80" s="42"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="86"/>
+      <c r="A81" s="74"/>
       <c r="B81" s="28">
         <v>41649</v>
       </c>
@@ -3758,7 +3754,7 @@
       <c r="J81" s="42"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="89">
+      <c r="A82" s="78">
         <v>11</v>
       </c>
       <c r="B82" s="27">
@@ -3766,7 +3762,7 @@
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
-      <c r="E82" s="129"/>
+      <c r="E82" s="69"/>
       <c r="F82" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3777,13 +3773,13 @@
       <c r="J82" s="41"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="90"/>
+      <c r="A83" s="79"/>
       <c r="B83" s="27">
         <v>41653</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
-      <c r="E83" s="129"/>
+      <c r="E83" s="69"/>
       <c r="F83" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3794,13 +3790,13 @@
       <c r="J83" s="41"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="90"/>
+      <c r="A84" s="79"/>
       <c r="B84" s="27">
         <v>41654</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
-      <c r="E84" s="129"/>
+      <c r="E84" s="69"/>
       <c r="F84" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3811,13 +3807,13 @@
       <c r="J84" s="41"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="90"/>
+      <c r="A85" s="79"/>
       <c r="B85" s="27">
         <v>41655</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
-      <c r="E85" s="129"/>
+      <c r="E85" s="69"/>
       <c r="F85" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3828,13 +3824,13 @@
       <c r="J85" s="41"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="91"/>
+      <c r="A86" s="80"/>
       <c r="B86" s="27">
         <v>41656</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
-      <c r="E86" s="129"/>
+      <c r="E86" s="69"/>
       <c r="F86" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3845,7 +3841,7 @@
       <c r="J86" s="41"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="85">
+      <c r="A87" s="73">
         <v>12</v>
       </c>
       <c r="B87" s="28">
@@ -3864,7 +3860,7 @@
       <c r="J87" s="42"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="119"/>
+      <c r="A88" s="81"/>
       <c r="B88" s="28">
         <v>41660</v>
       </c>
@@ -3881,7 +3877,7 @@
       <c r="J88" s="42"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="119"/>
+      <c r="A89" s="81"/>
       <c r="B89" s="28">
         <v>41661</v>
       </c>
@@ -3898,7 +3894,7 @@
       <c r="J89" s="42"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="119"/>
+      <c r="A90" s="81"/>
       <c r="B90" s="28">
         <v>41662</v>
       </c>
@@ -3915,7 +3911,7 @@
       <c r="J90" s="42"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="86"/>
+      <c r="A91" s="74"/>
       <c r="B91" s="28">
         <v>41663</v>
       </c>
@@ -3932,7 +3928,7 @@
       <c r="J91" s="42"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="89">
+      <c r="A92" s="78">
         <v>13</v>
       </c>
       <c r="B92" s="27">
@@ -3940,7 +3936,7 @@
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
-      <c r="E92" s="129"/>
+      <c r="E92" s="69"/>
       <c r="F92" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3953,13 +3949,13 @@
       <c r="J92" s="41"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="90"/>
+      <c r="A93" s="79"/>
       <c r="B93" s="27">
         <v>41667</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
-      <c r="E93" s="129"/>
+      <c r="E93" s="69"/>
       <c r="F93" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3972,13 +3968,13 @@
       <c r="J93" s="41"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="90"/>
+      <c r="A94" s="79"/>
       <c r="B94" s="27">
         <v>41668</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
-      <c r="E94" s="129"/>
+      <c r="E94" s="69"/>
       <c r="F94" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3991,13 +3987,13 @@
       <c r="J94" s="41"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="90"/>
+      <c r="A95" s="79"/>
       <c r="B95" s="27">
         <v>41669</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
-      <c r="E95" s="129"/>
+      <c r="E95" s="69"/>
       <c r="F95" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4010,13 +4006,13 @@
       <c r="J95" s="41"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="91"/>
+      <c r="A96" s="80"/>
       <c r="B96" s="27">
         <v>41670</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
-      <c r="E96" s="129"/>
+      <c r="E96" s="69"/>
       <c r="F96" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4029,7 +4025,7 @@
       <c r="J96" s="41"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="85">
+      <c r="A97" s="73">
         <v>14</v>
       </c>
       <c r="B97" s="28">
@@ -4050,7 +4046,7 @@
       <c r="J97" s="42"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="119"/>
+      <c r="A98" s="81"/>
       <c r="B98" s="28">
         <v>41674</v>
       </c>
@@ -4069,7 +4065,7 @@
       <c r="J98" s="42"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="119"/>
+      <c r="A99" s="81"/>
       <c r="B99" s="28">
         <v>41675</v>
       </c>
@@ -4088,7 +4084,7 @@
       <c r="J99" s="42"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="119"/>
+      <c r="A100" s="81"/>
       <c r="B100" s="28">
         <v>41676</v>
       </c>
@@ -4107,7 +4103,7 @@
       <c r="J100" s="42"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="86"/>
+      <c r="A101" s="74"/>
       <c r="B101" s="28">
         <v>41677</v>
       </c>
@@ -4126,7 +4122,7 @@
       <c r="J101" s="42"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="89">
+      <c r="A102" s="78">
         <v>15</v>
       </c>
       <c r="B102" s="27">
@@ -4134,7 +4130,7 @@
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
-      <c r="E102" s="129"/>
+      <c r="E102" s="69"/>
       <c r="F102" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4145,13 +4141,13 @@
       <c r="J102" s="41"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="90"/>
+      <c r="A103" s="79"/>
       <c r="B103" s="27">
         <v>41681</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
-      <c r="E103" s="129"/>
+      <c r="E103" s="69"/>
       <c r="F103" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4162,13 +4158,13 @@
       <c r="J103" s="41"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="90"/>
+      <c r="A104" s="79"/>
       <c r="B104" s="27">
         <v>41682</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
-      <c r="E104" s="129"/>
+      <c r="E104" s="69"/>
       <c r="F104" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4179,13 +4175,13 @@
       <c r="J104" s="41"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="90"/>
+      <c r="A105" s="79"/>
       <c r="B105" s="27">
         <v>41683</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
-      <c r="E105" s="129"/>
+      <c r="E105" s="69"/>
       <c r="F105" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4196,13 +4192,13 @@
       <c r="J105" s="41"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="91"/>
+      <c r="A106" s="80"/>
       <c r="B106" s="27">
         <v>41684</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
-      <c r="E106" s="129"/>
+      <c r="E106" s="69"/>
       <c r="F106" s="5">
         <f t="shared" ref="F106:F137" si="2">E106</f>
         <v>0</v>
@@ -4213,7 +4209,7 @@
       <c r="J106" s="41"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="85">
+      <c r="A107" s="73">
         <v>16</v>
       </c>
       <c r="B107" s="28">
@@ -4232,7 +4228,7 @@
       <c r="J107" s="42"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="119"/>
+      <c r="A108" s="81"/>
       <c r="B108" s="28">
         <v>41688</v>
       </c>
@@ -4249,7 +4245,7 @@
       <c r="J108" s="42"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="119"/>
+      <c r="A109" s="81"/>
       <c r="B109" s="28">
         <v>41689</v>
       </c>
@@ -4266,7 +4262,7 @@
       <c r="J109" s="42"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="119"/>
+      <c r="A110" s="81"/>
       <c r="B110" s="28">
         <v>41690</v>
       </c>
@@ -4283,7 +4279,7 @@
       <c r="J110" s="42"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="86"/>
+      <c r="A111" s="74"/>
       <c r="B111" s="28">
         <v>41691</v>
       </c>
@@ -4300,7 +4296,7 @@
       <c r="J111" s="42"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="89">
+      <c r="A112" s="78">
         <v>17</v>
       </c>
       <c r="B112" s="27">
@@ -4308,7 +4304,7 @@
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
-      <c r="E112" s="129"/>
+      <c r="E112" s="69"/>
       <c r="F112" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4319,13 +4315,13 @@
       <c r="J112" s="41"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="90"/>
+      <c r="A113" s="79"/>
       <c r="B113" s="27">
         <v>41695</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
-      <c r="E113" s="129"/>
+      <c r="E113" s="69"/>
       <c r="F113" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4336,13 +4332,13 @@
       <c r="J113" s="41"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="90"/>
+      <c r="A114" s="79"/>
       <c r="B114" s="27">
         <v>41696</v>
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
-      <c r="E114" s="129"/>
+      <c r="E114" s="69"/>
       <c r="F114" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4353,13 +4349,13 @@
       <c r="J114" s="41"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="90"/>
+      <c r="A115" s="79"/>
       <c r="B115" s="27">
         <v>41697</v>
       </c>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
-      <c r="E115" s="129"/>
+      <c r="E115" s="69"/>
       <c r="F115" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4370,13 +4366,13 @@
       <c r="J115" s="41"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="91"/>
+      <c r="A116" s="80"/>
       <c r="B116" s="27">
         <v>41698</v>
       </c>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
-      <c r="E116" s="129"/>
+      <c r="E116" s="69"/>
       <c r="F116" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4387,7 +4383,7 @@
       <c r="J116" s="41"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="85">
+      <c r="A117" s="73">
         <v>18</v>
       </c>
       <c r="B117" s="28">
@@ -4406,7 +4402,7 @@
       <c r="J117" s="42"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="119"/>
+      <c r="A118" s="81"/>
       <c r="B118" s="28">
         <v>41702</v>
       </c>
@@ -4423,7 +4419,7 @@
       <c r="J118" s="42"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="119"/>
+      <c r="A119" s="81"/>
       <c r="B119" s="28">
         <v>41703</v>
       </c>
@@ -4440,7 +4436,7 @@
       <c r="J119" s="42"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="119"/>
+      <c r="A120" s="81"/>
       <c r="B120" s="28">
         <v>41704</v>
       </c>
@@ -4457,7 +4453,7 @@
       <c r="J120" s="42"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="86"/>
+      <c r="A121" s="74"/>
       <c r="B121" s="28">
         <v>41705</v>
       </c>
@@ -4474,7 +4470,7 @@
       <c r="J121" s="42"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="89">
+      <c r="A122" s="78">
         <v>19</v>
       </c>
       <c r="B122" s="27">
@@ -4482,7 +4478,7 @@
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
-      <c r="E122" s="129"/>
+      <c r="E122" s="69"/>
       <c r="F122" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4493,13 +4489,13 @@
       <c r="J122" s="41"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="90"/>
+      <c r="A123" s="79"/>
       <c r="B123" s="27">
         <v>41709</v>
       </c>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
-      <c r="E123" s="129"/>
+      <c r="E123" s="69"/>
       <c r="F123" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4510,13 +4506,13 @@
       <c r="J123" s="41"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="90"/>
+      <c r="A124" s="79"/>
       <c r="B124" s="27">
         <v>41710</v>
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
-      <c r="E124" s="129"/>
+      <c r="E124" s="69"/>
       <c r="F124" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4527,13 +4523,13 @@
       <c r="J124" s="41"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="90"/>
+      <c r="A125" s="79"/>
       <c r="B125" s="27">
         <v>41711</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
-      <c r="E125" s="129"/>
+      <c r="E125" s="69"/>
       <c r="F125" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4544,13 +4540,13 @@
       <c r="J125" s="41"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="91"/>
+      <c r="A126" s="80"/>
       <c r="B126" s="27">
         <v>41712</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
-      <c r="E126" s="129"/>
+      <c r="E126" s="69"/>
       <c r="F126" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4561,7 +4557,7 @@
       <c r="J126" s="41"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="85">
+      <c r="A127" s="73">
         <v>20</v>
       </c>
       <c r="B127" s="28">
@@ -4580,7 +4576,7 @@
       <c r="J127" s="42"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="119"/>
+      <c r="A128" s="81"/>
       <c r="B128" s="28">
         <v>41716</v>
       </c>
@@ -4597,7 +4593,7 @@
       <c r="J128" s="42"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="119"/>
+      <c r="A129" s="81"/>
       <c r="B129" s="28">
         <v>41717</v>
       </c>
@@ -4614,7 +4610,7 @@
       <c r="J129" s="42"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="119"/>
+      <c r="A130" s="81"/>
       <c r="B130" s="28">
         <v>41718</v>
       </c>
@@ -4631,7 +4627,7 @@
       <c r="J130" s="42"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="86"/>
+      <c r="A131" s="74"/>
       <c r="B131" s="28">
         <v>41719</v>
       </c>
@@ -4648,7 +4644,7 @@
       <c r="J131" s="42"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="89">
+      <c r="A132" s="78">
         <v>21</v>
       </c>
       <c r="B132" s="27">
@@ -4656,7 +4652,7 @@
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
-      <c r="E132" s="129"/>
+      <c r="E132" s="69"/>
       <c r="F132" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4667,13 +4663,13 @@
       <c r="J132" s="41"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="90"/>
+      <c r="A133" s="79"/>
       <c r="B133" s="27">
         <v>41723</v>
       </c>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
-      <c r="E133" s="129"/>
+      <c r="E133" s="69"/>
       <c r="F133" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4684,13 +4680,13 @@
       <c r="J133" s="41"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="90"/>
+      <c r="A134" s="79"/>
       <c r="B134" s="27">
         <v>41724</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
-      <c r="E134" s="129"/>
+      <c r="E134" s="69"/>
       <c r="F134" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4701,13 +4697,13 @@
       <c r="J134" s="41"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="90"/>
+      <c r="A135" s="79"/>
       <c r="B135" s="27">
         <v>41725</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
-      <c r="E135" s="129"/>
+      <c r="E135" s="69"/>
       <c r="F135" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4718,13 +4714,13 @@
       <c r="J135" s="41"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="91"/>
+      <c r="A136" s="80"/>
       <c r="B136" s="27">
         <v>41726</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
-      <c r="E136" s="129"/>
+      <c r="E136" s="69"/>
       <c r="F136" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4735,7 +4731,7 @@
       <c r="J136" s="41"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="85">
+      <c r="A137" s="73">
         <v>22</v>
       </c>
       <c r="B137" s="28">
@@ -4754,7 +4750,7 @@
       <c r="J137" s="42"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="119"/>
+      <c r="A138" s="81"/>
       <c r="B138" s="28">
         <v>41730</v>
       </c>
@@ -4771,7 +4767,7 @@
       <c r="J138" s="42"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="119"/>
+      <c r="A139" s="81"/>
       <c r="B139" s="28">
         <v>41731</v>
       </c>
@@ -4788,7 +4784,7 @@
       <c r="J139" s="42"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="119"/>
+      <c r="A140" s="81"/>
       <c r="B140" s="28">
         <v>41732</v>
       </c>
@@ -4805,7 +4801,7 @@
       <c r="J140" s="42"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="86"/>
+      <c r="A141" s="74"/>
       <c r="B141" s="28">
         <v>41733</v>
       </c>
@@ -4822,7 +4818,7 @@
       <c r="J141" s="42"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="89">
+      <c r="A142" s="78">
         <v>23</v>
       </c>
       <c r="B142" s="27">
@@ -4830,7 +4826,7 @@
       </c>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
-      <c r="E142" s="129"/>
+      <c r="E142" s="69"/>
       <c r="F142" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4841,13 +4837,13 @@
       <c r="J142" s="41"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="90"/>
+      <c r="A143" s="79"/>
       <c r="B143" s="27">
         <v>41737</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
-      <c r="E143" s="129"/>
+      <c r="E143" s="69"/>
       <c r="F143" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4858,13 +4854,13 @@
       <c r="J143" s="41"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="90"/>
+      <c r="A144" s="79"/>
       <c r="B144" s="27">
         <v>41738</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
-      <c r="E144" s="129"/>
+      <c r="E144" s="69"/>
       <c r="F144" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4875,13 +4871,13 @@
       <c r="J144" s="41"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="90"/>
+      <c r="A145" s="79"/>
       <c r="B145" s="27">
         <v>41739</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
-      <c r="E145" s="129"/>
+      <c r="E145" s="69"/>
       <c r="F145" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4892,13 +4888,13 @@
       <c r="J145" s="41"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="91"/>
+      <c r="A146" s="80"/>
       <c r="B146" s="27">
         <v>41740</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
-      <c r="E146" s="129"/>
+      <c r="E146" s="69"/>
       <c r="F146" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4909,7 +4905,7 @@
       <c r="J146" s="41"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="85">
+      <c r="A147" s="73">
         <v>24</v>
       </c>
       <c r="B147" s="28">
@@ -4928,7 +4924,7 @@
       <c r="J147" s="42"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="119"/>
+      <c r="A148" s="81"/>
       <c r="B148" s="28">
         <v>41744</v>
       </c>
@@ -4945,7 +4941,7 @@
       <c r="J148" s="42"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="119"/>
+      <c r="A149" s="81"/>
       <c r="B149" s="28">
         <v>41745</v>
       </c>
@@ -4962,7 +4958,7 @@
       <c r="J149" s="42"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="119"/>
+      <c r="A150" s="81"/>
       <c r="B150" s="28">
         <v>41746</v>
       </c>
@@ -4979,7 +4975,7 @@
       <c r="J150" s="42"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="86"/>
+      <c r="A151" s="74"/>
       <c r="B151" s="28">
         <v>41747</v>
       </c>
@@ -4996,7 +4992,7 @@
       <c r="J151" s="42"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="89">
+      <c r="A152" s="78">
         <v>25</v>
       </c>
       <c r="B152" s="27">
@@ -5004,7 +5000,7 @@
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
-      <c r="E152" s="129"/>
+      <c r="E152" s="69"/>
       <c r="F152" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5015,13 +5011,13 @@
       <c r="J152" s="41"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="90"/>
+      <c r="A153" s="79"/>
       <c r="B153" s="27">
         <v>41751</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
-      <c r="E153" s="129"/>
+      <c r="E153" s="69"/>
       <c r="F153" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5032,13 +5028,13 @@
       <c r="J153" s="41"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="90"/>
+      <c r="A154" s="79"/>
       <c r="B154" s="27">
         <v>41752</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
-      <c r="E154" s="129"/>
+      <c r="E154" s="69"/>
       <c r="F154" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5049,13 +5045,13 @@
       <c r="J154" s="41"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="90"/>
+      <c r="A155" s="79"/>
       <c r="B155" s="27">
         <v>41753</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
-      <c r="E155" s="129"/>
+      <c r="E155" s="69"/>
       <c r="F155" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5066,13 +5062,13 @@
       <c r="J155" s="41"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="91"/>
+      <c r="A156" s="80"/>
       <c r="B156" s="27">
         <v>41754</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
-      <c r="E156" s="129"/>
+      <c r="E156" s="69"/>
       <c r="F156" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5083,7 +5079,7 @@
       <c r="J156" s="41"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="85">
+      <c r="A157" s="73">
         <v>26</v>
       </c>
       <c r="B157" s="28">
@@ -5102,7 +5098,7 @@
       <c r="J157" s="42"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="119"/>
+      <c r="A158" s="81"/>
       <c r="B158" s="28">
         <v>41758</v>
       </c>
@@ -5119,7 +5115,7 @@
       <c r="J158" s="42"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="119"/>
+      <c r="A159" s="81"/>
       <c r="B159" s="28">
         <v>41759</v>
       </c>
@@ -5136,7 +5132,7 @@
       <c r="J159" s="42"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="119"/>
+      <c r="A160" s="81"/>
       <c r="B160" s="28">
         <v>41760</v>
       </c>
@@ -5153,7 +5149,7 @@
       <c r="J160" s="42"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="86"/>
+      <c r="A161" s="74"/>
       <c r="B161" s="28">
         <v>41761</v>
       </c>
@@ -5170,7 +5166,7 @@
       <c r="J161" s="42"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="89">
+      <c r="A162" s="78">
         <v>27</v>
       </c>
       <c r="B162" s="27">
@@ -5178,7 +5174,7 @@
       </c>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
-      <c r="E162" s="129"/>
+      <c r="E162" s="69"/>
       <c r="F162" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5189,13 +5185,13 @@
       <c r="J162" s="41"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="90"/>
+      <c r="A163" s="79"/>
       <c r="B163" s="27">
         <v>41765</v>
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
-      <c r="E163" s="129"/>
+      <c r="E163" s="69"/>
       <c r="F163" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5206,13 +5202,13 @@
       <c r="J163" s="41"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="90"/>
+      <c r="A164" s="79"/>
       <c r="B164" s="27">
         <v>41766</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
-      <c r="E164" s="129"/>
+      <c r="E164" s="69"/>
       <c r="F164" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5223,13 +5219,13 @@
       <c r="J164" s="41"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="90"/>
+      <c r="A165" s="79"/>
       <c r="B165" s="27">
         <v>41767</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
-      <c r="E165" s="129"/>
+      <c r="E165" s="69"/>
       <c r="F165" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5240,13 +5236,13 @@
       <c r="J165" s="41"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="91"/>
+      <c r="A166" s="80"/>
       <c r="B166" s="27">
         <v>41768</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
-      <c r="E166" s="129"/>
+      <c r="E166" s="69"/>
       <c r="F166" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5257,7 +5253,7 @@
       <c r="J166" s="41"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="85">
+      <c r="A167" s="73">
         <v>28</v>
       </c>
       <c r="B167" s="28">
@@ -5276,7 +5272,7 @@
       <c r="J167" s="42"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="119"/>
+      <c r="A168" s="81"/>
       <c r="B168" s="28">
         <v>41772</v>
       </c>
@@ -5293,7 +5289,7 @@
       <c r="J168" s="42"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="119"/>
+      <c r="A169" s="81"/>
       <c r="B169" s="28">
         <v>41773</v>
       </c>
@@ -5310,7 +5306,7 @@
       <c r="J169" s="42"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="119"/>
+      <c r="A170" s="81"/>
       <c r="B170" s="28">
         <v>41774</v>
       </c>
@@ -5327,7 +5323,7 @@
       <c r="J170" s="42"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="86"/>
+      <c r="A171" s="74"/>
       <c r="B171" s="28">
         <v>41775</v>
       </c>
@@ -5344,7 +5340,7 @@
       <c r="J171" s="42"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="89">
+      <c r="A172" s="78">
         <v>29</v>
       </c>
       <c r="B172" s="27">
@@ -5352,7 +5348,7 @@
       </c>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
-      <c r="E172" s="129"/>
+      <c r="E172" s="69"/>
       <c r="F172" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5363,13 +5359,13 @@
       <c r="J172" s="41"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A173" s="90"/>
+      <c r="A173" s="79"/>
       <c r="B173" s="27">
         <v>41779</v>
       </c>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
-      <c r="E173" s="129"/>
+      <c r="E173" s="69"/>
       <c r="F173" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5380,13 +5376,13 @@
       <c r="J173" s="41"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A174" s="90"/>
+      <c r="A174" s="79"/>
       <c r="B174" s="27">
         <v>41780</v>
       </c>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
-      <c r="E174" s="129"/>
+      <c r="E174" s="69"/>
       <c r="F174" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5397,13 +5393,13 @@
       <c r="J174" s="41"/>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A175" s="90"/>
+      <c r="A175" s="79"/>
       <c r="B175" s="27">
         <v>41781</v>
       </c>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
-      <c r="E175" s="129"/>
+      <c r="E175" s="69"/>
       <c r="F175" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5414,13 +5410,13 @@
       <c r="J175" s="41"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A176" s="91"/>
+      <c r="A176" s="80"/>
       <c r="B176" s="27">
         <v>41782</v>
       </c>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
-      <c r="E176" s="129"/>
+      <c r="E176" s="69"/>
       <c r="F176" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5431,7 +5427,7 @@
       <c r="J176" s="41"/>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A177" s="125">
+      <c r="A177" s="82">
         <v>30</v>
       </c>
       <c r="B177" s="28">
@@ -5450,7 +5446,7 @@
       <c r="J177" s="43"/>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A178" s="126"/>
+      <c r="A178" s="83"/>
       <c r="B178" s="28">
         <v>41786</v>
       </c>
@@ -5467,7 +5463,7 @@
       <c r="J178" s="43"/>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A179" s="126"/>
+      <c r="A179" s="83"/>
       <c r="B179" s="28">
         <v>41787</v>
       </c>
@@ -5484,7 +5480,7 @@
       <c r="J179" s="43"/>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A180" s="126"/>
+      <c r="A180" s="83"/>
       <c r="B180" s="28">
         <v>41788</v>
       </c>
@@ -5501,7 +5497,7 @@
       <c r="J180" s="43"/>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A181" s="127"/>
+      <c r="A181" s="84"/>
       <c r="B181" s="28">
         <v>41789</v>
       </c>
@@ -5519,38 +5515,28 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="B47:B52"/>
-    <mergeCell ref="F47:F52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="A44:A56"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="A132:A136"/>
-    <mergeCell ref="A162:A166"/>
-    <mergeCell ref="A167:A171"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="A112:A116"/>
-    <mergeCell ref="A117:A121"/>
-    <mergeCell ref="A122:A126"/>
-    <mergeCell ref="A127:A131"/>
-    <mergeCell ref="A172:A176"/>
-    <mergeCell ref="A177:A181"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="A142:A146"/>
-    <mergeCell ref="A147:A151"/>
-    <mergeCell ref="A152:A156"/>
-    <mergeCell ref="A157:A161"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="G2:N4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A19:A32"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A10:A18"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="A92:A96"/>
@@ -5567,28 +5553,38 @@
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="A77:A81"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A10:A18"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="G2:N4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A19:A32"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="A172:A176"/>
+    <mergeCell ref="A177:A181"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="A142:A146"/>
+    <mergeCell ref="A147:A151"/>
+    <mergeCell ref="A152:A156"/>
+    <mergeCell ref="A157:A161"/>
+    <mergeCell ref="A132:A136"/>
+    <mergeCell ref="A162:A166"/>
+    <mergeCell ref="A167:A171"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="A112:A116"/>
+    <mergeCell ref="A117:A121"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="A127:A131"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="A44:A56"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="F47:F52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="F53:F54"/>
   </mergeCells>
   <conditionalFormatting sqref="M7">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNgo.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNgo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NC\Desktop\Admission project\1. Project management\9. Timelog\individual time log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\capstone\1. Project management\9. Timelog\individual time log\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="125">
   <si>
     <t>Week</t>
   </si>
@@ -417,6 +417,23 @@
   </si>
   <si>
     <t>1:30PM</t>
+  </si>
+  <si>
+    <t>9:10AM</t>
+  </si>
+  <si>
+    <t>10:40AM</t>
+  </si>
+  <si>
+    <t>11:30AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Devide team work
+ - Update entities</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Update timelog for team
+ - Update timelog</t>
   </si>
 </sst>
 </file>
@@ -430,7 +447,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -438,14 +455,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -458,7 +475,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -471,20 +488,20 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -497,7 +514,7 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -510,7 +527,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -728,7 +745,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -912,6 +929,51 @@
     <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -927,24 +989,117 @@
     <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -954,143 +1109,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1416,13 +1448,13 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>28</v>
       </c>
@@ -1430,7 +1462,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -1438,7 +1470,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -1446,7 +1478,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -1454,7 +1486,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -1462,7 +1494,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -1470,7 +1502,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -1478,7 +1510,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>7</v>
       </c>
@@ -1486,7 +1518,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -1494,7 +1526,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>9</v>
       </c>
@@ -1502,7 +1534,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -1510,7 +1542,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>11</v>
       </c>
@@ -1525,109 +1557,109 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O181"/>
+  <dimension ref="A1:O183"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G32" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="6" topLeftCell="G53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E39" sqref="E39"/>
+      <selection pane="bottomRight" activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.375" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="50.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="50.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="1" customWidth="1"/>
-    <col min="11" max="11" width="27.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.28515625" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="14" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="106"/>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="108"/>
+      <c r="A1" s="71"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="73"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="109" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="111"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="76"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="125" t="s">
+      <c r="A3" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="114"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="79"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="128"/>
-      <c r="B4" s="129"/>
-      <c r="C4" s="129"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="117"/>
+      <c r="A4" s="106"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="82"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="100"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="102"/>
+      <c r="A5" s="115"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="117"/>
       <c r="F5" s="16"/>
       <c r="H5" s="45" t="s">
         <v>66</v>
@@ -1641,7 +1673,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>0</v>
       </c>
@@ -1672,13 +1704,13 @@
       <c r="J6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="121"/>
-      <c r="L6" s="121"/>
-      <c r="M6" s="121"/>
-      <c r="N6" s="121"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
     </row>
     <row r="7" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="118">
+      <c r="A7" s="83">
         <v>1</v>
       </c>
       <c r="B7" s="17">
@@ -1705,21 +1737,21 @@
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="31"/>
-      <c r="K7" s="85" t="s">
+      <c r="K7" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="85"/>
+      <c r="L7" s="121"/>
       <c r="M7" s="34">
-        <f>SUM(M8:M64)</f>
-        <v>47.393000000000001</v>
+        <f>SUM(M8:M66)</f>
+        <v>50.552999999999997</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="119"/>
-      <c r="B8" s="96">
+    <row r="8" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="84"/>
+      <c r="B8" s="109">
         <v>41586</v>
       </c>
       <c r="C8" s="18">
@@ -1731,7 +1763,7 @@
       <c r="E8" s="19">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F8" s="98">
+      <c r="F8" s="111">
         <f>SUM(E8:E9)</f>
         <v>1.66</v>
       </c>
@@ -1756,8 +1788,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="120"/>
-      <c r="B9" s="97"/>
+      <c r="A9" s="85"/>
+      <c r="B9" s="110"/>
       <c r="C9" s="18">
         <v>0.63194444444444442</v>
       </c>
@@ -1767,7 +1799,7 @@
       <c r="E9" s="19">
         <v>0.5</v>
       </c>
-      <c r="F9" s="99"/>
+      <c r="F9" s="112"/>
       <c r="G9" s="31" t="s">
         <v>25</v>
       </c>
@@ -1778,10 +1810,10 @@
       <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="103">
+      <c r="A10" s="118">
         <v>2</v>
       </c>
-      <c r="B10" s="88">
+      <c r="B10" s="98">
         <v>41589</v>
       </c>
       <c r="C10" s="54">
@@ -1793,7 +1825,7 @@
       <c r="E10" s="55">
         <v>1.5</v>
       </c>
-      <c r="F10" s="92">
+      <c r="F10" s="125">
         <f>SUM(E10:E11)</f>
         <v>2.5</v>
       </c>
@@ -1807,8 +1839,8 @@
       <c r="J10" s="56"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="104"/>
-      <c r="B11" s="89"/>
+      <c r="A11" s="119"/>
+      <c r="B11" s="99"/>
       <c r="C11" s="54">
         <v>0.875</v>
       </c>
@@ -1818,7 +1850,7 @@
       <c r="E11" s="55">
         <v>1</v>
       </c>
-      <c r="F11" s="93"/>
+      <c r="F11" s="126"/>
       <c r="G11" s="56" t="s">
         <v>30</v>
       </c>
@@ -1829,8 +1861,8 @@
       <c r="J11" s="56"/>
     </row>
     <row r="12" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A12" s="104"/>
-      <c r="B12" s="88">
+      <c r="A12" s="119"/>
+      <c r="B12" s="98">
         <v>41590</v>
       </c>
       <c r="C12" s="23">
@@ -1870,8 +1902,8 @@
       <c r="O12" s="36"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="104"/>
-      <c r="B13" s="89"/>
+      <c r="A13" s="119"/>
+      <c r="B13" s="99"/>
       <c r="C13" s="23">
         <v>0.875</v>
       </c>
@@ -1900,8 +1932,8 @@
       <c r="O13" s="36"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="104"/>
-      <c r="B14" s="88">
+      <c r="A14" s="119"/>
+      <c r="B14" s="98">
         <v>41592</v>
       </c>
       <c r="C14" s="26">
@@ -1913,7 +1945,7 @@
       <c r="E14" s="29">
         <v>1.25</v>
       </c>
-      <c r="F14" s="86">
+      <c r="F14" s="113">
         <f>SUM(E14:E15)</f>
         <v>3.25</v>
       </c>
@@ -1940,8 +1972,8 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="104"/>
-      <c r="B15" s="89"/>
+      <c r="A15" s="119"/>
+      <c r="B15" s="99"/>
       <c r="C15" s="26">
         <v>0.42708333333333331</v>
       </c>
@@ -1951,7 +1983,7 @@
       <c r="E15" s="29">
         <v>2</v>
       </c>
-      <c r="F15" s="87"/>
+      <c r="F15" s="114"/>
       <c r="G15" s="48" t="s">
         <v>30</v>
       </c>
@@ -1966,7 +1998,7 @@
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="104"/>
+      <c r="A16" s="119"/>
       <c r="B16" s="46">
         <v>41593</v>
       </c>
@@ -1998,16 +2030,16 @@
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="10">
-        <f>SUM(E44:E56)</f>
-        <v>18.66</v>
+        <f>SUM(E44:E58)</f>
+        <v>21.82</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="104"/>
-      <c r="B17" s="88">
+      <c r="A17" s="119"/>
+      <c r="B17" s="98">
         <v>41594</v>
       </c>
       <c r="C17" s="26">
@@ -2019,7 +2051,7 @@
       <c r="E17" s="29">
         <v>2</v>
       </c>
-      <c r="F17" s="86">
+      <c r="F17" s="113">
         <f>SUM(E17:E18)</f>
         <v>3</v>
       </c>
@@ -2038,7 +2070,7 @@
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="10">
-        <f>SUM(E62:E66)</f>
+        <f>SUM(E64:E68)</f>
         <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
@@ -2046,8 +2078,8 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="105"/>
-      <c r="B18" s="89"/>
+      <c r="A18" s="120"/>
+      <c r="B18" s="99"/>
       <c r="C18" s="26">
         <v>0.83333333333333337</v>
       </c>
@@ -2057,7 +2089,7 @@
       <c r="E18" s="29">
         <v>1</v>
       </c>
-      <c r="F18" s="87"/>
+      <c r="F18" s="114"/>
       <c r="G18" s="30" t="s">
         <v>24</v>
       </c>
@@ -2074,10 +2106,10 @@
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="78">
+      <c r="A19" s="92">
         <v>3</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="90">
         <v>41596</v>
       </c>
       <c r="C19" s="52">
@@ -2089,7 +2121,7 @@
       <c r="E19" s="69">
         <v>0.6</v>
       </c>
-      <c r="F19" s="78">
+      <c r="F19" s="92">
         <f>SUM(E19:E20)</f>
         <v>1.18</v>
       </c>
@@ -2108,7 +2140,7 @@
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="10">
-        <f>SUM(E67:E71)</f>
+        <f>SUM(E69:E73)</f>
         <v>0</v>
       </c>
       <c r="N19" s="3" t="s">
@@ -2116,8 +2148,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="79"/>
-      <c r="B20" s="77"/>
+      <c r="A20" s="93"/>
+      <c r="B20" s="91"/>
       <c r="C20" s="52">
         <v>0.89236111111111116</v>
       </c>
@@ -2127,7 +2159,7 @@
       <c r="E20" s="69">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F20" s="80"/>
+      <c r="F20" s="94"/>
       <c r="G20" s="41" t="s">
         <v>30</v>
       </c>
@@ -2142,8 +2174,8 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A21" s="79"/>
-      <c r="B21" s="90">
+      <c r="A21" s="93"/>
+      <c r="B21" s="123">
         <v>41597</v>
       </c>
       <c r="C21" s="52">
@@ -2155,7 +2187,7 @@
       <c r="E21" s="70">
         <v>1</v>
       </c>
-      <c r="F21" s="78">
+      <c r="F21" s="92">
         <f>SUM(E21:E22)</f>
         <v>3</v>
       </c>
@@ -2172,7 +2204,7 @@
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="10">
-        <f>SUM(E72:E76)</f>
+        <f>SUM(E74:E78)</f>
         <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
@@ -2180,8 +2212,8 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="79"/>
-      <c r="B22" s="91"/>
+      <c r="A22" s="93"/>
+      <c r="B22" s="124"/>
       <c r="C22" s="52">
         <v>0.91666666666666663</v>
       </c>
@@ -2191,7 +2223,7 @@
       <c r="E22" s="70">
         <v>2</v>
       </c>
-      <c r="F22" s="80"/>
+      <c r="F22" s="94"/>
       <c r="G22" s="41" t="s">
         <v>24</v>
       </c>
@@ -2208,8 +2240,8 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="79"/>
-      <c r="B23" s="75">
+      <c r="A23" s="93"/>
+      <c r="B23" s="90">
         <v>41598</v>
       </c>
       <c r="C23" s="52">
@@ -2221,7 +2253,7 @@
       <c r="E23" s="69">
         <v>1</v>
       </c>
-      <c r="F23" s="94">
+      <c r="F23" s="96">
         <f>SUM(E23:E24)</f>
         <v>3</v>
       </c>
@@ -2238,7 +2270,7 @@
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="10">
-        <f>SUM(E77:E81)</f>
+        <f>SUM(E79:E83)</f>
         <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
@@ -2246,8 +2278,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="79"/>
-      <c r="B24" s="77"/>
+      <c r="A24" s="93"/>
+      <c r="B24" s="91"/>
       <c r="C24" s="52">
         <v>0.91666666666666663</v>
       </c>
@@ -2257,7 +2289,7 @@
       <c r="E24" s="69">
         <v>2</v>
       </c>
-      <c r="F24" s="95"/>
+      <c r="F24" s="97"/>
       <c r="G24" s="41" t="s">
         <v>24</v>
       </c>
@@ -2271,7 +2303,7 @@
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="10">
-        <f>SUM(E82:E86)</f>
+        <f>SUM(E84:E88)</f>
         <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
@@ -2279,8 +2311,8 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="79"/>
-      <c r="B25" s="75">
+      <c r="A25" s="93"/>
+      <c r="B25" s="90">
         <v>41599</v>
       </c>
       <c r="C25" s="52">
@@ -2292,7 +2324,7 @@
       <c r="E25" s="69">
         <v>1</v>
       </c>
-      <c r="F25" s="78">
+      <c r="F25" s="92">
         <f>SUM(E25:E30)</f>
         <v>10.4</v>
       </c>
@@ -2308,8 +2340,8 @@
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="79"/>
-      <c r="B26" s="76"/>
+      <c r="A26" s="93"/>
+      <c r="B26" s="127"/>
       <c r="C26" s="52">
         <v>0.375</v>
       </c>
@@ -2319,7 +2351,7 @@
       <c r="E26" s="69">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F26" s="79"/>
+      <c r="F26" s="93"/>
       <c r="G26" s="53" t="s">
         <v>25</v>
       </c>
@@ -2334,8 +2366,8 @@
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="79"/>
-      <c r="B27" s="76"/>
+      <c r="A27" s="93"/>
+      <c r="B27" s="127"/>
       <c r="C27" s="52">
         <v>0.4236111111111111</v>
       </c>
@@ -2345,7 +2377,7 @@
       <c r="E27" s="69">
         <v>1.33</v>
       </c>
-      <c r="F27" s="79"/>
+      <c r="F27" s="93"/>
       <c r="G27" s="41" t="s">
         <v>86</v>
       </c>
@@ -2358,8 +2390,8 @@
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="79"/>
-      <c r="B28" s="76"/>
+      <c r="A28" s="93"/>
+      <c r="B28" s="127"/>
       <c r="C28" s="52">
         <v>0.52083333333333337</v>
       </c>
@@ -2369,7 +2401,7 @@
       <c r="E28" s="69">
         <v>2</v>
       </c>
-      <c r="F28" s="79"/>
+      <c r="F28" s="93"/>
       <c r="G28" s="41" t="s">
         <v>83</v>
       </c>
@@ -2384,8 +2416,8 @@
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="79"/>
-      <c r="B29" s="76"/>
+      <c r="A29" s="93"/>
+      <c r="B29" s="127"/>
       <c r="C29" s="52">
         <v>0.625</v>
       </c>
@@ -2395,7 +2427,7 @@
       <c r="E29" s="69">
         <v>2.16</v>
       </c>
-      <c r="F29" s="79"/>
+      <c r="F29" s="93"/>
       <c r="G29" s="41" t="s">
         <v>86</v>
       </c>
@@ -2408,8 +2440,8 @@
       <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="79"/>
-      <c r="B30" s="77"/>
+      <c r="A30" s="93"/>
+      <c r="B30" s="91"/>
       <c r="C30" s="52">
         <v>0.84375</v>
       </c>
@@ -2419,7 +2451,7 @@
       <c r="E30" s="69">
         <v>2.75</v>
       </c>
-      <c r="F30" s="80"/>
+      <c r="F30" s="94"/>
       <c r="G30" s="41" t="s">
         <v>87</v>
       </c>
@@ -2434,8 +2466,8 @@
       <c r="N30" s="3"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="79"/>
-      <c r="B31" s="75">
+      <c r="A31" s="93"/>
+      <c r="B31" s="90">
         <v>41600</v>
       </c>
       <c r="C31" s="52" t="s">
@@ -2447,7 +2479,7 @@
       <c r="E31" s="69">
         <v>1.25</v>
       </c>
-      <c r="F31" s="94">
+      <c r="F31" s="96">
         <f>SUM(E31:E32)</f>
         <v>2.75</v>
       </c>
@@ -2465,8 +2497,8 @@
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="80"/>
-      <c r="B32" s="77"/>
+      <c r="A32" s="94"/>
+      <c r="B32" s="91"/>
       <c r="C32" s="52">
         <v>0.625</v>
       </c>
@@ -2476,7 +2508,7 @@
       <c r="E32" s="69">
         <v>1.5</v>
       </c>
-      <c r="F32" s="95"/>
+      <c r="F32" s="97"/>
       <c r="G32" s="41" t="s">
         <v>87</v>
       </c>
@@ -2492,7 +2524,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="62"/>
-      <c r="B33" s="75">
+      <c r="B33" s="90">
         <v>41601</v>
       </c>
       <c r="C33" s="52">
@@ -2504,7 +2536,7 @@
       <c r="E33" s="69">
         <v>0.25</v>
       </c>
-      <c r="F33" s="94">
+      <c r="F33" s="96">
         <f>SUM(E33:E34)</f>
         <v>1.5</v>
       </c>
@@ -2523,7 +2555,7 @@
     </row>
     <row r="34" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="63"/>
-      <c r="B34" s="77"/>
+      <c r="B34" s="91"/>
       <c r="C34" s="52">
         <v>0.57291666666666663</v>
       </c>
@@ -2533,7 +2565,7 @@
       <c r="E34" s="69">
         <v>1.25</v>
       </c>
-      <c r="F34" s="95"/>
+      <c r="F34" s="97"/>
       <c r="G34" s="41" t="s">
         <v>87</v>
       </c>
@@ -2550,10 +2582,10 @@
       <c r="N34" s="3"/>
     </row>
     <row r="35" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A35" s="73">
+      <c r="A35" s="88">
         <v>4</v>
       </c>
-      <c r="B35" s="71">
+      <c r="B35" s="86">
         <v>41603</v>
       </c>
       <c r="C35" s="64">
@@ -2565,7 +2597,7 @@
       <c r="E35" s="10">
         <v>1.25</v>
       </c>
-      <c r="F35" s="73">
+      <c r="F35" s="88">
         <f>SUM(E35:E36)</f>
         <v>3.25</v>
       </c>
@@ -2582,7 +2614,7 @@
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="10">
-        <f>SUM(E92:E96)</f>
+        <f>SUM(E94:E98)</f>
         <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
@@ -2590,8 +2622,8 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="81"/>
-      <c r="B36" s="72"/>
+      <c r="A36" s="122"/>
+      <c r="B36" s="87"/>
       <c r="C36" s="64">
         <v>0.91666666666666663</v>
       </c>
@@ -2601,7 +2633,7 @@
       <c r="E36" s="10">
         <v>2</v>
       </c>
-      <c r="F36" s="74"/>
+      <c r="F36" s="89"/>
       <c r="G36" s="42" t="s">
         <v>96</v>
       </c>
@@ -2616,8 +2648,8 @@
       <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="81"/>
-      <c r="B37" s="71">
+      <c r="A37" s="122"/>
+      <c r="B37" s="86">
         <v>41604</v>
       </c>
       <c r="C37" s="64">
@@ -2629,7 +2661,7 @@
       <c r="E37" s="10">
         <v>2.5</v>
       </c>
-      <c r="F37" s="73">
+      <c r="F37" s="88">
         <f>SUM(E37:E38)</f>
         <v>3.5</v>
       </c>
@@ -2646,7 +2678,7 @@
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="10">
-        <f>SUM(E97:E101)</f>
+        <f>SUM(E99:E103)</f>
         <v>0</v>
       </c>
       <c r="N37" s="3" t="s">
@@ -2654,8 +2686,8 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="81"/>
-      <c r="B38" s="72"/>
+      <c r="A38" s="122"/>
+      <c r="B38" s="87"/>
       <c r="C38" s="64">
         <v>0.5625</v>
       </c>
@@ -2665,7 +2697,7 @@
       <c r="E38" s="10">
         <v>1</v>
       </c>
-      <c r="F38" s="74"/>
+      <c r="F38" s="89"/>
       <c r="G38" s="42" t="s">
         <v>86</v>
       </c>
@@ -2680,7 +2712,7 @@
       <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="81"/>
+      <c r="A39" s="122"/>
       <c r="B39" s="28">
         <v>41605</v>
       </c>
@@ -2694,7 +2726,7 @@
         <v>2.33</v>
       </c>
       <c r="F39" s="6">
-        <f t="shared" ref="F39:F73" si="0">E39</f>
+        <f t="shared" ref="F39:F75" si="0">E39</f>
         <v>2.33</v>
       </c>
       <c r="G39" s="42" t="s">
@@ -2710,7 +2742,7 @@
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="10">
-        <f>SUM(E102:E106)</f>
+        <f>SUM(E104:E108)</f>
         <v>0</v>
       </c>
       <c r="N39" s="3" t="s">
@@ -2718,7 +2750,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="81"/>
+      <c r="A40" s="122"/>
       <c r="B40" s="28">
         <v>41606</v>
       </c>
@@ -2748,7 +2780,7 @@
       </c>
       <c r="L40" s="6"/>
       <c r="M40" s="10">
-        <f>SUM(E107:E111)</f>
+        <f>SUM(E109:E113)</f>
         <v>0</v>
       </c>
       <c r="N40" s="3" t="s">
@@ -2756,7 +2788,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="74"/>
+      <c r="A41" s="89"/>
       <c r="B41" s="28">
         <v>41607</v>
       </c>
@@ -2786,16 +2818,16 @@
       </c>
       <c r="L41" s="6"/>
       <c r="M41" s="10">
-        <f>SUM(E112:E116)</f>
+        <f>SUM(E114:E118)</f>
         <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="66"/>
-      <c r="B42" s="71">
+      <c r="B42" s="86">
         <v>41608</v>
       </c>
       <c r="C42" s="64">
@@ -2807,7 +2839,7 @@
       <c r="E42" s="10">
         <v>1.5</v>
       </c>
-      <c r="F42" s="73">
+      <c r="F42" s="88">
         <f>SUM(E42:E43)</f>
         <v>2.5</v>
       </c>
@@ -2826,7 +2858,7 @@
     </row>
     <row r="43" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="66"/>
-      <c r="B43" s="72"/>
+      <c r="B43" s="87"/>
       <c r="C43" s="64">
         <v>0.85416666666666663</v>
       </c>
@@ -2836,7 +2868,7 @@
       <c r="E43" s="10">
         <v>1</v>
       </c>
-      <c r="F43" s="74"/>
+      <c r="F43" s="89"/>
       <c r="G43" s="42" t="s">
         <v>87</v>
       </c>
@@ -2851,10 +2883,10 @@
       <c r="N43" s="3"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="78">
+      <c r="A44" s="92">
         <v>5</v>
       </c>
-      <c r="B44" s="75">
+      <c r="B44" s="90">
         <v>41610</v>
       </c>
       <c r="C44" s="52">
@@ -2866,7 +2898,7 @@
       <c r="E44" s="69">
         <v>1</v>
       </c>
-      <c r="F44" s="78">
+      <c r="F44" s="92">
         <f>SUM(E44:E46)</f>
         <v>3.5</v>
       </c>
@@ -2883,7 +2915,7 @@
       </c>
       <c r="L44" s="6"/>
       <c r="M44" s="10">
-        <f>SUM(E117:E121)</f>
+        <f>SUM(E119:E123)</f>
         <v>0</v>
       </c>
       <c r="N44" s="3" t="s">
@@ -2891,8 +2923,8 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="79"/>
-      <c r="B45" s="76"/>
+      <c r="A45" s="93"/>
+      <c r="B45" s="127"/>
       <c r="C45" s="52">
         <v>0.89583333333333337</v>
       </c>
@@ -2902,7 +2934,7 @@
       <c r="E45" s="69">
         <v>1.5</v>
       </c>
-      <c r="F45" s="79"/>
+      <c r="F45" s="93"/>
       <c r="G45" s="41" t="s">
         <v>87</v>
       </c>
@@ -2917,8 +2949,8 @@
       <c r="N45" s="3"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="79"/>
-      <c r="B46" s="77"/>
+      <c r="A46" s="93"/>
+      <c r="B46" s="91"/>
       <c r="C46" s="52">
         <v>0.95833333333333337</v>
       </c>
@@ -2928,7 +2960,7 @@
       <c r="E46" s="69">
         <v>1</v>
       </c>
-      <c r="F46" s="80"/>
+      <c r="F46" s="94"/>
       <c r="G46" s="41" t="s">
         <v>96</v>
       </c>
@@ -2943,8 +2975,8 @@
       <c r="N46" s="3"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="79"/>
-      <c r="B47" s="75">
+      <c r="A47" s="93"/>
+      <c r="B47" s="90">
         <v>41611</v>
       </c>
       <c r="C47" s="52">
@@ -2956,7 +2988,7 @@
       <c r="E47" s="69">
         <v>1</v>
       </c>
-      <c r="F47" s="78">
+      <c r="F47" s="92">
         <f>SUM(E47:E52)</f>
         <v>10.5</v>
       </c>
@@ -2971,7 +3003,7 @@
       </c>
       <c r="L47" s="6"/>
       <c r="M47" s="10">
-        <f>SUM(E122:E126)</f>
+        <f>SUM(E124:E128)</f>
         <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
@@ -2979,8 +3011,8 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="79"/>
-      <c r="B48" s="76"/>
+      <c r="A48" s="93"/>
+      <c r="B48" s="127"/>
       <c r="C48" s="52">
         <v>0.375</v>
       </c>
@@ -2990,7 +3022,7 @@
       <c r="E48" s="69">
         <v>1.5</v>
       </c>
-      <c r="F48" s="79"/>
+      <c r="F48" s="93"/>
       <c r="G48" s="41" t="s">
         <v>108</v>
       </c>
@@ -3005,8 +3037,8 @@
       <c r="N48" s="3"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="79"/>
-      <c r="B49" s="76"/>
+      <c r="A49" s="93"/>
+      <c r="B49" s="127"/>
       <c r="C49" s="52" t="s">
         <v>115</v>
       </c>
@@ -3016,7 +3048,7 @@
       <c r="E49" s="69">
         <v>0.5</v>
       </c>
-      <c r="F49" s="79"/>
+      <c r="F49" s="93"/>
       <c r="G49" s="41" t="s">
         <v>117</v>
       </c>
@@ -3031,8 +3063,8 @@
       <c r="N49" s="3"/>
     </row>
     <row r="50" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="79"/>
-      <c r="B50" s="76"/>
+      <c r="A50" s="93"/>
+      <c r="B50" s="127"/>
       <c r="C50" s="52">
         <v>0.5625</v>
       </c>
@@ -3042,7 +3074,7 @@
       <c r="E50" s="69">
         <v>3.5</v>
       </c>
-      <c r="F50" s="79"/>
+      <c r="F50" s="93"/>
       <c r="G50" s="41" t="s">
         <v>80</v>
       </c>
@@ -3057,8 +3089,8 @@
       <c r="N50" s="3"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="79"/>
-      <c r="B51" s="76"/>
+      <c r="A51" s="93"/>
+      <c r="B51" s="127"/>
       <c r="C51" s="52">
         <v>0.83333333333333337</v>
       </c>
@@ -3068,7 +3100,7 @@
       <c r="E51" s="69">
         <v>1</v>
       </c>
-      <c r="F51" s="79"/>
+      <c r="F51" s="93"/>
       <c r="G51" s="41" t="s">
         <v>87</v>
       </c>
@@ -3085,8 +3117,8 @@
       <c r="N51" s="3"/>
     </row>
     <row r="52" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="79"/>
-      <c r="B52" s="77"/>
+      <c r="A52" s="93"/>
+      <c r="B52" s="91"/>
       <c r="C52" s="52">
         <v>0.875</v>
       </c>
@@ -3096,7 +3128,7 @@
       <c r="E52" s="69">
         <v>3</v>
       </c>
-      <c r="F52" s="80"/>
+      <c r="F52" s="94"/>
       <c r="G52" s="41" t="s">
         <v>87</v>
       </c>
@@ -3111,8 +3143,8 @@
       <c r="N52" s="3"/>
     </row>
     <row r="53" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A53" s="79"/>
-      <c r="B53" s="75">
+      <c r="A53" s="93"/>
+      <c r="B53" s="90">
         <v>41612</v>
       </c>
       <c r="C53" s="52">
@@ -3124,7 +3156,7 @@
       <c r="E53" s="69">
         <v>2.66</v>
       </c>
-      <c r="F53" s="78">
+      <c r="F53" s="92">
         <f>SUM(E53:E54)</f>
         <v>4.66</v>
       </c>
@@ -3141,7 +3173,7 @@
       </c>
       <c r="L53" s="6"/>
       <c r="M53" s="10">
-        <f>SUM(E127:E131)</f>
+        <f>SUM(E129:E133)</f>
         <v>0</v>
       </c>
       <c r="N53" s="3" t="s">
@@ -3149,8 +3181,8 @@
       </c>
     </row>
     <row r="54" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="79"/>
-      <c r="B54" s="77"/>
+      <c r="A54" s="93"/>
+      <c r="B54" s="91"/>
       <c r="C54" s="52">
         <v>0.83333333333333337</v>
       </c>
@@ -3160,7 +3192,7 @@
       <c r="E54" s="69">
         <v>2</v>
       </c>
-      <c r="F54" s="80"/>
+      <c r="F54" s="94"/>
       <c r="G54" s="41" t="s">
         <v>87</v>
       </c>
@@ -3175,113 +3207,115 @@
       <c r="N54" s="3"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="79"/>
-      <c r="B55" s="27">
+      <c r="A55" s="93"/>
+      <c r="B55" s="90">
         <v>41613</v>
       </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="69"/>
-      <c r="F55" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
+      <c r="C55" s="52">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D55" s="52">
+        <v>0.875</v>
+      </c>
+      <c r="E55" s="69">
+        <v>1</v>
+      </c>
+      <c r="F55" s="133">
+        <f>SUM(E55:E57)</f>
+        <v>3.16</v>
+      </c>
+      <c r="G55" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H55" s="53"/>
       <c r="I55" s="41"/>
       <c r="J55" s="41"/>
-      <c r="K55" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="K55" s="8"/>
       <c r="L55" s="6"/>
-      <c r="M55" s="10">
-        <f>SUM(E132:E136)</f>
-        <v>0</v>
-      </c>
-      <c r="N55" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="80"/>
-      <c r="B56" s="27">
-        <v>41614</v>
-      </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G56" s="41"/>
-      <c r="H56" s="41"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="93"/>
+      <c r="B56" s="127"/>
+      <c r="C56" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="D56" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="E56" s="131">
+        <v>1.5</v>
+      </c>
+      <c r="F56" s="134"/>
+      <c r="G56" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56" s="135" t="s">
+        <v>123</v>
+      </c>
       <c r="I56" s="41"/>
       <c r="J56" s="41"/>
       <c r="K56" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L56" s="6"/>
       <c r="M56" s="10">
-        <f>SUM(E137:E141)</f>
+        <f>SUM(E134:E138)</f>
         <v>0</v>
       </c>
       <c r="N56" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="73">
-        <v>6</v>
-      </c>
-      <c r="B57" s="28">
-        <v>41617</v>
-      </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="6">
+    <row r="57" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="93"/>
+      <c r="B57" s="91"/>
+      <c r="C57" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="D57" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="E57" s="131">
+        <v>0.66</v>
+      </c>
+      <c r="F57" s="132"/>
+      <c r="G57" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H57" s="135" t="s">
+        <v>124</v>
+      </c>
+      <c r="I57" s="41"/>
+      <c r="J57" s="41"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="94"/>
+      <c r="B58" s="27">
+        <v>41614</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="69"/>
+      <c r="F58" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G57" s="42"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="42"/>
-      <c r="K57" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="L57" s="6"/>
-      <c r="M57" s="10">
-        <f>SUM(E142:E146)</f>
-        <v>0</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="81"/>
-      <c r="B58" s="28">
-        <v>41618</v>
-      </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="42"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="41"/>
       <c r="K58" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="10">
-        <f>SUM(E147:E151)</f>
+        <f>SUM(E139:E143)</f>
         <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
@@ -3289,9 +3323,11 @@
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="81"/>
+      <c r="A59" s="88">
+        <v>6</v>
+      </c>
       <c r="B59" s="28">
-        <v>41619</v>
+        <v>41617</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -3305,11 +3341,11 @@
       <c r="I59" s="42"/>
       <c r="J59" s="42"/>
       <c r="K59" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L59" s="6"/>
       <c r="M59" s="10">
-        <f>SUM(E152:E156)</f>
+        <f>SUM(E144:E148)</f>
         <v>0</v>
       </c>
       <c r="N59" s="3" t="s">
@@ -3317,9 +3353,9 @@
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="81"/>
+      <c r="A60" s="122"/>
       <c r="B60" s="28">
-        <v>41620</v>
+        <v>41618</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -3333,11 +3369,11 @@
       <c r="I60" s="42"/>
       <c r="J60" s="42"/>
       <c r="K60" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L60" s="6"/>
       <c r="M60" s="10">
-        <f>SUM(E157:E161)</f>
+        <f>SUM(E149:E153)</f>
         <v>0</v>
       </c>
       <c r="N60" s="3" t="s">
@@ -3345,9 +3381,9 @@
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="74"/>
+      <c r="A61" s="122"/>
       <c r="B61" s="28">
-        <v>41621</v>
+        <v>41619</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -3361,11 +3397,11 @@
       <c r="I61" s="42"/>
       <c r="J61" s="42"/>
       <c r="K61" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L61" s="6"/>
       <c r="M61" s="10">
-        <f>SUM(E162:E166)</f>
+        <f>SUM(E154:E158)</f>
         <v>0</v>
       </c>
       <c r="N61" s="3" t="s">
@@ -3373,29 +3409,27 @@
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="78">
-        <v>7</v>
-      </c>
-      <c r="B62" s="27">
-        <v>41624</v>
-      </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="69"/>
-      <c r="F62" s="5">
+      <c r="A62" s="122"/>
+      <c r="B62" s="28">
+        <v>41620</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G62" s="41"/>
-      <c r="H62" s="41"/>
-      <c r="I62" s="41"/>
-      <c r="J62" s="41"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="42"/>
       <c r="K62" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L62" s="6"/>
       <c r="M62" s="10">
-        <f>SUM(E167:E171)</f>
+        <f>SUM(E159:E163)</f>
         <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
@@ -3403,27 +3437,27 @@
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="79"/>
-      <c r="B63" s="27">
-        <v>41625</v>
-      </c>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="69"/>
-      <c r="F63" s="5">
+      <c r="A63" s="89"/>
+      <c r="B63" s="28">
+        <v>41621</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G63" s="41"/>
-      <c r="H63" s="41"/>
-      <c r="I63" s="41"/>
-      <c r="J63" s="41"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42"/>
       <c r="K63" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L63" s="6"/>
       <c r="M63" s="10">
-        <f>SUM(E172:E176)</f>
+        <f>SUM(E164:E168)</f>
         <v>0</v>
       </c>
       <c r="N63" s="3" t="s">
@@ -3431,9 +3465,11 @@
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="79"/>
+      <c r="A64" s="92">
+        <v>7</v>
+      </c>
       <c r="B64" s="27">
-        <v>41626</v>
+        <v>41624</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -3447,21 +3483,21 @@
       <c r="I64" s="41"/>
       <c r="J64" s="41"/>
       <c r="K64" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L64" s="6"/>
       <c r="M64" s="10">
-        <f>SUM(E177:E181)</f>
+        <f>SUM(E169:E173)</f>
         <v>0</v>
       </c>
       <c r="N64" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="79"/>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="93"/>
       <c r="B65" s="27">
-        <v>41627</v>
+        <v>41625</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
@@ -3474,11 +3510,22 @@
       <c r="H65" s="41"/>
       <c r="I65" s="41"/>
       <c r="J65" s="41"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="80"/>
+      <c r="K65" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L65" s="6"/>
+      <c r="M65" s="10">
+        <f>SUM(E174:E178)</f>
+        <v>0</v>
+      </c>
+      <c r="N65" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="93"/>
       <c r="B66" s="27">
-        <v>41628</v>
+        <v>41626</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
@@ -3491,47 +3538,58 @@
       <c r="H66" s="41"/>
       <c r="I66" s="41"/>
       <c r="J66" s="41"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="73">
+      <c r="K66" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L66" s="6"/>
+      <c r="M66" s="10">
+        <f>SUM(E179:E183)</f>
+        <v>0</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="93"/>
+      <c r="B67" s="27">
+        <v>41627</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="69"/>
+      <c r="F67" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G67" s="41"/>
+      <c r="H67" s="41"/>
+      <c r="I67" s="41"/>
+      <c r="J67" s="41"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="94"/>
+      <c r="B68" s="27">
+        <v>41628</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="69"/>
+      <c r="F68" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G68" s="41"/>
+      <c r="H68" s="41"/>
+      <c r="I68" s="41"/>
+      <c r="J68" s="41"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="88">
         <v>8</v>
       </c>
-      <c r="B67" s="28">
+      <c r="B69" s="28">
         <v>41631</v>
-      </c>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G67" s="42"/>
-      <c r="H67" s="42"/>
-      <c r="I67" s="42"/>
-      <c r="J67" s="42"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="81"/>
-      <c r="B68" s="28">
-        <v>41632</v>
-      </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G68" s="42"/>
-      <c r="H68" s="42"/>
-      <c r="I68" s="42"/>
-      <c r="J68" s="42"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="81"/>
-      <c r="B69" s="28">
-        <v>41633</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -3545,10 +3603,10 @@
       <c r="I69" s="42"/>
       <c r="J69" s="42"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="81"/>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="122"/>
       <c r="B70" s="28">
-        <v>41634</v>
+        <v>41632</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -3562,10 +3620,10 @@
       <c r="I70" s="42"/>
       <c r="J70" s="42"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="74"/>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="122"/>
       <c r="B71" s="28">
-        <v>41635</v>
+        <v>41633</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -3579,52 +3637,52 @@
       <c r="I71" s="42"/>
       <c r="J71" s="42"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="78">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="122"/>
+      <c r="B72" s="28">
+        <v>41634</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="42"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" s="89"/>
+      <c r="B73" s="28">
+        <v>41635</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G73" s="42"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="92">
         <v>9</v>
       </c>
-      <c r="B72" s="27">
+      <c r="B74" s="27">
         <v>41638</v>
-      </c>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="69"/>
-      <c r="F72" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G72" s="41"/>
-      <c r="H72" s="41"/>
-      <c r="I72" s="41"/>
-      <c r="J72" s="41"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="79"/>
-      <c r="B73" s="27">
-        <v>41639</v>
-      </c>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="69"/>
-      <c r="F73" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G73" s="41"/>
-      <c r="H73" s="41"/>
-      <c r="I73" s="41"/>
-      <c r="J73" s="41"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="79"/>
-      <c r="B74" s="27">
-        <v>41640</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="69"/>
       <c r="F74" s="5">
-        <f t="shared" ref="F74:F105" si="1">E74</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G74" s="41"/>
@@ -3632,16 +3690,16 @@
       <c r="I74" s="41"/>
       <c r="J74" s="41"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="79"/>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" s="93"/>
       <c r="B75" s="27">
-        <v>41641</v>
+        <v>41639</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="69"/>
       <c r="F75" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G75" s="41"/>
@@ -3649,16 +3707,16 @@
       <c r="I75" s="41"/>
       <c r="J75" s="41"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="80"/>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" s="93"/>
       <c r="B76" s="27">
-        <v>41642</v>
+        <v>41640</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="69"/>
       <c r="F76" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F76:F107" si="1">E76</f>
         <v>0</v>
       </c>
       <c r="G76" s="41"/>
@@ -3666,46 +3724,46 @@
       <c r="I76" s="41"/>
       <c r="J76" s="41"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="73">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" s="93"/>
+      <c r="B77" s="27">
+        <v>41641</v>
+      </c>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="69"/>
+      <c r="F77" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G77" s="41"/>
+      <c r="H77" s="41"/>
+      <c r="I77" s="41"/>
+      <c r="J77" s="41"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" s="94"/>
+      <c r="B78" s="27">
+        <v>41642</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="69"/>
+      <c r="F78" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G78" s="41"/>
+      <c r="H78" s="41"/>
+      <c r="I78" s="41"/>
+      <c r="J78" s="41"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" s="88">
         <v>10</v>
       </c>
-      <c r="B77" s="28">
+      <c r="B79" s="28">
         <v>41645</v>
-      </c>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G77" s="42"/>
-      <c r="H77" s="42"/>
-      <c r="I77" s="42"/>
-      <c r="J77" s="42"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="81"/>
-      <c r="B78" s="28">
-        <v>41646</v>
-      </c>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G78" s="42"/>
-      <c r="H78" s="42"/>
-      <c r="I78" s="42"/>
-      <c r="J78" s="42"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="81"/>
-      <c r="B79" s="28">
-        <v>41647</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -3719,10 +3777,10 @@
       <c r="I79" s="42"/>
       <c r="J79" s="42"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="81"/>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" s="122"/>
       <c r="B80" s="28">
-        <v>41648</v>
+        <v>41646</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -3737,9 +3795,9 @@
       <c r="J80" s="42"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="74"/>
+      <c r="A81" s="122"/>
       <c r="B81" s="28">
-        <v>41649</v>
+        <v>41647</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -3754,45 +3812,45 @@
       <c r="J81" s="42"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="78">
+      <c r="A82" s="122"/>
+      <c r="B82" s="28">
+        <v>41648</v>
+      </c>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G82" s="42"/>
+      <c r="H82" s="42"/>
+      <c r="I82" s="42"/>
+      <c r="J82" s="42"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="89"/>
+      <c r="B83" s="28">
+        <v>41649</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G83" s="42"/>
+      <c r="H83" s="42"/>
+      <c r="I83" s="42"/>
+      <c r="J83" s="42"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="92">
         <v>11</v>
       </c>
-      <c r="B82" s="27">
+      <c r="B84" s="27">
         <v>41652</v>
-      </c>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="69"/>
-      <c r="F82" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G82" s="41"/>
-      <c r="H82" s="41"/>
-      <c r="I82" s="41"/>
-      <c r="J82" s="41"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="79"/>
-      <c r="B83" s="27">
-        <v>41653</v>
-      </c>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="69"/>
-      <c r="F83" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G83" s="41"/>
-      <c r="H83" s="41"/>
-      <c r="I83" s="41"/>
-      <c r="J83" s="41"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="79"/>
-      <c r="B84" s="27">
-        <v>41654</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
@@ -3807,9 +3865,9 @@
       <c r="J84" s="41"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="79"/>
+      <c r="A85" s="93"/>
       <c r="B85" s="27">
-        <v>41655</v>
+        <v>41653</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
@@ -3824,9 +3882,9 @@
       <c r="J85" s="41"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="80"/>
+      <c r="A86" s="93"/>
       <c r="B86" s="27">
-        <v>41656</v>
+        <v>41654</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -3841,45 +3899,45 @@
       <c r="J86" s="41"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="73">
+      <c r="A87" s="93"/>
+      <c r="B87" s="27">
+        <v>41655</v>
+      </c>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="69"/>
+      <c r="F87" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G87" s="41"/>
+      <c r="H87" s="41"/>
+      <c r="I87" s="41"/>
+      <c r="J87" s="41"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="94"/>
+      <c r="B88" s="27">
+        <v>41656</v>
+      </c>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="69"/>
+      <c r="F88" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G88" s="41"/>
+      <c r="H88" s="41"/>
+      <c r="I88" s="41"/>
+      <c r="J88" s="41"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="88">
         <v>12</v>
       </c>
-      <c r="B87" s="28">
+      <c r="B89" s="28">
         <v>41659</v>
-      </c>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G87" s="42"/>
-      <c r="H87" s="42"/>
-      <c r="I87" s="42"/>
-      <c r="J87" s="42"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="81"/>
-      <c r="B88" s="28">
-        <v>41660</v>
-      </c>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G88" s="42"/>
-      <c r="H88" s="42"/>
-      <c r="I88" s="42"/>
-      <c r="J88" s="42"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="81"/>
-      <c r="B89" s="28">
-        <v>41661</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -3894,9 +3952,9 @@
       <c r="J89" s="42"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="81"/>
+      <c r="A90" s="122"/>
       <c r="B90" s="28">
-        <v>41662</v>
+        <v>41660</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -3911,9 +3969,9 @@
       <c r="J90" s="42"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="74"/>
+      <c r="A91" s="122"/>
       <c r="B91" s="28">
-        <v>41663</v>
+        <v>41661</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -3928,49 +3986,45 @@
       <c r="J91" s="42"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="78">
+      <c r="A92" s="122"/>
+      <c r="B92" s="28">
+        <v>41662</v>
+      </c>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G92" s="42"/>
+      <c r="H92" s="42"/>
+      <c r="I92" s="42"/>
+      <c r="J92" s="42"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="89"/>
+      <c r="B93" s="28">
+        <v>41663</v>
+      </c>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G93" s="42"/>
+      <c r="H93" s="42"/>
+      <c r="I93" s="42"/>
+      <c r="J93" s="42"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="92">
         <v>13</v>
       </c>
-      <c r="B92" s="27">
+      <c r="B94" s="27">
         <v>41666</v>
-      </c>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="69"/>
-      <c r="F92" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G92" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="H92" s="41"/>
-      <c r="I92" s="41"/>
-      <c r="J92" s="41"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="79"/>
-      <c r="B93" s="27">
-        <v>41667</v>
-      </c>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="69"/>
-      <c r="F93" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G93" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="H93" s="41"/>
-      <c r="I93" s="41"/>
-      <c r="J93" s="41"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="79"/>
-      <c r="B94" s="27">
-        <v>41668</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
@@ -3987,9 +4041,9 @@
       <c r="J94" s="41"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="79"/>
+      <c r="A95" s="93"/>
       <c r="B95" s="27">
-        <v>41669</v>
+        <v>41667</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
@@ -4006,9 +4060,9 @@
       <c r="J95" s="41"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="80"/>
+      <c r="A96" s="93"/>
       <c r="B96" s="27">
-        <v>41670</v>
+        <v>41668</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
@@ -4025,49 +4079,49 @@
       <c r="J96" s="41"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="73">
+      <c r="A97" s="93"/>
+      <c r="B97" s="27">
+        <v>41669</v>
+      </c>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="69"/>
+      <c r="F97" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G97" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="H97" s="41"/>
+      <c r="I97" s="41"/>
+      <c r="J97" s="41"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="94"/>
+      <c r="B98" s="27">
+        <v>41670</v>
+      </c>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="69"/>
+      <c r="F98" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G98" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="H98" s="41"/>
+      <c r="I98" s="41"/>
+      <c r="J98" s="41"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="88">
         <v>14</v>
       </c>
-      <c r="B97" s="28">
+      <c r="B99" s="28">
         <v>41673</v>
-      </c>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G97" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="H97" s="42"/>
-      <c r="I97" s="42"/>
-      <c r="J97" s="42"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="81"/>
-      <c r="B98" s="28">
-        <v>41674</v>
-      </c>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G98" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="H98" s="42"/>
-      <c r="I98" s="42"/>
-      <c r="J98" s="42"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="81"/>
-      <c r="B99" s="28">
-        <v>41675</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -4084,9 +4138,9 @@
       <c r="J99" s="42"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="81"/>
+      <c r="A100" s="122"/>
       <c r="B100" s="28">
-        <v>41676</v>
+        <v>41674</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
@@ -4103,9 +4157,9 @@
       <c r="J100" s="42"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="74"/>
+      <c r="A101" s="122"/>
       <c r="B101" s="28">
-        <v>41677</v>
+        <v>41675</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -4122,45 +4176,49 @@
       <c r="J101" s="42"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="78">
+      <c r="A102" s="122"/>
+      <c r="B102" s="28">
+        <v>41676</v>
+      </c>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G102" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H102" s="42"/>
+      <c r="I102" s="42"/>
+      <c r="J102" s="42"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="89"/>
+      <c r="B103" s="28">
+        <v>41677</v>
+      </c>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G103" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H103" s="42"/>
+      <c r="I103" s="42"/>
+      <c r="J103" s="42"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="92">
         <v>15</v>
       </c>
-      <c r="B102" s="27">
+      <c r="B104" s="27">
         <v>41680</v>
-      </c>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="69"/>
-      <c r="F102" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G102" s="41"/>
-      <c r="H102" s="41"/>
-      <c r="I102" s="41"/>
-      <c r="J102" s="41"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="79"/>
-      <c r="B103" s="27">
-        <v>41681</v>
-      </c>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="69"/>
-      <c r="F103" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G103" s="41"/>
-      <c r="H103" s="41"/>
-      <c r="I103" s="41"/>
-      <c r="J103" s="41"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="79"/>
-      <c r="B104" s="27">
-        <v>41682</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
@@ -4175,9 +4233,9 @@
       <c r="J104" s="41"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="79"/>
+      <c r="A105" s="93"/>
       <c r="B105" s="27">
-        <v>41683</v>
+        <v>41681</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
@@ -4192,15 +4250,15 @@
       <c r="J105" s="41"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="80"/>
+      <c r="A106" s="93"/>
       <c r="B106" s="27">
-        <v>41684</v>
+        <v>41682</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="69"/>
       <c r="F106" s="5">
-        <f t="shared" ref="F106:F137" si="2">E106</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G106" s="41"/>
@@ -4209,45 +4267,45 @@
       <c r="J106" s="41"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="73">
+      <c r="A107" s="93"/>
+      <c r="B107" s="27">
+        <v>41683</v>
+      </c>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="69"/>
+      <c r="F107" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G107" s="41"/>
+      <c r="H107" s="41"/>
+      <c r="I107" s="41"/>
+      <c r="J107" s="41"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="94"/>
+      <c r="B108" s="27">
+        <v>41684</v>
+      </c>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="69"/>
+      <c r="F108" s="5">
+        <f t="shared" ref="F108:F139" si="2">E108</f>
+        <v>0</v>
+      </c>
+      <c r="G108" s="41"/>
+      <c r="H108" s="41"/>
+      <c r="I108" s="41"/>
+      <c r="J108" s="41"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="88">
         <v>16</v>
       </c>
-      <c r="B107" s="28">
+      <c r="B109" s="28">
         <v>41687</v>
-      </c>
-      <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G107" s="42"/>
-      <c r="H107" s="42"/>
-      <c r="I107" s="42"/>
-      <c r="J107" s="42"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="81"/>
-      <c r="B108" s="28">
-        <v>41688</v>
-      </c>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="10"/>
-      <c r="F108" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G108" s="42"/>
-      <c r="H108" s="42"/>
-      <c r="I108" s="42"/>
-      <c r="J108" s="42"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="81"/>
-      <c r="B109" s="28">
-        <v>41689</v>
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
@@ -4262,9 +4320,9 @@
       <c r="J109" s="42"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="81"/>
+      <c r="A110" s="122"/>
       <c r="B110" s="28">
-        <v>41690</v>
+        <v>41688</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
@@ -4279,9 +4337,9 @@
       <c r="J110" s="42"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="74"/>
+      <c r="A111" s="122"/>
       <c r="B111" s="28">
-        <v>41691</v>
+        <v>41689</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -4296,45 +4354,45 @@
       <c r="J111" s="42"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="78">
+      <c r="A112" s="122"/>
+      <c r="B112" s="28">
+        <v>41690</v>
+      </c>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G112" s="42"/>
+      <c r="H112" s="42"/>
+      <c r="I112" s="42"/>
+      <c r="J112" s="42"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="89"/>
+      <c r="B113" s="28">
+        <v>41691</v>
+      </c>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G113" s="42"/>
+      <c r="H113" s="42"/>
+      <c r="I113" s="42"/>
+      <c r="J113" s="42"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="92">
         <v>17</v>
       </c>
-      <c r="B112" s="27">
+      <c r="B114" s="27">
         <v>41694</v>
-      </c>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="69"/>
-      <c r="F112" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G112" s="41"/>
-      <c r="H112" s="41"/>
-      <c r="I112" s="41"/>
-      <c r="J112" s="41"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="79"/>
-      <c r="B113" s="27">
-        <v>41695</v>
-      </c>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="69"/>
-      <c r="F113" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G113" s="41"/>
-      <c r="H113" s="41"/>
-      <c r="I113" s="41"/>
-      <c r="J113" s="41"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="79"/>
-      <c r="B114" s="27">
-        <v>41696</v>
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
@@ -4349,9 +4407,9 @@
       <c r="J114" s="41"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="79"/>
+      <c r="A115" s="93"/>
       <c r="B115" s="27">
-        <v>41697</v>
+        <v>41695</v>
       </c>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
@@ -4366,9 +4424,9 @@
       <c r="J115" s="41"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="80"/>
+      <c r="A116" s="93"/>
       <c r="B116" s="27">
-        <v>41698</v>
+        <v>41696</v>
       </c>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
@@ -4383,45 +4441,45 @@
       <c r="J116" s="41"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="73">
+      <c r="A117" s="93"/>
+      <c r="B117" s="27">
+        <v>41697</v>
+      </c>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="69"/>
+      <c r="F117" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G117" s="41"/>
+      <c r="H117" s="41"/>
+      <c r="I117" s="41"/>
+      <c r="J117" s="41"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="94"/>
+      <c r="B118" s="27">
+        <v>41698</v>
+      </c>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="69"/>
+      <c r="F118" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G118" s="41"/>
+      <c r="H118" s="41"/>
+      <c r="I118" s="41"/>
+      <c r="J118" s="41"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="88">
         <v>18</v>
       </c>
-      <c r="B117" s="28">
+      <c r="B119" s="28">
         <v>41701</v>
-      </c>
-      <c r="C117" s="6"/>
-      <c r="D117" s="6"/>
-      <c r="E117" s="10"/>
-      <c r="F117" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G117" s="42"/>
-      <c r="H117" s="42"/>
-      <c r="I117" s="42"/>
-      <c r="J117" s="42"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="81"/>
-      <c r="B118" s="28">
-        <v>41702</v>
-      </c>
-      <c r="C118" s="6"/>
-      <c r="D118" s="6"/>
-      <c r="E118" s="10"/>
-      <c r="F118" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G118" s="42"/>
-      <c r="H118" s="42"/>
-      <c r="I118" s="42"/>
-      <c r="J118" s="42"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="81"/>
-      <c r="B119" s="28">
-        <v>41703</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
@@ -4436,9 +4494,9 @@
       <c r="J119" s="42"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="81"/>
+      <c r="A120" s="122"/>
       <c r="B120" s="28">
-        <v>41704</v>
+        <v>41702</v>
       </c>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
@@ -4453,9 +4511,9 @@
       <c r="J120" s="42"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="74"/>
+      <c r="A121" s="122"/>
       <c r="B121" s="28">
-        <v>41705</v>
+        <v>41703</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
@@ -4470,45 +4528,45 @@
       <c r="J121" s="42"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="78">
+      <c r="A122" s="122"/>
+      <c r="B122" s="28">
+        <v>41704</v>
+      </c>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G122" s="42"/>
+      <c r="H122" s="42"/>
+      <c r="I122" s="42"/>
+      <c r="J122" s="42"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="89"/>
+      <c r="B123" s="28">
+        <v>41705</v>
+      </c>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G123" s="42"/>
+      <c r="H123" s="42"/>
+      <c r="I123" s="42"/>
+      <c r="J123" s="42"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="92">
         <v>19</v>
       </c>
-      <c r="B122" s="27">
+      <c r="B124" s="27">
         <v>41708</v>
-      </c>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="69"/>
-      <c r="F122" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G122" s="41"/>
-      <c r="H122" s="41"/>
-      <c r="I122" s="41"/>
-      <c r="J122" s="41"/>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="79"/>
-      <c r="B123" s="27">
-        <v>41709</v>
-      </c>
-      <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="69"/>
-      <c r="F123" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G123" s="41"/>
-      <c r="H123" s="41"/>
-      <c r="I123" s="41"/>
-      <c r="J123" s="41"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="79"/>
-      <c r="B124" s="27">
-        <v>41710</v>
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
@@ -4523,9 +4581,9 @@
       <c r="J124" s="41"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="79"/>
+      <c r="A125" s="93"/>
       <c r="B125" s="27">
-        <v>41711</v>
+        <v>41709</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
@@ -4540,9 +4598,9 @@
       <c r="J125" s="41"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="80"/>
+      <c r="A126" s="93"/>
       <c r="B126" s="27">
-        <v>41712</v>
+        <v>41710</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
@@ -4557,45 +4615,45 @@
       <c r="J126" s="41"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="73">
+      <c r="A127" s="93"/>
+      <c r="B127" s="27">
+        <v>41711</v>
+      </c>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="69"/>
+      <c r="F127" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G127" s="41"/>
+      <c r="H127" s="41"/>
+      <c r="I127" s="41"/>
+      <c r="J127" s="41"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="94"/>
+      <c r="B128" s="27">
+        <v>41712</v>
+      </c>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="69"/>
+      <c r="F128" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G128" s="41"/>
+      <c r="H128" s="41"/>
+      <c r="I128" s="41"/>
+      <c r="J128" s="41"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="88">
         <v>20</v>
       </c>
-      <c r="B127" s="28">
+      <c r="B129" s="28">
         <v>41715</v>
-      </c>
-      <c r="C127" s="6"/>
-      <c r="D127" s="6"/>
-      <c r="E127" s="10"/>
-      <c r="F127" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G127" s="42"/>
-      <c r="H127" s="42"/>
-      <c r="I127" s="42"/>
-      <c r="J127" s="42"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="81"/>
-      <c r="B128" s="28">
-        <v>41716</v>
-      </c>
-      <c r="C128" s="6"/>
-      <c r="D128" s="6"/>
-      <c r="E128" s="10"/>
-      <c r="F128" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G128" s="42"/>
-      <c r="H128" s="42"/>
-      <c r="I128" s="42"/>
-      <c r="J128" s="42"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="81"/>
-      <c r="B129" s="28">
-        <v>41717</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
@@ -4610,9 +4668,9 @@
       <c r="J129" s="42"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="81"/>
+      <c r="A130" s="122"/>
       <c r="B130" s="28">
-        <v>41718</v>
+        <v>41716</v>
       </c>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
@@ -4627,9 +4685,9 @@
       <c r="J130" s="42"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="74"/>
+      <c r="A131" s="122"/>
       <c r="B131" s="28">
-        <v>41719</v>
+        <v>41717</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -4644,45 +4702,45 @@
       <c r="J131" s="42"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="78">
+      <c r="A132" s="122"/>
+      <c r="B132" s="28">
+        <v>41718</v>
+      </c>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G132" s="42"/>
+      <c r="H132" s="42"/>
+      <c r="I132" s="42"/>
+      <c r="J132" s="42"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="89"/>
+      <c r="B133" s="28">
+        <v>41719</v>
+      </c>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="10"/>
+      <c r="F133" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G133" s="42"/>
+      <c r="H133" s="42"/>
+      <c r="I133" s="42"/>
+      <c r="J133" s="42"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="92">
         <v>21</v>
       </c>
-      <c r="B132" s="27">
+      <c r="B134" s="27">
         <v>41722</v>
-      </c>
-      <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
-      <c r="E132" s="69"/>
-      <c r="F132" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G132" s="41"/>
-      <c r="H132" s="41"/>
-      <c r="I132" s="41"/>
-      <c r="J132" s="41"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="79"/>
-      <c r="B133" s="27">
-        <v>41723</v>
-      </c>
-      <c r="C133" s="5"/>
-      <c r="D133" s="5"/>
-      <c r="E133" s="69"/>
-      <c r="F133" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G133" s="41"/>
-      <c r="H133" s="41"/>
-      <c r="I133" s="41"/>
-      <c r="J133" s="41"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="79"/>
-      <c r="B134" s="27">
-        <v>41724</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
@@ -4697,9 +4755,9 @@
       <c r="J134" s="41"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="79"/>
+      <c r="A135" s="93"/>
       <c r="B135" s="27">
-        <v>41725</v>
+        <v>41723</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
@@ -4714,9 +4772,9 @@
       <c r="J135" s="41"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="80"/>
+      <c r="A136" s="93"/>
       <c r="B136" s="27">
-        <v>41726</v>
+        <v>41724</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
@@ -4731,51 +4789,51 @@
       <c r="J136" s="41"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="73">
+      <c r="A137" s="93"/>
+      <c r="B137" s="27">
+        <v>41725</v>
+      </c>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="69"/>
+      <c r="F137" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G137" s="41"/>
+      <c r="H137" s="41"/>
+      <c r="I137" s="41"/>
+      <c r="J137" s="41"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="94"/>
+      <c r="B138" s="27">
+        <v>41726</v>
+      </c>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="69"/>
+      <c r="F138" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G138" s="41"/>
+      <c r="H138" s="41"/>
+      <c r="I138" s="41"/>
+      <c r="J138" s="41"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="88">
         <v>22</v>
       </c>
-      <c r="B137" s="28">
+      <c r="B139" s="28">
         <v>41729</v>
-      </c>
-      <c r="C137" s="6"/>
-      <c r="D137" s="6"/>
-      <c r="E137" s="10"/>
-      <c r="F137" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G137" s="42"/>
-      <c r="H137" s="42"/>
-      <c r="I137" s="42"/>
-      <c r="J137" s="42"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="81"/>
-      <c r="B138" s="28">
-        <v>41730</v>
-      </c>
-      <c r="C138" s="6"/>
-      <c r="D138" s="6"/>
-      <c r="E138" s="10"/>
-      <c r="F138" s="6">
-        <f t="shared" ref="F138:F169" si="3">E138</f>
-        <v>0</v>
-      </c>
-      <c r="G138" s="42"/>
-      <c r="H138" s="42"/>
-      <c r="I138" s="42"/>
-      <c r="J138" s="42"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="81"/>
-      <c r="B139" s="28">
-        <v>41731</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
       <c r="E139" s="10"/>
       <c r="F139" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G139" s="42"/>
@@ -4784,15 +4842,15 @@
       <c r="J139" s="42"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="81"/>
+      <c r="A140" s="122"/>
       <c r="B140" s="28">
-        <v>41732</v>
+        <v>41730</v>
       </c>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
       <c r="E140" s="10"/>
       <c r="F140" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F140:F171" si="3">E140</f>
         <v>0</v>
       </c>
       <c r="G140" s="42"/>
@@ -4801,9 +4859,9 @@
       <c r="J140" s="42"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="74"/>
+      <c r="A141" s="122"/>
       <c r="B141" s="28">
-        <v>41733</v>
+        <v>41731</v>
       </c>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
@@ -4818,45 +4876,45 @@
       <c r="J141" s="42"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="78">
+      <c r="A142" s="122"/>
+      <c r="B142" s="28">
+        <v>41732</v>
+      </c>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="10"/>
+      <c r="F142" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G142" s="42"/>
+      <c r="H142" s="42"/>
+      <c r="I142" s="42"/>
+      <c r="J142" s="42"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="89"/>
+      <c r="B143" s="28">
+        <v>41733</v>
+      </c>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G143" s="42"/>
+      <c r="H143" s="42"/>
+      <c r="I143" s="42"/>
+      <c r="J143" s="42"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="92">
         <v>23</v>
       </c>
-      <c r="B142" s="27">
+      <c r="B144" s="27">
         <v>41736</v>
-      </c>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
-      <c r="E142" s="69"/>
-      <c r="F142" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G142" s="41"/>
-      <c r="H142" s="41"/>
-      <c r="I142" s="41"/>
-      <c r="J142" s="41"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="79"/>
-      <c r="B143" s="27">
-        <v>41737</v>
-      </c>
-      <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
-      <c r="E143" s="69"/>
-      <c r="F143" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G143" s="41"/>
-      <c r="H143" s="41"/>
-      <c r="I143" s="41"/>
-      <c r="J143" s="41"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="79"/>
-      <c r="B144" s="27">
-        <v>41738</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
@@ -4871,9 +4929,9 @@
       <c r="J144" s="41"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="79"/>
+      <c r="A145" s="93"/>
       <c r="B145" s="27">
-        <v>41739</v>
+        <v>41737</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
@@ -4888,9 +4946,9 @@
       <c r="J145" s="41"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="80"/>
+      <c r="A146" s="93"/>
       <c r="B146" s="27">
-        <v>41740</v>
+        <v>41738</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
@@ -4905,45 +4963,45 @@
       <c r="J146" s="41"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="73">
+      <c r="A147" s="93"/>
+      <c r="B147" s="27">
+        <v>41739</v>
+      </c>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="69"/>
+      <c r="F147" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G147" s="41"/>
+      <c r="H147" s="41"/>
+      <c r="I147" s="41"/>
+      <c r="J147" s="41"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="94"/>
+      <c r="B148" s="27">
+        <v>41740</v>
+      </c>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="69"/>
+      <c r="F148" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G148" s="41"/>
+      <c r="H148" s="41"/>
+      <c r="I148" s="41"/>
+      <c r="J148" s="41"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="88">
         <v>24</v>
       </c>
-      <c r="B147" s="28">
+      <c r="B149" s="28">
         <v>41743</v>
-      </c>
-      <c r="C147" s="6"/>
-      <c r="D147" s="6"/>
-      <c r="E147" s="10"/>
-      <c r="F147" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G147" s="42"/>
-      <c r="H147" s="42"/>
-      <c r="I147" s="42"/>
-      <c r="J147" s="42"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="81"/>
-      <c r="B148" s="28">
-        <v>41744</v>
-      </c>
-      <c r="C148" s="6"/>
-      <c r="D148" s="6"/>
-      <c r="E148" s="10"/>
-      <c r="F148" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G148" s="42"/>
-      <c r="H148" s="42"/>
-      <c r="I148" s="42"/>
-      <c r="J148" s="42"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="81"/>
-      <c r="B149" s="28">
-        <v>41745</v>
       </c>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
@@ -4958,9 +5016,9 @@
       <c r="J149" s="42"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="81"/>
+      <c r="A150" s="122"/>
       <c r="B150" s="28">
-        <v>41746</v>
+        <v>41744</v>
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
@@ -4975,9 +5033,9 @@
       <c r="J150" s="42"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="74"/>
+      <c r="A151" s="122"/>
       <c r="B151" s="28">
-        <v>41747</v>
+        <v>41745</v>
       </c>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
@@ -4992,45 +5050,45 @@
       <c r="J151" s="42"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="78">
+      <c r="A152" s="122"/>
+      <c r="B152" s="28">
+        <v>41746</v>
+      </c>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="10"/>
+      <c r="F152" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G152" s="42"/>
+      <c r="H152" s="42"/>
+      <c r="I152" s="42"/>
+      <c r="J152" s="42"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="89"/>
+      <c r="B153" s="28">
+        <v>41747</v>
+      </c>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="10"/>
+      <c r="F153" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G153" s="42"/>
+      <c r="H153" s="42"/>
+      <c r="I153" s="42"/>
+      <c r="J153" s="42"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="92">
         <v>25</v>
       </c>
-      <c r="B152" s="27">
+      <c r="B154" s="27">
         <v>41750</v>
-      </c>
-      <c r="C152" s="5"/>
-      <c r="D152" s="5"/>
-      <c r="E152" s="69"/>
-      <c r="F152" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G152" s="41"/>
-      <c r="H152" s="41"/>
-      <c r="I152" s="41"/>
-      <c r="J152" s="41"/>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="79"/>
-      <c r="B153" s="27">
-        <v>41751</v>
-      </c>
-      <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
-      <c r="E153" s="69"/>
-      <c r="F153" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G153" s="41"/>
-      <c r="H153" s="41"/>
-      <c r="I153" s="41"/>
-      <c r="J153" s="41"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="79"/>
-      <c r="B154" s="27">
-        <v>41752</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
@@ -5045,9 +5103,9 @@
       <c r="J154" s="41"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="79"/>
+      <c r="A155" s="93"/>
       <c r="B155" s="27">
-        <v>41753</v>
+        <v>41751</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
@@ -5062,9 +5120,9 @@
       <c r="J155" s="41"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="80"/>
+      <c r="A156" s="93"/>
       <c r="B156" s="27">
-        <v>41754</v>
+        <v>41752</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
@@ -5079,45 +5137,45 @@
       <c r="J156" s="41"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="73">
+      <c r="A157" s="93"/>
+      <c r="B157" s="27">
+        <v>41753</v>
+      </c>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="69"/>
+      <c r="F157" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G157" s="41"/>
+      <c r="H157" s="41"/>
+      <c r="I157" s="41"/>
+      <c r="J157" s="41"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" s="94"/>
+      <c r="B158" s="27">
+        <v>41754</v>
+      </c>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="69"/>
+      <c r="F158" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G158" s="41"/>
+      <c r="H158" s="41"/>
+      <c r="I158" s="41"/>
+      <c r="J158" s="41"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" s="88">
         <v>26</v>
       </c>
-      <c r="B157" s="28">
+      <c r="B159" s="28">
         <v>41757</v>
-      </c>
-      <c r="C157" s="6"/>
-      <c r="D157" s="6"/>
-      <c r="E157" s="10"/>
-      <c r="F157" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G157" s="42"/>
-      <c r="H157" s="42"/>
-      <c r="I157" s="42"/>
-      <c r="J157" s="42"/>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="81"/>
-      <c r="B158" s="28">
-        <v>41758</v>
-      </c>
-      <c r="C158" s="6"/>
-      <c r="D158" s="6"/>
-      <c r="E158" s="10"/>
-      <c r="F158" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G158" s="42"/>
-      <c r="H158" s="42"/>
-      <c r="I158" s="42"/>
-      <c r="J158" s="42"/>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="81"/>
-      <c r="B159" s="28">
-        <v>41759</v>
       </c>
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
@@ -5132,9 +5190,9 @@
       <c r="J159" s="42"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="81"/>
+      <c r="A160" s="122"/>
       <c r="B160" s="28">
-        <v>41760</v>
+        <v>41758</v>
       </c>
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
@@ -5149,9 +5207,9 @@
       <c r="J160" s="42"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="74"/>
+      <c r="A161" s="122"/>
       <c r="B161" s="28">
-        <v>41761</v>
+        <v>41759</v>
       </c>
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
@@ -5166,45 +5224,45 @@
       <c r="J161" s="42"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="78">
+      <c r="A162" s="122"/>
+      <c r="B162" s="28">
+        <v>41760</v>
+      </c>
+      <c r="C162" s="6"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="10"/>
+      <c r="F162" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G162" s="42"/>
+      <c r="H162" s="42"/>
+      <c r="I162" s="42"/>
+      <c r="J162" s="42"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="89"/>
+      <c r="B163" s="28">
+        <v>41761</v>
+      </c>
+      <c r="C163" s="6"/>
+      <c r="D163" s="6"/>
+      <c r="E163" s="10"/>
+      <c r="F163" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G163" s="42"/>
+      <c r="H163" s="42"/>
+      <c r="I163" s="42"/>
+      <c r="J163" s="42"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="92">
         <v>27</v>
       </c>
-      <c r="B162" s="27">
+      <c r="B164" s="27">
         <v>41764</v>
-      </c>
-      <c r="C162" s="5"/>
-      <c r="D162" s="5"/>
-      <c r="E162" s="69"/>
-      <c r="F162" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G162" s="41"/>
-      <c r="H162" s="41"/>
-      <c r="I162" s="41"/>
-      <c r="J162" s="41"/>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="79"/>
-      <c r="B163" s="27">
-        <v>41765</v>
-      </c>
-      <c r="C163" s="5"/>
-      <c r="D163" s="5"/>
-      <c r="E163" s="69"/>
-      <c r="F163" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G163" s="41"/>
-      <c r="H163" s="41"/>
-      <c r="I163" s="41"/>
-      <c r="J163" s="41"/>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="79"/>
-      <c r="B164" s="27">
-        <v>41766</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
@@ -5219,9 +5277,9 @@
       <c r="J164" s="41"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="79"/>
+      <c r="A165" s="93"/>
       <c r="B165" s="27">
-        <v>41767</v>
+        <v>41765</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
@@ -5236,9 +5294,9 @@
       <c r="J165" s="41"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="80"/>
+      <c r="A166" s="93"/>
       <c r="B166" s="27">
-        <v>41768</v>
+        <v>41766</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
@@ -5253,45 +5311,45 @@
       <c r="J166" s="41"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="73">
+      <c r="A167" s="93"/>
+      <c r="B167" s="27">
+        <v>41767</v>
+      </c>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="69"/>
+      <c r="F167" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G167" s="41"/>
+      <c r="H167" s="41"/>
+      <c r="I167" s="41"/>
+      <c r="J167" s="41"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="94"/>
+      <c r="B168" s="27">
+        <v>41768</v>
+      </c>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="69"/>
+      <c r="F168" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G168" s="41"/>
+      <c r="H168" s="41"/>
+      <c r="I168" s="41"/>
+      <c r="J168" s="41"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" s="88">
         <v>28</v>
       </c>
-      <c r="B167" s="28">
+      <c r="B169" s="28">
         <v>41771</v>
-      </c>
-      <c r="C167" s="6"/>
-      <c r="D167" s="6"/>
-      <c r="E167" s="10"/>
-      <c r="F167" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G167" s="42"/>
-      <c r="H167" s="42"/>
-      <c r="I167" s="42"/>
-      <c r="J167" s="42"/>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="81"/>
-      <c r="B168" s="28">
-        <v>41772</v>
-      </c>
-      <c r="C168" s="6"/>
-      <c r="D168" s="6"/>
-      <c r="E168" s="10"/>
-      <c r="F168" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G168" s="42"/>
-      <c r="H168" s="42"/>
-      <c r="I168" s="42"/>
-      <c r="J168" s="42"/>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="81"/>
-      <c r="B169" s="28">
-        <v>41773</v>
       </c>
       <c r="C169" s="6"/>
       <c r="D169" s="6"/>
@@ -5306,15 +5364,15 @@
       <c r="J169" s="42"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="81"/>
+      <c r="A170" s="122"/>
       <c r="B170" s="28">
-        <v>41774</v>
+        <v>41772</v>
       </c>
       <c r="C170" s="6"/>
       <c r="D170" s="6"/>
       <c r="E170" s="10"/>
       <c r="F170" s="6">
-        <f t="shared" ref="F170:F181" si="4">E170</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G170" s="42"/>
@@ -5323,15 +5381,15 @@
       <c r="J170" s="42"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="74"/>
+      <c r="A171" s="122"/>
       <c r="B171" s="28">
-        <v>41775</v>
+        <v>41773</v>
       </c>
       <c r="C171" s="6"/>
       <c r="D171" s="6"/>
       <c r="E171" s="10"/>
       <c r="F171" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G171" s="42"/>
@@ -5340,45 +5398,45 @@
       <c r="J171" s="42"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="78">
+      <c r="A172" s="122"/>
+      <c r="B172" s="28">
+        <v>41774</v>
+      </c>
+      <c r="C172" s="6"/>
+      <c r="D172" s="6"/>
+      <c r="E172" s="10"/>
+      <c r="F172" s="6">
+        <f t="shared" ref="F172:F183" si="4">E172</f>
+        <v>0</v>
+      </c>
+      <c r="G172" s="42"/>
+      <c r="H172" s="42"/>
+      <c r="I172" s="42"/>
+      <c r="J172" s="42"/>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="89"/>
+      <c r="B173" s="28">
+        <v>41775</v>
+      </c>
+      <c r="C173" s="6"/>
+      <c r="D173" s="6"/>
+      <c r="E173" s="10"/>
+      <c r="F173" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G173" s="42"/>
+      <c r="H173" s="42"/>
+      <c r="I173" s="42"/>
+      <c r="J173" s="42"/>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" s="92">
         <v>29</v>
       </c>
-      <c r="B172" s="27">
+      <c r="B174" s="27">
         <v>41778</v>
-      </c>
-      <c r="C172" s="5"/>
-      <c r="D172" s="5"/>
-      <c r="E172" s="69"/>
-      <c r="F172" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G172" s="41"/>
-      <c r="H172" s="41"/>
-      <c r="I172" s="41"/>
-      <c r="J172" s="41"/>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A173" s="79"/>
-      <c r="B173" s="27">
-        <v>41779</v>
-      </c>
-      <c r="C173" s="5"/>
-      <c r="D173" s="5"/>
-      <c r="E173" s="69"/>
-      <c r="F173" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G173" s="41"/>
-      <c r="H173" s="41"/>
-      <c r="I173" s="41"/>
-      <c r="J173" s="41"/>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A174" s="79"/>
-      <c r="B174" s="27">
-        <v>41780</v>
       </c>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
@@ -5393,9 +5451,9 @@
       <c r="J174" s="41"/>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A175" s="79"/>
+      <c r="A175" s="93"/>
       <c r="B175" s="27">
-        <v>41781</v>
+        <v>41779</v>
       </c>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
@@ -5410,9 +5468,9 @@
       <c r="J175" s="41"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A176" s="80"/>
+      <c r="A176" s="93"/>
       <c r="B176" s="27">
-        <v>41782</v>
+        <v>41780</v>
       </c>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
@@ -5427,45 +5485,45 @@
       <c r="J176" s="41"/>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A177" s="82">
+      <c r="A177" s="93"/>
+      <c r="B177" s="27">
+        <v>41781</v>
+      </c>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="69"/>
+      <c r="F177" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G177" s="41"/>
+      <c r="H177" s="41"/>
+      <c r="I177" s="41"/>
+      <c r="J177" s="41"/>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" s="94"/>
+      <c r="B178" s="27">
+        <v>41782</v>
+      </c>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="69"/>
+      <c r="F178" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G178" s="41"/>
+      <c r="H178" s="41"/>
+      <c r="I178" s="41"/>
+      <c r="J178" s="41"/>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" s="128">
         <v>30</v>
       </c>
-      <c r="B177" s="28">
+      <c r="B179" s="28">
         <v>41785</v>
-      </c>
-      <c r="C177" s="2"/>
-      <c r="D177" s="2"/>
-      <c r="E177" s="4"/>
-      <c r="F177" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G177" s="43"/>
-      <c r="H177" s="43"/>
-      <c r="I177" s="43"/>
-      <c r="J177" s="43"/>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A178" s="83"/>
-      <c r="B178" s="28">
-        <v>41786</v>
-      </c>
-      <c r="C178" s="2"/>
-      <c r="D178" s="2"/>
-      <c r="E178" s="4"/>
-      <c r="F178" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G178" s="43"/>
-      <c r="H178" s="43"/>
-      <c r="I178" s="43"/>
-      <c r="J178" s="43"/>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A179" s="83"/>
-      <c r="B179" s="28">
-        <v>41787</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
@@ -5480,9 +5538,9 @@
       <c r="J179" s="43"/>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A180" s="83"/>
+      <c r="A180" s="129"/>
       <c r="B180" s="28">
-        <v>41788</v>
+        <v>41786</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
@@ -5497,9 +5555,9 @@
       <c r="J180" s="43"/>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A181" s="84"/>
+      <c r="A181" s="129"/>
       <c r="B181" s="28">
-        <v>41789</v>
+        <v>41787</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
@@ -5513,8 +5571,98 @@
       <c r="I181" s="43"/>
       <c r="J181" s="43"/>
     </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182" s="129"/>
+      <c r="B182" s="28">
+        <v>41788</v>
+      </c>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
+      <c r="E182" s="4"/>
+      <c r="F182" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G182" s="43"/>
+      <c r="H182" s="43"/>
+      <c r="I182" s="43"/>
+      <c r="J182" s="43"/>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A183" s="130"/>
+      <c r="B183" s="28">
+        <v>41789</v>
+      </c>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
+      <c r="E183" s="4"/>
+      <c r="F183" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G183" s="43"/>
+      <c r="H183" s="43"/>
+      <c r="I183" s="43"/>
+      <c r="J183" s="43"/>
+    </row>
   </sheetData>
-  <mergeCells count="70">
+  <mergeCells count="72">
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="F47:F52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="F55:F57"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="A44:A58"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A134:A138"/>
+    <mergeCell ref="A164:A168"/>
+    <mergeCell ref="A169:A173"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="A174:A178"/>
+    <mergeCell ref="A179:A183"/>
+    <mergeCell ref="A139:A143"/>
+    <mergeCell ref="A144:A148"/>
+    <mergeCell ref="A149:A153"/>
+    <mergeCell ref="A154:A158"/>
+    <mergeCell ref="A159:A163"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F25:F30"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A10:A18"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="G2:N4"/>
     <mergeCell ref="A7:A9"/>
@@ -5531,60 +5679,6 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A10:A18"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="A92:A96"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F25:F30"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A172:A176"/>
-    <mergeCell ref="A177:A181"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="A142:A146"/>
-    <mergeCell ref="A147:A151"/>
-    <mergeCell ref="A152:A156"/>
-    <mergeCell ref="A157:A161"/>
-    <mergeCell ref="A132:A136"/>
-    <mergeCell ref="A162:A166"/>
-    <mergeCell ref="A167:A171"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="A112:A116"/>
-    <mergeCell ref="A117:A121"/>
-    <mergeCell ref="A122:A126"/>
-    <mergeCell ref="A127:A131"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="A44:A56"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="B47:B52"/>
-    <mergeCell ref="F47:F52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="F53:F54"/>
   </mergeCells>
   <conditionalFormatting sqref="M7">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
@@ -5911,7 +6005,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M53:M54</xm:sqref>
+          <xm:sqref>M53:M55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="19" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
@@ -5930,48 +6024,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M55</xm:sqref>
+          <xm:sqref>M56:M57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="18" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M56</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="17" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M57</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="16" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5990,7 +6046,7 @@
           <xm:sqref>M58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="15" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
+          <x14:cfRule type="iconSet" priority="17" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6009,7 +6065,7 @@
           <xm:sqref>M59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
+          <x14:cfRule type="iconSet" priority="16" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6028,7 +6084,7 @@
           <xm:sqref>M60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
+          <x14:cfRule type="iconSet" priority="15" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6047,7 +6103,7 @@
           <xm:sqref>M61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+          <x14:cfRule type="iconSet" priority="14" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6066,7 +6122,7 @@
           <xm:sqref>M62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="11" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+          <x14:cfRule type="iconSet" priority="13" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6085,7 +6141,7 @@
           <xm:sqref>M63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="10" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+          <x14:cfRule type="iconSet" priority="12" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6102,6 +6158,44 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>M64</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="11" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M65</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="10" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="9" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
@@ -6158,7 +6252,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F19 F7:F8 F12:F14 F16 F21 F25 F23 F35 F37 F39:F42 F44 F47 F53 F55:F181</xm:sqref>
+          <xm:sqref>F19 F7:F8 F12:F14 F16 F21 F25 F23 F35 F37 F39:F42 F44 F47 F53 F58:F183</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNgo.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_HuyNgo.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="128">
   <si>
     <t>Week</t>
   </si>
@@ -432,8 +432,20 @@
  - Update entities</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Update timelog for team
- - Update timelog</t>
+    <t>update riskmanagement plan
+update risk management priority</t>
+  </si>
+  <si>
+    <t>update master plan.
+Update master design plan
+write usecase description</t>
+  </si>
+  <si>
+    <t>update usecase description
+update quality atttribute</t>
+  </si>
+  <si>
+    <t>trainning spring core</t>
   </si>
 </sst>
 </file>
@@ -745,7 +757,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -929,6 +941,129 @@
     <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -974,48 +1109,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1043,86 +1139,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf